--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,868 +34,1156 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.01.20251</t>
-  </si>
-  <si>
-    <t>28.01.20252</t>
-  </si>
-  <si>
-    <t>28.01.20253</t>
-  </si>
-  <si>
-    <t>28.01.20254</t>
-  </si>
-  <si>
-    <t>28.01.20255</t>
-  </si>
-  <si>
-    <t>28.01.20256</t>
-  </si>
-  <si>
-    <t>28.01.20257</t>
-  </si>
-  <si>
-    <t>28.01.20258</t>
-  </si>
-  <si>
-    <t>28.01.20259</t>
-  </si>
-  <si>
-    <t>28.01.202510</t>
-  </si>
-  <si>
-    <t>28.01.202511</t>
-  </si>
-  <si>
-    <t>28.01.202512</t>
-  </si>
-  <si>
-    <t>28.01.202513</t>
-  </si>
-  <si>
-    <t>28.01.202514</t>
-  </si>
-  <si>
-    <t>28.01.202515</t>
-  </si>
-  <si>
-    <t>28.01.202516</t>
-  </si>
-  <si>
-    <t>28.01.202517</t>
-  </si>
-  <si>
-    <t>28.01.202518</t>
-  </si>
-  <si>
-    <t>28.01.202519</t>
-  </si>
-  <si>
-    <t>28.01.202520</t>
-  </si>
-  <si>
-    <t>28.01.202521</t>
-  </si>
-  <si>
-    <t>28.01.202522</t>
-  </si>
-  <si>
-    <t>28.01.202523</t>
-  </si>
-  <si>
-    <t>28.01.202524</t>
-  </si>
-  <si>
-    <t>28.01.202525</t>
-  </si>
-  <si>
-    <t>28.01.202526</t>
-  </si>
-  <si>
-    <t>28.01.202527</t>
-  </si>
-  <si>
-    <t>28.01.202528</t>
-  </si>
-  <si>
-    <t>28.01.202529</t>
-  </si>
-  <si>
-    <t>28.01.202530</t>
-  </si>
-  <si>
-    <t>28.01.202531</t>
-  </si>
-  <si>
-    <t>28.01.202532</t>
-  </si>
-  <si>
-    <t>28.01.202533</t>
-  </si>
-  <si>
-    <t>28.01.202534</t>
-  </si>
-  <si>
-    <t>28.01.202535</t>
-  </si>
-  <si>
-    <t>28.01.202536</t>
-  </si>
-  <si>
-    <t>28.01.202537</t>
-  </si>
-  <si>
-    <t>28.01.202538</t>
-  </si>
-  <si>
-    <t>28.01.202539</t>
-  </si>
-  <si>
-    <t>28.01.202540</t>
-  </si>
-  <si>
-    <t>28.01.202541</t>
-  </si>
-  <si>
-    <t>28.01.202542</t>
-  </si>
-  <si>
-    <t>28.01.202543</t>
-  </si>
-  <si>
-    <t>28.01.202544</t>
-  </si>
-  <si>
-    <t>28.01.202545</t>
-  </si>
-  <si>
-    <t>28.01.202546</t>
-  </si>
-  <si>
-    <t>28.01.202547</t>
-  </si>
-  <si>
-    <t>28.01.202548</t>
-  </si>
-  <si>
-    <t>28.01.202549</t>
-  </si>
-  <si>
-    <t>28.01.202550</t>
-  </si>
-  <si>
-    <t>28.01.202551</t>
-  </si>
-  <si>
-    <t>28.01.202552</t>
-  </si>
-  <si>
-    <t>28.01.202553</t>
-  </si>
-  <si>
-    <t>28.01.202554</t>
-  </si>
-  <si>
-    <t>28.01.202555</t>
-  </si>
-  <si>
-    <t>28.01.202556</t>
-  </si>
-  <si>
-    <t>28.01.202557</t>
-  </si>
-  <si>
-    <t>28.01.202558</t>
-  </si>
-  <si>
-    <t>28.01.202559</t>
-  </si>
-  <si>
-    <t>28.01.202560</t>
-  </si>
-  <si>
-    <t>28.01.202561</t>
-  </si>
-  <si>
-    <t>28.01.202562</t>
-  </si>
-  <si>
-    <t>28.01.202563</t>
-  </si>
-  <si>
-    <t>28.01.202564</t>
-  </si>
-  <si>
-    <t>28.01.202565</t>
-  </si>
-  <si>
-    <t>28.01.202566</t>
-  </si>
-  <si>
-    <t>28.01.202567</t>
-  </si>
-  <si>
-    <t>28.01.202568</t>
-  </si>
-  <si>
-    <t>28.01.202569</t>
-  </si>
-  <si>
-    <t>28.01.202570</t>
-  </si>
-  <si>
-    <t>28.01.202571</t>
-  </si>
-  <si>
-    <t>28.01.202572</t>
-  </si>
-  <si>
-    <t>28.01.202573</t>
-  </si>
-  <si>
-    <t>28.01.202574</t>
-  </si>
-  <si>
-    <t>28.01.202575</t>
-  </si>
-  <si>
-    <t>28.01.202576</t>
-  </si>
-  <si>
-    <t>28.01.202577</t>
-  </si>
-  <si>
-    <t>28.01.202578</t>
-  </si>
-  <si>
-    <t>28.01.202579</t>
-  </si>
-  <si>
-    <t>28.01.202580</t>
-  </si>
-  <si>
-    <t>28.01.202581</t>
-  </si>
-  <si>
-    <t>28.01.202582</t>
-  </si>
-  <si>
-    <t>28.01.202583</t>
-  </si>
-  <si>
-    <t>28.01.202584</t>
-  </si>
-  <si>
-    <t>28.01.202585</t>
-  </si>
-  <si>
-    <t>28.01.202586</t>
-  </si>
-  <si>
-    <t>28.01.202587</t>
-  </si>
-  <si>
-    <t>28.01.202588</t>
-  </si>
-  <si>
-    <t>28.01.202589</t>
-  </si>
-  <si>
-    <t>28.01.202590</t>
-  </si>
-  <si>
-    <t>28.01.202591</t>
-  </si>
-  <si>
-    <t>28.01.202592</t>
-  </si>
-  <si>
-    <t>28.01.202593</t>
-  </si>
-  <si>
-    <t>28.01.202594</t>
-  </si>
-  <si>
-    <t>28.01.202595</t>
-  </si>
-  <si>
-    <t>28.01.202596</t>
-  </si>
-  <si>
-    <t>29.01.20251</t>
-  </si>
-  <si>
-    <t>29.01.20252</t>
-  </si>
-  <si>
-    <t>29.01.20253</t>
-  </si>
-  <si>
-    <t>29.01.20254</t>
-  </si>
-  <si>
-    <t>29.01.20255</t>
-  </si>
-  <si>
-    <t>29.01.20256</t>
-  </si>
-  <si>
-    <t>29.01.20257</t>
-  </si>
-  <si>
-    <t>29.01.20258</t>
-  </si>
-  <si>
-    <t>29.01.20259</t>
-  </si>
-  <si>
-    <t>29.01.202510</t>
-  </si>
-  <si>
-    <t>29.01.202511</t>
-  </si>
-  <si>
-    <t>29.01.202512</t>
-  </si>
-  <si>
-    <t>29.01.202513</t>
-  </si>
-  <si>
-    <t>29.01.202514</t>
-  </si>
-  <si>
-    <t>29.01.202515</t>
-  </si>
-  <si>
-    <t>29.01.202516</t>
-  </si>
-  <si>
-    <t>29.01.202517</t>
-  </si>
-  <si>
-    <t>29.01.202518</t>
-  </si>
-  <si>
-    <t>29.01.202519</t>
-  </si>
-  <si>
-    <t>29.01.202520</t>
-  </si>
-  <si>
-    <t>29.01.202521</t>
-  </si>
-  <si>
-    <t>29.01.202522</t>
-  </si>
-  <si>
-    <t>29.01.202523</t>
-  </si>
-  <si>
-    <t>29.01.202524</t>
-  </si>
-  <si>
-    <t>29.01.202525</t>
-  </si>
-  <si>
-    <t>29.01.202526</t>
-  </si>
-  <si>
-    <t>29.01.202527</t>
-  </si>
-  <si>
-    <t>29.01.202528</t>
-  </si>
-  <si>
-    <t>29.01.202529</t>
-  </si>
-  <si>
-    <t>29.01.202530</t>
-  </si>
-  <si>
-    <t>29.01.202531</t>
-  </si>
-  <si>
-    <t>29.01.202532</t>
-  </si>
-  <si>
-    <t>29.01.202533</t>
-  </si>
-  <si>
-    <t>29.01.202534</t>
-  </si>
-  <si>
-    <t>29.01.202535</t>
-  </si>
-  <si>
-    <t>29.01.202536</t>
-  </si>
-  <si>
-    <t>29.01.202537</t>
-  </si>
-  <si>
-    <t>29.01.202538</t>
-  </si>
-  <si>
-    <t>29.01.202539</t>
-  </si>
-  <si>
-    <t>29.01.202540</t>
-  </si>
-  <si>
-    <t>29.01.202541</t>
-  </si>
-  <si>
-    <t>29.01.202542</t>
-  </si>
-  <si>
-    <t>29.01.202543</t>
-  </si>
-  <si>
-    <t>29.01.202544</t>
-  </si>
-  <si>
-    <t>29.01.202545</t>
-  </si>
-  <si>
-    <t>29.01.202546</t>
-  </si>
-  <si>
-    <t>29.01.202547</t>
-  </si>
-  <si>
-    <t>29.01.202548</t>
-  </si>
-  <si>
-    <t>29.01.202549</t>
-  </si>
-  <si>
-    <t>29.01.202550</t>
-  </si>
-  <si>
-    <t>29.01.202551</t>
-  </si>
-  <si>
-    <t>29.01.202552</t>
-  </si>
-  <si>
-    <t>29.01.202553</t>
-  </si>
-  <si>
-    <t>29.01.202554</t>
-  </si>
-  <si>
-    <t>29.01.202555</t>
-  </si>
-  <si>
-    <t>29.01.202556</t>
-  </si>
-  <si>
-    <t>29.01.202557</t>
-  </si>
-  <si>
-    <t>29.01.202558</t>
-  </si>
-  <si>
-    <t>29.01.202559</t>
-  </si>
-  <si>
-    <t>29.01.202560</t>
-  </si>
-  <si>
-    <t>29.01.202561</t>
-  </si>
-  <si>
-    <t>29.01.202562</t>
-  </si>
-  <si>
-    <t>29.01.202563</t>
-  </si>
-  <si>
-    <t>29.01.202564</t>
-  </si>
-  <si>
-    <t>29.01.202565</t>
-  </si>
-  <si>
-    <t>29.01.202566</t>
-  </si>
-  <si>
-    <t>29.01.202567</t>
-  </si>
-  <si>
-    <t>29.01.202568</t>
-  </si>
-  <si>
-    <t>29.01.202569</t>
-  </si>
-  <si>
-    <t>29.01.202570</t>
-  </si>
-  <si>
-    <t>29.01.202571</t>
-  </si>
-  <si>
-    <t>29.01.202572</t>
-  </si>
-  <si>
-    <t>29.01.202573</t>
-  </si>
-  <si>
-    <t>29.01.202574</t>
-  </si>
-  <si>
-    <t>29.01.202575</t>
-  </si>
-  <si>
-    <t>29.01.202576</t>
-  </si>
-  <si>
-    <t>29.01.202577</t>
-  </si>
-  <si>
-    <t>29.01.202578</t>
-  </si>
-  <si>
-    <t>29.01.202579</t>
-  </si>
-  <si>
-    <t>29.01.202580</t>
-  </si>
-  <si>
-    <t>29.01.202581</t>
-  </si>
-  <si>
-    <t>29.01.202582</t>
-  </si>
-  <si>
-    <t>29.01.202583</t>
-  </si>
-  <si>
-    <t>29.01.202584</t>
-  </si>
-  <si>
-    <t>29.01.202585</t>
-  </si>
-  <si>
-    <t>29.01.202586</t>
-  </si>
-  <si>
-    <t>29.01.202587</t>
-  </si>
-  <si>
-    <t>29.01.202588</t>
-  </si>
-  <si>
-    <t>29.01.202589</t>
-  </si>
-  <si>
-    <t>29.01.202590</t>
-  </si>
-  <si>
-    <t>29.01.202591</t>
-  </si>
-  <si>
-    <t>29.01.202592</t>
-  </si>
-  <si>
-    <t>29.01.202593</t>
-  </si>
-  <si>
-    <t>29.01.202594</t>
-  </si>
-  <si>
-    <t>29.01.202595</t>
-  </si>
-  <si>
-    <t>29.01.202596</t>
-  </si>
-  <si>
-    <t>30.01.20251</t>
-  </si>
-  <si>
-    <t>30.01.20252</t>
-  </si>
-  <si>
-    <t>30.01.20253</t>
-  </si>
-  <si>
-    <t>30.01.20254</t>
-  </si>
-  <si>
-    <t>30.01.20255</t>
-  </si>
-  <si>
-    <t>30.01.20256</t>
-  </si>
-  <si>
-    <t>30.01.20257</t>
-  </si>
-  <si>
-    <t>30.01.20258</t>
-  </si>
-  <si>
-    <t>30.01.20259</t>
-  </si>
-  <si>
-    <t>30.01.202510</t>
-  </si>
-  <si>
-    <t>30.01.202511</t>
-  </si>
-  <si>
-    <t>30.01.202512</t>
-  </si>
-  <si>
-    <t>30.01.202513</t>
-  </si>
-  <si>
-    <t>30.01.202514</t>
-  </si>
-  <si>
-    <t>30.01.202515</t>
-  </si>
-  <si>
-    <t>30.01.202516</t>
-  </si>
-  <si>
-    <t>30.01.202517</t>
-  </si>
-  <si>
-    <t>30.01.202518</t>
-  </si>
-  <si>
-    <t>30.01.202519</t>
-  </si>
-  <si>
-    <t>30.01.202520</t>
-  </si>
-  <si>
-    <t>30.01.202521</t>
-  </si>
-  <si>
-    <t>30.01.202522</t>
-  </si>
-  <si>
-    <t>30.01.202523</t>
-  </si>
-  <si>
-    <t>30.01.202524</t>
-  </si>
-  <si>
-    <t>30.01.202525</t>
-  </si>
-  <si>
-    <t>30.01.202526</t>
-  </si>
-  <si>
-    <t>30.01.202527</t>
-  </si>
-  <si>
-    <t>30.01.202528</t>
-  </si>
-  <si>
-    <t>30.01.202529</t>
-  </si>
-  <si>
-    <t>30.01.202530</t>
-  </si>
-  <si>
-    <t>30.01.202531</t>
-  </si>
-  <si>
-    <t>30.01.202532</t>
-  </si>
-  <si>
-    <t>30.01.202533</t>
-  </si>
-  <si>
-    <t>30.01.202534</t>
-  </si>
-  <si>
-    <t>30.01.202535</t>
-  </si>
-  <si>
-    <t>30.01.202536</t>
-  </si>
-  <si>
-    <t>30.01.202537</t>
-  </si>
-  <si>
-    <t>30.01.202538</t>
-  </si>
-  <si>
-    <t>30.01.202539</t>
-  </si>
-  <si>
-    <t>30.01.202540</t>
-  </si>
-  <si>
-    <t>30.01.202541</t>
-  </si>
-  <si>
-    <t>30.01.202542</t>
-  </si>
-  <si>
-    <t>30.01.202543</t>
-  </si>
-  <si>
-    <t>30.01.202544</t>
-  </si>
-  <si>
-    <t>30.01.202545</t>
-  </si>
-  <si>
-    <t>30.01.202546</t>
-  </si>
-  <si>
-    <t>30.01.202547</t>
-  </si>
-  <si>
-    <t>30.01.202548</t>
-  </si>
-  <si>
-    <t>30.01.202549</t>
-  </si>
-  <si>
-    <t>30.01.202550</t>
-  </si>
-  <si>
-    <t>30.01.202551</t>
-  </si>
-  <si>
-    <t>30.01.202552</t>
-  </si>
-  <si>
-    <t>30.01.202553</t>
-  </si>
-  <si>
-    <t>30.01.202554</t>
-  </si>
-  <si>
-    <t>30.01.202555</t>
-  </si>
-  <si>
-    <t>30.01.202556</t>
-  </si>
-  <si>
-    <t>30.01.202557</t>
-  </si>
-  <si>
-    <t>30.01.202558</t>
-  </si>
-  <si>
-    <t>30.01.202559</t>
-  </si>
-  <si>
-    <t>30.01.202560</t>
-  </si>
-  <si>
-    <t>30.01.202561</t>
-  </si>
-  <si>
-    <t>30.01.202562</t>
-  </si>
-  <si>
-    <t>30.01.202563</t>
-  </si>
-  <si>
-    <t>30.01.202564</t>
-  </si>
-  <si>
-    <t>30.01.202565</t>
-  </si>
-  <si>
-    <t>30.01.202566</t>
-  </si>
-  <si>
-    <t>30.01.202567</t>
-  </si>
-  <si>
-    <t>30.01.202568</t>
-  </si>
-  <si>
-    <t>30.01.202569</t>
-  </si>
-  <si>
-    <t>30.01.202570</t>
-  </si>
-  <si>
-    <t>30.01.202571</t>
-  </si>
-  <si>
-    <t>30.01.202572</t>
-  </si>
-  <si>
-    <t>30.01.202573</t>
-  </si>
-  <si>
-    <t>30.01.202574</t>
-  </si>
-  <si>
-    <t>30.01.202575</t>
-  </si>
-  <si>
-    <t>30.01.202576</t>
-  </si>
-  <si>
-    <t>30.01.202577</t>
-  </si>
-  <si>
-    <t>30.01.202578</t>
-  </si>
-  <si>
-    <t>30.01.202579</t>
-  </si>
-  <si>
-    <t>30.01.202580</t>
-  </si>
-  <si>
-    <t>30.01.202581</t>
-  </si>
-  <si>
-    <t>30.01.202582</t>
-  </si>
-  <si>
-    <t>30.01.202583</t>
-  </si>
-  <si>
-    <t>30.01.202584</t>
-  </si>
-  <si>
-    <t>30.01.202585</t>
-  </si>
-  <si>
-    <t>30.01.202586</t>
-  </si>
-  <si>
-    <t>30.01.202587</t>
-  </si>
-  <si>
-    <t>30.01.202588</t>
-  </si>
-  <si>
-    <t>30.01.202589</t>
-  </si>
-  <si>
-    <t>30.01.202590</t>
-  </si>
-  <si>
-    <t>30.01.202591</t>
-  </si>
-  <si>
-    <t>30.01.202592</t>
-  </si>
-  <si>
-    <t>30.01.202593</t>
-  </si>
-  <si>
-    <t>30.01.202594</t>
-  </si>
-  <si>
-    <t>30.01.202595</t>
-  </si>
-  <si>
-    <t>30.01.202596</t>
+    <t>14.03.20251</t>
+  </si>
+  <si>
+    <t>14.03.20252</t>
+  </si>
+  <si>
+    <t>14.03.20253</t>
+  </si>
+  <si>
+    <t>14.03.20254</t>
+  </si>
+  <si>
+    <t>14.03.20255</t>
+  </si>
+  <si>
+    <t>14.03.20256</t>
+  </si>
+  <si>
+    <t>14.03.20257</t>
+  </si>
+  <si>
+    <t>14.03.20258</t>
+  </si>
+  <si>
+    <t>14.03.20259</t>
+  </si>
+  <si>
+    <t>14.03.202510</t>
+  </si>
+  <si>
+    <t>14.03.202511</t>
+  </si>
+  <si>
+    <t>14.03.202512</t>
+  </si>
+  <si>
+    <t>14.03.202513</t>
+  </si>
+  <si>
+    <t>14.03.202514</t>
+  </si>
+  <si>
+    <t>14.03.202515</t>
+  </si>
+  <si>
+    <t>14.03.202516</t>
+  </si>
+  <si>
+    <t>14.03.202517</t>
+  </si>
+  <si>
+    <t>14.03.202518</t>
+  </si>
+  <si>
+    <t>14.03.202519</t>
+  </si>
+  <si>
+    <t>14.03.202520</t>
+  </si>
+  <si>
+    <t>14.03.202521</t>
+  </si>
+  <si>
+    <t>14.03.202522</t>
+  </si>
+  <si>
+    <t>14.03.202523</t>
+  </si>
+  <si>
+    <t>14.03.202524</t>
+  </si>
+  <si>
+    <t>14.03.202525</t>
+  </si>
+  <si>
+    <t>14.03.202526</t>
+  </si>
+  <si>
+    <t>14.03.202527</t>
+  </si>
+  <si>
+    <t>14.03.202528</t>
+  </si>
+  <si>
+    <t>14.03.202529</t>
+  </si>
+  <si>
+    <t>14.03.202530</t>
+  </si>
+  <si>
+    <t>14.03.202531</t>
+  </si>
+  <si>
+    <t>14.03.202532</t>
+  </si>
+  <si>
+    <t>14.03.202533</t>
+  </si>
+  <si>
+    <t>14.03.202534</t>
+  </si>
+  <si>
+    <t>14.03.202535</t>
+  </si>
+  <si>
+    <t>14.03.202536</t>
+  </si>
+  <si>
+    <t>14.03.202537</t>
+  </si>
+  <si>
+    <t>14.03.202538</t>
+  </si>
+  <si>
+    <t>14.03.202539</t>
+  </si>
+  <si>
+    <t>14.03.202540</t>
+  </si>
+  <si>
+    <t>14.03.202541</t>
+  </si>
+  <si>
+    <t>14.03.202542</t>
+  </si>
+  <si>
+    <t>14.03.202543</t>
+  </si>
+  <si>
+    <t>14.03.202544</t>
+  </si>
+  <si>
+    <t>14.03.202545</t>
+  </si>
+  <si>
+    <t>14.03.202546</t>
+  </si>
+  <si>
+    <t>14.03.202547</t>
+  </si>
+  <si>
+    <t>14.03.202548</t>
+  </si>
+  <si>
+    <t>14.03.202549</t>
+  </si>
+  <si>
+    <t>14.03.202550</t>
+  </si>
+  <si>
+    <t>14.03.202551</t>
+  </si>
+  <si>
+    <t>14.03.202552</t>
+  </si>
+  <si>
+    <t>14.03.202553</t>
+  </si>
+  <si>
+    <t>14.03.202554</t>
+  </si>
+  <si>
+    <t>14.03.202555</t>
+  </si>
+  <si>
+    <t>14.03.202556</t>
+  </si>
+  <si>
+    <t>14.03.202557</t>
+  </si>
+  <si>
+    <t>14.03.202558</t>
+  </si>
+  <si>
+    <t>14.03.202559</t>
+  </si>
+  <si>
+    <t>14.03.202560</t>
+  </si>
+  <si>
+    <t>14.03.202561</t>
+  </si>
+  <si>
+    <t>14.03.202562</t>
+  </si>
+  <si>
+    <t>14.03.202563</t>
+  </si>
+  <si>
+    <t>14.03.202564</t>
+  </si>
+  <si>
+    <t>14.03.202565</t>
+  </si>
+  <si>
+    <t>14.03.202566</t>
+  </si>
+  <si>
+    <t>14.03.202567</t>
+  </si>
+  <si>
+    <t>14.03.202568</t>
+  </si>
+  <si>
+    <t>14.03.202569</t>
+  </si>
+  <si>
+    <t>14.03.202570</t>
+  </si>
+  <si>
+    <t>14.03.202571</t>
+  </si>
+  <si>
+    <t>14.03.202572</t>
+  </si>
+  <si>
+    <t>14.03.202573</t>
+  </si>
+  <si>
+    <t>14.03.202574</t>
+  </si>
+  <si>
+    <t>14.03.202575</t>
+  </si>
+  <si>
+    <t>14.03.202576</t>
+  </si>
+  <si>
+    <t>14.03.202577</t>
+  </si>
+  <si>
+    <t>14.03.202578</t>
+  </si>
+  <si>
+    <t>14.03.202579</t>
+  </si>
+  <si>
+    <t>14.03.202580</t>
+  </si>
+  <si>
+    <t>14.03.202581</t>
+  </si>
+  <si>
+    <t>14.03.202582</t>
+  </si>
+  <si>
+    <t>14.03.202583</t>
+  </si>
+  <si>
+    <t>14.03.202584</t>
+  </si>
+  <si>
+    <t>14.03.202585</t>
+  </si>
+  <si>
+    <t>14.03.202586</t>
+  </si>
+  <si>
+    <t>14.03.202587</t>
+  </si>
+  <si>
+    <t>14.03.202588</t>
+  </si>
+  <si>
+    <t>14.03.202589</t>
+  </si>
+  <si>
+    <t>14.03.202590</t>
+  </si>
+  <si>
+    <t>14.03.202591</t>
+  </si>
+  <si>
+    <t>14.03.202592</t>
+  </si>
+  <si>
+    <t>14.03.202593</t>
+  </si>
+  <si>
+    <t>14.03.202594</t>
+  </si>
+  <si>
+    <t>14.03.202595</t>
+  </si>
+  <si>
+    <t>14.03.202596</t>
+  </si>
+  <si>
+    <t>15.03.20251</t>
+  </si>
+  <si>
+    <t>15.03.20252</t>
+  </si>
+  <si>
+    <t>15.03.20253</t>
+  </si>
+  <si>
+    <t>15.03.20254</t>
+  </si>
+  <si>
+    <t>15.03.20255</t>
+  </si>
+  <si>
+    <t>15.03.20256</t>
+  </si>
+  <si>
+    <t>15.03.20257</t>
+  </si>
+  <si>
+    <t>15.03.20258</t>
+  </si>
+  <si>
+    <t>15.03.20259</t>
+  </si>
+  <si>
+    <t>15.03.202510</t>
+  </si>
+  <si>
+    <t>15.03.202511</t>
+  </si>
+  <si>
+    <t>15.03.202512</t>
+  </si>
+  <si>
+    <t>15.03.202513</t>
+  </si>
+  <si>
+    <t>15.03.202514</t>
+  </si>
+  <si>
+    <t>15.03.202515</t>
+  </si>
+  <si>
+    <t>15.03.202516</t>
+  </si>
+  <si>
+    <t>15.03.202517</t>
+  </si>
+  <si>
+    <t>15.03.202518</t>
+  </si>
+  <si>
+    <t>15.03.202519</t>
+  </si>
+  <si>
+    <t>15.03.202520</t>
+  </si>
+  <si>
+    <t>15.03.202521</t>
+  </si>
+  <si>
+    <t>15.03.202522</t>
+  </si>
+  <si>
+    <t>15.03.202523</t>
+  </si>
+  <si>
+    <t>15.03.202524</t>
+  </si>
+  <si>
+    <t>15.03.202525</t>
+  </si>
+  <si>
+    <t>15.03.202526</t>
+  </si>
+  <si>
+    <t>15.03.202527</t>
+  </si>
+  <si>
+    <t>15.03.202528</t>
+  </si>
+  <si>
+    <t>15.03.202529</t>
+  </si>
+  <si>
+    <t>15.03.202530</t>
+  </si>
+  <si>
+    <t>15.03.202531</t>
+  </si>
+  <si>
+    <t>15.03.202532</t>
+  </si>
+  <si>
+    <t>15.03.202533</t>
+  </si>
+  <si>
+    <t>15.03.202534</t>
+  </si>
+  <si>
+    <t>15.03.202535</t>
+  </si>
+  <si>
+    <t>15.03.202536</t>
+  </si>
+  <si>
+    <t>15.03.202537</t>
+  </si>
+  <si>
+    <t>15.03.202538</t>
+  </si>
+  <si>
+    <t>15.03.202539</t>
+  </si>
+  <si>
+    <t>15.03.202540</t>
+  </si>
+  <si>
+    <t>15.03.202541</t>
+  </si>
+  <si>
+    <t>15.03.202542</t>
+  </si>
+  <si>
+    <t>15.03.202543</t>
+  </si>
+  <si>
+    <t>15.03.202544</t>
+  </si>
+  <si>
+    <t>15.03.202545</t>
+  </si>
+  <si>
+    <t>15.03.202546</t>
+  </si>
+  <si>
+    <t>15.03.202547</t>
+  </si>
+  <si>
+    <t>15.03.202548</t>
+  </si>
+  <si>
+    <t>15.03.202549</t>
+  </si>
+  <si>
+    <t>15.03.202550</t>
+  </si>
+  <si>
+    <t>15.03.202551</t>
+  </si>
+  <si>
+    <t>15.03.202552</t>
+  </si>
+  <si>
+    <t>15.03.202553</t>
+  </si>
+  <si>
+    <t>15.03.202554</t>
+  </si>
+  <si>
+    <t>15.03.202555</t>
+  </si>
+  <si>
+    <t>15.03.202556</t>
+  </si>
+  <si>
+    <t>15.03.202557</t>
+  </si>
+  <si>
+    <t>15.03.202558</t>
+  </si>
+  <si>
+    <t>15.03.202559</t>
+  </si>
+  <si>
+    <t>15.03.202560</t>
+  </si>
+  <si>
+    <t>15.03.202561</t>
+  </si>
+  <si>
+    <t>15.03.202562</t>
+  </si>
+  <si>
+    <t>15.03.202563</t>
+  </si>
+  <si>
+    <t>15.03.202564</t>
+  </si>
+  <si>
+    <t>15.03.202565</t>
+  </si>
+  <si>
+    <t>15.03.202566</t>
+  </si>
+  <si>
+    <t>15.03.202567</t>
+  </si>
+  <si>
+    <t>15.03.202568</t>
+  </si>
+  <si>
+    <t>15.03.202569</t>
+  </si>
+  <si>
+    <t>15.03.202570</t>
+  </si>
+  <si>
+    <t>15.03.202571</t>
+  </si>
+  <si>
+    <t>15.03.202572</t>
+  </si>
+  <si>
+    <t>15.03.202573</t>
+  </si>
+  <si>
+    <t>15.03.202574</t>
+  </si>
+  <si>
+    <t>15.03.202575</t>
+  </si>
+  <si>
+    <t>15.03.202576</t>
+  </si>
+  <si>
+    <t>15.03.202577</t>
+  </si>
+  <si>
+    <t>15.03.202578</t>
+  </si>
+  <si>
+    <t>15.03.202579</t>
+  </si>
+  <si>
+    <t>15.03.202580</t>
+  </si>
+  <si>
+    <t>15.03.202581</t>
+  </si>
+  <si>
+    <t>15.03.202582</t>
+  </si>
+  <si>
+    <t>15.03.202583</t>
+  </si>
+  <si>
+    <t>15.03.202584</t>
+  </si>
+  <si>
+    <t>15.03.202585</t>
+  </si>
+  <si>
+    <t>15.03.202586</t>
+  </si>
+  <si>
+    <t>15.03.202587</t>
+  </si>
+  <si>
+    <t>15.03.202588</t>
+  </si>
+  <si>
+    <t>15.03.202589</t>
+  </si>
+  <si>
+    <t>15.03.202590</t>
+  </si>
+  <si>
+    <t>15.03.202591</t>
+  </si>
+  <si>
+    <t>15.03.202592</t>
+  </si>
+  <si>
+    <t>15.03.202593</t>
+  </si>
+  <si>
+    <t>15.03.202594</t>
+  </si>
+  <si>
+    <t>15.03.202595</t>
+  </si>
+  <si>
+    <t>15.03.202596</t>
+  </si>
+  <si>
+    <t>16.03.20251</t>
+  </si>
+  <si>
+    <t>16.03.20252</t>
+  </si>
+  <si>
+    <t>16.03.20253</t>
+  </si>
+  <si>
+    <t>16.03.20254</t>
+  </si>
+  <si>
+    <t>16.03.20255</t>
+  </si>
+  <si>
+    <t>16.03.20256</t>
+  </si>
+  <si>
+    <t>16.03.20257</t>
+  </si>
+  <si>
+    <t>16.03.20258</t>
+  </si>
+  <si>
+    <t>16.03.20259</t>
+  </si>
+  <si>
+    <t>16.03.202510</t>
+  </si>
+  <si>
+    <t>16.03.202511</t>
+  </si>
+  <si>
+    <t>16.03.202512</t>
+  </si>
+  <si>
+    <t>16.03.202513</t>
+  </si>
+  <si>
+    <t>16.03.202514</t>
+  </si>
+  <si>
+    <t>16.03.202515</t>
+  </si>
+  <si>
+    <t>16.03.202516</t>
+  </si>
+  <si>
+    <t>16.03.202517</t>
+  </si>
+  <si>
+    <t>16.03.202518</t>
+  </si>
+  <si>
+    <t>16.03.202519</t>
+  </si>
+  <si>
+    <t>16.03.202520</t>
+  </si>
+  <si>
+    <t>16.03.202521</t>
+  </si>
+  <si>
+    <t>16.03.202522</t>
+  </si>
+  <si>
+    <t>16.03.202523</t>
+  </si>
+  <si>
+    <t>16.03.202524</t>
+  </si>
+  <si>
+    <t>16.03.202525</t>
+  </si>
+  <si>
+    <t>16.03.202526</t>
+  </si>
+  <si>
+    <t>16.03.202527</t>
+  </si>
+  <si>
+    <t>16.03.202528</t>
+  </si>
+  <si>
+    <t>16.03.202529</t>
+  </si>
+  <si>
+    <t>16.03.202530</t>
+  </si>
+  <si>
+    <t>16.03.202531</t>
+  </si>
+  <si>
+    <t>16.03.202532</t>
+  </si>
+  <si>
+    <t>16.03.202533</t>
+  </si>
+  <si>
+    <t>16.03.202534</t>
+  </si>
+  <si>
+    <t>16.03.202535</t>
+  </si>
+  <si>
+    <t>16.03.202536</t>
+  </si>
+  <si>
+    <t>16.03.202537</t>
+  </si>
+  <si>
+    <t>16.03.202538</t>
+  </si>
+  <si>
+    <t>16.03.202539</t>
+  </si>
+  <si>
+    <t>16.03.202540</t>
+  </si>
+  <si>
+    <t>16.03.202541</t>
+  </si>
+  <si>
+    <t>16.03.202542</t>
+  </si>
+  <si>
+    <t>16.03.202543</t>
+  </si>
+  <si>
+    <t>16.03.202544</t>
+  </si>
+  <si>
+    <t>16.03.202545</t>
+  </si>
+  <si>
+    <t>16.03.202546</t>
+  </si>
+  <si>
+    <t>16.03.202547</t>
+  </si>
+  <si>
+    <t>16.03.202548</t>
+  </si>
+  <si>
+    <t>16.03.202549</t>
+  </si>
+  <si>
+    <t>16.03.202550</t>
+  </si>
+  <si>
+    <t>16.03.202551</t>
+  </si>
+  <si>
+    <t>16.03.202552</t>
+  </si>
+  <si>
+    <t>16.03.202553</t>
+  </si>
+  <si>
+    <t>16.03.202554</t>
+  </si>
+  <si>
+    <t>16.03.202555</t>
+  </si>
+  <si>
+    <t>16.03.202556</t>
+  </si>
+  <si>
+    <t>16.03.202557</t>
+  </si>
+  <si>
+    <t>16.03.202558</t>
+  </si>
+  <si>
+    <t>16.03.202559</t>
+  </si>
+  <si>
+    <t>16.03.202560</t>
+  </si>
+  <si>
+    <t>16.03.202561</t>
+  </si>
+  <si>
+    <t>16.03.202562</t>
+  </si>
+  <si>
+    <t>16.03.202563</t>
+  </si>
+  <si>
+    <t>16.03.202564</t>
+  </si>
+  <si>
+    <t>16.03.202565</t>
+  </si>
+  <si>
+    <t>16.03.202566</t>
+  </si>
+  <si>
+    <t>16.03.202567</t>
+  </si>
+  <si>
+    <t>16.03.202568</t>
+  </si>
+  <si>
+    <t>16.03.202569</t>
+  </si>
+  <si>
+    <t>16.03.202570</t>
+  </si>
+  <si>
+    <t>16.03.202571</t>
+  </si>
+  <si>
+    <t>16.03.202572</t>
+  </si>
+  <si>
+    <t>16.03.202573</t>
+  </si>
+  <si>
+    <t>16.03.202574</t>
+  </si>
+  <si>
+    <t>16.03.202575</t>
+  </si>
+  <si>
+    <t>16.03.202576</t>
+  </si>
+  <si>
+    <t>16.03.202577</t>
+  </si>
+  <si>
+    <t>16.03.202578</t>
+  </si>
+  <si>
+    <t>16.03.202579</t>
+  </si>
+  <si>
+    <t>16.03.202580</t>
+  </si>
+  <si>
+    <t>16.03.202581</t>
+  </si>
+  <si>
+    <t>16.03.202582</t>
+  </si>
+  <si>
+    <t>16.03.202583</t>
+  </si>
+  <si>
+    <t>16.03.202584</t>
+  </si>
+  <si>
+    <t>16.03.202585</t>
+  </si>
+  <si>
+    <t>16.03.202586</t>
+  </si>
+  <si>
+    <t>16.03.202587</t>
+  </si>
+  <si>
+    <t>16.03.202588</t>
+  </si>
+  <si>
+    <t>16.03.202589</t>
+  </si>
+  <si>
+    <t>16.03.202590</t>
+  </si>
+  <si>
+    <t>16.03.202591</t>
+  </si>
+  <si>
+    <t>16.03.202592</t>
+  </si>
+  <si>
+    <t>16.03.202593</t>
+  </si>
+  <si>
+    <t>16.03.202594</t>
+  </si>
+  <si>
+    <t>16.03.202595</t>
+  </si>
+  <si>
+    <t>16.03.202596</t>
+  </si>
+  <si>
+    <t>17.03.20251</t>
+  </si>
+  <si>
+    <t>17.03.20252</t>
+  </si>
+  <si>
+    <t>17.03.20253</t>
+  </si>
+  <si>
+    <t>17.03.20254</t>
+  </si>
+  <si>
+    <t>17.03.20255</t>
+  </si>
+  <si>
+    <t>17.03.20256</t>
+  </si>
+  <si>
+    <t>17.03.20257</t>
+  </si>
+  <si>
+    <t>17.03.20258</t>
+  </si>
+  <si>
+    <t>17.03.20259</t>
+  </si>
+  <si>
+    <t>17.03.202510</t>
+  </si>
+  <si>
+    <t>17.03.202511</t>
+  </si>
+  <si>
+    <t>17.03.202512</t>
+  </si>
+  <si>
+    <t>17.03.202513</t>
+  </si>
+  <si>
+    <t>17.03.202514</t>
+  </si>
+  <si>
+    <t>17.03.202515</t>
+  </si>
+  <si>
+    <t>17.03.202516</t>
+  </si>
+  <si>
+    <t>17.03.202517</t>
+  </si>
+  <si>
+    <t>17.03.202518</t>
+  </si>
+  <si>
+    <t>17.03.202519</t>
+  </si>
+  <si>
+    <t>17.03.202520</t>
+  </si>
+  <si>
+    <t>17.03.202521</t>
+  </si>
+  <si>
+    <t>17.03.202522</t>
+  </si>
+  <si>
+    <t>17.03.202523</t>
+  </si>
+  <si>
+    <t>17.03.202524</t>
+  </si>
+  <si>
+    <t>17.03.202525</t>
+  </si>
+  <si>
+    <t>17.03.202526</t>
+  </si>
+  <si>
+    <t>17.03.202527</t>
+  </si>
+  <si>
+    <t>17.03.202528</t>
+  </si>
+  <si>
+    <t>17.03.202529</t>
+  </si>
+  <si>
+    <t>17.03.202530</t>
+  </si>
+  <si>
+    <t>17.03.202531</t>
+  </si>
+  <si>
+    <t>17.03.202532</t>
+  </si>
+  <si>
+    <t>17.03.202533</t>
+  </si>
+  <si>
+    <t>17.03.202534</t>
+  </si>
+  <si>
+    <t>17.03.202535</t>
+  </si>
+  <si>
+    <t>17.03.202536</t>
+  </si>
+  <si>
+    <t>17.03.202537</t>
+  </si>
+  <si>
+    <t>17.03.202538</t>
+  </si>
+  <si>
+    <t>17.03.202539</t>
+  </si>
+  <si>
+    <t>17.03.202540</t>
+  </si>
+  <si>
+    <t>17.03.202541</t>
+  </si>
+  <si>
+    <t>17.03.202542</t>
+  </si>
+  <si>
+    <t>17.03.202543</t>
+  </si>
+  <si>
+    <t>17.03.202544</t>
+  </si>
+  <si>
+    <t>17.03.202545</t>
+  </si>
+  <si>
+    <t>17.03.202546</t>
+  </si>
+  <si>
+    <t>17.03.202547</t>
+  </si>
+  <si>
+    <t>17.03.202548</t>
+  </si>
+  <si>
+    <t>17.03.202549</t>
+  </si>
+  <si>
+    <t>17.03.202550</t>
+  </si>
+  <si>
+    <t>17.03.202551</t>
+  </si>
+  <si>
+    <t>17.03.202552</t>
+  </si>
+  <si>
+    <t>17.03.202553</t>
+  </si>
+  <si>
+    <t>17.03.202554</t>
+  </si>
+  <si>
+    <t>17.03.202555</t>
+  </si>
+  <si>
+    <t>17.03.202556</t>
+  </si>
+  <si>
+    <t>17.03.202557</t>
+  </si>
+  <si>
+    <t>17.03.202558</t>
+  </si>
+  <si>
+    <t>17.03.202559</t>
+  </si>
+  <si>
+    <t>17.03.202560</t>
+  </si>
+  <si>
+    <t>17.03.202561</t>
+  </si>
+  <si>
+    <t>17.03.202562</t>
+  </si>
+  <si>
+    <t>17.03.202563</t>
+  </si>
+  <si>
+    <t>17.03.202564</t>
+  </si>
+  <si>
+    <t>17.03.202565</t>
+  </si>
+  <si>
+    <t>17.03.202566</t>
+  </si>
+  <si>
+    <t>17.03.202567</t>
+  </si>
+  <si>
+    <t>17.03.202568</t>
+  </si>
+  <si>
+    <t>17.03.202569</t>
+  </si>
+  <si>
+    <t>17.03.202570</t>
+  </si>
+  <si>
+    <t>17.03.202571</t>
+  </si>
+  <si>
+    <t>17.03.202572</t>
+  </si>
+  <si>
+    <t>17.03.202573</t>
+  </si>
+  <si>
+    <t>17.03.202574</t>
+  </si>
+  <si>
+    <t>17.03.202575</t>
+  </si>
+  <si>
+    <t>17.03.202576</t>
+  </si>
+  <si>
+    <t>17.03.202577</t>
+  </si>
+  <si>
+    <t>17.03.202578</t>
+  </si>
+  <si>
+    <t>17.03.202579</t>
+  </si>
+  <si>
+    <t>17.03.202580</t>
+  </si>
+  <si>
+    <t>17.03.202581</t>
+  </si>
+  <si>
+    <t>17.03.202582</t>
+  </si>
+  <si>
+    <t>17.03.202583</t>
+  </si>
+  <si>
+    <t>17.03.202584</t>
+  </si>
+  <si>
+    <t>17.03.202585</t>
+  </si>
+  <si>
+    <t>17.03.202586</t>
+  </si>
+  <si>
+    <t>17.03.202587</t>
+  </si>
+  <si>
+    <t>17.03.202588</t>
+  </si>
+  <si>
+    <t>17.03.202589</t>
+  </si>
+  <si>
+    <t>17.03.202590</t>
+  </si>
+  <si>
+    <t>17.03.202591</t>
+  </si>
+  <si>
+    <t>17.03.202592</t>
+  </si>
+  <si>
+    <t>17.03.202593</t>
+  </si>
+  <si>
+    <t>17.03.202594</t>
+  </si>
+  <si>
+    <t>17.03.202595</t>
+  </si>
+  <si>
+    <t>17.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,16 +1573,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45685</v>
+        <v>45730</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>-18</v>
       </c>
       <c r="C2">
-        <v>-32.37</v>
+        <v>40.14</v>
       </c>
       <c r="D2">
-        <v>959.45</v>
+        <v>40.14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1305,16 +1593,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45685.01041666666</v>
+        <v>45730.01041666666</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C3">
-        <v>183.58</v>
+        <v>-1742.56</v>
       </c>
       <c r="D3">
-        <v>694.58</v>
+        <v>840</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1325,16 +1613,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45685.02083333334</v>
+        <v>45730.02083333334</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>28.36</v>
+        <v>-3881.13</v>
       </c>
       <c r="D4">
-        <v>28.36</v>
+        <v>-3881.13</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1345,16 +1633,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45685.03125</v>
+        <v>45730.03125</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>-267.14</v>
+        <v>-4499</v>
       </c>
       <c r="D5">
-        <v>-267.14</v>
+        <v>-4499</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1365,16 +1653,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45685.04166666666</v>
+        <v>45730.04166666666</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>-198.47</v>
+        <v>-4499</v>
       </c>
       <c r="D6">
-        <v>-198.47</v>
+        <v>-4499</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1385,16 +1673,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45685.05208333334</v>
+        <v>45730.05208333334</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>-279.49</v>
+        <v>-4499</v>
       </c>
       <c r="D7">
-        <v>-279.49</v>
+        <v>-4499</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1405,16 +1693,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45685.0625</v>
+        <v>45730.0625</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>-1300.76</v>
+        <v>-4979.96</v>
       </c>
       <c r="D8">
-        <v>-1300.76</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1425,16 +1713,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45685.07291666666</v>
+        <v>45730.07291666666</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>-3019.97</v>
+        <v>-3541.71</v>
       </c>
       <c r="D9">
-        <v>-3019.97</v>
+        <v>-3541.71</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1445,16 +1733,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45685.08333333334</v>
+        <v>45730.08333333334</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>-360.85</v>
+        <v>-614.14</v>
       </c>
       <c r="D10">
-        <v>-360.85</v>
+        <v>-614.14</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1465,16 +1753,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45685.09375</v>
+        <v>45730.09375</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>190.02</v>
+        <v>254.73</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>254.73</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1485,16 +1773,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45685.10416666666</v>
+        <v>45730.10416666666</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="C12">
-        <v>268.22</v>
+        <v>979.78</v>
       </c>
       <c r="D12">
-        <v>422.86</v>
+        <v>979.78</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1505,16 +1793,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45685.11458333334</v>
+        <v>45730.11458333334</v>
       </c>
       <c r="B13">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="C13">
-        <v>680.13</v>
+        <v>975.65</v>
       </c>
       <c r="D13">
-        <v>680.13</v>
+        <v>975.65</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1525,16 +1813,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45685.125</v>
+        <v>45730.125</v>
       </c>
       <c r="B14">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>789.03</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>789.03</v>
+        <v>965.74</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1545,16 +1833,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45685.13541666666</v>
+        <v>45730.13541666666</v>
       </c>
       <c r="B15">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="C15">
-        <v>698.04</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>698.04</v>
+        <v>5795.61</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1565,16 +1853,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45685.14583333334</v>
+        <v>45730.14583333334</v>
       </c>
       <c r="B16">
-        <v>-5</v>
+        <v>-74</v>
       </c>
       <c r="C16">
-        <v>786.03</v>
+        <v>3951.86</v>
       </c>
       <c r="D16">
-        <v>786.03</v>
+        <v>3951.86</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1585,16 +1873,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45685.15625</v>
+        <v>45730.15625</v>
       </c>
       <c r="B17">
-        <v>-8</v>
+        <v>-26</v>
       </c>
       <c r="C17">
-        <v>811.75</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>811.75</v>
+        <v>3952.61</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1605,16 +1893,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45685.16666666666</v>
+        <v>45730.16666666666</v>
       </c>
       <c r="B18">
-        <v>-0</v>
+        <v>-58</v>
       </c>
       <c r="C18">
-        <v>346.91</v>
+        <v>1877.69</v>
       </c>
       <c r="D18">
-        <v>685.61</v>
+        <v>1877.69</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1625,16 +1913,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45685.17708333334</v>
+        <v>45730.17708333334</v>
       </c>
       <c r="B19">
-        <v>-0</v>
+        <v>-54</v>
       </c>
       <c r="C19">
-        <v>327.08</v>
+        <v>972.03</v>
       </c>
       <c r="D19">
-        <v>688.46</v>
+        <v>972.03</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1645,16 +1933,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45685.1875</v>
+        <v>45730.1875</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>-85</v>
       </c>
       <c r="C20">
-        <v>350</v>
+        <v>988.05</v>
       </c>
       <c r="D20">
-        <v>698.21</v>
+        <v>988.05</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1665,16 +1953,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45685.19791666666</v>
+        <v>45730.19791666666</v>
       </c>
       <c r="B21">
-        <v>-4</v>
+        <v>-69</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1034.37</v>
       </c>
       <c r="D21">
-        <v>786.76</v>
+        <v>1034.37</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1685,16 +1973,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45685.20833333334</v>
+        <v>45730.20833333334</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>-10</v>
       </c>
       <c r="C22">
-        <v>87.95999999999999</v>
+        <v>-4444.51</v>
       </c>
       <c r="D22">
-        <v>87.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1705,16 +1993,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45685.21875</v>
+        <v>45730.21875</v>
       </c>
       <c r="B23">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>315.78</v>
+        <v>-3778.32</v>
       </c>
       <c r="D23">
-        <v>1051.73</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1725,16 +2013,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45685.22916666666</v>
+        <v>45730.22916666666</v>
       </c>
       <c r="B24">
-        <v>-24</v>
+        <v>-20</v>
       </c>
       <c r="C24">
-        <v>2004.98</v>
+        <v>-2652.79</v>
       </c>
       <c r="D24">
-        <v>2004.98</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1745,16 +2033,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45685.23958333334</v>
+        <v>45730.23958333334</v>
       </c>
       <c r="B25">
-        <v>-39</v>
+        <v>-49</v>
       </c>
       <c r="C25">
-        <v>5704.73</v>
+        <v>-316.96</v>
       </c>
       <c r="D25">
-        <v>5704.73</v>
+        <v>-316.96</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1765,16 +2053,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45685.25</v>
+        <v>45730.25</v>
       </c>
       <c r="B26">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="C26">
-        <v>1736.61</v>
+        <v>-5550.87</v>
       </c>
       <c r="D26">
-        <v>1736.61</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1785,16 +2073,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45685.26041666666</v>
+        <v>45730.26041666666</v>
       </c>
       <c r="B27">
-        <v>-20</v>
+        <v>-103</v>
       </c>
       <c r="C27">
-        <v>1324.34</v>
+        <v>358.1</v>
       </c>
       <c r="D27">
-        <v>1324.34</v>
+        <v>358.1</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1805,16 +2093,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45685.27083333334</v>
+        <v>45730.27083333334</v>
       </c>
       <c r="B28">
-        <v>-13</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>10.64</v>
       </c>
       <c r="D28">
-        <v>1260.23</v>
+        <v>1021.75</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1825,16 +2113,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45685.28125</v>
+        <v>45730.28125</v>
       </c>
       <c r="B29">
-        <v>-35</v>
+        <v>81</v>
       </c>
       <c r="C29">
-        <v>5493.33</v>
+        <v>-75.67</v>
       </c>
       <c r="D29">
-        <v>5493.33</v>
+        <v>-75.67</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1845,16 +2133,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45685.29166666666</v>
+        <v>45730.29166666666</v>
       </c>
       <c r="B30">
-        <v>-21</v>
+        <v>83</v>
       </c>
       <c r="C30">
-        <v>1057.67</v>
+        <v>-46.99</v>
       </c>
       <c r="D30">
-        <v>1057.67</v>
+        <v>-46.99</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1865,16 +2153,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45685.30208333334</v>
+        <v>45730.30208333334</v>
       </c>
       <c r="B31">
-        <v>-6</v>
+        <v>101</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-53.02</v>
       </c>
       <c r="D31">
-        <v>889.47</v>
+        <v>-53.02</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1885,16 +2173,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45685.3125</v>
+        <v>45730.3125</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>321.93</v>
+        <v>125.82</v>
       </c>
       <c r="D32">
-        <v>700</v>
+        <v>125.82</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1905,16 +2193,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45685.32291666666</v>
+        <v>45730.32291666666</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>160.25</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D33">
-        <v>160.25</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1925,16 +2213,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45685.33333333334</v>
+        <v>45730.33333333334</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>282.61</v>
+        <v>778.8099999999999</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>778.8099999999999</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1945,16 +2233,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45685.34375</v>
+        <v>45730.34375</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>252.46</v>
+        <v>640.53</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>640.53</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1965,16 +2253,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45685.35416666666</v>
+        <v>45730.35416666666</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>165.85</v>
+        <v>627.86</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>627.86</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1985,16 +2273,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45685.36458333334</v>
+        <v>45730.36458333334</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>-16.21</v>
+        <v>625.89</v>
       </c>
       <c r="D37">
-        <v>-16.21</v>
+        <v>625.89</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -2005,16 +2293,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45685.375</v>
+        <v>45730.375</v>
       </c>
       <c r="B38">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>-20.11</v>
+        <v>6542.96</v>
       </c>
       <c r="D38">
-        <v>-20.11</v>
+        <v>6542.96</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -2025,16 +2313,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45685.38541666666</v>
+        <v>45730.38541666666</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>-74</v>
       </c>
       <c r="C39">
-        <v>1.56</v>
+        <v>1270.56</v>
       </c>
       <c r="D39">
-        <v>1.56</v>
+        <v>1270.56</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -2045,16 +2333,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45685.39583333334</v>
+        <v>45730.39583333334</v>
       </c>
       <c r="B40">
-        <v>75</v>
+        <v>-68</v>
       </c>
       <c r="C40">
-        <v>0.33</v>
+        <v>698.86</v>
       </c>
       <c r="D40">
-        <v>0.33</v>
+        <v>698.86</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -2065,16 +2353,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45685.40625</v>
+        <v>45730.40625</v>
       </c>
       <c r="B41">
-        <v>77</v>
+        <v>-39</v>
       </c>
       <c r="C41">
-        <v>4.99</v>
+        <v>873.66</v>
       </c>
       <c r="D41">
-        <v>4.99</v>
+        <v>873.66</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -2085,16 +2373,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45685.41666666666</v>
+        <v>45730.41666666666</v>
       </c>
       <c r="B42">
-        <v>63</v>
+        <v>-22</v>
       </c>
       <c r="C42">
-        <v>-6.67</v>
+        <v>601.29</v>
       </c>
       <c r="D42">
-        <v>-6.67</v>
+        <v>601.29</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -2105,16 +2393,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45685.42708333334</v>
+        <v>45730.42708333334</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -2125,16 +2413,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45685.4375</v>
+        <v>45730.4375</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-10.68</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-10.68</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -2145,16 +2433,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45685.44791666666</v>
+        <v>45730.44791666666</v>
       </c>
       <c r="B45">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -2165,16 +2453,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45685.45833333334</v>
+        <v>45730.45833333334</v>
       </c>
       <c r="B46">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-10.32</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-10.32</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -2185,16 +2473,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45685.46875</v>
+        <v>45730.46875</v>
       </c>
       <c r="B47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -2205,16 +2493,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45685.47916666666</v>
+        <v>45730.47916666666</v>
       </c>
       <c r="B48">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -2225,16 +2513,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45685.48958333334</v>
+        <v>45730.48958333334</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>29.64</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>29.64</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -2245,16 +2533,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45685.5</v>
+        <v>45730.5</v>
       </c>
       <c r="B50">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -2265,16 +2553,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45685.51041666666</v>
+        <v>45730.51041666666</v>
       </c>
       <c r="B51">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>140.9</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>140.9</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -2285,16 +2573,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45685.52083333334</v>
+        <v>45730.52083333334</v>
       </c>
       <c r="B52">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>156.8</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>156.8</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2305,16 +2593,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45685.53125</v>
+        <v>45730.53125</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>142.1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>142.1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2325,16 +2613,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45685.54166666666</v>
+        <v>45730.54166666666</v>
       </c>
       <c r="B54">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>-545.5</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-545.5</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2345,16 +2633,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45685.55208333334</v>
+        <v>45730.55208333334</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>29.61</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>29.61</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2365,16 +2653,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45685.5625</v>
+        <v>45730.5625</v>
       </c>
       <c r="B56">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2385,16 +2673,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45685.57291666666</v>
+        <v>45730.57291666666</v>
       </c>
       <c r="B57">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>-2015.91</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-2015.91</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2405,16 +2693,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45685.58333333334</v>
+        <v>45730.58333333334</v>
       </c>
       <c r="B58">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>-1037.55</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-1037.55</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2425,16 +2713,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45685.59375</v>
+        <v>45730.59375</v>
       </c>
       <c r="B59">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>9.51</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>9.51</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2445,16 +2733,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45685.60416666666</v>
+        <v>45730.60416666666</v>
       </c>
       <c r="B60">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>-616.16</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-616.16</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2465,16 +2753,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45685.61458333334</v>
+        <v>45730.61458333334</v>
       </c>
       <c r="B61">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>4.56</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2485,16 +2773,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45685.625</v>
+        <v>45730.625</v>
       </c>
       <c r="B62">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-70.7</v>
+        <v>963.61</v>
       </c>
       <c r="D62">
-        <v>-70.7</v>
+        <v>963.61</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2505,16 +2793,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45685.63541666666</v>
+        <v>45730.63541666666</v>
       </c>
       <c r="B63">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>15.46</v>
+        <v>3781.39</v>
       </c>
       <c r="D63">
-        <v>15.46</v>
+        <v>3781.39</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2525,16 +2813,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45685.64583333334</v>
+        <v>45730.64583333334</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>2.09</v>
+        <v>358.3</v>
       </c>
       <c r="D64">
-        <v>2.09</v>
+        <v>892.02</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2545,16 +2833,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45685.65625</v>
+        <v>45730.65625</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>3.85</v>
+        <v>391.34</v>
       </c>
       <c r="D65">
-        <v>3.85</v>
+        <v>843.77</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2565,16 +2853,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45685.66666666666</v>
+        <v>45730.66666666666</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-3649.67</v>
+        <v>391.87</v>
       </c>
       <c r="D66">
-        <v>-3649.67</v>
+        <v>843.0700000000001</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2585,16 +2873,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45685.67708333334</v>
+        <v>45730.67708333334</v>
       </c>
       <c r="B67">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>-3067.34</v>
+        <v>395.38</v>
       </c>
       <c r="D67">
-        <v>-3067.34</v>
+        <v>840.5700000000001</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2605,16 +2893,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45685.6875</v>
+        <v>45730.6875</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>-25.62</v>
+        <v>394.54</v>
       </c>
       <c r="D68">
-        <v>-25.62</v>
+        <v>841.45</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2625,16 +2913,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45685.69791666666</v>
+        <v>45730.69791666666</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="C69">
-        <v>230.18</v>
+        <v>399</v>
       </c>
       <c r="D69">
-        <v>300</v>
+        <v>939.83</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2645,16 +2933,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45685.70833333334</v>
+        <v>45730.70833333334</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>268.48</v>
+        <v>366.89</v>
       </c>
       <c r="D70">
-        <v>432.2</v>
+        <v>859.63</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2665,16 +2953,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45685.71875</v>
+        <v>45730.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>343.82</v>
+        <v>363.79</v>
       </c>
       <c r="D71">
-        <v>377.97</v>
+        <v>882.05</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2685,16 +2973,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45685.72916666666</v>
+        <v>45730.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>342.25</v>
+        <v>364.5</v>
       </c>
       <c r="D72">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2705,16 +2993,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45685.73958333334</v>
+        <v>45730.73958333334</v>
       </c>
       <c r="B73">
         <v>-0</v>
       </c>
       <c r="C73">
-        <v>273.92</v>
+        <v>381.01</v>
       </c>
       <c r="D73">
-        <v>300</v>
+        <v>932.3099999999999</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2725,16 +3013,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45685.75</v>
+        <v>45730.75</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>270.1</v>
+        <v>199.17</v>
       </c>
       <c r="D74">
-        <v>633.33</v>
+        <v>199.17</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2745,16 +3033,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45685.76041666666</v>
+        <v>45730.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>350</v>
+        <v>338.81</v>
       </c>
       <c r="D75">
-        <v>578.05</v>
+        <v>338.81</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2765,16 +3053,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45685.77083333334</v>
+        <v>45730.77083333334</v>
       </c>
       <c r="B76">
-        <v>-0</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>350</v>
+        <v>362.11</v>
       </c>
       <c r="D76">
-        <v>634.33</v>
+        <v>840</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2785,16 +3073,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45685.78125</v>
+        <v>45730.78125</v>
       </c>
       <c r="B77">
         <v>-0</v>
       </c>
       <c r="C77">
-        <v>298.84</v>
+        <v>398.69</v>
       </c>
       <c r="D77">
-        <v>700</v>
+        <v>891.0599999999999</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2805,16 +3093,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45685.79166666666</v>
+        <v>45730.79166666666</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C78">
-        <v>299.17</v>
+        <v>387.71</v>
       </c>
       <c r="D78">
-        <v>700</v>
+        <v>843.85</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2825,16 +3113,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45685.80208333334</v>
+        <v>45730.80208333334</v>
       </c>
       <c r="B79">
         <v>-0</v>
       </c>
       <c r="C79">
-        <v>349.62</v>
+        <v>376.97</v>
       </c>
       <c r="D79">
-        <v>700</v>
+        <v>911.13</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2845,16 +3133,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45685.8125</v>
+        <v>45730.8125</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>223.3</v>
+        <v>354.78</v>
       </c>
       <c r="D80">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2865,16 +3153,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45685.82291666666</v>
+        <v>45730.82291666666</v>
       </c>
       <c r="B81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>136.84</v>
+        <v>351.16</v>
       </c>
       <c r="D81">
-        <v>136.84</v>
+        <v>351.16</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2885,16 +3173,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45685.83333333334</v>
+        <v>45730.83333333334</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>-17</v>
       </c>
       <c r="C82">
-        <v>228.18</v>
+        <v>1195.27</v>
       </c>
       <c r="D82">
-        <v>228.18</v>
+        <v>1195.27</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2905,16 +3193,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45685.84375</v>
+        <v>45730.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C83">
-        <v>155.33</v>
+        <v>390</v>
       </c>
       <c r="D83">
-        <v>700</v>
+        <v>978.01</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2925,16 +3213,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45685.85416666666</v>
+        <v>45730.85416666666</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C84">
-        <v>151.82</v>
+        <v>390</v>
       </c>
       <c r="D84">
-        <v>151.82</v>
+        <v>991.36</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2945,16 +3233,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45685.86458333334</v>
+        <v>45730.86458333334</v>
       </c>
       <c r="B85">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>43.86</v>
+        <v>343.21</v>
       </c>
       <c r="D85">
-        <v>43.86</v>
+        <v>343.21</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2965,16 +3253,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45685.875</v>
+        <v>45730.875</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="C86">
-        <v>119.75</v>
+        <v>343.82</v>
       </c>
       <c r="D86">
-        <v>119.75</v>
+        <v>979.42</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2985,16 +3273,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45685.88541666666</v>
+        <v>45730.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C87">
-        <v>202.95</v>
+        <v>390</v>
       </c>
       <c r="D87">
-        <v>693.25</v>
+        <v>938.8200000000001</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -3005,16 +3293,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45685.89583333334</v>
+        <v>45730.89583333334</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>-323.04</v>
+        <v>302.32</v>
       </c>
       <c r="D88">
-        <v>-323.04</v>
+        <v>302.32</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -3025,16 +3313,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45685.90625</v>
+        <v>45730.90625</v>
       </c>
       <c r="B89">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>-4057.34</v>
+        <v>-126.61</v>
       </c>
       <c r="D89">
-        <v>-4057.34</v>
+        <v>-126.61</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -3045,16 +3333,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45685.91666666666</v>
+        <v>45730.91666666666</v>
       </c>
       <c r="B90">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>-861.11</v>
+        <v>87.23</v>
       </c>
       <c r="D90">
-        <v>-861.11</v>
+        <v>87.23</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -3065,16 +3353,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45685.92708333334</v>
+        <v>45730.92708333334</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>-0</v>
       </c>
       <c r="C91">
-        <v>165.31</v>
+        <v>330.44</v>
       </c>
       <c r="D91">
-        <v>165.31</v>
+        <v>847.36</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -3085,16 +3373,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45685.9375</v>
+        <v>45730.9375</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>239.51</v>
+        <v>357.09</v>
       </c>
       <c r="D92">
-        <v>239.51</v>
+        <v>841.2</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -3105,16 +3393,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45685.94791666666</v>
+        <v>45730.94791666666</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>-2603.35</v>
+        <v>367.27</v>
       </c>
       <c r="D93">
-        <v>-2603.35</v>
+        <v>841.11</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -3125,16 +3413,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45685.95833333334</v>
+        <v>45730.95833333334</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="C94">
-        <v>-94.59</v>
+        <v>918.5700000000001</v>
       </c>
       <c r="D94">
-        <v>-94.59</v>
+        <v>918.5700000000001</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -3145,16 +3433,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45685.96875</v>
+        <v>45730.96875</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>120.14</v>
+        <v>116.89</v>
       </c>
       <c r="D95">
-        <v>120.14</v>
+        <v>116.89</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -3165,16 +3453,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45685.97916666666</v>
+        <v>45730.97916666666</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>34.16</v>
+        <v>235.63</v>
       </c>
       <c r="D96">
-        <v>34.16</v>
+        <v>235.63</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -3185,16 +3473,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45685.98958333334</v>
+        <v>45730.98958333334</v>
       </c>
       <c r="B97">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>36.57</v>
+        <v>326.19</v>
       </c>
       <c r="D97">
-        <v>36.57</v>
+        <v>840</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -3205,16 +3493,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45686</v>
+        <v>45731</v>
       </c>
       <c r="B98">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="C98">
-        <v>984.22</v>
+        <v>379.53</v>
       </c>
       <c r="D98">
-        <v>984.22</v>
+        <v>848.55</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3225,16 +3513,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45686.01041666666</v>
+        <v>45731.01041666666</v>
       </c>
       <c r="B99">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="C99">
-        <v>328.69</v>
+        <v>390</v>
       </c>
       <c r="D99">
-        <v>696.53</v>
+        <v>992.23</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -3245,16 +3533,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45686.02083333334</v>
+        <v>45731.02083333334</v>
       </c>
       <c r="B100">
-        <v>-6</v>
+        <v>-59</v>
       </c>
       <c r="C100">
-        <v>774.2</v>
+        <v>1003.72</v>
       </c>
       <c r="D100">
-        <v>774.2</v>
+        <v>1003.72</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -3265,16 +3553,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45686.03125</v>
+        <v>45731.03125</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>-62</v>
       </c>
       <c r="C101">
-        <v>350</v>
+        <v>1003.64</v>
       </c>
       <c r="D101">
-        <v>683.7</v>
+        <v>1003.64</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -3285,16 +3573,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45686.04166666666</v>
+        <v>45731.04166666666</v>
       </c>
       <c r="B102">
-        <v>-24</v>
+        <v>-54</v>
       </c>
       <c r="C102">
-        <v>4063.93</v>
+        <v>961.12</v>
       </c>
       <c r="D102">
-        <v>4063.93</v>
+        <v>961.12</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3305,16 +3593,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45686.05208333334</v>
+        <v>45731.05208333334</v>
       </c>
       <c r="B103">
-        <v>-27</v>
+        <v>-54</v>
       </c>
       <c r="C103">
-        <v>3327.1</v>
+        <v>961.39</v>
       </c>
       <c r="D103">
-        <v>3327.1</v>
+        <v>961.39</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3325,16 +3613,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45686.0625</v>
+        <v>45731.0625</v>
       </c>
       <c r="B104">
-        <v>-35</v>
+        <v>-47</v>
       </c>
       <c r="C104">
-        <v>4183.56</v>
+        <v>960.79</v>
       </c>
       <c r="D104">
-        <v>4183.56</v>
+        <v>960.79</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3345,16 +3633,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45686.07291666666</v>
+        <v>45731.07291666666</v>
       </c>
       <c r="B105">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="C105">
-        <v>943.62</v>
+        <v>962.62</v>
       </c>
       <c r="D105">
-        <v>943.62</v>
+        <v>962.62</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3365,16 +3653,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45686.08333333334</v>
+        <v>45731.08333333334</v>
       </c>
       <c r="B106">
-        <v>-30</v>
+        <v>-29</v>
       </c>
       <c r="C106">
-        <v>1092.22</v>
+        <v>4741.01</v>
       </c>
       <c r="D106">
-        <v>1092.22</v>
+        <v>4741.01</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3385,16 +3673,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45686.09375</v>
+        <v>45731.09375</v>
       </c>
       <c r="B107">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="C107">
-        <v>2570.3</v>
+        <v>1535.09</v>
       </c>
       <c r="D107">
-        <v>2570.3</v>
+        <v>1535.09</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3405,16 +3693,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45686.10416666666</v>
+        <v>45731.10416666666</v>
       </c>
       <c r="B108">
-        <v>-36</v>
+        <v>-19</v>
       </c>
       <c r="C108">
-        <v>4099.92</v>
+        <v>2020.84</v>
       </c>
       <c r="D108">
-        <v>4099.92</v>
+        <v>2020.84</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3425,16 +3713,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45686.11458333334</v>
+        <v>45731.11458333334</v>
       </c>
       <c r="B109">
-        <v>-6</v>
+        <v>-0</v>
       </c>
       <c r="C109">
-        <v>728.27</v>
+        <v>365.26</v>
       </c>
       <c r="D109">
-        <v>728.27</v>
+        <v>843.59</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3445,16 +3733,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45686.125</v>
+        <v>45731.125</v>
       </c>
       <c r="B110">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>778.5700000000001</v>
+        <v>383.81</v>
       </c>
       <c r="D110">
-        <v>778.5700000000001</v>
+        <v>847.5599999999999</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3465,16 +3753,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45686.13541666666</v>
+        <v>45731.13541666666</v>
       </c>
       <c r="B111">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>211.82</v>
+        <v>338.78</v>
       </c>
       <c r="D111">
-        <v>759.01</v>
+        <v>841.38</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3485,16 +3773,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45686.14583333334</v>
+        <v>45731.14583333334</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C112">
-        <v>209.82</v>
+        <v>339.73</v>
       </c>
       <c r="D112">
-        <v>209.82</v>
+        <v>846.8</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3505,16 +3793,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45686.15625</v>
+        <v>45731.15625</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C113">
-        <v>140.69</v>
+        <v>390</v>
       </c>
       <c r="D113">
-        <v>680</v>
+        <v>844.05</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3525,16 +3813,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45686.16666666666</v>
+        <v>45731.16666666666</v>
       </c>
       <c r="B114">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>-29.14</v>
+        <v>200.26</v>
       </c>
       <c r="D114">
-        <v>-29.14</v>
+        <v>200.26</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3545,16 +3833,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45686.17708333334</v>
+        <v>45731.17708333334</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>-0</v>
       </c>
       <c r="C115">
-        <v>203.1</v>
+        <v>390</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>854.77</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3565,16 +3853,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45686.1875</v>
+        <v>45731.1875</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C116">
-        <v>201</v>
+        <v>362.58</v>
       </c>
       <c r="D116">
-        <v>600</v>
+        <v>843.86</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3585,16 +3873,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45686.19791666666</v>
+        <v>45731.19791666666</v>
       </c>
       <c r="B117">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>-213.73</v>
+        <v>368.36</v>
       </c>
       <c r="D117">
-        <v>432.69</v>
+        <v>846.72</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3605,16 +3893,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45686.20833333334</v>
+        <v>45731.20833333334</v>
       </c>
       <c r="B118">
-        <v>26</v>
+        <v>-3</v>
       </c>
       <c r="C118">
-        <v>-1190.03</v>
+        <v>390</v>
       </c>
       <c r="D118">
-        <v>-1190.03</v>
+        <v>898.48</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3625,16 +3913,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45686.21875</v>
+        <v>45731.21875</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>-0</v>
       </c>
       <c r="C119">
-        <v>-499.96</v>
+        <v>298.96</v>
       </c>
       <c r="D119">
-        <v>300</v>
+        <v>885.09</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3645,16 +3933,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45686.22916666666</v>
+        <v>45731.22916666666</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C120">
-        <v>185.02</v>
+        <v>202.78</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>895.17</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3665,16 +3953,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45686.23958333334</v>
+        <v>45731.23958333334</v>
       </c>
       <c r="B121">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="C121">
-        <v>917.59</v>
+        <v>196.02</v>
       </c>
       <c r="D121">
-        <v>917.59</v>
+        <v>196.02</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3685,16 +3973,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45686.25</v>
+        <v>45731.25</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>-1201.79</v>
+        <v>252</v>
       </c>
       <c r="D122">
-        <v>566.67</v>
+        <v>847.1799999999999</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3705,16 +3993,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45686.26041666666</v>
+        <v>45731.26041666666</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>257.85</v>
+        <v>207.76</v>
       </c>
       <c r="D123">
-        <v>300</v>
+        <v>207.76</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3725,16 +4013,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45686.27083333334</v>
+        <v>45731.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <v>347.32</v>
+        <v>-1849.77</v>
       </c>
       <c r="D124">
-        <v>700</v>
+        <v>-1849.77</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3745,16 +4033,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45686.28125</v>
+        <v>45731.28125</v>
       </c>
       <c r="B125">
-        <v>-0</v>
+        <v>25</v>
       </c>
       <c r="C125">
-        <v>282.08</v>
+        <v>-537.3</v>
       </c>
       <c r="D125">
-        <v>700</v>
+        <v>-537.3</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3765,16 +4053,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45686.29166666666</v>
+        <v>45731.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>230.13</v>
+        <v>234.41</v>
       </c>
       <c r="D126">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3785,16 +4073,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45686.30208333334</v>
+        <v>45731.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>278.17</v>
+        <v>368.23</v>
       </c>
       <c r="D127">
-        <v>700</v>
+        <v>840.6799999999999</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3805,16 +4093,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45686.3125</v>
+        <v>45731.3125</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>369.24</v>
+        <v>238.58</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>840.38</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3825,16 +4113,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45686.32291666666</v>
+        <v>45731.32291666666</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>-1094.9</v>
+        <v>244.96</v>
       </c>
       <c r="D129">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3845,16 +4133,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45686.33333333334</v>
+        <v>45731.33333333334</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>-23</v>
       </c>
       <c r="C130">
-        <v>-2533.89</v>
+        <v>3154.59</v>
       </c>
       <c r="D130">
-        <v>700</v>
+        <v>3154.59</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3865,16 +4153,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45686.34375</v>
+        <v>45731.34375</v>
       </c>
       <c r="B131">
-        <v>91</v>
+        <v>-30</v>
       </c>
       <c r="C131">
-        <v>-7.79</v>
+        <v>2902.39</v>
       </c>
       <c r="D131">
-        <v>-7.79</v>
+        <v>2902.39</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3885,16 +4173,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45686.35416666666</v>
+        <v>45731.35416666666</v>
       </c>
       <c r="B132">
-        <v>94</v>
+        <v>-42</v>
       </c>
       <c r="C132">
-        <v>6.17</v>
+        <v>648.08</v>
       </c>
       <c r="D132">
-        <v>6.17</v>
+        <v>648.08</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3905,16 +4193,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45686.36458333334</v>
+        <v>45731.36458333334</v>
       </c>
       <c r="B133">
-        <v>112</v>
+        <v>-33</v>
       </c>
       <c r="C133">
-        <v>-1.88</v>
+        <v>579.79</v>
       </c>
       <c r="D133">
-        <v>-1.88</v>
+        <v>579.79</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3925,16 +4213,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45686.375</v>
+        <v>45731.375</v>
       </c>
       <c r="B134">
-        <v>48</v>
+        <v>-49</v>
       </c>
       <c r="C134">
-        <v>36.56</v>
+        <v>4599.23</v>
       </c>
       <c r="D134">
-        <v>36.56</v>
+        <v>4599.23</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3945,16 +4233,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45686.38541666666</v>
+        <v>45731.38541666666</v>
       </c>
       <c r="B135">
-        <v>76</v>
+        <v>-67</v>
       </c>
       <c r="C135">
-        <v>-1091.57</v>
+        <v>4516.48</v>
       </c>
       <c r="D135">
-        <v>-1091.57</v>
+        <v>4516.48</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3965,16 +4253,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45686.39583333334</v>
+        <v>45731.39583333334</v>
       </c>
       <c r="B136">
-        <v>97</v>
+        <v>-51</v>
       </c>
       <c r="C136">
-        <v>-115.51</v>
+        <v>5055.48</v>
       </c>
       <c r="D136">
-        <v>-115.51</v>
+        <v>5055.48</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3985,16 +4273,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45686.40625</v>
+        <v>45731.40625</v>
       </c>
       <c r="B137">
-        <v>100</v>
+        <v>-26</v>
       </c>
       <c r="C137">
-        <v>-147.77</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>-147.77</v>
+        <v>5395.74</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -4005,16 +4293,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45686.41666666666</v>
+        <v>45731.41666666666</v>
       </c>
       <c r="B138">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>2.29</v>
+        <v>5809.95</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -4025,16 +4313,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45686.42708333334</v>
+        <v>45731.42708333334</v>
       </c>
       <c r="B139">
-        <v>64</v>
+        <v>-20</v>
       </c>
       <c r="C139">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>5.03</v>
+        <v>5676.59</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -4045,16 +4333,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45686.4375</v>
+        <v>45731.4375</v>
       </c>
       <c r="B140">
-        <v>61</v>
+        <v>-79</v>
       </c>
       <c r="C140">
-        <v>-13.64</v>
+        <v>3605.41</v>
       </c>
       <c r="D140">
-        <v>-13.64</v>
+        <v>3605.41</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -4065,16 +4353,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45686.44791666666</v>
+        <v>45731.44791666666</v>
       </c>
       <c r="B141">
-        <v>77</v>
+        <v>-146</v>
       </c>
       <c r="C141">
-        <v>-1444.92</v>
+        <v>2900.67</v>
       </c>
       <c r="D141">
-        <v>-1444.92</v>
+        <v>2900.67</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -4085,16 +4373,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45686.45833333334</v>
+        <v>45731.45833333334</v>
       </c>
       <c r="B142">
-        <v>66</v>
+        <v>-164</v>
       </c>
       <c r="C142">
-        <v>-45.02</v>
+        <v>1908.73</v>
       </c>
       <c r="D142">
-        <v>-45.02</v>
+        <v>1908.73</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -4105,16 +4393,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45686.46875</v>
+        <v>45731.46875</v>
       </c>
       <c r="B143">
-        <v>81</v>
+        <v>-167</v>
       </c>
       <c r="C143">
-        <v>-597.15</v>
+        <v>1845.09</v>
       </c>
       <c r="D143">
-        <v>-597.15</v>
+        <v>1845.09</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -4125,16 +4413,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45686.47916666666</v>
+        <v>45731.47916666666</v>
       </c>
       <c r="B144">
-        <v>95</v>
+        <v>-175</v>
       </c>
       <c r="C144">
-        <v>-497.6</v>
+        <v>2657.75</v>
       </c>
       <c r="D144">
-        <v>-497.6</v>
+        <v>2657.75</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -4145,16 +4433,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45686.48958333334</v>
+        <v>45731.48958333334</v>
       </c>
       <c r="B145">
-        <v>106</v>
+        <v>-149</v>
       </c>
       <c r="C145">
-        <v>-65.56999999999999</v>
+        <v>588.84</v>
       </c>
       <c r="D145">
-        <v>-65.56999999999999</v>
+        <v>588.84</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -4165,16 +4453,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45686.5</v>
+        <v>45731.5</v>
       </c>
       <c r="B146">
-        <v>110</v>
+        <v>-163</v>
       </c>
       <c r="C146">
-        <v>-13.4</v>
+        <v>1990.56</v>
       </c>
       <c r="D146">
-        <v>-13.4</v>
+        <v>1990.56</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -4185,16 +4473,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45686.51041666666</v>
+        <v>45731.51041666666</v>
       </c>
       <c r="B147">
-        <v>120</v>
+        <v>-155</v>
       </c>
       <c r="C147">
-        <v>-91.40000000000001</v>
+        <v>1027.22</v>
       </c>
       <c r="D147">
-        <v>-91.40000000000001</v>
+        <v>1027.22</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -4205,16 +4493,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45686.52083333334</v>
+        <v>45731.52083333334</v>
       </c>
       <c r="B148">
-        <v>128</v>
+        <v>-132</v>
       </c>
       <c r="C148">
-        <v>6.4</v>
+        <v>712.37</v>
       </c>
       <c r="D148">
-        <v>6.4</v>
+        <v>712.37</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -4225,16 +4513,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45686.53125</v>
+        <v>45731.53125</v>
       </c>
       <c r="B149">
-        <v>139</v>
+        <v>-126</v>
       </c>
       <c r="C149">
-        <v>-80.23999999999999</v>
+        <v>705.01</v>
       </c>
       <c r="D149">
-        <v>-80.23999999999999</v>
+        <v>705.01</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -4245,16 +4533,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45686.54166666666</v>
+        <v>45731.54166666666</v>
       </c>
       <c r="B150">
-        <v>142</v>
+        <v>-112</v>
       </c>
       <c r="C150">
-        <v>-80.31999999999999</v>
+        <v>689.75</v>
       </c>
       <c r="D150">
-        <v>-80.31999999999999</v>
+        <v>689.75</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -4265,16 +4553,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45686.55208333334</v>
+        <v>45731.55208333334</v>
       </c>
       <c r="B151">
-        <v>108</v>
+        <v>-69</v>
       </c>
       <c r="C151">
-        <v>-9.33</v>
+        <v>692.9</v>
       </c>
       <c r="D151">
-        <v>-9.33</v>
+        <v>692.9</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -4285,16 +4573,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45686.5625</v>
+        <v>45731.5625</v>
       </c>
       <c r="B152">
-        <v>102</v>
+        <v>-37</v>
       </c>
       <c r="C152">
-        <v>-47.12</v>
+        <v>7569.65</v>
       </c>
       <c r="D152">
-        <v>-47.12</v>
+        <v>7569.65</v>
       </c>
       <c r="E152">
         <v>55</v>
@@ -4305,16 +4593,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45686.57291666666</v>
+        <v>45731.57291666666</v>
       </c>
       <c r="B153">
-        <v>51</v>
+        <v>-24</v>
       </c>
       <c r="C153">
-        <v>6.77</v>
+        <v>0</v>
       </c>
       <c r="D153">
-        <v>6.77</v>
+        <v>8001</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4325,16 +4613,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45686.58333333334</v>
+        <v>45731.58333333334</v>
       </c>
       <c r="B154">
-        <v>58</v>
+        <v>-58</v>
       </c>
       <c r="C154">
-        <v>21.11</v>
+        <v>6885.65</v>
       </c>
       <c r="D154">
-        <v>21.11</v>
+        <v>6885.65</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4345,16 +4633,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45686.59375</v>
+        <v>45731.59375</v>
       </c>
       <c r="B155">
-        <v>41</v>
+        <v>-24</v>
       </c>
       <c r="C155">
-        <v>-349.45</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>-349.45</v>
+        <v>7812</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4365,16 +4653,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45686.60416666666</v>
+        <v>45731.60416666666</v>
       </c>
       <c r="B156">
-        <v>7</v>
+        <v>-15</v>
       </c>
       <c r="C156">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="D156">
-        <v>938.23</v>
+        <v>8001</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4385,16 +4673,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45686.61458333334</v>
+        <v>45731.61458333334</v>
       </c>
       <c r="B157">
-        <v>-28</v>
+        <v>-23</v>
       </c>
       <c r="C157">
-        <v>3582.48</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>3582.48</v>
+        <v>8715.66</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4405,16 +4693,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45686.625</v>
+        <v>45731.625</v>
       </c>
       <c r="B158">
-        <v>20</v>
+        <v>-56</v>
       </c>
       <c r="C158">
-        <v>-870.9</v>
+        <v>948.83</v>
       </c>
       <c r="D158">
-        <v>-870.9</v>
+        <v>948.83</v>
       </c>
       <c r="E158">
         <v>61</v>
@@ -4425,16 +4713,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45686.63541666666</v>
+        <v>45731.63541666666</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>-46</v>
       </c>
       <c r="C159">
-        <v>-113.72</v>
+        <v>854.38</v>
       </c>
       <c r="D159">
-        <v>-113.72</v>
+        <v>854.38</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -4445,16 +4733,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45686.64583333334</v>
+        <v>45731.64583333334</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>-50</v>
       </c>
       <c r="C160">
-        <v>210.53</v>
+        <v>812.52</v>
       </c>
       <c r="D160">
-        <v>700</v>
+        <v>812.52</v>
       </c>
       <c r="E160">
         <v>63</v>
@@ -4465,16 +4753,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45686.65625</v>
+        <v>45731.65625</v>
       </c>
       <c r="B161">
-        <v>-0</v>
+        <v>-38</v>
       </c>
       <c r="C161">
-        <v>315.3</v>
+        <v>815.99</v>
       </c>
       <c r="D161">
-        <v>700</v>
+        <v>815.99</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4485,16 +4773,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45686.66666666666</v>
+        <v>45731.66666666666</v>
       </c>
       <c r="B162">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>-3146.87</v>
+        <v>195.81</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>848.55</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4505,16 +4793,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45686.67708333334</v>
+        <v>45731.67708333334</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>349.76</v>
+        <v>333.68</v>
       </c>
       <c r="D163">
-        <v>308.63</v>
+        <v>840</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4525,16 +4813,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45686.6875</v>
+        <v>45731.6875</v>
       </c>
       <c r="B164">
-        <v>-0</v>
+        <v>26</v>
       </c>
       <c r="C164">
-        <v>360</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D164">
-        <v>546.37</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4545,16 +4833,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45686.69791666666</v>
+        <v>45731.69791666666</v>
       </c>
       <c r="B165">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="C165">
-        <v>873.02</v>
+        <v>61.42</v>
       </c>
       <c r="D165">
-        <v>873.02</v>
+        <v>61.42</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4565,16 +4853,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45686.70833333334</v>
+        <v>45731.70833333334</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C166">
-        <v>160.17</v>
+        <v>-4991</v>
       </c>
       <c r="D166">
-        <v>654.78</v>
+        <v>-4991</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4585,16 +4873,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45686.71875</v>
+        <v>45731.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C167">
-        <v>337.15</v>
+        <v>-275.06</v>
       </c>
       <c r="D167">
-        <v>523.76</v>
+        <v>-275.06</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4605,16 +4893,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45686.72916666666</v>
+        <v>45731.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>340.29</v>
+        <v>300.52</v>
       </c>
       <c r="D168">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4625,16 +4913,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45686.73958333334</v>
+        <v>45731.73958333334</v>
       </c>
       <c r="B169">
         <v>-0</v>
       </c>
       <c r="C169">
-        <v>350</v>
+        <v>393.43</v>
       </c>
       <c r="D169">
-        <v>700</v>
+        <v>845.9400000000001</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4645,16 +4933,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45686.75</v>
+        <v>45731.75</v>
       </c>
       <c r="B170">
-        <v>-0</v>
+        <v>38</v>
       </c>
       <c r="C170">
-        <v>350</v>
+        <v>-42.88</v>
       </c>
       <c r="D170">
-        <v>700</v>
+        <v>-42.88</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4665,16 +4953,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45686.76041666666</v>
+        <v>45731.76041666666</v>
       </c>
       <c r="B171">
-        <v>-0</v>
+        <v>16</v>
       </c>
       <c r="C171">
-        <v>347.11</v>
+        <v>0.3</v>
       </c>
       <c r="D171">
-        <v>700</v>
+        <v>1170.6</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4685,16 +4973,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45686.77083333334</v>
+        <v>45731.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>338.76</v>
+        <v>0.3</v>
       </c>
       <c r="D172">
-        <v>700</v>
+        <v>2618.34</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4705,16 +4993,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45686.78125</v>
+        <v>45731.78125</v>
       </c>
       <c r="B173">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="C173">
-        <v>347.45</v>
+        <v>50.1</v>
       </c>
       <c r="D173">
-        <v>700</v>
+        <v>2100.52</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4725,16 +5013,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45686.79166666666</v>
+        <v>45731.79166666666</v>
       </c>
       <c r="B174">
-        <v>-4</v>
+        <v>-12</v>
       </c>
       <c r="C174">
-        <v>885.97</v>
+        <v>1073.92</v>
       </c>
       <c r="D174">
-        <v>885.97</v>
+        <v>1073.92</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4745,16 +5033,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45686.80208333334</v>
+        <v>45731.80208333334</v>
       </c>
       <c r="B175">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="C175">
-        <v>350</v>
+        <v>1032.71</v>
       </c>
       <c r="D175">
-        <v>700</v>
+        <v>1032.71</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4765,16 +5053,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45686.8125</v>
+        <v>45731.8125</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C176">
-        <v>321.67</v>
+        <v>354.81</v>
       </c>
       <c r="D176">
-        <v>700</v>
+        <v>991.4</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4785,16 +5073,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45686.82291666666</v>
+        <v>45731.82291666666</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C177">
-        <v>199.54</v>
+        <v>228.1</v>
       </c>
       <c r="D177">
-        <v>700</v>
+        <v>228.1</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4805,16 +5093,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45686.83333333334</v>
+        <v>45731.83333333334</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C178">
-        <v>211.57</v>
+        <v>-114.48</v>
       </c>
       <c r="D178">
-        <v>700</v>
+        <v>-114.48</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4825,16 +5113,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45686.84375</v>
+        <v>45731.84375</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>193.66</v>
+        <v>227.77</v>
       </c>
       <c r="D179">
-        <v>193.66</v>
+        <v>227.77</v>
       </c>
       <c r="E179">
         <v>82</v>
@@ -4845,16 +5133,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45686.85416666666</v>
+        <v>45731.85416666666</v>
       </c>
       <c r="B180">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C180">
-        <v>314.84</v>
+        <v>304.66</v>
       </c>
       <c r="D180">
-        <v>700</v>
+        <v>304.66</v>
       </c>
       <c r="E180">
         <v>83</v>
@@ -4865,16 +5153,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45686.86458333334</v>
+        <v>45731.86458333334</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C181">
-        <v>110.92</v>
+        <v>-1273.9</v>
       </c>
       <c r="D181">
-        <v>700</v>
+        <v>-1273.9</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4885,16 +5173,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45686.875</v>
+        <v>45731.875</v>
       </c>
       <c r="B182">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>180.81</v>
+        <v>-654.21</v>
       </c>
       <c r="D182">
-        <v>948.95</v>
+        <v>-654.21</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4905,16 +5193,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45686.88541666666</v>
+        <v>45731.88541666666</v>
       </c>
       <c r="B183">
-        <v>-5</v>
+        <v>-0</v>
       </c>
       <c r="C183">
-        <v>873.35</v>
+        <v>306.95</v>
       </c>
       <c r="D183">
-        <v>873.35</v>
+        <v>846.53</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4925,16 +5213,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45686.89583333334</v>
+        <v>45731.89583333334</v>
       </c>
       <c r="B184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>350</v>
+        <v>374.13</v>
       </c>
       <c r="D184">
-        <v>636.5</v>
+        <v>844.25</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4945,16 +5233,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45686.90625</v>
+        <v>45731.90625</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C185">
-        <v>94.59</v>
+        <v>337.17</v>
       </c>
       <c r="D185">
-        <v>396.12</v>
+        <v>846.42</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4965,16 +5253,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45686.91666666666</v>
+        <v>45731.91666666666</v>
       </c>
       <c r="B186">
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="C186">
-        <v>1106.1</v>
+        <v>4442</v>
       </c>
       <c r="D186">
-        <v>1106.1</v>
+        <v>4442</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4985,16 +5273,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45686.92708333334</v>
+        <v>45731.92708333334</v>
       </c>
       <c r="B187">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="C187">
-        <v>874.5</v>
+        <v>390</v>
       </c>
       <c r="D187">
-        <v>874.5</v>
+        <v>872.84</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -5005,16 +5293,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45686.9375</v>
+        <v>45731.9375</v>
       </c>
       <c r="B188">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="C188">
-        <v>983.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>983.1900000000001</v>
+        <v>965.87</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -5025,16 +5313,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45686.94791666666</v>
+        <v>45731.94791666666</v>
       </c>
       <c r="B189">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="C189">
-        <v>134.6</v>
+        <v>273.95</v>
       </c>
       <c r="D189">
-        <v>134.6</v>
+        <v>916.17</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -5045,16 +5333,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45686.95833333334</v>
+        <v>45731.95833333334</v>
       </c>
       <c r="B190">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C190">
-        <v>177.07</v>
+        <v>257.08</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -5065,16 +5353,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45686.96875</v>
+        <v>45731.96875</v>
       </c>
       <c r="B191">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C191">
-        <v>-2516.81</v>
+        <v>204.8</v>
       </c>
       <c r="D191">
-        <v>-2516.81</v>
+        <v>204.8</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -5085,16 +5373,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45686.97916666666</v>
+        <v>45731.97916666666</v>
       </c>
       <c r="B192">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C192">
-        <v>-4332.52</v>
+        <v>205.44</v>
       </c>
       <c r="D192">
-        <v>-4332.52</v>
+        <v>205.44</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -5105,16 +5393,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45686.98958333334</v>
+        <v>45731.98958333334</v>
       </c>
       <c r="B193">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C193">
-        <v>-4499</v>
+        <v>219.18</v>
       </c>
       <c r="D193">
-        <v>-4499</v>
+        <v>0</v>
       </c>
       <c r="E193">
         <v>96</v>
@@ -5125,16 +5413,16 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2">
-        <v>45687</v>
+        <v>45732</v>
       </c>
       <c r="B194">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C194">
-        <v>-977.15</v>
+        <v>221.84</v>
       </c>
       <c r="D194">
-        <v>-977.15</v>
+        <v>221.84</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5145,16 +5433,16 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2">
-        <v>45687.01041666666</v>
+        <v>45732.01041666666</v>
       </c>
       <c r="B195">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="C195">
-        <v>-60.73</v>
+        <v>396.75</v>
       </c>
       <c r="D195">
-        <v>-60.73</v>
+        <v>869.8200000000001</v>
       </c>
       <c r="E195">
         <v>2</v>
@@ -5165,16 +5453,16 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2">
-        <v>45687.02083333334</v>
+        <v>45732.02083333334</v>
       </c>
       <c r="B196">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>-3434.58</v>
+        <v>358.84</v>
       </c>
       <c r="D196">
-        <v>-3434.58</v>
+        <v>845.3200000000001</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -5185,16 +5473,16 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2">
-        <v>45687.03125</v>
+        <v>45732.03125</v>
       </c>
       <c r="B197">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>-491.39</v>
+        <v>393.36</v>
       </c>
       <c r="D197">
-        <v>-491.39</v>
+        <v>845.87</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -5205,16 +5493,16 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2">
-        <v>45687.04166666666</v>
+        <v>45732.04166666666</v>
       </c>
       <c r="B198">
-        <v>13</v>
+        <v>-0</v>
       </c>
       <c r="C198">
-        <v>17.52</v>
+        <v>379.72</v>
       </c>
       <c r="D198">
-        <v>17.52</v>
+        <v>841.73</v>
       </c>
       <c r="E198">
         <v>5</v>
@@ -5225,16 +5513,16 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2">
-        <v>45687.05208333334</v>
+        <v>45732.05208333334</v>
       </c>
       <c r="B199">
-        <v>27</v>
+        <v>-0</v>
       </c>
       <c r="C199">
-        <v>-1848.56</v>
+        <v>399</v>
       </c>
       <c r="D199">
-        <v>-1848.56</v>
+        <v>845.11</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -5245,16 +5533,16 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2">
-        <v>45687.0625</v>
+        <v>45732.0625</v>
       </c>
       <c r="B200">
-        <v>23</v>
+        <v>-0</v>
       </c>
       <c r="C200">
-        <v>-269.12</v>
+        <v>364.08</v>
       </c>
       <c r="D200">
-        <v>-269.12</v>
+        <v>845.72</v>
       </c>
       <c r="E200">
         <v>7</v>
@@ -5265,16 +5553,16 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2">
-        <v>45687.07291666666</v>
+        <v>45732.07291666666</v>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>-398.22</v>
+        <v>254.34</v>
       </c>
       <c r="D201">
-        <v>-398.22</v>
+        <v>847.71</v>
       </c>
       <c r="E201">
         <v>8</v>
@@ -5285,16 +5573,16 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2">
-        <v>45687.08333333334</v>
+        <v>45732.08333333334</v>
       </c>
       <c r="B202">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>-1147.55</v>
+        <v>252.81</v>
       </c>
       <c r="D202">
-        <v>-1147.55</v>
+        <v>840</v>
       </c>
       <c r="E202">
         <v>9</v>
@@ -5305,16 +5593,16 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2">
-        <v>45687.09375</v>
+        <v>45732.09375</v>
       </c>
       <c r="B203">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C203">
-        <v>-310.89</v>
+        <v>181.87</v>
       </c>
       <c r="D203">
-        <v>-310.89</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>10</v>
@@ -5325,16 +5613,16 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2">
-        <v>45687.10416666666</v>
+        <v>45732.10416666666</v>
       </c>
       <c r="B204">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>-846.3099999999999</v>
+        <v>214.67</v>
       </c>
       <c r="D204">
-        <v>-846.3099999999999</v>
+        <v>845.12</v>
       </c>
       <c r="E204">
         <v>11</v>
@@ -5345,16 +5633,16 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2">
-        <v>45687.11458333334</v>
+        <v>45732.11458333334</v>
       </c>
       <c r="B205">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C205">
-        <v>-33.01</v>
+        <v>-5831.11</v>
       </c>
       <c r="D205">
-        <v>-33.01</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>12</v>
@@ -5365,16 +5653,16 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2">
-        <v>45687.125</v>
+        <v>45732.125</v>
       </c>
       <c r="B206">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C206">
-        <v>50.23</v>
+        <v>-1318.63</v>
       </c>
       <c r="D206">
-        <v>50.23</v>
+        <v>-1318.63</v>
       </c>
       <c r="E206">
         <v>13</v>
@@ -5385,16 +5673,16 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2">
-        <v>45687.13541666666</v>
+        <v>45732.13541666666</v>
       </c>
       <c r="B207">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C207">
-        <v>58.27</v>
+        <v>129.5</v>
       </c>
       <c r="D207">
-        <v>58.27</v>
+        <v>129.5</v>
       </c>
       <c r="E207">
         <v>14</v>
@@ -5405,13 +5693,13 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2">
-        <v>45687.14583333334</v>
+        <v>45732.14583333334</v>
       </c>
       <c r="B208">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C208">
-        <v>-27.42</v>
+        <v>-332.5</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5425,16 +5713,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2">
-        <v>45687.15625</v>
+        <v>45732.15625</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C209">
-        <v>158.62</v>
+        <v>42.1</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>42.1</v>
       </c>
       <c r="E209">
         <v>16</v>
@@ -5445,16 +5733,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2">
-        <v>45687.16666666666</v>
+        <v>45732.16666666666</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C210">
-        <v>202.74</v>
+        <v>203.38</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>839.11</v>
       </c>
       <c r="E210">
         <v>17</v>
@@ -5465,13 +5753,13 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2">
-        <v>45687.17708333334</v>
+        <v>45732.17708333334</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>206.38</v>
+        <v>193.08</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5485,16 +5773,16 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
-        <v>45687.1875</v>
+        <v>45732.1875</v>
       </c>
       <c r="B212">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C212">
-        <v>40.45</v>
+        <v>191.95</v>
       </c>
       <c r="D212">
-        <v>40.45</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>19</v>
@@ -5505,16 +5793,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
-        <v>45687.19791666666</v>
+        <v>45732.19791666666</v>
       </c>
       <c r="B213">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C213">
-        <v>-2132.65</v>
+        <v>182.83</v>
       </c>
       <c r="D213">
-        <v>-2132.65</v>
+        <v>182.83</v>
       </c>
       <c r="E213">
         <v>20</v>
@@ -5525,16 +5813,16 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2">
-        <v>45687.20833333334</v>
+        <v>45732.20833333334</v>
       </c>
       <c r="B214">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C214">
-        <v>-4254.47</v>
+        <v>261.06</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E214">
         <v>21</v>
@@ -5545,16 +5833,16 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2">
-        <v>45687.21875</v>
+        <v>45732.21875</v>
       </c>
       <c r="B215">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C215">
-        <v>-1337.27</v>
+        <v>313.85</v>
       </c>
       <c r="D215">
-        <v>-1337.27</v>
+        <v>840</v>
       </c>
       <c r="E215">
         <v>22</v>
@@ -5565,16 +5853,16 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2">
-        <v>45687.22916666666</v>
+        <v>45732.22916666666</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C216">
-        <v>221.79</v>
+        <v>-6284.67</v>
       </c>
       <c r="D216">
-        <v>535.29</v>
+        <v>840.0700000000001</v>
       </c>
       <c r="E216">
         <v>23</v>
@@ -5585,16 +5873,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2">
-        <v>45687.23958333334</v>
+        <v>45732.23958333334</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C217">
-        <v>-53.87</v>
+        <v>-3463.12</v>
       </c>
       <c r="D217">
-        <v>300</v>
+        <v>-3463.12</v>
       </c>
       <c r="E217">
         <v>24</v>
@@ -5605,16 +5893,16 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2">
-        <v>45687.25</v>
+        <v>45732.25</v>
       </c>
       <c r="B218">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C218">
-        <v>-1609.4</v>
+        <v>-5941.86</v>
       </c>
       <c r="D218">
-        <v>-1609.4</v>
+        <v>-5941.86</v>
       </c>
       <c r="E218">
         <v>25</v>
@@ -5625,16 +5913,16 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2">
-        <v>45687.26041666666</v>
+        <v>45732.26041666666</v>
       </c>
       <c r="B219">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C219">
-        <v>-101.59</v>
+        <v>-403.2</v>
       </c>
       <c r="D219">
-        <v>-101.59</v>
+        <v>-403.2</v>
       </c>
       <c r="E219">
         <v>26</v>
@@ -5645,16 +5933,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2">
-        <v>45687.27083333334</v>
+        <v>45732.27083333334</v>
       </c>
       <c r="B220">
-        <v>-6</v>
+        <v>40</v>
       </c>
       <c r="C220">
-        <v>293.07</v>
+        <v>-6754.68</v>
       </c>
       <c r="D220">
-        <v>923.12</v>
+        <v>-6754.68</v>
       </c>
       <c r="E220">
         <v>27</v>
@@ -5665,16 +5953,16 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2">
-        <v>45687.28125</v>
+        <v>45732.28125</v>
       </c>
       <c r="B221">
-        <v>-0</v>
+        <v>49</v>
       </c>
       <c r="C221">
-        <v>340</v>
+        <v>-4861.94</v>
       </c>
       <c r="D221">
-        <v>370.92</v>
+        <v>-4861.94</v>
       </c>
       <c r="E221">
         <v>28</v>
@@ -5685,16 +5973,16 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2">
-        <v>45687.29166666666</v>
+        <v>45732.29166666666</v>
       </c>
       <c r="B222">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C222">
-        <v>22.38</v>
+        <v>-5259.32</v>
       </c>
       <c r="D222">
-        <v>22.38</v>
+        <v>-5259.32</v>
       </c>
       <c r="E222">
         <v>29</v>
@@ -5705,16 +5993,16 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2">
-        <v>45687.30208333334</v>
+        <v>45732.30208333334</v>
       </c>
       <c r="B223">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C223">
-        <v>-61.47</v>
+        <v>-4250.9</v>
       </c>
       <c r="D223">
-        <v>-61.47</v>
+        <v>-4250.9</v>
       </c>
       <c r="E223">
         <v>30</v>
@@ -5725,16 +6013,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2">
-        <v>45687.3125</v>
+        <v>45732.3125</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C224">
-        <v>334.31</v>
+        <v>-1751.69</v>
       </c>
       <c r="D224">
-        <v>700</v>
+        <v>-1751.69</v>
       </c>
       <c r="E224">
         <v>31</v>
@@ -5745,16 +6033,16 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="2">
-        <v>45687.32291666666</v>
+        <v>45732.32291666666</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>328.67</v>
+        <v>254.13</v>
       </c>
       <c r="D225">
-        <v>700</v>
+        <v>845.89</v>
       </c>
       <c r="E225">
         <v>32</v>
@@ -5765,16 +6053,16 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="2">
-        <v>45687.33333333334</v>
+        <v>45732.33333333334</v>
       </c>
       <c r="B226">
-        <v>24</v>
+        <v>-16</v>
       </c>
       <c r="C226">
-        <v>-11.06</v>
+        <v>868.6900000000001</v>
       </c>
       <c r="D226">
-        <v>-11.06</v>
+        <v>868.6900000000001</v>
       </c>
       <c r="E226">
         <v>33</v>
@@ -5785,16 +6073,16 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="2">
-        <v>45687.34375</v>
+        <v>45732.34375</v>
       </c>
       <c r="B227">
-        <v>25</v>
+        <v>-3</v>
       </c>
       <c r="C227">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>3.85</v>
+        <v>837.9400000000001</v>
       </c>
       <c r="E227">
         <v>34</v>
@@ -5805,16 +6093,16 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="2">
-        <v>45687.35416666666</v>
+        <v>45732.35416666666</v>
       </c>
       <c r="B228">
-        <v>50</v>
+        <v>-0</v>
       </c>
       <c r="C228">
-        <v>-2.78</v>
+        <v>390</v>
       </c>
       <c r="D228">
-        <v>-2.78</v>
+        <v>837.9400000000001</v>
       </c>
       <c r="E228">
         <v>35</v>
@@ -5825,16 +6113,16 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="2">
-        <v>45687.36458333334</v>
+        <v>45732.36458333334</v>
       </c>
       <c r="B229">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>17.03</v>
+        <v>295.3</v>
       </c>
       <c r="D229">
-        <v>17.03</v>
+        <v>837.9400000000001</v>
       </c>
       <c r="E229">
         <v>36</v>
@@ -5845,16 +6133,16 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="2">
-        <v>45687.375</v>
+        <v>45732.375</v>
       </c>
       <c r="B230">
-        <v>28</v>
+        <v>-12</v>
       </c>
       <c r="C230">
-        <v>-1159.63</v>
+        <v>0</v>
       </c>
       <c r="D230">
-        <v>-1159.63</v>
+        <v>821.9299999999999</v>
       </c>
       <c r="E230">
         <v>37</v>
@@ -5865,16 +6153,16 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="2">
-        <v>45687.38541666666</v>
+        <v>45732.38541666666</v>
       </c>
       <c r="B231">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="C231">
-        <v>-74.81999999999999</v>
+        <v>390</v>
       </c>
       <c r="D231">
-        <v>-74.81999999999999</v>
+        <v>783.61</v>
       </c>
       <c r="E231">
         <v>38</v>
@@ -5885,16 +6173,16 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="2">
-        <v>45687.39583333334</v>
+        <v>45732.39583333334</v>
       </c>
       <c r="B232">
-        <v>50</v>
+        <v>-0</v>
       </c>
       <c r="C232">
-        <v>-3.04</v>
+        <v>373.87</v>
       </c>
       <c r="D232">
-        <v>-3.04</v>
+        <v>783.61</v>
       </c>
       <c r="E232">
         <v>39</v>
@@ -5905,16 +6193,16 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="2">
-        <v>45687.40625</v>
+        <v>45732.40625</v>
       </c>
       <c r="B233">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C233">
-        <v>40.23</v>
+        <v>150.74</v>
       </c>
       <c r="D233">
-        <v>40.23</v>
+        <v>150.74</v>
       </c>
       <c r="E233">
         <v>40</v>
@@ -5925,16 +6213,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="2">
-        <v>45687.41666666666</v>
+        <v>45732.41666666666</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>194.38</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>601.63</v>
       </c>
       <c r="E234">
         <v>41</v>
@@ -5945,16 +6233,16 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="2">
-        <v>45687.42708333334</v>
+        <v>45732.42708333334</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>602.0599999999999</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>602.0599999999999</v>
       </c>
       <c r="E235">
         <v>42</v>
@@ -5965,13 +6253,13 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="2">
-        <v>45687.4375</v>
+        <v>45732.4375</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>195.01</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -5985,16 +6273,16 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="2">
-        <v>45687.44791666666</v>
+        <v>45732.44791666666</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>173.77</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>173.77</v>
       </c>
       <c r="E237">
         <v>44</v>
@@ -6005,16 +6293,16 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="2">
-        <v>45687.45833333334</v>
+        <v>45732.45833333334</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>192.71</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>192.71</v>
       </c>
       <c r="E238">
         <v>45</v>
@@ -6025,16 +6313,16 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="2">
-        <v>45687.46875</v>
+        <v>45732.46875</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>191.07</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>191.07</v>
       </c>
       <c r="E239">
         <v>46</v>
@@ -6045,16 +6333,16 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="2">
-        <v>45687.47916666666</v>
+        <v>45732.47916666666</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>-19.31</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>-19.31</v>
       </c>
       <c r="E240">
         <v>47</v>
@@ -6065,16 +6353,16 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="2">
-        <v>45687.48958333334</v>
+        <v>45732.48958333334</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>84.69</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>84.69</v>
       </c>
       <c r="E241">
         <v>48</v>
@@ -6085,16 +6373,16 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="2">
-        <v>45687.5</v>
+        <v>45732.5</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>205.24</v>
       </c>
       <c r="D242">
-        <v>0</v>
+        <v>484.77</v>
       </c>
       <c r="E242">
         <v>49</v>
@@ -6105,16 +6393,16 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="2">
-        <v>45687.51041666666</v>
+        <v>45732.51041666666</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>191.1</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>484.77</v>
       </c>
       <c r="E243">
         <v>50</v>
@@ -6125,13 +6413,13 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="2">
-        <v>45687.52083333334</v>
+        <v>45732.52083333334</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>107.81</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -6145,16 +6433,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="2">
-        <v>45687.53125</v>
+        <v>45732.53125</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="E245">
         <v>52</v>
@@ -6165,16 +6453,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="2">
-        <v>45687.54166666666</v>
+        <v>45732.54166666666</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>142.18</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>142.18</v>
       </c>
       <c r="E246">
         <v>53</v>
@@ -6185,16 +6473,16 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="2">
-        <v>45687.55208333334</v>
+        <v>45732.55208333334</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>202.98</v>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>202.98</v>
       </c>
       <c r="E247">
         <v>54</v>
@@ -6205,16 +6493,16 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="2">
-        <v>45687.5625</v>
+        <v>45732.5625</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>190.16</v>
       </c>
       <c r="D248">
-        <v>0</v>
+        <v>190.16</v>
       </c>
       <c r="E248">
         <v>55</v>
@@ -6225,16 +6513,16 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="2">
-        <v>45687.57291666666</v>
+        <v>45732.57291666666</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>266.26</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>472.13</v>
       </c>
       <c r="E249">
         <v>56</v>
@@ -6245,16 +6533,16 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="2">
-        <v>45687.58333333334</v>
+        <v>45732.58333333334</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>72.97</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>488.54</v>
       </c>
       <c r="E250">
         <v>57</v>
@@ -6265,16 +6553,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="2">
-        <v>45687.59375</v>
+        <v>45732.59375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>176.16</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>490.29</v>
       </c>
       <c r="E251">
         <v>58</v>
@@ -6285,16 +6573,16 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="2">
-        <v>45687.60416666666</v>
+        <v>45732.60416666666</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>358.35</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>492.19</v>
       </c>
       <c r="E252">
         <v>59</v>
@@ -6305,16 +6593,16 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="2">
-        <v>45687.61458333334</v>
+        <v>45732.61458333334</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>275.71</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>492.21</v>
       </c>
       <c r="E253">
         <v>60</v>
@@ -6325,16 +6613,16 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="2">
-        <v>45687.625</v>
+        <v>45732.625</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>-2423.89</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>-2423.89</v>
       </c>
       <c r="E254">
         <v>61</v>
@@ -6345,16 +6633,16 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="2">
-        <v>45687.63541666666</v>
+        <v>45732.63541666666</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E255">
         <v>62</v>
@@ -6365,16 +6653,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="2">
-        <v>45687.64583333334</v>
+        <v>45732.64583333334</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>808.14</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>808.14</v>
       </c>
       <c r="E256">
         <v>63</v>
@@ -6385,16 +6673,16 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="2">
-        <v>45687.65625</v>
+        <v>45732.65625</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>1120.67</v>
       </c>
       <c r="D257">
-        <v>0</v>
+        <v>1120.67</v>
       </c>
       <c r="E257">
         <v>64</v>
@@ -6405,16 +6693,16 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="2">
-        <v>45687.66666666666</v>
+        <v>45732.66666666666</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1818.65</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>1818.65</v>
       </c>
       <c r="E258">
         <v>65</v>
@@ -6425,16 +6713,16 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="2">
-        <v>45687.67708333334</v>
+        <v>45732.67708333334</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C259">
         <v>0</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>1496.7</v>
       </c>
       <c r="E259">
         <v>66</v>
@@ -6445,16 +6733,16 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="2">
-        <v>45687.6875</v>
+        <v>45732.6875</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>4549.12</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>4549.12</v>
       </c>
       <c r="E260">
         <v>67</v>
@@ -6465,16 +6753,16 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="2">
-        <v>45687.69791666666</v>
+        <v>45732.69791666666</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1392.81</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>1392.81</v>
       </c>
       <c r="E261">
         <v>68</v>
@@ -6485,16 +6773,16 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="2">
-        <v>45687.70833333334</v>
+        <v>45732.70833333334</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1808.62</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>1808.62</v>
       </c>
       <c r="E262">
         <v>69</v>
@@ -6505,16 +6793,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="2">
-        <v>45687.71875</v>
+        <v>45732.71875</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1444.74</v>
       </c>
       <c r="D263">
-        <v>0</v>
+        <v>1444.74</v>
       </c>
       <c r="E263">
         <v>70</v>
@@ -6525,16 +6813,16 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="2">
-        <v>45687.72916666666</v>
+        <v>45732.72916666666</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1082.78</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1082.78</v>
       </c>
       <c r="E264">
         <v>71</v>
@@ -6545,16 +6833,16 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="2">
-        <v>45687.73958333334</v>
+        <v>45732.73958333334</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1736.51</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1736.51</v>
       </c>
       <c r="E265">
         <v>72</v>
@@ -6565,16 +6853,16 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="2">
-        <v>45687.75</v>
+        <v>45732.75</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1281.82</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>1281.82</v>
       </c>
       <c r="E266">
         <v>73</v>
@@ -6585,16 +6873,16 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="2">
-        <v>45687.76041666666</v>
+        <v>45732.76041666666</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1209.19</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1209.19</v>
       </c>
       <c r="E267">
         <v>74</v>
@@ -6605,16 +6893,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="2">
-        <v>45687.77083333334</v>
+        <v>45732.77083333334</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1144.93</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>1144.93</v>
       </c>
       <c r="E268">
         <v>75</v>
@@ -6625,16 +6913,16 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="2">
-        <v>45687.78125</v>
+        <v>45732.78125</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>359.52</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>846.6799999999999</v>
       </c>
       <c r="E269">
         <v>76</v>
@@ -6645,16 +6933,16 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="2">
-        <v>45687.79166666666</v>
+        <v>45732.79166666666</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>371.45</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="E270">
         <v>77</v>
@@ -6665,16 +6953,16 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="2">
-        <v>45687.80208333334</v>
+        <v>45732.80208333334</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>381.24</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="E271">
         <v>78</v>
@@ -6685,16 +6973,16 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="2">
-        <v>45687.8125</v>
+        <v>45732.8125</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>303.3</v>
       </c>
       <c r="D272">
-        <v>0</v>
+        <v>844.15</v>
       </c>
       <c r="E272">
         <v>79</v>
@@ -6705,16 +6993,16 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2">
-        <v>45687.82291666666</v>
+        <v>45732.82291666666</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>-1800.18</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>-1800.18</v>
       </c>
       <c r="E273">
         <v>80</v>
@@ -6725,16 +7013,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2">
-        <v>45687.83333333334</v>
+        <v>45732.83333333334</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>-233.04</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>-233.04</v>
       </c>
       <c r="E274">
         <v>81</v>
@@ -6745,16 +7033,16 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2">
-        <v>45687.84375</v>
+        <v>45732.84375</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>-552.79</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>-552.79</v>
       </c>
       <c r="E275">
         <v>82</v>
@@ -6765,16 +7053,16 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2">
-        <v>45687.85416666666</v>
+        <v>45732.85416666666</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>56.81</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>56.81</v>
       </c>
       <c r="E276">
         <v>83</v>
@@ -6785,16 +7073,16 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2">
-        <v>45687.86458333334</v>
+        <v>45732.86458333334</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>-157.77</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>-157.77</v>
       </c>
       <c r="E277">
         <v>84</v>
@@ -6805,16 +7093,16 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2">
-        <v>45687.875</v>
+        <v>45732.875</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>5942.63</v>
       </c>
       <c r="E278">
         <v>85</v>
@@ -6825,16 +7113,16 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2">
-        <v>45687.88541666666</v>
+        <v>45732.88541666666</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>3704.88</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>3704.88</v>
       </c>
       <c r="E279">
         <v>86</v>
@@ -6845,16 +7133,16 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2">
-        <v>45687.89583333334</v>
+        <v>45732.89583333334</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>350.93</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>881.76</v>
       </c>
       <c r="E280">
         <v>87</v>
@@ -6865,16 +7153,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2">
-        <v>45687.90625</v>
+        <v>45732.90625</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>382.17</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>847.21</v>
       </c>
       <c r="E281">
         <v>88</v>
@@ -6885,16 +7173,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2">
-        <v>45687.91666666666</v>
+        <v>45732.91666666666</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="E282">
         <v>89</v>
@@ -6905,16 +7193,16 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2">
-        <v>45687.92708333334</v>
+        <v>45732.92708333334</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>989.9400000000001</v>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>989.9400000000001</v>
       </c>
       <c r="E283">
         <v>90</v>
@@ -6925,16 +7213,16 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2">
-        <v>45687.9375</v>
+        <v>45732.9375</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>988.8099999999999</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>988.8099999999999</v>
       </c>
       <c r="E284">
         <v>91</v>
@@ -6945,16 +7233,16 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2">
-        <v>45687.94791666666</v>
+        <v>45732.94791666666</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>981.08</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>981.08</v>
       </c>
       <c r="E285">
         <v>92</v>
@@ -6965,16 +7253,16 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2">
-        <v>45687.95833333334</v>
+        <v>45732.95833333334</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>856.16</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>856.16</v>
       </c>
       <c r="E286">
         <v>93</v>
@@ -6985,16 +7273,16 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2">
-        <v>45687.96875</v>
+        <v>45732.96875</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>853.75</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>853.75</v>
       </c>
       <c r="E287">
         <v>94</v>
@@ -7005,16 +7293,16 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2">
-        <v>45687.97916666666</v>
+        <v>45732.97916666666</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>250.8</v>
       </c>
       <c r="D288">
-        <v>0</v>
+        <v>805.97</v>
       </c>
       <c r="E288">
         <v>95</v>
@@ -7025,22 +7313,1942 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="2">
-        <v>45687.98958333334</v>
+        <v>45732.98958333334</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>89.98</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>89.98</v>
       </c>
       <c r="E289">
         <v>96</v>
       </c>
       <c r="F289" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>45733</v>
+      </c>
+      <c r="B290">
+        <v>28</v>
+      </c>
+      <c r="C290">
+        <v>94.88</v>
+      </c>
+      <c r="D290">
+        <v>94.88</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>45733.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>30</v>
+      </c>
+      <c r="C291">
+        <v>-1117.54</v>
+      </c>
+      <c r="D291">
+        <v>-1117.54</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>45733.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>41</v>
+      </c>
+      <c r="C292">
+        <v>-4310.47</v>
+      </c>
+      <c r="D292">
+        <v>-4310.47</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>45733.03125</v>
+      </c>
+      <c r="B293">
+        <v>40</v>
+      </c>
+      <c r="C293">
+        <v>-1771.26</v>
+      </c>
+      <c r="D293">
+        <v>-1771.26</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>45733.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>20</v>
+      </c>
+      <c r="C294">
+        <v>139.32</v>
+      </c>
+      <c r="D294">
+        <v>139.32</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>45733.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>14</v>
+      </c>
+      <c r="C295">
+        <v>168.11</v>
+      </c>
+      <c r="D295">
+        <v>168.11</v>
+      </c>
+      <c r="E295">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>45733.0625</v>
+      </c>
+      <c r="B296">
+        <v>10</v>
+      </c>
+      <c r="C296">
+        <v>181.61</v>
+      </c>
+      <c r="D296">
+        <v>181.61</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>45733.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>190</v>
+      </c>
+      <c r="D297">
+        <v>190</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>45733.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>-6</v>
+      </c>
+      <c r="C298">
+        <v>880.86</v>
+      </c>
+      <c r="D298">
+        <v>880.86</v>
+      </c>
+      <c r="E298">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>45733.09375</v>
+      </c>
+      <c r="B299">
+        <v>-2</v>
+      </c>
+      <c r="C299">
+        <v>234.28</v>
+      </c>
+      <c r="D299">
+        <v>835.66</v>
+      </c>
+      <c r="E299">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>45733.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>273.16</v>
+      </c>
+      <c r="D300">
+        <v>744</v>
+      </c>
+      <c r="E300">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>45733.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>363.13</v>
+      </c>
+      <c r="D301">
+        <v>744</v>
+      </c>
+      <c r="E301">
+        <v>12</v>
+      </c>
+      <c r="F301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>45733.125</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>220.47</v>
+      </c>
+      <c r="D302">
+        <v>744</v>
+      </c>
+      <c r="E302">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>45733.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>187.17</v>
+      </c>
+      <c r="D303">
+        <v>187.17</v>
+      </c>
+      <c r="E303">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>45733.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>12</v>
+      </c>
+      <c r="C304">
+        <v>161.51</v>
+      </c>
+      <c r="D304">
+        <v>161.51</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>45733.15625</v>
+      </c>
+      <c r="B305">
+        <v>-0</v>
+      </c>
+      <c r="C305">
+        <v>211.96</v>
+      </c>
+      <c r="D305">
+        <v>770.95</v>
+      </c>
+      <c r="E305">
+        <v>16</v>
+      </c>
+      <c r="F305" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>45733.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>190.84</v>
+      </c>
+      <c r="D306">
+        <v>190.84</v>
+      </c>
+      <c r="E306">
+        <v>17</v>
+      </c>
+      <c r="F306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>45733.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <v>191.85</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>45733.1875</v>
+      </c>
+      <c r="B308">
+        <v>6</v>
+      </c>
+      <c r="C308">
+        <v>189.4</v>
+      </c>
+      <c r="D308">
+        <v>189.4</v>
+      </c>
+      <c r="E308">
+        <v>19</v>
+      </c>
+      <c r="F308" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>-0</v>
+      </c>
+      <c r="C309">
+        <v>206.01</v>
+      </c>
+      <c r="D309">
+        <v>744</v>
+      </c>
+      <c r="E309">
+        <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>45733.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>30</v>
+      </c>
+      <c r="C310">
+        <v>-2018.58</v>
+      </c>
+      <c r="D310">
+        <v>-2018.58</v>
+      </c>
+      <c r="E310">
+        <v>21</v>
+      </c>
+      <c r="F310" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>45733.21875</v>
+      </c>
+      <c r="B311">
+        <v>31</v>
+      </c>
+      <c r="C311">
+        <v>-486.96</v>
+      </c>
+      <c r="D311">
+        <v>-486.96</v>
+      </c>
+      <c r="E311">
+        <v>22</v>
+      </c>
+      <c r="F311" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>45733.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>12</v>
+      </c>
+      <c r="C312">
+        <v>253.05</v>
+      </c>
+      <c r="D312">
+        <v>253.05</v>
+      </c>
+      <c r="E312">
+        <v>23</v>
+      </c>
+      <c r="F312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>275.75</v>
+      </c>
+      <c r="D313">
+        <v>844.04</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>45733.25</v>
+      </c>
+      <c r="B314">
+        <v>31</v>
+      </c>
+      <c r="C314">
+        <v>-5793.15</v>
+      </c>
+      <c r="D314">
+        <v>-5793.15</v>
+      </c>
+      <c r="E314">
+        <v>25</v>
+      </c>
+      <c r="F314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>45733.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>5</v>
+      </c>
+      <c r="C315">
+        <v>324.74</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>26</v>
+      </c>
+      <c r="F315" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>45733.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>335.1</v>
+      </c>
+      <c r="D316">
+        <v>335.1</v>
+      </c>
+      <c r="E316">
+        <v>27</v>
+      </c>
+      <c r="F316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>45733.28125</v>
+      </c>
+      <c r="B317">
+        <v>-4</v>
+      </c>
+      <c r="C317">
+        <v>390</v>
+      </c>
+      <c r="D317">
+        <v>994.9299999999999</v>
+      </c>
+      <c r="E317">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>45733.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>17</v>
+      </c>
+      <c r="C318">
+        <v>-2359.94</v>
+      </c>
+      <c r="D318">
+        <v>-2359.94</v>
+      </c>
+      <c r="E318">
+        <v>29</v>
+      </c>
+      <c r="F318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>45733.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319">
+        <v>357.52</v>
+      </c>
+      <c r="D319">
+        <v>840</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>45733.3125</v>
+      </c>
+      <c r="B320">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>351.74</v>
+      </c>
+      <c r="D320">
+        <v>351.74</v>
+      </c>
+      <c r="E320">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>351.7</v>
+      </c>
+      <c r="D321">
+        <v>903.6</v>
+      </c>
+      <c r="E321">
+        <v>32</v>
+      </c>
+      <c r="F321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>45733.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>359.52</v>
+      </c>
+      <c r="D322">
+        <v>848.9400000000001</v>
+      </c>
+      <c r="E322">
+        <v>33</v>
+      </c>
+      <c r="F322" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>45733.34375</v>
+      </c>
+      <c r="B323">
+        <v>-1</v>
+      </c>
+      <c r="C323">
+        <v>352.52</v>
+      </c>
+      <c r="D323">
+        <v>848.46</v>
+      </c>
+      <c r="E323">
+        <v>34</v>
+      </c>
+      <c r="F323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>45733.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>365.89</v>
+      </c>
+      <c r="D324">
+        <v>841.0599999999999</v>
+      </c>
+      <c r="E324">
+        <v>35</v>
+      </c>
+      <c r="F324" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>13</v>
+      </c>
+      <c r="C325">
+        <v>-160.74</v>
+      </c>
+      <c r="D325">
+        <v>-160.74</v>
+      </c>
+      <c r="E325">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>45733.375</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>231.49</v>
+      </c>
+      <c r="D326">
+        <v>955.73</v>
+      </c>
+      <c r="E326">
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>45733.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>-0</v>
+      </c>
+      <c r="C327">
+        <v>379.08</v>
+      </c>
+      <c r="D327">
+        <v>841.72</v>
+      </c>
+      <c r="E327">
+        <v>38</v>
+      </c>
+      <c r="F327" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>45733.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>371.81</v>
+      </c>
+      <c r="D328">
+        <v>840.76</v>
+      </c>
+      <c r="E328">
+        <v>39</v>
+      </c>
+      <c r="F328" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>45733.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>40</v>
+      </c>
+      <c r="F329" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>45733.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>41</v>
+      </c>
+      <c r="F330" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>45733.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>42</v>
+      </c>
+      <c r="F331" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>45733.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>43</v>
+      </c>
+      <c r="F332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>45733.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>44</v>
+      </c>
+      <c r="F333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>45733.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>45</v>
+      </c>
+      <c r="F334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2">
+        <v>45733.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>46</v>
+      </c>
+      <c r="F335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2">
+        <v>45733.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>45733.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>48</v>
+      </c>
+      <c r="F337" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2">
+        <v>45733.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>49</v>
+      </c>
+      <c r="F338" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>45733.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>50</v>
+      </c>
+      <c r="F339" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>45733.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>51</v>
+      </c>
+      <c r="F340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>45733.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>52</v>
+      </c>
+      <c r="F341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2">
+        <v>45733.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>53</v>
+      </c>
+      <c r="F342" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>45733.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>45733.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>55</v>
+      </c>
+      <c r="F344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>45733.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>56</v>
+      </c>
+      <c r="F345" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>45733.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>57</v>
+      </c>
+      <c r="F346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2">
+        <v>45733.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>58</v>
+      </c>
+      <c r="F347" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2">
+        <v>45733.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>59</v>
+      </c>
+      <c r="F348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>45733.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>60</v>
+      </c>
+      <c r="F349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2">
+        <v>45733.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>61</v>
+      </c>
+      <c r="F350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>45733.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>62</v>
+      </c>
+      <c r="F351" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>45733.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>45733.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>64</v>
+      </c>
+      <c r="F353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2">
+        <v>45733.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>65</v>
+      </c>
+      <c r="F354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>45733.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>66</v>
+      </c>
+      <c r="F355" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2">
+        <v>45733.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>67</v>
+      </c>
+      <c r="F356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>45733.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>68</v>
+      </c>
+      <c r="F357" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>45733.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>69</v>
+      </c>
+      <c r="F358" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2">
+        <v>45733.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>70</v>
+      </c>
+      <c r="F359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2">
+        <v>45733.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>71</v>
+      </c>
+      <c r="F360" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>45733.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>72</v>
+      </c>
+      <c r="F361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2">
+        <v>45733.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>73</v>
+      </c>
+      <c r="F362" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>45733.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>74</v>
+      </c>
+      <c r="F363" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>45733.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>75</v>
+      </c>
+      <c r="F364" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2">
+        <v>45733.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>76</v>
+      </c>
+      <c r="F365" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>45733.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>77</v>
+      </c>
+      <c r="F366" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="2">
+        <v>45733.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>78</v>
+      </c>
+      <c r="F367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2">
+        <v>45733.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>79</v>
+      </c>
+      <c r="F368" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="2">
+        <v>45733.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>80</v>
+      </c>
+      <c r="F369" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2">
+        <v>45733.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>81</v>
+      </c>
+      <c r="F370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2">
+        <v>45733.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>82</v>
+      </c>
+      <c r="F371" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2">
+        <v>45733.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>83</v>
+      </c>
+      <c r="F372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>45733.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2">
+        <v>45733.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>85</v>
+      </c>
+      <c r="F374" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="2">
+        <v>45733.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>86</v>
+      </c>
+      <c r="F375" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="2">
+        <v>45733.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>87</v>
+      </c>
+      <c r="F376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="2">
+        <v>45733.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>88</v>
+      </c>
+      <c r="F377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2">
+        <v>45733.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>89</v>
+      </c>
+      <c r="F378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2">
+        <v>45733.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>90</v>
+      </c>
+      <c r="F379" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="2">
+        <v>45733.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>91</v>
+      </c>
+      <c r="F380" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2">
+        <v>45733.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>92</v>
+      </c>
+      <c r="F381" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2">
+        <v>45733.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>93</v>
+      </c>
+      <c r="F382" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2">
+        <v>45733.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>94</v>
+      </c>
+      <c r="F383" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2">
+        <v>45733.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>95</v>
+      </c>
+      <c r="F384" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2">
+        <v>45733.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>96</v>
+      </c>
+      <c r="F385" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1184,6 +1184,294 @@
   </si>
   <si>
     <t>17.03.202596</t>
+  </si>
+  <si>
+    <t>18.03.20251</t>
+  </si>
+  <si>
+    <t>18.03.20252</t>
+  </si>
+  <si>
+    <t>18.03.20253</t>
+  </si>
+  <si>
+    <t>18.03.20254</t>
+  </si>
+  <si>
+    <t>18.03.20255</t>
+  </si>
+  <si>
+    <t>18.03.20256</t>
+  </si>
+  <si>
+    <t>18.03.20257</t>
+  </si>
+  <si>
+    <t>18.03.20258</t>
+  </si>
+  <si>
+    <t>18.03.20259</t>
+  </si>
+  <si>
+    <t>18.03.202510</t>
+  </si>
+  <si>
+    <t>18.03.202511</t>
+  </si>
+  <si>
+    <t>18.03.202512</t>
+  </si>
+  <si>
+    <t>18.03.202513</t>
+  </si>
+  <si>
+    <t>18.03.202514</t>
+  </si>
+  <si>
+    <t>18.03.202515</t>
+  </si>
+  <si>
+    <t>18.03.202516</t>
+  </si>
+  <si>
+    <t>18.03.202517</t>
+  </si>
+  <si>
+    <t>18.03.202518</t>
+  </si>
+  <si>
+    <t>18.03.202519</t>
+  </si>
+  <si>
+    <t>18.03.202520</t>
+  </si>
+  <si>
+    <t>18.03.202521</t>
+  </si>
+  <si>
+    <t>18.03.202522</t>
+  </si>
+  <si>
+    <t>18.03.202523</t>
+  </si>
+  <si>
+    <t>18.03.202524</t>
+  </si>
+  <si>
+    <t>18.03.202525</t>
+  </si>
+  <si>
+    <t>18.03.202526</t>
+  </si>
+  <si>
+    <t>18.03.202527</t>
+  </si>
+  <si>
+    <t>18.03.202528</t>
+  </si>
+  <si>
+    <t>18.03.202529</t>
+  </si>
+  <si>
+    <t>18.03.202530</t>
+  </si>
+  <si>
+    <t>18.03.202531</t>
+  </si>
+  <si>
+    <t>18.03.202532</t>
+  </si>
+  <si>
+    <t>18.03.202533</t>
+  </si>
+  <si>
+    <t>18.03.202534</t>
+  </si>
+  <si>
+    <t>18.03.202535</t>
+  </si>
+  <si>
+    <t>18.03.202536</t>
+  </si>
+  <si>
+    <t>18.03.202537</t>
+  </si>
+  <si>
+    <t>18.03.202538</t>
+  </si>
+  <si>
+    <t>18.03.202539</t>
+  </si>
+  <si>
+    <t>18.03.202540</t>
+  </si>
+  <si>
+    <t>18.03.202541</t>
+  </si>
+  <si>
+    <t>18.03.202542</t>
+  </si>
+  <si>
+    <t>18.03.202543</t>
+  </si>
+  <si>
+    <t>18.03.202544</t>
+  </si>
+  <si>
+    <t>18.03.202545</t>
+  </si>
+  <si>
+    <t>18.03.202546</t>
+  </si>
+  <si>
+    <t>18.03.202547</t>
+  </si>
+  <si>
+    <t>18.03.202548</t>
+  </si>
+  <si>
+    <t>18.03.202549</t>
+  </si>
+  <si>
+    <t>18.03.202550</t>
+  </si>
+  <si>
+    <t>18.03.202551</t>
+  </si>
+  <si>
+    <t>18.03.202552</t>
+  </si>
+  <si>
+    <t>18.03.202553</t>
+  </si>
+  <si>
+    <t>18.03.202554</t>
+  </si>
+  <si>
+    <t>18.03.202555</t>
+  </si>
+  <si>
+    <t>18.03.202556</t>
+  </si>
+  <si>
+    <t>18.03.202557</t>
+  </si>
+  <si>
+    <t>18.03.202558</t>
+  </si>
+  <si>
+    <t>18.03.202559</t>
+  </si>
+  <si>
+    <t>18.03.202560</t>
+  </si>
+  <si>
+    <t>18.03.202561</t>
+  </si>
+  <si>
+    <t>18.03.202562</t>
+  </si>
+  <si>
+    <t>18.03.202563</t>
+  </si>
+  <si>
+    <t>18.03.202564</t>
+  </si>
+  <si>
+    <t>18.03.202565</t>
+  </si>
+  <si>
+    <t>18.03.202566</t>
+  </si>
+  <si>
+    <t>18.03.202567</t>
+  </si>
+  <si>
+    <t>18.03.202568</t>
+  </si>
+  <si>
+    <t>18.03.202569</t>
+  </si>
+  <si>
+    <t>18.03.202570</t>
+  </si>
+  <si>
+    <t>18.03.202571</t>
+  </si>
+  <si>
+    <t>18.03.202572</t>
+  </si>
+  <si>
+    <t>18.03.202573</t>
+  </si>
+  <si>
+    <t>18.03.202574</t>
+  </si>
+  <si>
+    <t>18.03.202575</t>
+  </si>
+  <si>
+    <t>18.03.202576</t>
+  </si>
+  <si>
+    <t>18.03.202577</t>
+  </si>
+  <si>
+    <t>18.03.202578</t>
+  </si>
+  <si>
+    <t>18.03.202579</t>
+  </si>
+  <si>
+    <t>18.03.202580</t>
+  </si>
+  <si>
+    <t>18.03.202581</t>
+  </si>
+  <si>
+    <t>18.03.202582</t>
+  </si>
+  <si>
+    <t>18.03.202583</t>
+  </si>
+  <si>
+    <t>18.03.202584</t>
+  </si>
+  <si>
+    <t>18.03.202585</t>
+  </si>
+  <si>
+    <t>18.03.202586</t>
+  </si>
+  <si>
+    <t>18.03.202587</t>
+  </si>
+  <si>
+    <t>18.03.202588</t>
+  </si>
+  <si>
+    <t>18.03.202589</t>
+  </si>
+  <si>
+    <t>18.03.202590</t>
+  </si>
+  <si>
+    <t>18.03.202591</t>
+  </si>
+  <si>
+    <t>18.03.202592</t>
+  </si>
+  <si>
+    <t>18.03.202593</t>
+  </si>
+  <si>
+    <t>18.03.202594</t>
+  </si>
+  <si>
+    <t>18.03.202595</t>
+  </si>
+  <si>
+    <t>18.03.202596</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2399,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1889.23</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1889.23</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -2419,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2439,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-638.61</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-638.61</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -2459,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-743.5</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-743.5</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -2479,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>29.99</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -2499,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>29.79</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>29.79</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -2519,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>197.43</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>197.43</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -2539,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>15.83</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>15.83</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -2559,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>55.31</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>55.31</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -2579,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>292.85</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>609.88</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2599,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-63.61</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>-63.61</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2619,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>815.0700000000001</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>815.0700000000001</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2639,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>4688.21</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4688.21</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2659,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>5025.05</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>5025.05</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2679,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1046.22</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1046.22</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2699,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>6586.83</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>6586.83</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2719,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>10271.32</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>10271.32</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2739,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4353.08</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4353.08</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2759,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5615.62</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5615.62</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -8116,13 +8404,13 @@
         <v>45733.40625</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>260.2</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>260.2</v>
       </c>
       <c r="E329">
         <v>40</v>
@@ -8136,13 +8424,13 @@
         <v>45733.41666666666</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>266.14</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E330">
         <v>41</v>
@@ -8156,13 +8444,13 @@
         <v>45733.42708333334</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>373.43</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>767.4</v>
       </c>
       <c r="E331">
         <v>42</v>
@@ -8176,13 +8464,13 @@
         <v>45733.4375</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C332">
-        <v>0</v>
+        <v>363.14</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E332">
         <v>43</v>
@@ -8199,10 +8487,10 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>0</v>
+        <v>362.69</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E333">
         <v>44</v>
@@ -8216,13 +8504,13 @@
         <v>45733.45833333334</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C334">
-        <v>0</v>
+        <v>-1116.92</v>
       </c>
       <c r="D334">
-        <v>0</v>
+        <v>775.38</v>
       </c>
       <c r="E334">
         <v>45</v>
@@ -8236,13 +8524,13 @@
         <v>45733.46875</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>969.8200000000001</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>969.8200000000001</v>
       </c>
       <c r="E335">
         <v>46</v>
@@ -8256,13 +8544,13 @@
         <v>45733.47916666666</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>970.63</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>970.63</v>
       </c>
       <c r="E336">
         <v>47</v>
@@ -8276,13 +8564,13 @@
         <v>45733.48958333334</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>1934.18</v>
       </c>
       <c r="D337">
-        <v>0</v>
+        <v>1934.18</v>
       </c>
       <c r="E337">
         <v>48</v>
@@ -8296,13 +8584,13 @@
         <v>45733.5</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C338">
         <v>0</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>4249.95</v>
       </c>
       <c r="E338">
         <v>49</v>
@@ -8316,13 +8604,13 @@
         <v>45733.51041666666</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>5788.92</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>5788.92</v>
       </c>
       <c r="E339">
         <v>50</v>
@@ -8336,13 +8624,13 @@
         <v>45733.52083333334</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>801.29</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>801.29</v>
       </c>
       <c r="E340">
         <v>51</v>
@@ -8356,13 +8644,13 @@
         <v>45733.53125</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>2174.34</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>2174.34</v>
       </c>
       <c r="E341">
         <v>52</v>
@@ -8376,13 +8664,13 @@
         <v>45733.54166666666</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>-69</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>1892.35</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>1892.35</v>
       </c>
       <c r="E342">
         <v>53</v>
@@ -8396,13 +8684,13 @@
         <v>45733.55208333334</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>885.65</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>885.65</v>
       </c>
       <c r="E343">
         <v>54</v>
@@ -8416,13 +8704,13 @@
         <v>45733.5625</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>666.48</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>666.48</v>
       </c>
       <c r="E344">
         <v>55</v>
@@ -8436,13 +8724,13 @@
         <v>45733.57291666666</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>666.84</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>666.84</v>
       </c>
       <c r="E345">
         <v>56</v>
@@ -8456,13 +8744,13 @@
         <v>45733.58333333334</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>2398.58</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>2398.58</v>
       </c>
       <c r="E346">
         <v>57</v>
@@ -8476,13 +8764,13 @@
         <v>45733.59375</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>4056.65</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>4056.65</v>
       </c>
       <c r="E347">
         <v>58</v>
@@ -8496,13 +8784,13 @@
         <v>45733.60416666666</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>5383.21</v>
       </c>
       <c r="D348">
-        <v>0</v>
+        <v>5383.21</v>
       </c>
       <c r="E348">
         <v>59</v>
@@ -8516,13 +8804,13 @@
         <v>45733.61458333334</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C349">
-        <v>0</v>
+        <v>5159.52</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>5159.52</v>
       </c>
       <c r="E349">
         <v>60</v>
@@ -8536,13 +8824,13 @@
         <v>45733.625</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>887.63</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>887.63</v>
       </c>
       <c r="E350">
         <v>61</v>
@@ -8556,13 +8844,13 @@
         <v>45733.63541666666</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>844.3</v>
       </c>
       <c r="D351">
-        <v>0</v>
+        <v>844.3</v>
       </c>
       <c r="E351">
         <v>62</v>
@@ -8576,13 +8864,13 @@
         <v>45733.64583333334</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C352">
-        <v>0</v>
+        <v>805.09</v>
       </c>
       <c r="D352">
-        <v>0</v>
+        <v>805.09</v>
       </c>
       <c r="E352">
         <v>63</v>
@@ -8596,13 +8884,13 @@
         <v>45733.65625</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>818.63</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>818.63</v>
       </c>
       <c r="E353">
         <v>64</v>
@@ -8616,13 +8904,13 @@
         <v>45733.66666666666</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>-79</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>1192.83</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>1192.83</v>
       </c>
       <c r="E354">
         <v>65</v>
@@ -8636,13 +8924,13 @@
         <v>45733.67708333334</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>-96</v>
       </c>
       <c r="C355">
-        <v>0</v>
+        <v>1001.79</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>1001.79</v>
       </c>
       <c r="E355">
         <v>66</v>
@@ -8656,13 +8944,13 @@
         <v>45733.6875</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>978.87</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>978.87</v>
       </c>
       <c r="E356">
         <v>67</v>
@@ -8676,13 +8964,13 @@
         <v>45733.69791666666</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>-101</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="E357">
         <v>68</v>
@@ -8696,13 +8984,13 @@
         <v>45733.70833333334</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>-79</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>2434.8</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>2434.8</v>
       </c>
       <c r="E358">
         <v>69</v>
@@ -8716,13 +9004,13 @@
         <v>45733.71875</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>1205.6</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>1205.6</v>
       </c>
       <c r="E359">
         <v>70</v>
@@ -8736,13 +9024,13 @@
         <v>45733.72916666666</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>1580.71</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>1580.71</v>
       </c>
       <c r="E360">
         <v>71</v>
@@ -8756,13 +9044,13 @@
         <v>45733.73958333334</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>3730.31</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>3730.31</v>
       </c>
       <c r="E361">
         <v>72</v>
@@ -8776,13 +9064,13 @@
         <v>45733.75</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C362">
-        <v>0</v>
+        <v>1384.65</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>1384.65</v>
       </c>
       <c r="E362">
         <v>73</v>
@@ -8796,13 +9084,13 @@
         <v>45733.76041666666</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>1301.46</v>
       </c>
       <c r="D363">
-        <v>0</v>
+        <v>1301.46</v>
       </c>
       <c r="E363">
         <v>74</v>
@@ -8816,13 +9104,13 @@
         <v>45733.77083333334</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>1302.07</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>1302.07</v>
       </c>
       <c r="E364">
         <v>75</v>
@@ -8836,13 +9124,13 @@
         <v>45733.78125</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C365">
-        <v>0</v>
+        <v>1306.76</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>1306.76</v>
       </c>
       <c r="E365">
         <v>76</v>
@@ -8856,13 +9144,13 @@
         <v>45733.79166666666</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C366">
         <v>0</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>1294.51</v>
       </c>
       <c r="E366">
         <v>77</v>
@@ -8876,13 +9164,13 @@
         <v>45733.80208333334</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>1295.39</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>1295.39</v>
       </c>
       <c r="E367">
         <v>78</v>
@@ -8896,13 +9184,13 @@
         <v>45733.8125</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="C368">
         <v>0</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1281.07</v>
       </c>
       <c r="E368">
         <v>79</v>
@@ -8916,13 +9204,13 @@
         <v>45733.82291666666</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>352.9</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>1290.4</v>
       </c>
       <c r="E369">
         <v>80</v>
@@ -8936,13 +9224,13 @@
         <v>45733.83333333334</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="C370">
-        <v>0</v>
+        <v>1171.68</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>1171.68</v>
       </c>
       <c r="E370">
         <v>81</v>
@@ -8956,13 +9244,13 @@
         <v>45733.84375</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>1521.92</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>1521.92</v>
       </c>
       <c r="E371">
         <v>82</v>
@@ -8976,13 +9264,13 @@
         <v>45733.85416666666</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>-149.59</v>
       </c>
       <c r="D372">
-        <v>0</v>
+        <v>-149.59</v>
       </c>
       <c r="E372">
         <v>83</v>
@@ -8999,10 +9287,10 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>0</v>
+        <v>394.57</v>
       </c>
       <c r="D373">
-        <v>0</v>
+        <v>918.67</v>
       </c>
       <c r="E373">
         <v>84</v>
@@ -9016,13 +9304,13 @@
         <v>45733.875</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>5927.16</v>
       </c>
       <c r="E374">
         <v>85</v>
@@ -9036,13 +9324,13 @@
         <v>45733.88541666666</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C375">
-        <v>0</v>
+        <v>5139.09</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>5139.09</v>
       </c>
       <c r="E375">
         <v>86</v>
@@ -9056,13 +9344,13 @@
         <v>45733.89583333334</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>1052.24</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>1052.24</v>
       </c>
       <c r="E376">
         <v>87</v>
@@ -9076,13 +9364,13 @@
         <v>45733.90625</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>8719.879999999999</v>
       </c>
       <c r="D377">
-        <v>0</v>
+        <v>8719.879999999999</v>
       </c>
       <c r="E377">
         <v>88</v>
@@ -9096,13 +9384,13 @@
         <v>45733.91666666666</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C378">
-        <v>0</v>
+        <v>1408.96</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1408.96</v>
       </c>
       <c r="E378">
         <v>89</v>
@@ -9116,13 +9404,13 @@
         <v>45733.92708333334</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>1000.04</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>1000.04</v>
       </c>
       <c r="E379">
         <v>90</v>
@@ -9136,13 +9424,13 @@
         <v>45733.9375</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>-1159.6</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="E380">
         <v>91</v>
@@ -9156,13 +9444,13 @@
         <v>45733.94791666666</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>-2948.7</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>-2948.7</v>
       </c>
       <c r="E381">
         <v>92</v>
@@ -9176,13 +9464,13 @@
         <v>45733.95833333334</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C382">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="E382">
         <v>93</v>
@@ -9196,13 +9484,13 @@
         <v>45733.96875</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>102.91</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>102.91</v>
       </c>
       <c r="E383">
         <v>94</v>
@@ -9216,13 +9504,13 @@
         <v>45733.97916666666</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>-2232.13</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>-2232.13</v>
       </c>
       <c r="E384">
         <v>95</v>
@@ -9236,19 +9524,1939 @@
         <v>45733.98958333334</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C385">
-        <v>0</v>
+        <v>49.37</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>49.37</v>
       </c>
       <c r="E385">
         <v>96</v>
       </c>
       <c r="F385" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="2">
+        <v>45734</v>
+      </c>
+      <c r="B386">
+        <v>-3</v>
+      </c>
+      <c r="C386">
+        <v>210.33</v>
+      </c>
+      <c r="D386">
+        <v>877.3200000000001</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="2">
+        <v>45734.01041666666</v>
+      </c>
+      <c r="B387">
+        <v>-1</v>
+      </c>
+      <c r="C387">
+        <v>217.34</v>
+      </c>
+      <c r="D387">
+        <v>744</v>
+      </c>
+      <c r="E387">
+        <v>2</v>
+      </c>
+      <c r="F387" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="2">
+        <v>45734.02083333334</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>235.82</v>
+      </c>
+      <c r="D388">
+        <v>744</v>
+      </c>
+      <c r="E388">
+        <v>3</v>
+      </c>
+      <c r="F388" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="2">
+        <v>45734.03125</v>
+      </c>
+      <c r="B389">
+        <v>-1</v>
+      </c>
+      <c r="C389">
+        <v>390</v>
+      </c>
+      <c r="D389">
+        <v>744</v>
+      </c>
+      <c r="E389">
+        <v>4</v>
+      </c>
+      <c r="F389" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="2">
+        <v>45734.04166666666</v>
+      </c>
+      <c r="B390">
+        <v>-25</v>
+      </c>
+      <c r="C390">
+        <v>4817.1</v>
+      </c>
+      <c r="D390">
+        <v>4817.1</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+      <c r="F390" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="2">
+        <v>45734.05208333334</v>
+      </c>
+      <c r="B391">
+        <v>-26</v>
+      </c>
+      <c r="C391">
+        <v>4457.07</v>
+      </c>
+      <c r="D391">
+        <v>4457.07</v>
+      </c>
+      <c r="E391">
+        <v>6</v>
+      </c>
+      <c r="F391" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="2">
+        <v>45734.0625</v>
+      </c>
+      <c r="B392">
+        <v>-31</v>
+      </c>
+      <c r="C392">
+        <v>986.54</v>
+      </c>
+      <c r="D392">
+        <v>986.54</v>
+      </c>
+      <c r="E392">
+        <v>7</v>
+      </c>
+      <c r="F392" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="2">
+        <v>45734.07291666666</v>
+      </c>
+      <c r="B393">
+        <v>-33</v>
+      </c>
+      <c r="C393">
+        <v>921.13</v>
+      </c>
+      <c r="D393">
+        <v>921.13</v>
+      </c>
+      <c r="E393">
+        <v>8</v>
+      </c>
+      <c r="F393" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="2">
+        <v>45734.08333333334</v>
+      </c>
+      <c r="B394">
+        <v>-35</v>
+      </c>
+      <c r="C394">
+        <v>904.21</v>
+      </c>
+      <c r="D394">
+        <v>904.21</v>
+      </c>
+      <c r="E394">
+        <v>9</v>
+      </c>
+      <c r="F394" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="2">
+        <v>45734.09375</v>
+      </c>
+      <c r="B395">
+        <v>-7</v>
+      </c>
+      <c r="C395">
+        <v>927.62</v>
+      </c>
+      <c r="D395">
+        <v>927.62</v>
+      </c>
+      <c r="E395">
+        <v>10</v>
+      </c>
+      <c r="F395" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="2">
+        <v>45734.10416666666</v>
+      </c>
+      <c r="B396">
+        <v>-12</v>
+      </c>
+      <c r="C396">
+        <v>944.25</v>
+      </c>
+      <c r="D396">
+        <v>944.25</v>
+      </c>
+      <c r="E396">
+        <v>11</v>
+      </c>
+      <c r="F396" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="2">
+        <v>45734.11458333334</v>
+      </c>
+      <c r="B397">
+        <v>-10</v>
+      </c>
+      <c r="C397">
+        <v>926.61</v>
+      </c>
+      <c r="D397">
+        <v>926.61</v>
+      </c>
+      <c r="E397">
+        <v>12</v>
+      </c>
+      <c r="F397" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="2">
+        <v>45734.125</v>
+      </c>
+      <c r="B398">
+        <v>-3</v>
+      </c>
+      <c r="C398">
+        <v>355.13</v>
+      </c>
+      <c r="D398">
+        <v>930.48</v>
+      </c>
+      <c r="E398">
+        <v>13</v>
+      </c>
+      <c r="F398" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="2">
+        <v>45734.13541666666</v>
+      </c>
+      <c r="B399">
+        <v>-13</v>
+      </c>
+      <c r="C399">
+        <v>950.74</v>
+      </c>
+      <c r="D399">
+        <v>950.74</v>
+      </c>
+      <c r="E399">
+        <v>14</v>
+      </c>
+      <c r="F399" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="2">
+        <v>45734.14583333334</v>
+      </c>
+      <c r="B400">
+        <v>-16</v>
+      </c>
+      <c r="C400">
+        <v>975.21</v>
+      </c>
+      <c r="D400">
+        <v>975.21</v>
+      </c>
+      <c r="E400">
+        <v>15</v>
+      </c>
+      <c r="F400" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="2">
+        <v>45734.15625</v>
+      </c>
+      <c r="B401">
+        <v>-10</v>
+      </c>
+      <c r="C401">
+        <v>928.38</v>
+      </c>
+      <c r="D401">
+        <v>928.38</v>
+      </c>
+      <c r="E401">
+        <v>16</v>
+      </c>
+      <c r="F401" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="2">
+        <v>45734.16666666666</v>
+      </c>
+      <c r="B402">
+        <v>-3</v>
+      </c>
+      <c r="C402">
+        <v>803.99</v>
+      </c>
+      <c r="D402">
+        <v>803.99</v>
+      </c>
+      <c r="E402">
+        <v>17</v>
+      </c>
+      <c r="F402" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="2">
+        <v>45734.17708333334</v>
+      </c>
+      <c r="B403">
+        <v>-4</v>
+      </c>
+      <c r="C403">
+        <v>850.2</v>
+      </c>
+      <c r="D403">
+        <v>850.2</v>
+      </c>
+      <c r="E403">
+        <v>18</v>
+      </c>
+      <c r="F403" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="2">
+        <v>45734.1875</v>
+      </c>
+      <c r="B404">
+        <v>-5</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>851.98</v>
+      </c>
+      <c r="E404">
+        <v>19</v>
+      </c>
+      <c r="F404" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="2">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B405">
+        <v>-21</v>
+      </c>
+      <c r="C405">
+        <v>3704.3</v>
+      </c>
+      <c r="D405">
+        <v>3704.3</v>
+      </c>
+      <c r="E405">
+        <v>20</v>
+      </c>
+      <c r="F405" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="2">
+        <v>45734.20833333334</v>
+      </c>
+      <c r="B406">
+        <v>4</v>
+      </c>
+      <c r="C406">
+        <v>185.96</v>
+      </c>
+      <c r="D406">
+        <v>185.96</v>
+      </c>
+      <c r="E406">
+        <v>21</v>
+      </c>
+      <c r="F406" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="2">
+        <v>45734.21875</v>
+      </c>
+      <c r="B407">
+        <v>-0</v>
+      </c>
+      <c r="C407">
+        <v>362.78</v>
+      </c>
+      <c r="D407">
+        <v>848.6</v>
+      </c>
+      <c r="E407">
+        <v>22</v>
+      </c>
+      <c r="F407" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="2">
+        <v>45734.22916666666</v>
+      </c>
+      <c r="B408">
+        <v>-1</v>
+      </c>
+      <c r="C408">
+        <v>342.99</v>
+      </c>
+      <c r="D408">
+        <v>1716.05</v>
+      </c>
+      <c r="E408">
+        <v>23</v>
+      </c>
+      <c r="F408" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="2">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B409">
+        <v>-33</v>
+      </c>
+      <c r="C409">
+        <v>4383.15</v>
+      </c>
+      <c r="D409">
+        <v>4383.15</v>
+      </c>
+      <c r="E409">
+        <v>24</v>
+      </c>
+      <c r="F409" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="2">
+        <v>45734.25</v>
+      </c>
+      <c r="B410">
+        <v>-8</v>
+      </c>
+      <c r="C410">
+        <v>1298.73</v>
+      </c>
+      <c r="D410">
+        <v>1298.73</v>
+      </c>
+      <c r="E410">
+        <v>25</v>
+      </c>
+      <c r="F410" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="2">
+        <v>45734.26041666666</v>
+      </c>
+      <c r="B411">
+        <v>-31</v>
+      </c>
+      <c r="C411">
+        <v>1184.57</v>
+      </c>
+      <c r="D411">
+        <v>1184.57</v>
+      </c>
+      <c r="E411">
+        <v>26</v>
+      </c>
+      <c r="F411" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="2">
+        <v>45734.27083333334</v>
+      </c>
+      <c r="B412">
+        <v>-30</v>
+      </c>
+      <c r="C412">
+        <v>1148.93</v>
+      </c>
+      <c r="D412">
+        <v>1148.93</v>
+      </c>
+      <c r="E412">
+        <v>27</v>
+      </c>
+      <c r="F412" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="2">
+        <v>45734.28125</v>
+      </c>
+      <c r="B413">
+        <v>-28</v>
+      </c>
+      <c r="C413">
+        <v>1130.01</v>
+      </c>
+      <c r="D413">
+        <v>1130.01</v>
+      </c>
+      <c r="E413">
+        <v>28</v>
+      </c>
+      <c r="F413" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="2">
+        <v>45734.29166666666</v>
+      </c>
+      <c r="B414">
+        <v>-21</v>
+      </c>
+      <c r="C414">
+        <v>1875.93</v>
+      </c>
+      <c r="D414">
+        <v>1875.93</v>
+      </c>
+      <c r="E414">
+        <v>29</v>
+      </c>
+      <c r="F414" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="2">
+        <v>45734.30208333334</v>
+      </c>
+      <c r="B415">
+        <v>-22</v>
+      </c>
+      <c r="C415">
+        <v>1026.43</v>
+      </c>
+      <c r="D415">
+        <v>1026.43</v>
+      </c>
+      <c r="E415">
+        <v>30</v>
+      </c>
+      <c r="F415" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="2">
+        <v>45734.3125</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>369.83</v>
+      </c>
+      <c r="D416">
+        <v>550</v>
+      </c>
+      <c r="E416">
+        <v>31</v>
+      </c>
+      <c r="F416" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="2">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B417">
+        <v>11</v>
+      </c>
+      <c r="C417">
+        <v>199.73</v>
+      </c>
+      <c r="D417">
+        <v>199.73</v>
+      </c>
+      <c r="E417">
+        <v>32</v>
+      </c>
+      <c r="F417" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="2">
+        <v>45734.33333333334</v>
+      </c>
+      <c r="B418">
+        <v>-4</v>
+      </c>
+      <c r="C418">
+        <v>723.1</v>
+      </c>
+      <c r="D418">
+        <v>723.1</v>
+      </c>
+      <c r="E418">
+        <v>33</v>
+      </c>
+      <c r="F418" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="2">
+        <v>45734.34375</v>
+      </c>
+      <c r="B419">
+        <v>-2</v>
+      </c>
+      <c r="C419">
+        <v>306.38</v>
+      </c>
+      <c r="D419">
+        <v>550</v>
+      </c>
+      <c r="E419">
+        <v>34</v>
+      </c>
+      <c r="F419" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="2">
+        <v>45734.35416666666</v>
+      </c>
+      <c r="B420">
+        <v>4</v>
+      </c>
+      <c r="C420">
+        <v>207.89</v>
+      </c>
+      <c r="D420">
+        <v>207.89</v>
+      </c>
+      <c r="E420">
+        <v>35</v>
+      </c>
+      <c r="F420" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="2">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B421">
+        <v>41</v>
+      </c>
+      <c r="C421">
+        <v>-3823.97</v>
+      </c>
+      <c r="D421">
+        <v>-3823.97</v>
+      </c>
+      <c r="E421">
+        <v>36</v>
+      </c>
+      <c r="F421" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="2">
+        <v>45734.375</v>
+      </c>
+      <c r="B422">
+        <v>-3</v>
+      </c>
+      <c r="C422">
+        <v>195.34</v>
+      </c>
+      <c r="D422">
+        <v>711.12</v>
+      </c>
+      <c r="E422">
+        <v>37</v>
+      </c>
+      <c r="F422" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="2">
+        <v>45734.38541666666</v>
+      </c>
+      <c r="B423">
+        <v>-1</v>
+      </c>
+      <c r="C423">
+        <v>384.6</v>
+      </c>
+      <c r="D423">
+        <v>550</v>
+      </c>
+      <c r="E423">
+        <v>38</v>
+      </c>
+      <c r="F423" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="2">
+        <v>45734.39583333334</v>
+      </c>
+      <c r="B424">
+        <v>17</v>
+      </c>
+      <c r="C424">
+        <v>-3555.38</v>
+      </c>
+      <c r="D424">
+        <v>-3555.38</v>
+      </c>
+      <c r="E424">
+        <v>39</v>
+      </c>
+      <c r="F424" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="2">
+        <v>45734.40625</v>
+      </c>
+      <c r="B425">
+        <v>43</v>
+      </c>
+      <c r="C425">
+        <v>-5669.62</v>
+      </c>
+      <c r="D425">
+        <v>-5669.62</v>
+      </c>
+      <c r="E425">
+        <v>40</v>
+      </c>
+      <c r="F425" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="2">
+        <v>45734.41666666666</v>
+      </c>
+      <c r="B426">
+        <v>5</v>
+      </c>
+      <c r="C426">
+        <v>-903.66</v>
+      </c>
+      <c r="D426">
+        <v>590.13</v>
+      </c>
+      <c r="E426">
+        <v>41</v>
+      </c>
+      <c r="F426" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="2">
+        <v>45734.42708333334</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>84.84</v>
+      </c>
+      <c r="D427">
+        <v>550</v>
+      </c>
+      <c r="E427">
+        <v>42</v>
+      </c>
+      <c r="F427" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="2">
+        <v>45734.4375</v>
+      </c>
+      <c r="B428">
+        <v>20</v>
+      </c>
+      <c r="C428">
+        <v>-103.52</v>
+      </c>
+      <c r="D428">
+        <v>-103.52</v>
+      </c>
+      <c r="E428">
+        <v>43</v>
+      </c>
+      <c r="F428" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="2">
+        <v>45734.44791666666</v>
+      </c>
+      <c r="B429">
+        <v>31</v>
+      </c>
+      <c r="C429">
+        <v>-885.6900000000001</v>
+      </c>
+      <c r="D429">
+        <v>-885.6900000000001</v>
+      </c>
+      <c r="E429">
+        <v>44</v>
+      </c>
+      <c r="F429" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="2">
+        <v>45734.45833333334</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>45</v>
+      </c>
+      <c r="F430" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="2">
+        <v>45734.46875</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>46</v>
+      </c>
+      <c r="F431" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="2">
+        <v>45734.47916666666</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>47</v>
+      </c>
+      <c r="F432" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="2">
+        <v>45734.48958333334</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>48</v>
+      </c>
+      <c r="F433" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="2">
+        <v>45734.5</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>49</v>
+      </c>
+      <c r="F434" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="2">
+        <v>45734.51041666666</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>50</v>
+      </c>
+      <c r="F435" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="2">
+        <v>45734.52083333334</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>51</v>
+      </c>
+      <c r="F436" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="2">
+        <v>45734.53125</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>52</v>
+      </c>
+      <c r="F437" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="2">
+        <v>45734.54166666666</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>53</v>
+      </c>
+      <c r="F438" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="2">
+        <v>45734.55208333334</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>54</v>
+      </c>
+      <c r="F439" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="2">
+        <v>45734.5625</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>55</v>
+      </c>
+      <c r="F440" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="2">
+        <v>45734.57291666666</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>56</v>
+      </c>
+      <c r="F441" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="2">
+        <v>45734.58333333334</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>57</v>
+      </c>
+      <c r="F442" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="2">
+        <v>45734.59375</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>58</v>
+      </c>
+      <c r="F443" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="2">
+        <v>45734.60416666666</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>59</v>
+      </c>
+      <c r="F444" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="2">
+        <v>45734.61458333334</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>60</v>
+      </c>
+      <c r="F445" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="2">
+        <v>45734.625</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>61</v>
+      </c>
+      <c r="F446" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2">
+        <v>45734.63541666666</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>62</v>
+      </c>
+      <c r="F447" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="2">
+        <v>45734.64583333334</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>63</v>
+      </c>
+      <c r="F448" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="2">
+        <v>45734.65625</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>64</v>
+      </c>
+      <c r="F449" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="2">
+        <v>45734.66666666666</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>65</v>
+      </c>
+      <c r="F450" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="2">
+        <v>45734.67708333334</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>66</v>
+      </c>
+      <c r="F451" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="2">
+        <v>45734.6875</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>67</v>
+      </c>
+      <c r="F452" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="2">
+        <v>45734.69791666666</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>68</v>
+      </c>
+      <c r="F453" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="2">
+        <v>45734.70833333334</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>69</v>
+      </c>
+      <c r="F454" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="2">
+        <v>45734.71875</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>70</v>
+      </c>
+      <c r="F455" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="2">
+        <v>45734.72916666666</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>71</v>
+      </c>
+      <c r="F456" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="2">
+        <v>45734.73958333334</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>72</v>
+      </c>
+      <c r="F457" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="2">
+        <v>45734.75</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>73</v>
+      </c>
+      <c r="F458" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="2">
+        <v>45734.76041666666</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>74</v>
+      </c>
+      <c r="F459" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="2">
+        <v>45734.77083333334</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>75</v>
+      </c>
+      <c r="F460" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="2">
+        <v>45734.78125</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>76</v>
+      </c>
+      <c r="F461" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="2">
+        <v>45734.79166666666</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>77</v>
+      </c>
+      <c r="F462" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="2">
+        <v>45734.80208333334</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>78</v>
+      </c>
+      <c r="F463" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="2">
+        <v>45734.8125</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>79</v>
+      </c>
+      <c r="F464" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="2">
+        <v>45734.82291666666</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>80</v>
+      </c>
+      <c r="F465" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="2">
+        <v>45734.83333333334</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>81</v>
+      </c>
+      <c r="F466" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="2">
+        <v>45734.84375</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>82</v>
+      </c>
+      <c r="F467" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="2">
+        <v>45734.85416666666</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>83</v>
+      </c>
+      <c r="F468" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="2">
+        <v>45734.86458333334</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>84</v>
+      </c>
+      <c r="F469" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="2">
+        <v>45734.875</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>85</v>
+      </c>
+      <c r="F470" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="2">
+        <v>45734.88541666666</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>86</v>
+      </c>
+      <c r="F471" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="2">
+        <v>45734.89583333334</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>87</v>
+      </c>
+      <c r="F472" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="2">
+        <v>45734.90625</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>88</v>
+      </c>
+      <c r="F473" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="2">
+        <v>45734.91666666666</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>89</v>
+      </c>
+      <c r="F474" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="2">
+        <v>45734.92708333334</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>90</v>
+      </c>
+      <c r="F475" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" s="2">
+        <v>45734.9375</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>91</v>
+      </c>
+      <c r="F476" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="2">
+        <v>45734.94791666666</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>92</v>
+      </c>
+      <c r="F477" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="2">
+        <v>45734.95833333334</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>93</v>
+      </c>
+      <c r="F478" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="2">
+        <v>45734.96875</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>94</v>
+      </c>
+      <c r="F479" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="2">
+        <v>45734.97916666666</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>95</v>
+      </c>
+      <c r="F480" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="2">
+        <v>45734.98958333334</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>96</v>
+      </c>
+      <c r="F481" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.03.20251</t>
-  </si>
-  <si>
-    <t>23.03.20252</t>
-  </si>
-  <si>
-    <t>23.03.20253</t>
-  </si>
-  <si>
-    <t>23.03.20254</t>
-  </si>
-  <si>
-    <t>23.03.20255</t>
-  </si>
-  <si>
-    <t>23.03.20256</t>
-  </si>
-  <si>
-    <t>23.03.20257</t>
-  </si>
-  <si>
-    <t>23.03.20258</t>
-  </si>
-  <si>
-    <t>23.03.20259</t>
-  </si>
-  <si>
-    <t>23.03.202510</t>
-  </si>
-  <si>
-    <t>23.03.202511</t>
-  </si>
-  <si>
-    <t>23.03.202512</t>
-  </si>
-  <si>
-    <t>23.03.202513</t>
-  </si>
-  <si>
-    <t>23.03.202514</t>
-  </si>
-  <si>
-    <t>23.03.202515</t>
-  </si>
-  <si>
-    <t>23.03.202516</t>
-  </si>
-  <si>
-    <t>23.03.202517</t>
-  </si>
-  <si>
-    <t>23.03.202518</t>
-  </si>
-  <si>
-    <t>23.03.202519</t>
-  </si>
-  <si>
-    <t>23.03.202520</t>
-  </si>
-  <si>
-    <t>23.03.202521</t>
-  </si>
-  <si>
-    <t>23.03.202522</t>
-  </si>
-  <si>
-    <t>23.03.202523</t>
-  </si>
-  <si>
-    <t>23.03.202524</t>
-  </si>
-  <si>
-    <t>23.03.202525</t>
-  </si>
-  <si>
-    <t>23.03.202526</t>
-  </si>
-  <si>
-    <t>23.03.202527</t>
-  </si>
-  <si>
-    <t>23.03.202528</t>
-  </si>
-  <si>
-    <t>23.03.202529</t>
-  </si>
-  <si>
-    <t>23.03.202530</t>
-  </si>
-  <si>
-    <t>23.03.202531</t>
-  </si>
-  <si>
-    <t>23.03.202532</t>
-  </si>
-  <si>
-    <t>23.03.202533</t>
-  </si>
-  <si>
-    <t>23.03.202534</t>
-  </si>
-  <si>
-    <t>23.03.202535</t>
-  </si>
-  <si>
-    <t>23.03.202536</t>
-  </si>
-  <si>
-    <t>23.03.202537</t>
-  </si>
-  <si>
-    <t>23.03.202538</t>
-  </si>
-  <si>
-    <t>23.03.202539</t>
-  </si>
-  <si>
-    <t>23.03.202540</t>
-  </si>
-  <si>
-    <t>23.03.202541</t>
-  </si>
-  <si>
-    <t>23.03.202542</t>
-  </si>
-  <si>
-    <t>23.03.202543</t>
-  </si>
-  <si>
-    <t>23.03.202544</t>
-  </si>
-  <si>
-    <t>23.03.202545</t>
-  </si>
-  <si>
-    <t>23.03.202546</t>
-  </si>
-  <si>
-    <t>23.03.202547</t>
-  </si>
-  <si>
-    <t>23.03.202548</t>
-  </si>
-  <si>
-    <t>23.03.202549</t>
-  </si>
-  <si>
-    <t>23.03.202550</t>
-  </si>
-  <si>
-    <t>23.03.202551</t>
-  </si>
-  <si>
-    <t>23.03.202552</t>
-  </si>
-  <si>
-    <t>23.03.202553</t>
-  </si>
-  <si>
-    <t>23.03.202554</t>
-  </si>
-  <si>
-    <t>23.03.202555</t>
-  </si>
-  <si>
-    <t>23.03.202556</t>
-  </si>
-  <si>
-    <t>23.03.202557</t>
-  </si>
-  <si>
-    <t>23.03.202558</t>
-  </si>
-  <si>
-    <t>23.03.202559</t>
-  </si>
-  <si>
-    <t>23.03.202560</t>
-  </si>
-  <si>
-    <t>23.03.202561</t>
-  </si>
-  <si>
-    <t>23.03.202562</t>
-  </si>
-  <si>
-    <t>23.03.202563</t>
-  </si>
-  <si>
-    <t>23.03.202564</t>
-  </si>
-  <si>
-    <t>23.03.202565</t>
-  </si>
-  <si>
-    <t>23.03.202566</t>
-  </si>
-  <si>
-    <t>23.03.202567</t>
-  </si>
-  <si>
-    <t>23.03.202568</t>
-  </si>
-  <si>
-    <t>23.03.202569</t>
-  </si>
-  <si>
-    <t>23.03.202570</t>
-  </si>
-  <si>
-    <t>23.03.202571</t>
-  </si>
-  <si>
-    <t>23.03.202572</t>
-  </si>
-  <si>
-    <t>23.03.202573</t>
-  </si>
-  <si>
-    <t>23.03.202574</t>
-  </si>
-  <si>
-    <t>23.03.202575</t>
-  </si>
-  <si>
-    <t>23.03.202576</t>
-  </si>
-  <si>
-    <t>23.03.202577</t>
-  </si>
-  <si>
-    <t>23.03.202578</t>
-  </si>
-  <si>
-    <t>23.03.202579</t>
-  </si>
-  <si>
-    <t>23.03.202580</t>
-  </si>
-  <si>
-    <t>23.03.202581</t>
-  </si>
-  <si>
-    <t>23.03.202582</t>
-  </si>
-  <si>
-    <t>23.03.202583</t>
-  </si>
-  <si>
-    <t>23.03.202584</t>
-  </si>
-  <si>
-    <t>23.03.202585</t>
-  </si>
-  <si>
-    <t>23.03.202586</t>
-  </si>
-  <si>
-    <t>23.03.202587</t>
-  </si>
-  <si>
-    <t>23.03.202588</t>
-  </si>
-  <si>
-    <t>23.03.202589</t>
-  </si>
-  <si>
-    <t>23.03.202590</t>
-  </si>
-  <si>
-    <t>23.03.202591</t>
-  </si>
-  <si>
-    <t>23.03.202592</t>
-  </si>
-  <si>
-    <t>23.03.202593</t>
-  </si>
-  <si>
-    <t>23.03.202594</t>
-  </si>
-  <si>
-    <t>23.03.202595</t>
-  </si>
-  <si>
-    <t>23.03.202596</t>
-  </si>
-  <si>
     <t>24.03.20251</t>
   </si>
   <si>
@@ -608,6 +320,294 @@
   </si>
   <si>
     <t>24.03.202596</t>
+  </si>
+  <si>
+    <t>25.03.20251</t>
+  </si>
+  <si>
+    <t>25.03.20252</t>
+  </si>
+  <si>
+    <t>25.03.20253</t>
+  </si>
+  <si>
+    <t>25.03.20254</t>
+  </si>
+  <si>
+    <t>25.03.20255</t>
+  </si>
+  <si>
+    <t>25.03.20256</t>
+  </si>
+  <si>
+    <t>25.03.20257</t>
+  </si>
+  <si>
+    <t>25.03.20258</t>
+  </si>
+  <si>
+    <t>25.03.20259</t>
+  </si>
+  <si>
+    <t>25.03.202510</t>
+  </si>
+  <si>
+    <t>25.03.202511</t>
+  </si>
+  <si>
+    <t>25.03.202512</t>
+  </si>
+  <si>
+    <t>25.03.202513</t>
+  </si>
+  <si>
+    <t>25.03.202514</t>
+  </si>
+  <si>
+    <t>25.03.202515</t>
+  </si>
+  <si>
+    <t>25.03.202516</t>
+  </si>
+  <si>
+    <t>25.03.202517</t>
+  </si>
+  <si>
+    <t>25.03.202518</t>
+  </si>
+  <si>
+    <t>25.03.202519</t>
+  </si>
+  <si>
+    <t>25.03.202520</t>
+  </si>
+  <si>
+    <t>25.03.202521</t>
+  </si>
+  <si>
+    <t>25.03.202522</t>
+  </si>
+  <si>
+    <t>25.03.202523</t>
+  </si>
+  <si>
+    <t>25.03.202524</t>
+  </si>
+  <si>
+    <t>25.03.202525</t>
+  </si>
+  <si>
+    <t>25.03.202526</t>
+  </si>
+  <si>
+    <t>25.03.202527</t>
+  </si>
+  <si>
+    <t>25.03.202528</t>
+  </si>
+  <si>
+    <t>25.03.202529</t>
+  </si>
+  <si>
+    <t>25.03.202530</t>
+  </si>
+  <si>
+    <t>25.03.202531</t>
+  </si>
+  <si>
+    <t>25.03.202532</t>
+  </si>
+  <si>
+    <t>25.03.202533</t>
+  </si>
+  <si>
+    <t>25.03.202534</t>
+  </si>
+  <si>
+    <t>25.03.202535</t>
+  </si>
+  <si>
+    <t>25.03.202536</t>
+  </si>
+  <si>
+    <t>25.03.202537</t>
+  </si>
+  <si>
+    <t>25.03.202538</t>
+  </si>
+  <si>
+    <t>25.03.202539</t>
+  </si>
+  <si>
+    <t>25.03.202540</t>
+  </si>
+  <si>
+    <t>25.03.202541</t>
+  </si>
+  <si>
+    <t>25.03.202542</t>
+  </si>
+  <si>
+    <t>25.03.202543</t>
+  </si>
+  <si>
+    <t>25.03.202544</t>
+  </si>
+  <si>
+    <t>25.03.202545</t>
+  </si>
+  <si>
+    <t>25.03.202546</t>
+  </si>
+  <si>
+    <t>25.03.202547</t>
+  </si>
+  <si>
+    <t>25.03.202548</t>
+  </si>
+  <si>
+    <t>25.03.202549</t>
+  </si>
+  <si>
+    <t>25.03.202550</t>
+  </si>
+  <si>
+    <t>25.03.202551</t>
+  </si>
+  <si>
+    <t>25.03.202552</t>
+  </si>
+  <si>
+    <t>25.03.202553</t>
+  </si>
+  <si>
+    <t>25.03.202554</t>
+  </si>
+  <si>
+    <t>25.03.202555</t>
+  </si>
+  <si>
+    <t>25.03.202556</t>
+  </si>
+  <si>
+    <t>25.03.202557</t>
+  </si>
+  <si>
+    <t>25.03.202558</t>
+  </si>
+  <si>
+    <t>25.03.202559</t>
+  </si>
+  <si>
+    <t>25.03.202560</t>
+  </si>
+  <si>
+    <t>25.03.202561</t>
+  </si>
+  <si>
+    <t>25.03.202562</t>
+  </si>
+  <si>
+    <t>25.03.202563</t>
+  </si>
+  <si>
+    <t>25.03.202564</t>
+  </si>
+  <si>
+    <t>25.03.202565</t>
+  </si>
+  <si>
+    <t>25.03.202566</t>
+  </si>
+  <si>
+    <t>25.03.202567</t>
+  </si>
+  <si>
+    <t>25.03.202568</t>
+  </si>
+  <si>
+    <t>25.03.202569</t>
+  </si>
+  <si>
+    <t>25.03.202570</t>
+  </si>
+  <si>
+    <t>25.03.202571</t>
+  </si>
+  <si>
+    <t>25.03.202572</t>
+  </si>
+  <si>
+    <t>25.03.202573</t>
+  </si>
+  <si>
+    <t>25.03.202574</t>
+  </si>
+  <si>
+    <t>25.03.202575</t>
+  </si>
+  <si>
+    <t>25.03.202576</t>
+  </si>
+  <si>
+    <t>25.03.202577</t>
+  </si>
+  <si>
+    <t>25.03.202578</t>
+  </si>
+  <si>
+    <t>25.03.202579</t>
+  </si>
+  <si>
+    <t>25.03.202580</t>
+  </si>
+  <si>
+    <t>25.03.202581</t>
+  </si>
+  <si>
+    <t>25.03.202582</t>
+  </si>
+  <si>
+    <t>25.03.202583</t>
+  </si>
+  <si>
+    <t>25.03.202584</t>
+  </si>
+  <si>
+    <t>25.03.202585</t>
+  </si>
+  <si>
+    <t>25.03.202586</t>
+  </si>
+  <si>
+    <t>25.03.202587</t>
+  </si>
+  <si>
+    <t>25.03.202588</t>
+  </si>
+  <si>
+    <t>25.03.202589</t>
+  </si>
+  <si>
+    <t>25.03.202590</t>
+  </si>
+  <si>
+    <t>25.03.202591</t>
+  </si>
+  <si>
+    <t>25.03.202592</t>
+  </si>
+  <si>
+    <t>25.03.202593</t>
+  </si>
+  <si>
+    <t>25.03.202594</t>
+  </si>
+  <si>
+    <t>25.03.202595</t>
+  </si>
+  <si>
+    <t>25.03.202596</t>
   </si>
 </sst>
 </file>
@@ -997,16 +997,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="B2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>562.02</v>
+        <v>294.13</v>
       </c>
       <c r="D2">
-        <v>562.02</v>
+        <v>744</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45739.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>375.91</v>
+        <v>229.75</v>
       </c>
       <c r="D3">
-        <v>549.5</v>
+        <v>229.75</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45739.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>199.88</v>
+        <v>295.31</v>
       </c>
       <c r="D4">
-        <v>199.88</v>
+        <v>295.31</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45739.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>168.86</v>
+        <v>396.56</v>
       </c>
       <c r="D5">
-        <v>168.86</v>
+        <v>744</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45739.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>122.48</v>
+        <v>270.58</v>
       </c>
       <c r="D6">
-        <v>122.48</v>
+        <v>270.58</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45739.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>130.25</v>
+        <v>297.29</v>
       </c>
       <c r="D7">
-        <v>130.25</v>
+        <v>297.29</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45739.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C8">
-        <v>16.47</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16.47</v>
+        <v>746.3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45739.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>158.59</v>
+        <v>400</v>
       </c>
       <c r="D9">
-        <v>158.59</v>
+        <v>885.1900000000001</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45739.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B10">
-        <v>-0</v>
+        <v>-14</v>
       </c>
       <c r="C10">
-        <v>380.91</v>
+        <v>990.5700000000001</v>
       </c>
       <c r="D10">
-        <v>549</v>
+        <v>990.5700000000001</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45739.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-26</v>
       </c>
       <c r="C11">
-        <v>220.51</v>
+        <v>1336.06</v>
       </c>
       <c r="D11">
-        <v>549</v>
+        <v>1336.06</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45739.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B12">
-        <v>-0</v>
+        <v>-23</v>
       </c>
       <c r="C12">
-        <v>329.58</v>
+        <v>2767.04</v>
       </c>
       <c r="D12">
-        <v>549</v>
+        <v>2767.04</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45739.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="C13">
-        <v>381.87</v>
+        <v>390</v>
       </c>
       <c r="D13">
-        <v>549</v>
+        <v>3396.52</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45739.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B14">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="C14">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D14">
-        <v>549.6</v>
+        <v>961.4400000000001</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45739.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B15">
-        <v>-0</v>
+        <v>-25</v>
       </c>
       <c r="C15">
-        <v>361.43</v>
+        <v>1208.23</v>
       </c>
       <c r="D15">
-        <v>549</v>
+        <v>1208.23</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45739.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="C16">
-        <v>383.99</v>
+        <v>5924.32</v>
       </c>
       <c r="D16">
-        <v>549</v>
+        <v>5924.32</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45739.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="C17">
-        <v>346.1</v>
+        <v>5436.98</v>
       </c>
       <c r="D17">
-        <v>545.89</v>
+        <v>5436.98</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45739.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>277.21</v>
       </c>
       <c r="D18">
-        <v>549.9400000000001</v>
+        <v>277.21</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45739.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B19">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>552.72</v>
+        <v>255.74</v>
       </c>
       <c r="D19">
-        <v>552.72</v>
+        <v>255.74</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45739.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>390</v>
+        <v>201.81</v>
       </c>
       <c r="D20">
-        <v>549.66</v>
+        <v>201.81</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45739.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B21">
-        <v>-0</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>375.19</v>
+        <v>115.65</v>
       </c>
       <c r="D21">
-        <v>538.67</v>
+        <v>115.65</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45739.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B22">
-        <v>-5</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>549.9</v>
+        <v>-4368.95</v>
       </c>
       <c r="D22">
-        <v>549.9</v>
+        <v>-4368.95</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45739.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C23">
-        <v>207.62</v>
+        <v>-3658.46</v>
       </c>
       <c r="D23">
-        <v>549.33</v>
+        <v>-3658.46</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45739.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>190</v>
+        <v>-1700.31</v>
       </c>
       <c r="D24">
-        <v>190</v>
+        <v>-1700.31</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45739.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>184.08</v>
+        <v>198.16</v>
       </c>
       <c r="D25">
-        <v>184.08</v>
+        <v>198.16</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45739.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B26">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>727.65</v>
+        <v>-1322.78</v>
       </c>
       <c r="D26">
-        <v>727.65</v>
+        <v>-1322.78</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45739.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B27">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>357.27</v>
+        <v>395.09</v>
       </c>
       <c r="D27">
-        <v>585.96</v>
+        <v>1056.16</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45739.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C28">
-        <v>318.03</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>530</v>
+        <v>1051.42</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45739.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="C29">
-        <v>322.66</v>
+        <v>1132.53</v>
       </c>
       <c r="D29">
-        <v>549.88</v>
+        <v>1132.53</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45739.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B30">
-        <v>-27</v>
+        <v>-2</v>
       </c>
       <c r="C30">
-        <v>5787.46</v>
+        <v>400</v>
       </c>
       <c r="D30">
-        <v>5787.46</v>
+        <v>994.8200000000001</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45739.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B31">
-        <v>-44</v>
+        <v>-16</v>
       </c>
       <c r="C31">
-        <v>3996.75</v>
+        <v>1254.28</v>
       </c>
       <c r="D31">
-        <v>3996.75</v>
+        <v>1254.28</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45739.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B32">
-        <v>-25</v>
+        <v>-14</v>
       </c>
       <c r="C32">
-        <v>691.78</v>
+        <v>1195.39</v>
       </c>
       <c r="D32">
-        <v>691.78</v>
+        <v>1195.39</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45739.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C33">
-        <v>4131.24</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4131.24</v>
+        <v>998.88</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45739.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B34">
-        <v>-39</v>
+        <v>-5</v>
       </c>
       <c r="C34">
-        <v>6261.18</v>
+        <v>999.87</v>
       </c>
       <c r="D34">
-        <v>6261.18</v>
+        <v>999.87</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45739.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B35">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="C35">
-        <v>648.34</v>
+        <v>999.62</v>
       </c>
       <c r="D35">
-        <v>648.34</v>
+        <v>999.62</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45739.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B36">
         <v>-1</v>
       </c>
       <c r="C36">
-        <v>224.99</v>
+        <v>398.83</v>
       </c>
       <c r="D36">
-        <v>520.35</v>
+        <v>989.2</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45739.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>190.93</v>
+        <v>362.27</v>
       </c>
       <c r="D37">
-        <v>513.24</v>
+        <v>879.75</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45739.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B38">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>644.98</v>
+        <v>289.16</v>
       </c>
       <c r="D38">
-        <v>644.98</v>
+        <v>845.12</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45739.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B39">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>201.77</v>
+        <v>294.34</v>
       </c>
       <c r="D39">
-        <v>537.73</v>
+        <v>844.11</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45739.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>212.89</v>
+        <v>380.71</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>845.5700000000001</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45739.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>186.82</v>
+        <v>345.04</v>
       </c>
       <c r="D41">
-        <v>186.82</v>
+        <v>842.89</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45739.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>347.72</v>
+        <v>311.12</v>
       </c>
       <c r="D42">
-        <v>518.6</v>
+        <v>846.4400000000001</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45739.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B43">
-        <v>-0</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>390</v>
+        <v>63.41</v>
       </c>
       <c r="D43">
-        <v>520.01</v>
+        <v>63.41</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45739.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>384.37</v>
+        <v>53.25</v>
       </c>
       <c r="D44">
-        <v>518.6</v>
+        <v>53.25</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45739.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B45">
-        <v>-0</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>300.91</v>
+        <v>30.94</v>
       </c>
       <c r="D45">
-        <v>518.6</v>
+        <v>30.94</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45739.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B46">
-        <v>-7</v>
+        <v>26</v>
       </c>
       <c r="C46">
-        <v>390</v>
+        <v>7.6</v>
       </c>
       <c r="D46">
-        <v>1125.94</v>
+        <v>7.6</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45739.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B47">
-        <v>-43</v>
+        <v>26</v>
       </c>
       <c r="C47">
-        <v>510.19</v>
+        <v>70.45</v>
       </c>
       <c r="D47">
-        <v>510.19</v>
+        <v>70.45</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45739.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B48">
-        <v>-35</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>503.49</v>
+        <v>66.14</v>
       </c>
       <c r="D48">
-        <v>503.49</v>
+        <v>66.14</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45739.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B49">
-        <v>-37</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>506.65</v>
+        <v>-1.87</v>
       </c>
       <c r="D49">
-        <v>506.65</v>
+        <v>-1.87</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45739.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B50">
-        <v>-31</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>519.54</v>
+        <v>0.91</v>
       </c>
       <c r="D50">
-        <v>519.54</v>
+        <v>0.91</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45739.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B51">
-        <v>-29</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>522.98</v>
+        <v>-7.48</v>
       </c>
       <c r="D51">
-        <v>522.98</v>
+        <v>-7.48</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45739.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B52">
-        <v>-15</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>527.3200000000001</v>
+        <v>-5.78</v>
       </c>
       <c r="D52">
-        <v>527.3200000000001</v>
+        <v>-5.78</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45739.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B53">
-        <v>-17</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>525.6900000000001</v>
+        <v>-3.27</v>
       </c>
       <c r="D53">
-        <v>525.6900000000001</v>
+        <v>-3.27</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45739.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B54">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>472.7</v>
+        <v>34.05</v>
       </c>
       <c r="D54">
-        <v>472.7</v>
+        <v>34.05</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45739.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B55">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>471.71</v>
+        <v>56.85</v>
       </c>
       <c r="D55">
-        <v>471.71</v>
+        <v>56.85</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45739.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B56">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>549.51</v>
+        <v>-5.73</v>
       </c>
       <c r="D56">
-        <v>549.51</v>
+        <v>-5.73</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45739.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B57">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>549.91</v>
+        <v>189.08</v>
       </c>
       <c r="D57">
-        <v>549.91</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45739.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B58">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="C58">
-        <v>548.49</v>
+        <v>108.61</v>
       </c>
       <c r="D58">
-        <v>548.49</v>
+        <v>108.61</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45739.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B59">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="C59">
-        <v>550</v>
+        <v>354.68</v>
       </c>
       <c r="D59">
-        <v>550</v>
+        <v>917.76</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45739.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B60">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="C60">
-        <v>626.05</v>
+        <v>952.83</v>
       </c>
       <c r="D60">
-        <v>626.05</v>
+        <v>952.83</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45739.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B61">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="C61">
-        <v>718.6799999999999</v>
+        <v>1015.76</v>
       </c>
       <c r="D61">
-        <v>718.6799999999999</v>
+        <v>1015.76</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45739.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B62">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="C62">
-        <v>390</v>
+        <v>1035.86</v>
       </c>
       <c r="D62">
-        <v>550</v>
+        <v>1035.86</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45739.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="C63">
-        <v>196.86</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>550</v>
+        <v>1078.41</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45739.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="C64">
-        <v>228.74</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>550</v>
+        <v>1076.19</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45739.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B65">
-        <v>-4</v>
+        <v>-36</v>
       </c>
       <c r="C65">
-        <v>550.45</v>
+        <v>997.03</v>
       </c>
       <c r="D65">
-        <v>550.45</v>
+        <v>997.03</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45739.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>-25</v>
       </c>
       <c r="C66">
-        <v>-1928.36</v>
+        <v>1000.46</v>
       </c>
       <c r="D66">
-        <v>-1928.36</v>
+        <v>1000.46</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45739.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>-35</v>
       </c>
       <c r="C67">
-        <v>-13.43</v>
+        <v>1039.88</v>
       </c>
       <c r="D67">
-        <v>-13.43</v>
+        <v>1039.88</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45739.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B68">
-        <v>-4</v>
+        <v>-33</v>
       </c>
       <c r="C68">
-        <v>212.4</v>
+        <v>1010.46</v>
       </c>
       <c r="D68">
-        <v>861.48</v>
+        <v>1010.46</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45739.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B69">
-        <v>-27</v>
+        <v>-44</v>
       </c>
       <c r="C69">
-        <v>3543.98</v>
+        <v>1048.47</v>
       </c>
       <c r="D69">
-        <v>3543.98</v>
+        <v>1048.47</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45739.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B70">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="C70">
-        <v>859.6799999999999</v>
+        <v>-3547.91</v>
       </c>
       <c r="D70">
-        <v>859.6799999999999</v>
+        <v>1217.95</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45739.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B71">
-        <v>-9</v>
+        <v>-25</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1216.52</v>
       </c>
       <c r="D71">
-        <v>4158.5</v>
+        <v>1216.52</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45739.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B72">
-        <v>-35</v>
+        <v>-25</v>
       </c>
       <c r="C72">
-        <v>4305.07</v>
+        <v>1224.24</v>
       </c>
       <c r="D72">
-        <v>4305.07</v>
+        <v>1224.24</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45739.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B73">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1203.47</v>
       </c>
       <c r="D73">
-        <v>8001</v>
+        <v>1203.47</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45739.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B74">
-        <v>-42</v>
+        <v>-15</v>
       </c>
       <c r="C74">
-        <v>6607.44</v>
+        <v>-1631.38</v>
       </c>
       <c r="D74">
-        <v>6607.44</v>
+        <v>1486.74</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45739.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B75">
-        <v>-65</v>
+        <v>-24</v>
       </c>
       <c r="C75">
-        <v>5226.36</v>
+        <v>1518.95</v>
       </c>
       <c r="D75">
-        <v>5226.36</v>
+        <v>1518.95</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45739.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B76">
-        <v>-47</v>
+        <v>-8</v>
       </c>
       <c r="C76">
-        <v>5226.36</v>
+        <v>1220.47</v>
       </c>
       <c r="D76">
-        <v>5226.36</v>
+        <v>1220.47</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45739.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B77">
-        <v>-51</v>
+        <v>-10</v>
       </c>
       <c r="C77">
-        <v>5226.36</v>
+        <v>1088.29</v>
       </c>
       <c r="D77">
-        <v>5226.36</v>
+        <v>1088.29</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45739.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B78">
-        <v>-71</v>
+        <v>-6</v>
       </c>
       <c r="C78">
-        <v>1886.57</v>
+        <v>1012.54</v>
       </c>
       <c r="D78">
-        <v>1886.57</v>
+        <v>1012.54</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45739.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B79">
-        <v>-51</v>
+        <v>-2</v>
       </c>
       <c r="C79">
-        <v>1055.62</v>
+        <v>400</v>
       </c>
       <c r="D79">
-        <v>1055.62</v>
+        <v>985.27</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45739.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B80">
-        <v>-51</v>
+        <v>-0</v>
       </c>
       <c r="C80">
-        <v>1058.01</v>
+        <v>387.98</v>
       </c>
       <c r="D80">
-        <v>1058.01</v>
+        <v>971.48</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45739.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B81">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>855.45</v>
+        <v>383.15</v>
       </c>
       <c r="D81">
-        <v>855.45</v>
+        <v>840</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45739.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B82">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="C82">
-        <v>845.3</v>
+        <v>3343.16</v>
       </c>
       <c r="D82">
-        <v>845.3</v>
+        <v>3343.16</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45739.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B83">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="C83">
-        <v>393.33</v>
+        <v>998.58</v>
       </c>
       <c r="D83">
-        <v>586.3099999999999</v>
+        <v>998.58</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45739.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B84">
-        <v>-19</v>
+        <v>-4</v>
       </c>
       <c r="C84">
-        <v>996.76</v>
+        <v>1032.87</v>
       </c>
       <c r="D84">
-        <v>996.76</v>
+        <v>1032.87</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45739.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B85">
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>327.98</v>
       </c>
       <c r="D85">
-        <v>830.0599999999999</v>
+        <v>327.98</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45739.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B86">
-        <v>-24</v>
+        <v>-5</v>
       </c>
       <c r="C86">
-        <v>4342.19</v>
+        <v>1171.13</v>
       </c>
       <c r="D86">
-        <v>4342.19</v>
+        <v>1171.13</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45739.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B87">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>400</v>
+        <v>254.68</v>
       </c>
       <c r="D87">
-        <v>550</v>
+        <v>254.68</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45739.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B88">
-        <v>-33</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>5106.43</v>
+        <v>68.66</v>
       </c>
       <c r="D88">
-        <v>5106.43</v>
+        <v>68.66</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45739.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B89">
-        <v>-14</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>905.8099999999999</v>
+        <v>-3979.42</v>
       </c>
       <c r="D89">
-        <v>905.8099999999999</v>
+        <v>-3979.42</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45739.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B90">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>1025.44</v>
+        <v>-729.88</v>
       </c>
       <c r="D90">
-        <v>1025.44</v>
+        <v>-729.88</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45739.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B91">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>618.64</v>
+        <v>188.75</v>
       </c>
       <c r="D91">
-        <v>618.64</v>
+        <v>188.75</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45739.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B92">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>809.6900000000001</v>
+        <v>213.55</v>
       </c>
       <c r="D92">
-        <v>809.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45739.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B93">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>550</v>
+        <v>206.55</v>
       </c>
       <c r="D93">
-        <v>550</v>
+        <v>206.55</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45739.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>395.91</v>
+        <v>294.65</v>
       </c>
       <c r="D94">
-        <v>742.36</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45739.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B95">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>395.93</v>
+        <v>163.14</v>
       </c>
       <c r="D95">
         <v>744</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45739.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C96">
-        <v>395.74</v>
+        <v>217.42</v>
       </c>
       <c r="D96">
-        <v>744</v>
+        <v>217.42</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45739.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B97">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="C97">
-        <v>1069.32</v>
+        <v>-119.35</v>
       </c>
       <c r="D97">
-        <v>1069.32</v>
+        <v>-119.35</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C98">
-        <v>294.13</v>
+        <v>-1564.41</v>
       </c>
       <c r="D98">
-        <v>744</v>
+        <v>-1564.41</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C99">
-        <v>229.75</v>
+        <v>-2999</v>
       </c>
       <c r="D99">
-        <v>229.75</v>
+        <v>-2999</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C100">
-        <v>295.31</v>
+        <v>-1369.19</v>
       </c>
       <c r="D100">
-        <v>295.31</v>
+        <v>-1369.19</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C101">
-        <v>396.56</v>
+        <v>-1236.96</v>
       </c>
       <c r="D101">
-        <v>744</v>
+        <v>-1236.96</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>270.58</v>
+        <v>-1269.93</v>
       </c>
       <c r="D102">
-        <v>270.58</v>
+        <v>-1269.93</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C103">
-        <v>297.29</v>
+        <v>-4909.17</v>
       </c>
       <c r="D103">
-        <v>297.29</v>
+        <v>-4909.17</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-4445.09</v>
       </c>
       <c r="D104">
-        <v>746.3</v>
+        <v>-4445.09</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B105">
-        <v>-2</v>
+        <v>50</v>
       </c>
       <c r="C105">
-        <v>400</v>
+        <v>-6928.63</v>
       </c>
       <c r="D105">
-        <v>885.1900000000001</v>
+        <v>-6928.63</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B106">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>990.5700000000001</v>
+        <v>-644.5599999999999</v>
       </c>
       <c r="D106">
-        <v>990.5700000000001</v>
+        <v>-644.5599999999999</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B107">
-        <v>-26</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>1336.06</v>
+        <v>-5077.99</v>
       </c>
       <c r="D107">
-        <v>1336.06</v>
+        <v>-5077.99</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B108">
-        <v>-23</v>
+        <v>34</v>
       </c>
       <c r="C108">
-        <v>2767.04</v>
+        <v>-7262.71</v>
       </c>
       <c r="D108">
-        <v>2767.04</v>
+        <v>-7262.71</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B109">
-        <v>-18</v>
+        <v>33</v>
       </c>
       <c r="C109">
-        <v>390</v>
+        <v>-5624.02</v>
       </c>
       <c r="D109">
-        <v>3396.52</v>
+        <v>-5624.02</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B110">
-        <v>-9</v>
+        <v>43</v>
       </c>
       <c r="C110">
-        <v>400</v>
+        <v>27.66</v>
       </c>
       <c r="D110">
-        <v>961.4400000000001</v>
+        <v>27.66</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B111">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="C111">
-        <v>1208.23</v>
+        <v>19.09</v>
       </c>
       <c r="D111">
-        <v>1208.23</v>
+        <v>19.09</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B112">
-        <v>-42</v>
+        <v>38</v>
       </c>
       <c r="C112">
-        <v>5924.32</v>
+        <v>0.4</v>
       </c>
       <c r="D112">
-        <v>5924.32</v>
+        <v>0.4</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B113">
-        <v>-33</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>5436.98</v>
+        <v>206.72</v>
       </c>
       <c r="D113">
-        <v>5436.98</v>
+        <v>206.72</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>277.21</v>
+        <v>217.55</v>
       </c>
       <c r="D114">
-        <v>277.21</v>
+        <v>217.55</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>255.74</v>
+        <v>246.89</v>
       </c>
       <c r="D115">
-        <v>255.74</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>201.81</v>
+        <v>266.09</v>
       </c>
       <c r="D116">
-        <v>201.81</v>
+        <v>266.09</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>-3</v>
       </c>
       <c r="C117">
-        <v>115.65</v>
+        <v>390</v>
       </c>
       <c r="D117">
-        <v>115.65</v>
+        <v>879.5700000000001</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B118">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>-4368.95</v>
+        <v>295.02</v>
       </c>
       <c r="D118">
-        <v>-4368.95</v>
+        <v>848.1900000000001</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B119">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C119">
-        <v>-3658.46</v>
+        <v>204.08</v>
       </c>
       <c r="D119">
-        <v>-3658.46</v>
+        <v>204.08</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B120">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="C120">
-        <v>-1700.31</v>
+        <v>373.67</v>
       </c>
       <c r="D120">
-        <v>-1700.31</v>
+        <v>913.12</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C121">
-        <v>198.16</v>
+        <v>390</v>
       </c>
       <c r="D121">
-        <v>198.16</v>
+        <v>863.25</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>-1322.78</v>
+        <v>-36.32</v>
       </c>
       <c r="D122">
-        <v>-1322.78</v>
+        <v>-36.32</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>279.39</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>887.88</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>156.13</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>156.13</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>234.36</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-1012.15</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>-1012.15</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>308.55</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>-4126.05</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1158.16</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>-7837.98</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>-1489.19</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>-1489.19</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-914.3200000000001</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>-914.3200000000001</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-2586.82</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>-2586.82</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>-2232.74</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>-2232.74</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-552.61</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-552.61</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-126.28</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-126.28</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-630.9400000000001</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-630.9400000000001</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>-110.01</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-110.01</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>-128.33</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>-128.33</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +3757,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>31.14</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>31.14</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.03.20251</t>
-  </si>
-  <si>
-    <t>24.03.20252</t>
-  </si>
-  <si>
-    <t>24.03.20253</t>
-  </si>
-  <si>
-    <t>24.03.20254</t>
-  </si>
-  <si>
-    <t>24.03.20255</t>
-  </si>
-  <si>
-    <t>24.03.20256</t>
-  </si>
-  <si>
-    <t>24.03.20257</t>
-  </si>
-  <si>
-    <t>24.03.20258</t>
-  </si>
-  <si>
-    <t>24.03.20259</t>
-  </si>
-  <si>
-    <t>24.03.202510</t>
-  </si>
-  <si>
-    <t>24.03.202511</t>
-  </si>
-  <si>
-    <t>24.03.202512</t>
-  </si>
-  <si>
-    <t>24.03.202513</t>
-  </si>
-  <si>
-    <t>24.03.202514</t>
-  </si>
-  <si>
-    <t>24.03.202515</t>
-  </si>
-  <si>
-    <t>24.03.202516</t>
-  </si>
-  <si>
-    <t>24.03.202517</t>
-  </si>
-  <si>
-    <t>24.03.202518</t>
-  </si>
-  <si>
-    <t>24.03.202519</t>
-  </si>
-  <si>
-    <t>24.03.202520</t>
-  </si>
-  <si>
-    <t>24.03.202521</t>
-  </si>
-  <si>
-    <t>24.03.202522</t>
-  </si>
-  <si>
-    <t>24.03.202523</t>
-  </si>
-  <si>
-    <t>24.03.202524</t>
-  </si>
-  <si>
-    <t>24.03.202525</t>
-  </si>
-  <si>
-    <t>24.03.202526</t>
-  </si>
-  <si>
-    <t>24.03.202527</t>
-  </si>
-  <si>
-    <t>24.03.202528</t>
-  </si>
-  <si>
-    <t>24.03.202529</t>
-  </si>
-  <si>
-    <t>24.03.202530</t>
-  </si>
-  <si>
-    <t>24.03.202531</t>
-  </si>
-  <si>
-    <t>24.03.202532</t>
-  </si>
-  <si>
-    <t>24.03.202533</t>
-  </si>
-  <si>
-    <t>24.03.202534</t>
-  </si>
-  <si>
-    <t>24.03.202535</t>
-  </si>
-  <si>
-    <t>24.03.202536</t>
-  </si>
-  <si>
-    <t>24.03.202537</t>
-  </si>
-  <si>
-    <t>24.03.202538</t>
-  </si>
-  <si>
-    <t>24.03.202539</t>
-  </si>
-  <si>
-    <t>24.03.202540</t>
-  </si>
-  <si>
-    <t>24.03.202541</t>
-  </si>
-  <si>
-    <t>24.03.202542</t>
-  </si>
-  <si>
-    <t>24.03.202543</t>
-  </si>
-  <si>
-    <t>24.03.202544</t>
-  </si>
-  <si>
-    <t>24.03.202545</t>
-  </si>
-  <si>
-    <t>24.03.202546</t>
-  </si>
-  <si>
-    <t>24.03.202547</t>
-  </si>
-  <si>
-    <t>24.03.202548</t>
-  </si>
-  <si>
-    <t>24.03.202549</t>
-  </si>
-  <si>
-    <t>24.03.202550</t>
-  </si>
-  <si>
-    <t>24.03.202551</t>
-  </si>
-  <si>
-    <t>24.03.202552</t>
-  </si>
-  <si>
-    <t>24.03.202553</t>
-  </si>
-  <si>
-    <t>24.03.202554</t>
-  </si>
-  <si>
-    <t>24.03.202555</t>
-  </si>
-  <si>
-    <t>24.03.202556</t>
-  </si>
-  <si>
-    <t>24.03.202557</t>
-  </si>
-  <si>
-    <t>24.03.202558</t>
-  </si>
-  <si>
-    <t>24.03.202559</t>
-  </si>
-  <si>
-    <t>24.03.202560</t>
-  </si>
-  <si>
-    <t>24.03.202561</t>
-  </si>
-  <si>
-    <t>24.03.202562</t>
-  </si>
-  <si>
-    <t>24.03.202563</t>
-  </si>
-  <si>
-    <t>24.03.202564</t>
-  </si>
-  <si>
-    <t>24.03.202565</t>
-  </si>
-  <si>
-    <t>24.03.202566</t>
-  </si>
-  <si>
-    <t>24.03.202567</t>
-  </si>
-  <si>
-    <t>24.03.202568</t>
-  </si>
-  <si>
-    <t>24.03.202569</t>
-  </si>
-  <si>
-    <t>24.03.202570</t>
-  </si>
-  <si>
-    <t>24.03.202571</t>
-  </si>
-  <si>
-    <t>24.03.202572</t>
-  </si>
-  <si>
-    <t>24.03.202573</t>
-  </si>
-  <si>
-    <t>24.03.202574</t>
-  </si>
-  <si>
-    <t>24.03.202575</t>
-  </si>
-  <si>
-    <t>24.03.202576</t>
-  </si>
-  <si>
-    <t>24.03.202577</t>
-  </si>
-  <si>
-    <t>24.03.202578</t>
-  </si>
-  <si>
-    <t>24.03.202579</t>
-  </si>
-  <si>
-    <t>24.03.202580</t>
-  </si>
-  <si>
-    <t>24.03.202581</t>
-  </si>
-  <si>
-    <t>24.03.202582</t>
-  </si>
-  <si>
-    <t>24.03.202583</t>
-  </si>
-  <si>
-    <t>24.03.202584</t>
-  </si>
-  <si>
-    <t>24.03.202585</t>
-  </si>
-  <si>
-    <t>24.03.202586</t>
-  </si>
-  <si>
-    <t>24.03.202587</t>
-  </si>
-  <si>
-    <t>24.03.202588</t>
-  </si>
-  <si>
-    <t>24.03.202589</t>
-  </si>
-  <si>
-    <t>24.03.202590</t>
-  </si>
-  <si>
-    <t>24.03.202591</t>
-  </si>
-  <si>
-    <t>24.03.202592</t>
-  </si>
-  <si>
-    <t>24.03.202593</t>
-  </si>
-  <si>
-    <t>24.03.202594</t>
-  </si>
-  <si>
-    <t>24.03.202595</t>
-  </si>
-  <si>
-    <t>24.03.202596</t>
-  </si>
-  <si>
-    <t>25.03.20251</t>
-  </si>
-  <si>
-    <t>25.03.20252</t>
-  </si>
-  <si>
-    <t>25.03.20253</t>
-  </si>
-  <si>
-    <t>25.03.20254</t>
-  </si>
-  <si>
-    <t>25.03.20255</t>
-  </si>
-  <si>
-    <t>25.03.20256</t>
-  </si>
-  <si>
-    <t>25.03.20257</t>
-  </si>
-  <si>
-    <t>25.03.20258</t>
-  </si>
-  <si>
-    <t>25.03.20259</t>
-  </si>
-  <si>
-    <t>25.03.202510</t>
-  </si>
-  <si>
-    <t>25.03.202511</t>
-  </si>
-  <si>
-    <t>25.03.202512</t>
-  </si>
-  <si>
-    <t>25.03.202513</t>
-  </si>
-  <si>
-    <t>25.03.202514</t>
-  </si>
-  <si>
-    <t>25.03.202515</t>
-  </si>
-  <si>
-    <t>25.03.202516</t>
-  </si>
-  <si>
-    <t>25.03.202517</t>
-  </si>
-  <si>
-    <t>25.03.202518</t>
-  </si>
-  <si>
-    <t>25.03.202519</t>
-  </si>
-  <si>
-    <t>25.03.202520</t>
-  </si>
-  <si>
-    <t>25.03.202521</t>
-  </si>
-  <si>
-    <t>25.03.202522</t>
-  </si>
-  <si>
-    <t>25.03.202523</t>
-  </si>
-  <si>
-    <t>25.03.202524</t>
-  </si>
-  <si>
-    <t>25.03.202525</t>
-  </si>
-  <si>
-    <t>25.03.202526</t>
-  </si>
-  <si>
-    <t>25.03.202527</t>
-  </si>
-  <si>
-    <t>25.03.202528</t>
-  </si>
-  <si>
-    <t>25.03.202529</t>
-  </si>
-  <si>
-    <t>25.03.202530</t>
-  </si>
-  <si>
-    <t>25.03.202531</t>
-  </si>
-  <si>
-    <t>25.03.202532</t>
-  </si>
-  <si>
-    <t>25.03.202533</t>
-  </si>
-  <si>
-    <t>25.03.202534</t>
-  </si>
-  <si>
-    <t>25.03.202535</t>
-  </si>
-  <si>
-    <t>25.03.202536</t>
-  </si>
-  <si>
-    <t>25.03.202537</t>
-  </si>
-  <si>
-    <t>25.03.202538</t>
-  </si>
-  <si>
-    <t>25.03.202539</t>
-  </si>
-  <si>
-    <t>25.03.202540</t>
-  </si>
-  <si>
-    <t>25.03.202541</t>
-  </si>
-  <si>
-    <t>25.03.202542</t>
-  </si>
-  <si>
-    <t>25.03.202543</t>
-  </si>
-  <si>
-    <t>25.03.202544</t>
-  </si>
-  <si>
-    <t>25.03.202545</t>
-  </si>
-  <si>
-    <t>25.03.202546</t>
-  </si>
-  <si>
-    <t>25.03.202547</t>
-  </si>
-  <si>
-    <t>25.03.202548</t>
-  </si>
-  <si>
-    <t>25.03.202549</t>
-  </si>
-  <si>
-    <t>25.03.202550</t>
-  </si>
-  <si>
-    <t>25.03.202551</t>
-  </si>
-  <si>
-    <t>25.03.202552</t>
-  </si>
-  <si>
-    <t>25.03.202553</t>
-  </si>
-  <si>
-    <t>25.03.202554</t>
-  </si>
-  <si>
-    <t>25.03.202555</t>
-  </si>
-  <si>
-    <t>25.03.202556</t>
-  </si>
-  <si>
-    <t>25.03.202557</t>
-  </si>
-  <si>
-    <t>25.03.202558</t>
-  </si>
-  <si>
-    <t>25.03.202559</t>
-  </si>
-  <si>
-    <t>25.03.202560</t>
-  </si>
-  <si>
-    <t>25.03.202561</t>
-  </si>
-  <si>
-    <t>25.03.202562</t>
-  </si>
-  <si>
-    <t>25.03.202563</t>
-  </si>
-  <si>
-    <t>25.03.202564</t>
-  </si>
-  <si>
-    <t>25.03.202565</t>
-  </si>
-  <si>
-    <t>25.03.202566</t>
-  </si>
-  <si>
-    <t>25.03.202567</t>
-  </si>
-  <si>
-    <t>25.03.202568</t>
-  </si>
-  <si>
-    <t>25.03.202569</t>
-  </si>
-  <si>
-    <t>25.03.202570</t>
-  </si>
-  <si>
-    <t>25.03.202571</t>
-  </si>
-  <si>
-    <t>25.03.202572</t>
-  </si>
-  <si>
-    <t>25.03.202573</t>
-  </si>
-  <si>
-    <t>25.03.202574</t>
-  </si>
-  <si>
-    <t>25.03.202575</t>
-  </si>
-  <si>
-    <t>25.03.202576</t>
-  </si>
-  <si>
-    <t>25.03.202577</t>
-  </si>
-  <si>
-    <t>25.03.202578</t>
-  </si>
-  <si>
-    <t>25.03.202579</t>
-  </si>
-  <si>
-    <t>25.03.202580</t>
-  </si>
-  <si>
-    <t>25.03.202581</t>
-  </si>
-  <si>
-    <t>25.03.202582</t>
-  </si>
-  <si>
-    <t>25.03.202583</t>
-  </si>
-  <si>
-    <t>25.03.202584</t>
-  </si>
-  <si>
-    <t>25.03.202585</t>
-  </si>
-  <si>
-    <t>25.03.202586</t>
-  </si>
-  <si>
-    <t>25.03.202587</t>
-  </si>
-  <si>
-    <t>25.03.202588</t>
-  </si>
-  <si>
-    <t>25.03.202589</t>
-  </si>
-  <si>
-    <t>25.03.202590</t>
-  </si>
-  <si>
-    <t>25.03.202591</t>
-  </si>
-  <si>
-    <t>25.03.202592</t>
-  </si>
-  <si>
-    <t>25.03.202593</t>
-  </si>
-  <si>
-    <t>25.03.202594</t>
-  </si>
-  <si>
-    <t>25.03.202595</t>
-  </si>
-  <si>
-    <t>25.03.202596</t>
+    <t>27.03.20251</t>
+  </si>
+  <si>
+    <t>27.03.20252</t>
+  </si>
+  <si>
+    <t>27.03.20253</t>
+  </si>
+  <si>
+    <t>27.03.20254</t>
+  </si>
+  <si>
+    <t>27.03.20255</t>
+  </si>
+  <si>
+    <t>27.03.20256</t>
+  </si>
+  <si>
+    <t>27.03.20257</t>
+  </si>
+  <si>
+    <t>27.03.20258</t>
+  </si>
+  <si>
+    <t>27.03.20259</t>
+  </si>
+  <si>
+    <t>27.03.202510</t>
+  </si>
+  <si>
+    <t>27.03.202511</t>
+  </si>
+  <si>
+    <t>27.03.202512</t>
+  </si>
+  <si>
+    <t>27.03.202513</t>
+  </si>
+  <si>
+    <t>27.03.202514</t>
+  </si>
+  <si>
+    <t>27.03.202515</t>
+  </si>
+  <si>
+    <t>27.03.202516</t>
+  </si>
+  <si>
+    <t>27.03.202517</t>
+  </si>
+  <si>
+    <t>27.03.202518</t>
+  </si>
+  <si>
+    <t>27.03.202519</t>
+  </si>
+  <si>
+    <t>27.03.202520</t>
+  </si>
+  <si>
+    <t>27.03.202521</t>
+  </si>
+  <si>
+    <t>27.03.202522</t>
+  </si>
+  <si>
+    <t>27.03.202523</t>
+  </si>
+  <si>
+    <t>27.03.202524</t>
+  </si>
+  <si>
+    <t>27.03.202525</t>
+  </si>
+  <si>
+    <t>27.03.202526</t>
+  </si>
+  <si>
+    <t>27.03.202527</t>
+  </si>
+  <si>
+    <t>27.03.202528</t>
+  </si>
+  <si>
+    <t>27.03.202529</t>
+  </si>
+  <si>
+    <t>27.03.202530</t>
+  </si>
+  <si>
+    <t>27.03.202531</t>
+  </si>
+  <si>
+    <t>27.03.202532</t>
+  </si>
+  <si>
+    <t>27.03.202533</t>
+  </si>
+  <si>
+    <t>27.03.202534</t>
+  </si>
+  <si>
+    <t>27.03.202535</t>
+  </si>
+  <si>
+    <t>27.03.202536</t>
+  </si>
+  <si>
+    <t>27.03.202537</t>
+  </si>
+  <si>
+    <t>27.03.202538</t>
+  </si>
+  <si>
+    <t>27.03.202539</t>
+  </si>
+  <si>
+    <t>27.03.202540</t>
+  </si>
+  <si>
+    <t>27.03.202541</t>
+  </si>
+  <si>
+    <t>27.03.202542</t>
+  </si>
+  <si>
+    <t>27.03.202543</t>
+  </si>
+  <si>
+    <t>27.03.202544</t>
+  </si>
+  <si>
+    <t>27.03.202545</t>
+  </si>
+  <si>
+    <t>27.03.202546</t>
+  </si>
+  <si>
+    <t>27.03.202547</t>
+  </si>
+  <si>
+    <t>27.03.202548</t>
+  </si>
+  <si>
+    <t>27.03.202549</t>
+  </si>
+  <si>
+    <t>27.03.202550</t>
+  </si>
+  <si>
+    <t>27.03.202551</t>
+  </si>
+  <si>
+    <t>27.03.202552</t>
+  </si>
+  <si>
+    <t>27.03.202553</t>
+  </si>
+  <si>
+    <t>27.03.202554</t>
+  </si>
+  <si>
+    <t>27.03.202555</t>
+  </si>
+  <si>
+    <t>27.03.202556</t>
+  </si>
+  <si>
+    <t>27.03.202557</t>
+  </si>
+  <si>
+    <t>27.03.202558</t>
+  </si>
+  <si>
+    <t>27.03.202559</t>
+  </si>
+  <si>
+    <t>27.03.202560</t>
+  </si>
+  <si>
+    <t>27.03.202561</t>
+  </si>
+  <si>
+    <t>27.03.202562</t>
+  </si>
+  <si>
+    <t>27.03.202563</t>
+  </si>
+  <si>
+    <t>27.03.202564</t>
+  </si>
+  <si>
+    <t>27.03.202565</t>
+  </si>
+  <si>
+    <t>27.03.202566</t>
+  </si>
+  <si>
+    <t>27.03.202567</t>
+  </si>
+  <si>
+    <t>27.03.202568</t>
+  </si>
+  <si>
+    <t>27.03.202569</t>
+  </si>
+  <si>
+    <t>27.03.202570</t>
+  </si>
+  <si>
+    <t>27.03.202571</t>
+  </si>
+  <si>
+    <t>27.03.202572</t>
+  </si>
+  <si>
+    <t>27.03.202573</t>
+  </si>
+  <si>
+    <t>27.03.202574</t>
+  </si>
+  <si>
+    <t>27.03.202575</t>
+  </si>
+  <si>
+    <t>27.03.202576</t>
+  </si>
+  <si>
+    <t>27.03.202577</t>
+  </si>
+  <si>
+    <t>27.03.202578</t>
+  </si>
+  <si>
+    <t>27.03.202579</t>
+  </si>
+  <si>
+    <t>27.03.202580</t>
+  </si>
+  <si>
+    <t>27.03.202581</t>
+  </si>
+  <si>
+    <t>27.03.202582</t>
+  </si>
+  <si>
+    <t>27.03.202583</t>
+  </si>
+  <si>
+    <t>27.03.202584</t>
+  </si>
+  <si>
+    <t>27.03.202585</t>
+  </si>
+  <si>
+    <t>27.03.202586</t>
+  </si>
+  <si>
+    <t>27.03.202587</t>
+  </si>
+  <si>
+    <t>27.03.202588</t>
+  </si>
+  <si>
+    <t>27.03.202589</t>
+  </si>
+  <si>
+    <t>27.03.202590</t>
+  </si>
+  <si>
+    <t>27.03.202591</t>
+  </si>
+  <si>
+    <t>27.03.202592</t>
+  </si>
+  <si>
+    <t>27.03.202593</t>
+  </si>
+  <si>
+    <t>27.03.202594</t>
+  </si>
+  <si>
+    <t>27.03.202595</t>
+  </si>
+  <si>
+    <t>27.03.202596</t>
+  </si>
+  <si>
+    <t>28.03.20251</t>
+  </si>
+  <si>
+    <t>28.03.20252</t>
+  </si>
+  <si>
+    <t>28.03.20253</t>
+  </si>
+  <si>
+    <t>28.03.20254</t>
+  </si>
+  <si>
+    <t>28.03.20255</t>
+  </si>
+  <si>
+    <t>28.03.20256</t>
+  </si>
+  <si>
+    <t>28.03.20257</t>
+  </si>
+  <si>
+    <t>28.03.20258</t>
+  </si>
+  <si>
+    <t>28.03.20259</t>
+  </si>
+  <si>
+    <t>28.03.202510</t>
+  </si>
+  <si>
+    <t>28.03.202511</t>
+  </si>
+  <si>
+    <t>28.03.202512</t>
+  </si>
+  <si>
+    <t>28.03.202513</t>
+  </si>
+  <si>
+    <t>28.03.202514</t>
+  </si>
+  <si>
+    <t>28.03.202515</t>
+  </si>
+  <si>
+    <t>28.03.202516</t>
+  </si>
+  <si>
+    <t>28.03.202517</t>
+  </si>
+  <si>
+    <t>28.03.202518</t>
+  </si>
+  <si>
+    <t>28.03.202519</t>
+  </si>
+  <si>
+    <t>28.03.202520</t>
+  </si>
+  <si>
+    <t>28.03.202521</t>
+  </si>
+  <si>
+    <t>28.03.202522</t>
+  </si>
+  <si>
+    <t>28.03.202523</t>
+  </si>
+  <si>
+    <t>28.03.202524</t>
+  </si>
+  <si>
+    <t>28.03.202525</t>
+  </si>
+  <si>
+    <t>28.03.202526</t>
+  </si>
+  <si>
+    <t>28.03.202527</t>
+  </si>
+  <si>
+    <t>28.03.202528</t>
+  </si>
+  <si>
+    <t>28.03.202529</t>
+  </si>
+  <si>
+    <t>28.03.202530</t>
+  </si>
+  <si>
+    <t>28.03.202531</t>
+  </si>
+  <si>
+    <t>28.03.202532</t>
+  </si>
+  <si>
+    <t>28.03.202533</t>
+  </si>
+  <si>
+    <t>28.03.202534</t>
+  </si>
+  <si>
+    <t>28.03.202535</t>
+  </si>
+  <si>
+    <t>28.03.202536</t>
+  </si>
+  <si>
+    <t>28.03.202537</t>
+  </si>
+  <si>
+    <t>28.03.202538</t>
+  </si>
+  <si>
+    <t>28.03.202539</t>
+  </si>
+  <si>
+    <t>28.03.202540</t>
+  </si>
+  <si>
+    <t>28.03.202541</t>
+  </si>
+  <si>
+    <t>28.03.202542</t>
+  </si>
+  <si>
+    <t>28.03.202543</t>
+  </si>
+  <si>
+    <t>28.03.202544</t>
+  </si>
+  <si>
+    <t>28.03.202545</t>
+  </si>
+  <si>
+    <t>28.03.202546</t>
+  </si>
+  <si>
+    <t>28.03.202547</t>
+  </si>
+  <si>
+    <t>28.03.202548</t>
+  </si>
+  <si>
+    <t>28.03.202549</t>
+  </si>
+  <si>
+    <t>28.03.202550</t>
+  </si>
+  <si>
+    <t>28.03.202551</t>
+  </si>
+  <si>
+    <t>28.03.202552</t>
+  </si>
+  <si>
+    <t>28.03.202553</t>
+  </si>
+  <si>
+    <t>28.03.202554</t>
+  </si>
+  <si>
+    <t>28.03.202555</t>
+  </si>
+  <si>
+    <t>28.03.202556</t>
+  </si>
+  <si>
+    <t>28.03.202557</t>
+  </si>
+  <si>
+    <t>28.03.202558</t>
+  </si>
+  <si>
+    <t>28.03.202559</t>
+  </si>
+  <si>
+    <t>28.03.202560</t>
+  </si>
+  <si>
+    <t>28.03.202561</t>
+  </si>
+  <si>
+    <t>28.03.202562</t>
+  </si>
+  <si>
+    <t>28.03.202563</t>
+  </si>
+  <si>
+    <t>28.03.202564</t>
+  </si>
+  <si>
+    <t>28.03.202565</t>
+  </si>
+  <si>
+    <t>28.03.202566</t>
+  </si>
+  <si>
+    <t>28.03.202567</t>
+  </si>
+  <si>
+    <t>28.03.202568</t>
+  </si>
+  <si>
+    <t>28.03.202569</t>
+  </si>
+  <si>
+    <t>28.03.202570</t>
+  </si>
+  <si>
+    <t>28.03.202571</t>
+  </si>
+  <si>
+    <t>28.03.202572</t>
+  </si>
+  <si>
+    <t>28.03.202573</t>
+  </si>
+  <si>
+    <t>28.03.202574</t>
+  </si>
+  <si>
+    <t>28.03.202575</t>
+  </si>
+  <si>
+    <t>28.03.202576</t>
+  </si>
+  <si>
+    <t>28.03.202577</t>
+  </si>
+  <si>
+    <t>28.03.202578</t>
+  </si>
+  <si>
+    <t>28.03.202579</t>
+  </si>
+  <si>
+    <t>28.03.202580</t>
+  </si>
+  <si>
+    <t>28.03.202581</t>
+  </si>
+  <si>
+    <t>28.03.202582</t>
+  </si>
+  <si>
+    <t>28.03.202583</t>
+  </si>
+  <si>
+    <t>28.03.202584</t>
+  </si>
+  <si>
+    <t>28.03.202585</t>
+  </si>
+  <si>
+    <t>28.03.202586</t>
+  </si>
+  <si>
+    <t>28.03.202587</t>
+  </si>
+  <si>
+    <t>28.03.202588</t>
+  </si>
+  <si>
+    <t>28.03.202589</t>
+  </si>
+  <si>
+    <t>28.03.202590</t>
+  </si>
+  <si>
+    <t>28.03.202591</t>
+  </si>
+  <si>
+    <t>28.03.202592</t>
+  </si>
+  <si>
+    <t>28.03.202593</t>
+  </si>
+  <si>
+    <t>28.03.202594</t>
+  </si>
+  <si>
+    <t>28.03.202595</t>
+  </si>
+  <si>
+    <t>28.03.202596</t>
   </si>
 </sst>
 </file>
@@ -997,16 +997,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>294.13</v>
+        <v>-4.77</v>
       </c>
       <c r="D2">
-        <v>744</v>
+        <v>-4.77</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45740.01041666666</v>
+        <v>45743.01041666666</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>229.75</v>
+        <v>16.7</v>
       </c>
       <c r="D3">
-        <v>229.75</v>
+        <v>16.7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45740.02083333334</v>
+        <v>45743.02083333334</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>295.31</v>
+        <v>11.73</v>
       </c>
       <c r="D4">
-        <v>295.31</v>
+        <v>11.73</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45740.03125</v>
+        <v>45743.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C5">
-        <v>396.56</v>
+        <v>-0.42</v>
       </c>
       <c r="D5">
-        <v>744</v>
+        <v>-0.42</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45740.04166666666</v>
+        <v>45743.04166666666</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>270.58</v>
+        <v>-5.47</v>
       </c>
       <c r="D6">
-        <v>270.58</v>
+        <v>-5.47</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45740.05208333334</v>
+        <v>45743.05208333334</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>297.29</v>
+        <v>1.96</v>
       </c>
       <c r="D7">
-        <v>297.29</v>
+        <v>1.96</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45740.0625</v>
+        <v>45743.0625</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="D8">
-        <v>746.3</v>
+        <v>11.84</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45740.07291666666</v>
+        <v>45743.07291666666</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>-133.7</v>
       </c>
       <c r="D9">
-        <v>885.1900000000001</v>
+        <v>-133.7</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45740.08333333334</v>
+        <v>45743.08333333334</v>
       </c>
       <c r="B10">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>990.5700000000001</v>
+        <v>-239.84</v>
       </c>
       <c r="D10">
-        <v>990.5700000000001</v>
+        <v>-239.84</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45740.09375</v>
+        <v>45743.09375</v>
       </c>
       <c r="B11">
-        <v>-26</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>1336.06</v>
+        <v>-4.28</v>
       </c>
       <c r="D11">
-        <v>1336.06</v>
+        <v>-4.28</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45740.10416666666</v>
+        <v>45743.10416666666</v>
       </c>
       <c r="B12">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2767.04</v>
+        <v>231.07</v>
       </c>
       <c r="D12">
-        <v>2767.04</v>
+        <v>744</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45740.11458333334</v>
+        <v>45743.11458333334</v>
       </c>
       <c r="B13">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>390</v>
+        <v>-360.8</v>
       </c>
       <c r="D13">
-        <v>3396.52</v>
+        <v>-360.8</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45740.125</v>
+        <v>45743.125</v>
       </c>
       <c r="B14">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>400</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="D14">
-        <v>961.4400000000001</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45740.13541666666</v>
+        <v>45743.13541666666</v>
       </c>
       <c r="B15">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1208.23</v>
+        <v>357.94</v>
       </c>
       <c r="D15">
-        <v>1208.23</v>
+        <v>744</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45740.14583333334</v>
+        <v>45743.14583333334</v>
       </c>
       <c r="B16">
-        <v>-42</v>
+        <v>-2</v>
       </c>
       <c r="C16">
-        <v>5924.32</v>
+        <v>875.28</v>
       </c>
       <c r="D16">
-        <v>5924.32</v>
+        <v>875.28</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45740.15625</v>
+        <v>45743.15625</v>
       </c>
       <c r="B17">
-        <v>-33</v>
+        <v>-5</v>
       </c>
       <c r="C17">
-        <v>5436.98</v>
+        <v>1093.14</v>
       </c>
       <c r="D17">
-        <v>5436.98</v>
+        <v>1093.14</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45740.16666666666</v>
+        <v>45743.16666666666</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>277.21</v>
+        <v>-21.31</v>
       </c>
       <c r="D18">
-        <v>277.21</v>
+        <v>-21.31</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45740.17708333334</v>
+        <v>45743.17708333334</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>255.74</v>
+        <v>-432.56</v>
       </c>
       <c r="D19">
-        <v>255.74</v>
+        <v>-432.56</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45740.1875</v>
+        <v>45743.1875</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>201.81</v>
+        <v>-3854.6</v>
       </c>
       <c r="D20">
-        <v>201.81</v>
+        <v>-3854.6</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45740.19791666666</v>
+        <v>45743.19791666666</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>115.65</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D21">
-        <v>115.65</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45740.20833333334</v>
+        <v>45743.20833333334</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>-4368.95</v>
+        <v>-3876.66</v>
       </c>
       <c r="D22">
-        <v>-4368.95</v>
+        <v>-3876.66</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45740.21875</v>
+        <v>45743.21875</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>-3658.46</v>
+        <v>-3180.77</v>
       </c>
       <c r="D23">
-        <v>-3658.46</v>
+        <v>-3180.77</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45740.22916666666</v>
+        <v>45743.22916666666</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>-1700.31</v>
+        <v>-4995.1</v>
       </c>
       <c r="D24">
-        <v>-1700.31</v>
+        <v>-4995.1</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45740.23958333334</v>
+        <v>45743.23958333334</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>198.16</v>
+        <v>345.38</v>
       </c>
       <c r="D25">
-        <v>198.16</v>
+        <v>841.5</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45740.25</v>
+        <v>45743.25</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>-1322.78</v>
+        <v>-51.06</v>
       </c>
       <c r="D26">
-        <v>-1322.78</v>
+        <v>-51.06</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45740.26041666666</v>
+        <v>45743.26041666666</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C27">
-        <v>395.09</v>
+        <v>390</v>
       </c>
       <c r="D27">
-        <v>1056.16</v>
+        <v>993.27</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45740.27083333334</v>
+        <v>45743.27083333334</v>
       </c>
       <c r="B28">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>368.8</v>
       </c>
       <c r="D28">
-        <v>1051.42</v>
+        <v>991.63</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45740.28125</v>
+        <v>45743.28125</v>
       </c>
       <c r="B29">
-        <v>-21</v>
+        <v>-9</v>
       </c>
       <c r="C29">
-        <v>1132.53</v>
+        <v>1087.42</v>
       </c>
       <c r="D29">
-        <v>1132.53</v>
+        <v>1087.42</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45740.29166666666</v>
+        <v>45743.29166666666</v>
       </c>
       <c r="B30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C30">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D30">
-        <v>994.8200000000001</v>
+        <v>990.52</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45740.30208333334</v>
+        <v>45743.30208333334</v>
       </c>
       <c r="B31">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>1254.28</v>
+        <v>357.21</v>
       </c>
       <c r="D31">
-        <v>1254.28</v>
+        <v>954.3099999999999</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45740.3125</v>
+        <v>45743.3125</v>
       </c>
       <c r="B32">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>1195.39</v>
+        <v>358.78</v>
       </c>
       <c r="D32">
-        <v>1195.39</v>
+        <v>909.5599999999999</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45740.32291666666</v>
+        <v>45743.32291666666</v>
       </c>
       <c r="B33">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>253.97</v>
       </c>
       <c r="D33">
-        <v>998.88</v>
+        <v>253.97</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45740.33333333334</v>
+        <v>45743.33333333334</v>
       </c>
       <c r="B34">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>999.87</v>
+        <v>359.23</v>
       </c>
       <c r="D34">
-        <v>999.87</v>
+        <v>843.28</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45740.34375</v>
+        <v>45743.34375</v>
       </c>
       <c r="B35">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>999.62</v>
+        <v>-379.12</v>
       </c>
       <c r="D35">
-        <v>999.62</v>
+        <v>-379.12</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45740.35416666666</v>
+        <v>45743.35416666666</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>398.83</v>
+        <v>276.79</v>
       </c>
       <c r="D36">
-        <v>989.2</v>
+        <v>276.79</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45740.36458333334</v>
+        <v>45743.36458333334</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>362.27</v>
+        <v>353.82</v>
       </c>
       <c r="D37">
-        <v>879.75</v>
+        <v>353.82</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45740.375</v>
+        <v>45743.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C38">
-        <v>289.16</v>
+        <v>390</v>
       </c>
       <c r="D38">
-        <v>845.12</v>
+        <v>883.7</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45740.38541666666</v>
+        <v>45743.38541666666</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>294.34</v>
+        <v>192.69</v>
       </c>
       <c r="D39">
-        <v>844.11</v>
+        <v>840</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45740.39583333334</v>
+        <v>45743.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>380.71</v>
+        <v>-1119.61</v>
       </c>
       <c r="D40">
-        <v>845.5700000000001</v>
+        <v>-1119.61</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45740.40625</v>
+        <v>45743.40625</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>345.04</v>
+        <v>-2014.09</v>
       </c>
       <c r="D41">
-        <v>842.89</v>
+        <v>-2014.09</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45740.41666666666</v>
+        <v>45743.41666666666</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>311.12</v>
+        <v>143.29</v>
       </c>
       <c r="D42">
-        <v>846.4400000000001</v>
+        <v>143.29</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45740.42708333334</v>
+        <v>45743.42708333334</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>63.41</v>
+        <v>28.32</v>
       </c>
       <c r="D43">
-        <v>63.41</v>
+        <v>744</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45740.4375</v>
+        <v>45743.4375</v>
       </c>
       <c r="B44">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>53.25</v>
+        <v>76.88</v>
       </c>
       <c r="D44">
-        <v>53.25</v>
+        <v>76.88</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45740.44791666666</v>
+        <v>45743.44791666666</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>30.94</v>
+        <v>-314.87</v>
       </c>
       <c r="D45">
-        <v>30.94</v>
+        <v>-314.87</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45740.45833333334</v>
+        <v>45743.45833333334</v>
       </c>
       <c r="B46">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C46">
-        <v>7.6</v>
+        <v>16.93</v>
       </c>
       <c r="D46">
-        <v>7.6</v>
+        <v>16.93</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45740.46875</v>
+        <v>45743.46875</v>
       </c>
       <c r="B47">
-        <v>26</v>
+        <v>-2</v>
       </c>
       <c r="C47">
-        <v>70.45</v>
+        <v>694.74</v>
       </c>
       <c r="D47">
-        <v>70.45</v>
+        <v>694.74</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45740.47916666666</v>
+        <v>45743.47916666666</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>-11</v>
       </c>
       <c r="C48">
-        <v>66.14</v>
+        <v>827.88</v>
       </c>
       <c r="D48">
-        <v>66.14</v>
+        <v>827.88</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45740.48958333334</v>
+        <v>45743.48958333334</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>-2</v>
       </c>
       <c r="C49">
-        <v>-1.87</v>
+        <v>679.3</v>
       </c>
       <c r="D49">
-        <v>-1.87</v>
+        <v>679.3</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45740.5</v>
+        <v>45743.5</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="C50">
-        <v>0.91</v>
+        <v>394.12</v>
       </c>
       <c r="D50">
-        <v>0.91</v>
+        <v>905.95</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45740.51041666666</v>
+        <v>45743.51041666666</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>-31</v>
       </c>
       <c r="C51">
-        <v>-7.48</v>
+        <v>3637.61</v>
       </c>
       <c r="D51">
-        <v>-7.48</v>
+        <v>3637.61</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45740.52083333334</v>
+        <v>45743.52083333334</v>
       </c>
       <c r="B52">
-        <v>37</v>
+        <v>-52</v>
       </c>
       <c r="C52">
-        <v>-5.78</v>
+        <v>1365.7</v>
       </c>
       <c r="D52">
-        <v>-5.78</v>
+        <v>1365.7</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45740.53125</v>
+        <v>45743.53125</v>
       </c>
       <c r="B53">
-        <v>37</v>
+        <v>-33</v>
       </c>
       <c r="C53">
-        <v>-3.27</v>
+        <v>669.12</v>
       </c>
       <c r="D53">
-        <v>-3.27</v>
+        <v>669.12</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45740.54166666666</v>
+        <v>45743.54166666666</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>-30</v>
       </c>
       <c r="C54">
-        <v>34.05</v>
+        <v>734.72</v>
       </c>
       <c r="D54">
-        <v>34.05</v>
+        <v>734.72</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45740.55208333334</v>
+        <v>45743.55208333334</v>
       </c>
       <c r="B55">
-        <v>26</v>
+        <v>-33</v>
       </c>
       <c r="C55">
-        <v>56.85</v>
+        <v>732.05</v>
       </c>
       <c r="D55">
-        <v>56.85</v>
+        <v>732.05</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45740.5625</v>
+        <v>45743.5625</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>-34</v>
       </c>
       <c r="C56">
-        <v>-5.73</v>
+        <v>731.64</v>
       </c>
       <c r="D56">
-        <v>-5.73</v>
+        <v>731.64</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45740.57291666666</v>
+        <v>45743.57291666666</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="C57">
-        <v>189.08</v>
+        <v>735.1900000000001</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>735.1900000000001</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45740.58333333334</v>
+        <v>45743.58333333334</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>-29</v>
       </c>
       <c r="C58">
-        <v>108.61</v>
+        <v>971.73</v>
       </c>
       <c r="D58">
-        <v>108.61</v>
+        <v>971.73</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45740.59375</v>
+        <v>45743.59375</v>
       </c>
       <c r="B59">
-        <v>-2</v>
+        <v>-31</v>
       </c>
       <c r="C59">
-        <v>354.68</v>
+        <v>940.12</v>
       </c>
       <c r="D59">
-        <v>917.76</v>
+        <v>940.12</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45740.60416666666</v>
+        <v>45743.60416666666</v>
       </c>
       <c r="B60">
-        <v>-3</v>
+        <v>-41</v>
       </c>
       <c r="C60">
-        <v>952.83</v>
+        <v>949.75</v>
       </c>
       <c r="D60">
-        <v>952.83</v>
+        <v>949.75</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45740.61458333334</v>
+        <v>45743.61458333334</v>
       </c>
       <c r="B61">
-        <v>-15</v>
+        <v>-36</v>
       </c>
       <c r="C61">
-        <v>1015.76</v>
+        <v>948.84</v>
       </c>
       <c r="D61">
-        <v>1015.76</v>
+        <v>948.84</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45740.625</v>
+        <v>45743.625</v>
       </c>
       <c r="B62">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="C62">
-        <v>1035.86</v>
+        <v>3057.31</v>
       </c>
       <c r="D62">
-        <v>1035.86</v>
+        <v>3057.31</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45740.63541666666</v>
+        <v>45743.63541666666</v>
       </c>
       <c r="B63">
-        <v>-4</v>
+        <v>-38</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>997.49</v>
       </c>
       <c r="D63">
-        <v>1078.41</v>
+        <v>997.49</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45740.64583333334</v>
+        <v>45743.64583333334</v>
       </c>
       <c r="B64">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-2690.51</v>
       </c>
       <c r="D64">
-        <v>1076.19</v>
+        <v>968.37</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45740.65625</v>
+        <v>45743.65625</v>
       </c>
       <c r="B65">
-        <v>-36</v>
+        <v>25</v>
       </c>
       <c r="C65">
-        <v>997.03</v>
+        <v>-1737.86</v>
       </c>
       <c r="D65">
-        <v>997.03</v>
+        <v>-1737.86</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45740.66666666666</v>
+        <v>45743.66666666666</v>
       </c>
       <c r="B66">
-        <v>-25</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>1000.46</v>
+        <v>-4338.92</v>
       </c>
       <c r="D66">
-        <v>1000.46</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45740.67708333334</v>
+        <v>45743.67708333334</v>
       </c>
       <c r="B67">
-        <v>-35</v>
+        <v>94</v>
       </c>
       <c r="C67">
-        <v>1039.88</v>
+        <v>-2194.24</v>
       </c>
       <c r="D67">
-        <v>1039.88</v>
+        <v>-2194.24</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45740.6875</v>
+        <v>45743.6875</v>
       </c>
       <c r="B68">
-        <v>-33</v>
+        <v>87</v>
       </c>
       <c r="C68">
-        <v>1010.46</v>
+        <v>-1216.14</v>
       </c>
       <c r="D68">
-        <v>1010.46</v>
+        <v>-1216.14</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45740.69791666666</v>
+        <v>45743.69791666666</v>
       </c>
       <c r="B69">
-        <v>-44</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>1048.47</v>
+        <v>30.26</v>
       </c>
       <c r="D69">
-        <v>1048.47</v>
+        <v>30.26</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45740.70833333334</v>
+        <v>45743.70833333334</v>
       </c>
       <c r="B70">
-        <v>-11</v>
+        <v>63</v>
       </c>
       <c r="C70">
-        <v>-3547.91</v>
+        <v>-598.38</v>
       </c>
       <c r="D70">
-        <v>1217.95</v>
+        <v>-598.38</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45740.71875</v>
+        <v>45743.71875</v>
       </c>
       <c r="B71">
-        <v>-25</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>1216.52</v>
+        <v>44.75</v>
       </c>
       <c r="D71">
-        <v>1216.52</v>
+        <v>44.75</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45740.72916666666</v>
+        <v>45743.72916666666</v>
       </c>
       <c r="B72">
-        <v>-25</v>
+        <v>42</v>
       </c>
       <c r="C72">
-        <v>1224.24</v>
+        <v>0.23</v>
       </c>
       <c r="D72">
-        <v>1224.24</v>
+        <v>0.23</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45740.73958333334</v>
+        <v>45743.73958333334</v>
       </c>
       <c r="B73">
-        <v>-39</v>
+        <v>38</v>
       </c>
       <c r="C73">
-        <v>1203.47</v>
+        <v>-143.23</v>
       </c>
       <c r="D73">
-        <v>1203.47</v>
+        <v>-143.23</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45740.75</v>
+        <v>45743.75</v>
       </c>
       <c r="B74">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>-1631.38</v>
+        <v>352.32</v>
       </c>
       <c r="D74">
-        <v>1486.74</v>
+        <v>993.7</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45740.76041666666</v>
+        <v>45743.76041666666</v>
       </c>
       <c r="B75">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>1518.95</v>
+        <v>380.65</v>
       </c>
       <c r="D75">
-        <v>1518.95</v>
+        <v>840</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45740.77083333334</v>
+        <v>45743.77083333334</v>
       </c>
       <c r="B76">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>1220.47</v>
+        <v>397.45</v>
       </c>
       <c r="D76">
-        <v>1220.47</v>
+        <v>875.5599999999999</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45740.78125</v>
+        <v>45743.78125</v>
       </c>
       <c r="B77">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>1088.29</v>
+        <v>398.01</v>
       </c>
       <c r="D77">
-        <v>1088.29</v>
+        <v>896.99</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45740.79166666666</v>
+        <v>45743.79166666666</v>
       </c>
       <c r="B78">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>1012.54</v>
+        <v>391.14</v>
       </c>
       <c r="D78">
-        <v>1012.54</v>
+        <v>938.46</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45740.80208333334</v>
+        <v>45743.80208333334</v>
       </c>
       <c r="B79">
-        <v>-2</v>
+        <v>60</v>
       </c>
       <c r="C79">
-        <v>400</v>
+        <v>-28.78</v>
       </c>
       <c r="D79">
-        <v>985.27</v>
+        <v>-28.78</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45740.8125</v>
+        <v>45743.8125</v>
       </c>
       <c r="B80">
-        <v>-0</v>
+        <v>61</v>
       </c>
       <c r="C80">
-        <v>387.98</v>
+        <v>-21.63</v>
       </c>
       <c r="D80">
-        <v>971.48</v>
+        <v>-21.63</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45740.82291666666</v>
+        <v>45743.82291666666</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C81">
-        <v>383.15</v>
+        <v>-1.08</v>
       </c>
       <c r="D81">
-        <v>840</v>
+        <v>-1.08</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45740.83333333334</v>
+        <v>45743.83333333334</v>
       </c>
       <c r="B82">
-        <v>-21</v>
+        <v>37</v>
       </c>
       <c r="C82">
-        <v>3343.16</v>
+        <v>-3369.5</v>
       </c>
       <c r="D82">
-        <v>3343.16</v>
+        <v>-3369.5</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45740.84375</v>
+        <v>45743.84375</v>
       </c>
       <c r="B83">
-        <v>-5</v>
+        <v>50</v>
       </c>
       <c r="C83">
-        <v>998.58</v>
+        <v>-261.37</v>
       </c>
       <c r="D83">
-        <v>998.58</v>
+        <v>-261.37</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45740.85416666666</v>
+        <v>45743.85416666666</v>
       </c>
       <c r="B84">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>1032.87</v>
+        <v>0.55</v>
       </c>
       <c r="D84">
-        <v>1032.87</v>
+        <v>0.55</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45740.86458333334</v>
+        <v>45743.86458333334</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>327.98</v>
+        <v>19.15</v>
       </c>
       <c r="D85">
-        <v>327.98</v>
+        <v>19.15</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45740.875</v>
+        <v>45743.875</v>
       </c>
       <c r="B86">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C86">
-        <v>1171.13</v>
+        <v>1.67</v>
       </c>
       <c r="D86">
-        <v>1171.13</v>
+        <v>4231.09</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45740.88541666666</v>
+        <v>45743.88541666666</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="C87">
-        <v>254.68</v>
+        <v>1003.21</v>
       </c>
       <c r="D87">
-        <v>254.68</v>
+        <v>1003.21</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45740.89583333334</v>
+        <v>45743.89583333334</v>
       </c>
       <c r="B88">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>68.66</v>
+        <v>-1646.45</v>
       </c>
       <c r="D88">
-        <v>68.66</v>
+        <v>-1646.45</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45740.90625</v>
+        <v>45743.90625</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>-3979.42</v>
+        <v>-3494.97</v>
       </c>
       <c r="D89">
-        <v>-3979.42</v>
+        <v>-3494.97</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45740.91666666666</v>
+        <v>45743.91666666666</v>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>-729.88</v>
+        <v>-3499</v>
       </c>
       <c r="D90">
-        <v>-729.88</v>
+        <v>-3499</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45740.92708333334</v>
+        <v>45743.92708333334</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>188.75</v>
+        <v>387.56</v>
       </c>
       <c r="D91">
-        <v>188.75</v>
+        <v>841.67</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45740.9375</v>
+        <v>45743.9375</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>-0</v>
       </c>
       <c r="C92">
-        <v>213.55</v>
+        <v>375.86</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>843.49</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45740.94791666666</v>
+        <v>45743.94791666666</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>206.55</v>
+        <v>253.32</v>
       </c>
       <c r="D93">
-        <v>206.55</v>
+        <v>253.32</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45740.95833333334</v>
+        <v>45743.95833333334</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>-19</v>
       </c>
       <c r="C94">
-        <v>294.65</v>
+        <v>3234.8</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>3234.8</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45740.96875</v>
+        <v>45743.96875</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C95">
-        <v>163.14</v>
+        <v>396.76</v>
       </c>
       <c r="D95">
-        <v>744</v>
+        <v>778.98</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45740.97916666666</v>
+        <v>45743.97916666666</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>-0</v>
       </c>
       <c r="C96">
-        <v>217.42</v>
+        <v>304.29</v>
       </c>
       <c r="D96">
-        <v>217.42</v>
+        <v>744</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45740.98958333334</v>
+        <v>45743.98958333334</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>-119.35</v>
+        <v>243.33</v>
       </c>
       <c r="D97">
-        <v>-119.35</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B98">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="C98">
-        <v>-1564.41</v>
+        <v>992.97</v>
       </c>
       <c r="D98">
-        <v>-1564.41</v>
+        <v>992.97</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>-8</v>
       </c>
       <c r="C99">
-        <v>-2999</v>
+        <v>932.48</v>
       </c>
       <c r="D99">
-        <v>-2999</v>
+        <v>932.48</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B100">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>-1369.19</v>
+        <v>222.7</v>
       </c>
       <c r="D100">
-        <v>-1369.19</v>
+        <v>744</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B101">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>-1236.96</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="D101">
-        <v>-1236.96</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B102">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C102">
-        <v>-1269.93</v>
+        <v>183.83</v>
       </c>
       <c r="D102">
-        <v>-1269.93</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B103">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>-4909.17</v>
+        <v>156.15</v>
       </c>
       <c r="D103">
-        <v>-4909.17</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B104">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>-4445.09</v>
+        <v>243.85</v>
       </c>
       <c r="D104">
-        <v>-4445.09</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B105">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C105">
-        <v>-6928.63</v>
+        <v>21.31</v>
       </c>
       <c r="D105">
-        <v>-6928.63</v>
+        <v>21.31</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C106">
-        <v>-644.5599999999999</v>
+        <v>-1.17</v>
       </c>
       <c r="D106">
-        <v>-644.5599999999999</v>
+        <v>-1.17</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C107">
-        <v>-5077.99</v>
+        <v>1.58</v>
       </c>
       <c r="D107">
-        <v>-5077.99</v>
+        <v>1.58</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B108">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C108">
-        <v>-7262.71</v>
+        <v>-1.01</v>
       </c>
       <c r="D108">
-        <v>-7262.71</v>
+        <v>-1.01</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C109">
-        <v>-5624.02</v>
+        <v>4.22</v>
       </c>
       <c r="D109">
-        <v>-5624.02</v>
+        <v>4.22</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B110">
         <v>43</v>
       </c>
       <c r="C110">
-        <v>27.66</v>
+        <v>13.55</v>
       </c>
       <c r="D110">
-        <v>27.66</v>
+        <v>13.55</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B111">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>19.09</v>
+        <v>7.37</v>
       </c>
       <c r="D111">
-        <v>19.09</v>
+        <v>7.37</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B112">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C112">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D112">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C113">
-        <v>206.72</v>
+        <v>-0.73</v>
       </c>
       <c r="D113">
-        <v>206.72</v>
+        <v>-0.73</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C114">
-        <v>217.55</v>
+        <v>-2.89</v>
       </c>
       <c r="D114">
-        <v>217.55</v>
+        <v>-2.89</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C115">
-        <v>246.89</v>
+        <v>-10.11</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>-10.11</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C116">
-        <v>266.09</v>
+        <v>1.51</v>
       </c>
       <c r="D116">
-        <v>266.09</v>
+        <v>1.51</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B117">
-        <v>-3</v>
+        <v>37</v>
       </c>
       <c r="C117">
-        <v>390</v>
+        <v>-4.9</v>
       </c>
       <c r="D117">
-        <v>879.5700000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C118">
-        <v>295.02</v>
+        <v>45.94</v>
       </c>
       <c r="D118">
-        <v>848.1900000000001</v>
+        <v>45.94</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B119">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C119">
-        <v>204.08</v>
+        <v>47.96</v>
       </c>
       <c r="D119">
-        <v>204.08</v>
+        <v>47.96</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B120">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>373.67</v>
+        <v>14.21</v>
       </c>
       <c r="D120">
-        <v>913.12</v>
+        <v>14.21</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B121">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="C121">
-        <v>390</v>
+        <v>-1.25</v>
       </c>
       <c r="D121">
-        <v>863.25</v>
+        <v>-1.25</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C122">
-        <v>-36.32</v>
+        <v>-55.6</v>
       </c>
       <c r="D122">
-        <v>-36.32</v>
+        <v>-55.6</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>279.39</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>887.88</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B124">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>156.13</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>156.13</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>234.36</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>-1012.15</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-1012.15</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,13 +3497,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>308.55</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>-4126.05</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>1158.16</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B129">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>-7837.98</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B130">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>-1489.19</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>-1489.19</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B131">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-914.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>-914.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B132">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>-2586.82</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>-2586.82</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B133">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>-2232.74</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>-2232.74</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B134">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>-552.61</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>-552.61</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B135">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>-126.28</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>-126.28</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B136">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>-630.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>-630.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B137">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-110.01</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>-110.01</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B138">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>-128.33</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>-128.33</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +3757,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B140">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>31.14</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>31.14</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>27.03.20251</t>
-  </si>
-  <si>
-    <t>27.03.20252</t>
-  </si>
-  <si>
-    <t>27.03.20253</t>
-  </si>
-  <si>
-    <t>27.03.20254</t>
-  </si>
-  <si>
-    <t>27.03.20255</t>
-  </si>
-  <si>
-    <t>27.03.20256</t>
-  </si>
-  <si>
-    <t>27.03.20257</t>
-  </si>
-  <si>
-    <t>27.03.20258</t>
-  </si>
-  <si>
-    <t>27.03.20259</t>
-  </si>
-  <si>
-    <t>27.03.202510</t>
-  </si>
-  <si>
-    <t>27.03.202511</t>
-  </si>
-  <si>
-    <t>27.03.202512</t>
-  </si>
-  <si>
-    <t>27.03.202513</t>
-  </si>
-  <si>
-    <t>27.03.202514</t>
-  </si>
-  <si>
-    <t>27.03.202515</t>
-  </si>
-  <si>
-    <t>27.03.202516</t>
-  </si>
-  <si>
-    <t>27.03.202517</t>
-  </si>
-  <si>
-    <t>27.03.202518</t>
-  </si>
-  <si>
-    <t>27.03.202519</t>
-  </si>
-  <si>
-    <t>27.03.202520</t>
-  </si>
-  <si>
-    <t>27.03.202521</t>
-  </si>
-  <si>
-    <t>27.03.202522</t>
-  </si>
-  <si>
-    <t>27.03.202523</t>
-  </si>
-  <si>
-    <t>27.03.202524</t>
-  </si>
-  <si>
-    <t>27.03.202525</t>
-  </si>
-  <si>
-    <t>27.03.202526</t>
-  </si>
-  <si>
-    <t>27.03.202527</t>
-  </si>
-  <si>
-    <t>27.03.202528</t>
-  </si>
-  <si>
-    <t>27.03.202529</t>
-  </si>
-  <si>
-    <t>27.03.202530</t>
-  </si>
-  <si>
-    <t>27.03.202531</t>
-  </si>
-  <si>
-    <t>27.03.202532</t>
-  </si>
-  <si>
-    <t>27.03.202533</t>
-  </si>
-  <si>
-    <t>27.03.202534</t>
-  </si>
-  <si>
-    <t>27.03.202535</t>
-  </si>
-  <si>
-    <t>27.03.202536</t>
-  </si>
-  <si>
-    <t>27.03.202537</t>
-  </si>
-  <si>
-    <t>27.03.202538</t>
-  </si>
-  <si>
-    <t>27.03.202539</t>
-  </si>
-  <si>
-    <t>27.03.202540</t>
-  </si>
-  <si>
-    <t>27.03.202541</t>
-  </si>
-  <si>
-    <t>27.03.202542</t>
-  </si>
-  <si>
-    <t>27.03.202543</t>
-  </si>
-  <si>
-    <t>27.03.202544</t>
-  </si>
-  <si>
-    <t>27.03.202545</t>
-  </si>
-  <si>
-    <t>27.03.202546</t>
-  </si>
-  <si>
-    <t>27.03.202547</t>
-  </si>
-  <si>
-    <t>27.03.202548</t>
-  </si>
-  <si>
-    <t>27.03.202549</t>
-  </si>
-  <si>
-    <t>27.03.202550</t>
-  </si>
-  <si>
-    <t>27.03.202551</t>
-  </si>
-  <si>
-    <t>27.03.202552</t>
-  </si>
-  <si>
-    <t>27.03.202553</t>
-  </si>
-  <si>
-    <t>27.03.202554</t>
-  </si>
-  <si>
-    <t>27.03.202555</t>
-  </si>
-  <si>
-    <t>27.03.202556</t>
-  </si>
-  <si>
-    <t>27.03.202557</t>
-  </si>
-  <si>
-    <t>27.03.202558</t>
-  </si>
-  <si>
-    <t>27.03.202559</t>
-  </si>
-  <si>
-    <t>27.03.202560</t>
-  </si>
-  <si>
-    <t>27.03.202561</t>
-  </si>
-  <si>
-    <t>27.03.202562</t>
-  </si>
-  <si>
-    <t>27.03.202563</t>
-  </si>
-  <si>
-    <t>27.03.202564</t>
-  </si>
-  <si>
-    <t>27.03.202565</t>
-  </si>
-  <si>
-    <t>27.03.202566</t>
-  </si>
-  <si>
-    <t>27.03.202567</t>
-  </si>
-  <si>
-    <t>27.03.202568</t>
-  </si>
-  <si>
-    <t>27.03.202569</t>
-  </si>
-  <si>
-    <t>27.03.202570</t>
-  </si>
-  <si>
-    <t>27.03.202571</t>
-  </si>
-  <si>
-    <t>27.03.202572</t>
-  </si>
-  <si>
-    <t>27.03.202573</t>
-  </si>
-  <si>
-    <t>27.03.202574</t>
-  </si>
-  <si>
-    <t>27.03.202575</t>
-  </si>
-  <si>
-    <t>27.03.202576</t>
-  </si>
-  <si>
-    <t>27.03.202577</t>
-  </si>
-  <si>
-    <t>27.03.202578</t>
-  </si>
-  <si>
-    <t>27.03.202579</t>
-  </si>
-  <si>
-    <t>27.03.202580</t>
-  </si>
-  <si>
-    <t>27.03.202581</t>
-  </si>
-  <si>
-    <t>27.03.202582</t>
-  </si>
-  <si>
-    <t>27.03.202583</t>
-  </si>
-  <si>
-    <t>27.03.202584</t>
-  </si>
-  <si>
-    <t>27.03.202585</t>
-  </si>
-  <si>
-    <t>27.03.202586</t>
-  </si>
-  <si>
-    <t>27.03.202587</t>
-  </si>
-  <si>
-    <t>27.03.202588</t>
-  </si>
-  <si>
-    <t>27.03.202589</t>
-  </si>
-  <si>
-    <t>27.03.202590</t>
-  </si>
-  <si>
-    <t>27.03.202591</t>
-  </si>
-  <si>
-    <t>27.03.202592</t>
-  </si>
-  <si>
-    <t>27.03.202593</t>
-  </si>
-  <si>
-    <t>27.03.202594</t>
-  </si>
-  <si>
-    <t>27.03.202595</t>
-  </si>
-  <si>
-    <t>27.03.202596</t>
-  </si>
-  <si>
     <t>28.03.20251</t>
   </si>
   <si>
@@ -608,6 +320,858 @@
   </si>
   <si>
     <t>28.03.202596</t>
+  </si>
+  <si>
+    <t>29.03.20251</t>
+  </si>
+  <si>
+    <t>29.03.20252</t>
+  </si>
+  <si>
+    <t>29.03.20253</t>
+  </si>
+  <si>
+    <t>29.03.20254</t>
+  </si>
+  <si>
+    <t>29.03.20255</t>
+  </si>
+  <si>
+    <t>29.03.20256</t>
+  </si>
+  <si>
+    <t>29.03.20257</t>
+  </si>
+  <si>
+    <t>29.03.20258</t>
+  </si>
+  <si>
+    <t>29.03.20259</t>
+  </si>
+  <si>
+    <t>29.03.202510</t>
+  </si>
+  <si>
+    <t>29.03.202511</t>
+  </si>
+  <si>
+    <t>29.03.202512</t>
+  </si>
+  <si>
+    <t>29.03.202513</t>
+  </si>
+  <si>
+    <t>29.03.202514</t>
+  </si>
+  <si>
+    <t>29.03.202515</t>
+  </si>
+  <si>
+    <t>29.03.202516</t>
+  </si>
+  <si>
+    <t>29.03.202517</t>
+  </si>
+  <si>
+    <t>29.03.202518</t>
+  </si>
+  <si>
+    <t>29.03.202519</t>
+  </si>
+  <si>
+    <t>29.03.202520</t>
+  </si>
+  <si>
+    <t>29.03.202521</t>
+  </si>
+  <si>
+    <t>29.03.202522</t>
+  </si>
+  <si>
+    <t>29.03.202523</t>
+  </si>
+  <si>
+    <t>29.03.202524</t>
+  </si>
+  <si>
+    <t>29.03.202525</t>
+  </si>
+  <si>
+    <t>29.03.202526</t>
+  </si>
+  <si>
+    <t>29.03.202527</t>
+  </si>
+  <si>
+    <t>29.03.202528</t>
+  </si>
+  <si>
+    <t>29.03.202529</t>
+  </si>
+  <si>
+    <t>29.03.202530</t>
+  </si>
+  <si>
+    <t>29.03.202531</t>
+  </si>
+  <si>
+    <t>29.03.202532</t>
+  </si>
+  <si>
+    <t>29.03.202533</t>
+  </si>
+  <si>
+    <t>29.03.202534</t>
+  </si>
+  <si>
+    <t>29.03.202535</t>
+  </si>
+  <si>
+    <t>29.03.202536</t>
+  </si>
+  <si>
+    <t>29.03.202537</t>
+  </si>
+  <si>
+    <t>29.03.202538</t>
+  </si>
+  <si>
+    <t>29.03.202539</t>
+  </si>
+  <si>
+    <t>29.03.202540</t>
+  </si>
+  <si>
+    <t>29.03.202541</t>
+  </si>
+  <si>
+    <t>29.03.202542</t>
+  </si>
+  <si>
+    <t>29.03.202543</t>
+  </si>
+  <si>
+    <t>29.03.202544</t>
+  </si>
+  <si>
+    <t>29.03.202545</t>
+  </si>
+  <si>
+    <t>29.03.202546</t>
+  </si>
+  <si>
+    <t>29.03.202547</t>
+  </si>
+  <si>
+    <t>29.03.202548</t>
+  </si>
+  <si>
+    <t>29.03.202549</t>
+  </si>
+  <si>
+    <t>29.03.202550</t>
+  </si>
+  <si>
+    <t>29.03.202551</t>
+  </si>
+  <si>
+    <t>29.03.202552</t>
+  </si>
+  <si>
+    <t>29.03.202553</t>
+  </si>
+  <si>
+    <t>29.03.202554</t>
+  </si>
+  <si>
+    <t>29.03.202555</t>
+  </si>
+  <si>
+    <t>29.03.202556</t>
+  </si>
+  <si>
+    <t>29.03.202557</t>
+  </si>
+  <si>
+    <t>29.03.202558</t>
+  </si>
+  <si>
+    <t>29.03.202559</t>
+  </si>
+  <si>
+    <t>29.03.202560</t>
+  </si>
+  <si>
+    <t>29.03.202561</t>
+  </si>
+  <si>
+    <t>29.03.202562</t>
+  </si>
+  <si>
+    <t>29.03.202563</t>
+  </si>
+  <si>
+    <t>29.03.202564</t>
+  </si>
+  <si>
+    <t>29.03.202565</t>
+  </si>
+  <si>
+    <t>29.03.202566</t>
+  </si>
+  <si>
+    <t>29.03.202567</t>
+  </si>
+  <si>
+    <t>29.03.202568</t>
+  </si>
+  <si>
+    <t>29.03.202569</t>
+  </si>
+  <si>
+    <t>29.03.202570</t>
+  </si>
+  <si>
+    <t>29.03.202571</t>
+  </si>
+  <si>
+    <t>29.03.202572</t>
+  </si>
+  <si>
+    <t>29.03.202573</t>
+  </si>
+  <si>
+    <t>29.03.202574</t>
+  </si>
+  <si>
+    <t>29.03.202575</t>
+  </si>
+  <si>
+    <t>29.03.202576</t>
+  </si>
+  <si>
+    <t>29.03.202577</t>
+  </si>
+  <si>
+    <t>29.03.202578</t>
+  </si>
+  <si>
+    <t>29.03.202579</t>
+  </si>
+  <si>
+    <t>29.03.202580</t>
+  </si>
+  <si>
+    <t>29.03.202581</t>
+  </si>
+  <si>
+    <t>29.03.202582</t>
+  </si>
+  <si>
+    <t>29.03.202583</t>
+  </si>
+  <si>
+    <t>29.03.202584</t>
+  </si>
+  <si>
+    <t>29.03.202585</t>
+  </si>
+  <si>
+    <t>29.03.202586</t>
+  </si>
+  <si>
+    <t>29.03.202587</t>
+  </si>
+  <si>
+    <t>29.03.202588</t>
+  </si>
+  <si>
+    <t>29.03.202589</t>
+  </si>
+  <si>
+    <t>29.03.202590</t>
+  </si>
+  <si>
+    <t>29.03.202591</t>
+  </si>
+  <si>
+    <t>29.03.202592</t>
+  </si>
+  <si>
+    <t>29.03.202593</t>
+  </si>
+  <si>
+    <t>29.03.202594</t>
+  </si>
+  <si>
+    <t>29.03.202595</t>
+  </si>
+  <si>
+    <t>29.03.202596</t>
+  </si>
+  <si>
+    <t>30.03.20251</t>
+  </si>
+  <si>
+    <t>30.03.20252</t>
+  </si>
+  <si>
+    <t>30.03.20253</t>
+  </si>
+  <si>
+    <t>30.03.20254</t>
+  </si>
+  <si>
+    <t>30.03.20255</t>
+  </si>
+  <si>
+    <t>30.03.20256</t>
+  </si>
+  <si>
+    <t>30.03.20257</t>
+  </si>
+  <si>
+    <t>30.03.20258</t>
+  </si>
+  <si>
+    <t>30.03.20259</t>
+  </si>
+  <si>
+    <t>30.03.202510</t>
+  </si>
+  <si>
+    <t>30.03.202511</t>
+  </si>
+  <si>
+    <t>30.03.202512</t>
+  </si>
+  <si>
+    <t>30.03.202513</t>
+  </si>
+  <si>
+    <t>30.03.202514</t>
+  </si>
+  <si>
+    <t>30.03.202515</t>
+  </si>
+  <si>
+    <t>30.03.202516</t>
+  </si>
+  <si>
+    <t>30.03.202517</t>
+  </si>
+  <si>
+    <t>30.03.202518</t>
+  </si>
+  <si>
+    <t>30.03.202519</t>
+  </si>
+  <si>
+    <t>30.03.202520</t>
+  </si>
+  <si>
+    <t>30.03.202521</t>
+  </si>
+  <si>
+    <t>30.03.202522</t>
+  </si>
+  <si>
+    <t>30.03.202523</t>
+  </si>
+  <si>
+    <t>30.03.202524</t>
+  </si>
+  <si>
+    <t>30.03.202525</t>
+  </si>
+  <si>
+    <t>30.03.202526</t>
+  </si>
+  <si>
+    <t>30.03.202527</t>
+  </si>
+  <si>
+    <t>30.03.202528</t>
+  </si>
+  <si>
+    <t>30.03.202529</t>
+  </si>
+  <si>
+    <t>30.03.202530</t>
+  </si>
+  <si>
+    <t>30.03.202531</t>
+  </si>
+  <si>
+    <t>30.03.202532</t>
+  </si>
+  <si>
+    <t>30.03.202533</t>
+  </si>
+  <si>
+    <t>30.03.202534</t>
+  </si>
+  <si>
+    <t>30.03.202535</t>
+  </si>
+  <si>
+    <t>30.03.202536</t>
+  </si>
+  <si>
+    <t>30.03.202537</t>
+  </si>
+  <si>
+    <t>30.03.202538</t>
+  </si>
+  <si>
+    <t>30.03.202539</t>
+  </si>
+  <si>
+    <t>30.03.202540</t>
+  </si>
+  <si>
+    <t>30.03.202541</t>
+  </si>
+  <si>
+    <t>30.03.202542</t>
+  </si>
+  <si>
+    <t>30.03.202543</t>
+  </si>
+  <si>
+    <t>30.03.202544</t>
+  </si>
+  <si>
+    <t>30.03.202545</t>
+  </si>
+  <si>
+    <t>30.03.202546</t>
+  </si>
+  <si>
+    <t>30.03.202547</t>
+  </si>
+  <si>
+    <t>30.03.202548</t>
+  </si>
+  <si>
+    <t>30.03.202549</t>
+  </si>
+  <si>
+    <t>30.03.202550</t>
+  </si>
+  <si>
+    <t>30.03.202551</t>
+  </si>
+  <si>
+    <t>30.03.202552</t>
+  </si>
+  <si>
+    <t>30.03.202553</t>
+  </si>
+  <si>
+    <t>30.03.202554</t>
+  </si>
+  <si>
+    <t>30.03.202555</t>
+  </si>
+  <si>
+    <t>30.03.202556</t>
+  </si>
+  <si>
+    <t>30.03.202557</t>
+  </si>
+  <si>
+    <t>30.03.202558</t>
+  </si>
+  <si>
+    <t>30.03.202559</t>
+  </si>
+  <si>
+    <t>30.03.202560</t>
+  </si>
+  <si>
+    <t>30.03.202561</t>
+  </si>
+  <si>
+    <t>30.03.202562</t>
+  </si>
+  <si>
+    <t>30.03.202563</t>
+  </si>
+  <si>
+    <t>30.03.202564</t>
+  </si>
+  <si>
+    <t>30.03.202565</t>
+  </si>
+  <si>
+    <t>30.03.202566</t>
+  </si>
+  <si>
+    <t>30.03.202567</t>
+  </si>
+  <si>
+    <t>30.03.202568</t>
+  </si>
+  <si>
+    <t>30.03.202569</t>
+  </si>
+  <si>
+    <t>30.03.202570</t>
+  </si>
+  <si>
+    <t>30.03.202571</t>
+  </si>
+  <si>
+    <t>30.03.202572</t>
+  </si>
+  <si>
+    <t>30.03.202573</t>
+  </si>
+  <si>
+    <t>30.03.202574</t>
+  </si>
+  <si>
+    <t>30.03.202575</t>
+  </si>
+  <si>
+    <t>30.03.202576</t>
+  </si>
+  <si>
+    <t>30.03.202577</t>
+  </si>
+  <si>
+    <t>30.03.202578</t>
+  </si>
+  <si>
+    <t>30.03.202579</t>
+  </si>
+  <si>
+    <t>30.03.202580</t>
+  </si>
+  <si>
+    <t>30.03.202581</t>
+  </si>
+  <si>
+    <t>30.03.202582</t>
+  </si>
+  <si>
+    <t>30.03.202583</t>
+  </si>
+  <si>
+    <t>30.03.202584</t>
+  </si>
+  <si>
+    <t>30.03.202585</t>
+  </si>
+  <si>
+    <t>30.03.202586</t>
+  </si>
+  <si>
+    <t>30.03.202587</t>
+  </si>
+  <si>
+    <t>30.03.202588</t>
+  </si>
+  <si>
+    <t>30.03.202589</t>
+  </si>
+  <si>
+    <t>30.03.202590</t>
+  </si>
+  <si>
+    <t>30.03.202591</t>
+  </si>
+  <si>
+    <t>30.03.202592</t>
+  </si>
+  <si>
+    <t>31.03.202593</t>
+  </si>
+  <si>
+    <t>31.03.202594</t>
+  </si>
+  <si>
+    <t>31.03.202595</t>
+  </si>
+  <si>
+    <t>31.03.202596</t>
+  </si>
+  <si>
+    <t>31.03.20251</t>
+  </si>
+  <si>
+    <t>31.03.20252</t>
+  </si>
+  <si>
+    <t>31.03.20253</t>
+  </si>
+  <si>
+    <t>31.03.20254</t>
+  </si>
+  <si>
+    <t>31.03.20255</t>
+  </si>
+  <si>
+    <t>31.03.20256</t>
+  </si>
+  <si>
+    <t>31.03.20257</t>
+  </si>
+  <si>
+    <t>31.03.20258</t>
+  </si>
+  <si>
+    <t>31.03.20259</t>
+  </si>
+  <si>
+    <t>31.03.202510</t>
+  </si>
+  <si>
+    <t>31.03.202511</t>
+  </si>
+  <si>
+    <t>31.03.202512</t>
+  </si>
+  <si>
+    <t>31.03.202513</t>
+  </si>
+  <si>
+    <t>31.03.202514</t>
+  </si>
+  <si>
+    <t>31.03.202515</t>
+  </si>
+  <si>
+    <t>31.03.202516</t>
+  </si>
+  <si>
+    <t>31.03.202517</t>
+  </si>
+  <si>
+    <t>31.03.202518</t>
+  </si>
+  <si>
+    <t>31.03.202519</t>
+  </si>
+  <si>
+    <t>31.03.202520</t>
+  </si>
+  <si>
+    <t>31.03.202521</t>
+  </si>
+  <si>
+    <t>31.03.202522</t>
+  </si>
+  <si>
+    <t>31.03.202523</t>
+  </si>
+  <si>
+    <t>31.03.202524</t>
+  </si>
+  <si>
+    <t>31.03.202525</t>
+  </si>
+  <si>
+    <t>31.03.202526</t>
+  </si>
+  <si>
+    <t>31.03.202527</t>
+  </si>
+  <si>
+    <t>31.03.202528</t>
+  </si>
+  <si>
+    <t>31.03.202529</t>
+  </si>
+  <si>
+    <t>31.03.202530</t>
+  </si>
+  <si>
+    <t>31.03.202531</t>
+  </si>
+  <si>
+    <t>31.03.202532</t>
+  </si>
+  <si>
+    <t>31.03.202533</t>
+  </si>
+  <si>
+    <t>31.03.202534</t>
+  </si>
+  <si>
+    <t>31.03.202535</t>
+  </si>
+  <si>
+    <t>31.03.202536</t>
+  </si>
+  <si>
+    <t>31.03.202537</t>
+  </si>
+  <si>
+    <t>31.03.202538</t>
+  </si>
+  <si>
+    <t>31.03.202539</t>
+  </si>
+  <si>
+    <t>31.03.202540</t>
+  </si>
+  <si>
+    <t>31.03.202541</t>
+  </si>
+  <si>
+    <t>31.03.202542</t>
+  </si>
+  <si>
+    <t>31.03.202543</t>
+  </si>
+  <si>
+    <t>31.03.202544</t>
+  </si>
+  <si>
+    <t>31.03.202545</t>
+  </si>
+  <si>
+    <t>31.03.202546</t>
+  </si>
+  <si>
+    <t>31.03.202547</t>
+  </si>
+  <si>
+    <t>31.03.202548</t>
+  </si>
+  <si>
+    <t>31.03.202549</t>
+  </si>
+  <si>
+    <t>31.03.202550</t>
+  </si>
+  <si>
+    <t>31.03.202551</t>
+  </si>
+  <si>
+    <t>31.03.202552</t>
+  </si>
+  <si>
+    <t>31.03.202553</t>
+  </si>
+  <si>
+    <t>31.03.202554</t>
+  </si>
+  <si>
+    <t>31.03.202555</t>
+  </si>
+  <si>
+    <t>31.03.202556</t>
+  </si>
+  <si>
+    <t>31.03.202557</t>
+  </si>
+  <si>
+    <t>31.03.202558</t>
+  </si>
+  <si>
+    <t>31.03.202559</t>
+  </si>
+  <si>
+    <t>31.03.202560</t>
+  </si>
+  <si>
+    <t>31.03.202561</t>
+  </si>
+  <si>
+    <t>31.03.202562</t>
+  </si>
+  <si>
+    <t>31.03.202563</t>
+  </si>
+  <si>
+    <t>31.03.202564</t>
+  </si>
+  <si>
+    <t>31.03.202565</t>
+  </si>
+  <si>
+    <t>31.03.202566</t>
+  </si>
+  <si>
+    <t>31.03.202567</t>
+  </si>
+  <si>
+    <t>31.03.202568</t>
+  </si>
+  <si>
+    <t>31.03.202569</t>
+  </si>
+  <si>
+    <t>31.03.202570</t>
+  </si>
+  <si>
+    <t>31.03.202571</t>
+  </si>
+  <si>
+    <t>31.03.202572</t>
+  </si>
+  <si>
+    <t>31.03.202573</t>
+  </si>
+  <si>
+    <t>31.03.202574</t>
+  </si>
+  <si>
+    <t>31.03.202575</t>
+  </si>
+  <si>
+    <t>31.03.202576</t>
+  </si>
+  <si>
+    <t>31.03.202577</t>
+  </si>
+  <si>
+    <t>31.03.202578</t>
+  </si>
+  <si>
+    <t>31.03.202579</t>
+  </si>
+  <si>
+    <t>31.03.202580</t>
+  </si>
+  <si>
+    <t>31.03.202581</t>
+  </si>
+  <si>
+    <t>31.03.202582</t>
+  </si>
+  <si>
+    <t>31.03.202583</t>
+  </si>
+  <si>
+    <t>31.03.202584</t>
+  </si>
+  <si>
+    <t>31.03.202585</t>
+  </si>
+  <si>
+    <t>31.03.202586</t>
+  </si>
+  <si>
+    <t>31.03.202587</t>
+  </si>
+  <si>
+    <t>31.03.202588</t>
+  </si>
+  <si>
+    <t>31.03.202589</t>
+  </si>
+  <si>
+    <t>31.03.202590</t>
+  </si>
+  <si>
+    <t>31.03.202591</t>
+  </si>
+  <si>
+    <t>31.03.202592</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,16 +1561,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>-5</v>
       </c>
       <c r="C2">
-        <v>-4.77</v>
+        <v>992.97</v>
       </c>
       <c r="D2">
-        <v>-4.77</v>
+        <v>992.97</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1017,16 +1581,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45743.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>-8</v>
       </c>
       <c r="C3">
-        <v>16.7</v>
+        <v>932.48</v>
       </c>
       <c r="D3">
-        <v>16.7</v>
+        <v>932.48</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1037,16 +1601,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45743.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>11.73</v>
+        <v>222.7</v>
       </c>
       <c r="D4">
-        <v>11.73</v>
+        <v>744</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1057,16 +1621,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45743.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>-0.42</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="D5">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1077,16 +1641,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45743.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>-5.47</v>
+        <v>183.83</v>
       </c>
       <c r="D6">
-        <v>-5.47</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1661,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45743.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.96</v>
+        <v>156.15</v>
       </c>
       <c r="D7">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1681,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45743.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>11.84</v>
+        <v>243.85</v>
       </c>
       <c r="D8">
-        <v>11.84</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1701,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45743.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>-133.7</v>
+        <v>21.31</v>
       </c>
       <c r="D9">
-        <v>-133.7</v>
+        <v>21.31</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1721,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45743.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>-239.84</v>
+        <v>-1.17</v>
       </c>
       <c r="D10">
-        <v>-239.84</v>
+        <v>-1.17</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1741,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45743.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>-4.28</v>
+        <v>1.58</v>
       </c>
       <c r="D11">
-        <v>-4.28</v>
+        <v>1.58</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1761,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45743.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>231.07</v>
+        <v>-1.01</v>
       </c>
       <c r="D12">
-        <v>744</v>
+        <v>-1.01</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1781,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45743.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>-360.8</v>
+        <v>4.22</v>
       </c>
       <c r="D13">
-        <v>-360.8</v>
+        <v>4.22</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1801,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45743.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C14">
-        <v>87.18000000000001</v>
+        <v>13.55</v>
       </c>
       <c r="D14">
-        <v>87.18000000000001</v>
+        <v>13.55</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1821,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45743.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>357.94</v>
+        <v>7.37</v>
       </c>
       <c r="D15">
-        <v>744</v>
+        <v>7.37</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1841,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45743.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B16">
-        <v>-2</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>875.28</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D16">
-        <v>875.28</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1861,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45743.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B17">
-        <v>-5</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>1093.14</v>
+        <v>-0.73</v>
       </c>
       <c r="D17">
-        <v>1093.14</v>
+        <v>-0.73</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1881,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45743.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>-21.31</v>
+        <v>-2.89</v>
       </c>
       <c r="D18">
-        <v>-21.31</v>
+        <v>-2.89</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1901,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45743.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>-432.56</v>
+        <v>-10.11</v>
       </c>
       <c r="D19">
-        <v>-432.56</v>
+        <v>-10.11</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1921,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45743.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>-3854.6</v>
+        <v>1.51</v>
       </c>
       <c r="D20">
-        <v>-3854.6</v>
+        <v>1.51</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1941,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45743.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>90.95999999999999</v>
+        <v>-4.9</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1961,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45743.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>-3876.66</v>
+        <v>45.94</v>
       </c>
       <c r="D22">
-        <v>-3876.66</v>
+        <v>45.94</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1981,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45743.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>-3180.77</v>
+        <v>47.96</v>
       </c>
       <c r="D23">
-        <v>-3180.77</v>
+        <v>47.96</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +2001,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45743.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>-4995.1</v>
+        <v>14.21</v>
       </c>
       <c r="D24">
-        <v>-4995.1</v>
+        <v>14.21</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +2021,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45743.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>345.38</v>
+        <v>-1.25</v>
       </c>
       <c r="D25">
-        <v>841.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +2041,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45743.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B26">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>-51.06</v>
+        <v>-55.6</v>
       </c>
       <c r="D26">
-        <v>-51.06</v>
+        <v>-55.6</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +2061,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45743.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B27">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>390</v>
+        <v>-194.09</v>
       </c>
       <c r="D27">
-        <v>993.27</v>
+        <v>-194.09</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +2081,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45743.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B28">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>368.8</v>
+        <v>360.57</v>
       </c>
       <c r="D28">
-        <v>991.63</v>
+        <v>986.87</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +2101,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45743.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B29">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1087.42</v>
+        <v>369.4</v>
       </c>
       <c r="D29">
-        <v>1087.42</v>
+        <v>873.84</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +2121,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45743.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B30">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C30">
         <v>390</v>
       </c>
       <c r="D30">
-        <v>990.52</v>
+        <v>997.01</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +2141,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45743.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="C31">
-        <v>357.21</v>
+        <v>1018.54</v>
       </c>
       <c r="D31">
-        <v>954.3099999999999</v>
+        <v>1018.54</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +2161,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45743.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>-36</v>
       </c>
       <c r="C32">
-        <v>358.78</v>
+        <v>1051.31</v>
       </c>
       <c r="D32">
-        <v>909.5599999999999</v>
+        <v>1051.31</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +2181,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45743.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>-44</v>
       </c>
       <c r="C33">
-        <v>253.97</v>
+        <v>1262.35</v>
       </c>
       <c r="D33">
-        <v>253.97</v>
+        <v>1262.35</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +2201,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45743.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>-99</v>
       </c>
       <c r="C34">
-        <v>359.23</v>
+        <v>3969.48</v>
       </c>
       <c r="D34">
-        <v>843.28</v>
+        <v>3969.48</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +2221,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45743.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>-128</v>
       </c>
       <c r="C35">
-        <v>-379.12</v>
+        <v>2772.95</v>
       </c>
       <c r="D35">
-        <v>-379.12</v>
+        <v>2772.95</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +2241,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45743.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>-110</v>
       </c>
       <c r="C36">
-        <v>276.79</v>
+        <v>966.0700000000001</v>
       </c>
       <c r="D36">
-        <v>276.79</v>
+        <v>966.0700000000001</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +2261,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45743.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>-111</v>
       </c>
       <c r="C37">
-        <v>353.82</v>
+        <v>1080.74</v>
       </c>
       <c r="D37">
-        <v>353.82</v>
+        <v>1080.74</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +2281,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45743.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B38">
-        <v>-3</v>
+        <v>-112</v>
       </c>
       <c r="C38">
-        <v>390</v>
+        <v>1872.85</v>
       </c>
       <c r="D38">
-        <v>883.7</v>
+        <v>1872.85</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +2301,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45743.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>-94</v>
       </c>
       <c r="C39">
-        <v>192.69</v>
+        <v>811.77</v>
       </c>
       <c r="D39">
-        <v>840</v>
+        <v>811.77</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +2321,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45743.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B40">
-        <v>26</v>
+        <v>-71</v>
       </c>
       <c r="C40">
-        <v>-1119.61</v>
+        <v>819</v>
       </c>
       <c r="D40">
-        <v>-1119.61</v>
+        <v>819</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +2341,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45743.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>-62</v>
       </c>
       <c r="C41">
-        <v>-2014.09</v>
+        <v>804.22</v>
       </c>
       <c r="D41">
-        <v>-2014.09</v>
+        <v>804.22</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +2361,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45743.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>-79</v>
       </c>
       <c r="C42">
-        <v>143.29</v>
+        <v>800.7</v>
       </c>
       <c r="D42">
-        <v>143.29</v>
+        <v>800.7</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +2381,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45743.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>-71</v>
       </c>
       <c r="C43">
-        <v>28.32</v>
+        <v>773.1</v>
       </c>
       <c r="D43">
-        <v>744</v>
+        <v>773.1</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +2401,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45743.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B44">
-        <v>13</v>
+        <v>-59</v>
       </c>
       <c r="C44">
-        <v>76.88</v>
+        <v>778.28</v>
       </c>
       <c r="D44">
-        <v>76.88</v>
+        <v>778.28</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +2421,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45743.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>-50</v>
       </c>
       <c r="C45">
-        <v>-314.87</v>
+        <v>770.42</v>
       </c>
       <c r="D45">
-        <v>-314.87</v>
+        <v>770.42</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +2441,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45743.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>-46</v>
       </c>
       <c r="C46">
-        <v>16.93</v>
+        <v>669.8099999999999</v>
       </c>
       <c r="D46">
-        <v>16.93</v>
+        <v>669.8099999999999</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +2461,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45743.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B47">
-        <v>-2</v>
+        <v>-34</v>
       </c>
       <c r="C47">
-        <v>694.74</v>
+        <v>928.89</v>
       </c>
       <c r="D47">
-        <v>694.74</v>
+        <v>928.89</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +2481,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45743.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B48">
-        <v>-11</v>
+        <v>-28</v>
       </c>
       <c r="C48">
-        <v>827.88</v>
+        <v>1077.88</v>
       </c>
       <c r="D48">
-        <v>827.88</v>
+        <v>1077.88</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +2501,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45743.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B49">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="C49">
-        <v>679.3</v>
+        <v>165.23</v>
       </c>
       <c r="D49">
-        <v>679.3</v>
+        <v>603</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +2521,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45743.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B50">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>394.12</v>
+        <v>204.68</v>
       </c>
       <c r="D50">
-        <v>905.95</v>
+        <v>682.79</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +2541,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45743.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B51">
-        <v>-31</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>3637.61</v>
+        <v>-7.31</v>
       </c>
       <c r="D51">
-        <v>3637.61</v>
+        <v>-7.31</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +2561,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45743.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B52">
-        <v>-52</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>1365.7</v>
+        <v>3.88</v>
       </c>
       <c r="D52">
-        <v>1365.7</v>
+        <v>3.88</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2581,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45743.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B53">
-        <v>-33</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>669.12</v>
+        <v>-10.62</v>
       </c>
       <c r="D53">
-        <v>669.12</v>
+        <v>-10.62</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2601,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45743.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B54">
-        <v>-30</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>734.72</v>
+        <v>-22.73</v>
       </c>
       <c r="D54">
-        <v>734.72</v>
+        <v>-22.73</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2621,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45743.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B55">
-        <v>-33</v>
+        <v>44</v>
       </c>
       <c r="C55">
-        <v>732.05</v>
+        <v>-107.8</v>
       </c>
       <c r="D55">
-        <v>732.05</v>
+        <v>-107.8</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2641,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45743.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B56">
-        <v>-34</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>731.64</v>
+        <v>104</v>
       </c>
       <c r="D56">
-        <v>731.64</v>
+        <v>104</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2661,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45743.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B57">
-        <v>-30</v>
+        <v>28</v>
       </c>
       <c r="C57">
-        <v>735.1900000000001</v>
+        <v>23.12</v>
       </c>
       <c r="D57">
-        <v>735.1900000000001</v>
+        <v>23.12</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2681,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45743.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B58">
-        <v>-29</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>971.73</v>
+        <v>102.35</v>
       </c>
       <c r="D58">
-        <v>971.73</v>
+        <v>102.35</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2701,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45743.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B59">
-        <v>-31</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>940.12</v>
+        <v>98.48</v>
       </c>
       <c r="D59">
-        <v>940.12</v>
+        <v>98.48</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2721,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45743.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B60">
-        <v>-41</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>949.75</v>
+        <v>200</v>
       </c>
       <c r="D60">
-        <v>949.75</v>
+        <v>844.67</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2741,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45743.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B61">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>948.84</v>
+        <v>200</v>
       </c>
       <c r="D61">
-        <v>948.84</v>
+        <v>859.41</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2761,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45743.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B62">
-        <v>-27</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>3057.31</v>
+        <v>-44.3</v>
       </c>
       <c r="D62">
-        <v>3057.31</v>
+        <v>-44.3</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2781,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45743.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B63">
-        <v>-38</v>
+        <v>-1</v>
       </c>
       <c r="C63">
-        <v>997.49</v>
+        <v>384.55</v>
       </c>
       <c r="D63">
-        <v>997.49</v>
+        <v>950.04</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2801,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45743.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B64">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="C64">
-        <v>-2690.51</v>
+        <v>4239.78</v>
       </c>
       <c r="D64">
-        <v>968.37</v>
+        <v>4239.78</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2821,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45743.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>-27</v>
       </c>
       <c r="C65">
-        <v>-1737.86</v>
+        <v>4205.07</v>
       </c>
       <c r="D65">
-        <v>-1737.86</v>
+        <v>4205.07</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2841,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45743.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-4338.92</v>
+        <v>350.73</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>843.9299999999999</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2861,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45743.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B67">
-        <v>94</v>
+        <v>-1</v>
       </c>
       <c r="C67">
-        <v>-2194.24</v>
+        <v>386.46</v>
       </c>
       <c r="D67">
-        <v>-2194.24</v>
+        <v>843.22</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2881,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45743.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B68">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>-1216.14</v>
+        <v>390</v>
       </c>
       <c r="D68">
-        <v>-1216.14</v>
+        <v>842.67</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2901,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45743.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>-3</v>
       </c>
       <c r="C69">
-        <v>30.26</v>
+        <v>949.01</v>
       </c>
       <c r="D69">
-        <v>30.26</v>
+        <v>949.01</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2921,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45743.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B70">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>-598.38</v>
+        <v>-2803.04</v>
       </c>
       <c r="D70">
-        <v>-598.38</v>
+        <v>-2803.04</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2941,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45743.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B71">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>44.75</v>
+        <v>353.06</v>
       </c>
       <c r="D71">
-        <v>44.75</v>
+        <v>956.55</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2961,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45743.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B72">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.23</v>
+        <v>364.02</v>
       </c>
       <c r="D72">
-        <v>0.23</v>
+        <v>957.52</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2981,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45743.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B73">
-        <v>38</v>
+        <v>-0</v>
       </c>
       <c r="C73">
-        <v>-143.23</v>
+        <v>376.15</v>
       </c>
       <c r="D73">
-        <v>-143.23</v>
+        <v>955.05</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +3001,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45743.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C74">
-        <v>352.32</v>
+        <v>-4397.96</v>
       </c>
       <c r="D74">
-        <v>993.7</v>
+        <v>-4397.96</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +3021,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45743.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>380.65</v>
+        <v>-2385.18</v>
       </c>
       <c r="D75">
-        <v>840</v>
+        <v>-2385.18</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +3041,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45743.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C76">
-        <v>397.45</v>
+        <v>388.29</v>
       </c>
       <c r="D76">
-        <v>875.5599999999999</v>
+        <v>922.5599999999999</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +3061,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45743.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C77">
-        <v>398.01</v>
+        <v>382.15</v>
       </c>
       <c r="D77">
-        <v>896.99</v>
+        <v>926.49</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +3081,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45743.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C78">
-        <v>391.14</v>
+        <v>999.99</v>
       </c>
       <c r="D78">
-        <v>938.46</v>
+        <v>999.99</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +3101,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45743.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B79">
-        <v>60</v>
+        <v>-19</v>
       </c>
       <c r="C79">
-        <v>-28.78</v>
+        <v>1267.5</v>
       </c>
       <c r="D79">
-        <v>-28.78</v>
+        <v>1267.5</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +3121,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45743.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B80">
-        <v>61</v>
+        <v>-24</v>
       </c>
       <c r="C80">
-        <v>-21.63</v>
+        <v>1275.52</v>
       </c>
       <c r="D80">
-        <v>-21.63</v>
+        <v>1275.52</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +3141,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45743.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B81">
-        <v>62</v>
+        <v>-12</v>
       </c>
       <c r="C81">
-        <v>-1.08</v>
+        <v>1193.12</v>
       </c>
       <c r="D81">
-        <v>-1.08</v>
+        <v>1193.12</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +3161,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45743.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B82">
-        <v>37</v>
+        <v>-22</v>
       </c>
       <c r="C82">
-        <v>-3369.5</v>
+        <v>4071.65</v>
       </c>
       <c r="D82">
-        <v>-3369.5</v>
+        <v>4071.65</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +3181,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45743.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B83">
-        <v>50</v>
+        <v>-2</v>
       </c>
       <c r="C83">
-        <v>-261.37</v>
+        <v>383.36</v>
       </c>
       <c r="D83">
-        <v>-261.37</v>
+        <v>986.63</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +3201,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45743.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B84">
-        <v>25</v>
+        <v>-0</v>
       </c>
       <c r="C84">
-        <v>0.55</v>
+        <v>365.31</v>
       </c>
       <c r="D84">
-        <v>0.55</v>
+        <v>899.84</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +3221,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45743.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C85">
-        <v>19.15</v>
+        <v>-3790.58</v>
       </c>
       <c r="D85">
-        <v>19.15</v>
+        <v>-3790.58</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +3241,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45743.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B86">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>1.67</v>
+        <v>72.91</v>
       </c>
       <c r="D86">
-        <v>4231.09</v>
+        <v>72.91</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +3261,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45743.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B87">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>1003.21</v>
+        <v>242.03</v>
       </c>
       <c r="D87">
-        <v>1003.21</v>
+        <v>242.03</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +3281,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45743.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>-1646.45</v>
+        <v>-1123.48</v>
       </c>
       <c r="D88">
-        <v>-1646.45</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +3301,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45743.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>-3494.97</v>
+        <v>-121.97</v>
       </c>
       <c r="D89">
-        <v>-3494.97</v>
+        <v>-121.97</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +3321,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45743.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="C90">
-        <v>-3499</v>
+        <v>1166.43</v>
       </c>
       <c r="D90">
-        <v>-3499</v>
+        <v>1166.43</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +3341,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45743.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C91">
-        <v>387.56</v>
+        <v>372.79</v>
       </c>
       <c r="D91">
-        <v>841.67</v>
+        <v>875.27</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +3361,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45743.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B92">
-        <v>-0</v>
+        <v>-6</v>
       </c>
       <c r="C92">
-        <v>375.86</v>
+        <v>978.1900000000001</v>
       </c>
       <c r="D92">
-        <v>843.49</v>
+        <v>978.1900000000001</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +3381,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45743.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>253.32</v>
+        <v>204.37</v>
       </c>
       <c r="D93">
-        <v>253.32</v>
+        <v>843.96</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +3401,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45743.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B94">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>3234.8</v>
+        <v>278.99</v>
       </c>
       <c r="D94">
-        <v>3234.8</v>
+        <v>278.99</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +3421,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45743.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B95">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>396.76</v>
+        <v>306.82</v>
       </c>
       <c r="D95">
-        <v>778.98</v>
+        <v>306.82</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +3441,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45743.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B96">
-        <v>-0</v>
+        <v>-5</v>
       </c>
       <c r="C96">
-        <v>304.29</v>
+        <v>961.88</v>
       </c>
       <c r="D96">
-        <v>744</v>
+        <v>961.88</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +3461,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45743.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>243.33</v>
+        <v>200.73</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>200.73</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +3481,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B98">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="C98">
-        <v>992.97</v>
+        <v>1000.83</v>
       </c>
       <c r="D98">
-        <v>992.97</v>
+        <v>1000.83</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +3501,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45744.01041666666</v>
+        <v>45745.01041666666</v>
       </c>
       <c r="B99">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="C99">
-        <v>932.48</v>
+        <v>311.11</v>
       </c>
       <c r="D99">
-        <v>932.48</v>
+        <v>924.6799999999999</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,13 +3521,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45744.02083333334</v>
+        <v>45745.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C100">
-        <v>222.7</v>
+        <v>368.36</v>
       </c>
       <c r="D100">
         <v>744</v>
@@ -2977,16 +3541,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45744.03125</v>
+        <v>45745.03125</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>-29</v>
       </c>
       <c r="C101">
-        <v>91.56999999999999</v>
+        <v>981.97</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>981.97</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +3561,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45744.04166666666</v>
+        <v>45745.04166666666</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>-26</v>
       </c>
       <c r="C102">
-        <v>183.83</v>
+        <v>910.76</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>910.76</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3581,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45744.05208333334</v>
+        <v>45745.05208333334</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="C103">
-        <v>156.15</v>
+        <v>911.73</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>911.73</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3601,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45744.0625</v>
+        <v>45745.0625</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="C104">
-        <v>243.85</v>
+        <v>877.22</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>877.22</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3621,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45744.07291666666</v>
+        <v>45745.07291666666</v>
       </c>
       <c r="B105">
-        <v>42</v>
+        <v>-10</v>
       </c>
       <c r="C105">
-        <v>21.31</v>
+        <v>977.33</v>
       </c>
       <c r="D105">
-        <v>21.31</v>
+        <v>977.33</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3641,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45744.08333333334</v>
+        <v>45745.08333333334</v>
       </c>
       <c r="B106">
-        <v>38</v>
+        <v>-34</v>
       </c>
       <c r="C106">
-        <v>-1.17</v>
+        <v>5152.28</v>
       </c>
       <c r="D106">
-        <v>-1.17</v>
+        <v>5152.28</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3661,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45744.09375</v>
+        <v>45745.09375</v>
       </c>
       <c r="B107">
-        <v>38</v>
+        <v>-29</v>
       </c>
       <c r="C107">
-        <v>1.58</v>
+        <v>845.85</v>
       </c>
       <c r="D107">
-        <v>1.58</v>
+        <v>845.85</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3681,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45744.10416666666</v>
+        <v>45745.10416666666</v>
       </c>
       <c r="B108">
-        <v>37</v>
+        <v>-16</v>
       </c>
       <c r="C108">
-        <v>-1.01</v>
+        <v>758.4299999999999</v>
       </c>
       <c r="D108">
-        <v>-1.01</v>
+        <v>758.4299999999999</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3701,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45744.11458333334</v>
+        <v>45745.11458333334</v>
       </c>
       <c r="B109">
-        <v>36</v>
+        <v>-4</v>
       </c>
       <c r="C109">
-        <v>4.22</v>
+        <v>179.67</v>
       </c>
       <c r="D109">
-        <v>4.22</v>
+        <v>750</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3721,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45744.125</v>
+        <v>45745.125</v>
       </c>
       <c r="B110">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>13.55</v>
+        <v>185.99</v>
       </c>
       <c r="D110">
-        <v>13.55</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3741,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45744.13541666666</v>
+        <v>45745.13541666666</v>
       </c>
       <c r="B111">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>7.37</v>
+        <v>-13.49</v>
       </c>
       <c r="D111">
-        <v>7.37</v>
+        <v>-13.49</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3761,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45744.14583333334</v>
+        <v>45745.14583333334</v>
       </c>
       <c r="B112">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>9.699999999999999</v>
+        <v>89.34</v>
       </c>
       <c r="D112">
-        <v>9.699999999999999</v>
+        <v>89.34</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3781,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45744.15625</v>
+        <v>45745.15625</v>
       </c>
       <c r="B113">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>-0.73</v>
+        <v>188.2</v>
       </c>
       <c r="D113">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3801,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45744.16666666666</v>
+        <v>45745.16666666666</v>
       </c>
       <c r="B114">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>-2.89</v>
+        <v>214.06</v>
       </c>
       <c r="D114">
-        <v>-2.89</v>
+        <v>744</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3821,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45744.17708333334</v>
+        <v>45745.17708333334</v>
       </c>
       <c r="B115">
-        <v>49</v>
+        <v>-0</v>
       </c>
       <c r="C115">
-        <v>-10.11</v>
+        <v>262.15</v>
       </c>
       <c r="D115">
-        <v>-10.11</v>
+        <v>749.12</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3841,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45744.1875</v>
+        <v>45745.1875</v>
       </c>
       <c r="B116">
-        <v>38</v>
+        <v>-0</v>
       </c>
       <c r="C116">
-        <v>1.51</v>
+        <v>279.98</v>
       </c>
       <c r="D116">
-        <v>1.51</v>
+        <v>775.53</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3861,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45744.19791666666</v>
+        <v>45745.19791666666</v>
       </c>
       <c r="B117">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="C117">
-        <v>-4.9</v>
+        <v>390</v>
       </c>
       <c r="D117">
-        <v>-4.9</v>
+        <v>752.59</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3881,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45744.20833333334</v>
+        <v>45745.20833333334</v>
       </c>
       <c r="B118">
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="C118">
-        <v>45.94</v>
+        <v>296.24</v>
       </c>
       <c r="D118">
-        <v>45.94</v>
+        <v>898.99</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3901,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45744.21875</v>
+        <v>45745.21875</v>
       </c>
       <c r="B119">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="C119">
-        <v>47.96</v>
+        <v>390</v>
       </c>
       <c r="D119">
-        <v>47.96</v>
+        <v>819.55</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3921,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45744.22916666666</v>
+        <v>45745.22916666666</v>
       </c>
       <c r="B120">
-        <v>39</v>
+        <v>-20</v>
       </c>
       <c r="C120">
-        <v>14.21</v>
+        <v>857.02</v>
       </c>
       <c r="D120">
-        <v>14.21</v>
+        <v>857.02</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3941,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45744.23958333334</v>
+        <v>45745.23958333334</v>
       </c>
       <c r="B121">
-        <v>37</v>
+        <v>-34</v>
       </c>
       <c r="C121">
-        <v>-1.25</v>
+        <v>910.97</v>
       </c>
       <c r="D121">
-        <v>-1.25</v>
+        <v>910.97</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3961,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45744.25</v>
+        <v>45745.25</v>
       </c>
       <c r="B122">
-        <v>71</v>
+        <v>-39</v>
       </c>
       <c r="C122">
-        <v>-55.6</v>
+        <v>2414.71</v>
       </c>
       <c r="D122">
-        <v>-55.6</v>
+        <v>2414.71</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3981,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45744.26041666666</v>
+        <v>45745.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>729.54</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>729.54</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +4001,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45744.27083333334</v>
+        <v>45745.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>547.6</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>547.6</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +4021,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45744.28125</v>
+        <v>45745.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>548.84</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>548.84</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +4041,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45744.29166666666</v>
+        <v>45745.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>905.46</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>905.46</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +4061,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45744.30208333334</v>
+        <v>45745.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>894.0599999999999</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>894.0599999999999</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +4081,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45744.3125</v>
+        <v>45745.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>893.9299999999999</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>893.9299999999999</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +4101,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45744.32291666666</v>
+        <v>45745.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>896.16</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>896.16</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +4121,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45744.33333333334</v>
+        <v>45745.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>871.54</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>871.54</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +4141,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45744.34375</v>
+        <v>45745.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>868.84</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>868.84</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +4161,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45744.35416666666</v>
+        <v>45745.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>870.22</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>870.22</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +4181,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45744.36458333334</v>
+        <v>45745.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>872.77</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>872.77</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +4201,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45744.375</v>
+        <v>45745.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>843.4400000000001</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>843.4400000000001</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +4221,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45744.38541666666</v>
+        <v>45745.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>846.29</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>846.29</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +4241,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45744.39583333334</v>
+        <v>45745.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>846.66</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>846.66</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +4261,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45744.40625</v>
+        <v>45745.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>845.39</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>845.39</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +4281,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45744.41666666666</v>
+        <v>45745.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>876.23</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>876.23</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +4301,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45744.42708333334</v>
+        <v>45745.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1407.28</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1407.28</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +4321,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45744.4375</v>
+        <v>45745.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>876.79</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>876.79</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,16 +4341,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45744.44791666666</v>
+        <v>45745.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>877.2</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>877.2</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -3797,16 +4361,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45744.45833333334</v>
+        <v>45745.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>890.45</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>890.45</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -3817,16 +4381,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45744.46875</v>
+        <v>45745.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>891.4299999999999</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>891.4299999999999</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -3837,16 +4401,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45744.47916666666</v>
+        <v>45745.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>898.84</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>898.84</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -3857,16 +4421,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45744.48958333334</v>
+        <v>45745.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>895.0700000000001</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>895.0700000000001</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -3877,16 +4441,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45744.5</v>
+        <v>45745.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>873.73</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>873.73</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -3897,16 +4461,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45744.51041666666</v>
+        <v>45745.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>873.83</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>873.83</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -3917,16 +4481,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45744.52083333334</v>
+        <v>45745.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>874.1799999999999</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>874.1799999999999</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -3937,16 +4501,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45744.53125</v>
+        <v>45745.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>-72</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>873.59</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>873.59</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -3957,16 +4521,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45744.54166666666</v>
+        <v>45745.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>812.08</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>812.08</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -3977,16 +4541,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45744.55208333334</v>
+        <v>45745.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>811.3099999999999</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>811.3099999999999</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -3997,16 +4561,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45744.5625</v>
+        <v>45745.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>811.54</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>811.54</v>
       </c>
       <c r="E152">
         <v>55</v>
@@ -4017,16 +4581,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45744.57291666666</v>
+        <v>45745.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>811.98</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>811.98</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4037,16 +4601,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45744.58333333334</v>
+        <v>45745.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>869.51</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>869.51</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4057,16 +4621,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45744.59375</v>
+        <v>45745.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>-74</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>874.76</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>874.76</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4077,16 +4641,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45744.60416666666</v>
+        <v>45745.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>887.21</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>887.21</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4097,16 +4661,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45744.61458333334</v>
+        <v>45745.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>866.58</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>866.58</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4117,16 +4681,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45744.625</v>
+        <v>45745.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1015.45</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>1015.45</v>
       </c>
       <c r="E158">
         <v>61</v>
@@ -4137,16 +4701,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45744.63541666666</v>
+        <v>45745.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>921.49</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>921.49</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -4157,16 +4721,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45744.64583333334</v>
+        <v>45745.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>893.8</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>893.8</v>
       </c>
       <c r="E160">
         <v>63</v>
@@ -4177,16 +4741,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45744.65625</v>
+        <v>45745.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>892.55</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>892.55</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4197,16 +4761,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45744.66666666666</v>
+        <v>45745.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1092.92</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1092.92</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4217,16 +4781,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45744.67708333334</v>
+        <v>45745.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1023.83</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1023.83</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4237,16 +4801,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45744.6875</v>
+        <v>45745.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1010.27</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1010.27</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4257,16 +4821,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45744.69791666666</v>
+        <v>45745.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1012.74</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>1012.74</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4277,16 +4841,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45744.70833333334</v>
+        <v>45745.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>-4004.09</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1081.5</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4297,16 +4861,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45744.71875</v>
+        <v>45745.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1173.95</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1173.95</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4317,16 +4881,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45744.72916666666</v>
+        <v>45745.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1239.5</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1239.5</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4337,16 +4901,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45744.73958333334</v>
+        <v>45745.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1013.66</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1013.66</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4357,16 +4921,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45744.75</v>
+        <v>45745.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>988.28</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4377,16 +4941,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45744.76041666666</v>
+        <v>45745.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>380.56</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>914.5700000000001</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4397,16 +4961,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45744.77083333334</v>
+        <v>45745.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>996.29</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4417,16 +4981,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45744.78125</v>
+        <v>45745.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1019.15</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1019.15</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4437,16 +5001,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45744.79166666666</v>
+        <v>45745.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1195.94</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>1195.94</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4457,16 +5021,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45744.80208333334</v>
+        <v>45745.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1225.01</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1225.01</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4477,16 +5041,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45744.8125</v>
+        <v>45745.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1616.71</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1616.71</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4497,16 +5061,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45744.82291666666</v>
+        <v>45745.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1186.13</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1186.13</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4517,16 +5081,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45744.83333333334</v>
+        <v>45745.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>4138.32</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>4138.32</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4537,16 +5101,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45744.84375</v>
+        <v>45745.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>389.17</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>967.02</v>
       </c>
       <c r="E179">
         <v>82</v>
@@ -4557,16 +5121,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45744.85416666666</v>
+        <v>45745.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>976.05</v>
       </c>
       <c r="E180">
         <v>83</v>
@@ -4577,16 +5141,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45744.86458333334</v>
+        <v>45745.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>242.6</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>852.23</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4597,16 +5161,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45744.875</v>
+        <v>45745.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>305.16</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>960.55</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4617,16 +5181,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45744.88541666666</v>
+        <v>45745.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>396.03</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>970.55</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4637,16 +5201,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45744.89583333334</v>
+        <v>45745.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>842.3</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4657,16 +5221,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45744.90625</v>
+        <v>45745.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>218.42</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4677,16 +5241,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45744.91666666666</v>
+        <v>45745.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>192.05</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>833.05</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4697,16 +5261,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45744.92708333334</v>
+        <v>45745.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>391.25</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>854.13</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -4717,16 +5281,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45744.9375</v>
+        <v>45745.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>851.16</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -4737,16 +5301,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45744.94791666666</v>
+        <v>45745.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>883.34</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -4757,16 +5321,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45744.95833333334</v>
+        <v>45745.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>4037.33</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>4037.33</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -4777,16 +5341,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45744.96875</v>
+        <v>45745.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>5025.74</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>5025.74</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -4797,16 +5361,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45744.97916666666</v>
+        <v>45745.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1458</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -4817,22 +5381,3782 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45744.98958333334</v>
+        <v>45745.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>336.83</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E193">
         <v>96</v>
       </c>
       <c r="F193" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>45746</v>
+      </c>
+      <c r="B194">
+        <v>-16</v>
+      </c>
+      <c r="C194">
+        <v>3425.66</v>
+      </c>
+      <c r="D194">
+        <v>3425.66</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>45746.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>-21</v>
+      </c>
+      <c r="C195">
+        <v>3125.44</v>
+      </c>
+      <c r="D195">
+        <v>3125.44</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>45746.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>-14</v>
+      </c>
+      <c r="C196">
+        <v>3295.96</v>
+      </c>
+      <c r="D196">
+        <v>3295.96</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>45746.03125</v>
+      </c>
+      <c r="B197">
+        <v>-16</v>
+      </c>
+      <c r="C197">
+        <v>1560.53</v>
+      </c>
+      <c r="D197">
+        <v>1560.53</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>45746.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>-19</v>
+      </c>
+      <c r="C198">
+        <v>1317.82</v>
+      </c>
+      <c r="D198">
+        <v>1317.82</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>45746.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>-25</v>
+      </c>
+      <c r="C199">
+        <v>1405.73</v>
+      </c>
+      <c r="D199">
+        <v>1405.73</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>45746.0625</v>
+      </c>
+      <c r="B200">
+        <v>-10</v>
+      </c>
+      <c r="C200">
+        <v>810.92</v>
+      </c>
+      <c r="D200">
+        <v>810.92</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>45746.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>45746.125</v>
+      </c>
+      <c r="B202">
+        <v>-12</v>
+      </c>
+      <c r="C202">
+        <v>941.3099999999999</v>
+      </c>
+      <c r="D202">
+        <v>941.3099999999999</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>45746.13541666666</v>
+      </c>
+      <c r="B203">
+        <v>-4</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>537.37</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>45746.14583333334</v>
+      </c>
+      <c r="B204">
+        <v>-0</v>
+      </c>
+      <c r="C204">
+        <v>380.56</v>
+      </c>
+      <c r="D204">
+        <v>475.35</v>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>45746.15625</v>
+      </c>
+      <c r="B205">
+        <v>-1</v>
+      </c>
+      <c r="C205">
+        <v>390</v>
+      </c>
+      <c r="D205">
+        <v>475.35</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>45746.16666666666</v>
+      </c>
+      <c r="B206">
+        <v>-4</v>
+      </c>
+      <c r="C206">
+        <v>457.6</v>
+      </c>
+      <c r="D206">
+        <v>457.6</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>45746.17708333334</v>
+      </c>
+      <c r="B207">
+        <v>-4</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>530.3</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>45746.1875</v>
+      </c>
+      <c r="B208">
+        <v>-4</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>469.2</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>45746.19791666666</v>
+      </c>
+      <c r="B209">
+        <v>-3</v>
+      </c>
+      <c r="C209">
+        <v>225.75</v>
+      </c>
+      <c r="D209">
+        <v>455.97</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>45746.20833333334</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>190.87</v>
+      </c>
+      <c r="D210">
+        <v>190.87</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>45746.21875</v>
+      </c>
+      <c r="B211">
+        <v>-9</v>
+      </c>
+      <c r="C211">
+        <v>673.58</v>
+      </c>
+      <c r="D211">
+        <v>673.58</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>45746.22916666666</v>
+      </c>
+      <c r="B212">
+        <v>-10</v>
+      </c>
+      <c r="C212">
+        <v>644.4</v>
+      </c>
+      <c r="D212">
+        <v>644.4</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>45746.23958333334</v>
+      </c>
+      <c r="B213">
+        <v>-5</v>
+      </c>
+      <c r="C213">
+        <v>483.44</v>
+      </c>
+      <c r="D213">
+        <v>483.44</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>45746.25</v>
+      </c>
+      <c r="B214">
+        <v>-4</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>765.8200000000001</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>45746.26041666666</v>
+      </c>
+      <c r="B215">
+        <v>-19</v>
+      </c>
+      <c r="C215">
+        <v>576.65</v>
+      </c>
+      <c r="D215">
+        <v>576.65</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>45746.27083333334</v>
+      </c>
+      <c r="B216">
+        <v>-11</v>
+      </c>
+      <c r="C216">
+        <v>456.1</v>
+      </c>
+      <c r="D216">
+        <v>456.1</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>45746.28125</v>
+      </c>
+      <c r="B217">
+        <v>-1</v>
+      </c>
+      <c r="C217">
+        <v>329.72</v>
+      </c>
+      <c r="D217">
+        <v>456.1</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>45746.29166666666</v>
+      </c>
+      <c r="B218">
+        <v>-2</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>456.51</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>45746.30208333334</v>
+      </c>
+      <c r="B219">
+        <v>-0</v>
+      </c>
+      <c r="C219">
+        <v>366.02</v>
+      </c>
+      <c r="D219">
+        <v>456.23</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>45746.3125</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>399.17</v>
+      </c>
+      <c r="D220">
+        <v>456.41</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>45746.32291666666</v>
+      </c>
+      <c r="B221">
+        <v>-0</v>
+      </c>
+      <c r="C221">
+        <v>396.25</v>
+      </c>
+      <c r="D221">
+        <v>456.54</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>45746.33333333334</v>
+      </c>
+      <c r="B222">
+        <v>-11</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>870.72</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>45746.34375</v>
+      </c>
+      <c r="B223">
+        <v>-12</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>729.9400000000001</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>45746.35416666666</v>
+      </c>
+      <c r="B224">
+        <v>-4</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>459.72</v>
+      </c>
+      <c r="E224">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>45746.36458333334</v>
+      </c>
+      <c r="B225">
+        <v>-0</v>
+      </c>
+      <c r="C225">
+        <v>399.62</v>
+      </c>
+      <c r="D225">
+        <v>459.23</v>
+      </c>
+      <c r="E225">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>45746.375</v>
+      </c>
+      <c r="B226">
+        <v>-8</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>576.9400000000001</v>
+      </c>
+      <c r="E226">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>45746.38541666666</v>
+      </c>
+      <c r="B227">
+        <v>-37</v>
+      </c>
+      <c r="C227">
+        <v>446.91</v>
+      </c>
+      <c r="D227">
+        <v>446.91</v>
+      </c>
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45746.39583333334</v>
+      </c>
+      <c r="B228">
+        <v>-54</v>
+      </c>
+      <c r="C228">
+        <v>447.77</v>
+      </c>
+      <c r="D228">
+        <v>447.77</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>45746.40625</v>
+      </c>
+      <c r="B229">
+        <v>-62</v>
+      </c>
+      <c r="C229">
+        <v>448.09</v>
+      </c>
+      <c r="D229">
+        <v>448.09</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>45746.41666666666</v>
+      </c>
+      <c r="B230">
+        <v>-63</v>
+      </c>
+      <c r="C230">
+        <v>447.04</v>
+      </c>
+      <c r="D230">
+        <v>447.04</v>
+      </c>
+      <c r="E230">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>45746.42708333334</v>
+      </c>
+      <c r="B231">
+        <v>-63</v>
+      </c>
+      <c r="C231">
+        <v>447.39</v>
+      </c>
+      <c r="D231">
+        <v>447.39</v>
+      </c>
+      <c r="E231">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>45746.4375</v>
+      </c>
+      <c r="B232">
+        <v>-79</v>
+      </c>
+      <c r="C232">
+        <v>448.27</v>
+      </c>
+      <c r="D232">
+        <v>448.27</v>
+      </c>
+      <c r="E232">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>45746.44791666666</v>
+      </c>
+      <c r="B233">
+        <v>-66</v>
+      </c>
+      <c r="C233">
+        <v>1508.76</v>
+      </c>
+      <c r="D233">
+        <v>1508.76</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>45746.45833333334</v>
+      </c>
+      <c r="B234">
+        <v>-49</v>
+      </c>
+      <c r="C234">
+        <v>1764.72</v>
+      </c>
+      <c r="D234">
+        <v>1764.72</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>45746.46875</v>
+      </c>
+      <c r="B235">
+        <v>-56</v>
+      </c>
+      <c r="C235">
+        <v>3478.82</v>
+      </c>
+      <c r="D235">
+        <v>3478.82</v>
+      </c>
+      <c r="E235">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>45746.47916666666</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>-3775.79</v>
+      </c>
+      <c r="D236">
+        <v>446</v>
+      </c>
+      <c r="E236">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>45746.48958333334</v>
+      </c>
+      <c r="B237">
+        <v>22</v>
+      </c>
+      <c r="C237">
+        <v>-2369.09</v>
+      </c>
+      <c r="D237">
+        <v>-2369.09</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>45746.5</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="C238">
+        <v>-860.9299999999999</v>
+      </c>
+      <c r="D238">
+        <v>-860.9299999999999</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>45746.51041666666</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>47.36</v>
+      </c>
+      <c r="D239">
+        <v>47.36</v>
+      </c>
+      <c r="E239">
+        <v>46</v>
+      </c>
+      <c r="F239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>45746.52083333334</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>199.4</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>45746.53125</v>
+      </c>
+      <c r="B241">
+        <v>17</v>
+      </c>
+      <c r="C241">
+        <v>12.81</v>
+      </c>
+      <c r="D241">
+        <v>12.81</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>45746.54166666666</v>
+      </c>
+      <c r="B242">
+        <v>8</v>
+      </c>
+      <c r="C242">
+        <v>110.53</v>
+      </c>
+      <c r="D242">
+        <v>110.53</v>
+      </c>
+      <c r="E242">
+        <v>49</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>45746.55208333334</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>131.94</v>
+      </c>
+      <c r="D243">
+        <v>131.94</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>45746.5625</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>193.85</v>
+      </c>
+      <c r="D244">
+        <v>193.85</v>
+      </c>
+      <c r="E244">
+        <v>51</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>45746.57291666666</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>204.85</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>45746.58333333334</v>
+      </c>
+      <c r="B246">
+        <v>16</v>
+      </c>
+      <c r="C246">
+        <v>18.94</v>
+      </c>
+      <c r="D246">
+        <v>18.94</v>
+      </c>
+      <c r="E246">
+        <v>53</v>
+      </c>
+      <c r="F246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>45746.59375</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>225.8</v>
+      </c>
+      <c r="D247">
+        <v>225.8</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>45746.60416666666</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>295.84</v>
+      </c>
+      <c r="D248">
+        <v>450</v>
+      </c>
+      <c r="E248">
+        <v>55</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>45746.61458333334</v>
+      </c>
+      <c r="B249">
+        <v>-0</v>
+      </c>
+      <c r="C249">
+        <v>370.51</v>
+      </c>
+      <c r="D249">
+        <v>450</v>
+      </c>
+      <c r="E249">
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>45746.625</v>
+      </c>
+      <c r="B250">
+        <v>18</v>
+      </c>
+      <c r="C250">
+        <v>-957.48</v>
+      </c>
+      <c r="D250">
+        <v>-957.48</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>45746.63541666666</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>252.64</v>
+      </c>
+      <c r="D251">
+        <v>450</v>
+      </c>
+      <c r="E251">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>45746.64583333334</v>
+      </c>
+      <c r="B252">
+        <v>-0</v>
+      </c>
+      <c r="C252">
+        <v>390</v>
+      </c>
+      <c r="D252">
+        <v>450</v>
+      </c>
+      <c r="E252">
+        <v>59</v>
+      </c>
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45746.65625</v>
+      </c>
+      <c r="B253">
+        <v>-1</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>450</v>
+      </c>
+      <c r="E253">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>45746.66666666666</v>
+      </c>
+      <c r="B254">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>-1635.58</v>
+      </c>
+      <c r="D254">
+        <v>-1635.58</v>
+      </c>
+      <c r="E254">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>45746.67708333334</v>
+      </c>
+      <c r="B255">
+        <v>7</v>
+      </c>
+      <c r="C255">
+        <v>151.54</v>
+      </c>
+      <c r="D255">
+        <v>151.54</v>
+      </c>
+      <c r="E255">
+        <v>62</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>45746.6875</v>
+      </c>
+      <c r="B256">
+        <v>-5</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>760.15</v>
+      </c>
+      <c r="E256">
+        <v>63</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>45746.69791666666</v>
+      </c>
+      <c r="B257">
+        <v>-16</v>
+      </c>
+      <c r="C257">
+        <v>769.83</v>
+      </c>
+      <c r="D257">
+        <v>769.83</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>45746.70833333334</v>
+      </c>
+      <c r="B258">
+        <v>27</v>
+      </c>
+      <c r="C258">
+        <v>-7189.94</v>
+      </c>
+      <c r="D258">
+        <v>-7189.94</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>45746.71875</v>
+      </c>
+      <c r="B259">
+        <v>37</v>
+      </c>
+      <c r="C259">
+        <v>-7139.63</v>
+      </c>
+      <c r="D259">
+        <v>-7139.63</v>
+      </c>
+      <c r="E259">
+        <v>66</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>45746.72916666666</v>
+      </c>
+      <c r="B260">
+        <v>15</v>
+      </c>
+      <c r="C260">
+        <v>-519.75</v>
+      </c>
+      <c r="D260">
+        <v>-519.75</v>
+      </c>
+      <c r="E260">
+        <v>67</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>45746.73958333334</v>
+      </c>
+      <c r="B261">
+        <v>-2</v>
+      </c>
+      <c r="C261">
+        <v>694.39</v>
+      </c>
+      <c r="D261">
+        <v>694.39</v>
+      </c>
+      <c r="E261">
+        <v>68</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>45746.75</v>
+      </c>
+      <c r="B262">
+        <v>30</v>
+      </c>
+      <c r="C262">
+        <v>-4383.64</v>
+      </c>
+      <c r="D262">
+        <v>-4383.64</v>
+      </c>
+      <c r="E262">
+        <v>69</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>45746.76041666666</v>
+      </c>
+      <c r="B263">
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>-640.9400000000001</v>
+      </c>
+      <c r="D263">
+        <v>-640.9400000000001</v>
+      </c>
+      <c r="E263">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>45746.77083333334</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>202.47</v>
+      </c>
+      <c r="D264">
+        <v>704.3200000000001</v>
+      </c>
+      <c r="E264">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>45746.78125</v>
+      </c>
+      <c r="B265">
+        <v>-2</v>
+      </c>
+      <c r="C265">
+        <v>380.26</v>
+      </c>
+      <c r="D265">
+        <v>796.33</v>
+      </c>
+      <c r="E265">
+        <v>72</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>45746.79166666666</v>
+      </c>
+      <c r="B266">
+        <v>-2</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>957.77</v>
+      </c>
+      <c r="E266">
+        <v>73</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>45746.80208333334</v>
+      </c>
+      <c r="B267">
+        <v>-14</v>
+      </c>
+      <c r="C267">
+        <v>1411.34</v>
+      </c>
+      <c r="D267">
+        <v>1411.34</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>45746.8125</v>
+      </c>
+      <c r="B268">
+        <v>-51</v>
+      </c>
+      <c r="C268">
+        <v>1570.39</v>
+      </c>
+      <c r="D268">
+        <v>1570.39</v>
+      </c>
+      <c r="E268">
+        <v>75</v>
+      </c>
+      <c r="F268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>45746.82291666666</v>
+      </c>
+      <c r="B269">
+        <v>-60</v>
+      </c>
+      <c r="C269">
+        <v>1533.74</v>
+      </c>
+      <c r="D269">
+        <v>1533.74</v>
+      </c>
+      <c r="E269">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>45746.83333333334</v>
+      </c>
+      <c r="B270">
+        <v>-14</v>
+      </c>
+      <c r="C270">
+        <v>1303.75</v>
+      </c>
+      <c r="D270">
+        <v>1303.75</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>45746.84375</v>
+      </c>
+      <c r="B271">
+        <v>-26</v>
+      </c>
+      <c r="C271">
+        <v>1880.37</v>
+      </c>
+      <c r="D271">
+        <v>1880.37</v>
+      </c>
+      <c r="E271">
+        <v>78</v>
+      </c>
+      <c r="F271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>45746.85416666666</v>
+      </c>
+      <c r="B272">
+        <v>-24</v>
+      </c>
+      <c r="C272">
+        <v>2431.45</v>
+      </c>
+      <c r="D272">
+        <v>2431.45</v>
+      </c>
+      <c r="E272">
+        <v>79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>45746.86458333334</v>
+      </c>
+      <c r="B273">
+        <v>-28</v>
+      </c>
+      <c r="C273">
+        <v>1736.7</v>
+      </c>
+      <c r="D273">
+        <v>1736.7</v>
+      </c>
+      <c r="E273">
+        <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>45746.875</v>
+      </c>
+      <c r="B274">
+        <v>-28</v>
+      </c>
+      <c r="C274">
+        <v>7235.08</v>
+      </c>
+      <c r="D274">
+        <v>7235.08</v>
+      </c>
+      <c r="E274">
+        <v>81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>45746.88541666666</v>
+      </c>
+      <c r="B275">
+        <v>-5</v>
+      </c>
+      <c r="C275">
+        <v>293.21</v>
+      </c>
+      <c r="D275">
+        <v>936.5700000000001</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>45746.89583333334</v>
+      </c>
+      <c r="B276">
+        <v>-0</v>
+      </c>
+      <c r="C276">
+        <v>347.96</v>
+      </c>
+      <c r="D276">
+        <v>917.21</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>45746.90625</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>304.62</v>
+      </c>
+      <c r="D277">
+        <v>887.22</v>
+      </c>
+      <c r="E277">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>45746.91666666666</v>
+      </c>
+      <c r="B278">
+        <v>-21</v>
+      </c>
+      <c r="C278">
+        <v>3826.92</v>
+      </c>
+      <c r="D278">
+        <v>3826.92</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>45746.92708333334</v>
+      </c>
+      <c r="B279">
+        <v>-3</v>
+      </c>
+      <c r="C279">
+        <v>384.65</v>
+      </c>
+      <c r="D279">
+        <v>894.98</v>
+      </c>
+      <c r="E279">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>45746.9375</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>356.36</v>
+      </c>
+      <c r="D280">
+        <v>792.47</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>45746.94791666666</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>337.63</v>
+      </c>
+      <c r="D281">
+        <v>744</v>
+      </c>
+      <c r="E281">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>45746.95833333334</v>
+      </c>
+      <c r="B282">
+        <v>-8</v>
+      </c>
+      <c r="C282">
+        <v>1023.97</v>
+      </c>
+      <c r="D282">
+        <v>1023.97</v>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>45746.96875</v>
+      </c>
+      <c r="B283">
+        <v>-6</v>
+      </c>
+      <c r="C283">
+        <v>1176.71</v>
+      </c>
+      <c r="D283">
+        <v>1176.71</v>
+      </c>
+      <c r="E283">
+        <v>90</v>
+      </c>
+      <c r="F283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>45746.97916666666</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>343.08</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>91</v>
+      </c>
+      <c r="F284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>45746.98958333334</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>-3225.44</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B286">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>-1495.46</v>
+      </c>
+      <c r="D286">
+        <v>-1495.46</v>
+      </c>
+      <c r="E286">
+        <v>93</v>
+      </c>
+      <c r="F286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>45747.01041666666</v>
+      </c>
+      <c r="B287">
+        <v>-1</v>
+      </c>
+      <c r="C287">
+        <v>303.59</v>
+      </c>
+      <c r="D287">
+        <v>818.16</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>45747.02083333334</v>
+      </c>
+      <c r="B288">
+        <v>-0</v>
+      </c>
+      <c r="C288">
+        <v>224.54</v>
+      </c>
+      <c r="D288">
+        <v>818.16</v>
+      </c>
+      <c r="E288">
+        <v>95</v>
+      </c>
+      <c r="F288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>45747.03125</v>
+      </c>
+      <c r="B289">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>157.25</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>96</v>
+      </c>
+      <c r="F289" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>45747.04166666666</v>
+      </c>
+      <c r="B290">
+        <v>-0</v>
+      </c>
+      <c r="C290">
+        <v>210.87</v>
+      </c>
+      <c r="D290">
+        <v>777.45</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>45747.05208333334</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>230.2</v>
+      </c>
+      <c r="D291">
+        <v>777.45</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>45747.0625</v>
+      </c>
+      <c r="B292">
+        <v>-1</v>
+      </c>
+      <c r="C292">
+        <v>390</v>
+      </c>
+      <c r="D292">
+        <v>777.45</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>45747.07291666666</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>219.65</v>
+      </c>
+      <c r="D293">
+        <v>777.45</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>45747.08333333334</v>
+      </c>
+      <c r="B294">
+        <v>-0</v>
+      </c>
+      <c r="C294">
+        <v>314.75</v>
+      </c>
+      <c r="D294">
+        <v>778.63</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>45747.09375</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>249.22</v>
+      </c>
+      <c r="D295">
+        <v>778.63</v>
+      </c>
+      <c r="E295">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>45747.10416666666</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>308.48</v>
+      </c>
+      <c r="D296">
+        <v>778.63</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>45747.11458333334</v>
+      </c>
+      <c r="B297">
+        <v>-0</v>
+      </c>
+      <c r="C297">
+        <v>390</v>
+      </c>
+      <c r="D297">
+        <v>778.63</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>45747.125</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>278.33</v>
+      </c>
+      <c r="D298">
+        <v>798.13</v>
+      </c>
+      <c r="E298">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>45747.13541666666</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>254.47</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>45747.14583333334</v>
+      </c>
+      <c r="B300">
+        <v>8</v>
+      </c>
+      <c r="C300">
+        <v>67.36</v>
+      </c>
+      <c r="D300">
+        <v>67.36</v>
+      </c>
+      <c r="E300">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>45747.15625</v>
+      </c>
+      <c r="B301">
+        <v>12</v>
+      </c>
+      <c r="C301">
+        <v>49.08</v>
+      </c>
+      <c r="D301">
+        <v>49.08</v>
+      </c>
+      <c r="E301">
+        <v>12</v>
+      </c>
+      <c r="F301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>45747.16666666666</v>
+      </c>
+      <c r="B302">
+        <v>12</v>
+      </c>
+      <c r="C302">
+        <v>48.13</v>
+      </c>
+      <c r="D302">
+        <v>48.13</v>
+      </c>
+      <c r="E302">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>45747.17708333334</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>194.13</v>
+      </c>
+      <c r="D303">
+        <v>194.13</v>
+      </c>
+      <c r="E303">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>45747.1875</v>
+      </c>
+      <c r="B304">
+        <v>9</v>
+      </c>
+      <c r="C304">
+        <v>104.1</v>
+      </c>
+      <c r="D304">
+        <v>104.1</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>45747.19791666666</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>172.72</v>
+      </c>
+      <c r="D305">
+        <v>172.72</v>
+      </c>
+      <c r="E305">
+        <v>16</v>
+      </c>
+      <c r="F305" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>45747.20833333334</v>
+      </c>
+      <c r="B306">
+        <v>19</v>
+      </c>
+      <c r="C306">
+        <v>-3399.4</v>
+      </c>
+      <c r="D306">
+        <v>-3399.4</v>
+      </c>
+      <c r="E306">
+        <v>17</v>
+      </c>
+      <c r="F306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>45747.21875</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>113.19</v>
+      </c>
+      <c r="D307">
+        <v>113.19</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>45747.22916666666</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>-46.38</v>
+      </c>
+      <c r="D308">
+        <v>-46.38</v>
+      </c>
+      <c r="E308">
+        <v>19</v>
+      </c>
+      <c r="F308" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>45747.23958333334</v>
+      </c>
+      <c r="B309">
+        <v>-9</v>
+      </c>
+      <c r="C309">
+        <v>959.6</v>
+      </c>
+      <c r="D309">
+        <v>959.6</v>
+      </c>
+      <c r="E309">
+        <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>45747.25</v>
+      </c>
+      <c r="B310">
+        <v>27</v>
+      </c>
+      <c r="C310">
+        <v>-5889.46</v>
+      </c>
+      <c r="D310">
+        <v>-5889.46</v>
+      </c>
+      <c r="E310">
+        <v>21</v>
+      </c>
+      <c r="F310" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>45747.26041666666</v>
+      </c>
+      <c r="B311">
+        <v>-0</v>
+      </c>
+      <c r="C311">
+        <v>374.22</v>
+      </c>
+      <c r="D311">
+        <v>984.08</v>
+      </c>
+      <c r="E311">
+        <v>22</v>
+      </c>
+      <c r="F311" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>45747.27083333334</v>
+      </c>
+      <c r="B312">
+        <v>-1</v>
+      </c>
+      <c r="C312">
+        <v>371.33</v>
+      </c>
+      <c r="D312">
+        <v>945.9400000000001</v>
+      </c>
+      <c r="E312">
+        <v>23</v>
+      </c>
+      <c r="F312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>45747.28125</v>
+      </c>
+      <c r="B313">
+        <v>-7</v>
+      </c>
+      <c r="C313">
+        <v>1323.64</v>
+      </c>
+      <c r="D313">
+        <v>1323.64</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>45747.29166666666</v>
+      </c>
+      <c r="B314">
+        <v>-10</v>
+      </c>
+      <c r="C314">
+        <v>1473.19</v>
+      </c>
+      <c r="D314">
+        <v>1473.19</v>
+      </c>
+      <c r="E314">
+        <v>25</v>
+      </c>
+      <c r="F314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>45747.30208333334</v>
+      </c>
+      <c r="B315">
+        <v>-20</v>
+      </c>
+      <c r="C315">
+        <v>1632.94</v>
+      </c>
+      <c r="D315">
+        <v>1632.94</v>
+      </c>
+      <c r="E315">
+        <v>26</v>
+      </c>
+      <c r="F315" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>45747.3125</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>587</v>
+      </c>
+      <c r="D316">
+        <v>587</v>
+      </c>
+      <c r="E316">
+        <v>27</v>
+      </c>
+      <c r="F316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>45747.32291666666</v>
+      </c>
+      <c r="B317">
+        <v>-18</v>
+      </c>
+      <c r="C317">
+        <v>2113.88</v>
+      </c>
+      <c r="D317">
+        <v>2113.88</v>
+      </c>
+      <c r="E317">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>45747.33333333334</v>
+      </c>
+      <c r="B318">
+        <v>-11</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>7789.96</v>
+      </c>
+      <c r="E318">
+        <v>29</v>
+      </c>
+      <c r="F318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>45747.34375</v>
+      </c>
+      <c r="B319">
+        <v>-71</v>
+      </c>
+      <c r="C319">
+        <v>2286.68</v>
+      </c>
+      <c r="D319">
+        <v>2286.68</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>45747.35416666666</v>
+      </c>
+      <c r="B320">
+        <v>-50</v>
+      </c>
+      <c r="C320">
+        <v>1317.31</v>
+      </c>
+      <c r="D320">
+        <v>1317.31</v>
+      </c>
+      <c r="E320">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>45747.36458333334</v>
+      </c>
+      <c r="B321">
+        <v>-35</v>
+      </c>
+      <c r="C321">
+        <v>1381.43</v>
+      </c>
+      <c r="D321">
+        <v>1381.43</v>
+      </c>
+      <c r="E321">
+        <v>32</v>
+      </c>
+      <c r="F321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>45747.375</v>
+      </c>
+      <c r="B322">
+        <v>-47</v>
+      </c>
+      <c r="C322">
+        <v>1471.07</v>
+      </c>
+      <c r="D322">
+        <v>1471.07</v>
+      </c>
+      <c r="E322">
+        <v>33</v>
+      </c>
+      <c r="F322" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>45747.38541666666</v>
+      </c>
+      <c r="B323">
+        <v>-30</v>
+      </c>
+      <c r="C323">
+        <v>1128.33</v>
+      </c>
+      <c r="D323">
+        <v>1128.33</v>
+      </c>
+      <c r="E323">
+        <v>34</v>
+      </c>
+      <c r="F323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>45747.39583333334</v>
+      </c>
+      <c r="B324">
+        <v>-17</v>
+      </c>
+      <c r="C324">
+        <v>-3930.81</v>
+      </c>
+      <c r="D324">
+        <v>1127.61</v>
+      </c>
+      <c r="E324">
+        <v>35</v>
+      </c>
+      <c r="F324" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>45747.40625</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>45747.41666666666</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>45747.42708333334</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>38</v>
+      </c>
+      <c r="F327" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>45747.4375</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>39</v>
+      </c>
+      <c r="F328" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>45747.44791666666</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>40</v>
+      </c>
+      <c r="F329" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>45747.45833333334</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>41</v>
+      </c>
+      <c r="F330" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>45747.46875</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>42</v>
+      </c>
+      <c r="F331" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>45747.47916666666</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>43</v>
+      </c>
+      <c r="F332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>45747.48958333334</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>44</v>
+      </c>
+      <c r="F333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>45747.5</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>45</v>
+      </c>
+      <c r="F334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2">
+        <v>45747.51041666666</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>46</v>
+      </c>
+      <c r="F335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2">
+        <v>45747.52083333334</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>45747.53125</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>48</v>
+      </c>
+      <c r="F337" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2">
+        <v>45747.54166666666</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>49</v>
+      </c>
+      <c r="F338" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>45747.55208333334</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>50</v>
+      </c>
+      <c r="F339" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>45747.5625</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>51</v>
+      </c>
+      <c r="F340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>45747.57291666666</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>52</v>
+      </c>
+      <c r="F341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2">
+        <v>45747.58333333334</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>53</v>
+      </c>
+      <c r="F342" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>45747.59375</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>45747.60416666666</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>55</v>
+      </c>
+      <c r="F344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>45747.61458333334</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>56</v>
+      </c>
+      <c r="F345" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>45747.625</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>57</v>
+      </c>
+      <c r="F346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2">
+        <v>45747.63541666666</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>58</v>
+      </c>
+      <c r="F347" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2">
+        <v>45747.64583333334</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>59</v>
+      </c>
+      <c r="F348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>45747.65625</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>60</v>
+      </c>
+      <c r="F349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2">
+        <v>45747.66666666666</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>61</v>
+      </c>
+      <c r="F350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>45747.67708333334</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>62</v>
+      </c>
+      <c r="F351" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>45747.6875</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>45747.69791666666</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>64</v>
+      </c>
+      <c r="F353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2">
+        <v>45747.70833333334</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>65</v>
+      </c>
+      <c r="F354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>45747.71875</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>66</v>
+      </c>
+      <c r="F355" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2">
+        <v>45747.72916666666</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>67</v>
+      </c>
+      <c r="F356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>45747.73958333334</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>68</v>
+      </c>
+      <c r="F357" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>45747.75</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>69</v>
+      </c>
+      <c r="F358" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2">
+        <v>45747.76041666666</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>70</v>
+      </c>
+      <c r="F359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2">
+        <v>45747.77083333334</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>71</v>
+      </c>
+      <c r="F360" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>45747.78125</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>72</v>
+      </c>
+      <c r="F361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2">
+        <v>45747.79166666666</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>73</v>
+      </c>
+      <c r="F362" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>45747.80208333334</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>74</v>
+      </c>
+      <c r="F363" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>45747.8125</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>75</v>
+      </c>
+      <c r="F364" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2">
+        <v>45747.82291666666</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>76</v>
+      </c>
+      <c r="F365" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>45747.83333333334</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>77</v>
+      </c>
+      <c r="F366" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="2">
+        <v>45747.84375</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>78</v>
+      </c>
+      <c r="F367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2">
+        <v>45747.85416666666</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>79</v>
+      </c>
+      <c r="F368" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="2">
+        <v>45747.86458333334</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>80</v>
+      </c>
+      <c r="F369" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2">
+        <v>45747.875</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>81</v>
+      </c>
+      <c r="F370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2">
+        <v>45747.88541666666</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>82</v>
+      </c>
+      <c r="F371" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2">
+        <v>45747.89583333334</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>83</v>
+      </c>
+      <c r="F372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>45747.90625</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2">
+        <v>45747.91666666666</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>85</v>
+      </c>
+      <c r="F374" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="2">
+        <v>45747.92708333334</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>86</v>
+      </c>
+      <c r="F375" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="2">
+        <v>45747.9375</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>87</v>
+      </c>
+      <c r="F376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="2">
+        <v>45747.94791666666</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>88</v>
+      </c>
+      <c r="F377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2">
+        <v>45747.95833333334</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>89</v>
+      </c>
+      <c r="F378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2">
+        <v>45747.96875</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>90</v>
+      </c>
+      <c r="F379" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="2">
+        <v>45747.97916666666</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>91</v>
+      </c>
+      <c r="F380" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2">
+        <v>45747.98958333334</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>92</v>
+      </c>
+      <c r="F381" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.04.20251</t>
-  </si>
-  <si>
-    <t>03.04.20252</t>
-  </si>
-  <si>
-    <t>03.04.20253</t>
-  </si>
-  <si>
-    <t>03.04.20254</t>
-  </si>
-  <si>
-    <t>03.04.20255</t>
-  </si>
-  <si>
-    <t>03.04.20256</t>
-  </si>
-  <si>
-    <t>03.04.20257</t>
-  </si>
-  <si>
-    <t>03.04.20258</t>
-  </si>
-  <si>
-    <t>03.04.20259</t>
-  </si>
-  <si>
-    <t>03.04.202510</t>
-  </si>
-  <si>
-    <t>03.04.202511</t>
-  </si>
-  <si>
-    <t>03.04.202512</t>
-  </si>
-  <si>
-    <t>03.04.202513</t>
-  </si>
-  <si>
-    <t>03.04.202514</t>
-  </si>
-  <si>
-    <t>03.04.202515</t>
-  </si>
-  <si>
-    <t>03.04.202516</t>
-  </si>
-  <si>
-    <t>03.04.202517</t>
-  </si>
-  <si>
-    <t>03.04.202518</t>
-  </si>
-  <si>
-    <t>03.04.202519</t>
-  </si>
-  <si>
-    <t>03.04.202520</t>
-  </si>
-  <si>
-    <t>03.04.202521</t>
-  </si>
-  <si>
-    <t>03.04.202522</t>
-  </si>
-  <si>
-    <t>03.04.202523</t>
-  </si>
-  <si>
-    <t>03.04.202524</t>
-  </si>
-  <si>
-    <t>03.04.202525</t>
-  </si>
-  <si>
-    <t>03.04.202526</t>
-  </si>
-  <si>
-    <t>03.04.202527</t>
-  </si>
-  <si>
-    <t>03.04.202528</t>
-  </si>
-  <si>
-    <t>03.04.202529</t>
-  </si>
-  <si>
-    <t>03.04.202530</t>
-  </si>
-  <si>
-    <t>03.04.202531</t>
-  </si>
-  <si>
-    <t>03.04.202532</t>
-  </si>
-  <si>
-    <t>03.04.202533</t>
-  </si>
-  <si>
-    <t>03.04.202534</t>
-  </si>
-  <si>
-    <t>03.04.202535</t>
-  </si>
-  <si>
-    <t>03.04.202536</t>
-  </si>
-  <si>
-    <t>03.04.202537</t>
-  </si>
-  <si>
-    <t>03.04.202538</t>
-  </si>
-  <si>
-    <t>03.04.202539</t>
-  </si>
-  <si>
-    <t>03.04.202540</t>
-  </si>
-  <si>
-    <t>03.04.202541</t>
-  </si>
-  <si>
-    <t>03.04.202542</t>
-  </si>
-  <si>
-    <t>03.04.202543</t>
-  </si>
-  <si>
-    <t>03.04.202544</t>
-  </si>
-  <si>
-    <t>03.04.202545</t>
-  </si>
-  <si>
-    <t>03.04.202546</t>
-  </si>
-  <si>
-    <t>03.04.202547</t>
-  </si>
-  <si>
-    <t>03.04.202548</t>
-  </si>
-  <si>
-    <t>03.04.202549</t>
-  </si>
-  <si>
-    <t>03.04.202550</t>
-  </si>
-  <si>
-    <t>03.04.202551</t>
-  </si>
-  <si>
-    <t>03.04.202552</t>
-  </si>
-  <si>
-    <t>03.04.202553</t>
-  </si>
-  <si>
-    <t>03.04.202554</t>
-  </si>
-  <si>
-    <t>03.04.202555</t>
-  </si>
-  <si>
-    <t>03.04.202556</t>
-  </si>
-  <si>
-    <t>03.04.202557</t>
-  </si>
-  <si>
-    <t>03.04.202558</t>
-  </si>
-  <si>
-    <t>03.04.202559</t>
-  </si>
-  <si>
-    <t>03.04.202560</t>
-  </si>
-  <si>
-    <t>03.04.202561</t>
-  </si>
-  <si>
-    <t>03.04.202562</t>
-  </si>
-  <si>
-    <t>03.04.202563</t>
-  </si>
-  <si>
-    <t>03.04.202564</t>
-  </si>
-  <si>
-    <t>03.04.202565</t>
-  </si>
-  <si>
-    <t>03.04.202566</t>
-  </si>
-  <si>
-    <t>03.04.202567</t>
-  </si>
-  <si>
-    <t>03.04.202568</t>
-  </si>
-  <si>
-    <t>03.04.202569</t>
-  </si>
-  <si>
-    <t>03.04.202570</t>
-  </si>
-  <si>
-    <t>03.04.202571</t>
-  </si>
-  <si>
-    <t>03.04.202572</t>
-  </si>
-  <si>
-    <t>03.04.202573</t>
-  </si>
-  <si>
-    <t>03.04.202574</t>
-  </si>
-  <si>
-    <t>03.04.202575</t>
-  </si>
-  <si>
-    <t>03.04.202576</t>
-  </si>
-  <si>
-    <t>03.04.202577</t>
-  </si>
-  <si>
-    <t>03.04.202578</t>
-  </si>
-  <si>
-    <t>03.04.202579</t>
-  </si>
-  <si>
-    <t>03.04.202580</t>
-  </si>
-  <si>
-    <t>03.04.202581</t>
-  </si>
-  <si>
-    <t>03.04.202582</t>
-  </si>
-  <si>
-    <t>03.04.202583</t>
-  </si>
-  <si>
-    <t>03.04.202584</t>
-  </si>
-  <si>
-    <t>03.04.202585</t>
-  </si>
-  <si>
-    <t>03.04.202586</t>
-  </si>
-  <si>
-    <t>03.04.202587</t>
-  </si>
-  <si>
-    <t>03.04.202588</t>
-  </si>
-  <si>
-    <t>03.04.202589</t>
-  </si>
-  <si>
-    <t>03.04.202590</t>
-  </si>
-  <si>
-    <t>03.04.202591</t>
-  </si>
-  <si>
-    <t>03.04.202592</t>
-  </si>
-  <si>
-    <t>03.04.202593</t>
-  </si>
-  <si>
-    <t>03.04.202594</t>
-  </si>
-  <si>
-    <t>03.04.202595</t>
-  </si>
-  <si>
-    <t>03.04.202596</t>
-  </si>
-  <si>
-    <t>04.04.20251</t>
-  </si>
-  <si>
-    <t>04.04.20252</t>
-  </si>
-  <si>
-    <t>04.04.20253</t>
-  </si>
-  <si>
-    <t>04.04.20254</t>
-  </si>
-  <si>
-    <t>04.04.20255</t>
-  </si>
-  <si>
-    <t>04.04.20256</t>
-  </si>
-  <si>
-    <t>04.04.20257</t>
-  </si>
-  <si>
-    <t>04.04.20258</t>
-  </si>
-  <si>
-    <t>04.04.20259</t>
-  </si>
-  <si>
-    <t>04.04.202510</t>
-  </si>
-  <si>
-    <t>04.04.202511</t>
-  </si>
-  <si>
-    <t>04.04.202512</t>
-  </si>
-  <si>
-    <t>04.04.202513</t>
-  </si>
-  <si>
-    <t>04.04.202514</t>
-  </si>
-  <si>
-    <t>04.04.202515</t>
-  </si>
-  <si>
-    <t>04.04.202516</t>
-  </si>
-  <si>
-    <t>04.04.202517</t>
-  </si>
-  <si>
-    <t>04.04.202518</t>
-  </si>
-  <si>
-    <t>04.04.202519</t>
-  </si>
-  <si>
-    <t>04.04.202520</t>
-  </si>
-  <si>
-    <t>04.04.202521</t>
-  </si>
-  <si>
-    <t>04.04.202522</t>
-  </si>
-  <si>
-    <t>04.04.202523</t>
-  </si>
-  <si>
-    <t>04.04.202524</t>
-  </si>
-  <si>
-    <t>04.04.202525</t>
-  </si>
-  <si>
-    <t>04.04.202526</t>
-  </si>
-  <si>
-    <t>04.04.202527</t>
-  </si>
-  <si>
-    <t>04.04.202528</t>
-  </si>
-  <si>
-    <t>04.04.202529</t>
-  </si>
-  <si>
-    <t>04.04.202530</t>
-  </si>
-  <si>
-    <t>04.04.202531</t>
-  </si>
-  <si>
-    <t>04.04.202532</t>
-  </si>
-  <si>
-    <t>04.04.202533</t>
-  </si>
-  <si>
-    <t>04.04.202534</t>
-  </si>
-  <si>
-    <t>04.04.202535</t>
-  </si>
-  <si>
-    <t>04.04.202536</t>
-  </si>
-  <si>
-    <t>04.04.202537</t>
-  </si>
-  <si>
-    <t>04.04.202538</t>
-  </si>
-  <si>
-    <t>04.04.202539</t>
-  </si>
-  <si>
-    <t>04.04.202540</t>
-  </si>
-  <si>
-    <t>04.04.202541</t>
-  </si>
-  <si>
-    <t>04.04.202542</t>
-  </si>
-  <si>
-    <t>04.04.202543</t>
-  </si>
-  <si>
-    <t>04.04.202544</t>
-  </si>
-  <si>
-    <t>04.04.202545</t>
-  </si>
-  <si>
-    <t>04.04.202546</t>
-  </si>
-  <si>
-    <t>04.04.202547</t>
-  </si>
-  <si>
-    <t>04.04.202548</t>
-  </si>
-  <si>
-    <t>04.04.202549</t>
-  </si>
-  <si>
-    <t>04.04.202550</t>
-  </si>
-  <si>
-    <t>04.04.202551</t>
-  </si>
-  <si>
-    <t>04.04.202552</t>
-  </si>
-  <si>
-    <t>04.04.202553</t>
-  </si>
-  <si>
-    <t>04.04.202554</t>
-  </si>
-  <si>
-    <t>04.04.202555</t>
-  </si>
-  <si>
-    <t>04.04.202556</t>
-  </si>
-  <si>
-    <t>04.04.202557</t>
-  </si>
-  <si>
-    <t>04.04.202558</t>
-  </si>
-  <si>
-    <t>04.04.202559</t>
-  </si>
-  <si>
-    <t>04.04.202560</t>
-  </si>
-  <si>
-    <t>04.04.202561</t>
-  </si>
-  <si>
-    <t>04.04.202562</t>
-  </si>
-  <si>
-    <t>04.04.202563</t>
-  </si>
-  <si>
-    <t>04.04.202564</t>
-  </si>
-  <si>
-    <t>04.04.202565</t>
-  </si>
-  <si>
-    <t>04.04.202566</t>
-  </si>
-  <si>
-    <t>04.04.202567</t>
-  </si>
-  <si>
-    <t>04.04.202568</t>
-  </si>
-  <si>
-    <t>04.04.202569</t>
-  </si>
-  <si>
-    <t>04.04.202570</t>
-  </si>
-  <si>
-    <t>04.04.202571</t>
-  </si>
-  <si>
-    <t>04.04.202572</t>
-  </si>
-  <si>
-    <t>04.04.202573</t>
-  </si>
-  <si>
-    <t>04.04.202574</t>
-  </si>
-  <si>
-    <t>04.04.202575</t>
-  </si>
-  <si>
-    <t>04.04.202576</t>
-  </si>
-  <si>
-    <t>04.04.202577</t>
-  </si>
-  <si>
-    <t>04.04.202578</t>
-  </si>
-  <si>
-    <t>04.04.202579</t>
-  </si>
-  <si>
-    <t>04.04.202580</t>
-  </si>
-  <si>
-    <t>04.04.202581</t>
-  </si>
-  <si>
-    <t>04.04.202582</t>
-  </si>
-  <si>
-    <t>04.04.202583</t>
-  </si>
-  <si>
-    <t>04.04.202584</t>
-  </si>
-  <si>
-    <t>04.04.202585</t>
-  </si>
-  <si>
-    <t>04.04.202586</t>
-  </si>
-  <si>
-    <t>04.04.202587</t>
-  </si>
-  <si>
-    <t>04.04.202588</t>
-  </si>
-  <si>
-    <t>04.04.202589</t>
-  </si>
-  <si>
-    <t>04.04.202590</t>
-  </si>
-  <si>
-    <t>04.04.202591</t>
-  </si>
-  <si>
-    <t>04.04.202592</t>
-  </si>
-  <si>
-    <t>04.04.202593</t>
-  </si>
-  <si>
-    <t>04.04.202594</t>
-  </si>
-  <si>
-    <t>04.04.202595</t>
-  </si>
-  <si>
-    <t>04.04.202596</t>
+    <t>10.04.20251</t>
+  </si>
+  <si>
+    <t>10.04.20252</t>
+  </si>
+  <si>
+    <t>10.04.20253</t>
+  </si>
+  <si>
+    <t>10.04.20254</t>
+  </si>
+  <si>
+    <t>10.04.20255</t>
+  </si>
+  <si>
+    <t>10.04.20256</t>
+  </si>
+  <si>
+    <t>10.04.20257</t>
+  </si>
+  <si>
+    <t>10.04.20258</t>
+  </si>
+  <si>
+    <t>10.04.20259</t>
+  </si>
+  <si>
+    <t>10.04.202510</t>
+  </si>
+  <si>
+    <t>10.04.202511</t>
+  </si>
+  <si>
+    <t>10.04.202512</t>
+  </si>
+  <si>
+    <t>10.04.202513</t>
+  </si>
+  <si>
+    <t>10.04.202514</t>
+  </si>
+  <si>
+    <t>10.04.202515</t>
+  </si>
+  <si>
+    <t>10.04.202516</t>
+  </si>
+  <si>
+    <t>10.04.202517</t>
+  </si>
+  <si>
+    <t>10.04.202518</t>
+  </si>
+  <si>
+    <t>10.04.202519</t>
+  </si>
+  <si>
+    <t>10.04.202520</t>
+  </si>
+  <si>
+    <t>10.04.202521</t>
+  </si>
+  <si>
+    <t>10.04.202522</t>
+  </si>
+  <si>
+    <t>10.04.202523</t>
+  </si>
+  <si>
+    <t>10.04.202524</t>
+  </si>
+  <si>
+    <t>10.04.202525</t>
+  </si>
+  <si>
+    <t>10.04.202526</t>
+  </si>
+  <si>
+    <t>10.04.202527</t>
+  </si>
+  <si>
+    <t>10.04.202528</t>
+  </si>
+  <si>
+    <t>10.04.202529</t>
+  </si>
+  <si>
+    <t>10.04.202530</t>
+  </si>
+  <si>
+    <t>10.04.202531</t>
+  </si>
+  <si>
+    <t>10.04.202532</t>
+  </si>
+  <si>
+    <t>10.04.202533</t>
+  </si>
+  <si>
+    <t>10.04.202534</t>
+  </si>
+  <si>
+    <t>10.04.202535</t>
+  </si>
+  <si>
+    <t>10.04.202536</t>
+  </si>
+  <si>
+    <t>10.04.202537</t>
+  </si>
+  <si>
+    <t>10.04.202538</t>
+  </si>
+  <si>
+    <t>10.04.202539</t>
+  </si>
+  <si>
+    <t>10.04.202540</t>
+  </si>
+  <si>
+    <t>10.04.202541</t>
+  </si>
+  <si>
+    <t>10.04.202542</t>
+  </si>
+  <si>
+    <t>10.04.202543</t>
+  </si>
+  <si>
+    <t>10.04.202544</t>
+  </si>
+  <si>
+    <t>10.04.202545</t>
+  </si>
+  <si>
+    <t>10.04.202546</t>
+  </si>
+  <si>
+    <t>10.04.202547</t>
+  </si>
+  <si>
+    <t>10.04.202548</t>
+  </si>
+  <si>
+    <t>10.04.202549</t>
+  </si>
+  <si>
+    <t>10.04.202550</t>
+  </si>
+  <si>
+    <t>10.04.202551</t>
+  </si>
+  <si>
+    <t>10.04.202552</t>
+  </si>
+  <si>
+    <t>10.04.202553</t>
+  </si>
+  <si>
+    <t>10.04.202554</t>
+  </si>
+  <si>
+    <t>10.04.202555</t>
+  </si>
+  <si>
+    <t>10.04.202556</t>
+  </si>
+  <si>
+    <t>10.04.202557</t>
+  </si>
+  <si>
+    <t>10.04.202558</t>
+  </si>
+  <si>
+    <t>10.04.202559</t>
+  </si>
+  <si>
+    <t>10.04.202560</t>
+  </si>
+  <si>
+    <t>10.04.202561</t>
+  </si>
+  <si>
+    <t>10.04.202562</t>
+  </si>
+  <si>
+    <t>10.04.202563</t>
+  </si>
+  <si>
+    <t>10.04.202564</t>
+  </si>
+  <si>
+    <t>10.04.202565</t>
+  </si>
+  <si>
+    <t>10.04.202566</t>
+  </si>
+  <si>
+    <t>10.04.202567</t>
+  </si>
+  <si>
+    <t>10.04.202568</t>
+  </si>
+  <si>
+    <t>10.04.202569</t>
+  </si>
+  <si>
+    <t>10.04.202570</t>
+  </si>
+  <si>
+    <t>10.04.202571</t>
+  </si>
+  <si>
+    <t>10.04.202572</t>
+  </si>
+  <si>
+    <t>10.04.202573</t>
+  </si>
+  <si>
+    <t>10.04.202574</t>
+  </si>
+  <si>
+    <t>10.04.202575</t>
+  </si>
+  <si>
+    <t>10.04.202576</t>
+  </si>
+  <si>
+    <t>10.04.202577</t>
+  </si>
+  <si>
+    <t>10.04.202578</t>
+  </si>
+  <si>
+    <t>10.04.202579</t>
+  </si>
+  <si>
+    <t>10.04.202580</t>
+  </si>
+  <si>
+    <t>10.04.202581</t>
+  </si>
+  <si>
+    <t>10.04.202582</t>
+  </si>
+  <si>
+    <t>10.04.202583</t>
+  </si>
+  <si>
+    <t>10.04.202584</t>
+  </si>
+  <si>
+    <t>10.04.202585</t>
+  </si>
+  <si>
+    <t>10.04.202586</t>
+  </si>
+  <si>
+    <t>10.04.202587</t>
+  </si>
+  <si>
+    <t>10.04.202588</t>
+  </si>
+  <si>
+    <t>10.04.202589</t>
+  </si>
+  <si>
+    <t>10.04.202590</t>
+  </si>
+  <si>
+    <t>10.04.202591</t>
+  </si>
+  <si>
+    <t>10.04.202592</t>
+  </si>
+  <si>
+    <t>10.04.202593</t>
+  </si>
+  <si>
+    <t>10.04.202594</t>
+  </si>
+  <si>
+    <t>10.04.202595</t>
+  </si>
+  <si>
+    <t>10.04.202596</t>
+  </si>
+  <si>
+    <t>11.04.20251</t>
+  </si>
+  <si>
+    <t>11.04.20252</t>
+  </si>
+  <si>
+    <t>11.04.20253</t>
+  </si>
+  <si>
+    <t>11.04.20254</t>
+  </si>
+  <si>
+    <t>11.04.20255</t>
+  </si>
+  <si>
+    <t>11.04.20256</t>
+  </si>
+  <si>
+    <t>11.04.20257</t>
+  </si>
+  <si>
+    <t>11.04.20258</t>
+  </si>
+  <si>
+    <t>11.04.20259</t>
+  </si>
+  <si>
+    <t>11.04.202510</t>
+  </si>
+  <si>
+    <t>11.04.202511</t>
+  </si>
+  <si>
+    <t>11.04.202512</t>
+  </si>
+  <si>
+    <t>11.04.202513</t>
+  </si>
+  <si>
+    <t>11.04.202514</t>
+  </si>
+  <si>
+    <t>11.04.202515</t>
+  </si>
+  <si>
+    <t>11.04.202516</t>
+  </si>
+  <si>
+    <t>11.04.202517</t>
+  </si>
+  <si>
+    <t>11.04.202518</t>
+  </si>
+  <si>
+    <t>11.04.202519</t>
+  </si>
+  <si>
+    <t>11.04.202520</t>
+  </si>
+  <si>
+    <t>11.04.202521</t>
+  </si>
+  <si>
+    <t>11.04.202522</t>
+  </si>
+  <si>
+    <t>11.04.202523</t>
+  </si>
+  <si>
+    <t>11.04.202524</t>
+  </si>
+  <si>
+    <t>11.04.202525</t>
+  </si>
+  <si>
+    <t>11.04.202526</t>
+  </si>
+  <si>
+    <t>11.04.202527</t>
+  </si>
+  <si>
+    <t>11.04.202528</t>
+  </si>
+  <si>
+    <t>11.04.202529</t>
+  </si>
+  <si>
+    <t>11.04.202530</t>
+  </si>
+  <si>
+    <t>11.04.202531</t>
+  </si>
+  <si>
+    <t>11.04.202532</t>
+  </si>
+  <si>
+    <t>11.04.202533</t>
+  </si>
+  <si>
+    <t>11.04.202534</t>
+  </si>
+  <si>
+    <t>11.04.202535</t>
+  </si>
+  <si>
+    <t>11.04.202536</t>
+  </si>
+  <si>
+    <t>11.04.202537</t>
+  </si>
+  <si>
+    <t>11.04.202538</t>
+  </si>
+  <si>
+    <t>11.04.202539</t>
+  </si>
+  <si>
+    <t>11.04.202540</t>
+  </si>
+  <si>
+    <t>11.04.202541</t>
+  </si>
+  <si>
+    <t>11.04.202542</t>
+  </si>
+  <si>
+    <t>11.04.202543</t>
+  </si>
+  <si>
+    <t>11.04.202544</t>
+  </si>
+  <si>
+    <t>11.04.202545</t>
+  </si>
+  <si>
+    <t>11.04.202546</t>
+  </si>
+  <si>
+    <t>11.04.202547</t>
+  </si>
+  <si>
+    <t>11.04.202548</t>
+  </si>
+  <si>
+    <t>11.04.202549</t>
+  </si>
+  <si>
+    <t>11.04.202550</t>
+  </si>
+  <si>
+    <t>11.04.202551</t>
+  </si>
+  <si>
+    <t>11.04.202552</t>
+  </si>
+  <si>
+    <t>11.04.202553</t>
+  </si>
+  <si>
+    <t>11.04.202554</t>
+  </si>
+  <si>
+    <t>11.04.202555</t>
+  </si>
+  <si>
+    <t>11.04.202556</t>
+  </si>
+  <si>
+    <t>11.04.202557</t>
+  </si>
+  <si>
+    <t>11.04.202558</t>
+  </si>
+  <si>
+    <t>11.04.202559</t>
+  </si>
+  <si>
+    <t>11.04.202560</t>
+  </si>
+  <si>
+    <t>11.04.202561</t>
+  </si>
+  <si>
+    <t>11.04.202562</t>
+  </si>
+  <si>
+    <t>11.04.202563</t>
+  </si>
+  <si>
+    <t>11.04.202564</t>
+  </si>
+  <si>
+    <t>11.04.202565</t>
+  </si>
+  <si>
+    <t>11.04.202566</t>
+  </si>
+  <si>
+    <t>11.04.202567</t>
+  </si>
+  <si>
+    <t>11.04.202568</t>
+  </si>
+  <si>
+    <t>11.04.202569</t>
+  </si>
+  <si>
+    <t>11.04.202570</t>
+  </si>
+  <si>
+    <t>11.04.202571</t>
+  </si>
+  <si>
+    <t>11.04.202572</t>
+  </si>
+  <si>
+    <t>11.04.202573</t>
+  </si>
+  <si>
+    <t>11.04.202574</t>
+  </si>
+  <si>
+    <t>11.04.202575</t>
+  </si>
+  <si>
+    <t>11.04.202576</t>
+  </si>
+  <si>
+    <t>11.04.202577</t>
+  </si>
+  <si>
+    <t>11.04.202578</t>
+  </si>
+  <si>
+    <t>11.04.202579</t>
+  </si>
+  <si>
+    <t>11.04.202580</t>
+  </si>
+  <si>
+    <t>11.04.202581</t>
+  </si>
+  <si>
+    <t>11.04.202582</t>
+  </si>
+  <si>
+    <t>11.04.202583</t>
+  </si>
+  <si>
+    <t>11.04.202584</t>
+  </si>
+  <si>
+    <t>11.04.202585</t>
+  </si>
+  <si>
+    <t>11.04.202586</t>
+  </si>
+  <si>
+    <t>11.04.202587</t>
+  </si>
+  <si>
+    <t>11.04.202588</t>
+  </si>
+  <si>
+    <t>11.04.202589</t>
+  </si>
+  <si>
+    <t>11.04.202590</t>
+  </si>
+  <si>
+    <t>11.04.202591</t>
+  </si>
+  <si>
+    <t>11.04.202592</t>
+  </si>
+  <si>
+    <t>11.04.202593</t>
+  </si>
+  <si>
+    <t>11.04.202594</t>
+  </si>
+  <si>
+    <t>11.04.202595</t>
+  </si>
+  <si>
+    <t>11.04.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45750</v>
+        <v>45757</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45750.01041666666</v>
+        <v>45757.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45750.02083333334</v>
+        <v>45757.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45750.03125</v>
+        <v>45757.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45750.04166666666</v>
+        <v>45757.04166666666</v>
       </c>
       <c r="B6">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3703.52</v>
+        <v>151.84</v>
       </c>
       <c r="D6">
-        <v>3703.52</v>
+        <v>151.84</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45750.05208333334</v>
+        <v>45757.05208333334</v>
       </c>
       <c r="B7">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="C7">
-        <v>3162.72</v>
+        <v>823.42</v>
       </c>
       <c r="D7">
-        <v>3162.72</v>
+        <v>823.42</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45750.0625</v>
+        <v>45757.0625</v>
       </c>
       <c r="B8">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="C8">
-        <v>860.73</v>
+        <v>373.86</v>
       </c>
       <c r="D8">
-        <v>860.73</v>
+        <v>725.83</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45750.07291666666</v>
+        <v>45757.07291666666</v>
       </c>
       <c r="B9">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>886.91</v>
+        <v>91.56</v>
       </c>
       <c r="D9">
-        <v>886.91</v>
+        <v>91.56</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45750.08333333334</v>
+        <v>45757.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3020.16</v>
+        <v>235.13</v>
       </c>
       <c r="D10">
-        <v>3020.16</v>
+        <v>235.13</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45750.09375</v>
+        <v>45757.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>6061.27</v>
+        <v>279.92</v>
       </c>
       <c r="D11">
-        <v>6061.27</v>
+        <v>279.92</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45750.10416666666</v>
+        <v>45757.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>545</v>
+        <v>386.6</v>
       </c>
       <c r="D12">
-        <v>545</v>
+        <v>703.59</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45750.11458333334</v>
+        <v>45757.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>545</v>
+        <v>366.94</v>
       </c>
       <c r="D13">
-        <v>545</v>
+        <v>714.33</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45750.125</v>
+        <v>45757.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>545</v>
+        <v>316.37</v>
       </c>
       <c r="D14">
-        <v>545</v>
+        <v>723.83</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45750.13541666666</v>
+        <v>45757.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>545</v>
+        <v>384.68</v>
       </c>
       <c r="D15">
-        <v>545</v>
+        <v>700</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45750.14583333334</v>
+        <v>45757.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C16">
-        <v>545</v>
+        <v>-582.62</v>
       </c>
       <c r="D16">
-        <v>545</v>
+        <v>729.33</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45750.15625</v>
+        <v>45757.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>545</v>
+        <v>-1637.83</v>
       </c>
       <c r="D17">
-        <v>545</v>
+        <v>-1637.83</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45750.16666666666</v>
+        <v>45757.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>545</v>
+        <v>-118.74</v>
       </c>
       <c r="D18">
-        <v>545</v>
+        <v>-118.74</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45750.17708333334</v>
+        <v>45757.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>545</v>
+        <v>347.69</v>
       </c>
       <c r="D19">
-        <v>545</v>
+        <v>715.23</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45750.1875</v>
+        <v>45757.1875</v>
       </c>
       <c r="B20">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>545</v>
+        <v>396.49</v>
       </c>
       <c r="D20">
-        <v>545</v>
+        <v>739.9</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45750.19791666666</v>
+        <v>45757.19791666666</v>
       </c>
       <c r="B21">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="C21">
-        <v>1406.67</v>
+        <v>792.21</v>
       </c>
       <c r="D21">
-        <v>1406.67</v>
+        <v>792.21</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45750.20833333334</v>
+        <v>45757.20833333334</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>159.37</v>
+        <v>109.71</v>
       </c>
       <c r="D22">
-        <v>700</v>
+        <v>109.71</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45750.21875</v>
+        <v>45757.21875</v>
       </c>
       <c r="B23">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="C23">
-        <v>361.23</v>
+        <v>897.1</v>
       </c>
       <c r="D23">
-        <v>803.6799999999999</v>
+        <v>897.1</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45750.22916666666</v>
+        <v>45757.22916666666</v>
       </c>
       <c r="B24">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C24">
-        <v>202.58</v>
+        <v>400</v>
       </c>
       <c r="D24">
-        <v>1258.68</v>
+        <v>890.8</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45750.23958333334</v>
+        <v>45757.23958333334</v>
       </c>
       <c r="B25">
-        <v>-42</v>
+        <v>-9</v>
       </c>
       <c r="C25">
-        <v>5917.04</v>
+        <v>1027.07</v>
       </c>
       <c r="D25">
-        <v>5917.04</v>
+        <v>1027.07</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45750.25</v>
+        <v>45757.25</v>
       </c>
       <c r="B26">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>-2295.37</v>
+        <v>120.81</v>
       </c>
       <c r="D26">
-        <v>1101.55</v>
+        <v>899.74</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45750.26041666666</v>
+        <v>45757.26041666666</v>
       </c>
       <c r="B27">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="C27">
-        <v>1154.29</v>
+        <v>896.6799999999999</v>
       </c>
       <c r="D27">
-        <v>1154.29</v>
+        <v>896.6799999999999</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45750.27083333334</v>
+        <v>45757.27083333334</v>
       </c>
       <c r="B28">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="C28">
-        <v>2132.92</v>
+        <v>1094.9</v>
       </c>
       <c r="D28">
-        <v>2132.92</v>
+        <v>1094.9</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45750.28125</v>
+        <v>45757.28125</v>
       </c>
       <c r="B29">
-        <v>-43</v>
+        <v>-17</v>
       </c>
       <c r="C29">
-        <v>4235.87</v>
+        <v>1155.99</v>
       </c>
       <c r="D29">
-        <v>4235.87</v>
+        <v>1155.99</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45750.29166666666</v>
+        <v>45757.29166666666</v>
       </c>
       <c r="B30">
-        <v>-8</v>
+        <v>-42</v>
       </c>
       <c r="C30">
-        <v>975.78</v>
+        <v>4589.49</v>
       </c>
       <c r="D30">
-        <v>975.78</v>
+        <v>4589.49</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45750.30208333334</v>
+        <v>45757.30208333334</v>
       </c>
       <c r="B31">
-        <v>-5</v>
+        <v>-59</v>
       </c>
       <c r="C31">
-        <v>903.79</v>
+        <v>1461.98</v>
       </c>
       <c r="D31">
-        <v>903.79</v>
+        <v>1461.98</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45750.3125</v>
+        <v>45757.3125</v>
       </c>
       <c r="B32">
-        <v>-2</v>
+        <v>-57</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1332.99</v>
       </c>
       <c r="D32">
-        <v>898.39</v>
+        <v>1332.99</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45750.32291666666</v>
+        <v>45757.32291666666</v>
       </c>
       <c r="B33">
-        <v>-0</v>
+        <v>-51</v>
       </c>
       <c r="C33">
-        <v>388.29</v>
+        <v>2134.26</v>
       </c>
       <c r="D33">
-        <v>866.45</v>
+        <v>2134.26</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45750.33333333334</v>
+        <v>45757.33333333334</v>
       </c>
       <c r="B34">
-        <v>-29</v>
+        <v>-108</v>
       </c>
       <c r="C34">
-        <v>1289.01</v>
+        <v>3351.22</v>
       </c>
       <c r="D34">
-        <v>1289.01</v>
+        <v>3351.22</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45750.34375</v>
+        <v>45757.34375</v>
       </c>
       <c r="B35">
-        <v>-50</v>
+        <v>-101</v>
       </c>
       <c r="C35">
-        <v>1098.04</v>
+        <v>1137.12</v>
       </c>
       <c r="D35">
-        <v>1098.04</v>
+        <v>1137.12</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45750.35416666666</v>
+        <v>45757.35416666666</v>
       </c>
       <c r="B36">
-        <v>-22</v>
+        <v>-81</v>
       </c>
       <c r="C36">
-        <v>1089.24</v>
+        <v>1129.23</v>
       </c>
       <c r="D36">
-        <v>1089.24</v>
+        <v>1129.23</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45750.36458333334</v>
+        <v>45757.36458333334</v>
       </c>
       <c r="B37">
-        <v>-25</v>
+        <v>-67</v>
       </c>
       <c r="C37">
-        <v>1117.97</v>
+        <v>1147.02</v>
       </c>
       <c r="D37">
-        <v>1117.97</v>
+        <v>1147.02</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45750.375</v>
+        <v>45757.375</v>
       </c>
       <c r="B38">
-        <v>-20</v>
+        <v>-58</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>4338.74</v>
       </c>
       <c r="D38">
-        <v>5879.8</v>
+        <v>4338.74</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45750.38541666666</v>
+        <v>45757.38541666666</v>
       </c>
       <c r="B39">
-        <v>-17</v>
+        <v>-72</v>
       </c>
       <c r="C39">
-        <v>862.12</v>
+        <v>2801.92</v>
       </c>
       <c r="D39">
-        <v>862.12</v>
+        <v>2801.92</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45750.39583333334</v>
+        <v>45757.39583333334</v>
       </c>
       <c r="B40">
-        <v>-4</v>
+        <v>-45</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>992.9400000000001</v>
       </c>
       <c r="D40">
-        <v>838.45</v>
+        <v>992.9400000000001</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45750.40625</v>
+        <v>45757.40625</v>
       </c>
       <c r="B41">
-        <v>-0</v>
+        <v>-59</v>
       </c>
       <c r="C41">
-        <v>373.75</v>
+        <v>1362.19</v>
       </c>
       <c r="D41">
-        <v>797.75</v>
+        <v>1362.19</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45750.41666666666</v>
+        <v>45757.41666666666</v>
       </c>
       <c r="B42">
-        <v>-23</v>
+        <v>-98</v>
       </c>
       <c r="C42">
-        <v>7826.27</v>
+        <v>2312</v>
       </c>
       <c r="D42">
-        <v>7826.27</v>
+        <v>2312</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45750.42708333334</v>
+        <v>45757.42708333334</v>
       </c>
       <c r="B43">
-        <v>-41</v>
+        <v>-97</v>
       </c>
       <c r="C43">
-        <v>5431.64</v>
+        <v>782.55</v>
       </c>
       <c r="D43">
-        <v>5431.64</v>
+        <v>782.55</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45750.4375</v>
+        <v>45757.4375</v>
       </c>
       <c r="B44">
-        <v>-3</v>
+        <v>-87</v>
       </c>
       <c r="C44">
-        <v>400</v>
+        <v>736.15</v>
       </c>
       <c r="D44">
-        <v>655.95</v>
+        <v>736.15</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45750.44791666666</v>
+        <v>45757.44791666666</v>
       </c>
       <c r="B45">
-        <v>-3</v>
+        <v>-78</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>754.34</v>
       </c>
       <c r="D45">
-        <v>706.99</v>
+        <v>754.34</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45750.45833333334</v>
+        <v>45757.45833333334</v>
       </c>
       <c r="B46">
-        <v>-22</v>
+        <v>-60</v>
       </c>
       <c r="C46">
-        <v>3542.08</v>
+        <v>674.92</v>
       </c>
       <c r="D46">
-        <v>3542.08</v>
+        <v>674.92</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45750.46875</v>
+        <v>45757.46875</v>
       </c>
       <c r="B47">
-        <v>-17</v>
+        <v>-55</v>
       </c>
       <c r="C47">
-        <v>1448.15</v>
+        <v>643.1</v>
       </c>
       <c r="D47">
-        <v>1448.15</v>
+        <v>643.1</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45750.47916666666</v>
+        <v>45757.47916666666</v>
       </c>
       <c r="B48">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="C48">
-        <v>4367.03</v>
+        <v>-1767.19</v>
       </c>
       <c r="D48">
-        <v>4367.03</v>
+        <v>633.88</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45750.48958333334</v>
+        <v>45757.48958333334</v>
       </c>
       <c r="B49">
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <v>711.4299999999999</v>
+        <v>-3624.98</v>
       </c>
       <c r="D49">
-        <v>711.4299999999999</v>
+        <v>-3624.98</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45750.5</v>
+        <v>45757.5</v>
       </c>
       <c r="B50">
-        <v>-4</v>
+        <v>58</v>
       </c>
       <c r="C50">
-        <v>400</v>
+        <v>-442.51</v>
       </c>
       <c r="D50">
-        <v>640.67</v>
+        <v>-442.51</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45750.51041666666</v>
+        <v>45757.51041666666</v>
       </c>
       <c r="B51">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>743.1799999999999</v>
+        <v>-12.32</v>
       </c>
       <c r="D51">
-        <v>743.1799999999999</v>
+        <v>-12.32</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45750.52083333334</v>
+        <v>45757.52083333334</v>
       </c>
       <c r="B52">
-        <v>-27</v>
+        <v>-1</v>
       </c>
       <c r="C52">
-        <v>1681.78</v>
+        <v>308.09</v>
       </c>
       <c r="D52">
-        <v>1681.78</v>
+        <v>530.26</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45750.53125</v>
+        <v>45757.53125</v>
       </c>
       <c r="B53">
-        <v>-23</v>
+        <v>-0</v>
       </c>
       <c r="C53">
-        <v>1164.75</v>
+        <v>321.4</v>
       </c>
       <c r="D53">
-        <v>1164.75</v>
+        <v>529.92</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45750.54166666666</v>
+        <v>45757.54166666666</v>
       </c>
       <c r="B54">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="C54">
-        <v>944.26</v>
+        <v>262.73</v>
       </c>
       <c r="D54">
-        <v>944.26</v>
+        <v>459.35</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45750.55208333334</v>
+        <v>45757.55208333334</v>
       </c>
       <c r="B55">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="C55">
-        <v>452.99</v>
+        <v>265.27</v>
       </c>
       <c r="D55">
-        <v>452.99</v>
+        <v>459.73</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45750.5625</v>
+        <v>45757.5625</v>
       </c>
       <c r="B56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="C56">
-        <v>388.19</v>
+        <v>387.16</v>
       </c>
       <c r="D56">
-        <v>452.99</v>
+        <v>459.35</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45750.57291666666</v>
+        <v>45757.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C57">
-        <v>393.15</v>
+        <v>260.27</v>
       </c>
       <c r="D57">
-        <v>578.4</v>
+        <v>459.35</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45750.58333333334</v>
+        <v>45757.58333333334</v>
       </c>
       <c r="B58">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>719.79</v>
+        <v>304.63</v>
       </c>
       <c r="D58">
-        <v>719.79</v>
+        <v>448.24</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45750.59375</v>
+        <v>45757.59375</v>
       </c>
       <c r="B59">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C59">
-        <v>1042.17</v>
+        <v>347.5</v>
       </c>
       <c r="D59">
-        <v>1042.17</v>
+        <v>449.1</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45750.60416666666</v>
+        <v>45757.60416666666</v>
       </c>
       <c r="B60">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="C60">
-        <v>1126.23</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1126.23</v>
+        <v>701.64</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45750.61458333334</v>
+        <v>45757.61458333334</v>
       </c>
       <c r="B61">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="C61">
-        <v>1552.65</v>
+        <v>378.24</v>
       </c>
       <c r="D61">
-        <v>1552.65</v>
+        <v>643.99</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45750.625</v>
+        <v>45757.625</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>-38</v>
       </c>
       <c r="C62">
-        <v>206.12</v>
+        <v>631.04</v>
       </c>
       <c r="D62">
-        <v>491.97</v>
+        <v>631.04</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45750.63541666666</v>
+        <v>45757.63541666666</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>-39</v>
       </c>
       <c r="C63">
-        <v>173.64</v>
+        <v>519.08</v>
       </c>
       <c r="D63">
-        <v>173.64</v>
+        <v>519.08</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45750.64583333334</v>
+        <v>45757.64583333334</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>-43</v>
       </c>
       <c r="C64">
-        <v>50.05</v>
+        <v>1316.21</v>
       </c>
       <c r="D64">
-        <v>50.05</v>
+        <v>1316.21</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45750.65625</v>
+        <v>45757.65625</v>
       </c>
       <c r="B65">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="C65">
-        <v>390</v>
+        <v>-5002.83</v>
       </c>
       <c r="D65">
-        <v>491.97</v>
+        <v>459.05</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45750.66666666666</v>
+        <v>45757.66666666666</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C66">
-        <v>-3128.89</v>
+        <v>-6071.71</v>
       </c>
       <c r="D66">
-        <v>-3128.89</v>
+        <v>-6071.71</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45750.67708333334</v>
+        <v>45757.67708333334</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>118.96</v>
+        <v>-292.55</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-292.55</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45750.6875</v>
+        <v>45757.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>204.77</v>
+        <v>-5162.02</v>
       </c>
       <c r="D68">
-        <v>835.66</v>
+        <v>-5162.02</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45750.69791666666</v>
+        <v>45757.69791666666</v>
       </c>
       <c r="B69">
-        <v>-17</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>937.33</v>
+        <v>-197.19</v>
       </c>
       <c r="D69">
-        <v>937.33</v>
+        <v>-197.19</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45750.70833333334</v>
+        <v>45757.70833333334</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C70">
-        <v>248.58</v>
+        <v>-1888.68</v>
       </c>
       <c r="D70">
-        <v>889.41</v>
+        <v>-1888.68</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45750.71875</v>
+        <v>45757.71875</v>
       </c>
       <c r="B71">
-        <v>-5</v>
+        <v>49</v>
       </c>
       <c r="C71">
-        <v>383</v>
+        <v>-27.31</v>
       </c>
       <c r="D71">
-        <v>1534.25</v>
+        <v>-27.31</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45750.72916666666</v>
+        <v>45757.72916666666</v>
       </c>
       <c r="B72">
-        <v>-25</v>
+        <v>-1</v>
       </c>
       <c r="C72">
-        <v>4359.54</v>
+        <v>198.27</v>
       </c>
       <c r="D72">
-        <v>4359.54</v>
+        <v>866.14</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45750.73958333334</v>
+        <v>45757.73958333334</v>
       </c>
       <c r="B73">
-        <v>-39</v>
+        <v>-37</v>
       </c>
       <c r="C73">
-        <v>3542.33</v>
+        <v>4162.87</v>
       </c>
       <c r="D73">
-        <v>3542.33</v>
+        <v>4162.87</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45750.75</v>
+        <v>45757.75</v>
       </c>
       <c r="B74">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C74">
-        <v>369.7</v>
+        <v>368.73</v>
       </c>
       <c r="D74">
-        <v>892.87</v>
+        <v>889</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45750.76041666666</v>
+        <v>45757.76041666666</v>
       </c>
       <c r="B75">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="C75">
-        <v>1164.69</v>
+        <v>1023.22</v>
       </c>
       <c r="D75">
-        <v>1164.69</v>
+        <v>1023.22</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45750.77083333334</v>
+        <v>45757.77083333334</v>
       </c>
       <c r="B76">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="C76">
-        <v>1105.28</v>
+        <v>1793.01</v>
       </c>
       <c r="D76">
-        <v>1105.28</v>
+        <v>1793.01</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45750.78125</v>
+        <v>45757.78125</v>
       </c>
       <c r="B77">
-        <v>-19</v>
+        <v>-41</v>
       </c>
       <c r="C77">
-        <v>1146.5</v>
+        <v>4061.01</v>
       </c>
       <c r="D77">
-        <v>1146.5</v>
+        <v>4061.01</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45750.79166666666</v>
+        <v>45757.79166666666</v>
       </c>
       <c r="B78">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="C78">
-        <v>400</v>
+        <v>1131.42</v>
       </c>
       <c r="D78">
-        <v>1072.26</v>
+        <v>1131.42</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45750.80208333334</v>
+        <v>45757.80208333334</v>
       </c>
       <c r="B79">
-        <v>-35</v>
+        <v>-29</v>
       </c>
       <c r="C79">
-        <v>4146.93</v>
+        <v>1190.28</v>
       </c>
       <c r="D79">
-        <v>4146.93</v>
+        <v>1190.28</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45750.8125</v>
+        <v>45757.8125</v>
       </c>
       <c r="B80">
-        <v>-50</v>
+        <v>-32</v>
       </c>
       <c r="C80">
-        <v>6536.31</v>
+        <v>6566.64</v>
       </c>
       <c r="D80">
-        <v>6536.31</v>
+        <v>6566.64</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45750.82291666666</v>
+        <v>45757.82291666666</v>
       </c>
       <c r="B81">
-        <v>-28</v>
+        <v>-62</v>
       </c>
       <c r="C81">
-        <v>1425.71</v>
+        <v>1547.46</v>
       </c>
       <c r="D81">
-        <v>1425.71</v>
+        <v>1547.46</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45750.83333333334</v>
+        <v>45757.83333333334</v>
       </c>
       <c r="B82">
-        <v>-43</v>
+        <v>-78</v>
       </c>
       <c r="C82">
-        <v>7370.88</v>
+        <v>2989.16</v>
       </c>
       <c r="D82">
-        <v>7370.88</v>
+        <v>2989.16</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45750.84375</v>
+        <v>45757.84375</v>
       </c>
       <c r="B83">
-        <v>-45</v>
+        <v>-71</v>
       </c>
       <c r="C83">
-        <v>5563.44</v>
+        <v>1341.04</v>
       </c>
       <c r="D83">
-        <v>5563.44</v>
+        <v>1341.04</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45750.85416666666</v>
+        <v>45757.85416666666</v>
       </c>
       <c r="B84">
-        <v>-25</v>
+        <v>-83</v>
       </c>
       <c r="C84">
-        <v>2048.21</v>
+        <v>1320.43</v>
       </c>
       <c r="D84">
-        <v>2048.21</v>
+        <v>1320.43</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45750.86458333334</v>
+        <v>45757.86458333334</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>-72</v>
       </c>
       <c r="C85">
-        <v>391</v>
+        <v>1353.28</v>
       </c>
       <c r="D85">
-        <v>880.62</v>
+        <v>1353.28</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45750.875</v>
+        <v>45757.875</v>
       </c>
       <c r="B86">
-        <v>-52</v>
+        <v>-102</v>
       </c>
       <c r="C86">
-        <v>2428.46</v>
+        <v>1880.55</v>
       </c>
       <c r="D86">
-        <v>2428.46</v>
+        <v>1880.55</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45750.88541666666</v>
+        <v>45757.88541666666</v>
       </c>
       <c r="B87">
-        <v>-35</v>
+        <v>-59</v>
       </c>
       <c r="C87">
-        <v>1136.02</v>
+        <v>2405.08</v>
       </c>
       <c r="D87">
-        <v>1136.02</v>
+        <v>2405.08</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45750.89583333334</v>
+        <v>45757.89583333334</v>
       </c>
       <c r="B88">
-        <v>-1</v>
+        <v>-53</v>
       </c>
       <c r="C88">
-        <v>250.72</v>
+        <v>6318.5</v>
       </c>
       <c r="D88">
-        <v>896.8</v>
+        <v>6318.5</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45750.90625</v>
+        <v>45757.90625</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C89">
-        <v>151.75</v>
+        <v>-4499</v>
       </c>
       <c r="D89">
-        <v>151.75</v>
+        <v>1126.25</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45750.91666666666</v>
+        <v>45757.91666666666</v>
       </c>
       <c r="B90">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="C90">
-        <v>2136.69</v>
+        <v>6379.6</v>
       </c>
       <c r="D90">
-        <v>2136.69</v>
+        <v>6379.6</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45750.92708333334</v>
+        <v>45757.92708333334</v>
       </c>
       <c r="B91">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>985.61</v>
       </c>
       <c r="D91">
-        <v>936.41</v>
+        <v>985.61</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45750.9375</v>
+        <v>45757.9375</v>
       </c>
       <c r="B92">
-        <v>-0</v>
+        <v>-8</v>
       </c>
       <c r="C92">
-        <v>362.28</v>
+        <v>935.89</v>
       </c>
       <c r="D92">
-        <v>817.98</v>
+        <v>935.89</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45750.94791666666</v>
+        <v>45757.94791666666</v>
       </c>
       <c r="B93">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="C93">
-        <v>391</v>
+        <v>899.47</v>
       </c>
       <c r="D93">
-        <v>928.13</v>
+        <v>899.47</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45750.95833333334</v>
+        <v>45757.95833333334</v>
       </c>
       <c r="B94">
-        <v>-27</v>
+        <v>-31</v>
       </c>
       <c r="C94">
-        <v>5363.31</v>
+        <v>5472.93</v>
       </c>
       <c r="D94">
-        <v>5363.31</v>
+        <v>5472.93</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45750.96875</v>
+        <v>45757.96875</v>
       </c>
       <c r="B95">
-        <v>-23</v>
+        <v>-29</v>
       </c>
       <c r="C95">
-        <v>3520.97</v>
+        <v>3245.96</v>
       </c>
       <c r="D95">
-        <v>3520.97</v>
+        <v>3245.96</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45750.97916666666</v>
+        <v>45757.97916666666</v>
       </c>
       <c r="B96">
-        <v>-51</v>
+        <v>-20</v>
       </c>
       <c r="C96">
-        <v>3451.17</v>
+        <v>1204.14</v>
       </c>
       <c r="D96">
-        <v>3451.17</v>
+        <v>1204.14</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45750.98958333334</v>
+        <v>45757.98958333334</v>
       </c>
       <c r="B97">
-        <v>-79</v>
+        <v>-6</v>
       </c>
       <c r="C97">
-        <v>3434.64</v>
+        <v>866.58</v>
       </c>
       <c r="D97">
-        <v>3434.64</v>
+        <v>866.58</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45751</v>
+        <v>45758</v>
       </c>
       <c r="B98">
-        <v>-40</v>
+        <v>-18</v>
       </c>
       <c r="C98">
-        <v>990.61</v>
+        <v>1624.43</v>
       </c>
       <c r="D98">
-        <v>990.61</v>
+        <v>1624.43</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B99">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="C99">
-        <v>1005.21</v>
+        <v>1077.59</v>
       </c>
       <c r="D99">
-        <v>1005.21</v>
+        <v>1077.59</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B100">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="C100">
-        <v>950.84</v>
+        <v>837.3200000000001</v>
       </c>
       <c r="D100">
-        <v>950.84</v>
+        <v>837.3200000000001</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B101">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C101">
-        <v>377.62</v>
+        <v>390</v>
       </c>
       <c r="D101">
-        <v>884.51</v>
+        <v>742.45</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B102">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="C102">
-        <v>1670.77</v>
+        <v>822.9</v>
       </c>
       <c r="D102">
-        <v>1670.77</v>
+        <v>822.9</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B103">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="C103">
-        <v>1737.39</v>
+        <v>787.1</v>
       </c>
       <c r="D103">
-        <v>1737.39</v>
+        <v>787.1</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B104">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="C104">
-        <v>1603.42</v>
+        <v>860.6799999999999</v>
       </c>
       <c r="D104">
-        <v>1603.42</v>
+        <v>860.6799999999999</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B105">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="C105">
-        <v>997.9299999999999</v>
+        <v>809.95</v>
       </c>
       <c r="D105">
-        <v>997.9299999999999</v>
+        <v>809.95</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B106">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>784.45</v>
       </c>
       <c r="D106">
-        <v>770.98</v>
+        <v>784.45</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B107">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="C107">
-        <v>370.67</v>
+        <v>886.64</v>
       </c>
       <c r="D107">
-        <v>739.5</v>
+        <v>886.64</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="C108">
-        <v>384.3</v>
+        <v>812.95</v>
       </c>
       <c r="D108">
-        <v>724.6900000000001</v>
+        <v>812.95</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B109">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="C109">
-        <v>374.94</v>
+        <v>948.98</v>
       </c>
       <c r="D109">
-        <v>737.54</v>
+        <v>948.98</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B110">
-        <v>-8</v>
+        <v>-24</v>
       </c>
       <c r="C110">
-        <v>895.83</v>
+        <v>3361.13</v>
       </c>
       <c r="D110">
-        <v>895.83</v>
+        <v>3361.13</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B111">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="C111">
-        <v>847</v>
+        <v>812.1799999999999</v>
       </c>
       <c r="D111">
-        <v>847</v>
+        <v>812.1799999999999</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B112">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="C112">
-        <v>898.45</v>
+        <v>786.76</v>
       </c>
       <c r="D112">
-        <v>898.45</v>
+        <v>786.76</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B113">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="C113">
-        <v>914</v>
+        <v>864.87</v>
       </c>
       <c r="D113">
-        <v>914</v>
+        <v>864.87</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B114">
-        <v>-2</v>
+        <v>-0</v>
       </c>
       <c r="C114">
-        <v>875.54</v>
+        <v>196.67</v>
       </c>
       <c r="D114">
-        <v>875.54</v>
+        <v>771.47</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C115">
-        <v>377.88</v>
+        <v>877.6900000000001</v>
       </c>
       <c r="D115">
-        <v>754.1</v>
+        <v>877.6900000000001</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B116">
-        <v>-0</v>
+        <v>-22</v>
       </c>
       <c r="C116">
-        <v>376.69</v>
+        <v>3853.45</v>
       </c>
       <c r="D116">
-        <v>702.3200000000001</v>
+        <v>3853.45</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B117">
-        <v>-0</v>
+        <v>-44</v>
       </c>
       <c r="C117">
-        <v>377.57</v>
+        <v>6446.09</v>
       </c>
       <c r="D117">
-        <v>715.3200000000001</v>
+        <v>6446.09</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="C118">
-        <v>262.29</v>
+        <v>2348.1</v>
       </c>
       <c r="D118">
-        <v>700</v>
+        <v>2348.1</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C119">
-        <v>258.11</v>
+        <v>869.73</v>
       </c>
       <c r="D119">
-        <v>700</v>
+        <v>869.73</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C120">
-        <v>366.88</v>
+        <v>5431.15</v>
       </c>
       <c r="D120">
-        <v>838.51</v>
+        <v>5431.15</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B121">
-        <v>-4</v>
+        <v>-26</v>
       </c>
       <c r="C121">
-        <v>903.0599999999999</v>
+        <v>6882.01</v>
       </c>
       <c r="D121">
-        <v>903.0599999999999</v>
+        <v>6882.01</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B122">
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="C122">
-        <v>-3586.29</v>
+        <v>982.38</v>
       </c>
       <c r="D122">
-        <v>-3586.29</v>
+        <v>982.38</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B123">
-        <v>-0</v>
+        <v>-33</v>
       </c>
       <c r="C123">
-        <v>363.3</v>
+        <v>3454.67</v>
       </c>
       <c r="D123">
-        <v>884.75</v>
+        <v>3454.67</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B124">
-        <v>-3</v>
+        <v>-40</v>
       </c>
       <c r="C124">
-        <v>889.97</v>
+        <v>6937.05</v>
       </c>
       <c r="D124">
-        <v>889.97</v>
+        <v>6937.05</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B125">
-        <v>-1</v>
+        <v>-47</v>
       </c>
       <c r="C125">
-        <v>365.61</v>
+        <v>1422.47</v>
       </c>
       <c r="D125">
-        <v>883.08</v>
+        <v>1422.47</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="C126">
-        <v>368.92</v>
+        <v>3367.02</v>
       </c>
       <c r="D126">
-        <v>838.84</v>
+        <v>3367.02</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B127">
-        <v>-0</v>
+        <v>-74</v>
       </c>
       <c r="C127">
-        <v>375.63</v>
+        <v>4155.95</v>
       </c>
       <c r="D127">
-        <v>769.12</v>
+        <v>4155.95</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B128">
-        <v>-0</v>
+        <v>-114</v>
       </c>
       <c r="C128">
-        <v>339.55</v>
+        <v>2381.89</v>
       </c>
       <c r="D128">
-        <v>839.67</v>
+        <v>2381.89</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>-91</v>
       </c>
       <c r="C129">
-        <v>158.64</v>
+        <v>1692</v>
       </c>
       <c r="D129">
-        <v>158.64</v>
+        <v>1692</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>-115</v>
       </c>
       <c r="C130">
-        <v>365.86</v>
+        <v>880.27</v>
       </c>
       <c r="D130">
-        <v>865.0599999999999</v>
+        <v>880.27</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B131">
-        <v>-3</v>
+        <v>-114</v>
       </c>
       <c r="C131">
-        <v>895.3</v>
+        <v>800</v>
       </c>
       <c r="D131">
-        <v>895.3</v>
+        <v>800</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B132">
-        <v>-0</v>
+        <v>-104</v>
       </c>
       <c r="C132">
-        <v>149.38</v>
+        <v>805.62</v>
       </c>
       <c r="D132">
-        <v>813.83</v>
+        <v>805.62</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>-74</v>
       </c>
       <c r="C133">
-        <v>210.01</v>
+        <v>2060.9</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2060.9</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B134">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>364.02</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>898.26</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>10.04.20251</t>
-  </si>
-  <si>
-    <t>10.04.20252</t>
-  </si>
-  <si>
-    <t>10.04.20253</t>
-  </si>
-  <si>
-    <t>10.04.20254</t>
-  </si>
-  <si>
-    <t>10.04.20255</t>
-  </si>
-  <si>
-    <t>10.04.20256</t>
-  </si>
-  <si>
-    <t>10.04.20257</t>
-  </si>
-  <si>
-    <t>10.04.20258</t>
-  </si>
-  <si>
-    <t>10.04.20259</t>
-  </si>
-  <si>
-    <t>10.04.202510</t>
-  </si>
-  <si>
-    <t>10.04.202511</t>
-  </si>
-  <si>
-    <t>10.04.202512</t>
-  </si>
-  <si>
-    <t>10.04.202513</t>
-  </si>
-  <si>
-    <t>10.04.202514</t>
-  </si>
-  <si>
-    <t>10.04.202515</t>
-  </si>
-  <si>
-    <t>10.04.202516</t>
-  </si>
-  <si>
-    <t>10.04.202517</t>
-  </si>
-  <si>
-    <t>10.04.202518</t>
-  </si>
-  <si>
-    <t>10.04.202519</t>
-  </si>
-  <si>
-    <t>10.04.202520</t>
-  </si>
-  <si>
-    <t>10.04.202521</t>
-  </si>
-  <si>
-    <t>10.04.202522</t>
-  </si>
-  <si>
-    <t>10.04.202523</t>
-  </si>
-  <si>
-    <t>10.04.202524</t>
-  </si>
-  <si>
-    <t>10.04.202525</t>
-  </si>
-  <si>
-    <t>10.04.202526</t>
-  </si>
-  <si>
-    <t>10.04.202527</t>
-  </si>
-  <si>
-    <t>10.04.202528</t>
-  </si>
-  <si>
-    <t>10.04.202529</t>
-  </si>
-  <si>
-    <t>10.04.202530</t>
-  </si>
-  <si>
-    <t>10.04.202531</t>
-  </si>
-  <si>
-    <t>10.04.202532</t>
-  </si>
-  <si>
-    <t>10.04.202533</t>
-  </si>
-  <si>
-    <t>10.04.202534</t>
-  </si>
-  <si>
-    <t>10.04.202535</t>
-  </si>
-  <si>
-    <t>10.04.202536</t>
-  </si>
-  <si>
-    <t>10.04.202537</t>
-  </si>
-  <si>
-    <t>10.04.202538</t>
-  </si>
-  <si>
-    <t>10.04.202539</t>
-  </si>
-  <si>
-    <t>10.04.202540</t>
-  </si>
-  <si>
-    <t>10.04.202541</t>
-  </si>
-  <si>
-    <t>10.04.202542</t>
-  </si>
-  <si>
-    <t>10.04.202543</t>
-  </si>
-  <si>
-    <t>10.04.202544</t>
-  </si>
-  <si>
-    <t>10.04.202545</t>
-  </si>
-  <si>
-    <t>10.04.202546</t>
-  </si>
-  <si>
-    <t>10.04.202547</t>
-  </si>
-  <si>
-    <t>10.04.202548</t>
-  </si>
-  <si>
-    <t>10.04.202549</t>
-  </si>
-  <si>
-    <t>10.04.202550</t>
-  </si>
-  <si>
-    <t>10.04.202551</t>
-  </si>
-  <si>
-    <t>10.04.202552</t>
-  </si>
-  <si>
-    <t>10.04.202553</t>
-  </si>
-  <si>
-    <t>10.04.202554</t>
-  </si>
-  <si>
-    <t>10.04.202555</t>
-  </si>
-  <si>
-    <t>10.04.202556</t>
-  </si>
-  <si>
-    <t>10.04.202557</t>
-  </si>
-  <si>
-    <t>10.04.202558</t>
-  </si>
-  <si>
-    <t>10.04.202559</t>
-  </si>
-  <si>
-    <t>10.04.202560</t>
-  </si>
-  <si>
-    <t>10.04.202561</t>
-  </si>
-  <si>
-    <t>10.04.202562</t>
-  </si>
-  <si>
-    <t>10.04.202563</t>
-  </si>
-  <si>
-    <t>10.04.202564</t>
-  </si>
-  <si>
-    <t>10.04.202565</t>
-  </si>
-  <si>
-    <t>10.04.202566</t>
-  </si>
-  <si>
-    <t>10.04.202567</t>
-  </si>
-  <si>
-    <t>10.04.202568</t>
-  </si>
-  <si>
-    <t>10.04.202569</t>
-  </si>
-  <si>
-    <t>10.04.202570</t>
-  </si>
-  <si>
-    <t>10.04.202571</t>
-  </si>
-  <si>
-    <t>10.04.202572</t>
-  </si>
-  <si>
-    <t>10.04.202573</t>
-  </si>
-  <si>
-    <t>10.04.202574</t>
-  </si>
-  <si>
-    <t>10.04.202575</t>
-  </si>
-  <si>
-    <t>10.04.202576</t>
-  </si>
-  <si>
-    <t>10.04.202577</t>
-  </si>
-  <si>
-    <t>10.04.202578</t>
-  </si>
-  <si>
-    <t>10.04.202579</t>
-  </si>
-  <si>
-    <t>10.04.202580</t>
-  </si>
-  <si>
-    <t>10.04.202581</t>
-  </si>
-  <si>
-    <t>10.04.202582</t>
-  </si>
-  <si>
-    <t>10.04.202583</t>
-  </si>
-  <si>
-    <t>10.04.202584</t>
-  </si>
-  <si>
-    <t>10.04.202585</t>
-  </si>
-  <si>
-    <t>10.04.202586</t>
-  </si>
-  <si>
-    <t>10.04.202587</t>
-  </si>
-  <si>
-    <t>10.04.202588</t>
-  </si>
-  <si>
-    <t>10.04.202589</t>
-  </si>
-  <si>
-    <t>10.04.202590</t>
-  </si>
-  <si>
-    <t>10.04.202591</t>
-  </si>
-  <si>
-    <t>10.04.202592</t>
-  </si>
-  <si>
-    <t>10.04.202593</t>
-  </si>
-  <si>
-    <t>10.04.202594</t>
-  </si>
-  <si>
-    <t>10.04.202595</t>
-  </si>
-  <si>
-    <t>10.04.202596</t>
-  </si>
-  <si>
-    <t>11.04.20251</t>
-  </si>
-  <si>
-    <t>11.04.20252</t>
-  </si>
-  <si>
-    <t>11.04.20253</t>
-  </si>
-  <si>
-    <t>11.04.20254</t>
-  </si>
-  <si>
-    <t>11.04.20255</t>
-  </si>
-  <si>
-    <t>11.04.20256</t>
-  </si>
-  <si>
-    <t>11.04.20257</t>
-  </si>
-  <si>
-    <t>11.04.20258</t>
-  </si>
-  <si>
-    <t>11.04.20259</t>
-  </si>
-  <si>
-    <t>11.04.202510</t>
-  </si>
-  <si>
-    <t>11.04.202511</t>
-  </si>
-  <si>
-    <t>11.04.202512</t>
-  </si>
-  <si>
-    <t>11.04.202513</t>
-  </si>
-  <si>
-    <t>11.04.202514</t>
-  </si>
-  <si>
-    <t>11.04.202515</t>
-  </si>
-  <si>
-    <t>11.04.202516</t>
-  </si>
-  <si>
-    <t>11.04.202517</t>
-  </si>
-  <si>
-    <t>11.04.202518</t>
-  </si>
-  <si>
-    <t>11.04.202519</t>
-  </si>
-  <si>
-    <t>11.04.202520</t>
-  </si>
-  <si>
-    <t>11.04.202521</t>
-  </si>
-  <si>
-    <t>11.04.202522</t>
-  </si>
-  <si>
-    <t>11.04.202523</t>
-  </si>
-  <si>
-    <t>11.04.202524</t>
-  </si>
-  <si>
-    <t>11.04.202525</t>
-  </si>
-  <si>
-    <t>11.04.202526</t>
-  </si>
-  <si>
-    <t>11.04.202527</t>
-  </si>
-  <si>
-    <t>11.04.202528</t>
-  </si>
-  <si>
-    <t>11.04.202529</t>
-  </si>
-  <si>
-    <t>11.04.202530</t>
-  </si>
-  <si>
-    <t>11.04.202531</t>
-  </si>
-  <si>
-    <t>11.04.202532</t>
-  </si>
-  <si>
-    <t>11.04.202533</t>
-  </si>
-  <si>
-    <t>11.04.202534</t>
-  </si>
-  <si>
-    <t>11.04.202535</t>
-  </si>
-  <si>
-    <t>11.04.202536</t>
-  </si>
-  <si>
-    <t>11.04.202537</t>
-  </si>
-  <si>
-    <t>11.04.202538</t>
-  </si>
-  <si>
-    <t>11.04.202539</t>
-  </si>
-  <si>
-    <t>11.04.202540</t>
-  </si>
-  <si>
-    <t>11.04.202541</t>
-  </si>
-  <si>
-    <t>11.04.202542</t>
-  </si>
-  <si>
-    <t>11.04.202543</t>
-  </si>
-  <si>
-    <t>11.04.202544</t>
-  </si>
-  <si>
-    <t>11.04.202545</t>
-  </si>
-  <si>
-    <t>11.04.202546</t>
-  </si>
-  <si>
-    <t>11.04.202547</t>
-  </si>
-  <si>
-    <t>11.04.202548</t>
-  </si>
-  <si>
-    <t>11.04.202549</t>
-  </si>
-  <si>
-    <t>11.04.202550</t>
-  </si>
-  <si>
-    <t>11.04.202551</t>
-  </si>
-  <si>
-    <t>11.04.202552</t>
-  </si>
-  <si>
-    <t>11.04.202553</t>
-  </si>
-  <si>
-    <t>11.04.202554</t>
-  </si>
-  <si>
-    <t>11.04.202555</t>
-  </si>
-  <si>
-    <t>11.04.202556</t>
-  </si>
-  <si>
-    <t>11.04.202557</t>
-  </si>
-  <si>
-    <t>11.04.202558</t>
-  </si>
-  <si>
-    <t>11.04.202559</t>
-  </si>
-  <si>
-    <t>11.04.202560</t>
-  </si>
-  <si>
-    <t>11.04.202561</t>
-  </si>
-  <si>
-    <t>11.04.202562</t>
-  </si>
-  <si>
-    <t>11.04.202563</t>
-  </si>
-  <si>
-    <t>11.04.202564</t>
-  </si>
-  <si>
-    <t>11.04.202565</t>
-  </si>
-  <si>
-    <t>11.04.202566</t>
-  </si>
-  <si>
-    <t>11.04.202567</t>
-  </si>
-  <si>
-    <t>11.04.202568</t>
-  </si>
-  <si>
-    <t>11.04.202569</t>
-  </si>
-  <si>
-    <t>11.04.202570</t>
-  </si>
-  <si>
-    <t>11.04.202571</t>
-  </si>
-  <si>
-    <t>11.04.202572</t>
-  </si>
-  <si>
-    <t>11.04.202573</t>
-  </si>
-  <si>
-    <t>11.04.202574</t>
-  </si>
-  <si>
-    <t>11.04.202575</t>
-  </si>
-  <si>
-    <t>11.04.202576</t>
-  </si>
-  <si>
-    <t>11.04.202577</t>
-  </si>
-  <si>
-    <t>11.04.202578</t>
-  </si>
-  <si>
-    <t>11.04.202579</t>
-  </si>
-  <si>
-    <t>11.04.202580</t>
-  </si>
-  <si>
-    <t>11.04.202581</t>
-  </si>
-  <si>
-    <t>11.04.202582</t>
-  </si>
-  <si>
-    <t>11.04.202583</t>
-  </si>
-  <si>
-    <t>11.04.202584</t>
-  </si>
-  <si>
-    <t>11.04.202585</t>
-  </si>
-  <si>
-    <t>11.04.202586</t>
-  </si>
-  <si>
-    <t>11.04.202587</t>
-  </si>
-  <si>
-    <t>11.04.202588</t>
-  </si>
-  <si>
-    <t>11.04.202589</t>
-  </si>
-  <si>
-    <t>11.04.202590</t>
-  </si>
-  <si>
-    <t>11.04.202591</t>
-  </si>
-  <si>
-    <t>11.04.202592</t>
-  </si>
-  <si>
-    <t>11.04.202593</t>
-  </si>
-  <si>
-    <t>11.04.202594</t>
-  </si>
-  <si>
-    <t>11.04.202595</t>
-  </si>
-  <si>
-    <t>11.04.202596</t>
+    <t>28.04.20251</t>
+  </si>
+  <si>
+    <t>28.04.20252</t>
+  </si>
+  <si>
+    <t>28.04.20253</t>
+  </si>
+  <si>
+    <t>28.04.20254</t>
+  </si>
+  <si>
+    <t>28.04.20255</t>
+  </si>
+  <si>
+    <t>28.04.20256</t>
+  </si>
+  <si>
+    <t>28.04.20257</t>
+  </si>
+  <si>
+    <t>28.04.20258</t>
+  </si>
+  <si>
+    <t>28.04.20259</t>
+  </si>
+  <si>
+    <t>28.04.202510</t>
+  </si>
+  <si>
+    <t>28.04.202511</t>
+  </si>
+  <si>
+    <t>28.04.202512</t>
+  </si>
+  <si>
+    <t>28.04.202513</t>
+  </si>
+  <si>
+    <t>28.04.202514</t>
+  </si>
+  <si>
+    <t>28.04.202515</t>
+  </si>
+  <si>
+    <t>28.04.202516</t>
+  </si>
+  <si>
+    <t>28.04.202517</t>
+  </si>
+  <si>
+    <t>28.04.202518</t>
+  </si>
+  <si>
+    <t>28.04.202519</t>
+  </si>
+  <si>
+    <t>28.04.202520</t>
+  </si>
+  <si>
+    <t>28.04.202521</t>
+  </si>
+  <si>
+    <t>28.04.202522</t>
+  </si>
+  <si>
+    <t>28.04.202523</t>
+  </si>
+  <si>
+    <t>28.04.202524</t>
+  </si>
+  <si>
+    <t>28.04.202525</t>
+  </si>
+  <si>
+    <t>28.04.202526</t>
+  </si>
+  <si>
+    <t>28.04.202527</t>
+  </si>
+  <si>
+    <t>28.04.202528</t>
+  </si>
+  <si>
+    <t>28.04.202529</t>
+  </si>
+  <si>
+    <t>28.04.202530</t>
+  </si>
+  <si>
+    <t>28.04.202531</t>
+  </si>
+  <si>
+    <t>28.04.202532</t>
+  </si>
+  <si>
+    <t>28.04.202533</t>
+  </si>
+  <si>
+    <t>28.04.202534</t>
+  </si>
+  <si>
+    <t>28.04.202535</t>
+  </si>
+  <si>
+    <t>28.04.202536</t>
+  </si>
+  <si>
+    <t>28.04.202537</t>
+  </si>
+  <si>
+    <t>28.04.202538</t>
+  </si>
+  <si>
+    <t>28.04.202539</t>
+  </si>
+  <si>
+    <t>28.04.202540</t>
+  </si>
+  <si>
+    <t>28.04.202541</t>
+  </si>
+  <si>
+    <t>28.04.202542</t>
+  </si>
+  <si>
+    <t>28.04.202543</t>
+  </si>
+  <si>
+    <t>28.04.202544</t>
+  </si>
+  <si>
+    <t>28.04.202545</t>
+  </si>
+  <si>
+    <t>28.04.202546</t>
+  </si>
+  <si>
+    <t>28.04.202547</t>
+  </si>
+  <si>
+    <t>28.04.202548</t>
+  </si>
+  <si>
+    <t>28.04.202549</t>
+  </si>
+  <si>
+    <t>28.04.202550</t>
+  </si>
+  <si>
+    <t>28.04.202551</t>
+  </si>
+  <si>
+    <t>28.04.202552</t>
+  </si>
+  <si>
+    <t>28.04.202553</t>
+  </si>
+  <si>
+    <t>28.04.202554</t>
+  </si>
+  <si>
+    <t>28.04.202555</t>
+  </si>
+  <si>
+    <t>28.04.202556</t>
+  </si>
+  <si>
+    <t>28.04.202557</t>
+  </si>
+  <si>
+    <t>28.04.202558</t>
+  </si>
+  <si>
+    <t>28.04.202559</t>
+  </si>
+  <si>
+    <t>28.04.202560</t>
+  </si>
+  <si>
+    <t>28.04.202561</t>
+  </si>
+  <si>
+    <t>28.04.202562</t>
+  </si>
+  <si>
+    <t>28.04.202563</t>
+  </si>
+  <si>
+    <t>28.04.202564</t>
+  </si>
+  <si>
+    <t>28.04.202565</t>
+  </si>
+  <si>
+    <t>28.04.202566</t>
+  </si>
+  <si>
+    <t>28.04.202567</t>
+  </si>
+  <si>
+    <t>28.04.202568</t>
+  </si>
+  <si>
+    <t>28.04.202569</t>
+  </si>
+  <si>
+    <t>28.04.202570</t>
+  </si>
+  <si>
+    <t>28.04.202571</t>
+  </si>
+  <si>
+    <t>28.04.202572</t>
+  </si>
+  <si>
+    <t>28.04.202573</t>
+  </si>
+  <si>
+    <t>28.04.202574</t>
+  </si>
+  <si>
+    <t>28.04.202575</t>
+  </si>
+  <si>
+    <t>28.04.202576</t>
+  </si>
+  <si>
+    <t>28.04.202577</t>
+  </si>
+  <si>
+    <t>28.04.202578</t>
+  </si>
+  <si>
+    <t>28.04.202579</t>
+  </si>
+  <si>
+    <t>28.04.202580</t>
+  </si>
+  <si>
+    <t>28.04.202581</t>
+  </si>
+  <si>
+    <t>28.04.202582</t>
+  </si>
+  <si>
+    <t>28.04.202583</t>
+  </si>
+  <si>
+    <t>28.04.202584</t>
+  </si>
+  <si>
+    <t>28.04.202585</t>
+  </si>
+  <si>
+    <t>28.04.202586</t>
+  </si>
+  <si>
+    <t>28.04.202587</t>
+  </si>
+  <si>
+    <t>28.04.202588</t>
+  </si>
+  <si>
+    <t>28.04.202589</t>
+  </si>
+  <si>
+    <t>28.04.202590</t>
+  </si>
+  <si>
+    <t>28.04.202591</t>
+  </si>
+  <si>
+    <t>28.04.202592</t>
+  </si>
+  <si>
+    <t>28.04.202593</t>
+  </si>
+  <si>
+    <t>28.04.202594</t>
+  </si>
+  <si>
+    <t>28.04.202595</t>
+  </si>
+  <si>
+    <t>28.04.202596</t>
+  </si>
+  <si>
+    <t>29.04.20251</t>
+  </si>
+  <si>
+    <t>29.04.20252</t>
+  </si>
+  <si>
+    <t>29.04.20253</t>
+  </si>
+  <si>
+    <t>29.04.20254</t>
+  </si>
+  <si>
+    <t>29.04.20255</t>
+  </si>
+  <si>
+    <t>29.04.20256</t>
+  </si>
+  <si>
+    <t>29.04.20257</t>
+  </si>
+  <si>
+    <t>29.04.20258</t>
+  </si>
+  <si>
+    <t>29.04.20259</t>
+  </si>
+  <si>
+    <t>29.04.202510</t>
+  </si>
+  <si>
+    <t>29.04.202511</t>
+  </si>
+  <si>
+    <t>29.04.202512</t>
+  </si>
+  <si>
+    <t>29.04.202513</t>
+  </si>
+  <si>
+    <t>29.04.202514</t>
+  </si>
+  <si>
+    <t>29.04.202515</t>
+  </si>
+  <si>
+    <t>29.04.202516</t>
+  </si>
+  <si>
+    <t>29.04.202517</t>
+  </si>
+  <si>
+    <t>29.04.202518</t>
+  </si>
+  <si>
+    <t>29.04.202519</t>
+  </si>
+  <si>
+    <t>29.04.202520</t>
+  </si>
+  <si>
+    <t>29.04.202521</t>
+  </si>
+  <si>
+    <t>29.04.202522</t>
+  </si>
+  <si>
+    <t>29.04.202523</t>
+  </si>
+  <si>
+    <t>29.04.202524</t>
+  </si>
+  <si>
+    <t>29.04.202525</t>
+  </si>
+  <si>
+    <t>29.04.202526</t>
+  </si>
+  <si>
+    <t>29.04.202527</t>
+  </si>
+  <si>
+    <t>29.04.202528</t>
+  </si>
+  <si>
+    <t>29.04.202529</t>
+  </si>
+  <si>
+    <t>29.04.202530</t>
+  </si>
+  <si>
+    <t>29.04.202531</t>
+  </si>
+  <si>
+    <t>29.04.202532</t>
+  </si>
+  <si>
+    <t>29.04.202533</t>
+  </si>
+  <si>
+    <t>29.04.202534</t>
+  </si>
+  <si>
+    <t>29.04.202535</t>
+  </si>
+  <si>
+    <t>29.04.202536</t>
+  </si>
+  <si>
+    <t>29.04.202537</t>
+  </si>
+  <si>
+    <t>29.04.202538</t>
+  </si>
+  <si>
+    <t>29.04.202539</t>
+  </si>
+  <si>
+    <t>29.04.202540</t>
+  </si>
+  <si>
+    <t>29.04.202541</t>
+  </si>
+  <si>
+    <t>29.04.202542</t>
+  </si>
+  <si>
+    <t>29.04.202543</t>
+  </si>
+  <si>
+    <t>29.04.202544</t>
+  </si>
+  <si>
+    <t>29.04.202545</t>
+  </si>
+  <si>
+    <t>29.04.202546</t>
+  </si>
+  <si>
+    <t>29.04.202547</t>
+  </si>
+  <si>
+    <t>29.04.202548</t>
+  </si>
+  <si>
+    <t>29.04.202549</t>
+  </si>
+  <si>
+    <t>29.04.202550</t>
+  </si>
+  <si>
+    <t>29.04.202551</t>
+  </si>
+  <si>
+    <t>29.04.202552</t>
+  </si>
+  <si>
+    <t>29.04.202553</t>
+  </si>
+  <si>
+    <t>29.04.202554</t>
+  </si>
+  <si>
+    <t>29.04.202555</t>
+  </si>
+  <si>
+    <t>29.04.202556</t>
+  </si>
+  <si>
+    <t>29.04.202557</t>
+  </si>
+  <si>
+    <t>29.04.202558</t>
+  </si>
+  <si>
+    <t>29.04.202559</t>
+  </si>
+  <si>
+    <t>29.04.202560</t>
+  </si>
+  <si>
+    <t>29.04.202561</t>
+  </si>
+  <si>
+    <t>29.04.202562</t>
+  </si>
+  <si>
+    <t>29.04.202563</t>
+  </si>
+  <si>
+    <t>29.04.202564</t>
+  </si>
+  <si>
+    <t>29.04.202565</t>
+  </si>
+  <si>
+    <t>29.04.202566</t>
+  </si>
+  <si>
+    <t>29.04.202567</t>
+  </si>
+  <si>
+    <t>29.04.202568</t>
+  </si>
+  <si>
+    <t>29.04.202569</t>
+  </si>
+  <si>
+    <t>29.04.202570</t>
+  </si>
+  <si>
+    <t>29.04.202571</t>
+  </si>
+  <si>
+    <t>29.04.202572</t>
+  </si>
+  <si>
+    <t>29.04.202573</t>
+  </si>
+  <si>
+    <t>29.04.202574</t>
+  </si>
+  <si>
+    <t>29.04.202575</t>
+  </si>
+  <si>
+    <t>29.04.202576</t>
+  </si>
+  <si>
+    <t>29.04.202577</t>
+  </si>
+  <si>
+    <t>29.04.202578</t>
+  </si>
+  <si>
+    <t>29.04.202579</t>
+  </si>
+  <si>
+    <t>29.04.202580</t>
+  </si>
+  <si>
+    <t>29.04.202581</t>
+  </si>
+  <si>
+    <t>29.04.202582</t>
+  </si>
+  <si>
+    <t>29.04.202583</t>
+  </si>
+  <si>
+    <t>29.04.202584</t>
+  </si>
+  <si>
+    <t>29.04.202585</t>
+  </si>
+  <si>
+    <t>29.04.202586</t>
+  </si>
+  <si>
+    <t>29.04.202587</t>
+  </si>
+  <si>
+    <t>29.04.202588</t>
+  </si>
+  <si>
+    <t>29.04.202589</t>
+  </si>
+  <si>
+    <t>29.04.202590</t>
+  </si>
+  <si>
+    <t>29.04.202591</t>
+  </si>
+  <si>
+    <t>29.04.202592</t>
+  </si>
+  <si>
+    <t>29.04.202593</t>
+  </si>
+  <si>
+    <t>29.04.202594</t>
+  </si>
+  <si>
+    <t>29.04.202595</t>
+  </si>
+  <si>
+    <t>29.04.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45757</v>
+        <v>45775</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45757.01041666666</v>
+        <v>45775.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45757.02083333334</v>
+        <v>45775.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45757.03125</v>
+        <v>45775.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45757.04166666666</v>
+        <v>45775.04166666666</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>151.84</v>
+        <v>382.16</v>
       </c>
       <c r="D6">
-        <v>151.84</v>
+        <v>813.27</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45757.05208333334</v>
+        <v>45775.05208333334</v>
       </c>
       <c r="B7">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="C7">
-        <v>823.42</v>
+        <v>887.83</v>
       </c>
       <c r="D7">
-        <v>823.42</v>
+        <v>887.83</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45757.0625</v>
+        <v>45775.0625</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="C8">
-        <v>373.86</v>
+        <v>887.74</v>
       </c>
       <c r="D8">
-        <v>725.83</v>
+        <v>887.74</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45757.07291666666</v>
+        <v>45775.07291666666</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="C9">
-        <v>91.56</v>
+        <v>236.23</v>
       </c>
       <c r="D9">
-        <v>91.56</v>
+        <v>886.67</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45757.08333333334</v>
+        <v>45775.08333333334</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C10">
-        <v>235.13</v>
+        <v>866.01</v>
       </c>
       <c r="D10">
-        <v>235.13</v>
+        <v>866.01</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45757.09375</v>
+        <v>45775.09375</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="C11">
-        <v>279.92</v>
+        <v>866.29</v>
       </c>
       <c r="D11">
-        <v>279.92</v>
+        <v>866.29</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45757.10416666666</v>
+        <v>45775.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C12">
-        <v>386.6</v>
+        <v>870.72</v>
       </c>
       <c r="D12">
-        <v>703.59</v>
+        <v>870.72</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45757.11458333334</v>
+        <v>45775.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C13">
-        <v>366.94</v>
+        <v>866.29</v>
       </c>
       <c r="D13">
-        <v>714.33</v>
+        <v>866.29</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45757.125</v>
+        <v>45775.125</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C14">
-        <v>316.37</v>
+        <v>378.79</v>
       </c>
       <c r="D14">
-        <v>723.83</v>
+        <v>873.0700000000001</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45757.13541666666</v>
+        <v>45775.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C15">
-        <v>384.68</v>
+        <v>881.51</v>
       </c>
       <c r="D15">
-        <v>700</v>
+        <v>881.51</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45757.14583333334</v>
+        <v>45775.14583333334</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="C16">
-        <v>-582.62</v>
+        <v>892.61</v>
       </c>
       <c r="D16">
-        <v>729.33</v>
+        <v>892.61</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45757.15625</v>
+        <v>45775.15625</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>-10</v>
       </c>
       <c r="C17">
-        <v>-1637.83</v>
+        <v>918.72</v>
       </c>
       <c r="D17">
-        <v>-1637.83</v>
+        <v>918.72</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45757.16666666666</v>
+        <v>45775.16666666666</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C18">
-        <v>-118.74</v>
+        <v>283.03</v>
       </c>
       <c r="D18">
-        <v>-118.74</v>
+        <v>894.9400000000001</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45757.17708333334</v>
+        <v>45775.17708333334</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19">
-        <v>347.69</v>
+        <v>390</v>
       </c>
       <c r="D19">
-        <v>715.23</v>
+        <v>898.97</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45757.1875</v>
+        <v>45775.1875</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C20">
-        <v>396.49</v>
+        <v>900.5700000000001</v>
       </c>
       <c r="D20">
-        <v>739.9</v>
+        <v>900.5700000000001</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45757.19791666666</v>
+        <v>45775.19791666666</v>
       </c>
       <c r="B21">
         <v>-2</v>
       </c>
       <c r="C21">
-        <v>792.21</v>
+        <v>898.77</v>
       </c>
       <c r="D21">
-        <v>792.21</v>
+        <v>898.77</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45757.20833333334</v>
+        <v>45775.20833333334</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>109.71</v>
+        <v>210.56</v>
       </c>
       <c r="D22">
-        <v>109.71</v>
+        <v>746.15</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45757.21875</v>
+        <v>45775.21875</v>
       </c>
       <c r="B23">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>897.1</v>
+        <v>108.78</v>
       </c>
       <c r="D23">
-        <v>897.1</v>
+        <v>108.78</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45757.22916666666</v>
+        <v>45775.22916666666</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="C24">
-        <v>400</v>
+        <v>930.52</v>
       </c>
       <c r="D24">
-        <v>890.8</v>
+        <v>930.52</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45757.23958333334</v>
+        <v>45775.23958333334</v>
       </c>
       <c r="B25">
         <v>-9</v>
       </c>
       <c r="C25">
-        <v>1027.07</v>
+        <v>1146.49</v>
       </c>
       <c r="D25">
-        <v>1027.07</v>
+        <v>1146.49</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45757.25</v>
+        <v>45775.25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="C26">
-        <v>120.81</v>
+        <v>1191.85</v>
       </c>
       <c r="D26">
-        <v>899.74</v>
+        <v>1191.85</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45757.26041666666</v>
+        <v>45775.26041666666</v>
       </c>
       <c r="B27">
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="C27">
-        <v>896.6799999999999</v>
+        <v>1108.57</v>
       </c>
       <c r="D27">
-        <v>896.6799999999999</v>
+        <v>1108.57</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45757.27083333334</v>
+        <v>45775.27083333334</v>
       </c>
       <c r="B28">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="C28">
-        <v>1094.9</v>
+        <v>1100.71</v>
       </c>
       <c r="D28">
-        <v>1094.9</v>
+        <v>1100.71</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45757.28125</v>
+        <v>45775.28125</v>
       </c>
       <c r="B29">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="C29">
-        <v>1155.99</v>
+        <v>899.1</v>
       </c>
       <c r="D29">
-        <v>1155.99</v>
+        <v>899.1</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45757.29166666666</v>
+        <v>45775.29166666666</v>
       </c>
       <c r="B30">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>4589.49</v>
+        <v>289.3</v>
       </c>
       <c r="D30">
-        <v>4589.49</v>
+        <v>888.72</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45757.30208333334</v>
+        <v>45775.30208333334</v>
       </c>
       <c r="B31">
-        <v>-59</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>1461.98</v>
+        <v>-137.69</v>
       </c>
       <c r="D31">
-        <v>1461.98</v>
+        <v>-137.69</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45757.3125</v>
+        <v>45775.3125</v>
       </c>
       <c r="B32">
-        <v>-57</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>1332.99</v>
+        <v>-3655.74</v>
       </c>
       <c r="D32">
-        <v>1332.99</v>
+        <v>-3655.74</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45757.32291666666</v>
+        <v>45775.32291666666</v>
       </c>
       <c r="B33">
-        <v>-51</v>
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>2134.26</v>
+        <v>-4460.13</v>
       </c>
       <c r="D33">
-        <v>2134.26</v>
+        <v>-4460.13</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45757.33333333334</v>
+        <v>45775.33333333334</v>
       </c>
       <c r="B34">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>3351.22</v>
+        <v>170.12</v>
       </c>
       <c r="D34">
-        <v>3351.22</v>
+        <v>919.73</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45757.34375</v>
+        <v>45775.34375</v>
       </c>
       <c r="B35">
-        <v>-101</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>1137.12</v>
+        <v>-1058.2</v>
       </c>
       <c r="D35">
-        <v>1137.12</v>
+        <v>-1058.2</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45757.35416666666</v>
+        <v>45775.35416666666</v>
       </c>
       <c r="B36">
-        <v>-81</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>1129.23</v>
+        <v>-1242.36</v>
       </c>
       <c r="D36">
-        <v>1129.23</v>
+        <v>-1242.36</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45757.36458333334</v>
+        <v>45775.36458333334</v>
       </c>
       <c r="B37">
-        <v>-67</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>1147.02</v>
+        <v>-5176.79</v>
       </c>
       <c r="D37">
-        <v>1147.02</v>
+        <v>-5176.79</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45757.375</v>
+        <v>45775.375</v>
       </c>
       <c r="B38">
-        <v>-58</v>
+        <v>17</v>
       </c>
       <c r="C38">
-        <v>4338.74</v>
+        <v>31.11</v>
       </c>
       <c r="D38">
-        <v>4338.74</v>
+        <v>31.11</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45757.38541666666</v>
+        <v>45775.38541666666</v>
       </c>
       <c r="B39">
-        <v>-72</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>2801.92</v>
+        <v>-3138.2</v>
       </c>
       <c r="D39">
-        <v>2801.92</v>
+        <v>-3138.2</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45757.39583333334</v>
+        <v>45775.39583333334</v>
       </c>
       <c r="B40">
-        <v>-45</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>992.9400000000001</v>
+        <v>-6281.07</v>
       </c>
       <c r="D40">
-        <v>992.9400000000001</v>
+        <v>-6281.07</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45757.40625</v>
+        <v>45775.40625</v>
       </c>
       <c r="B41">
-        <v>-59</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>1362.19</v>
+        <v>-6815.32</v>
       </c>
       <c r="D41">
-        <v>1362.19</v>
+        <v>-6815.32</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45757.41666666666</v>
+        <v>45775.41666666666</v>
       </c>
       <c r="B42">
-        <v>-98</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>2312</v>
+        <v>-135.92</v>
       </c>
       <c r="D42">
-        <v>2312</v>
+        <v>-135.92</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45757.42708333334</v>
+        <v>45775.42708333334</v>
       </c>
       <c r="B43">
-        <v>-97</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>782.55</v>
+        <v>-52.12</v>
       </c>
       <c r="D43">
-        <v>782.55</v>
+        <v>-52.12</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45757.4375</v>
+        <v>45775.4375</v>
       </c>
       <c r="B44">
-        <v>-87</v>
+        <v>75</v>
       </c>
       <c r="C44">
-        <v>736.15</v>
+        <v>-475.59</v>
       </c>
       <c r="D44">
-        <v>736.15</v>
+        <v>-475.59</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45757.44791666666</v>
+        <v>45775.44791666666</v>
       </c>
       <c r="B45">
-        <v>-78</v>
+        <v>66</v>
       </c>
       <c r="C45">
-        <v>754.34</v>
+        <v>-304.83</v>
       </c>
       <c r="D45">
-        <v>754.34</v>
+        <v>-304.83</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45757.45833333334</v>
+        <v>45775.45833333334</v>
       </c>
       <c r="B46">
-        <v>-60</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>674.92</v>
+        <v>-36.27</v>
       </c>
       <c r="D46">
-        <v>674.92</v>
+        <v>-36.27</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45757.46875</v>
+        <v>45775.46875</v>
       </c>
       <c r="B47">
-        <v>-55</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>643.1</v>
+        <v>-86.45999999999999</v>
       </c>
       <c r="D47">
-        <v>643.1</v>
+        <v>-86.45999999999999</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45757.47916666666</v>
+        <v>45775.47916666666</v>
       </c>
       <c r="B48">
-        <v>-18</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>-1767.19</v>
+        <v>-25.82</v>
       </c>
       <c r="D48">
-        <v>633.88</v>
+        <v>-25.82</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45757.48958333334</v>
+        <v>45775.48958333334</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>-3624.98</v>
+        <v>1.62</v>
       </c>
       <c r="D49">
-        <v>-3624.98</v>
+        <v>1.62</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45757.5</v>
+        <v>45775.5</v>
       </c>
       <c r="B50">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C50">
-        <v>-442.51</v>
+        <v>0.1</v>
       </c>
       <c r="D50">
-        <v>-442.51</v>
+        <v>0.1</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45757.51041666666</v>
+        <v>45775.51041666666</v>
       </c>
       <c r="B51">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>-12.32</v>
+        <v>0.89</v>
       </c>
       <c r="D51">
-        <v>-12.32</v>
+        <v>0.89</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45757.52083333334</v>
+        <v>45775.52083333334</v>
       </c>
       <c r="B52">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>308.09</v>
+        <v>2.3</v>
       </c>
       <c r="D52">
-        <v>530.26</v>
+        <v>2.3</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45757.53125</v>
+        <v>45775.53125</v>
       </c>
       <c r="B53">
-        <v>-0</v>
+        <v>67</v>
       </c>
       <c r="C53">
-        <v>321.4</v>
+        <v>0.1</v>
       </c>
       <c r="D53">
-        <v>529.92</v>
+        <v>0.1</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45757.54166666666</v>
+        <v>45775.54166666666</v>
       </c>
       <c r="B54">
-        <v>-1</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>262.73</v>
+        <v>4.95</v>
       </c>
       <c r="D54">
-        <v>459.35</v>
+        <v>4.95</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45757.55208333334</v>
+        <v>45775.55208333334</v>
       </c>
       <c r="B55">
-        <v>-1</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>265.27</v>
+        <v>11.24</v>
       </c>
       <c r="D55">
-        <v>459.73</v>
+        <v>11.24</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45757.5625</v>
+        <v>45775.5625</v>
       </c>
       <c r="B56">
-        <v>-0</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>387.16</v>
+        <v>-140.14</v>
       </c>
       <c r="D56">
-        <v>459.35</v>
+        <v>-140.14</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45757.57291666666</v>
+        <v>45775.57291666666</v>
       </c>
       <c r="B57">
-        <v>-0</v>
+        <v>71</v>
       </c>
       <c r="C57">
-        <v>260.27</v>
+        <v>-558.47</v>
       </c>
       <c r="D57">
-        <v>459.35</v>
+        <v>-558.47</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45757.58333333334</v>
+        <v>45775.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C58">
-        <v>304.63</v>
+        <v>4.43</v>
       </c>
       <c r="D58">
-        <v>448.24</v>
+        <v>4.43</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45757.59375</v>
+        <v>45775.59375</v>
       </c>
       <c r="B59">
-        <v>-2</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>347.5</v>
+        <v>-4.04</v>
       </c>
       <c r="D59">
-        <v>449.1</v>
+        <v>-4.04</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45757.60416666666</v>
+        <v>45775.60416666666</v>
       </c>
       <c r="B60">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D60">
-        <v>701.64</v>
+        <v>0.3</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45757.61458333334</v>
+        <v>45775.61458333334</v>
       </c>
       <c r="B61">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>378.24</v>
+        <v>-87.51000000000001</v>
       </c>
       <c r="D61">
-        <v>643.99</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45757.625</v>
+        <v>45775.625</v>
       </c>
       <c r="B62">
-        <v>-38</v>
+        <v>88</v>
       </c>
       <c r="C62">
-        <v>631.04</v>
+        <v>-2076.18</v>
       </c>
       <c r="D62">
-        <v>631.04</v>
+        <v>-2076.18</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45757.63541666666</v>
+        <v>45775.63541666666</v>
       </c>
       <c r="B63">
-        <v>-39</v>
+        <v>29</v>
       </c>
       <c r="C63">
-        <v>519.08</v>
+        <v>-4499</v>
       </c>
       <c r="D63">
-        <v>519.08</v>
+        <v>-4499</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45757.64583333334</v>
+        <v>45775.64583333334</v>
       </c>
       <c r="B64">
-        <v>-43</v>
+        <v>79</v>
       </c>
       <c r="C64">
-        <v>1316.21</v>
+        <v>-1286.7</v>
       </c>
       <c r="D64">
-        <v>1316.21</v>
+        <v>-1286.7</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45757.65625</v>
+        <v>45775.65625</v>
       </c>
       <c r="B65">
-        <v>-10</v>
+        <v>48</v>
       </c>
       <c r="C65">
-        <v>-5002.83</v>
+        <v>4.07</v>
       </c>
       <c r="D65">
-        <v>459.05</v>
+        <v>4.07</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45757.66666666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="B66">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C66">
-        <v>-6071.71</v>
+        <v>-1169.52</v>
       </c>
       <c r="D66">
-        <v>-6071.71</v>
+        <v>-1169.52</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45757.67708333334</v>
+        <v>45775.67708333334</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C67">
-        <v>-292.55</v>
+        <v>1.96</v>
       </c>
       <c r="D67">
-        <v>-292.55</v>
+        <v>1.96</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45757.6875</v>
+        <v>45775.6875</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C68">
-        <v>-5162.02</v>
+        <v>-849.83</v>
       </c>
       <c r="D68">
-        <v>-5162.02</v>
+        <v>-849.83</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45757.69791666666</v>
+        <v>45775.69791666666</v>
       </c>
       <c r="B69">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>-197.19</v>
+        <v>-1440.73</v>
       </c>
       <c r="D69">
-        <v>-197.19</v>
+        <v>-1440.73</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45757.70833333334</v>
+        <v>45775.70833333334</v>
       </c>
       <c r="B70">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C70">
-        <v>-1888.68</v>
+        <v>-18.92</v>
       </c>
       <c r="D70">
-        <v>-1888.68</v>
+        <v>-18.92</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45757.71875</v>
+        <v>45775.71875</v>
       </c>
       <c r="B71">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C71">
-        <v>-27.31</v>
+        <v>-62.41</v>
       </c>
       <c r="D71">
-        <v>-27.31</v>
+        <v>-62.41</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45757.72916666666</v>
+        <v>45775.72916666666</v>
       </c>
       <c r="B72">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C72">
-        <v>198.27</v>
+        <v>867.54</v>
       </c>
       <c r="D72">
-        <v>866.14</v>
+        <v>867.54</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45757.73958333334</v>
+        <v>45775.73958333334</v>
       </c>
       <c r="B73">
-        <v>-37</v>
+        <v>-12</v>
       </c>
       <c r="C73">
-        <v>4162.87</v>
+        <v>923.58</v>
       </c>
       <c r="D73">
-        <v>4162.87</v>
+        <v>923.58</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45757.75</v>
+        <v>45775.75</v>
       </c>
       <c r="B74">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>368.73</v>
+        <v>-1274.94</v>
       </c>
       <c r="D74">
-        <v>889</v>
+        <v>-1274.94</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45757.76041666666</v>
+        <v>45775.76041666666</v>
       </c>
       <c r="B75">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="C75">
-        <v>1023.22</v>
+        <v>365.83</v>
       </c>
       <c r="D75">
-        <v>1023.22</v>
+        <v>995.38</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45757.77083333334</v>
+        <v>45775.77083333334</v>
       </c>
       <c r="B76">
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="C76">
-        <v>1793.01</v>
+        <v>987.02</v>
       </c>
       <c r="D76">
-        <v>1793.01</v>
+        <v>987.02</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45757.78125</v>
+        <v>45775.78125</v>
       </c>
       <c r="B77">
-        <v>-41</v>
+        <v>-35</v>
       </c>
       <c r="C77">
-        <v>4061.01</v>
+        <v>3277.03</v>
       </c>
       <c r="D77">
-        <v>4061.01</v>
+        <v>3277.03</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45757.79166666666</v>
+        <v>45775.79166666666</v>
       </c>
       <c r="B78">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="C78">
-        <v>1131.42</v>
+        <v>298.69</v>
       </c>
       <c r="D78">
-        <v>1131.42</v>
+        <v>899.54</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45757.80208333334</v>
+        <v>45775.80208333334</v>
       </c>
       <c r="B79">
-        <v>-29</v>
+        <v>-6</v>
       </c>
       <c r="C79">
-        <v>1190.28</v>
+        <v>-3099.13</v>
       </c>
       <c r="D79">
-        <v>1190.28</v>
+        <v>1203.81</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45757.8125</v>
+        <v>45775.8125</v>
       </c>
       <c r="B80">
-        <v>-32</v>
+        <v>-20</v>
       </c>
       <c r="C80">
-        <v>6566.64</v>
+        <v>1211.35</v>
       </c>
       <c r="D80">
-        <v>6566.64</v>
+        <v>1211.35</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45757.82291666666</v>
+        <v>45775.82291666666</v>
       </c>
       <c r="B81">
-        <v>-62</v>
+        <v>-27</v>
       </c>
       <c r="C81">
-        <v>1547.46</v>
+        <v>1203.22</v>
       </c>
       <c r="D81">
-        <v>1547.46</v>
+        <v>1203.22</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45757.83333333334</v>
+        <v>45775.83333333334</v>
       </c>
       <c r="B82">
-        <v>-78</v>
+        <v>-15</v>
       </c>
       <c r="C82">
-        <v>2989.16</v>
+        <v>1336.5</v>
       </c>
       <c r="D82">
-        <v>2989.16</v>
+        <v>1336.5</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45757.84375</v>
+        <v>45775.84375</v>
       </c>
       <c r="B83">
-        <v>-71</v>
+        <v>-2</v>
       </c>
       <c r="C83">
-        <v>1341.04</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1341.04</v>
+        <v>898.3</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45757.85416666666</v>
+        <v>45775.85416666666</v>
       </c>
       <c r="B84">
-        <v>-83</v>
+        <v>-12</v>
       </c>
       <c r="C84">
-        <v>1320.43</v>
+        <v>1225.14</v>
       </c>
       <c r="D84">
-        <v>1320.43</v>
+        <v>1225.14</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45757.86458333334</v>
+        <v>45775.86458333334</v>
       </c>
       <c r="B85">
-        <v>-72</v>
+        <v>-1</v>
       </c>
       <c r="C85">
-        <v>1353.28</v>
+        <v>378.98</v>
       </c>
       <c r="D85">
-        <v>1353.28</v>
+        <v>1013.57</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45757.875</v>
+        <v>45775.875</v>
       </c>
       <c r="B86">
-        <v>-102</v>
+        <v>-26</v>
       </c>
       <c r="C86">
-        <v>1880.55</v>
+        <v>1277.36</v>
       </c>
       <c r="D86">
-        <v>1880.55</v>
+        <v>1277.36</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45757.88541666666</v>
+        <v>45775.88541666666</v>
       </c>
       <c r="B87">
-        <v>-59</v>
+        <v>-1</v>
       </c>
       <c r="C87">
-        <v>2405.08</v>
+        <v>346.45</v>
       </c>
       <c r="D87">
-        <v>2405.08</v>
+        <v>892.27</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45757.89583333334</v>
+        <v>45775.89583333334</v>
       </c>
       <c r="B88">
-        <v>-53</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>6318.5</v>
+        <v>34.72</v>
       </c>
       <c r="D88">
-        <v>6318.5</v>
+        <v>34.72</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45757.90625</v>
+        <v>45775.90625</v>
       </c>
       <c r="B89">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C89">
-        <v>-4499</v>
+        <v>-1629.49</v>
       </c>
       <c r="D89">
-        <v>1126.25</v>
+        <v>-1629.49</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45757.91666666666</v>
+        <v>45775.91666666666</v>
       </c>
       <c r="B90">
-        <v>-16</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>6379.6</v>
+        <v>-985.23</v>
       </c>
       <c r="D90">
-        <v>6379.6</v>
+        <v>-985.23</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45757.92708333334</v>
+        <v>45775.92708333334</v>
       </c>
       <c r="B91">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>985.61</v>
+        <v>224.87</v>
       </c>
       <c r="D91">
-        <v>985.61</v>
+        <v>224.87</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45757.9375</v>
+        <v>45775.9375</v>
       </c>
       <c r="B92">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>935.89</v>
+        <v>33.19</v>
       </c>
       <c r="D92">
-        <v>935.89</v>
+        <v>33.19</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45757.94791666666</v>
+        <v>45775.94791666666</v>
       </c>
       <c r="B93">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="C93">
-        <v>899.47</v>
+        <v>112.33</v>
       </c>
       <c r="D93">
-        <v>899.47</v>
+        <v>112.33</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45757.95833333334</v>
+        <v>45775.95833333334</v>
       </c>
       <c r="B94">
-        <v>-31</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>5472.93</v>
+        <v>246.15</v>
       </c>
       <c r="D94">
-        <v>5472.93</v>
+        <v>712.9400000000001</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45757.96875</v>
+        <v>45775.96875</v>
       </c>
       <c r="B95">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>3245.96</v>
+        <v>207.19</v>
       </c>
       <c r="D95">
-        <v>3245.96</v>
+        <v>207.19</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45757.97916666666</v>
+        <v>45775.97916666666</v>
       </c>
       <c r="B96">
-        <v>-20</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>1204.14</v>
+        <v>140.25</v>
       </c>
       <c r="D96">
-        <v>1204.14</v>
+        <v>140.25</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45757.98958333334</v>
+        <v>45775.98958333334</v>
       </c>
       <c r="B97">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>866.58</v>
+        <v>297.51</v>
       </c>
       <c r="D97">
-        <v>866.58</v>
+        <v>737.08</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45758</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="C98">
-        <v>1624.43</v>
+        <v>392.12</v>
       </c>
       <c r="D98">
-        <v>1624.43</v>
+        <v>828.65</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B99">
-        <v>-16</v>
+        <v>-0</v>
       </c>
       <c r="C99">
-        <v>1077.59</v>
+        <v>400</v>
       </c>
       <c r="D99">
-        <v>1077.59</v>
+        <v>706.79</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B100">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>837.3200000000001</v>
+        <v>242.17</v>
       </c>
       <c r="D100">
-        <v>837.3200000000001</v>
+        <v>700</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B101">
         <v>-1</v>
       </c>
       <c r="C101">
-        <v>390</v>
+        <v>317.31</v>
       </c>
       <c r="D101">
-        <v>742.45</v>
+        <v>742.6</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B102">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="C102">
-        <v>822.9</v>
+        <v>898.05</v>
       </c>
       <c r="D102">
-        <v>822.9</v>
+        <v>898.05</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B103">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>787.1</v>
+        <v>242.6</v>
       </c>
       <c r="D103">
-        <v>787.1</v>
+        <v>741.78</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B104">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>860.6799999999999</v>
+        <v>37.84</v>
       </c>
       <c r="D104">
-        <v>860.6799999999999</v>
+        <v>37.84</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B105">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>809.95</v>
+        <v>196.62</v>
       </c>
       <c r="D105">
-        <v>809.95</v>
+        <v>196.62</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B106">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>784.45</v>
+        <v>299.35</v>
       </c>
       <c r="D106">
-        <v>784.45</v>
+        <v>700</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B107">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>886.64</v>
+        <v>374.22</v>
       </c>
       <c r="D107">
-        <v>886.64</v>
+        <v>717.6</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B108">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>812.95</v>
+        <v>399.61</v>
       </c>
       <c r="D108">
-        <v>812.95</v>
+        <v>713.54</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B109">
-        <v>-18</v>
+        <v>-0</v>
       </c>
       <c r="C109">
-        <v>948.98</v>
+        <v>145</v>
       </c>
       <c r="D109">
-        <v>948.98</v>
+        <v>700</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B110">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>3361.13</v>
+        <v>206.48</v>
       </c>
       <c r="D110">
-        <v>3361.13</v>
+        <v>700</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B111">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>812.1799999999999</v>
+        <v>285.92</v>
       </c>
       <c r="D111">
-        <v>812.1799999999999</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B112">
-        <v>-7</v>
+        <v>-0</v>
       </c>
       <c r="C112">
-        <v>786.76</v>
+        <v>380.95</v>
       </c>
       <c r="D112">
-        <v>786.76</v>
+        <v>728.3</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B113">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="C113">
-        <v>864.87</v>
+        <v>400</v>
       </c>
       <c r="D113">
-        <v>864.87</v>
+        <v>740.73</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B114">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>196.67</v>
+        <v>397.37</v>
       </c>
       <c r="D114">
-        <v>771.47</v>
+        <v>722.65</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B115">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>877.6900000000001</v>
+        <v>380.75</v>
       </c>
       <c r="D115">
-        <v>877.6900000000001</v>
+        <v>729.77</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B116">
-        <v>-22</v>
+        <v>-1</v>
       </c>
       <c r="C116">
-        <v>3853.45</v>
+        <v>400</v>
       </c>
       <c r="D116">
-        <v>3853.45</v>
+        <v>777.27</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B117">
-        <v>-44</v>
+        <v>-6</v>
       </c>
       <c r="C117">
-        <v>6446.09</v>
+        <v>843.92</v>
       </c>
       <c r="D117">
-        <v>6446.09</v>
+        <v>843.92</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B118">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="C118">
-        <v>2348.1</v>
+        <v>162.83</v>
       </c>
       <c r="D118">
-        <v>2348.1</v>
+        <v>742.89</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B119">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>869.73</v>
+        <v>-57.06</v>
       </c>
       <c r="D119">
-        <v>869.73</v>
+        <v>-57.06</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B120">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>5431.15</v>
+        <v>215.16</v>
       </c>
       <c r="D120">
-        <v>5431.15</v>
+        <v>215.16</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B121">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>6882.01</v>
+        <v>219.51</v>
       </c>
       <c r="D121">
-        <v>6882.01</v>
+        <v>700</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B122">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="C122">
-        <v>982.38</v>
+        <v>-1932.58</v>
       </c>
       <c r="D122">
-        <v>982.38</v>
+        <v>-1932.58</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B123">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>3454.67</v>
+        <v>145.71</v>
       </c>
       <c r="D123">
-        <v>3454.67</v>
+        <v>145.71</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B124">
-        <v>-40</v>
+        <v>13</v>
       </c>
       <c r="C124">
-        <v>6937.05</v>
+        <v>-32.82</v>
       </c>
       <c r="D124">
-        <v>6937.05</v>
+        <v>-32.82</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B125">
-        <v>-47</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>1422.47</v>
+        <v>-192.41</v>
       </c>
       <c r="D125">
-        <v>1422.47</v>
+        <v>-192.41</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B126">
-        <v>-48</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>3367.02</v>
+        <v>227.69</v>
       </c>
       <c r="D126">
-        <v>3367.02</v>
+        <v>823.71</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B127">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>4155.95</v>
+        <v>330.73</v>
       </c>
       <c r="D127">
-        <v>4155.95</v>
+        <v>751.4299999999999</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B128">
-        <v>-114</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>2381.89</v>
+        <v>-2377.61</v>
       </c>
       <c r="D128">
-        <v>2381.89</v>
+        <v>-2377.61</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B129">
-        <v>-91</v>
+        <v>40</v>
       </c>
       <c r="C129">
-        <v>1692</v>
+        <v>-6067.92</v>
       </c>
       <c r="D129">
-        <v>1692</v>
+        <v>-6067.92</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B130">
-        <v>-115</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>880.27</v>
+        <v>31.28</v>
       </c>
       <c r="D130">
-        <v>880.27</v>
+        <v>31.28</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B131">
-        <v>-114</v>
+        <v>2</v>
       </c>
       <c r="C131">
-        <v>800</v>
+        <v>-1494.98</v>
       </c>
       <c r="D131">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B132">
-        <v>-104</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>805.62</v>
+        <v>-2853.56</v>
       </c>
       <c r="D132">
-        <v>805.62</v>
+        <v>-2853.56</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B133">
-        <v>-74</v>
+        <v>63</v>
       </c>
       <c r="C133">
-        <v>2060.9</v>
+        <v>-2663.31</v>
       </c>
       <c r="D133">
-        <v>2060.9</v>
+        <v>-2663.31</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-362.32</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-362.32</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>28.04.202593</t>
-  </si>
-  <si>
-    <t>28.04.202594</t>
-  </si>
-  <si>
-    <t>28.04.202595</t>
-  </si>
-  <si>
-    <t>28.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
-  </si>
-  <si>
-    <t>29.04.202535</t>
-  </si>
-  <si>
-    <t>29.04.202536</t>
-  </si>
-  <si>
-    <t>29.04.202537</t>
-  </si>
-  <si>
-    <t>29.04.202538</t>
-  </si>
-  <si>
-    <t>29.04.202539</t>
-  </si>
-  <si>
-    <t>29.04.202540</t>
-  </si>
-  <si>
-    <t>29.04.202541</t>
-  </si>
-  <si>
-    <t>29.04.202542</t>
-  </si>
-  <si>
-    <t>29.04.202543</t>
-  </si>
-  <si>
-    <t>29.04.202544</t>
-  </si>
-  <si>
-    <t>29.04.202545</t>
-  </si>
-  <si>
-    <t>29.04.202546</t>
-  </si>
-  <si>
-    <t>29.04.202547</t>
-  </si>
-  <si>
-    <t>29.04.202548</t>
-  </si>
-  <si>
-    <t>29.04.202549</t>
-  </si>
-  <si>
-    <t>29.04.202550</t>
-  </si>
-  <si>
-    <t>29.04.202551</t>
-  </si>
-  <si>
-    <t>29.04.202552</t>
-  </si>
-  <si>
-    <t>29.04.202553</t>
-  </si>
-  <si>
-    <t>29.04.202554</t>
-  </si>
-  <si>
-    <t>29.04.202555</t>
-  </si>
-  <si>
-    <t>29.04.202556</t>
-  </si>
-  <si>
-    <t>29.04.202557</t>
-  </si>
-  <si>
-    <t>29.04.202558</t>
-  </si>
-  <si>
-    <t>29.04.202559</t>
-  </si>
-  <si>
-    <t>29.04.202560</t>
-  </si>
-  <si>
-    <t>29.04.202561</t>
-  </si>
-  <si>
-    <t>29.04.202562</t>
-  </si>
-  <si>
-    <t>29.04.202563</t>
-  </si>
-  <si>
-    <t>29.04.202564</t>
-  </si>
-  <si>
-    <t>29.04.202565</t>
-  </si>
-  <si>
-    <t>29.04.202566</t>
-  </si>
-  <si>
-    <t>29.04.202567</t>
-  </si>
-  <si>
-    <t>29.04.202568</t>
-  </si>
-  <si>
-    <t>29.04.202569</t>
-  </si>
-  <si>
-    <t>29.04.202570</t>
-  </si>
-  <si>
-    <t>29.04.202571</t>
-  </si>
-  <si>
-    <t>29.04.202572</t>
-  </si>
-  <si>
-    <t>29.04.202573</t>
-  </si>
-  <si>
-    <t>29.04.202574</t>
-  </si>
-  <si>
-    <t>29.04.202575</t>
-  </si>
-  <si>
-    <t>29.04.202576</t>
-  </si>
-  <si>
-    <t>29.04.202577</t>
-  </si>
-  <si>
-    <t>29.04.202578</t>
-  </si>
-  <si>
-    <t>29.04.202579</t>
-  </si>
-  <si>
-    <t>29.04.202580</t>
-  </si>
-  <si>
-    <t>29.04.202581</t>
-  </si>
-  <si>
-    <t>29.04.202582</t>
-  </si>
-  <si>
-    <t>29.04.202583</t>
-  </si>
-  <si>
-    <t>29.04.202584</t>
-  </si>
-  <si>
-    <t>29.04.202585</t>
-  </si>
-  <si>
-    <t>29.04.202586</t>
-  </si>
-  <si>
-    <t>29.04.202587</t>
-  </si>
-  <si>
-    <t>29.04.202588</t>
-  </si>
-  <si>
-    <t>29.04.202589</t>
-  </si>
-  <si>
-    <t>29.04.202590</t>
-  </si>
-  <si>
-    <t>29.04.202591</t>
-  </si>
-  <si>
-    <t>29.04.202592</t>
-  </si>
-  <si>
-    <t>29.04.202593</t>
-  </si>
-  <si>
-    <t>29.04.202594</t>
-  </si>
-  <si>
-    <t>29.04.202595</t>
-  </si>
-  <si>
-    <t>29.04.202596</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>08.05.202593</t>
+  </si>
+  <si>
+    <t>08.05.202594</t>
+  </si>
+  <si>
+    <t>08.05.202595</t>
+  </si>
+  <si>
+    <t>08.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>09.05.202524</t>
+  </si>
+  <si>
+    <t>09.05.202525</t>
+  </si>
+  <si>
+    <t>09.05.202526</t>
+  </si>
+  <si>
+    <t>09.05.202527</t>
+  </si>
+  <si>
+    <t>09.05.202528</t>
+  </si>
+  <si>
+    <t>09.05.202529</t>
+  </si>
+  <si>
+    <t>09.05.202530</t>
+  </si>
+  <si>
+    <t>09.05.202531</t>
+  </si>
+  <si>
+    <t>09.05.202532</t>
+  </si>
+  <si>
+    <t>09.05.202533</t>
+  </si>
+  <si>
+    <t>09.05.202534</t>
+  </si>
+  <si>
+    <t>09.05.202535</t>
+  </si>
+  <si>
+    <t>09.05.202536</t>
+  </si>
+  <si>
+    <t>09.05.202537</t>
+  </si>
+  <si>
+    <t>09.05.202538</t>
+  </si>
+  <si>
+    <t>09.05.202539</t>
+  </si>
+  <si>
+    <t>09.05.202540</t>
+  </si>
+  <si>
+    <t>09.05.202541</t>
+  </si>
+  <si>
+    <t>09.05.202542</t>
+  </si>
+  <si>
+    <t>09.05.202543</t>
+  </si>
+  <si>
+    <t>09.05.202544</t>
+  </si>
+  <si>
+    <t>09.05.202545</t>
+  </si>
+  <si>
+    <t>09.05.202546</t>
+  </si>
+  <si>
+    <t>09.05.202547</t>
+  </si>
+  <si>
+    <t>09.05.202548</t>
+  </si>
+  <si>
+    <t>09.05.202549</t>
+  </si>
+  <si>
+    <t>09.05.202550</t>
+  </si>
+  <si>
+    <t>09.05.202551</t>
+  </si>
+  <si>
+    <t>09.05.202552</t>
+  </si>
+  <si>
+    <t>09.05.202553</t>
+  </si>
+  <si>
+    <t>09.05.202554</t>
+  </si>
+  <si>
+    <t>09.05.202555</t>
+  </si>
+  <si>
+    <t>09.05.202556</t>
+  </si>
+  <si>
+    <t>09.05.202557</t>
+  </si>
+  <si>
+    <t>09.05.202558</t>
+  </si>
+  <si>
+    <t>09.05.202559</t>
+  </si>
+  <si>
+    <t>09.05.202560</t>
+  </si>
+  <si>
+    <t>09.05.202561</t>
+  </si>
+  <si>
+    <t>09.05.202562</t>
+  </si>
+  <si>
+    <t>09.05.202563</t>
+  </si>
+  <si>
+    <t>09.05.202564</t>
+  </si>
+  <si>
+    <t>09.05.202565</t>
+  </si>
+  <si>
+    <t>09.05.202566</t>
+  </si>
+  <si>
+    <t>09.05.202567</t>
+  </si>
+  <si>
+    <t>09.05.202568</t>
+  </si>
+  <si>
+    <t>09.05.202569</t>
+  </si>
+  <si>
+    <t>09.05.202570</t>
+  </si>
+  <si>
+    <t>09.05.202571</t>
+  </si>
+  <si>
+    <t>09.05.202572</t>
+  </si>
+  <si>
+    <t>09.05.202573</t>
+  </si>
+  <si>
+    <t>09.05.202574</t>
+  </si>
+  <si>
+    <t>09.05.202575</t>
+  </si>
+  <si>
+    <t>09.05.202576</t>
+  </si>
+  <si>
+    <t>09.05.202577</t>
+  </si>
+  <si>
+    <t>09.05.202578</t>
+  </si>
+  <si>
+    <t>09.05.202579</t>
+  </si>
+  <si>
+    <t>09.05.202580</t>
+  </si>
+  <si>
+    <t>09.05.202581</t>
+  </si>
+  <si>
+    <t>09.05.202582</t>
+  </si>
+  <si>
+    <t>09.05.202583</t>
+  </si>
+  <si>
+    <t>09.05.202584</t>
+  </si>
+  <si>
+    <t>09.05.202585</t>
+  </si>
+  <si>
+    <t>09.05.202586</t>
+  </si>
+  <si>
+    <t>09.05.202587</t>
+  </si>
+  <si>
+    <t>09.05.202588</t>
+  </si>
+  <si>
+    <t>09.05.202589</t>
+  </si>
+  <si>
+    <t>09.05.202590</t>
+  </si>
+  <si>
+    <t>09.05.202591</t>
+  </si>
+  <si>
+    <t>09.05.202592</t>
+  </si>
+  <si>
+    <t>09.05.202593</t>
+  </si>
+  <si>
+    <t>09.05.202594</t>
+  </si>
+  <si>
+    <t>09.05.202595</t>
+  </si>
+  <si>
+    <t>09.05.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>382.16</v>
+        <v>371.42</v>
       </c>
       <c r="D6">
-        <v>813.27</v>
+        <v>717.4</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>887.83</v>
+        <v>228.56</v>
       </c>
       <c r="D7">
-        <v>887.83</v>
+        <v>228.56</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>887.74</v>
+        <v>358.81</v>
       </c>
       <c r="D8">
-        <v>887.74</v>
+        <v>700</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>236.23</v>
+        <v>259.92</v>
       </c>
       <c r="D9">
-        <v>886.67</v>
+        <v>700</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>866.01</v>
+        <v>313.99</v>
       </c>
       <c r="D10">
-        <v>866.01</v>
+        <v>700</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>866.29</v>
+        <v>210.36</v>
       </c>
       <c r="D11">
-        <v>866.29</v>
+        <v>210.36</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>870.72</v>
+        <v>240.88</v>
       </c>
       <c r="D12">
-        <v>870.72</v>
+        <v>240.88</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>866.29</v>
+        <v>203.08</v>
       </c>
       <c r="D13">
-        <v>866.29</v>
+        <v>203.08</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>378.79</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>873.0700000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>881.51</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>881.51</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>892.61</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>892.61</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>918.72</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>918.72</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>283.03</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>894.9400000000001</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>898.97</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="C20">
-        <v>900.5700000000001</v>
+        <v>-2855.16</v>
       </c>
       <c r="D20">
-        <v>900.5700000000001</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>898.77</v>
+        <v>255.1</v>
       </c>
       <c r="D21">
-        <v>898.77</v>
+        <v>255.1</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>210.56</v>
+        <v>177.35</v>
       </c>
       <c r="D22">
-        <v>746.15</v>
+        <v>177.35</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>108.78</v>
+        <v>346.45</v>
       </c>
       <c r="D23">
-        <v>108.78</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>930.52</v>
+        <v>365.86</v>
       </c>
       <c r="D24">
-        <v>930.52</v>
+        <v>753.83</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="C25">
-        <v>1146.49</v>
+        <v>1000.75</v>
       </c>
       <c r="D25">
-        <v>1146.49</v>
+        <v>1000.75</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>1191.85</v>
+        <v>305.18</v>
       </c>
       <c r="D26">
-        <v>1191.85</v>
+        <v>751.5599999999999</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1108.57</v>
+        <v>373.14</v>
       </c>
       <c r="D27">
-        <v>1108.57</v>
+        <v>719.21</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>-10</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>1100.71</v>
+        <v>80.16</v>
       </c>
       <c r="D28">
-        <v>1100.71</v>
+        <v>80.16</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>899.1</v>
+        <v>168.55</v>
       </c>
       <c r="D29">
-        <v>899.1</v>
+        <v>168.55</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>289.3</v>
+        <v>372.27</v>
       </c>
       <c r="D30">
-        <v>888.72</v>
+        <v>741.67</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-137.69</v>
+        <v>385.87</v>
       </c>
       <c r="D31">
-        <v>-137.69</v>
+        <v>730.6900000000001</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>-0</v>
       </c>
       <c r="C32">
-        <v>-3655.74</v>
+        <v>392.8</v>
       </c>
       <c r="D32">
-        <v>-3655.74</v>
+        <v>751.74</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>-4460.13</v>
+        <v>363.8</v>
       </c>
       <c r="D33">
-        <v>-4460.13</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>170.12</v>
+        <v>371.1</v>
       </c>
       <c r="D34">
-        <v>919.73</v>
+        <v>800</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>-1058.2</v>
+        <v>252.13</v>
       </c>
       <c r="D35">
-        <v>-1058.2</v>
+        <v>252.13</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36">
-        <v>-1242.36</v>
+        <v>259.94</v>
       </c>
       <c r="D36">
-        <v>-1242.36</v>
+        <v>259.94</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>-5176.79</v>
+        <v>-78.64</v>
       </c>
       <c r="D37">
-        <v>-5176.79</v>
+        <v>-78.64</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>31.11</v>
+        <v>3333.41</v>
       </c>
       <c r="D38">
-        <v>31.11</v>
+        <v>3333.41</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>-3138.2</v>
+        <v>4967.75</v>
       </c>
       <c r="D39">
-        <v>-3138.2</v>
+        <v>4967.75</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>-6281.07</v>
+        <v>6866.32</v>
       </c>
       <c r="D40">
-        <v>-6281.07</v>
+        <v>6866.32</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>-6815.32</v>
+        <v>1220.69</v>
       </c>
       <c r="D41">
-        <v>-6815.32</v>
+        <v>1220.69</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>-135.92</v>
+        <v>308.46</v>
       </c>
       <c r="D42">
-        <v>-135.92</v>
+        <v>799</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>-52.12</v>
+        <v>220.7</v>
       </c>
       <c r="D43">
-        <v>-52.12</v>
+        <v>220.7</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>-475.59</v>
+        <v>361</v>
       </c>
       <c r="D44">
-        <v>-475.59</v>
+        <v>859.58</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>-304.83</v>
+        <v>137.18</v>
       </c>
       <c r="D45">
-        <v>-304.83</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>-36.27</v>
+        <v>118.88</v>
       </c>
       <c r="D46">
-        <v>-36.27</v>
+        <v>118.88</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>-86.45999999999999</v>
+        <v>156.52</v>
       </c>
       <c r="D47">
-        <v>-86.45999999999999</v>
+        <v>156.52</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>-25.82</v>
+        <v>190.07</v>
       </c>
       <c r="D48">
-        <v>-25.82</v>
+        <v>744</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1.62</v>
+        <v>190.24</v>
       </c>
       <c r="D49">
-        <v>1.62</v>
+        <v>744</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>190.24</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>744</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.89</v>
+        <v>190.02</v>
       </c>
       <c r="D51">
-        <v>0.89</v>
+        <v>744</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>-4</v>
       </c>
       <c r="C52">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2.3</v>
+        <v>779.79</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>67</v>
+        <v>-9</v>
       </c>
       <c r="C53">
-        <v>0.1</v>
+        <v>798.46</v>
       </c>
       <c r="D53">
-        <v>0.1</v>
+        <v>798.46</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>-30</v>
       </c>
       <c r="C54">
-        <v>4.95</v>
+        <v>3605.01</v>
       </c>
       <c r="D54">
-        <v>4.95</v>
+        <v>3605.01</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>56</v>
+        <v>-22</v>
       </c>
       <c r="C55">
-        <v>11.24</v>
+        <v>1341.39</v>
       </c>
       <c r="D55">
-        <v>11.24</v>
+        <v>1341.39</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>59</v>
+        <v>-3</v>
       </c>
       <c r="C56">
-        <v>-140.14</v>
+        <v>761.3099999999999</v>
       </c>
       <c r="D56">
-        <v>-140.14</v>
+        <v>761.3099999999999</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>-3</v>
       </c>
       <c r="C57">
-        <v>-558.47</v>
+        <v>784.39</v>
       </c>
       <c r="D57">
-        <v>-558.47</v>
+        <v>784.39</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>4.43</v>
+        <v>201.95</v>
       </c>
       <c r="D58">
-        <v>4.43</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-4.04</v>
+        <v>290.3</v>
       </c>
       <c r="D59">
-        <v>-4.04</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>0.3</v>
+        <v>197.21</v>
       </c>
       <c r="D60">
-        <v>0.3</v>
+        <v>743.61</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>-87.51000000000001</v>
+        <v>190.22</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>743.8</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>-2076.18</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="D62">
-        <v>-2076.18</v>
+        <v>-8.369999999999999</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>-4499</v>
+        <v>-0.41</v>
       </c>
       <c r="D63">
-        <v>-4499</v>
+        <v>-0.41</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C64">
-        <v>-1286.7</v>
+        <v>-1687.2</v>
       </c>
       <c r="D64">
-        <v>-1286.7</v>
+        <v>-1687.2</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C65">
-        <v>4.07</v>
+        <v>-1043.87</v>
       </c>
       <c r="D65">
-        <v>4.07</v>
+        <v>-1043.87</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>106</v>
+        <v>-6</v>
       </c>
       <c r="C66">
-        <v>-1169.52</v>
+        <v>932.24</v>
       </c>
       <c r="D66">
-        <v>-1169.52</v>
+        <v>932.24</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>1.96</v>
+        <v>361</v>
       </c>
       <c r="D67">
-        <v>1.96</v>
+        <v>821.49</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>94</v>
+        <v>-18</v>
       </c>
       <c r="C68">
-        <v>-849.83</v>
+        <v>2440.15</v>
       </c>
       <c r="D68">
-        <v>-849.83</v>
+        <v>2440.15</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>56</v>
+        <v>-39</v>
       </c>
       <c r="C69">
-        <v>-1440.73</v>
+        <v>4506.17</v>
       </c>
       <c r="D69">
-        <v>-1440.73</v>
+        <v>4506.17</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>-27</v>
       </c>
       <c r="C70">
-        <v>-18.92</v>
+        <v>4284.55</v>
       </c>
       <c r="D70">
-        <v>-18.92</v>
+        <v>4284.55</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>52</v>
+        <v>-29</v>
       </c>
       <c r="C71">
-        <v>-62.41</v>
+        <v>3243.53</v>
       </c>
       <c r="D71">
-        <v>-62.41</v>
+        <v>3243.53</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>-6</v>
+        <v>-60</v>
       </c>
       <c r="C72">
-        <v>867.54</v>
+        <v>1165.67</v>
       </c>
       <c r="D72">
-        <v>867.54</v>
+        <v>1165.67</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>-12</v>
+        <v>-48</v>
       </c>
       <c r="C73">
-        <v>923.58</v>
+        <v>1025.56</v>
       </c>
       <c r="D73">
-        <v>923.58</v>
+        <v>1025.56</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>14</v>
+        <v>-17</v>
       </c>
       <c r="C74">
-        <v>-1274.94</v>
+        <v>1783.18</v>
       </c>
       <c r="D74">
-        <v>-1274.94</v>
+        <v>1783.18</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="C75">
-        <v>365.83</v>
+        <v>1323.11</v>
       </c>
       <c r="D75">
-        <v>995.38</v>
+        <v>1323.11</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="C76">
-        <v>987.02</v>
+        <v>1179.4</v>
       </c>
       <c r="D76">
-        <v>987.02</v>
+        <v>1179.4</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>-35</v>
+        <v>-18</v>
       </c>
       <c r="C77">
-        <v>3277.03</v>
+        <v>1228.79</v>
       </c>
       <c r="D77">
-        <v>3277.03</v>
+        <v>1228.79</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="C78">
-        <v>298.69</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>899.54</v>
+        <v>926.25</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>-6</v>
+        <v>-0</v>
       </c>
       <c r="C79">
-        <v>-3099.13</v>
+        <v>379.76</v>
       </c>
       <c r="D79">
-        <v>1203.81</v>
+        <v>877.1799999999999</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="C80">
-        <v>1211.35</v>
+        <v>380.91</v>
       </c>
       <c r="D80">
-        <v>1211.35</v>
+        <v>885.08</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>1203.22</v>
+        <v>381.9</v>
       </c>
       <c r="D81">
-        <v>1203.22</v>
+        <v>700</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>-15</v>
+        <v>-0</v>
       </c>
       <c r="C82">
-        <v>1336.5</v>
+        <v>398.58</v>
       </c>
       <c r="D82">
-        <v>1336.5</v>
+        <v>738.63</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>396.25</v>
       </c>
       <c r="D83">
-        <v>898.3</v>
+        <v>898.04</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>-12</v>
+        <v>-0</v>
       </c>
       <c r="C84">
-        <v>1225.14</v>
+        <v>390.53</v>
       </c>
       <c r="D84">
-        <v>1225.14</v>
+        <v>809.8200000000001</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>378.98</v>
+        <v>351.78</v>
       </c>
       <c r="D85">
-        <v>1013.57</v>
+        <v>763.04</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>-26</v>
+        <v>-4</v>
       </c>
       <c r="C86">
-        <v>1277.36</v>
+        <v>1227.49</v>
       </c>
       <c r="D86">
-        <v>1277.36</v>
+        <v>1227.49</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C87">
-        <v>346.45</v>
+        <v>260.32</v>
       </c>
       <c r="D87">
-        <v>892.27</v>
+        <v>1063.37</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>34.72</v>
+        <v>248.38</v>
       </c>
       <c r="D88">
-        <v>34.72</v>
+        <v>248.38</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>-1629.49</v>
+        <v>-839.15</v>
       </c>
       <c r="D89">
-        <v>-1629.49</v>
+        <v>-839.15</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C90">
-        <v>-985.23</v>
+        <v>-433.66</v>
       </c>
       <c r="D90">
-        <v>-985.23</v>
+        <v>-433.66</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C91">
-        <v>224.87</v>
+        <v>-3698.99</v>
       </c>
       <c r="D91">
-        <v>224.87</v>
+        <v>-3698.99</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C92">
-        <v>33.19</v>
+        <v>-323.92</v>
       </c>
       <c r="D92">
-        <v>33.19</v>
+        <v>-323.92</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C93">
-        <v>112.33</v>
+        <v>-221.94</v>
       </c>
       <c r="D93">
-        <v>112.33</v>
+        <v>-221.94</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C94">
-        <v>246.15</v>
+        <v>-2289.52</v>
       </c>
       <c r="D94">
-        <v>712.9400000000001</v>
+        <v>-2289.52</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>207.19</v>
+        <v>-12045.6</v>
       </c>
       <c r="D95">
-        <v>207.19</v>
+        <v>-12045.6</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C96">
-        <v>140.25</v>
+        <v>-3103.55</v>
       </c>
       <c r="D96">
-        <v>140.25</v>
+        <v>-3103.55</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="C97">
-        <v>297.51</v>
+        <v>305.18</v>
       </c>
       <c r="D97">
-        <v>737.08</v>
+        <v>982.49</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C98">
-        <v>392.12</v>
+        <v>286.97</v>
       </c>
       <c r="D98">
-        <v>828.65</v>
+        <v>1393.33</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B99">
-        <v>-0</v>
+        <v>-24</v>
       </c>
       <c r="C99">
-        <v>400</v>
+        <v>1520.51</v>
       </c>
       <c r="D99">
-        <v>706.79</v>
+        <v>1520.51</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>-17</v>
       </c>
       <c r="C100">
-        <v>242.17</v>
+        <v>986.78</v>
       </c>
       <c r="D100">
-        <v>700</v>
+        <v>986.78</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B101">
         <v>-1</v>
       </c>
       <c r="C101">
-        <v>317.31</v>
+        <v>253.57</v>
       </c>
       <c r="D101">
-        <v>742.6</v>
+        <v>795.45</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B102">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>898.05</v>
+        <v>289.74</v>
       </c>
       <c r="D102">
-        <v>898.05</v>
+        <v>700</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>242.6</v>
+        <v>204.05</v>
       </c>
       <c r="D103">
-        <v>741.78</v>
+        <v>204.05</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C104">
-        <v>37.84</v>
+        <v>-4.37</v>
       </c>
       <c r="D104">
-        <v>37.84</v>
+        <v>-4.37</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C105">
-        <v>196.62</v>
+        <v>2.51</v>
       </c>
       <c r="D105">
-        <v>196.62</v>
+        <v>2.51</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C106">
-        <v>299.35</v>
+        <v>13.13</v>
       </c>
       <c r="D106">
-        <v>700</v>
+        <v>13.13</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C107">
-        <v>374.22</v>
+        <v>-7.11</v>
       </c>
       <c r="D107">
-        <v>717.6</v>
+        <v>-7.11</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C108">
-        <v>399.61</v>
+        <v>0.7</v>
       </c>
       <c r="D108">
-        <v>713.54</v>
+        <v>5282.73</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B109">
-        <v>-0</v>
+        <v>-19</v>
       </c>
       <c r="C109">
-        <v>145</v>
+        <v>1574.14</v>
       </c>
       <c r="D109">
-        <v>700</v>
+        <v>1574.14</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>206.48</v>
+        <v>217.38</v>
       </c>
       <c r="D110">
-        <v>700</v>
+        <v>217.38</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C111">
-        <v>285.92</v>
+        <v>202.21</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>202.21</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B112">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="C112">
-        <v>380.95</v>
+        <v>101.4</v>
       </c>
       <c r="D112">
-        <v>728.3</v>
+        <v>101.4</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B113">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>400</v>
+        <v>130.17</v>
       </c>
       <c r="D113">
-        <v>740.73</v>
+        <v>130.17</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>397.37</v>
+        <v>2.21</v>
       </c>
       <c r="D114">
-        <v>722.65</v>
+        <v>2.21</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C115">
-        <v>380.75</v>
+        <v>-1219.88</v>
       </c>
       <c r="D115">
-        <v>729.77</v>
+        <v>-1219.88</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B116">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="C116">
-        <v>400</v>
+        <v>-1037.69</v>
       </c>
       <c r="D116">
-        <v>777.27</v>
+        <v>-1037.69</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B117">
-        <v>-6</v>
+        <v>52</v>
       </c>
       <c r="C117">
-        <v>843.92</v>
+        <v>26.29</v>
       </c>
       <c r="D117">
-        <v>843.92</v>
+        <v>26.29</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B118">
-        <v>-2</v>
+        <v>87</v>
       </c>
       <c r="C118">
-        <v>162.83</v>
+        <v>-0.38</v>
       </c>
       <c r="D118">
-        <v>742.89</v>
+        <v>-0.38</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C119">
-        <v>-57.06</v>
+        <v>-0.02</v>
       </c>
       <c r="D119">
-        <v>-57.06</v>
+        <v>-0.02</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C120">
-        <v>215.16</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D120">
-        <v>215.16</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C121">
-        <v>219.51</v>
+        <v>-155.91</v>
       </c>
       <c r="D121">
-        <v>700</v>
+        <v>-155.91</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C122">
-        <v>-1932.58</v>
+        <v>-7.93</v>
       </c>
       <c r="D122">
-        <v>-1932.58</v>
+        <v>-7.93</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>145.71</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>145.71</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B124">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>-32.82</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-32.82</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-192.41</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-192.41</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>227.69</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>823.71</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>330.73</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>751.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>-2377.61</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>-2377.61</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B129">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>-6067.92</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>-6067.92</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>31.28</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>31.28</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,13 +3577,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-1494.98</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>-2853.56</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>-2853.56</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B133">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>-2663.31</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>-2663.31</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B134">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>-362.32</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>-362.32</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>08.05.202593</t>
-  </si>
-  <si>
-    <t>08.05.202594</t>
-  </si>
-  <si>
-    <t>08.05.202595</t>
-  </si>
-  <si>
-    <t>08.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>09.05.202524</t>
-  </si>
-  <si>
-    <t>09.05.202525</t>
-  </si>
-  <si>
-    <t>09.05.202526</t>
-  </si>
-  <si>
-    <t>09.05.202527</t>
-  </si>
-  <si>
-    <t>09.05.202528</t>
-  </si>
-  <si>
-    <t>09.05.202529</t>
-  </si>
-  <si>
-    <t>09.05.202530</t>
-  </si>
-  <si>
-    <t>09.05.202531</t>
-  </si>
-  <si>
-    <t>09.05.202532</t>
-  </si>
-  <si>
-    <t>09.05.202533</t>
-  </si>
-  <si>
-    <t>09.05.202534</t>
-  </si>
-  <si>
-    <t>09.05.202535</t>
-  </si>
-  <si>
-    <t>09.05.202536</t>
-  </si>
-  <si>
-    <t>09.05.202537</t>
-  </si>
-  <si>
-    <t>09.05.202538</t>
-  </si>
-  <si>
-    <t>09.05.202539</t>
-  </si>
-  <si>
-    <t>09.05.202540</t>
-  </si>
-  <si>
-    <t>09.05.202541</t>
-  </si>
-  <si>
-    <t>09.05.202542</t>
-  </si>
-  <si>
-    <t>09.05.202543</t>
-  </si>
-  <si>
-    <t>09.05.202544</t>
-  </si>
-  <si>
-    <t>09.05.202545</t>
-  </si>
-  <si>
-    <t>09.05.202546</t>
-  </si>
-  <si>
-    <t>09.05.202547</t>
-  </si>
-  <si>
-    <t>09.05.202548</t>
-  </si>
-  <si>
-    <t>09.05.202549</t>
-  </si>
-  <si>
-    <t>09.05.202550</t>
-  </si>
-  <si>
-    <t>09.05.202551</t>
-  </si>
-  <si>
-    <t>09.05.202552</t>
-  </si>
-  <si>
-    <t>09.05.202553</t>
-  </si>
-  <si>
-    <t>09.05.202554</t>
-  </si>
-  <si>
-    <t>09.05.202555</t>
-  </si>
-  <si>
-    <t>09.05.202556</t>
-  </si>
-  <si>
-    <t>09.05.202557</t>
-  </si>
-  <si>
-    <t>09.05.202558</t>
-  </si>
-  <si>
-    <t>09.05.202559</t>
-  </si>
-  <si>
-    <t>09.05.202560</t>
-  </si>
-  <si>
-    <t>09.05.202561</t>
-  </si>
-  <si>
-    <t>09.05.202562</t>
-  </si>
-  <si>
-    <t>09.05.202563</t>
-  </si>
-  <si>
-    <t>09.05.202564</t>
-  </si>
-  <si>
-    <t>09.05.202565</t>
-  </si>
-  <si>
-    <t>09.05.202566</t>
-  </si>
-  <si>
-    <t>09.05.202567</t>
-  </si>
-  <si>
-    <t>09.05.202568</t>
-  </si>
-  <si>
-    <t>09.05.202569</t>
-  </si>
-  <si>
-    <t>09.05.202570</t>
-  </si>
-  <si>
-    <t>09.05.202571</t>
-  </si>
-  <si>
-    <t>09.05.202572</t>
-  </si>
-  <si>
-    <t>09.05.202573</t>
-  </si>
-  <si>
-    <t>09.05.202574</t>
-  </si>
-  <si>
-    <t>09.05.202575</t>
-  </si>
-  <si>
-    <t>09.05.202576</t>
-  </si>
-  <si>
-    <t>09.05.202577</t>
-  </si>
-  <si>
-    <t>09.05.202578</t>
-  </si>
-  <si>
-    <t>09.05.202579</t>
-  </si>
-  <si>
-    <t>09.05.202580</t>
-  </si>
-  <si>
-    <t>09.05.202581</t>
-  </si>
-  <si>
-    <t>09.05.202582</t>
-  </si>
-  <si>
-    <t>09.05.202583</t>
-  </si>
-  <si>
-    <t>09.05.202584</t>
-  </si>
-  <si>
-    <t>09.05.202585</t>
-  </si>
-  <si>
-    <t>09.05.202586</t>
-  </si>
-  <si>
-    <t>09.05.202587</t>
-  </si>
-  <si>
-    <t>09.05.202588</t>
-  </si>
-  <si>
-    <t>09.05.202589</t>
-  </si>
-  <si>
-    <t>09.05.202590</t>
-  </si>
-  <si>
-    <t>09.05.202591</t>
-  </si>
-  <si>
-    <t>09.05.202592</t>
-  </si>
-  <si>
-    <t>09.05.202593</t>
-  </si>
-  <si>
-    <t>09.05.202594</t>
-  </si>
-  <si>
-    <t>09.05.202595</t>
-  </si>
-  <si>
-    <t>09.05.202596</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>19.05.202593</t>
+  </si>
+  <si>
+    <t>19.05.202594</t>
+  </si>
+  <si>
+    <t>19.05.202595</t>
+  </si>
+  <si>
+    <t>19.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="C6">
-        <v>371.42</v>
+        <v>1039.09</v>
       </c>
       <c r="D6">
-        <v>717.4</v>
+        <v>1039.09</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>-41</v>
       </c>
       <c r="C7">
-        <v>228.56</v>
+        <v>1000.53</v>
       </c>
       <c r="D7">
-        <v>228.56</v>
+        <v>1000.53</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>-39</v>
       </c>
       <c r="C8">
-        <v>358.81</v>
+        <v>1083.9</v>
       </c>
       <c r="D8">
-        <v>700</v>
+        <v>1083.9</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="C9">
-        <v>259.92</v>
+        <v>1269.7</v>
       </c>
       <c r="D9">
-        <v>700</v>
+        <v>1269.7</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>-34</v>
       </c>
       <c r="C10">
-        <v>313.99</v>
+        <v>1068.2</v>
       </c>
       <c r="D10">
-        <v>700</v>
+        <v>1068.2</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>210.36</v>
+        <v>331.33</v>
       </c>
       <c r="D11">
-        <v>210.36</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>240.88</v>
+        <v>208.44</v>
       </c>
       <c r="D12">
-        <v>240.88</v>
+        <v>208.44</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>203.08</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>203.08</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>335.57</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>335.57</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>241.75</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>729.39</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>928.27</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>928.27</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1266.56</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1266.56</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>913.48</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>913.48</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1112.03</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1112.03</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="C20">
-        <v>-2855.16</v>
+        <v>804.65</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>804.65</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C21">
-        <v>255.1</v>
+        <v>220.28</v>
       </c>
       <c r="D21">
-        <v>255.1</v>
+        <v>738.08</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>177.35</v>
+        <v>28.61</v>
       </c>
       <c r="D22">
-        <v>177.35</v>
+        <v>28.61</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>346.45</v>
+        <v>217.14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>365.86</v>
+        <v>159.53</v>
       </c>
       <c r="D24">
-        <v>753.83</v>
+        <v>705.87</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>1000.75</v>
+        <v>167.51</v>
       </c>
       <c r="D25">
-        <v>1000.75</v>
+        <v>700</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>305.18</v>
+        <v>-176.79</v>
       </c>
       <c r="D26">
-        <v>751.5599999999999</v>
+        <v>-176.79</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>373.14</v>
+        <v>388.39</v>
       </c>
       <c r="D27">
-        <v>719.21</v>
+        <v>769.29</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>80.16</v>
+        <v>47.35</v>
       </c>
       <c r="D28">
-        <v>80.16</v>
+        <v>47.35</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>168.55</v>
+        <v>19.44</v>
       </c>
       <c r="D29">
-        <v>168.55</v>
+        <v>19.44</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>372.27</v>
+        <v>-70.81</v>
       </c>
       <c r="D30">
-        <v>741.67</v>
+        <v>-70.81</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <v>385.87</v>
+        <v>-227.78</v>
       </c>
       <c r="D31">
-        <v>730.6900000000001</v>
+        <v>-227.78</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>-0</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>392.8</v>
+        <v>12.58</v>
       </c>
       <c r="D32">
-        <v>751.74</v>
+        <v>12.58</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>363.8</v>
+        <v>11.64</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>11.64</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>371.1</v>
+        <v>17.49</v>
       </c>
       <c r="D34">
-        <v>800</v>
+        <v>17.49</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <v>252.13</v>
+        <v>-52.71</v>
       </c>
       <c r="D35">
-        <v>252.13</v>
+        <v>-52.71</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>259.94</v>
+        <v>-18.65</v>
       </c>
       <c r="D36">
-        <v>259.94</v>
+        <v>-18.65</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>-78.64</v>
+        <v>-1670.82</v>
       </c>
       <c r="D37">
-        <v>-78.64</v>
+        <v>-1670.82</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>3333.41</v>
+        <v>-10841.52</v>
       </c>
       <c r="D38">
-        <v>3333.41</v>
+        <v>-10841.52</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>4967.75</v>
+        <v>0.7</v>
       </c>
       <c r="D39">
-        <v>4967.75</v>
+        <v>5303.72</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>-29</v>
       </c>
       <c r="C40">
-        <v>6866.32</v>
+        <v>4620.63</v>
       </c>
       <c r="D40">
-        <v>6866.32</v>
+        <v>4620.63</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>-6</v>
       </c>
       <c r="C41">
-        <v>1220.69</v>
+        <v>390</v>
       </c>
       <c r="D41">
-        <v>1220.69</v>
+        <v>906.9400000000001</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="C42">
-        <v>308.46</v>
+        <v>240</v>
       </c>
       <c r="D42">
-        <v>799</v>
+        <v>4854.44</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>-80</v>
       </c>
       <c r="C43">
-        <v>220.7</v>
+        <v>821.4</v>
       </c>
       <c r="D43">
-        <v>220.7</v>
+        <v>821.4</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>-86</v>
       </c>
       <c r="C44">
-        <v>361</v>
+        <v>1620.21</v>
       </c>
       <c r="D44">
-        <v>859.58</v>
+        <v>1620.21</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>-65</v>
       </c>
       <c r="C45">
-        <v>137.18</v>
+        <v>6210.16</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>6210.16</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>-63</v>
       </c>
       <c r="C46">
-        <v>118.88</v>
+        <v>7466.3</v>
       </c>
       <c r="D46">
-        <v>118.88</v>
+        <v>7466.3</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>-120</v>
       </c>
       <c r="C47">
-        <v>156.52</v>
+        <v>7460.3</v>
       </c>
       <c r="D47">
-        <v>156.52</v>
+        <v>7460.3</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>190.07</v>
+        <v>-3164.65</v>
       </c>
       <c r="D48">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>190.24</v>
+        <v>-4079.37</v>
       </c>
       <c r="D49">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C50">
-        <v>190.24</v>
+        <v>-4499</v>
       </c>
       <c r="D50">
-        <v>744</v>
+        <v>-4499</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>190.02</v>
+        <v>-2110.37</v>
       </c>
       <c r="D51">
-        <v>744</v>
+        <v>-2110.37</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>159.86</v>
       </c>
       <c r="D52">
-        <v>779.79</v>
+        <v>725.27</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>798.46</v>
+        <v>213.83</v>
       </c>
       <c r="D53">
-        <v>798.46</v>
+        <v>743.0700000000001</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>-30</v>
+        <v>-11</v>
       </c>
       <c r="C54">
-        <v>3605.01</v>
+        <v>2693.33</v>
       </c>
       <c r="D54">
-        <v>3605.01</v>
+        <v>2693.33</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>-22</v>
+        <v>-4</v>
       </c>
       <c r="C55">
-        <v>1341.39</v>
+        <v>477.7</v>
       </c>
       <c r="D55">
-        <v>1341.39</v>
+        <v>477.7</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>761.3099999999999</v>
+        <v>152.44</v>
       </c>
       <c r="D56">
-        <v>761.3099999999999</v>
+        <v>475.52</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>784.39</v>
+        <v>10.97</v>
       </c>
       <c r="D57">
-        <v>784.39</v>
+        <v>10.97</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>201.95</v>
+        <v>114.05</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>490.85</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C59">
-        <v>290.3</v>
+        <v>390</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>490.85</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C60">
-        <v>197.21</v>
+        <v>308.31</v>
       </c>
       <c r="D60">
-        <v>743.61</v>
+        <v>490.85</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C61">
-        <v>190.22</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>743.8</v>
+        <v>490.85</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>-5</v>
       </c>
       <c r="C62">
-        <v>-8.369999999999999</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-8.369999999999999</v>
+        <v>686.08</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>52</v>
+        <v>-56</v>
       </c>
       <c r="C63">
-        <v>-0.41</v>
+        <v>780.01</v>
       </c>
       <c r="D63">
-        <v>-0.41</v>
+        <v>780.01</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>-42</v>
       </c>
       <c r="C64">
-        <v>-1687.2</v>
+        <v>595.38</v>
       </c>
       <c r="D64">
-        <v>-1687.2</v>
+        <v>595.38</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>-38</v>
       </c>
       <c r="C65">
-        <v>-1043.87</v>
+        <v>595.63</v>
       </c>
       <c r="D65">
-        <v>-1043.87</v>
+        <v>595.63</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>-6</v>
+        <v>-27</v>
       </c>
       <c r="C66">
-        <v>932.24</v>
+        <v>1990.28</v>
       </c>
       <c r="D66">
-        <v>932.24</v>
+        <v>1990.28</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C67">
-        <v>361</v>
+        <v>-1111.33</v>
       </c>
       <c r="D67">
-        <v>821.49</v>
+        <v>-1111.33</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>-18</v>
+        <v>-0</v>
       </c>
       <c r="C68">
-        <v>2440.15</v>
+        <v>378.87</v>
       </c>
       <c r="D68">
-        <v>2440.15</v>
+        <v>809.95</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>-39</v>
+        <v>-4</v>
       </c>
       <c r="C69">
-        <v>4506.17</v>
+        <v>901.52</v>
       </c>
       <c r="D69">
-        <v>4506.17</v>
+        <v>901.52</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>-27</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>4284.55</v>
+        <v>-1654.58</v>
       </c>
       <c r="D70">
-        <v>4284.55</v>
+        <v>-1654.58</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>3243.53</v>
+        <v>-76.52</v>
       </c>
       <c r="D71">
-        <v>3243.53</v>
+        <v>-76.52</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>-60</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>1165.67</v>
+        <v>0.6</v>
       </c>
       <c r="D72">
-        <v>1165.67</v>
+        <v>1045.43</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>-48</v>
+        <v>-18</v>
       </c>
       <c r="C73">
-        <v>1025.56</v>
+        <v>990.86</v>
       </c>
       <c r="D73">
-        <v>1025.56</v>
+        <v>990.86</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
-        <v>-17</v>
+        <v>27</v>
       </c>
       <c r="C74">
-        <v>1783.18</v>
+        <v>-4311.36</v>
       </c>
       <c r="D74">
-        <v>1783.18</v>
+        <v>-4311.36</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>1323.11</v>
+        <v>-2619.82</v>
       </c>
       <c r="D75">
-        <v>1323.11</v>
+        <v>-2619.82</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>1179.4</v>
+        <v>58.48</v>
       </c>
       <c r="D76">
-        <v>1179.4</v>
+        <v>5751.72</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>-18</v>
+        <v>33</v>
       </c>
       <c r="C77">
-        <v>1228.79</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1228.79</v>
+        <v>7001</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>-5</v>
+        <v>-64</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1858.12</v>
       </c>
       <c r="D78">
-        <v>926.25</v>
+        <v>1858.12</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>-0</v>
+        <v>-110</v>
       </c>
       <c r="C79">
-        <v>379.76</v>
+        <v>2296.4</v>
       </c>
       <c r="D79">
-        <v>877.1799999999999</v>
+        <v>2296.4</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>-2</v>
+        <v>-156</v>
       </c>
       <c r="C80">
-        <v>380.91</v>
+        <v>1981.06</v>
       </c>
       <c r="D80">
-        <v>885.08</v>
+        <v>1981.06</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-191</v>
       </c>
       <c r="C81">
-        <v>381.9</v>
+        <v>1494.15</v>
       </c>
       <c r="D81">
-        <v>700</v>
+        <v>1494.15</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>-0</v>
+        <v>-83</v>
       </c>
       <c r="C82">
-        <v>398.58</v>
+        <v>1759.49</v>
       </c>
       <c r="D82">
-        <v>738.63</v>
+        <v>1759.49</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>-3</v>
+        <v>-50</v>
       </c>
       <c r="C83">
-        <v>396.25</v>
+        <v>2970.81</v>
       </c>
       <c r="D83">
-        <v>898.04</v>
+        <v>2970.81</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
-        <v>-0</v>
+        <v>-7</v>
       </c>
       <c r="C84">
-        <v>390.53</v>
+        <v>-233.49</v>
       </c>
       <c r="D84">
-        <v>809.8200000000001</v>
+        <v>1624.18</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C85">
-        <v>351.78</v>
+        <v>10.78</v>
       </c>
       <c r="D85">
-        <v>763.04</v>
+        <v>10.78</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>1227.49</v>
+        <v>196.69</v>
       </c>
       <c r="D86">
-        <v>1227.49</v>
+        <v>196.69</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>260.32</v>
+        <v>250.19</v>
       </c>
       <c r="D87">
-        <v>1063.37</v>
+        <v>700</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="C88">
-        <v>248.38</v>
+        <v>368.79</v>
       </c>
       <c r="D88">
-        <v>248.38</v>
+        <v>948.95</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>-839.15</v>
+        <v>221.41</v>
       </c>
       <c r="D89">
-        <v>-839.15</v>
+        <v>757.4299999999999</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>-13</v>
       </c>
       <c r="C90">
-        <v>-433.66</v>
+        <v>1111.43</v>
       </c>
       <c r="D90">
-        <v>-433.66</v>
+        <v>1111.43</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>-3698.99</v>
+        <v>7.94</v>
       </c>
       <c r="D91">
-        <v>-3698.99</v>
+        <v>7.94</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>-323.92</v>
+        <v>-336.86</v>
       </c>
       <c r="D92">
-        <v>-323.92</v>
+        <v>-336.86</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>-221.94</v>
+        <v>47.38</v>
       </c>
       <c r="D93">
-        <v>-221.94</v>
+        <v>47.38</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>-2289.52</v>
+        <v>169.36</v>
       </c>
       <c r="D94">
-        <v>-2289.52</v>
+        <v>713.72</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>-12045.6</v>
+        <v>219.95</v>
       </c>
       <c r="D95">
-        <v>-12045.6</v>
+        <v>735.23</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B96">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>-3103.55</v>
+        <v>28.82</v>
       </c>
       <c r="D96">
-        <v>-3103.55</v>
+        <v>28.82</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B97">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="C97">
-        <v>305.18</v>
+        <v>905.53</v>
       </c>
       <c r="D97">
-        <v>982.49</v>
+        <v>905.53</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B98">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C98">
-        <v>286.97</v>
+        <v>909.36</v>
       </c>
       <c r="D98">
-        <v>1393.33</v>
+        <v>909.36</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B99">
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="C99">
-        <v>1520.51</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>1520.51</v>
+        <v>868.99</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B100">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="C100">
-        <v>986.78</v>
+        <v>978.9</v>
       </c>
       <c r="D100">
-        <v>986.78</v>
+        <v>978.9</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B101">
         <v>-1</v>
       </c>
       <c r="C101">
-        <v>253.57</v>
+        <v>390</v>
       </c>
       <c r="D101">
-        <v>795.45</v>
+        <v>839.72</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>289.74</v>
+        <v>377.78</v>
       </c>
       <c r="D102">
-        <v>700</v>
+        <v>724.54</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B103">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>204.05</v>
+        <v>69.92</v>
       </c>
       <c r="D103">
-        <v>204.05</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B104">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C104">
-        <v>-4.37</v>
+        <v>35.21</v>
       </c>
       <c r="D104">
-        <v>-4.37</v>
+        <v>35.21</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B105">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C105">
-        <v>2.51</v>
+        <v>15.96</v>
       </c>
       <c r="D105">
-        <v>2.51</v>
+        <v>15.96</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B106">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>13.13</v>
+        <v>-15.35</v>
       </c>
       <c r="D106">
-        <v>13.13</v>
+        <v>-15.35</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B107">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C107">
-        <v>-7.11</v>
+        <v>12.49</v>
       </c>
       <c r="D107">
-        <v>-7.11</v>
+        <v>12.49</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B108">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C108">
-        <v>0.7</v>
+        <v>-22.12</v>
       </c>
       <c r="D108">
-        <v>5282.73</v>
+        <v>-22.12</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B109">
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="C109">
-        <v>1574.14</v>
+        <v>252.78</v>
       </c>
       <c r="D109">
-        <v>1574.14</v>
+        <v>252.78</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C110">
-        <v>217.38</v>
+        <v>253.6</v>
       </c>
       <c r="D110">
-        <v>217.38</v>
+        <v>253.6</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B111">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C111">
-        <v>202.21</v>
+        <v>232.19</v>
       </c>
       <c r="D111">
-        <v>202.21</v>
+        <v>232.19</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>101.4</v>
+        <v>-471.88</v>
       </c>
       <c r="D112">
-        <v>101.4</v>
+        <v>-471.88</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>130.17</v>
+        <v>-505.84</v>
       </c>
       <c r="D113">
-        <v>130.17</v>
+        <v>-505.84</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B114">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>2.21</v>
+        <v>251</v>
       </c>
       <c r="D114">
-        <v>2.21</v>
+        <v>3959.62</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B115">
-        <v>60</v>
+        <v>-13</v>
       </c>
       <c r="C115">
-        <v>-1219.88</v>
+        <v>1404.42</v>
       </c>
       <c r="D115">
-        <v>-1219.88</v>
+        <v>1404.42</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B116">
-        <v>72</v>
+        <v>-10</v>
       </c>
       <c r="C116">
-        <v>-1037.69</v>
+        <v>954.64</v>
       </c>
       <c r="D116">
-        <v>-1037.69</v>
+        <v>954.64</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B117">
-        <v>52</v>
+        <v>-3</v>
       </c>
       <c r="C117">
-        <v>26.29</v>
+        <v>869.15</v>
       </c>
       <c r="D117">
-        <v>26.29</v>
+        <v>869.15</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B118">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>-0.38</v>
+        <v>390</v>
       </c>
       <c r="D118">
-        <v>-0.38</v>
+        <v>843.39</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B119">
-        <v>88</v>
+        <v>-6</v>
       </c>
       <c r="C119">
-        <v>-0.02</v>
+        <v>1778.7</v>
       </c>
       <c r="D119">
-        <v>-0.02</v>
+        <v>1778.7</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B120">
-        <v>87</v>
+        <v>-24</v>
       </c>
       <c r="C120">
-        <v>-8.199999999999999</v>
+        <v>1402.2</v>
       </c>
       <c r="D120">
-        <v>-8.199999999999999</v>
+        <v>1402.2</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B121">
-        <v>77</v>
+        <v>-13</v>
       </c>
       <c r="C121">
-        <v>-155.91</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-155.91</v>
+        <v>981.1799999999999</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B122">
-        <v>45</v>
+        <v>-3</v>
       </c>
       <c r="C122">
-        <v>-7.93</v>
+        <v>362.5</v>
       </c>
       <c r="D122">
-        <v>-7.93</v>
+        <v>6545.68</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1677.94</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1677.94</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1160.18</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1160.18</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1240.88</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1240.88</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1133.23</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1133.23</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1124.56</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1124.56</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>2932.51</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2932.51</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>-1413.66</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1135.87</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>970.98</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>970.98</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>922.71</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>922.71</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1486.17</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>135.27</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>135.27</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-15.31</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-15.31</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>15.31</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>15.31</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-445.74</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-445.74</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>19.05.202593</t>
-  </si>
-  <si>
-    <t>19.05.202594</t>
-  </si>
-  <si>
-    <t>19.05.202595</t>
-  </si>
-  <si>
-    <t>19.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -608,6 +320,582 @@
   </si>
   <si>
     <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
+  </si>
+  <si>
+    <t>22.05.202540</t>
+  </si>
+  <si>
+    <t>22.05.202541</t>
+  </si>
+  <si>
+    <t>22.05.202542</t>
+  </si>
+  <si>
+    <t>22.05.202543</t>
+  </si>
+  <si>
+    <t>22.05.202544</t>
+  </si>
+  <si>
+    <t>22.05.202545</t>
+  </si>
+  <si>
+    <t>22.05.202546</t>
+  </si>
+  <si>
+    <t>22.05.202547</t>
+  </si>
+  <si>
+    <t>22.05.202548</t>
+  </si>
+  <si>
+    <t>22.05.202549</t>
+  </si>
+  <si>
+    <t>22.05.202550</t>
+  </si>
+  <si>
+    <t>22.05.202551</t>
+  </si>
+  <si>
+    <t>22.05.202552</t>
+  </si>
+  <si>
+    <t>22.05.202553</t>
+  </si>
+  <si>
+    <t>22.05.202554</t>
+  </si>
+  <si>
+    <t>22.05.202555</t>
+  </si>
+  <si>
+    <t>22.05.202556</t>
+  </si>
+  <si>
+    <t>22.05.202557</t>
+  </si>
+  <si>
+    <t>22.05.202558</t>
+  </si>
+  <si>
+    <t>22.05.202559</t>
+  </si>
+  <si>
+    <t>22.05.202560</t>
+  </si>
+  <si>
+    <t>22.05.202561</t>
+  </si>
+  <si>
+    <t>22.05.202562</t>
+  </si>
+  <si>
+    <t>22.05.202563</t>
+  </si>
+  <si>
+    <t>22.05.202564</t>
+  </si>
+  <si>
+    <t>22.05.202565</t>
+  </si>
+  <si>
+    <t>22.05.202566</t>
+  </si>
+  <si>
+    <t>22.05.202567</t>
+  </si>
+  <si>
+    <t>22.05.202568</t>
+  </si>
+  <si>
+    <t>22.05.202569</t>
+  </si>
+  <si>
+    <t>22.05.202570</t>
+  </si>
+  <si>
+    <t>22.05.202571</t>
+  </si>
+  <si>
+    <t>22.05.202572</t>
+  </si>
+  <si>
+    <t>22.05.202573</t>
+  </si>
+  <si>
+    <t>22.05.202574</t>
+  </si>
+  <si>
+    <t>22.05.202575</t>
+  </si>
+  <si>
+    <t>22.05.202576</t>
+  </si>
+  <si>
+    <t>22.05.202577</t>
+  </si>
+  <si>
+    <t>22.05.202578</t>
+  </si>
+  <si>
+    <t>22.05.202579</t>
+  </si>
+  <si>
+    <t>22.05.202580</t>
+  </si>
+  <si>
+    <t>22.05.202581</t>
+  </si>
+  <si>
+    <t>22.05.202582</t>
+  </si>
+  <si>
+    <t>22.05.202583</t>
+  </si>
+  <si>
+    <t>22.05.202584</t>
+  </si>
+  <si>
+    <t>22.05.202585</t>
+  </si>
+  <si>
+    <t>22.05.202586</t>
+  </si>
+  <si>
+    <t>22.05.202587</t>
+  </si>
+  <si>
+    <t>22.05.202588</t>
+  </si>
+  <si>
+    <t>22.05.202589</t>
+  </si>
+  <si>
+    <t>22.05.202590</t>
+  </si>
+  <si>
+    <t>22.05.202591</t>
+  </si>
+  <si>
+    <t>22.05.202592</t>
+  </si>
+  <si>
+    <t>22.05.202593</t>
+  </si>
+  <si>
+    <t>22.05.202594</t>
+  </si>
+  <si>
+    <t>22.05.202595</t>
+  </si>
+  <si>
+    <t>22.05.202596</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1285,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1305,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1325,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1345,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1365,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1039.09</v>
+        <v>377.78</v>
       </c>
       <c r="D6">
-        <v>1039.09</v>
+        <v>724.54</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1385,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
-        <v>-41</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1000.53</v>
+        <v>69.92</v>
       </c>
       <c r="D7">
-        <v>1000.53</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1405,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
-        <v>-39</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>1083.9</v>
+        <v>35.21</v>
       </c>
       <c r="D8">
-        <v>1083.9</v>
+        <v>35.21</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1425,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>-33</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>1269.7</v>
+        <v>15.96</v>
       </c>
       <c r="D9">
-        <v>1269.7</v>
+        <v>15.96</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1445,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>-34</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>1068.2</v>
+        <v>-15.35</v>
       </c>
       <c r="D10">
-        <v>1068.2</v>
+        <v>-15.35</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1465,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>331.33</v>
+        <v>12.49</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>12.49</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1485,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>208.44</v>
+        <v>-22.12</v>
       </c>
       <c r="D12">
-        <v>208.44</v>
+        <v>-22.12</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1505,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>252.78</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>252.78</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1525,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>335.57</v>
+        <v>253.6</v>
       </c>
       <c r="D14">
-        <v>335.57</v>
+        <v>253.6</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1545,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>241.75</v>
+        <v>232.19</v>
       </c>
       <c r="D15">
-        <v>729.39</v>
+        <v>232.19</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1565,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>928.27</v>
+        <v>-471.88</v>
       </c>
       <c r="D16">
-        <v>928.27</v>
+        <v>-471.88</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1585,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>1266.56</v>
+        <v>-505.84</v>
       </c>
       <c r="D17">
-        <v>1266.56</v>
+        <v>-505.84</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1605,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>913.48</v>
+        <v>251</v>
       </c>
       <c r="D18">
-        <v>913.48</v>
+        <v>3959.62</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1625,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="C19">
-        <v>1112.03</v>
+        <v>1404.42</v>
       </c>
       <c r="D19">
-        <v>1112.03</v>
+        <v>1404.42</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1645,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="C20">
-        <v>804.65</v>
+        <v>954.64</v>
       </c>
       <c r="D20">
-        <v>804.65</v>
+        <v>954.64</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1665,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C21">
-        <v>220.28</v>
+        <v>869.15</v>
       </c>
       <c r="D21">
-        <v>738.08</v>
+        <v>869.15</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1685,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>28.61</v>
+        <v>390</v>
       </c>
       <c r="D22">
-        <v>28.61</v>
+        <v>843.39</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1705,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="C23">
-        <v>217.14</v>
+        <v>1778.7</v>
       </c>
       <c r="D23">
-        <v>700</v>
+        <v>1778.7</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1725,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>-24</v>
       </c>
       <c r="C24">
-        <v>159.53</v>
+        <v>1402.2</v>
       </c>
       <c r="D24">
-        <v>705.87</v>
+        <v>1402.2</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1745,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="C25">
-        <v>167.51</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>700</v>
+        <v>981.1799999999999</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1765,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="C26">
-        <v>-176.79</v>
+        <v>362.5</v>
       </c>
       <c r="D26">
-        <v>-176.79</v>
+        <v>6545.68</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1785,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="C27">
-        <v>388.39</v>
+        <v>1677.94</v>
       </c>
       <c r="D27">
-        <v>769.29</v>
+        <v>1677.94</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1805,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>-60</v>
       </c>
       <c r="C28">
-        <v>47.35</v>
+        <v>1160.18</v>
       </c>
       <c r="D28">
-        <v>47.35</v>
+        <v>1160.18</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1825,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>-48</v>
       </c>
       <c r="C29">
-        <v>19.44</v>
+        <v>1240.88</v>
       </c>
       <c r="D29">
-        <v>19.44</v>
+        <v>1240.88</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1845,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>-59</v>
       </c>
       <c r="C30">
-        <v>-70.81</v>
+        <v>1133.23</v>
       </c>
       <c r="D30">
-        <v>-70.81</v>
+        <v>1133.23</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1865,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>-62</v>
       </c>
       <c r="C31">
-        <v>-227.78</v>
+        <v>1124.56</v>
       </c>
       <c r="D31">
-        <v>-227.78</v>
+        <v>1124.56</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1885,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>-48</v>
       </c>
       <c r="C32">
-        <v>12.58</v>
+        <v>2932.51</v>
       </c>
       <c r="D32">
-        <v>12.58</v>
+        <v>2932.51</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1905,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>-29</v>
       </c>
       <c r="C33">
-        <v>11.64</v>
+        <v>-1413.66</v>
       </c>
       <c r="D33">
-        <v>11.64</v>
+        <v>1135.87</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1925,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>-52</v>
       </c>
       <c r="C34">
-        <v>17.49</v>
+        <v>970.98</v>
       </c>
       <c r="D34">
-        <v>17.49</v>
+        <v>970.98</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1945,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>-63</v>
       </c>
       <c r="C35">
-        <v>-52.71</v>
+        <v>922.71</v>
       </c>
       <c r="D35">
-        <v>-52.71</v>
+        <v>922.71</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1965,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>-18.65</v>
+        <v>1486.17</v>
       </c>
       <c r="D36">
-        <v>-18.65</v>
+        <v>700</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1985,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>-1670.82</v>
+        <v>135.27</v>
       </c>
       <c r="D37">
-        <v>-1670.82</v>
+        <v>135.27</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +2005,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>-10841.52</v>
+        <v>-15.31</v>
       </c>
       <c r="D38">
-        <v>-10841.52</v>
+        <v>-15.31</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +2025,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C39">
-        <v>0.7</v>
+        <v>15.31</v>
       </c>
       <c r="D39">
-        <v>5303.72</v>
+        <v>15.31</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +2045,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>-29</v>
+        <v>116</v>
       </c>
       <c r="C40">
-        <v>4620.63</v>
+        <v>-445.74</v>
       </c>
       <c r="D40">
-        <v>4620.63</v>
+        <v>-445.74</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +2065,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>-6</v>
+        <v>157</v>
       </c>
       <c r="C41">
-        <v>390</v>
+        <v>-471.66</v>
       </c>
       <c r="D41">
-        <v>906.9400000000001</v>
+        <v>-471.66</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +2085,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>-6</v>
+        <v>135</v>
       </c>
       <c r="C42">
-        <v>240</v>
+        <v>-6.35</v>
       </c>
       <c r="D42">
-        <v>4854.44</v>
+        <v>-6.35</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +2105,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>-80</v>
+        <v>151</v>
       </c>
       <c r="C43">
-        <v>821.4</v>
+        <v>-329.8</v>
       </c>
       <c r="D43">
-        <v>821.4</v>
+        <v>-329.8</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +2125,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>-86</v>
+        <v>131</v>
       </c>
       <c r="C44">
-        <v>1620.21</v>
+        <v>-7.03</v>
       </c>
       <c r="D44">
-        <v>1620.21</v>
+        <v>-7.03</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +2145,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>-65</v>
+        <v>126</v>
       </c>
       <c r="C45">
-        <v>6210.16</v>
+        <v>-8.15</v>
       </c>
       <c r="D45">
-        <v>6210.16</v>
+        <v>-8.15</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +2165,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
-        <v>-63</v>
+        <v>114</v>
       </c>
       <c r="C46">
-        <v>7466.3</v>
+        <v>-133.98</v>
       </c>
       <c r="D46">
-        <v>7466.3</v>
+        <v>-133.98</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +2185,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
-        <v>-120</v>
+        <v>124</v>
       </c>
       <c r="C47">
-        <v>7460.3</v>
+        <v>-654.6900000000001</v>
       </c>
       <c r="D47">
-        <v>7460.3</v>
+        <v>-654.6900000000001</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +2205,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C48">
-        <v>-3164.65</v>
+        <v>-117.4</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-117.4</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +2225,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="C49">
-        <v>-4079.37</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +2245,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C50">
-        <v>-4499</v>
+        <v>-446.11</v>
       </c>
       <c r="D50">
-        <v>-4499</v>
+        <v>-446.11</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +2265,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C51">
-        <v>-2110.37</v>
+        <v>0.35</v>
       </c>
       <c r="D51">
-        <v>-2110.37</v>
+        <v>0.35</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +2285,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C52">
-        <v>159.86</v>
+        <v>-1.15</v>
       </c>
       <c r="D52">
-        <v>725.27</v>
+        <v>-1.15</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2305,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>213.83</v>
+        <v>-0.52</v>
       </c>
       <c r="D53">
-        <v>743.0700000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2325,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>-11</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>2693.33</v>
+        <v>5.94</v>
       </c>
       <c r="D54">
-        <v>2693.33</v>
+        <v>5.94</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2345,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>-4</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>477.7</v>
+        <v>5.51</v>
       </c>
       <c r="D55">
-        <v>477.7</v>
+        <v>5.51</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2365,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>152.44</v>
+        <v>-26.25</v>
       </c>
       <c r="D56">
-        <v>475.52</v>
+        <v>-26.25</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2385,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>10.97</v>
+        <v>-443.34</v>
       </c>
       <c r="D57">
-        <v>10.97</v>
+        <v>-443.34</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2405,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C58">
-        <v>114.05</v>
+        <v>-114.61</v>
       </c>
       <c r="D58">
-        <v>490.85</v>
+        <v>-114.61</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2425,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>-1</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>390</v>
+        <v>-37.21</v>
       </c>
       <c r="D59">
-        <v>490.85</v>
+        <v>-37.21</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2445,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>-0</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>308.31</v>
+        <v>-119.29</v>
       </c>
       <c r="D60">
-        <v>490.85</v>
+        <v>-119.29</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2465,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="D61">
-        <v>490.85</v>
+        <v>782.6799999999999</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2485,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>-5</v>
+        <v>41</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>16.89</v>
       </c>
       <c r="D62">
-        <v>686.08</v>
+        <v>16.89</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2505,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>-56</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <v>780.01</v>
+        <v>-79.47</v>
       </c>
       <c r="D63">
-        <v>780.01</v>
+        <v>-79.47</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2525,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>-42</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>595.38</v>
+        <v>16.3</v>
       </c>
       <c r="D64">
-        <v>595.38</v>
+        <v>16.3</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2545,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>-38</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>595.63</v>
+        <v>-763.35</v>
       </c>
       <c r="D65">
-        <v>595.63</v>
+        <v>550</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2565,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>-27</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>1990.28</v>
+        <v>-4391.25</v>
       </c>
       <c r="D66">
-        <v>1990.28</v>
+        <v>-4391.25</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2585,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>-1111.33</v>
+        <v>13.98</v>
       </c>
       <c r="D67">
-        <v>-1111.33</v>
+        <v>13.98</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2605,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>-0</v>
+        <v>31</v>
       </c>
       <c r="C68">
-        <v>378.87</v>
+        <v>27.02</v>
       </c>
       <c r="D68">
-        <v>809.95</v>
+        <v>27.02</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2625,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="C69">
-        <v>901.52</v>
+        <v>255.25</v>
       </c>
       <c r="D69">
-        <v>901.52</v>
+        <v>550</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2645,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>-1654.58</v>
+        <v>-45.07</v>
       </c>
       <c r="D70">
-        <v>-1654.58</v>
+        <v>-45.07</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2665,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>-76.52</v>
+        <v>211.86</v>
       </c>
       <c r="D71">
-        <v>-76.52</v>
+        <v>632.8099999999999</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2685,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="C72">
-        <v>0.6</v>
+        <v>323.33</v>
       </c>
       <c r="D72">
-        <v>1045.43</v>
+        <v>1775.11</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2705,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>-18</v>
+        <v>-26</v>
       </c>
       <c r="C73">
-        <v>990.86</v>
+        <v>2108.65</v>
       </c>
       <c r="D73">
-        <v>990.86</v>
+        <v>2108.65</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2725,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>-4311.36</v>
+        <v>157.18</v>
       </c>
       <c r="D74">
-        <v>-4311.36</v>
+        <v>157.18</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2745,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>19</v>
+        <v>-8</v>
       </c>
       <c r="C75">
-        <v>-2619.82</v>
+        <v>3634.13</v>
       </c>
       <c r="D75">
-        <v>-2619.82</v>
+        <v>3634.13</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2765,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>-30</v>
       </c>
       <c r="C76">
-        <v>58.48</v>
+        <v>4422.83</v>
       </c>
       <c r="D76">
-        <v>5751.72</v>
+        <v>4422.83</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2785,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>33</v>
+        <v>-72</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2324.85</v>
       </c>
       <c r="D77">
-        <v>7001</v>
+        <v>2324.85</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2805,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>-64</v>
+        <v>-6</v>
       </c>
       <c r="C78">
-        <v>1858.12</v>
+        <v>1318.16</v>
       </c>
       <c r="D78">
-        <v>1858.12</v>
+        <v>1318.16</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2825,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>-110</v>
+        <v>-24</v>
       </c>
       <c r="C79">
-        <v>2296.4</v>
+        <v>1935.46</v>
       </c>
       <c r="D79">
-        <v>2296.4</v>
+        <v>1935.46</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2845,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>-156</v>
+        <v>-28</v>
       </c>
       <c r="C80">
-        <v>1981.06</v>
+        <v>4120.69</v>
       </c>
       <c r="D80">
-        <v>1981.06</v>
+        <v>4120.69</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2865,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>-191</v>
+        <v>-21</v>
       </c>
       <c r="C81">
-        <v>1494.15</v>
+        <v>5999</v>
       </c>
       <c r="D81">
-        <v>1494.15</v>
+        <v>5999</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2885,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>-83</v>
+        <v>-20</v>
       </c>
       <c r="C82">
-        <v>1759.49</v>
+        <v>3994.78</v>
       </c>
       <c r="D82">
-        <v>1759.49</v>
+        <v>3994.78</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2905,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>-50</v>
+        <v>-27</v>
       </c>
       <c r="C83">
-        <v>2970.81</v>
+        <v>5194.38</v>
       </c>
       <c r="D83">
-        <v>2970.81</v>
+        <v>5194.38</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2925,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>-7</v>
+        <v>-41</v>
       </c>
       <c r="C84">
-        <v>-233.49</v>
+        <v>5962.57</v>
       </c>
       <c r="D84">
-        <v>1624.18</v>
+        <v>5962.57</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2945,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>22</v>
+        <v>-39</v>
       </c>
       <c r="C85">
-        <v>10.78</v>
+        <v>5806.3</v>
       </c>
       <c r="D85">
-        <v>10.78</v>
+        <v>5806.3</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2965,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="C86">
-        <v>196.69</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>196.69</v>
+        <v>5999</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2985,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>-39</v>
       </c>
       <c r="C87">
-        <v>250.19</v>
+        <v>5564.12</v>
       </c>
       <c r="D87">
-        <v>700</v>
+        <v>5564.12</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +3005,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="C88">
-        <v>368.79</v>
+        <v>2331.08</v>
       </c>
       <c r="D88">
-        <v>948.95</v>
+        <v>2331.08</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +3025,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C89">
-        <v>221.41</v>
+        <v>275.49</v>
       </c>
       <c r="D89">
-        <v>757.4299999999999</v>
+        <v>898.02</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +3045,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>-13</v>
+        <v>-27</v>
       </c>
       <c r="C90">
-        <v>1111.43</v>
+        <v>4955.28</v>
       </c>
       <c r="D90">
-        <v>1111.43</v>
+        <v>4955.28</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +3065,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="C91">
-        <v>7.94</v>
+        <v>846.01</v>
       </c>
       <c r="D91">
-        <v>7.94</v>
+        <v>846.01</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +3085,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>34</v>
+        <v>-8</v>
       </c>
       <c r="C92">
-        <v>-336.86</v>
+        <v>1019.69</v>
       </c>
       <c r="D92">
-        <v>-336.86</v>
+        <v>1019.69</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +3105,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>-0</v>
       </c>
       <c r="C93">
-        <v>47.38</v>
+        <v>320.68</v>
       </c>
       <c r="D93">
-        <v>47.38</v>
+        <v>720.3</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +3125,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="C94">
-        <v>169.36</v>
+        <v>362.52</v>
       </c>
       <c r="D94">
-        <v>713.72</v>
+        <v>988.78</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +3145,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="C95">
-        <v>219.95</v>
+        <v>1704.92</v>
       </c>
       <c r="D95">
-        <v>735.23</v>
+        <v>1704.92</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +3165,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="C96">
-        <v>28.82</v>
+        <v>382.85</v>
       </c>
       <c r="D96">
-        <v>28.82</v>
+        <v>731.85</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +3185,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B97">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="C97">
-        <v>905.53</v>
+        <v>195.73</v>
       </c>
       <c r="D97">
-        <v>905.53</v>
+        <v>814.87</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +3205,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B98">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="C98">
-        <v>909.36</v>
+        <v>238.5</v>
       </c>
       <c r="D98">
-        <v>909.36</v>
+        <v>1231.31</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +3225,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B99">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>868.99</v>
+        <v>906.96</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +3245,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B100">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="C100">
-        <v>978.9</v>
+        <v>1140.38</v>
       </c>
       <c r="D100">
-        <v>978.9</v>
+        <v>1140.38</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +3265,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="C101">
-        <v>390</v>
+        <v>396.84</v>
       </c>
       <c r="D101">
-        <v>839.72</v>
+        <v>902.63</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +3285,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C102">
-        <v>377.78</v>
+        <v>400</v>
       </c>
       <c r="D102">
-        <v>724.54</v>
+        <v>876.0700000000001</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,13 +3305,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>69.92</v>
+        <v>367.12</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3037,16 +3325,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B104">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C104">
-        <v>35.21</v>
+        <v>373.21</v>
       </c>
       <c r="D104">
-        <v>35.21</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3345,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B105">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C105">
-        <v>15.96</v>
+        <v>341.39</v>
       </c>
       <c r="D105">
-        <v>15.96</v>
+        <v>341.39</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3365,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B106">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>-15.35</v>
+        <v>327.14</v>
       </c>
       <c r="D106">
-        <v>-15.35</v>
+        <v>900</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3385,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B107">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C107">
-        <v>12.49</v>
+        <v>159.21</v>
       </c>
       <c r="D107">
-        <v>12.49</v>
+        <v>159.21</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3405,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B108">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>-22.12</v>
+        <v>256.42</v>
       </c>
       <c r="D108">
-        <v>-22.12</v>
+        <v>256.42</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3425,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B109">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>252.78</v>
+        <v>387.74</v>
       </c>
       <c r="D109">
-        <v>252.78</v>
+        <v>683.33</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3445,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B110">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>253.6</v>
+        <v>389.58</v>
       </c>
       <c r="D110">
-        <v>253.6</v>
+        <v>740.63</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3465,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B111">
-        <v>25</v>
+        <v>-0</v>
       </c>
       <c r="C111">
-        <v>232.19</v>
+        <v>393.35</v>
       </c>
       <c r="D111">
-        <v>232.19</v>
+        <v>712.25</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3485,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>-471.88</v>
+        <v>388.47</v>
       </c>
       <c r="D112">
-        <v>-471.88</v>
+        <v>721.28</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3505,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B113">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>-505.84</v>
+        <v>390.83</v>
       </c>
       <c r="D113">
-        <v>-505.84</v>
+        <v>786.21</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3525,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="C114">
-        <v>251</v>
+        <v>371.91</v>
       </c>
       <c r="D114">
-        <v>3959.62</v>
+        <v>732.14</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3545,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B115">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>1404.42</v>
+        <v>266.04</v>
       </c>
       <c r="D115">
-        <v>1404.42</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3565,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B116">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>954.64</v>
+        <v>245.76</v>
       </c>
       <c r="D116">
-        <v>954.64</v>
+        <v>700</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3585,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B117">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C117">
-        <v>869.15</v>
+        <v>355.9</v>
       </c>
       <c r="D117">
-        <v>869.15</v>
+        <v>775</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3605,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>390</v>
+        <v>131.98</v>
       </c>
       <c r="D118">
-        <v>843.39</v>
+        <v>131.98</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3625,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B119">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>1778.7</v>
+        <v>258.71</v>
       </c>
       <c r="D119">
-        <v>1778.7</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3645,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B120">
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>1402.2</v>
+        <v>312.8</v>
       </c>
       <c r="D120">
-        <v>1402.2</v>
+        <v>727.52</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3665,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B121">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>31.99</v>
       </c>
       <c r="D121">
-        <v>981.1799999999999</v>
+        <v>31.99</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3685,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B122">
-        <v>-3</v>
+        <v>73</v>
       </c>
       <c r="C122">
-        <v>362.5</v>
+        <v>22.8</v>
       </c>
       <c r="D122">
-        <v>6545.68</v>
+        <v>22.8</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3705,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B123">
-        <v>-78</v>
+        <v>50</v>
       </c>
       <c r="C123">
-        <v>1677.94</v>
+        <v>55.39</v>
       </c>
       <c r="D123">
-        <v>1677.94</v>
+        <v>55.39</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3725,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B124">
-        <v>-60</v>
+        <v>52</v>
       </c>
       <c r="C124">
-        <v>1160.18</v>
+        <v>52.88</v>
       </c>
       <c r="D124">
-        <v>1160.18</v>
+        <v>52.88</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3745,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B125">
-        <v>-48</v>
+        <v>63</v>
       </c>
       <c r="C125">
-        <v>1240.88</v>
+        <v>52.39</v>
       </c>
       <c r="D125">
-        <v>1240.88</v>
+        <v>52.39</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3765,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B126">
-        <v>-59</v>
+        <v>44</v>
       </c>
       <c r="C126">
-        <v>1133.23</v>
+        <v>50.73</v>
       </c>
       <c r="D126">
-        <v>1133.23</v>
+        <v>50.73</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3785,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B127">
-        <v>-62</v>
+        <v>74</v>
       </c>
       <c r="C127">
-        <v>1124.56</v>
+        <v>36.43</v>
       </c>
       <c r="D127">
-        <v>1124.56</v>
+        <v>36.43</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3805,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B128">
-        <v>-48</v>
+        <v>74</v>
       </c>
       <c r="C128">
-        <v>2932.51</v>
+        <v>35.59</v>
       </c>
       <c r="D128">
-        <v>2932.51</v>
+        <v>35.59</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3825,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B129">
-        <v>-29</v>
+        <v>99</v>
       </c>
       <c r="C129">
-        <v>-1413.66</v>
+        <v>14.96</v>
       </c>
       <c r="D129">
-        <v>1135.87</v>
+        <v>14.96</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3845,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B130">
-        <v>-52</v>
+        <v>56</v>
       </c>
       <c r="C130">
-        <v>970.98</v>
+        <v>39.76</v>
       </c>
       <c r="D130">
-        <v>970.98</v>
+        <v>39.76</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3865,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B131">
-        <v>-63</v>
+        <v>63</v>
       </c>
       <c r="C131">
-        <v>922.71</v>
+        <v>6.22</v>
       </c>
       <c r="D131">
-        <v>922.71</v>
+        <v>6.22</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3885,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C132">
-        <v>1486.17</v>
+        <v>37.96</v>
       </c>
       <c r="D132">
-        <v>700</v>
+        <v>37.96</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3905,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B133">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C133">
-        <v>135.27</v>
+        <v>-1339.03</v>
       </c>
       <c r="D133">
-        <v>135.27</v>
+        <v>-1339.03</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3925,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B134">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C134">
-        <v>-15.31</v>
+        <v>-217.15</v>
       </c>
       <c r="D134">
-        <v>-15.31</v>
+        <v>-217.15</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3945,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B135">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C135">
-        <v>15.31</v>
+        <v>0.32</v>
       </c>
       <c r="D135">
-        <v>15.31</v>
+        <v>0.32</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3965,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B136">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C136">
-        <v>-445.74</v>
+        <v>-98.76000000000001</v>
       </c>
       <c r="D136">
-        <v>-445.74</v>
+        <v>-98.76000000000001</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3985,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>-900.25</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-900.25</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +4005,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45797.41666666666</v>
+        <v>45798.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>-83.16</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>-83.16</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +4025,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45797.42708333334</v>
+        <v>45798.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +4045,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45797.4375</v>
+        <v>45798.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-642.58</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>-642.58</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,16 +4065,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45797.44791666666</v>
+        <v>45798.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>-411.65</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>-411.65</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -3797,16 +4085,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45797.45833333334</v>
+        <v>45798.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>-274.79</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>-274.79</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -3817,16 +4105,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45797.46875</v>
+        <v>45798.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>-3.16</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>-3.16</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -3837,16 +4125,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45797.47916666666</v>
+        <v>45798.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -3857,16 +4145,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45797.48958333334</v>
+        <v>45798.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>-4.04</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>-4.04</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -3877,16 +4165,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45797.5</v>
+        <v>45798.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-113.45</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>-113.45</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -3897,16 +4185,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45797.51041666666</v>
+        <v>45798.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>-67.02</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>-67.02</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -3917,16 +4205,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45797.52083333334</v>
+        <v>45798.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>-1052.49</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>-1052.49</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -3937,16 +4225,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45797.53125</v>
+        <v>45798.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>-517.01</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>-517.01</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -3957,16 +4245,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45797.54166666666</v>
+        <v>45798.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>-103.37</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>-103.37</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -3977,16 +4265,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45797.55208333334</v>
+        <v>45798.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -3997,16 +4285,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45797.5625</v>
+        <v>45798.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>5.02</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>5.02</v>
       </c>
       <c r="E152">
         <v>55</v>
@@ -4017,16 +4305,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45797.57291666666</v>
+        <v>45798.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4037,16 +4325,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45797.58333333334</v>
+        <v>45798.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4057,16 +4345,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45797.59375</v>
+        <v>45798.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>-9.98</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>-9.98</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4077,16 +4365,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45797.60416666666</v>
+        <v>45798.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>-278.57</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>-278.57</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4097,16 +4385,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45797.61458333334</v>
+        <v>45798.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>681.13</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>681.13</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4117,16 +4405,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45797.625</v>
+        <v>45798.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>-1914.35</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>-1914.35</v>
       </c>
       <c r="E158">
         <v>61</v>
@@ -4137,13 +4425,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45797.63541666666</v>
+        <v>45798.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4157,16 +4445,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45797.64583333334</v>
+        <v>45798.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>101.22</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E160">
         <v>63</v>
@@ -4177,16 +4465,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45797.65625</v>
+        <v>45798.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>43.41</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4197,16 +4485,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45797.66666666666</v>
+        <v>45798.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4217,16 +4505,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45797.67708333334</v>
+        <v>45798.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>13.76</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>13.76</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4237,16 +4525,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45797.6875</v>
+        <v>45798.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>190.03</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4257,16 +4545,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45797.69791666666</v>
+        <v>45798.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>190.07</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4277,16 +4565,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45797.70833333334</v>
+        <v>45798.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>220.94</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>220.94</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4297,16 +4585,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45797.71875</v>
+        <v>45798.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>378.89</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>731.59</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4317,16 +4605,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45797.72916666666</v>
+        <v>45798.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>373.72</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>735.27</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4337,16 +4625,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45797.73958333334</v>
+        <v>45798.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>367.62</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>748.9299999999999</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4357,16 +4645,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45797.75</v>
+        <v>45798.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>13.83</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>13.83</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4377,16 +4665,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45797.76041666666</v>
+        <v>45798.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>176.33</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>176.33</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4397,16 +4685,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45797.77083333334</v>
+        <v>45798.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>380.04</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>768.5700000000001</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4417,16 +4705,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45797.78125</v>
+        <v>45798.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>371.5</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>828.04</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4437,16 +4725,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45797.79166666666</v>
+        <v>45798.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>207.96</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>207.96</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4457,16 +4745,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45797.80208333334</v>
+        <v>45798.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>256.05</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>256.05</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4477,16 +4765,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45797.8125</v>
+        <v>45798.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>253.97</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>253.97</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4497,16 +4785,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45797.82291666666</v>
+        <v>45798.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>253.03</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>253.03</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4517,16 +4805,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45797.83333333334</v>
+        <v>45798.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>166.72</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>166.72</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4537,13 +4825,13 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45797.84375</v>
+        <v>45798.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>338.34</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4557,13 +4845,13 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45797.85416666666</v>
+        <v>45798.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>251.05</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -4577,16 +4865,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45797.86458333334</v>
+        <v>45798.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>193.96</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>193.96</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4597,16 +4885,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45797.875</v>
+        <v>45798.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>290.74</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1165.51</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4617,16 +4905,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45797.88541666666</v>
+        <v>45798.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>370.2</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1000.68</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4637,16 +4925,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45797.89583333334</v>
+        <v>45798.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>301.23</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1289.31</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4657,16 +4945,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45797.90625</v>
+        <v>45798.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>274.26</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>274.26</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4677,16 +4965,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45797.91666666666</v>
+        <v>45798.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>4035.82</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>4035.82</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4697,16 +4985,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45797.92708333334</v>
+        <v>45798.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>840.79</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -4717,16 +5005,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45797.9375</v>
+        <v>45798.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1069.31</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1069.31</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -4737,16 +5025,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45797.94791666666</v>
+        <v>45798.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>245.75</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>848.92</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -4757,16 +5045,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45797.95833333334</v>
+        <v>45798.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>192.15</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1063.14</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -4777,16 +5065,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45797.96875</v>
+        <v>45798.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>381.98</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>707.6900000000001</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -4797,16 +5085,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45797.97916666666</v>
+        <v>45798.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>222.39</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -4817,22 +5105,1942 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45797.98958333334</v>
+        <v>45798.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>190.21</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>190.21</v>
       </c>
       <c r="E193">
         <v>96</v>
       </c>
       <c r="F193" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>247.68</v>
+      </c>
+      <c r="D194">
+        <v>700</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>319.96</v>
+      </c>
+      <c r="D195">
+        <v>700</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>191.91</v>
+      </c>
+      <c r="D196">
+        <v>191.91</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <v>182.53</v>
+      </c>
+      <c r="D197">
+        <v>182.53</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>-7</v>
+      </c>
+      <c r="C198">
+        <v>928.46</v>
+      </c>
+      <c r="D198">
+        <v>928.46</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>251.91</v>
+      </c>
+      <c r="D199">
+        <v>700</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>202.1</v>
+      </c>
+      <c r="D200">
+        <v>202.1</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>211.53</v>
+      </c>
+      <c r="D201">
+        <v>211.53</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>225.16</v>
+      </c>
+      <c r="D202">
+        <v>826.8099999999999</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B203">
+        <v>-2</v>
+      </c>
+      <c r="C203">
+        <v>349.33</v>
+      </c>
+      <c r="D203">
+        <v>724.98</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>-5</v>
+      </c>
+      <c r="C204">
+        <v>390</v>
+      </c>
+      <c r="D204">
+        <v>898.71</v>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>-30</v>
+      </c>
+      <c r="C205">
+        <v>4076.17</v>
+      </c>
+      <c r="D205">
+        <v>4076.17</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B206">
+        <v>-36</v>
+      </c>
+      <c r="C206">
+        <v>5568.23</v>
+      </c>
+      <c r="D206">
+        <v>5568.23</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>-40</v>
+      </c>
+      <c r="C207">
+        <v>4867.75</v>
+      </c>
+      <c r="D207">
+        <v>4867.75</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>-59</v>
+      </c>
+      <c r="C208">
+        <v>1848.16</v>
+      </c>
+      <c r="D208">
+        <v>1848.16</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B209">
+        <v>-40</v>
+      </c>
+      <c r="C209">
+        <v>1144.3</v>
+      </c>
+      <c r="D209">
+        <v>1144.3</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>-70</v>
+      </c>
+      <c r="C210">
+        <v>3911.24</v>
+      </c>
+      <c r="D210">
+        <v>3911.24</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>-100</v>
+      </c>
+      <c r="C211">
+        <v>1122.84</v>
+      </c>
+      <c r="D211">
+        <v>1122.84</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B212">
+        <v>-88</v>
+      </c>
+      <c r="C212">
+        <v>908.62</v>
+      </c>
+      <c r="D212">
+        <v>908.62</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>-102</v>
+      </c>
+      <c r="C213">
+        <v>975.72</v>
+      </c>
+      <c r="D213">
+        <v>975.72</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>-73</v>
+      </c>
+      <c r="C214">
+        <v>1110.99</v>
+      </c>
+      <c r="D214">
+        <v>1110.99</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B215">
+        <v>-77</v>
+      </c>
+      <c r="C215">
+        <v>943.36</v>
+      </c>
+      <c r="D215">
+        <v>943.36</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>-106</v>
+      </c>
+      <c r="C216">
+        <v>947.62</v>
+      </c>
+      <c r="D216">
+        <v>947.62</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>-133</v>
+      </c>
+      <c r="C217">
+        <v>1505.89</v>
+      </c>
+      <c r="D217">
+        <v>1505.89</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B218">
+        <v>-102</v>
+      </c>
+      <c r="C218">
+        <v>1101.26</v>
+      </c>
+      <c r="D218">
+        <v>1101.26</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>-110</v>
+      </c>
+      <c r="C219">
+        <v>1143.54</v>
+      </c>
+      <c r="D219">
+        <v>1143.54</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>-136</v>
+      </c>
+      <c r="C220">
+        <v>2509.7</v>
+      </c>
+      <c r="D220">
+        <v>2509.7</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B221">
+        <v>-139</v>
+      </c>
+      <c r="C221">
+        <v>2792.19</v>
+      </c>
+      <c r="D221">
+        <v>2792.19</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>-128</v>
+      </c>
+      <c r="C222">
+        <v>2419.39</v>
+      </c>
+      <c r="D222">
+        <v>2419.39</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>-114</v>
+      </c>
+      <c r="C223">
+        <v>2901.46</v>
+      </c>
+      <c r="D223">
+        <v>2901.46</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B224">
+        <v>-146</v>
+      </c>
+      <c r="C224">
+        <v>1301.96</v>
+      </c>
+      <c r="D224">
+        <v>1301.96</v>
+      </c>
+      <c r="E224">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>-122</v>
+      </c>
+      <c r="C225">
+        <v>1091.42</v>
+      </c>
+      <c r="D225">
+        <v>1091.42</v>
+      </c>
+      <c r="E225">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>-127</v>
+      </c>
+      <c r="C226">
+        <v>994.13</v>
+      </c>
+      <c r="D226">
+        <v>994.13</v>
+      </c>
+      <c r="E226">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B227">
+        <v>-130</v>
+      </c>
+      <c r="C227">
+        <v>991</v>
+      </c>
+      <c r="D227">
+        <v>991</v>
+      </c>
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>-124</v>
+      </c>
+      <c r="C228">
+        <v>1000.4</v>
+      </c>
+      <c r="D228">
+        <v>1000.4</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>-122</v>
+      </c>
+      <c r="C229">
+        <v>1003.21</v>
+      </c>
+      <c r="D229">
+        <v>1003.21</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B230">
+        <v>-125</v>
+      </c>
+      <c r="C230">
+        <v>899.33</v>
+      </c>
+      <c r="D230">
+        <v>899.33</v>
+      </c>
+      <c r="E230">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>-32</v>
+      </c>
+      <c r="C231">
+        <v>840.3099999999999</v>
+      </c>
+      <c r="D231">
+        <v>840.3099999999999</v>
+      </c>
+      <c r="E231">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>211.09</v>
+      </c>
+      <c r="D232">
+        <v>550</v>
+      </c>
+      <c r="E232">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B233">
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>-1550.45</v>
+      </c>
+      <c r="D233">
+        <v>-1550.45</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>13</v>
+      </c>
+      <c r="C234">
+        <v>142.72</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>9</v>
+      </c>
+      <c r="C235">
+        <v>82.17</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>45799.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>45799.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>45799.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>46</v>
+      </c>
+      <c r="F239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>45799.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>45799.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>49</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>45799.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>45799.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>51</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>45799.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>45799.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>53</v>
+      </c>
+      <c r="F246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>45799.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>45799.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>55</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>45799.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>45799.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>45799.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>45799.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>59</v>
+      </c>
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45799.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>45799.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>45799.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>62</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>45799.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>63</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>45799.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>45799.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>45799.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>66</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>45799.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>67</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>45799.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>68</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>45799.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>69</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>45799.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>45799.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>45799.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>72</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>45799.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>73</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>45799.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>45799.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>75</v>
+      </c>
+      <c r="F268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>45799.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>45799.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>45799.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>78</v>
+      </c>
+      <c r="F271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>45799.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>45799.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>45799.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>45799.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>45799.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>45799.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>45799.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>45799.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>45799.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>45799.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>45799.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>45799.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>90</v>
+      </c>
+      <c r="F283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>45799.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>91</v>
+      </c>
+      <c r="F284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>45799.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>45799.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>93</v>
+      </c>
+      <c r="F286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>45799.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>45799.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>95</v>
+      </c>
+      <c r="F288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>45799.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>96</v>
+      </c>
+      <c r="F289" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>29.05.202593</t>
-  </si>
-  <si>
-    <t>29.05.202594</t>
-  </si>
-  <si>
-    <t>29.05.202595</t>
-  </si>
-  <si>
-    <t>29.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -608,6 +320,870 @@
   </si>
   <si>
     <t>30.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
+  </si>
+  <si>
+    <t>02.06.202537</t>
+  </si>
+  <si>
+    <t>02.06.202538</t>
+  </si>
+  <si>
+    <t>02.06.202539</t>
+  </si>
+  <si>
+    <t>02.06.202540</t>
+  </si>
+  <si>
+    <t>02.06.202541</t>
+  </si>
+  <si>
+    <t>02.06.202542</t>
+  </si>
+  <si>
+    <t>02.06.202543</t>
+  </si>
+  <si>
+    <t>02.06.202544</t>
+  </si>
+  <si>
+    <t>02.06.202545</t>
+  </si>
+  <si>
+    <t>02.06.202546</t>
+  </si>
+  <si>
+    <t>02.06.202547</t>
+  </si>
+  <si>
+    <t>02.06.202548</t>
+  </si>
+  <si>
+    <t>02.06.202549</t>
+  </si>
+  <si>
+    <t>02.06.202550</t>
+  </si>
+  <si>
+    <t>02.06.202551</t>
+  </si>
+  <si>
+    <t>02.06.202552</t>
+  </si>
+  <si>
+    <t>02.06.202553</t>
+  </si>
+  <si>
+    <t>02.06.202554</t>
+  </si>
+  <si>
+    <t>02.06.202555</t>
+  </si>
+  <si>
+    <t>02.06.202556</t>
+  </si>
+  <si>
+    <t>02.06.202557</t>
+  </si>
+  <si>
+    <t>02.06.202558</t>
+  </si>
+  <si>
+    <t>02.06.202559</t>
+  </si>
+  <si>
+    <t>02.06.202560</t>
+  </si>
+  <si>
+    <t>02.06.202561</t>
+  </si>
+  <si>
+    <t>02.06.202562</t>
+  </si>
+  <si>
+    <t>02.06.202563</t>
+  </si>
+  <si>
+    <t>02.06.202564</t>
+  </si>
+  <si>
+    <t>02.06.202565</t>
+  </si>
+  <si>
+    <t>02.06.202566</t>
+  </si>
+  <si>
+    <t>02.06.202567</t>
+  </si>
+  <si>
+    <t>02.06.202568</t>
+  </si>
+  <si>
+    <t>02.06.202569</t>
+  </si>
+  <si>
+    <t>02.06.202570</t>
+  </si>
+  <si>
+    <t>02.06.202571</t>
+  </si>
+  <si>
+    <t>02.06.202572</t>
+  </si>
+  <si>
+    <t>02.06.202573</t>
+  </si>
+  <si>
+    <t>02.06.202574</t>
+  </si>
+  <si>
+    <t>02.06.202575</t>
+  </si>
+  <si>
+    <t>02.06.202576</t>
+  </si>
+  <si>
+    <t>02.06.202577</t>
+  </si>
+  <si>
+    <t>02.06.202578</t>
+  </si>
+  <si>
+    <t>02.06.202579</t>
+  </si>
+  <si>
+    <t>02.06.202580</t>
+  </si>
+  <si>
+    <t>02.06.202581</t>
+  </si>
+  <si>
+    <t>02.06.202582</t>
+  </si>
+  <si>
+    <t>02.06.202583</t>
+  </si>
+  <si>
+    <t>02.06.202584</t>
+  </si>
+  <si>
+    <t>02.06.202585</t>
+  </si>
+  <si>
+    <t>02.06.202586</t>
+  </si>
+  <si>
+    <t>02.06.202587</t>
+  </si>
+  <si>
+    <t>02.06.202588</t>
+  </si>
+  <si>
+    <t>02.06.202589</t>
+  </si>
+  <si>
+    <t>02.06.202590</t>
+  </si>
+  <si>
+    <t>02.06.202591</t>
+  </si>
+  <si>
+    <t>02.06.202592</t>
+  </si>
+  <si>
+    <t>02.06.202593</t>
+  </si>
+  <si>
+    <t>02.06.202594</t>
+  </si>
+  <si>
+    <t>02.06.202595</t>
+  </si>
+  <si>
+    <t>02.06.202596</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1573,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1593,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1613,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1633,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1653,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>-40</v>
+        <v>-16</v>
       </c>
       <c r="C6">
-        <v>1021.85</v>
+        <v>889.36</v>
       </c>
       <c r="D6">
-        <v>1021.85</v>
+        <v>889.36</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1673,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>-34</v>
+        <v>-4</v>
       </c>
       <c r="C7">
-        <v>1406.24</v>
+        <v>771.65</v>
       </c>
       <c r="D7">
-        <v>1406.24</v>
+        <v>771.65</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1693,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>662.29</v>
+        <v>68.23</v>
       </c>
       <c r="D8">
-        <v>662.29</v>
+        <v>68.23</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1713,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>-4</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>669.12</v>
+        <v>-2707.3</v>
       </c>
       <c r="D9">
-        <v>669.12</v>
+        <v>-2707.3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1733,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>229.13</v>
+        <v>-151.76</v>
       </c>
       <c r="D10">
-        <v>229.13</v>
+        <v>-151.76</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1753,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>-20</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>650</v>
+        <v>-746.53</v>
       </c>
       <c r="D11">
-        <v>650</v>
+        <v>-746.53</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1773,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>-30</v>
+        <v>85</v>
       </c>
       <c r="C12">
-        <v>650</v>
+        <v>-4499</v>
       </c>
       <c r="D12">
-        <v>650</v>
+        <v>-4499</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1793,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>-58</v>
+        <v>124</v>
       </c>
       <c r="C13">
-        <v>650</v>
+        <v>-2950.2</v>
       </c>
       <c r="D13">
-        <v>650</v>
+        <v>-2950.2</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1813,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>-23</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>894.99</v>
+        <v>-841.04</v>
       </c>
       <c r="D14">
-        <v>894.99</v>
+        <v>-841.04</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1833,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>-27</v>
+        <v>87</v>
       </c>
       <c r="C15">
-        <v>899.27</v>
+        <v>-105.36</v>
       </c>
       <c r="D15">
-        <v>899.27</v>
+        <v>-105.36</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1853,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>-62</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>2239.17</v>
+        <v>-104.08</v>
       </c>
       <c r="D16">
-        <v>2239.17</v>
+        <v>-104.08</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1873,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>-85</v>
+        <v>82</v>
       </c>
       <c r="C17">
-        <v>895.05</v>
+        <v>-101.34</v>
       </c>
       <c r="D17">
-        <v>895.05</v>
+        <v>-101.34</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1893,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>-34</v>
+        <v>47</v>
       </c>
       <c r="C18">
-        <v>898.8200000000001</v>
+        <v>18.07</v>
       </c>
       <c r="D18">
-        <v>898.8200000000001</v>
+        <v>18.07</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1913,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>-47</v>
+        <v>55</v>
       </c>
       <c r="C19">
-        <v>895.79</v>
+        <v>-1.41</v>
       </c>
       <c r="D19">
-        <v>895.79</v>
+        <v>-1.41</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1933,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>-33</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>828.9400000000001</v>
+        <v>14.59</v>
       </c>
       <c r="D20">
-        <v>828.9400000000001</v>
+        <v>14.59</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1953,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>-67</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>796.8200000000001</v>
+        <v>18.37</v>
       </c>
       <c r="D21">
-        <v>796.8200000000001</v>
+        <v>18.37</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1973,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>650</v>
+        <v>36.56</v>
       </c>
       <c r="D22">
-        <v>650</v>
+        <v>36.56</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1993,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>-4</v>
+        <v>-22</v>
       </c>
       <c r="C23">
-        <v>704.88</v>
+        <v>661.4</v>
       </c>
       <c r="D23">
-        <v>704.88</v>
+        <v>661.4</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +2013,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="C24">
-        <v>650</v>
+        <v>639.03</v>
       </c>
       <c r="D24">
-        <v>650</v>
+        <v>639.03</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +2033,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>-26</v>
       </c>
       <c r="C25">
-        <v>192.37</v>
+        <v>671.25</v>
       </c>
       <c r="D25">
-        <v>192.37</v>
+        <v>671.25</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +2053,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>-32</v>
       </c>
       <c r="C26">
-        <v>98.39</v>
+        <v>886.5599999999999</v>
       </c>
       <c r="D26">
-        <v>98.39</v>
+        <v>886.5599999999999</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +2073,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>-49</v>
       </c>
       <c r="C27">
-        <v>227.14</v>
+        <v>1444.8</v>
       </c>
       <c r="D27">
-        <v>227.14</v>
+        <v>1444.8</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +2093,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>-99</v>
       </c>
       <c r="C28">
-        <v>222.61</v>
+        <v>899.25</v>
       </c>
       <c r="D28">
-        <v>222.61</v>
+        <v>899.25</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +2113,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>59</v>
+        <v>-81</v>
       </c>
       <c r="C29">
-        <v>199.42</v>
+        <v>794.12</v>
       </c>
       <c r="D29">
-        <v>199.42</v>
+        <v>794.12</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +2133,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>-115</v>
       </c>
       <c r="C30">
-        <v>283.58</v>
+        <v>785.75</v>
       </c>
       <c r="D30">
-        <v>283.58</v>
+        <v>785.75</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +2153,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>-113</v>
       </c>
       <c r="C31">
-        <v>-2417.31</v>
+        <v>827.76</v>
       </c>
       <c r="D31">
-        <v>-2417.31</v>
+        <v>827.76</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +2173,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>-59</v>
       </c>
       <c r="C32">
-        <v>-853.28</v>
+        <v>793.6</v>
       </c>
       <c r="D32">
-        <v>-853.28</v>
+        <v>793.6</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +2193,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
-        <v>71</v>
+        <v>-11</v>
       </c>
       <c r="C33">
-        <v>-733.42</v>
+        <v>793.6900000000001</v>
       </c>
       <c r="D33">
-        <v>-733.42</v>
+        <v>793.6900000000001</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +2213,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>147</v>
+        <v>-30</v>
       </c>
       <c r="C34">
-        <v>9.48</v>
+        <v>715.08</v>
       </c>
       <c r="D34">
-        <v>9.48</v>
+        <v>715.08</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +2233,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>87</v>
+        <v>-34</v>
       </c>
       <c r="C35">
-        <v>0.4</v>
+        <v>715</v>
       </c>
       <c r="D35">
-        <v>0.4</v>
+        <v>715</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +2253,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>241.31</v>
+        <v>-2233.53</v>
       </c>
       <c r="D36">
-        <v>241.31</v>
+        <v>-2233.53</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +2273,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>-51</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>787.49</v>
+        <v>-3912.88</v>
       </c>
       <c r="D37">
-        <v>787.49</v>
+        <v>-3912.88</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +2293,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>-159</v>
+        <v>-73</v>
       </c>
       <c r="C38">
-        <v>685.63</v>
+        <v>597.24</v>
       </c>
       <c r="D38">
-        <v>685.63</v>
+        <v>597.24</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +2313,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>-106</v>
+        <v>-23</v>
       </c>
       <c r="C39">
-        <v>756.71</v>
+        <v>597.24</v>
       </c>
       <c r="D39">
-        <v>756.71</v>
+        <v>597.24</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +2333,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>-59</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>757.7</v>
+        <v>168.68</v>
       </c>
       <c r="D40">
-        <v>757.7</v>
+        <v>168.68</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +2353,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
-        <v>-32</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>757.9400000000001</v>
+        <v>-1446.44</v>
       </c>
       <c r="D41">
-        <v>757.9400000000001</v>
+        <v>-1446.44</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +2373,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>-76</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>564.8200000000001</v>
+        <v>-845.3200000000001</v>
       </c>
       <c r="D42">
-        <v>564.8200000000001</v>
+        <v>-845.3200000000001</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +2393,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
-        <v>-19</v>
+        <v>68</v>
       </c>
       <c r="C43">
-        <v>541.13</v>
+        <v>-4642.54</v>
       </c>
       <c r="D43">
-        <v>541.13</v>
+        <v>-4642.54</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +2413,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>87</v>
       </c>
       <c r="C44">
-        <v>163.63</v>
+        <v>-3367.49</v>
       </c>
       <c r="D44">
-        <v>163.63</v>
+        <v>-3367.49</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +2433,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="C45">
-        <v>130.84</v>
+        <v>-3073.37</v>
       </c>
       <c r="D45">
-        <v>130.84</v>
+        <v>-3073.37</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +2453,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C46">
-        <v>155.73</v>
+        <v>-400.41</v>
       </c>
       <c r="D46">
-        <v>155.73</v>
+        <v>-400.41</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +2473,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C47">
-        <v>203.79</v>
+        <v>-104.71</v>
       </c>
       <c r="D47">
-        <v>203.79</v>
+        <v>-104.71</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +2493,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>196.73</v>
+        <v>-272.77</v>
       </c>
       <c r="D48">
-        <v>196.73</v>
+        <v>-272.77</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +2513,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>313.61</v>
+        <v>-1178.26</v>
       </c>
       <c r="D49">
-        <v>313.61</v>
+        <v>-1178.26</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +2533,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C50">
-        <v>162.23</v>
+        <v>-140.02</v>
       </c>
       <c r="D50">
-        <v>162.23</v>
+        <v>-140.02</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +2553,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>261.52</v>
+        <v>-145.52</v>
       </c>
       <c r="D51">
-        <v>261.52</v>
+        <v>-145.52</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +2573,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>297.69</v>
+        <v>-105.65</v>
       </c>
       <c r="D52">
-        <v>297.69</v>
+        <v>-105.65</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2593,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>113</v>
+        <v>-32</v>
       </c>
       <c r="C53">
-        <v>-294.09</v>
+        <v>470.32</v>
       </c>
       <c r="D53">
-        <v>-294.09</v>
+        <v>470.32</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2613,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>38</v>
+        <v>-49</v>
       </c>
       <c r="C54">
-        <v>-295</v>
+        <v>453.87</v>
       </c>
       <c r="D54">
-        <v>-295</v>
+        <v>453.87</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2633,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>-9</v>
       </c>
       <c r="C55">
-        <v>-600</v>
+        <v>453.87</v>
       </c>
       <c r="D55">
-        <v>-600</v>
+        <v>453.87</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2653,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>89</v>
+        <v>-15</v>
       </c>
       <c r="C56">
-        <v>-140.84</v>
+        <v>453.87</v>
       </c>
       <c r="D56">
-        <v>-140.84</v>
+        <v>453.87</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2673,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>48</v>
+        <v>-37</v>
       </c>
       <c r="C57">
-        <v>4.86</v>
+        <v>453.87</v>
       </c>
       <c r="D57">
-        <v>4.86</v>
+        <v>453.87</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2693,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>-10</v>
+        <v>-23</v>
       </c>
       <c r="C58">
-        <v>538.23</v>
+        <v>450.2</v>
       </c>
       <c r="D58">
-        <v>538.23</v>
+        <v>450.2</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2713,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>-11</v>
+        <v>-0</v>
       </c>
       <c r="C59">
-        <v>511</v>
+        <v>450.2</v>
       </c>
       <c r="D59">
-        <v>511</v>
+        <v>450.2</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2733,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>-43</v>
       </c>
       <c r="C60">
-        <v>111.62</v>
+        <v>450.2</v>
       </c>
       <c r="D60">
-        <v>111.62</v>
+        <v>450.2</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2753,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>53</v>
+        <v>-65</v>
       </c>
       <c r="C61">
-        <v>28.85</v>
+        <v>450.2</v>
       </c>
       <c r="D61">
-        <v>28.85</v>
+        <v>450.2</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2773,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>-3666.75</v>
+        <v>136</v>
       </c>
       <c r="D62">
-        <v>-3666.75</v>
+        <v>136</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2793,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>-341.76</v>
+        <v>131.16</v>
       </c>
       <c r="D63">
-        <v>-341.76</v>
+        <v>131.16</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2813,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>-77.13</v>
+        <v>327.07</v>
       </c>
       <c r="D64">
-        <v>-77.13</v>
+        <v>327.07</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2833,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>-8.23</v>
+        <v>195.94</v>
       </c>
       <c r="D65">
-        <v>-8.23</v>
+        <v>195.94</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2853,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C66">
-        <v>-594.96</v>
+        <v>191.04</v>
       </c>
       <c r="D66">
-        <v>-594.96</v>
+        <v>191.04</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2873,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="C67">
-        <v>-878</v>
+        <v>222.76</v>
       </c>
       <c r="D67">
-        <v>-878</v>
+        <v>222.76</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2893,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C68">
-        <v>275.71</v>
+        <v>164.06</v>
       </c>
       <c r="D68">
-        <v>275.71</v>
+        <v>164.06</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2913,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>1356.43</v>
+        <v>297.41</v>
       </c>
       <c r="D69">
-        <v>1356.43</v>
+        <v>297.41</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2933,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="C70">
-        <v>13.08</v>
+        <v>-5433.03</v>
       </c>
       <c r="D70">
-        <v>13.08</v>
+        <v>-5433.03</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2953,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C71">
-        <v>190.81</v>
+        <v>-180.75</v>
       </c>
       <c r="D71">
-        <v>190.81</v>
+        <v>-180.75</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2973,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>-7</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>835.42</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>835.42</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2993,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>-38</v>
+        <v>-1</v>
       </c>
       <c r="C73">
-        <v>2283.93</v>
+        <v>2306.12</v>
       </c>
       <c r="D73">
-        <v>2283.93</v>
+        <v>2306.12</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +3013,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>198.01</v>
+        <v>8.09</v>
       </c>
       <c r="D74">
-        <v>198.01</v>
+        <v>8.09</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +3033,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>-33</v>
       </c>
       <c r="C75">
-        <v>309.25</v>
+        <v>3064.52</v>
       </c>
       <c r="D75">
-        <v>309.25</v>
+        <v>3064.52</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +3053,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>24</v>
+        <v>-45</v>
       </c>
       <c r="C76">
-        <v>390</v>
+        <v>1437.84</v>
       </c>
       <c r="D76">
-        <v>390</v>
+        <v>1437.84</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +3073,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>-71</v>
       </c>
       <c r="C77">
-        <v>318.92</v>
+        <v>870.3099999999999</v>
       </c>
       <c r="D77">
-        <v>318.92</v>
+        <v>870.3099999999999</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +3093,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>75</v>
+        <v>-40</v>
       </c>
       <c r="C78">
-        <v>-3723.49</v>
+        <v>831.37</v>
       </c>
       <c r="D78">
-        <v>-3723.49</v>
+        <v>831.37</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +3113,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>111</v>
+        <v>-43</v>
       </c>
       <c r="C79">
-        <v>278.04</v>
+        <v>1101.76</v>
       </c>
       <c r="D79">
-        <v>278.04</v>
+        <v>1101.76</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +3133,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>41</v>
+        <v>-46</v>
       </c>
       <c r="C80">
-        <v>390</v>
+        <v>985.6</v>
       </c>
       <c r="D80">
-        <v>390</v>
+        <v>985.6</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +3153,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>-35</v>
       </c>
       <c r="C81">
-        <v>390</v>
+        <v>1080.8</v>
       </c>
       <c r="D81">
-        <v>390</v>
+        <v>1080.8</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +3173,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>-44</v>
+        <v>-54</v>
       </c>
       <c r="C82">
-        <v>900.28</v>
+        <v>998.47</v>
       </c>
       <c r="D82">
-        <v>900.28</v>
+        <v>998.47</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +3193,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>-20</v>
+        <v>-77</v>
       </c>
       <c r="C83">
-        <v>975.83</v>
+        <v>809.3200000000001</v>
       </c>
       <c r="D83">
-        <v>975.83</v>
+        <v>809.3200000000001</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +3213,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="C84">
-        <v>1112.31</v>
+        <v>898.73</v>
       </c>
       <c r="D84">
-        <v>1112.31</v>
+        <v>898.73</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +3233,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>-34</v>
       </c>
       <c r="C85">
-        <v>390</v>
+        <v>1196.48</v>
       </c>
       <c r="D85">
-        <v>390</v>
+        <v>1196.48</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +3253,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>-78</v>
+        <v>-101</v>
       </c>
       <c r="C86">
-        <v>4243.73</v>
+        <v>3936.22</v>
       </c>
       <c r="D86">
-        <v>4243.73</v>
+        <v>3936.22</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +3273,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>-61</v>
+        <v>-128</v>
       </c>
       <c r="C87">
-        <v>1312.56</v>
+        <v>1975.15</v>
       </c>
       <c r="D87">
-        <v>1312.56</v>
+        <v>1975.15</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +3293,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="C88">
-        <v>1016.41</v>
+        <v>3624.82</v>
       </c>
       <c r="D88">
-        <v>1016.41</v>
+        <v>3624.82</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +3313,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>-41</v>
+        <v>-3</v>
       </c>
       <c r="C89">
-        <v>865.6799999999999</v>
+        <v>1186.72</v>
       </c>
       <c r="D89">
-        <v>865.6799999999999</v>
+        <v>1186.72</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +3333,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>-45</v>
+        <v>-64</v>
       </c>
       <c r="C90">
-        <v>2368.67</v>
+        <v>1062.6</v>
       </c>
       <c r="D90">
-        <v>2368.67</v>
+        <v>1062.6</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +3353,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>-41</v>
+        <v>-74</v>
       </c>
       <c r="C91">
-        <v>894</v>
+        <v>1075.72</v>
       </c>
       <c r="D91">
-        <v>894</v>
+        <v>1075.72</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +3373,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>-23</v>
+        <v>-4</v>
       </c>
       <c r="C92">
-        <v>848.27</v>
+        <v>1094.42</v>
       </c>
       <c r="D92">
-        <v>848.27</v>
+        <v>1094.42</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +3393,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="C93">
-        <v>839.27</v>
+        <v>695.24</v>
       </c>
       <c r="D93">
-        <v>839.27</v>
+        <v>695.24</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +3413,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>-18</v>
+        <v>-68</v>
       </c>
       <c r="C94">
-        <v>1849.24</v>
+        <v>1989.44</v>
       </c>
       <c r="D94">
-        <v>1849.24</v>
+        <v>1989.44</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +3433,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>-51</v>
+        <v>-83</v>
       </c>
       <c r="C95">
-        <v>2362.09</v>
+        <v>980.49</v>
       </c>
       <c r="D95">
-        <v>2362.09</v>
+        <v>980.49</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +3453,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B96">
-        <v>-38</v>
+        <v>-30</v>
       </c>
       <c r="C96">
-        <v>1412.77</v>
+        <v>980.08</v>
       </c>
       <c r="D96">
-        <v>1412.77</v>
+        <v>980.08</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +3473,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B97">
-        <v>-38</v>
+        <v>-52</v>
       </c>
       <c r="C97">
-        <v>873.87</v>
+        <v>988.79</v>
       </c>
       <c r="D97">
-        <v>873.87</v>
+        <v>988.79</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +3493,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B98">
-        <v>-32</v>
+        <v>-25</v>
       </c>
       <c r="C98">
-        <v>891.84</v>
+        <v>1426.74</v>
       </c>
       <c r="D98">
-        <v>891.84</v>
+        <v>1426.74</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +3513,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B99">
-        <v>-40</v>
+        <v>-32</v>
       </c>
       <c r="C99">
-        <v>861.0599999999999</v>
+        <v>1405.09</v>
       </c>
       <c r="D99">
-        <v>861.0599999999999</v>
+        <v>1405.09</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +3533,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B100">
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="C100">
-        <v>650</v>
+        <v>762.9</v>
       </c>
       <c r="D100">
-        <v>650</v>
+        <v>762.9</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,10 +3553,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B101">
-        <v>-3</v>
+        <v>-43</v>
       </c>
       <c r="C101">
         <v>650</v>
@@ -2997,16 +3573,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B102">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="C102">
-        <v>889.36</v>
+        <v>961.7</v>
       </c>
       <c r="D102">
-        <v>889.36</v>
+        <v>961.7</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3593,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B103">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="C103">
-        <v>771.65</v>
+        <v>954.9</v>
       </c>
       <c r="D103">
-        <v>771.65</v>
+        <v>954.9</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3613,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>-41</v>
       </c>
       <c r="C104">
-        <v>68.23</v>
+        <v>960.9400000000001</v>
       </c>
       <c r="D104">
-        <v>68.23</v>
+        <v>960.9400000000001</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3633,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>-26</v>
       </c>
       <c r="C105">
-        <v>-2707.3</v>
+        <v>961.5</v>
       </c>
       <c r="D105">
-        <v>-2707.3</v>
+        <v>961.5</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3653,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B106">
-        <v>58</v>
+        <v>-35</v>
       </c>
       <c r="C106">
-        <v>-151.76</v>
+        <v>958.3099999999999</v>
       </c>
       <c r="D106">
-        <v>-151.76</v>
+        <v>958.3099999999999</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3673,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>3813.09</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>3813.09</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3693,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>925.22</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>925.22</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3713,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>701.63</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>701.63</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3733,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="C110">
-        <v>-841.04</v>
+        <v>937.33</v>
       </c>
       <c r="D110">
-        <v>-841.04</v>
+        <v>937.33</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3753,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="C111">
-        <v>-105.36</v>
+        <v>859.64</v>
       </c>
       <c r="D111">
-        <v>-105.36</v>
+        <v>859.64</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3773,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C112">
-        <v>-104.08</v>
+        <v>780.8200000000001</v>
       </c>
       <c r="D112">
-        <v>-104.08</v>
+        <v>780.8200000000001</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3793,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B113">
-        <v>82</v>
+        <v>-31</v>
       </c>
       <c r="C113">
-        <v>-101.34</v>
+        <v>758.83</v>
       </c>
       <c r="D113">
-        <v>-101.34</v>
+        <v>758.83</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3813,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B114">
-        <v>47</v>
+        <v>-34</v>
       </c>
       <c r="C114">
-        <v>18.07</v>
+        <v>848.4299999999999</v>
       </c>
       <c r="D114">
-        <v>18.07</v>
+        <v>848.4299999999999</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3833,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B115">
-        <v>55</v>
+        <v>-12</v>
       </c>
       <c r="C115">
-        <v>-1.41</v>
+        <v>917.39</v>
       </c>
       <c r="D115">
-        <v>-1.41</v>
+        <v>917.39</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3853,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B116">
-        <v>54</v>
+        <v>-10</v>
       </c>
       <c r="C116">
-        <v>14.59</v>
+        <v>840.84</v>
       </c>
       <c r="D116">
-        <v>14.59</v>
+        <v>840.84</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3873,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B117">
-        <v>45</v>
+        <v>-4</v>
       </c>
       <c r="C117">
-        <v>18.37</v>
+        <v>898.1799999999999</v>
       </c>
       <c r="D117">
-        <v>18.37</v>
+        <v>898.1799999999999</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3893,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C118">
-        <v>36.56</v>
+        <v>124.25</v>
       </c>
       <c r="D118">
-        <v>36.56</v>
+        <v>124.25</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3913,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B119">
-        <v>-22</v>
+        <v>49</v>
       </c>
       <c r="C119">
-        <v>661.4</v>
+        <v>63.62</v>
       </c>
       <c r="D119">
-        <v>661.4</v>
+        <v>63.62</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3933,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B120">
-        <v>-3</v>
+        <v>65</v>
       </c>
       <c r="C120">
-        <v>639.03</v>
+        <v>119</v>
       </c>
       <c r="D120">
-        <v>639.03</v>
+        <v>119</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3953,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B121">
-        <v>-26</v>
+        <v>95</v>
       </c>
       <c r="C121">
-        <v>671.25</v>
+        <v>-2679.51</v>
       </c>
       <c r="D121">
-        <v>671.25</v>
+        <v>-2679.51</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3973,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B122">
-        <v>-32</v>
+        <v>8</v>
       </c>
       <c r="C122">
-        <v>886.5599999999999</v>
+        <v>192.11</v>
       </c>
       <c r="D122">
-        <v>886.5599999999999</v>
+        <v>192.11</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3993,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B123">
-        <v>-49</v>
+        <v>-7</v>
       </c>
       <c r="C123">
-        <v>1444.8</v>
+        <v>783.42</v>
       </c>
       <c r="D123">
-        <v>1444.8</v>
+        <v>783.42</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +4013,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>894.87</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>894.87</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +4033,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45807.28125</v>
+        <v>45808.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>850.66</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>850.66</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +4053,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45807.29166666666</v>
+        <v>45808.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>5517.32</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>5517.32</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +4073,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45807.30208333334</v>
+        <v>45808.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>846.52</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>846.52</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +4093,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45807.3125</v>
+        <v>45808.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>846.61</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>846.61</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +4113,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45807.32291666666</v>
+        <v>45808.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>846.75</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>846.75</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +4133,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45807.33333333334</v>
+        <v>45808.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>2936.81</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>2936.81</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +4153,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45807.34375</v>
+        <v>45808.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1437.94</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1437.94</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +4173,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45807.35416666666</v>
+        <v>45808.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>716.76</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>716.76</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +4193,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45807.36458333334</v>
+        <v>45808.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>-3952.75</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>-3952.75</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +4213,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45807.375</v>
+        <v>45808.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>498.07</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>498.07</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +4233,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45807.38541666666</v>
+        <v>45808.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +4253,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45807.39583333334</v>
+        <v>45808.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-2813.87</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-2813.87</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +4273,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45807.40625</v>
+        <v>45808.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>-5568.77</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-5568.77</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +4293,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45807.41666666666</v>
+        <v>45808.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>-2800.67</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>-2800.67</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +4313,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45807.42708333334</v>
+        <v>45808.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>-2767.77</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>-2767.77</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +4333,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45807.4375</v>
+        <v>45808.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,16 +4353,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45807.44791666666</v>
+        <v>45808.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -3797,16 +4373,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45807.45833333334</v>
+        <v>45808.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>450.93</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>450.93</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -3817,16 +4393,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45807.46875</v>
+        <v>45808.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>450.93</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>450.93</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -3837,16 +4413,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45807.47916666666</v>
+        <v>45808.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>450.92</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>450.92</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -3857,16 +4433,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45807.48958333334</v>
+        <v>45808.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>450.92</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>450.92</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -3877,16 +4453,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45807.5</v>
+        <v>45808.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>450.46</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>450.46</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -3897,16 +4473,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45807.51041666666</v>
+        <v>45808.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>450.46</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>450.46</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -3917,16 +4493,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45807.52083333334</v>
+        <v>45808.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>20.54</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -3937,16 +4513,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45807.53125</v>
+        <v>45808.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>-1238.29</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>-1238.29</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -3957,16 +4533,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45807.54166666666</v>
+        <v>45808.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>-473.84</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>-473.84</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -3977,16 +4553,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45807.55208333334</v>
+        <v>45808.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>-1817.17</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>-1817.17</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -3997,16 +4573,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45807.5625</v>
+        <v>45808.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>-3594.51</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>-3594.51</v>
       </c>
       <c r="E152">
         <v>55</v>
@@ -4017,16 +4593,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45807.57291666666</v>
+        <v>45808.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>-2953.69</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>-2953.69</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4037,16 +4613,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45807.58333333334</v>
+        <v>45808.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-1353.96</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>-1353.96</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4057,16 +4633,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45807.59375</v>
+        <v>45808.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>-679.97</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>-679.97</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4077,16 +4653,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45807.60416666666</v>
+        <v>45808.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>31.57</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>31.57</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4097,16 +4673,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45807.61458333334</v>
+        <v>45808.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>450.74</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>450.74</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4117,16 +4693,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45807.625</v>
+        <v>45808.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>-552.83</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>-552.83</v>
       </c>
       <c r="E158">
         <v>61</v>
@@ -4137,16 +4713,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45807.63541666666</v>
+        <v>45808.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -4157,16 +4733,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45807.64583333334</v>
+        <v>45808.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>284.61</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>284.61</v>
       </c>
       <c r="E160">
         <v>63</v>
@@ -4177,16 +4753,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45807.65625</v>
+        <v>45808.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>324.43</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>324.43</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4197,16 +4773,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45807.66666666666</v>
+        <v>45808.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-2710.95</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-2710.95</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4217,16 +4793,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45807.67708333334</v>
+        <v>45808.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>-5570.66</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>-5570.66</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4237,16 +4813,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45807.6875</v>
+        <v>45808.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>-164.79</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>-164.79</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4257,16 +4833,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45807.69791666666</v>
+        <v>45808.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>-108.51</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>-108.51</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4277,16 +4853,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45807.70833333334</v>
+        <v>45808.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>-2314.37</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>-2314.37</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4297,16 +4873,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45807.71875</v>
+        <v>45808.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>-224.39</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>-224.39</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4317,16 +4893,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45807.72916666666</v>
+        <v>45808.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>4659.88</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>4659.88</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4337,16 +4913,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45807.73958333334</v>
+        <v>45808.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>5625.13</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>5625.13</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4357,16 +4933,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45807.75</v>
+        <v>45808.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>101.55</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>101.55</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4377,16 +4953,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45807.76041666666</v>
+        <v>45808.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>102.41</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>102.41</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4397,16 +4973,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45807.77083333334</v>
+        <v>45808.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>361.69</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>361.69</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4417,16 +4993,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45807.78125</v>
+        <v>45808.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4437,16 +5013,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45807.79166666666</v>
+        <v>45808.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>-982.1799999999999</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>-982.1799999999999</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4457,16 +5033,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45807.80208333334</v>
+        <v>45808.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>-2264.08</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>-2264.08</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4477,16 +5053,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45807.8125</v>
+        <v>45808.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>143.07</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>143.07</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4497,16 +5073,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45807.82291666666</v>
+        <v>45808.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>995.23</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>995.23</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4517,16 +5093,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45807.83333333334</v>
+        <v>45808.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>64.87</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>64.87</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4537,16 +5113,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45807.84375</v>
+        <v>45808.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>302.53</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>302.53</v>
       </c>
       <c r="E179">
         <v>82</v>
@@ -4557,16 +5133,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45807.85416666666</v>
+        <v>45808.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1474.86</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1474.86</v>
       </c>
       <c r="E180">
         <v>83</v>
@@ -4577,16 +5153,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45807.86458333334</v>
+        <v>45808.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1016.58</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1016.58</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4597,16 +5173,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45807.875</v>
+        <v>45808.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>5078.97</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>5078.97</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4617,16 +5193,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45807.88541666666</v>
+        <v>45808.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1362.37</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1362.37</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4637,16 +5213,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45807.89583333334</v>
+        <v>45808.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1413.65</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1413.65</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4657,16 +5233,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45807.90625</v>
+        <v>45808.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1414.11</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1414.11</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4677,16 +5253,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45807.91666666666</v>
+        <v>45808.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1989.99</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1989.99</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4697,16 +5273,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45807.92708333334</v>
+        <v>45808.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1096.47</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1096.47</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -4717,16 +5293,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45807.9375</v>
+        <v>45808.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1103.41</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1103.41</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -4737,16 +5313,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45807.94791666666</v>
+        <v>45808.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1104.25</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1104.25</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -4757,16 +5333,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45807.95833333334</v>
+        <v>45808.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1291.27</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1291.27</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -4777,16 +5353,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45807.96875</v>
+        <v>45808.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>916.47</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>916.47</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -4797,16 +5373,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45807.97916666666</v>
+        <v>45808.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>92.09</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>92.09</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -4817,22 +5393,3862 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45807.98958333334</v>
+        <v>45808.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>160.8</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>160.8</v>
       </c>
       <c r="E193">
         <v>96</v>
       </c>
       <c r="F193" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B194">
+        <v>-34</v>
+      </c>
+      <c r="C194">
+        <v>1202.6</v>
+      </c>
+      <c r="D194">
+        <v>1202.6</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>-5</v>
+      </c>
+      <c r="C195">
+        <v>924.26</v>
+      </c>
+      <c r="D195">
+        <v>924.26</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>124.4</v>
+      </c>
+      <c r="D196">
+        <v>124.4</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B197">
+        <v>-8</v>
+      </c>
+      <c r="C197">
+        <v>212.03</v>
+      </c>
+      <c r="D197">
+        <v>212.03</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>-22</v>
+      </c>
+      <c r="C198">
+        <v>840.58</v>
+      </c>
+      <c r="D198">
+        <v>840.58</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>-7</v>
+      </c>
+      <c r="C199">
+        <v>204.08</v>
+      </c>
+      <c r="D199">
+        <v>204.08</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B200">
+        <v>18</v>
+      </c>
+      <c r="C200">
+        <v>3.55</v>
+      </c>
+      <c r="D200">
+        <v>3.55</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="D201">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>21</v>
+      </c>
+      <c r="C202">
+        <v>43.03</v>
+      </c>
+      <c r="D202">
+        <v>43.03</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B203">
+        <v>19</v>
+      </c>
+      <c r="C203">
+        <v>0.22</v>
+      </c>
+      <c r="D203">
+        <v>0.22</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>17</v>
+      </c>
+      <c r="C204">
+        <v>0.24</v>
+      </c>
+      <c r="D204">
+        <v>0.24</v>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>0.24</v>
+      </c>
+      <c r="D205">
+        <v>0.24</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B206">
+        <v>24</v>
+      </c>
+      <c r="C206">
+        <v>0.2</v>
+      </c>
+      <c r="D206">
+        <v>0.2</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>9</v>
+      </c>
+      <c r="C207">
+        <v>1.08</v>
+      </c>
+      <c r="D207">
+        <v>1.08</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>32</v>
+      </c>
+      <c r="C208">
+        <v>-2.86</v>
+      </c>
+      <c r="D208">
+        <v>-2.86</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B209">
+        <v>32</v>
+      </c>
+      <c r="C209">
+        <v>-471.74</v>
+      </c>
+      <c r="D209">
+        <v>-471.74</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <v>116.47</v>
+      </c>
+      <c r="D210">
+        <v>116.47</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>63</v>
+      </c>
+      <c r="C211">
+        <v>-2158.6</v>
+      </c>
+      <c r="D211">
+        <v>-2158.6</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B212">
+        <v>53</v>
+      </c>
+      <c r="C212">
+        <v>-4499</v>
+      </c>
+      <c r="D212">
+        <v>-4499</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>56</v>
+      </c>
+      <c r="C213">
+        <v>-1630.01</v>
+      </c>
+      <c r="D213">
+        <v>-1630.01</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>54</v>
+      </c>
+      <c r="C214">
+        <v>0.75</v>
+      </c>
+      <c r="D214">
+        <v>0.75</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B215">
+        <v>53</v>
+      </c>
+      <c r="C215">
+        <v>-199.68</v>
+      </c>
+      <c r="D215">
+        <v>-199.68</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>65</v>
+      </c>
+      <c r="C216">
+        <v>-2576.35</v>
+      </c>
+      <c r="D216">
+        <v>-2576.35</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>79</v>
+      </c>
+      <c r="C217">
+        <v>-2309.32</v>
+      </c>
+      <c r="D217">
+        <v>-2309.32</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B218">
+        <v>124</v>
+      </c>
+      <c r="C218">
+        <v>-155.22</v>
+      </c>
+      <c r="D218">
+        <v>-155.22</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>108</v>
+      </c>
+      <c r="C219">
+        <v>-2531.84</v>
+      </c>
+      <c r="D219">
+        <v>-2531.84</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>91</v>
+      </c>
+      <c r="C220">
+        <v>-768.76</v>
+      </c>
+      <c r="D220">
+        <v>-768.76</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B221">
+        <v>81</v>
+      </c>
+      <c r="C221">
+        <v>-1258.88</v>
+      </c>
+      <c r="D221">
+        <v>-1258.88</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>31</v>
+      </c>
+      <c r="C222">
+        <v>-2672.53</v>
+      </c>
+      <c r="D222">
+        <v>-2672.53</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>69</v>
+      </c>
+      <c r="C223">
+        <v>-634.73</v>
+      </c>
+      <c r="D223">
+        <v>-634.73</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B224">
+        <v>67</v>
+      </c>
+      <c r="C224">
+        <v>-612.47</v>
+      </c>
+      <c r="D224">
+        <v>-612.47</v>
+      </c>
+      <c r="E224">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>68</v>
+      </c>
+      <c r="C225">
+        <v>-1009.6</v>
+      </c>
+      <c r="D225">
+        <v>-1009.6</v>
+      </c>
+      <c r="E225">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>93</v>
+      </c>
+      <c r="C226">
+        <v>-1192.63</v>
+      </c>
+      <c r="D226">
+        <v>-1192.63</v>
+      </c>
+      <c r="E226">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B227">
+        <v>81</v>
+      </c>
+      <c r="C227">
+        <v>-640.98</v>
+      </c>
+      <c r="D227">
+        <v>-640.98</v>
+      </c>
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>84</v>
+      </c>
+      <c r="C228">
+        <v>-1381.91</v>
+      </c>
+      <c r="D228">
+        <v>-1381.91</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>84</v>
+      </c>
+      <c r="C229">
+        <v>-1126.3</v>
+      </c>
+      <c r="D229">
+        <v>-1126.3</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B230">
+        <v>74</v>
+      </c>
+      <c r="C230">
+        <v>-807.6900000000001</v>
+      </c>
+      <c r="D230">
+        <v>-807.6900000000001</v>
+      </c>
+      <c r="E230">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>100</v>
+      </c>
+      <c r="C231">
+        <v>-694.1</v>
+      </c>
+      <c r="D231">
+        <v>-694.1</v>
+      </c>
+      <c r="E231">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>87</v>
+      </c>
+      <c r="C232">
+        <v>-701.8099999999999</v>
+      </c>
+      <c r="D232">
+        <v>-701.8099999999999</v>
+      </c>
+      <c r="E232">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B233">
+        <v>45</v>
+      </c>
+      <c r="C233">
+        <v>-817.95</v>
+      </c>
+      <c r="D233">
+        <v>-817.95</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>17</v>
+      </c>
+      <c r="C234">
+        <v>-877.46</v>
+      </c>
+      <c r="D234">
+        <v>-877.46</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>-877.25</v>
+      </c>
+      <c r="D235">
+        <v>-877.25</v>
+      </c>
+      <c r="E235">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B236">
+        <v>-23</v>
+      </c>
+      <c r="C236">
+        <v>450</v>
+      </c>
+      <c r="D236">
+        <v>450</v>
+      </c>
+      <c r="E236">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>11</v>
+      </c>
+      <c r="C237">
+        <v>-0.45</v>
+      </c>
+      <c r="D237">
+        <v>-0.45</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>39</v>
+      </c>
+      <c r="C238">
+        <v>207.01</v>
+      </c>
+      <c r="D238">
+        <v>207.01</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B239">
+        <v>62</v>
+      </c>
+      <c r="C239">
+        <v>42.66</v>
+      </c>
+      <c r="D239">
+        <v>42.66</v>
+      </c>
+      <c r="E239">
+        <v>46</v>
+      </c>
+      <c r="F239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>37</v>
+      </c>
+      <c r="C240">
+        <v>158.07</v>
+      </c>
+      <c r="D240">
+        <v>158.07</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>95</v>
+      </c>
+      <c r="C241">
+        <v>35.91</v>
+      </c>
+      <c r="D241">
+        <v>35.91</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B242">
+        <v>129</v>
+      </c>
+      <c r="C242">
+        <v>-560.45</v>
+      </c>
+      <c r="D242">
+        <v>-560.45</v>
+      </c>
+      <c r="E242">
+        <v>49</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>137</v>
+      </c>
+      <c r="C243">
+        <v>376.79</v>
+      </c>
+      <c r="D243">
+        <v>376.79</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>60</v>
+      </c>
+      <c r="C244">
+        <v>-598.0599999999999</v>
+      </c>
+      <c r="D244">
+        <v>-598.0599999999999</v>
+      </c>
+      <c r="E244">
+        <v>51</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B245">
+        <v>38</v>
+      </c>
+      <c r="C245">
+        <v>-590.75</v>
+      </c>
+      <c r="D245">
+        <v>-590.75</v>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>-0</v>
+      </c>
+      <c r="C246">
+        <v>446</v>
+      </c>
+      <c r="D246">
+        <v>446</v>
+      </c>
+      <c r="E246">
+        <v>53</v>
+      </c>
+      <c r="F246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>-1</v>
+      </c>
+      <c r="C247">
+        <v>450</v>
+      </c>
+      <c r="D247">
+        <v>450</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>-294.28</v>
+      </c>
+      <c r="D248">
+        <v>-294.28</v>
+      </c>
+      <c r="E248">
+        <v>55</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>-74</v>
+      </c>
+      <c r="C249">
+        <v>450</v>
+      </c>
+      <c r="D249">
+        <v>450</v>
+      </c>
+      <c r="E249">
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>32</v>
+      </c>
+      <c r="C250">
+        <v>164.6</v>
+      </c>
+      <c r="D250">
+        <v>164.6</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B251">
+        <v>52</v>
+      </c>
+      <c r="C251">
+        <v>0.04</v>
+      </c>
+      <c r="D251">
+        <v>0.04</v>
+      </c>
+      <c r="E251">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>60</v>
+      </c>
+      <c r="C252">
+        <v>80.02</v>
+      </c>
+      <c r="D252">
+        <v>80.02</v>
+      </c>
+      <c r="E252">
+        <v>59</v>
+      </c>
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>37</v>
+      </c>
+      <c r="C253">
+        <v>68.87</v>
+      </c>
+      <c r="D253">
+        <v>68.87</v>
+      </c>
+      <c r="E253">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B254">
+        <v>27</v>
+      </c>
+      <c r="C254">
+        <v>150.09</v>
+      </c>
+      <c r="D254">
+        <v>150.09</v>
+      </c>
+      <c r="E254">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>16</v>
+      </c>
+      <c r="C255">
+        <v>203.14</v>
+      </c>
+      <c r="D255">
+        <v>203.14</v>
+      </c>
+      <c r="E255">
+        <v>62</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>-13</v>
+      </c>
+      <c r="C256">
+        <v>450</v>
+      </c>
+      <c r="D256">
+        <v>450</v>
+      </c>
+      <c r="E256">
+        <v>63</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B257">
+        <v>-63</v>
+      </c>
+      <c r="C257">
+        <v>450</v>
+      </c>
+      <c r="D257">
+        <v>450</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>46</v>
+      </c>
+      <c r="C258">
+        <v>212.14</v>
+      </c>
+      <c r="D258">
+        <v>212.14</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>19</v>
+      </c>
+      <c r="C259">
+        <v>63.44</v>
+      </c>
+      <c r="D259">
+        <v>63.44</v>
+      </c>
+      <c r="E259">
+        <v>66</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B260">
+        <v>-13</v>
+      </c>
+      <c r="C260">
+        <v>480.25</v>
+      </c>
+      <c r="D260">
+        <v>480.25</v>
+      </c>
+      <c r="E260">
+        <v>67</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>-51</v>
+      </c>
+      <c r="C261">
+        <v>4489.82</v>
+      </c>
+      <c r="D261">
+        <v>4489.82</v>
+      </c>
+      <c r="E261">
+        <v>68</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>49</v>
+      </c>
+      <c r="C262">
+        <v>185.69</v>
+      </c>
+      <c r="D262">
+        <v>185.69</v>
+      </c>
+      <c r="E262">
+        <v>69</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B263">
+        <v>29</v>
+      </c>
+      <c r="C263">
+        <v>242.96</v>
+      </c>
+      <c r="D263">
+        <v>242.96</v>
+      </c>
+      <c r="E263">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>17</v>
+      </c>
+      <c r="C264">
+        <v>288.89</v>
+      </c>
+      <c r="D264">
+        <v>288.89</v>
+      </c>
+      <c r="E264">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <v>579.1</v>
+      </c>
+      <c r="D265">
+        <v>579.1</v>
+      </c>
+      <c r="E265">
+        <v>72</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B266">
+        <v>81</v>
+      </c>
+      <c r="C266">
+        <v>-919.74</v>
+      </c>
+      <c r="D266">
+        <v>-919.74</v>
+      </c>
+      <c r="E266">
+        <v>73</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>99</v>
+      </c>
+      <c r="C267">
+        <v>171.76</v>
+      </c>
+      <c r="D267">
+        <v>171.76</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>74</v>
+      </c>
+      <c r="C268">
+        <v>122.53</v>
+      </c>
+      <c r="D268">
+        <v>122.53</v>
+      </c>
+      <c r="E268">
+        <v>75</v>
+      </c>
+      <c r="F268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B269">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>367.53</v>
+      </c>
+      <c r="D269">
+        <v>367.53</v>
+      </c>
+      <c r="E269">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>106</v>
+      </c>
+      <c r="C270">
+        <v>15.6</v>
+      </c>
+      <c r="D270">
+        <v>15.6</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>115</v>
+      </c>
+      <c r="C271">
+        <v>251.92</v>
+      </c>
+      <c r="D271">
+        <v>251.92</v>
+      </c>
+      <c r="E271">
+        <v>78</v>
+      </c>
+      <c r="F271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B272">
+        <v>81</v>
+      </c>
+      <c r="C272">
+        <v>251.29</v>
+      </c>
+      <c r="D272">
+        <v>251.29</v>
+      </c>
+      <c r="E272">
+        <v>79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>45</v>
+      </c>
+      <c r="C273">
+        <v>250.19</v>
+      </c>
+      <c r="D273">
+        <v>250.19</v>
+      </c>
+      <c r="E273">
+        <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>77</v>
+      </c>
+      <c r="C274">
+        <v>216.66</v>
+      </c>
+      <c r="D274">
+        <v>216.66</v>
+      </c>
+      <c r="E274">
+        <v>81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B275">
+        <v>76</v>
+      </c>
+      <c r="C275">
+        <v>-2222.43</v>
+      </c>
+      <c r="D275">
+        <v>-2222.43</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>71</v>
+      </c>
+      <c r="C276">
+        <v>-635.95</v>
+      </c>
+      <c r="D276">
+        <v>-635.95</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>79</v>
+      </c>
+      <c r="C277">
+        <v>23.91</v>
+      </c>
+      <c r="D277">
+        <v>23.91</v>
+      </c>
+      <c r="E277">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B278">
+        <v>60</v>
+      </c>
+      <c r="C278">
+        <v>255.63</v>
+      </c>
+      <c r="D278">
+        <v>255.63</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>45</v>
+      </c>
+      <c r="C279">
+        <v>-1013.58</v>
+      </c>
+      <c r="D279">
+        <v>-1013.58</v>
+      </c>
+      <c r="E279">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>97</v>
+      </c>
+      <c r="C280">
+        <v>155.66</v>
+      </c>
+      <c r="D280">
+        <v>155.66</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B281">
+        <v>128</v>
+      </c>
+      <c r="C281">
+        <v>-3724.45</v>
+      </c>
+      <c r="D281">
+        <v>-3724.45</v>
+      </c>
+      <c r="E281">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>77</v>
+      </c>
+      <c r="C282">
+        <v>98.92</v>
+      </c>
+      <c r="D282">
+        <v>98.92</v>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>62</v>
+      </c>
+      <c r="C283">
+        <v>-303.84</v>
+      </c>
+      <c r="D283">
+        <v>-303.84</v>
+      </c>
+      <c r="E283">
+        <v>90</v>
+      </c>
+      <c r="F283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B284">
+        <v>59</v>
+      </c>
+      <c r="C284">
+        <v>-80.86</v>
+      </c>
+      <c r="D284">
+        <v>-80.86</v>
+      </c>
+      <c r="E284">
+        <v>91</v>
+      </c>
+      <c r="F284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>78</v>
+      </c>
+      <c r="C285">
+        <v>-3357.08</v>
+      </c>
+      <c r="D285">
+        <v>-3357.08</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>82</v>
+      </c>
+      <c r="C286">
+        <v>116.74</v>
+      </c>
+      <c r="D286">
+        <v>116.74</v>
+      </c>
+      <c r="E286">
+        <v>93</v>
+      </c>
+      <c r="F286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B287">
+        <v>48</v>
+      </c>
+      <c r="C287">
+        <v>281.24</v>
+      </c>
+      <c r="D287">
+        <v>281.24</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>76</v>
+      </c>
+      <c r="C288">
+        <v>324.38</v>
+      </c>
+      <c r="D288">
+        <v>324.38</v>
+      </c>
+      <c r="E288">
+        <v>95</v>
+      </c>
+      <c r="F288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>99</v>
+      </c>
+      <c r="C289">
+        <v>287.5</v>
+      </c>
+      <c r="D289">
+        <v>287.5</v>
+      </c>
+      <c r="E289">
+        <v>96</v>
+      </c>
+      <c r="F289" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B290">
+        <v>75</v>
+      </c>
+      <c r="C290">
+        <v>358.42</v>
+      </c>
+      <c r="D290">
+        <v>358.42</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>99</v>
+      </c>
+      <c r="C291">
+        <v>323.06</v>
+      </c>
+      <c r="D291">
+        <v>323.06</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>114</v>
+      </c>
+      <c r="C292">
+        <v>197.12</v>
+      </c>
+      <c r="D292">
+        <v>197.12</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B293">
+        <v>73</v>
+      </c>
+      <c r="C293">
+        <v>-3563.35</v>
+      </c>
+      <c r="D293">
+        <v>-3563.35</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>44</v>
+      </c>
+      <c r="C294">
+        <v>-1501.15</v>
+      </c>
+      <c r="D294">
+        <v>-1501.15</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>36</v>
+      </c>
+      <c r="C295">
+        <v>-40.64</v>
+      </c>
+      <c r="D295">
+        <v>-40.64</v>
+      </c>
+      <c r="E295">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B296">
+        <v>45</v>
+      </c>
+      <c r="C296">
+        <v>-282.96</v>
+      </c>
+      <c r="D296">
+        <v>-282.96</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>53</v>
+      </c>
+      <c r="C297">
+        <v>-1907.88</v>
+      </c>
+      <c r="D297">
+        <v>-1907.88</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>61</v>
+      </c>
+      <c r="C298">
+        <v>-597.35</v>
+      </c>
+      <c r="D298">
+        <v>-597.35</v>
+      </c>
+      <c r="E298">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B299">
+        <v>54</v>
+      </c>
+      <c r="C299">
+        <v>0.14</v>
+      </c>
+      <c r="D299">
+        <v>0.14</v>
+      </c>
+      <c r="E299">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>48</v>
+      </c>
+      <c r="C300">
+        <v>3.46</v>
+      </c>
+      <c r="D300">
+        <v>3.46</v>
+      </c>
+      <c r="E300">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>51</v>
+      </c>
+      <c r="C301">
+        <v>55.21</v>
+      </c>
+      <c r="D301">
+        <v>55.21</v>
+      </c>
+      <c r="E301">
+        <v>12</v>
+      </c>
+      <c r="F301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B302">
+        <v>85</v>
+      </c>
+      <c r="C302">
+        <v>187.65</v>
+      </c>
+      <c r="D302">
+        <v>187.65</v>
+      </c>
+      <c r="E302">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>45</v>
+      </c>
+      <c r="C303">
+        <v>244.66</v>
+      </c>
+      <c r="D303">
+        <v>244.66</v>
+      </c>
+      <c r="E303">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>53</v>
+      </c>
+      <c r="C304">
+        <v>372.81</v>
+      </c>
+      <c r="D304">
+        <v>372.81</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B305">
+        <v>43</v>
+      </c>
+      <c r="C305">
+        <v>62.49</v>
+      </c>
+      <c r="D305">
+        <v>62.49</v>
+      </c>
+      <c r="E305">
+        <v>16</v>
+      </c>
+      <c r="F305" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>50</v>
+      </c>
+      <c r="C306">
+        <v>66.67</v>
+      </c>
+      <c r="D306">
+        <v>66.67</v>
+      </c>
+      <c r="E306">
+        <v>17</v>
+      </c>
+      <c r="F306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>63</v>
+      </c>
+      <c r="C307">
+        <v>133.21</v>
+      </c>
+      <c r="D307">
+        <v>133.21</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B308">
+        <v>50</v>
+      </c>
+      <c r="C308">
+        <v>29.5</v>
+      </c>
+      <c r="D308">
+        <v>29.5</v>
+      </c>
+      <c r="E308">
+        <v>19</v>
+      </c>
+      <c r="F308" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>-5</v>
+      </c>
+      <c r="C309">
+        <v>650</v>
+      </c>
+      <c r="D309">
+        <v>650</v>
+      </c>
+      <c r="E309">
+        <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>31</v>
+      </c>
+      <c r="C310">
+        <v>-379.22</v>
+      </c>
+      <c r="D310">
+        <v>-379.22</v>
+      </c>
+      <c r="E310">
+        <v>21</v>
+      </c>
+      <c r="F310" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B311">
+        <v>20</v>
+      </c>
+      <c r="C311">
+        <v>8.85</v>
+      </c>
+      <c r="D311">
+        <v>8.85</v>
+      </c>
+      <c r="E311">
+        <v>22</v>
+      </c>
+      <c r="F311" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>31</v>
+      </c>
+      <c r="C312">
+        <v>65.09</v>
+      </c>
+      <c r="D312">
+        <v>65.09</v>
+      </c>
+      <c r="E312">
+        <v>23</v>
+      </c>
+      <c r="F312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>29</v>
+      </c>
+      <c r="C313">
+        <v>251.58</v>
+      </c>
+      <c r="D313">
+        <v>251.58</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B314">
+        <v>23</v>
+      </c>
+      <c r="C314">
+        <v>31.57</v>
+      </c>
+      <c r="D314">
+        <v>31.57</v>
+      </c>
+      <c r="E314">
+        <v>25</v>
+      </c>
+      <c r="F314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>21</v>
+      </c>
+      <c r="C315">
+        <v>218.12</v>
+      </c>
+      <c r="D315">
+        <v>218.12</v>
+      </c>
+      <c r="E315">
+        <v>26</v>
+      </c>
+      <c r="F315" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+      <c r="C316">
+        <v>103.34</v>
+      </c>
+      <c r="D316">
+        <v>103.34</v>
+      </c>
+      <c r="E316">
+        <v>27</v>
+      </c>
+      <c r="F316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B317">
+        <v>10</v>
+      </c>
+      <c r="C317">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D317">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="E317">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>12</v>
+      </c>
+      <c r="C318">
+        <v>126.95</v>
+      </c>
+      <c r="D318">
+        <v>126.95</v>
+      </c>
+      <c r="E318">
+        <v>29</v>
+      </c>
+      <c r="F318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>39</v>
+      </c>
+      <c r="C319">
+        <v>53.93</v>
+      </c>
+      <c r="D319">
+        <v>53.93</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B320">
+        <v>41</v>
+      </c>
+      <c r="C320">
+        <v>101.76</v>
+      </c>
+      <c r="D320">
+        <v>101.76</v>
+      </c>
+      <c r="E320">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>63</v>
+      </c>
+      <c r="C321">
+        <v>-3154.46</v>
+      </c>
+      <c r="D321">
+        <v>-3154.46</v>
+      </c>
+      <c r="E321">
+        <v>32</v>
+      </c>
+      <c r="F321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>15</v>
+      </c>
+      <c r="C322">
+        <v>227.74</v>
+      </c>
+      <c r="D322">
+        <v>227.74</v>
+      </c>
+      <c r="E322">
+        <v>33</v>
+      </c>
+      <c r="F322" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B323">
+        <v>21</v>
+      </c>
+      <c r="C323">
+        <v>40.32</v>
+      </c>
+      <c r="D323">
+        <v>40.32</v>
+      </c>
+      <c r="E323">
+        <v>34</v>
+      </c>
+      <c r="F323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>42</v>
+      </c>
+      <c r="C324">
+        <v>-2511.9</v>
+      </c>
+      <c r="D324">
+        <v>-2511.9</v>
+      </c>
+      <c r="E324">
+        <v>35</v>
+      </c>
+      <c r="F324" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>28</v>
+      </c>
+      <c r="C325">
+        <v>-2255.94</v>
+      </c>
+      <c r="D325">
+        <v>-2255.94</v>
+      </c>
+      <c r="E325">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B326">
+        <v>-14</v>
+      </c>
+      <c r="C326">
+        <v>783.1</v>
+      </c>
+      <c r="D326">
+        <v>783.1</v>
+      </c>
+      <c r="E326">
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>45</v>
+      </c>
+      <c r="C327">
+        <v>26.63</v>
+      </c>
+      <c r="D327">
+        <v>26.63</v>
+      </c>
+      <c r="E327">
+        <v>38</v>
+      </c>
+      <c r="F327" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>42</v>
+      </c>
+      <c r="C328">
+        <v>50.29</v>
+      </c>
+      <c r="D328">
+        <v>50.29</v>
+      </c>
+      <c r="E328">
+        <v>39</v>
+      </c>
+      <c r="F328" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>40</v>
+      </c>
+      <c r="F329" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>45810.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>41</v>
+      </c>
+      <c r="F330" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>45810.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>42</v>
+      </c>
+      <c r="F331" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>45810.4375</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>43</v>
+      </c>
+      <c r="F332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>45810.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>44</v>
+      </c>
+      <c r="F333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>45810.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>45</v>
+      </c>
+      <c r="F334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2">
+        <v>45810.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>46</v>
+      </c>
+      <c r="F335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>45810.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>48</v>
+      </c>
+      <c r="F337" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2">
+        <v>45810.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>49</v>
+      </c>
+      <c r="F338" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>45810.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>50</v>
+      </c>
+      <c r="F339" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>45810.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>51</v>
+      </c>
+      <c r="F340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>45810.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>52</v>
+      </c>
+      <c r="F341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2">
+        <v>45810.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>53</v>
+      </c>
+      <c r="F342" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>45810.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>45810.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>55</v>
+      </c>
+      <c r="F344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>45810.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>56</v>
+      </c>
+      <c r="F345" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>45810.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>57</v>
+      </c>
+      <c r="F346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2">
+        <v>45810.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>58</v>
+      </c>
+      <c r="F347" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2">
+        <v>45810.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>59</v>
+      </c>
+      <c r="F348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>45810.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>60</v>
+      </c>
+      <c r="F349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2">
+        <v>45810.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>61</v>
+      </c>
+      <c r="F350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>45810.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>62</v>
+      </c>
+      <c r="F351" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>45810.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>45810.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>64</v>
+      </c>
+      <c r="F353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2">
+        <v>45810.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>65</v>
+      </c>
+      <c r="F354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>45810.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>66</v>
+      </c>
+      <c r="F355" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2">
+        <v>45810.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>67</v>
+      </c>
+      <c r="F356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>45810.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>68</v>
+      </c>
+      <c r="F357" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>45810.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>69</v>
+      </c>
+      <c r="F358" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2">
+        <v>45810.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>70</v>
+      </c>
+      <c r="F359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2">
+        <v>45810.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>71</v>
+      </c>
+      <c r="F360" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>45810.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>72</v>
+      </c>
+      <c r="F361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2">
+        <v>45810.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>73</v>
+      </c>
+      <c r="F362" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>45810.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>74</v>
+      </c>
+      <c r="F363" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>45810.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>75</v>
+      </c>
+      <c r="F364" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2">
+        <v>45810.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>76</v>
+      </c>
+      <c r="F365" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>77</v>
+      </c>
+      <c r="F366" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="2">
+        <v>45810.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>78</v>
+      </c>
+      <c r="F367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2">
+        <v>45810.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>79</v>
+      </c>
+      <c r="F368" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="2">
+        <v>45810.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>80</v>
+      </c>
+      <c r="F369" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2">
+        <v>45810.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>81</v>
+      </c>
+      <c r="F370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2">
+        <v>45810.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>82</v>
+      </c>
+      <c r="F371" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2">
+        <v>45810.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>83</v>
+      </c>
+      <c r="F372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>45810.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2">
+        <v>45810.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>85</v>
+      </c>
+      <c r="F374" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="2">
+        <v>45810.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>86</v>
+      </c>
+      <c r="F375" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="2">
+        <v>45810.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>87</v>
+      </c>
+      <c r="F376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="2">
+        <v>45810.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>88</v>
+      </c>
+      <c r="F377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2">
+        <v>45810.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>89</v>
+      </c>
+      <c r="F378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2">
+        <v>45810.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>90</v>
+      </c>
+      <c r="F379" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="2">
+        <v>45810.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>91</v>
+      </c>
+      <c r="F380" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2">
+        <v>45810.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>92</v>
+      </c>
+      <c r="F381" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2">
+        <v>45810.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>93</v>
+      </c>
+      <c r="F382" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2">
+        <v>45810.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>94</v>
+      </c>
+      <c r="F383" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2">
+        <v>45810.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>95</v>
+      </c>
+      <c r="F384" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2">
+        <v>45810.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>96</v>
+      </c>
+      <c r="F385" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>12.06.202593</t>
-  </si>
-  <si>
-    <t>12.06.202594</t>
-  </si>
-  <si>
-    <t>12.06.202595</t>
-  </si>
-  <si>
-    <t>12.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
-  </si>
-  <si>
-    <t>13.06.202522</t>
-  </si>
-  <si>
-    <t>13.06.202523</t>
-  </si>
-  <si>
-    <t>13.06.202524</t>
-  </si>
-  <si>
-    <t>13.06.202525</t>
-  </si>
-  <si>
-    <t>13.06.202526</t>
-  </si>
-  <si>
-    <t>13.06.202527</t>
-  </si>
-  <si>
-    <t>13.06.202528</t>
-  </si>
-  <si>
-    <t>13.06.202529</t>
-  </si>
-  <si>
-    <t>13.06.202530</t>
-  </si>
-  <si>
-    <t>13.06.202531</t>
-  </si>
-  <si>
-    <t>13.06.202532</t>
-  </si>
-  <si>
-    <t>13.06.202533</t>
-  </si>
-  <si>
-    <t>13.06.202534</t>
-  </si>
-  <si>
-    <t>13.06.202535</t>
-  </si>
-  <si>
-    <t>13.06.202536</t>
-  </si>
-  <si>
-    <t>13.06.202537</t>
-  </si>
-  <si>
-    <t>13.06.202538</t>
-  </si>
-  <si>
-    <t>13.06.202539</t>
-  </si>
-  <si>
-    <t>13.06.202540</t>
-  </si>
-  <si>
-    <t>13.06.202541</t>
-  </si>
-  <si>
-    <t>13.06.202542</t>
-  </si>
-  <si>
-    <t>13.06.202543</t>
-  </si>
-  <si>
-    <t>13.06.202544</t>
-  </si>
-  <si>
-    <t>13.06.202545</t>
-  </si>
-  <si>
-    <t>13.06.202546</t>
-  </si>
-  <si>
-    <t>13.06.202547</t>
-  </si>
-  <si>
-    <t>13.06.202548</t>
-  </si>
-  <si>
-    <t>13.06.202549</t>
-  </si>
-  <si>
-    <t>13.06.202550</t>
-  </si>
-  <si>
-    <t>13.06.202551</t>
-  </si>
-  <si>
-    <t>13.06.202552</t>
-  </si>
-  <si>
-    <t>13.06.202553</t>
-  </si>
-  <si>
-    <t>13.06.202554</t>
-  </si>
-  <si>
-    <t>13.06.202555</t>
-  </si>
-  <si>
-    <t>13.06.202556</t>
-  </si>
-  <si>
-    <t>13.06.202557</t>
-  </si>
-  <si>
-    <t>13.06.202558</t>
-  </si>
-  <si>
-    <t>13.06.202559</t>
-  </si>
-  <si>
-    <t>13.06.202560</t>
-  </si>
-  <si>
-    <t>13.06.202561</t>
-  </si>
-  <si>
-    <t>13.06.202562</t>
-  </si>
-  <si>
-    <t>13.06.202563</t>
-  </si>
-  <si>
-    <t>13.06.202564</t>
-  </si>
-  <si>
-    <t>13.06.202565</t>
-  </si>
-  <si>
-    <t>13.06.202566</t>
-  </si>
-  <si>
-    <t>13.06.202567</t>
-  </si>
-  <si>
-    <t>13.06.202568</t>
-  </si>
-  <si>
-    <t>13.06.202569</t>
-  </si>
-  <si>
-    <t>13.06.202570</t>
-  </si>
-  <si>
-    <t>13.06.202571</t>
-  </si>
-  <si>
-    <t>13.06.202572</t>
-  </si>
-  <si>
-    <t>13.06.202573</t>
-  </si>
-  <si>
-    <t>13.06.202574</t>
-  </si>
-  <si>
-    <t>13.06.202575</t>
-  </si>
-  <si>
-    <t>13.06.202576</t>
-  </si>
-  <si>
-    <t>13.06.202577</t>
-  </si>
-  <si>
-    <t>13.06.202578</t>
-  </si>
-  <si>
-    <t>13.06.202579</t>
-  </si>
-  <si>
-    <t>13.06.202580</t>
-  </si>
-  <si>
-    <t>13.06.202581</t>
-  </si>
-  <si>
-    <t>13.06.202582</t>
-  </si>
-  <si>
-    <t>13.06.202583</t>
-  </si>
-  <si>
-    <t>13.06.202584</t>
-  </si>
-  <si>
-    <t>13.06.202585</t>
-  </si>
-  <si>
-    <t>13.06.202586</t>
-  </si>
-  <si>
-    <t>13.06.202587</t>
-  </si>
-  <si>
-    <t>13.06.202588</t>
-  </si>
-  <si>
-    <t>13.06.202589</t>
-  </si>
-  <si>
-    <t>13.06.202590</t>
-  </si>
-  <si>
-    <t>13.06.202591</t>
-  </si>
-  <si>
-    <t>13.06.202592</t>
-  </si>
-  <si>
-    <t>13.06.202593</t>
-  </si>
-  <si>
-    <t>13.06.202594</t>
-  </si>
-  <si>
-    <t>13.06.202595</t>
-  </si>
-  <si>
-    <t>13.06.202596</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>16.06.202593</t>
+  </si>
+  <si>
+    <t>16.06.202594</t>
+  </si>
+  <si>
+    <t>16.06.202595</t>
+  </si>
+  <si>
+    <t>16.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202550</t>
+  </si>
+  <si>
+    <t>17.06.202551</t>
+  </si>
+  <si>
+    <t>17.06.202552</t>
+  </si>
+  <si>
+    <t>17.06.202553</t>
+  </si>
+  <si>
+    <t>17.06.202554</t>
+  </si>
+  <si>
+    <t>17.06.202555</t>
+  </si>
+  <si>
+    <t>17.06.202556</t>
+  </si>
+  <si>
+    <t>17.06.202557</t>
+  </si>
+  <si>
+    <t>17.06.202558</t>
+  </si>
+  <si>
+    <t>17.06.202559</t>
+  </si>
+  <si>
+    <t>17.06.202560</t>
+  </si>
+  <si>
+    <t>17.06.202561</t>
+  </si>
+  <si>
+    <t>17.06.202562</t>
+  </si>
+  <si>
+    <t>17.06.202563</t>
+  </si>
+  <si>
+    <t>17.06.202564</t>
+  </si>
+  <si>
+    <t>17.06.202565</t>
+  </si>
+  <si>
+    <t>17.06.202566</t>
+  </si>
+  <si>
+    <t>17.06.202567</t>
+  </si>
+  <si>
+    <t>17.06.202568</t>
+  </si>
+  <si>
+    <t>17.06.202569</t>
+  </si>
+  <si>
+    <t>17.06.202570</t>
+  </si>
+  <si>
+    <t>17.06.202571</t>
+  </si>
+  <si>
+    <t>17.06.202572</t>
+  </si>
+  <si>
+    <t>17.06.202573</t>
+  </si>
+  <si>
+    <t>17.06.202574</t>
+  </si>
+  <si>
+    <t>17.06.202575</t>
+  </si>
+  <si>
+    <t>17.06.202576</t>
+  </si>
+  <si>
+    <t>17.06.202577</t>
+  </si>
+  <si>
+    <t>17.06.202578</t>
+  </si>
+  <si>
+    <t>17.06.202579</t>
+  </si>
+  <si>
+    <t>17.06.202580</t>
+  </si>
+  <si>
+    <t>17.06.202581</t>
+  </si>
+  <si>
+    <t>17.06.202582</t>
+  </si>
+  <si>
+    <t>17.06.202583</t>
+  </si>
+  <si>
+    <t>17.06.202584</t>
+  </si>
+  <si>
+    <t>17.06.202585</t>
+  </si>
+  <si>
+    <t>17.06.202586</t>
+  </si>
+  <si>
+    <t>17.06.202587</t>
+  </si>
+  <si>
+    <t>17.06.202588</t>
+  </si>
+  <si>
+    <t>17.06.202589</t>
+  </si>
+  <si>
+    <t>17.06.202590</t>
+  </si>
+  <si>
+    <t>17.06.202591</t>
+  </si>
+  <si>
+    <t>17.06.202592</t>
+  </si>
+  <si>
+    <t>17.06.202593</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>-61</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>895.1900000000001</v>
+        <v>235.02</v>
       </c>
       <c r="D6">
-        <v>895.1900000000001</v>
+        <v>235.02</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>-59</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>900.98</v>
+        <v>166.88</v>
       </c>
       <c r="D7">
-        <v>900.98</v>
+        <v>166.88</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>-29</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>892.79</v>
+        <v>22.37</v>
       </c>
       <c r="D8">
-        <v>892.79</v>
+        <v>22.37</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
-        <v>-22</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>901.29</v>
+        <v>39.15</v>
       </c>
       <c r="D9">
-        <v>901.29</v>
+        <v>39.15</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
-        <v>-44</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>872.96</v>
+        <v>4.96</v>
       </c>
       <c r="D10">
-        <v>872.96</v>
+        <v>4.96</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>45.91</v>
+        <v>-21.01</v>
       </c>
       <c r="D11">
-        <v>45.91</v>
+        <v>-21.01</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>-2759.47</v>
+        <v>1.3</v>
       </c>
       <c r="D12">
-        <v>-2759.47</v>
+        <v>1.3</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>-949.9299999999999</v>
+        <v>55.55</v>
       </c>
       <c r="D13">
-        <v>-949.9299999999999</v>
+        <v>55.55</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>156.66</v>
+        <v>57.59</v>
       </c>
       <c r="D14">
-        <v>156.66</v>
+        <v>57.59</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>192.91</v>
+        <v>34.17</v>
       </c>
       <c r="D15">
-        <v>192.91</v>
+        <v>34.17</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>198.39</v>
+        <v>60.72</v>
       </c>
       <c r="D16">
-        <v>198.39</v>
+        <v>60.72</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>333.11</v>
+        <v>217.87</v>
       </c>
       <c r="D17">
-        <v>333.11</v>
+        <v>217.87</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>308.23</v>
+        <v>302.17</v>
       </c>
       <c r="D18">
-        <v>308.23</v>
+        <v>302.17</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>279.2</v>
+        <v>327.18</v>
       </c>
       <c r="D19">
-        <v>279.2</v>
+        <v>327.18</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>151.05</v>
+        <v>390</v>
       </c>
       <c r="D20">
-        <v>151.05</v>
+        <v>390</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>268.89</v>
+        <v>269.94</v>
       </c>
       <c r="D21">
-        <v>268.89</v>
+        <v>269.94</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C22">
-        <v>129.62</v>
+        <v>253.52</v>
       </c>
       <c r="D22">
-        <v>129.62</v>
+        <v>253.52</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>111.84</v>
+        <v>267.71</v>
       </c>
       <c r="D23">
-        <v>111.84</v>
+        <v>267.71</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>176.72</v>
+        <v>294.36</v>
       </c>
       <c r="D24">
-        <v>176.72</v>
+        <v>294.36</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>38</v>
+        <v>-20</v>
       </c>
       <c r="C25">
-        <v>341.44</v>
+        <v>667</v>
       </c>
       <c r="D25">
-        <v>341.44</v>
+        <v>667</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>251.46</v>
+        <v>295.81</v>
       </c>
       <c r="D26">
-        <v>251.46</v>
+        <v>295.81</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>251.06</v>
+        <v>147.85</v>
       </c>
       <c r="D27">
-        <v>251.06</v>
+        <v>147.85</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>253.03</v>
+        <v>195.69</v>
       </c>
       <c r="D28">
-        <v>253.03</v>
+        <v>195.69</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>240.95</v>
+        <v>183.85</v>
       </c>
       <c r="D29">
-        <v>240.95</v>
+        <v>183.85</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>132.23</v>
+        <v>189.56</v>
       </c>
       <c r="D30">
-        <v>132.23</v>
+        <v>189.56</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>153.46</v>
+        <v>323.6</v>
       </c>
       <c r="D31">
-        <v>153.46</v>
+        <v>323.6</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>55.82</v>
+        <v>329.9</v>
       </c>
       <c r="D32">
-        <v>55.82</v>
+        <v>329.9</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C33">
-        <v>58.43</v>
+        <v>316.47</v>
       </c>
       <c r="D33">
-        <v>58.43</v>
+        <v>316.47</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C34">
-        <v>1.2</v>
+        <v>362.09</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>362.09</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C35">
-        <v>16.46</v>
+        <v>3.81</v>
       </c>
       <c r="D35">
-        <v>16.46</v>
+        <v>3.81</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C36">
-        <v>16.03</v>
+        <v>2.89</v>
       </c>
       <c r="D36">
-        <v>16.03</v>
+        <v>2.89</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>-232.27</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>-232.27</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C38">
-        <v>18.56</v>
+        <v>-96.69</v>
       </c>
       <c r="D38">
-        <v>18.56</v>
+        <v>-96.69</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C39">
-        <v>16.47</v>
+        <v>4.89</v>
       </c>
       <c r="D39">
-        <v>16.47</v>
+        <v>4.89</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40">
-        <v>-967.1900000000001</v>
+        <v>4.59</v>
       </c>
       <c r="D40">
-        <v>-967.1900000000001</v>
+        <v>4.59</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C41">
-        <v>-1389.55</v>
+        <v>5.4</v>
       </c>
       <c r="D41">
-        <v>-1389.55</v>
+        <v>5.4</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>17.34</v>
       </c>
       <c r="D42">
-        <v>0.1</v>
+        <v>17.34</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C43">
-        <v>9.800000000000001</v>
+        <v>4.59</v>
       </c>
       <c r="D43">
-        <v>9.800000000000001</v>
+        <v>4.59</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C44">
-        <v>7.6</v>
+        <v>10.67</v>
       </c>
       <c r="D44">
-        <v>7.6</v>
+        <v>10.67</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>-246.51</v>
+        <v>7.05</v>
       </c>
       <c r="D45">
-        <v>-246.51</v>
+        <v>7.05</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>15.91</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D46">
-        <v>15.91</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>7.09</v>
+        <v>3.14</v>
       </c>
       <c r="D47">
-        <v>7.09</v>
+        <v>3.14</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>6.81</v>
+        <v>8.52</v>
       </c>
       <c r="D48">
-        <v>6.81</v>
+        <v>8.52</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>3.81</v>
+        <v>-43.31</v>
       </c>
       <c r="D50">
-        <v>3.81</v>
+        <v>-43.31</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>10.35</v>
+        <v>0.5</v>
       </c>
       <c r="D51">
-        <v>10.35</v>
+        <v>0.5</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>6.85</v>
+        <v>390</v>
       </c>
       <c r="D52">
-        <v>6.85</v>
+        <v>390</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>12.47</v>
+        <v>-1115.73</v>
       </c>
       <c r="D53">
-        <v>12.47</v>
+        <v>-1115.73</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>28.75</v>
+        <v>142.25</v>
       </c>
       <c r="D54">
-        <v>28.75</v>
+        <v>142.25</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C55">
-        <v>-608.62</v>
+        <v>385.28</v>
       </c>
       <c r="D55">
-        <v>-608.62</v>
+        <v>385.28</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
         <v>76</v>
       </c>
       <c r="C56">
-        <v>2.64</v>
+        <v>180.6</v>
       </c>
       <c r="D56">
-        <v>2.64</v>
+        <v>180.6</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>-573.73</v>
+        <v>-1974.54</v>
       </c>
       <c r="D57">
-        <v>-573.73</v>
+        <v>-1974.54</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="C58">
-        <v>-45.31</v>
+        <v>7.66</v>
       </c>
       <c r="D58">
-        <v>-45.31</v>
+        <v>7.66</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>145</v>
+        <v>-38</v>
       </c>
       <c r="C59">
-        <v>8.720000000000001</v>
+        <v>550</v>
       </c>
       <c r="D59">
-        <v>8.720000000000001</v>
+        <v>550</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>142</v>
+        <v>-16</v>
       </c>
       <c r="C60">
-        <v>2.08</v>
+        <v>550</v>
       </c>
       <c r="D60">
-        <v>2.08</v>
+        <v>550</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>91</v>
+        <v>-20</v>
       </c>
       <c r="C61">
-        <v>3.25</v>
+        <v>640.9299999999999</v>
       </c>
       <c r="D61">
-        <v>3.25</v>
+        <v>640.9299999999999</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>-21.12</v>
+        <v>19.38</v>
       </c>
       <c r="D62">
-        <v>-21.12</v>
+        <v>19.38</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>43</v>
+        <v>-6</v>
       </c>
       <c r="C63">
-        <v>6.51</v>
+        <v>550</v>
       </c>
       <c r="D63">
-        <v>6.51</v>
+        <v>550</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>29</v>
+        <v>-26</v>
       </c>
       <c r="C64">
-        <v>0.96</v>
+        <v>550</v>
       </c>
       <c r="D64">
-        <v>0.96</v>
+        <v>550</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="C65">
-        <v>2812.23</v>
+        <v>550</v>
       </c>
       <c r="D65">
-        <v>2812.23</v>
+        <v>550</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>-19</v>
       </c>
       <c r="C66">
-        <v>-1.58</v>
+        <v>550</v>
       </c>
       <c r="D66">
-        <v>-1.58</v>
+        <v>550</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>159.56</v>
+        <v>33.01</v>
       </c>
       <c r="D67">
-        <v>159.56</v>
+        <v>33.01</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C68">
-        <v>42.87</v>
+        <v>-6.91</v>
       </c>
       <c r="D68">
-        <v>42.87</v>
+        <v>-6.91</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>-10</v>
+        <v>43</v>
       </c>
       <c r="C69">
-        <v>597.92</v>
+        <v>-2955.14</v>
       </c>
       <c r="D69">
-        <v>597.92</v>
+        <v>-2955.14</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>149.26</v>
       </c>
       <c r="D70">
-        <v>3.4</v>
+        <v>149.26</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C71">
-        <v>9.720000000000001</v>
+        <v>204.65</v>
       </c>
       <c r="D71">
-        <v>9.720000000000001</v>
+        <v>204.65</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>1.79</v>
+        <v>125.32</v>
       </c>
       <c r="D72">
-        <v>1.79</v>
+        <v>125.32</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>13</v>
+        <v>-35</v>
       </c>
       <c r="C73">
-        <v>0.6</v>
+        <v>1042.22</v>
       </c>
       <c r="D73">
-        <v>0.6</v>
+        <v>1042.22</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C74">
-        <v>260</v>
+        <v>206.07</v>
       </c>
       <c r="D74">
-        <v>260</v>
+        <v>206.07</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>27</v>
+        <v>-63</v>
       </c>
       <c r="C75">
-        <v>254.49</v>
+        <v>874.8200000000001</v>
       </c>
       <c r="D75">
-        <v>254.49</v>
+        <v>874.8200000000001</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>-24</v>
+        <v>-127</v>
       </c>
       <c r="C76">
-        <v>4362.52</v>
+        <v>862.64</v>
       </c>
       <c r="D76">
-        <v>4362.52</v>
+        <v>862.64</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>-13</v>
+        <v>-142</v>
       </c>
       <c r="C77">
-        <v>6674.23</v>
+        <v>4111.78</v>
       </c>
       <c r="D77">
-        <v>6674.23</v>
+        <v>4111.78</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>-39</v>
       </c>
       <c r="C78">
-        <v>251</v>
+        <v>1094.22</v>
       </c>
       <c r="D78">
-        <v>251</v>
+        <v>1094.22</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>-36</v>
       </c>
       <c r="C79">
-        <v>251</v>
+        <v>1103.96</v>
       </c>
       <c r="D79">
-        <v>251</v>
+        <v>1103.96</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>-5</v>
+        <v>-22</v>
       </c>
       <c r="C80">
-        <v>5757.91</v>
+        <v>1103.96</v>
       </c>
       <c r="D80">
-        <v>5757.91</v>
+        <v>1103.96</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>-45</v>
+        <v>-23</v>
       </c>
       <c r="C81">
-        <v>5868.89</v>
+        <v>1103.96</v>
       </c>
       <c r="D81">
-        <v>5868.89</v>
+        <v>1103.96</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>2736.51</v>
+        <v>325.4</v>
       </c>
       <c r="D82">
-        <v>2736.51</v>
+        <v>325.4</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>1479.84</v>
+        <v>373.8</v>
       </c>
       <c r="D83">
-        <v>1479.84</v>
+        <v>373.8</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>-16</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>1763.17</v>
+        <v>385.72</v>
       </c>
       <c r="D84">
-        <v>1763.17</v>
+        <v>385.72</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C85">
-        <v>366.98</v>
+        <v>384.44</v>
       </c>
       <c r="D85">
-        <v>366.98</v>
+        <v>384.44</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>-56</v>
+        <v>-35</v>
       </c>
       <c r="C86">
-        <v>5941.22</v>
+        <v>1236.57</v>
       </c>
       <c r="D86">
-        <v>5941.22</v>
+        <v>1236.57</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>-22</v>
+        <v>-51</v>
       </c>
       <c r="C87">
-        <v>3365.48</v>
+        <v>1329.27</v>
       </c>
       <c r="D87">
-        <v>3365.48</v>
+        <v>1329.27</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C88">
-        <v>195.68</v>
+        <v>245.01</v>
       </c>
       <c r="D88">
-        <v>195.68</v>
+        <v>245.01</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C89">
-        <v>233.45</v>
+        <v>53.13</v>
       </c>
       <c r="D89">
-        <v>233.45</v>
+        <v>53.13</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>-47</v>
+        <v>-26</v>
       </c>
       <c r="C90">
-        <v>5556.45</v>
+        <v>1008.23</v>
       </c>
       <c r="D90">
-        <v>5556.45</v>
+        <v>1008.23</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="C91">
-        <v>5200.37</v>
+        <v>891.52</v>
       </c>
       <c r="D91">
-        <v>5200.37</v>
+        <v>891.52</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="C92">
-        <v>753.8</v>
+        <v>650</v>
       </c>
       <c r="D92">
-        <v>753.8</v>
+        <v>650</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C93">
-        <v>267.23</v>
+        <v>199.69</v>
       </c>
       <c r="D93">
-        <v>267.23</v>
+        <v>199.69</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="C94">
-        <v>975.61</v>
+        <v>650</v>
       </c>
       <c r="D94">
-        <v>975.61</v>
+        <v>650</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="C95">
-        <v>287.97</v>
+        <v>363.27</v>
       </c>
       <c r="D95">
-        <v>287.97</v>
+        <v>363.27</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>213.81</v>
+        <v>259.26</v>
       </c>
       <c r="D96">
-        <v>213.81</v>
+        <v>259.26</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B97">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C97">
-        <v>56.97</v>
+        <v>197.2</v>
       </c>
       <c r="D97">
-        <v>56.97</v>
+        <v>197.2</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B98">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>181.66</v>
+        <v>105.05</v>
       </c>
       <c r="D98">
-        <v>181.66</v>
+        <v>105.05</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B99">
-        <v>-4</v>
+        <v>-21</v>
       </c>
       <c r="C99">
-        <v>650</v>
+        <v>687.26</v>
       </c>
       <c r="D99">
-        <v>650</v>
+        <v>687.26</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B100">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="D100">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B101">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>347.03</v>
+        <v>349.96</v>
       </c>
       <c r="D101">
-        <v>347.03</v>
+        <v>349.96</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B102">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="C102">
-        <v>853.37</v>
+        <v>884.8099999999999</v>
       </c>
       <c r="D102">
-        <v>853.37</v>
+        <v>884.8099999999999</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B103">
         <v>-29</v>
       </c>
       <c r="C103">
-        <v>726.88</v>
+        <v>940.76</v>
       </c>
       <c r="D103">
-        <v>726.88</v>
+        <v>940.76</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B104">
-        <v>-71</v>
+        <v>-31</v>
       </c>
       <c r="C104">
-        <v>708.85</v>
+        <v>832.41</v>
       </c>
       <c r="D104">
-        <v>708.85</v>
+        <v>832.41</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B105">
-        <v>-38</v>
+        <v>-51</v>
       </c>
       <c r="C105">
-        <v>656.77</v>
+        <v>693.71</v>
       </c>
       <c r="D105">
-        <v>656.77</v>
+        <v>693.71</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B106">
-        <v>-28</v>
+        <v>-66</v>
       </c>
       <c r="C106">
-        <v>680.25</v>
+        <v>910.6900000000001</v>
       </c>
       <c r="D106">
-        <v>680.25</v>
+        <v>910.6900000000001</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B107">
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="C107">
-        <v>692.29</v>
+        <v>1128.64</v>
       </c>
       <c r="D107">
-        <v>692.29</v>
+        <v>1128.64</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B108">
-        <v>-36</v>
+        <v>-67</v>
       </c>
       <c r="C108">
-        <v>650</v>
+        <v>924.26</v>
       </c>
       <c r="D108">
-        <v>650</v>
+        <v>924.26</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B109">
-        <v>-31</v>
+        <v>-75</v>
       </c>
       <c r="C109">
-        <v>650</v>
+        <v>786.88</v>
       </c>
       <c r="D109">
-        <v>650</v>
+        <v>786.88</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B110">
-        <v>-10</v>
+        <v>-75</v>
       </c>
       <c r="C110">
-        <v>679.76</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="D110">
-        <v>679.76</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B111">
-        <v>-82</v>
+        <v>-44</v>
       </c>
       <c r="C111">
-        <v>656.6</v>
+        <v>650</v>
       </c>
       <c r="D111">
-        <v>656.6</v>
+        <v>650</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B112">
-        <v>-65</v>
+        <v>-74</v>
       </c>
       <c r="C112">
-        <v>813.73</v>
+        <v>690.6900000000001</v>
       </c>
       <c r="D112">
-        <v>813.73</v>
+        <v>690.6900000000001</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B113">
-        <v>-50</v>
+        <v>-26</v>
       </c>
       <c r="C113">
-        <v>661.73</v>
+        <v>736.16</v>
       </c>
       <c r="D113">
-        <v>661.73</v>
+        <v>736.16</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B114">
-        <v>-38</v>
+        <v>-3</v>
       </c>
       <c r="C114">
-        <v>686.46</v>
+        <v>692.99</v>
       </c>
       <c r="D114">
-        <v>686.46</v>
+        <v>692.99</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B115">
-        <v>-56</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>697.1</v>
+        <v>313.43</v>
       </c>
       <c r="D115">
-        <v>697.1</v>
+        <v>313.43</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B116">
-        <v>-76</v>
+        <v>10</v>
       </c>
       <c r="C116">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="D116">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B117">
-        <v>-52</v>
+        <v>-27</v>
       </c>
       <c r="C117">
-        <v>672.67</v>
+        <v>715.36</v>
       </c>
       <c r="D117">
-        <v>672.67</v>
+        <v>715.36</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B118">
-        <v>-60</v>
+        <v>-35</v>
       </c>
       <c r="C118">
-        <v>848.3200000000001</v>
+        <v>1118.71</v>
       </c>
       <c r="D118">
-        <v>848.3200000000001</v>
+        <v>1118.71</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="C119">
-        <v>224.1</v>
+        <v>964.66</v>
       </c>
       <c r="D119">
-        <v>224.1</v>
+        <v>964.66</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B120">
-        <v>-12</v>
+        <v>-25</v>
       </c>
       <c r="C120">
-        <v>686.8</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="D120">
-        <v>686.8</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B121">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="C121">
-        <v>687.54</v>
+        <v>650</v>
       </c>
       <c r="D121">
-        <v>687.54</v>
+        <v>650</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>703.17</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>703.17</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>316.87</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>316.87</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>293.62</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>293.62</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>250.63</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>250.63</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>212.32</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>212.32</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>195.58</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>195.58</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>194.08</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>194.08</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>84.13</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>84.13</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>-844.5700000000001</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>-844.5700000000001</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-10.46</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>-10.46</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-2561.97</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-2561.97</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-2622</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-2622</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>-503.04</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-503.04</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>16.06.202593</t>
-  </si>
-  <si>
-    <t>16.06.202594</t>
-  </si>
-  <si>
-    <t>16.06.202595</t>
-  </si>
-  <si>
-    <t>16.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -608,6 +320,870 @@
   </si>
   <si>
     <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
+  </si>
+  <si>
+    <t>20.06.202526</t>
+  </si>
+  <si>
+    <t>20.06.202527</t>
+  </si>
+  <si>
+    <t>20.06.202528</t>
+  </si>
+  <si>
+    <t>20.06.202529</t>
+  </si>
+  <si>
+    <t>20.06.202530</t>
+  </si>
+  <si>
+    <t>20.06.202531</t>
+  </si>
+  <si>
+    <t>20.06.202532</t>
+  </si>
+  <si>
+    <t>20.06.202533</t>
+  </si>
+  <si>
+    <t>20.06.202534</t>
+  </si>
+  <si>
+    <t>20.06.202535</t>
+  </si>
+  <si>
+    <t>20.06.202536</t>
+  </si>
+  <si>
+    <t>20.06.202537</t>
+  </si>
+  <si>
+    <t>20.06.202538</t>
+  </si>
+  <si>
+    <t>20.06.202539</t>
+  </si>
+  <si>
+    <t>20.06.202540</t>
+  </si>
+  <si>
+    <t>20.06.202541</t>
+  </si>
+  <si>
+    <t>20.06.202542</t>
+  </si>
+  <si>
+    <t>20.06.202543</t>
+  </si>
+  <si>
+    <t>20.06.202544</t>
+  </si>
+  <si>
+    <t>20.06.202545</t>
+  </si>
+  <si>
+    <t>20.06.202546</t>
+  </si>
+  <si>
+    <t>20.06.202547</t>
+  </si>
+  <si>
+    <t>20.06.202548</t>
+  </si>
+  <si>
+    <t>20.06.202549</t>
+  </si>
+  <si>
+    <t>20.06.202550</t>
+  </si>
+  <si>
+    <t>20.06.202551</t>
+  </si>
+  <si>
+    <t>20.06.202552</t>
+  </si>
+  <si>
+    <t>20.06.202553</t>
+  </si>
+  <si>
+    <t>20.06.202554</t>
+  </si>
+  <si>
+    <t>20.06.202555</t>
+  </si>
+  <si>
+    <t>20.06.202556</t>
+  </si>
+  <si>
+    <t>20.06.202557</t>
+  </si>
+  <si>
+    <t>20.06.202558</t>
+  </si>
+  <si>
+    <t>20.06.202559</t>
+  </si>
+  <si>
+    <t>20.06.202560</t>
+  </si>
+  <si>
+    <t>20.06.202561</t>
+  </si>
+  <si>
+    <t>20.06.202562</t>
+  </si>
+  <si>
+    <t>20.06.202563</t>
+  </si>
+  <si>
+    <t>20.06.202564</t>
+  </si>
+  <si>
+    <t>20.06.202565</t>
+  </si>
+  <si>
+    <t>20.06.202566</t>
+  </si>
+  <si>
+    <t>20.06.202567</t>
+  </si>
+  <si>
+    <t>20.06.202568</t>
+  </si>
+  <si>
+    <t>20.06.202569</t>
+  </si>
+  <si>
+    <t>20.06.202570</t>
+  </si>
+  <si>
+    <t>20.06.202571</t>
+  </si>
+  <si>
+    <t>20.06.202572</t>
+  </si>
+  <si>
+    <t>20.06.202573</t>
+  </si>
+  <si>
+    <t>20.06.202574</t>
+  </si>
+  <si>
+    <t>20.06.202575</t>
+  </si>
+  <si>
+    <t>20.06.202576</t>
+  </si>
+  <si>
+    <t>20.06.202577</t>
+  </si>
+  <si>
+    <t>20.06.202578</t>
+  </si>
+  <si>
+    <t>20.06.202579</t>
+  </si>
+  <si>
+    <t>20.06.202580</t>
+  </si>
+  <si>
+    <t>20.06.202581</t>
+  </si>
+  <si>
+    <t>20.06.202582</t>
+  </si>
+  <si>
+    <t>20.06.202583</t>
+  </si>
+  <si>
+    <t>20.06.202584</t>
+  </si>
+  <si>
+    <t>20.06.202585</t>
+  </si>
+  <si>
+    <t>20.06.202586</t>
+  </si>
+  <si>
+    <t>20.06.202587</t>
+  </si>
+  <si>
+    <t>20.06.202588</t>
+  </si>
+  <si>
+    <t>20.06.202589</t>
+  </si>
+  <si>
+    <t>20.06.202590</t>
+  </si>
+  <si>
+    <t>20.06.202591</t>
+  </si>
+  <si>
+    <t>20.06.202592</t>
+  </si>
+  <si>
+    <t>20.06.202593</t>
+  </si>
+  <si>
+    <t>20.06.202594</t>
+  </si>
+  <si>
+    <t>20.06.202595</t>
+  </si>
+  <si>
+    <t>20.06.202596</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1573,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1593,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1613,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1633,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1653,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>-23</v>
       </c>
       <c r="C6">
-        <v>235.02</v>
+        <v>884.8099999999999</v>
       </c>
       <c r="D6">
-        <v>235.02</v>
+        <v>884.8099999999999</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1673,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>-29</v>
       </c>
       <c r="C7">
-        <v>166.88</v>
+        <v>940.76</v>
       </c>
       <c r="D7">
-        <v>166.88</v>
+        <v>940.76</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1693,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>-31</v>
       </c>
       <c r="C8">
-        <v>22.37</v>
+        <v>832.41</v>
       </c>
       <c r="D8">
-        <v>22.37</v>
+        <v>832.41</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1713,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>-51</v>
       </c>
       <c r="C9">
-        <v>39.15</v>
+        <v>693.71</v>
       </c>
       <c r="D9">
-        <v>39.15</v>
+        <v>693.71</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1733,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>38</v>
+        <v>-66</v>
       </c>
       <c r="C10">
-        <v>4.96</v>
+        <v>910.6900000000001</v>
       </c>
       <c r="D10">
-        <v>4.96</v>
+        <v>910.6900000000001</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1753,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>-63</v>
       </c>
       <c r="C11">
-        <v>-21.01</v>
+        <v>1128.64</v>
       </c>
       <c r="D11">
-        <v>-21.01</v>
+        <v>1128.64</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1773,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>-67</v>
       </c>
       <c r="C12">
-        <v>1.3</v>
+        <v>924.26</v>
       </c>
       <c r="D12">
-        <v>1.3</v>
+        <v>924.26</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1793,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>-75</v>
       </c>
       <c r="C13">
-        <v>55.55</v>
+        <v>786.88</v>
       </c>
       <c r="D13">
-        <v>55.55</v>
+        <v>786.88</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1813,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>-75</v>
       </c>
       <c r="C14">
-        <v>57.59</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="D14">
-        <v>57.59</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1833,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>-44</v>
       </c>
       <c r="C15">
-        <v>34.17</v>
+        <v>650</v>
       </c>
       <c r="D15">
-        <v>34.17</v>
+        <v>650</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1853,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>38</v>
+        <v>-74</v>
       </c>
       <c r="C16">
-        <v>60.72</v>
+        <v>690.6900000000001</v>
       </c>
       <c r="D16">
-        <v>60.72</v>
+        <v>690.6900000000001</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1873,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="C17">
-        <v>217.87</v>
+        <v>736.16</v>
       </c>
       <c r="D17">
-        <v>217.87</v>
+        <v>736.16</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1893,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>-3</v>
       </c>
       <c r="C18">
-        <v>302.17</v>
+        <v>692.99</v>
       </c>
       <c r="D18">
-        <v>302.17</v>
+        <v>692.99</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1913,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>327.18</v>
+        <v>313.43</v>
       </c>
       <c r="D19">
-        <v>327.18</v>
+        <v>313.43</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,10 +1933,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>390</v>
@@ -1377,16 +1953,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>-27</v>
       </c>
       <c r="C21">
-        <v>269.94</v>
+        <v>715.36</v>
       </c>
       <c r="D21">
-        <v>269.94</v>
+        <v>715.36</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1973,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>66</v>
+        <v>-35</v>
       </c>
       <c r="C22">
-        <v>253.52</v>
+        <v>1118.71</v>
       </c>
       <c r="D22">
-        <v>253.52</v>
+        <v>1118.71</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1993,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>-28</v>
       </c>
       <c r="C23">
-        <v>267.71</v>
+        <v>964.66</v>
       </c>
       <c r="D23">
-        <v>267.71</v>
+        <v>964.66</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +2013,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>-25</v>
       </c>
       <c r="C24">
-        <v>294.36</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="D24">
-        <v>294.36</v>
+        <v>816.3200000000001</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +2033,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="C25">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="D25">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +2053,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>-41</v>
       </c>
       <c r="C26">
-        <v>295.81</v>
+        <v>703.17</v>
       </c>
       <c r="D26">
-        <v>295.81</v>
+        <v>703.17</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +2073,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>147.85</v>
+        <v>316.87</v>
       </c>
       <c r="D27">
-        <v>147.85</v>
+        <v>316.87</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +2093,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>195.69</v>
+        <v>293.62</v>
       </c>
       <c r="D28">
-        <v>195.69</v>
+        <v>293.62</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +2113,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>183.85</v>
+        <v>250.63</v>
       </c>
       <c r="D29">
-        <v>183.85</v>
+        <v>250.63</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +2133,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>-21</v>
       </c>
       <c r="C30">
-        <v>189.56</v>
+        <v>700</v>
       </c>
       <c r="D30">
-        <v>189.56</v>
+        <v>700</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +2153,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>-6</v>
       </c>
       <c r="C31">
-        <v>323.6</v>
+        <v>700</v>
       </c>
       <c r="D31">
-        <v>323.6</v>
+        <v>700</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +2173,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>329.9</v>
+        <v>212.32</v>
       </c>
       <c r="D32">
-        <v>329.9</v>
+        <v>212.32</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +2193,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>316.47</v>
+        <v>195.58</v>
       </c>
       <c r="D33">
-        <v>316.47</v>
+        <v>195.58</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +2213,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>-34</v>
       </c>
       <c r="C34">
-        <v>362.09</v>
+        <v>650</v>
       </c>
       <c r="D34">
-        <v>362.09</v>
+        <v>650</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +2233,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>3.81</v>
+        <v>194.08</v>
       </c>
       <c r="D35">
-        <v>3.81</v>
+        <v>194.08</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +2253,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>2.89</v>
+        <v>84.13</v>
       </c>
       <c r="D36">
-        <v>2.89</v>
+        <v>84.13</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +2273,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>-232.27</v>
+        <v>-844.5700000000001</v>
       </c>
       <c r="D37">
-        <v>-232.27</v>
+        <v>-844.5700000000001</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +2293,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>-96.69</v>
+        <v>-10.46</v>
       </c>
       <c r="D38">
-        <v>-96.69</v>
+        <v>-10.46</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +2313,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>4.89</v>
+        <v>-2561.97</v>
       </c>
       <c r="D39">
-        <v>4.89</v>
+        <v>-2561.97</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +2333,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>4.59</v>
+        <v>-2622</v>
       </c>
       <c r="D40">
-        <v>4.59</v>
+        <v>-2622</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +2353,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>5.4</v>
+        <v>-503.04</v>
       </c>
       <c r="D41">
-        <v>5.4</v>
+        <v>-503.04</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +2373,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>17.34</v>
+        <v>14.72</v>
       </c>
       <c r="D42">
-        <v>17.34</v>
+        <v>14.72</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +2393,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C43">
-        <v>4.59</v>
+        <v>0.06</v>
       </c>
       <c r="D43">
-        <v>4.59</v>
+        <v>0.06</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +2413,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C44">
-        <v>10.67</v>
+        <v>4.9</v>
       </c>
       <c r="D44">
-        <v>10.67</v>
+        <v>4.9</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +2433,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C45">
-        <v>7.05</v>
+        <v>8.42</v>
       </c>
       <c r="D45">
-        <v>7.05</v>
+        <v>8.42</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +2453,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>8.380000000000001</v>
+        <v>21.66</v>
       </c>
       <c r="D46">
-        <v>8.380000000000001</v>
+        <v>21.66</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +2473,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>3.14</v>
+        <v>7.59</v>
       </c>
       <c r="D47">
-        <v>3.14</v>
+        <v>7.59</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +2493,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>8.52</v>
+        <v>2.89</v>
       </c>
       <c r="D48">
-        <v>8.52</v>
+        <v>2.89</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +2513,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C49">
-        <v>0.5</v>
+        <v>11.85</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>11.85</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +2533,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C50">
-        <v>-43.31</v>
+        <v>-434.41</v>
       </c>
       <c r="D50">
-        <v>-43.31</v>
+        <v>-434.41</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +2553,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +2573,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2593,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B53">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>-1115.73</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-1115.73</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2613,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B54">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>142.25</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>142.25</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2633,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B55">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>385.28</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>385.28</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2653,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B56">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>180.6</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>180.6</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2673,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B57">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>-1974.54</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-1974.54</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2693,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>7.66</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2713,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B59">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2733,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B60">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2753,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B61">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>640.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>640.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2773,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2793,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B63">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2813,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B64">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2833,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B65">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="D65">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2853,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B66">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2873,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>33.01</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>33.01</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2893,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B68">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>-6.91</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-6.91</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2913,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B69">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>-2955.14</v>
+        <v>165.53</v>
       </c>
       <c r="D69">
-        <v>-2955.14</v>
+        <v>165.53</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2933,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B70">
-        <v>76</v>
+        <v>-1</v>
       </c>
       <c r="C70">
-        <v>149.26</v>
+        <v>653.35</v>
       </c>
       <c r="D70">
-        <v>149.26</v>
+        <v>653.35</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2953,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B71">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="C71">
-        <v>204.65</v>
+        <v>687.35</v>
       </c>
       <c r="D71">
-        <v>204.65</v>
+        <v>687.35</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2973,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>125.32</v>
+        <v>676.3</v>
       </c>
       <c r="D72">
-        <v>125.32</v>
+        <v>676.3</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2993,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B73">
-        <v>-35</v>
+        <v>-22</v>
       </c>
       <c r="C73">
-        <v>1042.22</v>
+        <v>913.7</v>
       </c>
       <c r="D73">
-        <v>1042.22</v>
+        <v>913.7</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +3013,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>206.07</v>
+        <v>18.74</v>
       </c>
       <c r="D74">
-        <v>206.07</v>
+        <v>18.74</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +3033,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B75">
-        <v>-63</v>
+        <v>-48</v>
       </c>
       <c r="C75">
-        <v>874.8200000000001</v>
+        <v>990.1799999999999</v>
       </c>
       <c r="D75">
-        <v>874.8200000000001</v>
+        <v>990.1799999999999</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +3053,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B76">
-        <v>-127</v>
+        <v>-23</v>
       </c>
       <c r="C76">
-        <v>862.64</v>
+        <v>908.3200000000001</v>
       </c>
       <c r="D76">
-        <v>862.64</v>
+        <v>908.3200000000001</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +3073,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B77">
-        <v>-142</v>
+        <v>-25</v>
       </c>
       <c r="C77">
-        <v>4111.78</v>
+        <v>1048.55</v>
       </c>
       <c r="D77">
-        <v>4111.78</v>
+        <v>1048.55</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +3093,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B78">
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="C78">
-        <v>1094.22</v>
+        <v>1069.76</v>
       </c>
       <c r="D78">
-        <v>1094.22</v>
+        <v>1069.76</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +3113,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B79">
-        <v>-36</v>
+        <v>-52</v>
       </c>
       <c r="C79">
-        <v>1103.96</v>
+        <v>2907.9</v>
       </c>
       <c r="D79">
-        <v>1103.96</v>
+        <v>2907.9</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +3133,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B80">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>1103.96</v>
+        <v>366.01</v>
       </c>
       <c r="D80">
-        <v>1103.96</v>
+        <v>366.01</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +3153,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B81">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="C81">
-        <v>1103.96</v>
+        <v>1138.64</v>
       </c>
       <c r="D81">
-        <v>1103.96</v>
+        <v>1138.64</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +3173,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>-44</v>
       </c>
       <c r="C82">
-        <v>325.4</v>
+        <v>700</v>
       </c>
       <c r="D82">
-        <v>325.4</v>
+        <v>700</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +3193,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>-16</v>
       </c>
       <c r="C83">
-        <v>373.8</v>
+        <v>951.6</v>
       </c>
       <c r="D83">
-        <v>373.8</v>
+        <v>951.6</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +3213,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>-22</v>
       </c>
       <c r="C84">
-        <v>385.72</v>
+        <v>1366.79</v>
       </c>
       <c r="D84">
-        <v>385.72</v>
+        <v>1366.79</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +3233,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B85">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="C85">
-        <v>384.44</v>
+        <v>700</v>
       </c>
       <c r="D85">
-        <v>384.44</v>
+        <v>700</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +3253,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B86">
-        <v>-35</v>
+        <v>-92</v>
       </c>
       <c r="C86">
-        <v>1236.57</v>
+        <v>6490.24</v>
       </c>
       <c r="D86">
-        <v>1236.57</v>
+        <v>6490.24</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +3273,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B87">
-        <v>-51</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>1329.27</v>
+        <v>385.76</v>
       </c>
       <c r="D87">
-        <v>1329.27</v>
+        <v>385.76</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +3293,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B88">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C88">
-        <v>245.01</v>
+        <v>238.43</v>
       </c>
       <c r="D88">
-        <v>245.01</v>
+        <v>238.43</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +3313,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C89">
-        <v>53.13</v>
+        <v>-4108.83</v>
       </c>
       <c r="D89">
-        <v>53.13</v>
+        <v>-4108.83</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +3333,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B90">
-        <v>-26</v>
+        <v>145</v>
       </c>
       <c r="C90">
-        <v>1008.23</v>
+        <v>-1354.45</v>
       </c>
       <c r="D90">
-        <v>1008.23</v>
+        <v>-1354.45</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +3353,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B91">
-        <v>-43</v>
+        <v>80</v>
       </c>
       <c r="C91">
-        <v>891.52</v>
+        <v>258.94</v>
       </c>
       <c r="D91">
-        <v>891.52</v>
+        <v>258.94</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +3373,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B92">
-        <v>-12</v>
+        <v>107</v>
       </c>
       <c r="C92">
-        <v>650</v>
+        <v>-1792.89</v>
       </c>
       <c r="D92">
-        <v>650</v>
+        <v>-1792.89</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +3393,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B93">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C93">
-        <v>199.69</v>
+        <v>-1814.66</v>
       </c>
       <c r="D93">
-        <v>199.69</v>
+        <v>-1814.66</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +3413,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B94">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="C94">
-        <v>650</v>
+        <v>1020.84</v>
       </c>
       <c r="D94">
-        <v>650</v>
+        <v>1020.84</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +3433,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B95">
-        <v>-17</v>
+        <v>-44</v>
       </c>
       <c r="C95">
-        <v>363.27</v>
+        <v>998.34</v>
       </c>
       <c r="D95">
-        <v>363.27</v>
+        <v>998.34</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +3453,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45824.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>-38</v>
       </c>
       <c r="C96">
-        <v>259.26</v>
+        <v>1008.84</v>
       </c>
       <c r="D96">
-        <v>259.26</v>
+        <v>1008.84</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +3473,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45824.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>-22</v>
       </c>
       <c r="C97">
-        <v>197.2</v>
+        <v>699</v>
       </c>
       <c r="D97">
-        <v>197.2</v>
+        <v>699</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +3493,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>-98</v>
       </c>
       <c r="C98">
-        <v>105.05</v>
+        <v>3546.73</v>
       </c>
       <c r="D98">
-        <v>105.05</v>
+        <v>3546.73</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +3513,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B99">
-        <v>-21</v>
+        <v>-53</v>
       </c>
       <c r="C99">
-        <v>687.26</v>
+        <v>1709.46</v>
       </c>
       <c r="D99">
-        <v>687.26</v>
+        <v>1709.46</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +3533,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B100">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>390</v>
+        <v>276.08</v>
       </c>
       <c r="D100">
-        <v>390</v>
+        <v>276.08</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +3553,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45825.03125</v>
+        <v>45826.03125</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>349.96</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D101">
-        <v>349.96</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +3573,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B102">
-        <v>-23</v>
+        <v>-49</v>
       </c>
       <c r="C102">
-        <v>884.8099999999999</v>
+        <v>699.37</v>
       </c>
       <c r="D102">
-        <v>884.8099999999999</v>
+        <v>699.37</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3593,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B103">
-        <v>-29</v>
+        <v>-14</v>
       </c>
       <c r="C103">
-        <v>940.76</v>
+        <v>699</v>
       </c>
       <c r="D103">
-        <v>940.76</v>
+        <v>699</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3613,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45825.0625</v>
+        <v>45826.0625</v>
       </c>
       <c r="B104">
-        <v>-31</v>
+        <v>-51</v>
       </c>
       <c r="C104">
-        <v>832.41</v>
+        <v>699.51</v>
       </c>
       <c r="D104">
-        <v>832.41</v>
+        <v>699.51</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3633,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B105">
-        <v>-51</v>
+        <v>5</v>
       </c>
       <c r="C105">
-        <v>693.71</v>
+        <v>213.08</v>
       </c>
       <c r="D105">
-        <v>693.71</v>
+        <v>213.08</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3653,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B106">
-        <v>-66</v>
+        <v>43</v>
       </c>
       <c r="C106">
-        <v>910.6900000000001</v>
+        <v>237.83</v>
       </c>
       <c r="D106">
-        <v>910.6900000000001</v>
+        <v>237.83</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3673,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45825.09375</v>
+        <v>45826.09375</v>
       </c>
       <c r="B107">
-        <v>-63</v>
+        <v>-12</v>
       </c>
       <c r="C107">
-        <v>1128.64</v>
+        <v>699</v>
       </c>
       <c r="D107">
-        <v>1128.64</v>
+        <v>699</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3693,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B108">
-        <v>-67</v>
+        <v>-34</v>
       </c>
       <c r="C108">
-        <v>924.26</v>
+        <v>699.6799999999999</v>
       </c>
       <c r="D108">
-        <v>924.26</v>
+        <v>699.6799999999999</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3713,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B109">
-        <v>-75</v>
+        <v>-34</v>
       </c>
       <c r="C109">
-        <v>786.88</v>
+        <v>699.09</v>
       </c>
       <c r="D109">
-        <v>786.88</v>
+        <v>699.09</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3733,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45825.125</v>
+        <v>45826.125</v>
       </c>
       <c r="B110">
-        <v>-75</v>
+        <v>30</v>
       </c>
       <c r="C110">
-        <v>818.8099999999999</v>
+        <v>222.07</v>
       </c>
       <c r="D110">
-        <v>818.8099999999999</v>
+        <v>222.07</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3753,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B111">
-        <v>-44</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>650</v>
+        <v>141.55</v>
       </c>
       <c r="D111">
-        <v>650</v>
+        <v>141.55</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3773,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B112">
-        <v>-74</v>
+        <v>-26</v>
       </c>
       <c r="C112">
-        <v>690.6900000000001</v>
+        <v>699.4</v>
       </c>
       <c r="D112">
-        <v>690.6900000000001</v>
+        <v>699.4</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3793,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45825.15625</v>
+        <v>45826.15625</v>
       </c>
       <c r="B113">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>736.16</v>
+        <v>314.89</v>
       </c>
       <c r="D113">
-        <v>736.16</v>
+        <v>314.89</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3813,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B114">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="C114">
-        <v>692.99</v>
+        <v>211.67</v>
       </c>
       <c r="D114">
-        <v>692.99</v>
+        <v>211.67</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3833,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C115">
-        <v>313.43</v>
+        <v>280.59</v>
       </c>
       <c r="D115">
-        <v>313.43</v>
+        <v>280.59</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3853,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45825.1875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>390</v>
+        <v>251.52</v>
       </c>
       <c r="D116">
-        <v>390</v>
+        <v>251.52</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3873,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B117">
-        <v>-27</v>
+        <v>-26</v>
       </c>
       <c r="C117">
-        <v>715.36</v>
+        <v>699</v>
       </c>
       <c r="D117">
-        <v>715.36</v>
+        <v>699</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3893,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B118">
-        <v>-35</v>
+        <v>-24</v>
       </c>
       <c r="C118">
-        <v>1118.71</v>
+        <v>815.48</v>
       </c>
       <c r="D118">
-        <v>1118.71</v>
+        <v>815.48</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3913,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45825.21875</v>
+        <v>45826.21875</v>
       </c>
       <c r="B119">
-        <v>-28</v>
+        <v>-16</v>
       </c>
       <c r="C119">
-        <v>964.66</v>
+        <v>749.6900000000001</v>
       </c>
       <c r="D119">
-        <v>964.66</v>
+        <v>749.6900000000001</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3933,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B120">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="C120">
-        <v>816.3200000000001</v>
+        <v>702.48</v>
       </c>
       <c r="D120">
-        <v>816.3200000000001</v>
+        <v>702.48</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3953,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B121">
-        <v>-18</v>
+        <v>-79</v>
       </c>
       <c r="C121">
-        <v>650</v>
+        <v>3746.61</v>
       </c>
       <c r="D121">
-        <v>650</v>
+        <v>3746.61</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3973,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45825.25</v>
+        <v>45826.25</v>
       </c>
       <c r="B122">
-        <v>-41</v>
+        <v>-66</v>
       </c>
       <c r="C122">
-        <v>703.17</v>
+        <v>993.08</v>
       </c>
       <c r="D122">
-        <v>703.17</v>
+        <v>993.08</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3993,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>-91</v>
       </c>
       <c r="C123">
-        <v>316.87</v>
+        <v>986.8</v>
       </c>
       <c r="D123">
-        <v>316.87</v>
+        <v>986.8</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +4013,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B124">
-        <v>22</v>
+        <v>-73</v>
       </c>
       <c r="C124">
-        <v>293.62</v>
+        <v>1009.43</v>
       </c>
       <c r="D124">
-        <v>293.62</v>
+        <v>1009.43</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +4033,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45825.28125</v>
+        <v>45826.28125</v>
       </c>
       <c r="B125">
-        <v>34</v>
+        <v>-39</v>
       </c>
       <c r="C125">
-        <v>250.63</v>
+        <v>998.88</v>
       </c>
       <c r="D125">
-        <v>250.63</v>
+        <v>998.88</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +4053,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B126">
-        <v>-21</v>
+        <v>-36</v>
       </c>
       <c r="C126">
-        <v>700</v>
+        <v>1024.78</v>
       </c>
       <c r="D126">
-        <v>700</v>
+        <v>1024.78</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +4073,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B127">
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="C127">
-        <v>700</v>
+        <v>1024.74</v>
       </c>
       <c r="D127">
-        <v>700</v>
+        <v>1024.74</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +4093,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45825.3125</v>
+        <v>45826.3125</v>
       </c>
       <c r="B128">
-        <v>17</v>
+        <v>-8</v>
       </c>
       <c r="C128">
-        <v>212.32</v>
+        <v>1025.03</v>
       </c>
       <c r="D128">
-        <v>212.32</v>
+        <v>1025.03</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +4113,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C129">
-        <v>195.58</v>
+        <v>-4747.99</v>
       </c>
       <c r="D129">
-        <v>195.58</v>
+        <v>-4747.99</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +4133,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B130">
-        <v>-34</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>650</v>
+        <v>-3729.74</v>
       </c>
       <c r="D130">
-        <v>650</v>
+        <v>-3729.74</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +4153,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45825.34375</v>
+        <v>45826.34375</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>194.08</v>
+        <v>250.56</v>
       </c>
       <c r="D131">
-        <v>194.08</v>
+        <v>250.56</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +4173,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C132">
-        <v>84.13</v>
+        <v>17.28</v>
       </c>
       <c r="D132">
-        <v>84.13</v>
+        <v>17.28</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +4193,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B133">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C133">
-        <v>-844.5700000000001</v>
+        <v>2.77</v>
       </c>
       <c r="D133">
-        <v>-844.5700000000001</v>
+        <v>2.77</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +4213,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45825.375</v>
+        <v>45826.375</v>
       </c>
       <c r="B134">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C134">
-        <v>-10.46</v>
+        <v>190.01</v>
       </c>
       <c r="D134">
-        <v>-10.46</v>
+        <v>190.01</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +4233,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B135">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C135">
-        <v>-2561.97</v>
+        <v>91.45</v>
       </c>
       <c r="D135">
-        <v>-2561.97</v>
+        <v>91.45</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +4253,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B136">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C136">
-        <v>-2622</v>
+        <v>51.9</v>
       </c>
       <c r="D136">
-        <v>-2622</v>
+        <v>51.9</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +4273,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45825.40625</v>
+        <v>45826.40625</v>
       </c>
       <c r="B137">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C137">
-        <v>-503.04</v>
+        <v>-2694.95</v>
       </c>
       <c r="D137">
-        <v>-503.04</v>
+        <v>-2694.95</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +4293,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>148.63</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>148.63</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +4313,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45825.42708333334</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>-1221.15</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>-1221.15</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +4333,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45825.4375</v>
+        <v>45826.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-1540.08</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>-1540.08</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,16 +4353,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45825.44791666666</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>-736.5599999999999</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>-736.5599999999999</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -3797,16 +4373,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45825.45833333334</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>-3080.95</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>-3080.95</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -3817,16 +4393,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45825.46875</v>
+        <v>45826.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>24.39</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>24.39</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -3837,16 +4413,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45825.47916666666</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>-290.01</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>-290.01</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -3857,16 +4433,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45825.48958333334</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>-332.51</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>-332.51</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -3877,16 +4453,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45825.5</v>
+        <v>45826.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-1050.33</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>-1050.33</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -3897,16 +4473,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45825.51041666666</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>-278.51</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>-278.51</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -3917,16 +4493,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45825.52083333334</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>190.28</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>190.28</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -3937,16 +4513,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45825.53125</v>
+        <v>45826.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>195.75</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>195.75</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -3957,16 +4533,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45825.54166666666</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>200.09</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>200.09</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -3977,16 +4553,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45825.55208333334</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -3997,16 +4573,16 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45825.5625</v>
+        <v>45826.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>475.74</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>475.74</v>
       </c>
       <c r="E152">
         <v>55</v>
@@ -4017,16 +4593,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45825.57291666666</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4037,16 +4613,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45825.58333333334</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>-1717.61</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>-1717.61</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4057,16 +4633,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45825.59375</v>
+        <v>45826.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>-2340.36</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>-2340.36</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4077,16 +4653,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45825.60416666666</v>
+        <v>45826.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>190.19</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>190.19</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4097,16 +4673,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45825.61458333334</v>
+        <v>45826.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>190.3</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>190.3</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4117,16 +4693,16 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45825.625</v>
+        <v>45826.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>126.59</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>126.59</v>
       </c>
       <c r="E158">
         <v>61</v>
@@ -4137,16 +4713,16 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45825.63541666666</v>
+        <v>45826.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>190.37</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>190.37</v>
       </c>
       <c r="E159">
         <v>62</v>
@@ -4157,16 +4733,16 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45825.64583333334</v>
+        <v>45826.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>191.09</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>191.09</v>
       </c>
       <c r="E160">
         <v>63</v>
@@ -4177,16 +4753,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45825.65625</v>
+        <v>45826.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>191.19</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>191.19</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4197,16 +4773,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45825.66666666666</v>
+        <v>45826.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>-129.53</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>-129.53</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4217,16 +4793,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45825.67708333334</v>
+        <v>45826.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>190.24</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>190.24</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4237,16 +4813,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45825.6875</v>
+        <v>45826.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>192.38</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>192.38</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4257,16 +4833,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45825.69791666666</v>
+        <v>45826.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>842.3099999999999</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>842.3099999999999</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4277,16 +4853,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45825.70833333334</v>
+        <v>45826.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>-3417.17</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>-3417.17</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4297,16 +4873,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45825.71875</v>
+        <v>45826.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>-157.24</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>-157.24</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4317,16 +4893,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45825.72916666666</v>
+        <v>45826.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>699.66</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>699.66</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4337,16 +4913,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45825.73958333334</v>
+        <v>45826.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>892.8</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>892.8</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4357,16 +4933,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45825.75</v>
+        <v>45826.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>-3338.41</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>-3338.41</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4377,16 +4953,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45825.76041666666</v>
+        <v>45826.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>921.42</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>921.42</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4397,16 +4973,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45825.77083333334</v>
+        <v>45826.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>3035.5</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>3035.5</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4417,16 +4993,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45825.78125</v>
+        <v>45826.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>5717.18</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>5717.18</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4437,16 +5013,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45825.79166666666</v>
+        <v>45826.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1297.68</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>1297.68</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4457,16 +5033,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45825.80208333334</v>
+        <v>45826.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1320.75</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1320.75</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4477,16 +5053,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45825.8125</v>
+        <v>45826.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1323.99</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1323.99</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4497,16 +5073,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45825.82291666666</v>
+        <v>45826.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1323.85</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1323.85</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4517,16 +5093,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45825.83333333334</v>
+        <v>45826.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1690.97</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1690.97</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4537,16 +5113,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45825.84375</v>
+        <v>45826.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1627.11</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1627.11</v>
       </c>
       <c r="E179">
         <v>82</v>
@@ -4557,16 +5133,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45825.85416666666</v>
+        <v>45826.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1708.12</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1708.12</v>
       </c>
       <c r="E180">
         <v>83</v>
@@ -4577,16 +5153,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45825.86458333334</v>
+        <v>45826.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>-33</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1606.56</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1606.56</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4597,16 +5173,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45825.875</v>
+        <v>45826.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>6162.79</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>6162.79</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4617,16 +5193,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45825.88541666666</v>
+        <v>45826.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-151</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>3922.8</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>3922.8</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4637,16 +5213,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45825.89583333334</v>
+        <v>45826.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1670.26</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>1670.26</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4657,16 +5233,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45825.90625</v>
+        <v>45826.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>312.13</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>312.13</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4677,16 +5253,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45825.91666666666</v>
+        <v>45826.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1115.48</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1115.48</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4697,16 +5273,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45825.92708333334</v>
+        <v>45826.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1130.21</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1130.21</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -4717,16 +5293,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45825.9375</v>
+        <v>45826.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1127.26</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>1127.26</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -4737,16 +5313,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45825.94791666666</v>
+        <v>45826.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1127.26</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1127.26</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -4757,16 +5333,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45825.95833333334</v>
+        <v>45826.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1029.47</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1029.47</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -4777,16 +5353,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45825.96875</v>
+        <v>45826.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>168.76</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>168.76</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -4797,16 +5373,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45825.97916666666</v>
+        <v>45826.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>184.19</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>184.19</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -4817,22 +5393,3862 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45825.98958333334</v>
+        <v>45826.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>699.89</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>699.89</v>
       </c>
       <c r="E193">
         <v>96</v>
       </c>
       <c r="F193" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>390</v>
+      </c>
+      <c r="D194">
+        <v>390</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>-6</v>
+      </c>
+      <c r="C195">
+        <v>698.95</v>
+      </c>
+      <c r="D195">
+        <v>698.95</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>206.22</v>
+      </c>
+      <c r="D196">
+        <v>206.22</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B197">
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>201.65</v>
+      </c>
+      <c r="D197">
+        <v>201.65</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>-9</v>
+      </c>
+      <c r="C198">
+        <v>698.97</v>
+      </c>
+      <c r="D198">
+        <v>698.97</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>43</v>
+      </c>
+      <c r="C199">
+        <v>328.73</v>
+      </c>
+      <c r="D199">
+        <v>328.73</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B200">
+        <v>-12</v>
+      </c>
+      <c r="C200">
+        <v>699.04</v>
+      </c>
+      <c r="D200">
+        <v>699.04</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>-7</v>
+      </c>
+      <c r="C201">
+        <v>698.89</v>
+      </c>
+      <c r="D201">
+        <v>698.89</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>12</v>
+      </c>
+      <c r="C202">
+        <v>279.96</v>
+      </c>
+      <c r="D202">
+        <v>279.96</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B203">
+        <v>-26</v>
+      </c>
+      <c r="C203">
+        <v>738.74</v>
+      </c>
+      <c r="D203">
+        <v>738.74</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>378</v>
+      </c>
+      <c r="D204">
+        <v>378</v>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>-31</v>
+      </c>
+      <c r="C205">
+        <v>698.99</v>
+      </c>
+      <c r="D205">
+        <v>698.99</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B206">
+        <v>-2</v>
+      </c>
+      <c r="C206">
+        <v>868.6</v>
+      </c>
+      <c r="D206">
+        <v>868.6</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>390</v>
+      </c>
+      <c r="D207">
+        <v>390</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>-20</v>
+      </c>
+      <c r="C208">
+        <v>699.0599999999999</v>
+      </c>
+      <c r="D208">
+        <v>699.0599999999999</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>270.19</v>
+      </c>
+      <c r="D209">
+        <v>270.19</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>23</v>
+      </c>
+      <c r="C210">
+        <v>341.76</v>
+      </c>
+      <c r="D210">
+        <v>341.76</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="C211">
+        <v>208.69</v>
+      </c>
+      <c r="D211">
+        <v>208.69</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B212">
+        <v>34</v>
+      </c>
+      <c r="C212">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="D212">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>87.47</v>
+      </c>
+      <c r="D213">
+        <v>87.47</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>47</v>
+      </c>
+      <c r="C214">
+        <v>75.2</v>
+      </c>
+      <c r="D214">
+        <v>75.2</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B215">
+        <v>48</v>
+      </c>
+      <c r="C215">
+        <v>251.29</v>
+      </c>
+      <c r="D215">
+        <v>251.29</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>70</v>
+      </c>
+      <c r="C216">
+        <v>250.29</v>
+      </c>
+      <c r="D216">
+        <v>250.29</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>57</v>
+      </c>
+      <c r="C217">
+        <v>243.84</v>
+      </c>
+      <c r="D217">
+        <v>243.84</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B218">
+        <v>44</v>
+      </c>
+      <c r="C218">
+        <v>328.61</v>
+      </c>
+      <c r="D218">
+        <v>328.61</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>12</v>
+      </c>
+      <c r="C219">
+        <v>279.94</v>
+      </c>
+      <c r="D219">
+        <v>279.94</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>22</v>
+      </c>
+      <c r="C220">
+        <v>260.86</v>
+      </c>
+      <c r="D220">
+        <v>260.86</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B221">
+        <v>46</v>
+      </c>
+      <c r="C221">
+        <v>203.66</v>
+      </c>
+      <c r="D221">
+        <v>203.66</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>-6</v>
+      </c>
+      <c r="C222">
+        <v>652.88</v>
+      </c>
+      <c r="D222">
+        <v>652.88</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>-43</v>
+      </c>
+      <c r="C223">
+        <v>594.4400000000001</v>
+      </c>
+      <c r="D223">
+        <v>594.4400000000001</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B224">
+        <v>-7</v>
+      </c>
+      <c r="C224">
+        <v>576.77</v>
+      </c>
+      <c r="D224">
+        <v>576.77</v>
+      </c>
+      <c r="E224">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>29</v>
+      </c>
+      <c r="C225">
+        <v>-1864.96</v>
+      </c>
+      <c r="D225">
+        <v>-1864.96</v>
+      </c>
+      <c r="E225">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>-16</v>
+      </c>
+      <c r="C226">
+        <v>550</v>
+      </c>
+      <c r="D226">
+        <v>550</v>
+      </c>
+      <c r="E226">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B227">
+        <v>-1</v>
+      </c>
+      <c r="C227">
+        <v>550</v>
+      </c>
+      <c r="D227">
+        <v>550</v>
+      </c>
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>-17</v>
+      </c>
+      <c r="C228">
+        <v>550</v>
+      </c>
+      <c r="D228">
+        <v>550</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <v>37.83</v>
+      </c>
+      <c r="D229">
+        <v>37.83</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>112.99</v>
+      </c>
+      <c r="D230">
+        <v>112.99</v>
+      </c>
+      <c r="E230">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>-40</v>
+      </c>
+      <c r="C231">
+        <v>550</v>
+      </c>
+      <c r="D231">
+        <v>550</v>
+      </c>
+      <c r="E231">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>-3</v>
+      </c>
+      <c r="C232">
+        <v>550</v>
+      </c>
+      <c r="D232">
+        <v>550</v>
+      </c>
+      <c r="E232">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B233">
+        <v>21</v>
+      </c>
+      <c r="C233">
+        <v>36.78</v>
+      </c>
+      <c r="D233">
+        <v>36.78</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>30</v>
+      </c>
+      <c r="C234">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D234">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>-9</v>
+      </c>
+      <c r="C235">
+        <v>550</v>
+      </c>
+      <c r="D235">
+        <v>550</v>
+      </c>
+      <c r="E235">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B236">
+        <v>13</v>
+      </c>
+      <c r="C236">
+        <v>202.5</v>
+      </c>
+      <c r="D236">
+        <v>202.5</v>
+      </c>
+      <c r="E236">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>-7</v>
+      </c>
+      <c r="C237">
+        <v>558.03</v>
+      </c>
+      <c r="D237">
+        <v>558.03</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>190.18</v>
+      </c>
+      <c r="D238">
+        <v>190.18</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B239">
+        <v>19</v>
+      </c>
+      <c r="C239">
+        <v>217.3</v>
+      </c>
+      <c r="D239">
+        <v>217.3</v>
+      </c>
+      <c r="E239">
+        <v>46</v>
+      </c>
+      <c r="F239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>12</v>
+      </c>
+      <c r="C240">
+        <v>212.89</v>
+      </c>
+      <c r="D240">
+        <v>212.89</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>-7</v>
+      </c>
+      <c r="C241">
+        <v>607.42</v>
+      </c>
+      <c r="D241">
+        <v>607.42</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B242">
+        <v>22</v>
+      </c>
+      <c r="C242">
+        <v>152.72</v>
+      </c>
+      <c r="D242">
+        <v>152.72</v>
+      </c>
+      <c r="E242">
+        <v>49</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>197.25</v>
+      </c>
+      <c r="D243">
+        <v>197.25</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>47</v>
+      </c>
+      <c r="C244">
+        <v>198.44</v>
+      </c>
+      <c r="D244">
+        <v>198.44</v>
+      </c>
+      <c r="E244">
+        <v>51</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B245">
+        <v>40</v>
+      </c>
+      <c r="C245">
+        <v>264.22</v>
+      </c>
+      <c r="D245">
+        <v>264.22</v>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>71</v>
+      </c>
+      <c r="C246">
+        <v>107.1</v>
+      </c>
+      <c r="D246">
+        <v>107.1</v>
+      </c>
+      <c r="E246">
+        <v>53</v>
+      </c>
+      <c r="F246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>90</v>
+      </c>
+      <c r="C247">
+        <v>202.84</v>
+      </c>
+      <c r="D247">
+        <v>202.84</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B248">
+        <v>99</v>
+      </c>
+      <c r="C248">
+        <v>-1362.34</v>
+      </c>
+      <c r="D248">
+        <v>-1362.34</v>
+      </c>
+      <c r="E248">
+        <v>55</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>59</v>
+      </c>
+      <c r="C249">
+        <v>-3457.8</v>
+      </c>
+      <c r="D249">
+        <v>-3457.8</v>
+      </c>
+      <c r="E249">
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>73</v>
+      </c>
+      <c r="C250">
+        <v>107.22</v>
+      </c>
+      <c r="D250">
+        <v>107.22</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B251">
+        <v>85</v>
+      </c>
+      <c r="C251">
+        <v>231.87</v>
+      </c>
+      <c r="D251">
+        <v>231.87</v>
+      </c>
+      <c r="E251">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>72</v>
+      </c>
+      <c r="C252">
+        <v>262.64</v>
+      </c>
+      <c r="D252">
+        <v>262.64</v>
+      </c>
+      <c r="E252">
+        <v>59</v>
+      </c>
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>73</v>
+      </c>
+      <c r="C253">
+        <v>-379.39</v>
+      </c>
+      <c r="D253">
+        <v>-379.39</v>
+      </c>
+      <c r="E253">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B254">
+        <v>82</v>
+      </c>
+      <c r="C254">
+        <v>-2915.24</v>
+      </c>
+      <c r="D254">
+        <v>-2915.24</v>
+      </c>
+      <c r="E254">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>74</v>
+      </c>
+      <c r="C255">
+        <v>-1789.31</v>
+      </c>
+      <c r="D255">
+        <v>-1789.31</v>
+      </c>
+      <c r="E255">
+        <v>62</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>27</v>
+      </c>
+      <c r="C256">
+        <v>-1285.72</v>
+      </c>
+      <c r="D256">
+        <v>-1285.72</v>
+      </c>
+      <c r="E256">
+        <v>63</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B257">
+        <v>27</v>
+      </c>
+      <c r="C257">
+        <v>211.99</v>
+      </c>
+      <c r="D257">
+        <v>211.99</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>34</v>
+      </c>
+      <c r="C258">
+        <v>-47.99</v>
+      </c>
+      <c r="D258">
+        <v>-47.99</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>20</v>
+      </c>
+      <c r="C259">
+        <v>-2053.75</v>
+      </c>
+      <c r="D259">
+        <v>-2053.75</v>
+      </c>
+      <c r="E259">
+        <v>66</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B260">
+        <v>-4</v>
+      </c>
+      <c r="C260">
+        <v>550</v>
+      </c>
+      <c r="D260">
+        <v>550</v>
+      </c>
+      <c r="E260">
+        <v>67</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>-39</v>
+      </c>
+      <c r="C261">
+        <v>660.26</v>
+      </c>
+      <c r="D261">
+        <v>660.26</v>
+      </c>
+      <c r="E261">
+        <v>68</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>51</v>
+      </c>
+      <c r="C262">
+        <v>138.2</v>
+      </c>
+      <c r="D262">
+        <v>138.2</v>
+      </c>
+      <c r="E262">
+        <v>69</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B263">
+        <v>68</v>
+      </c>
+      <c r="C263">
+        <v>306.77</v>
+      </c>
+      <c r="D263">
+        <v>306.77</v>
+      </c>
+      <c r="E263">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>20</v>
+      </c>
+      <c r="C264">
+        <v>374.72</v>
+      </c>
+      <c r="D264">
+        <v>374.72</v>
+      </c>
+      <c r="E264">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>-54</v>
+      </c>
+      <c r="C265">
+        <v>1020.31</v>
+      </c>
+      <c r="D265">
+        <v>1020.31</v>
+      </c>
+      <c r="E265">
+        <v>72</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B266">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>205.28</v>
+      </c>
+      <c r="D266">
+        <v>205.28</v>
+      </c>
+      <c r="E266">
+        <v>73</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>18</v>
+      </c>
+      <c r="C267">
+        <v>262.19</v>
+      </c>
+      <c r="D267">
+        <v>262.19</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>-12</v>
+      </c>
+      <c r="C268">
+        <v>1032.41</v>
+      </c>
+      <c r="D268">
+        <v>1032.41</v>
+      </c>
+      <c r="E268">
+        <v>75</v>
+      </c>
+      <c r="F268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B269">
+        <v>-17</v>
+      </c>
+      <c r="C269">
+        <v>1093.69</v>
+      </c>
+      <c r="D269">
+        <v>1093.69</v>
+      </c>
+      <c r="E269">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>-29</v>
+      </c>
+      <c r="C270">
+        <v>941.86</v>
+      </c>
+      <c r="D270">
+        <v>941.86</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>-10</v>
+      </c>
+      <c r="C271">
+        <v>762.91</v>
+      </c>
+      <c r="D271">
+        <v>762.91</v>
+      </c>
+      <c r="E271">
+        <v>78</v>
+      </c>
+      <c r="F271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B272">
+        <v>-10</v>
+      </c>
+      <c r="C272">
+        <v>721.1</v>
+      </c>
+      <c r="D272">
+        <v>721.1</v>
+      </c>
+      <c r="E272">
+        <v>79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>-37</v>
+      </c>
+      <c r="C273">
+        <v>1197.92</v>
+      </c>
+      <c r="D273">
+        <v>1197.92</v>
+      </c>
+      <c r="E273">
+        <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>11</v>
+      </c>
+      <c r="C274">
+        <v>318.56</v>
+      </c>
+      <c r="D274">
+        <v>318.56</v>
+      </c>
+      <c r="E274">
+        <v>81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B275">
+        <v>9</v>
+      </c>
+      <c r="C275">
+        <v>361</v>
+      </c>
+      <c r="D275">
+        <v>361</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>43</v>
+      </c>
+      <c r="C276">
+        <v>366.3</v>
+      </c>
+      <c r="D276">
+        <v>366.3</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>44</v>
+      </c>
+      <c r="C277">
+        <v>391.84</v>
+      </c>
+      <c r="D277">
+        <v>391.84</v>
+      </c>
+      <c r="E277">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B278">
+        <v>-58</v>
+      </c>
+      <c r="C278">
+        <v>5167.7</v>
+      </c>
+      <c r="D278">
+        <v>5167.7</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>-21</v>
+      </c>
+      <c r="C279">
+        <v>1251.3</v>
+      </c>
+      <c r="D279">
+        <v>1251.3</v>
+      </c>
+      <c r="E279">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>-14</v>
+      </c>
+      <c r="C280">
+        <v>700</v>
+      </c>
+      <c r="D280">
+        <v>700</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B281">
+        <v>-2</v>
+      </c>
+      <c r="C281">
+        <v>700</v>
+      </c>
+      <c r="D281">
+        <v>700</v>
+      </c>
+      <c r="E281">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>-53</v>
+      </c>
+      <c r="C282">
+        <v>5004.4</v>
+      </c>
+      <c r="D282">
+        <v>5004.4</v>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>-62</v>
+      </c>
+      <c r="C283">
+        <v>3207.77</v>
+      </c>
+      <c r="D283">
+        <v>3207.77</v>
+      </c>
+      <c r="E283">
+        <v>90</v>
+      </c>
+      <c r="F283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B284">
+        <v>-44</v>
+      </c>
+      <c r="C284">
+        <v>1092.7</v>
+      </c>
+      <c r="D284">
+        <v>1092.7</v>
+      </c>
+      <c r="E284">
+        <v>91</v>
+      </c>
+      <c r="F284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>-50</v>
+      </c>
+      <c r="C285">
+        <v>830.95</v>
+      </c>
+      <c r="D285">
+        <v>830.95</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>-50</v>
+      </c>
+      <c r="C286">
+        <v>3427.39</v>
+      </c>
+      <c r="D286">
+        <v>3427.39</v>
+      </c>
+      <c r="E286">
+        <v>93</v>
+      </c>
+      <c r="F286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B287">
+        <v>-58</v>
+      </c>
+      <c r="C287">
+        <v>2477.04</v>
+      </c>
+      <c r="D287">
+        <v>2477.04</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>-41</v>
+      </c>
+      <c r="C288">
+        <v>1079.56</v>
+      </c>
+      <c r="D288">
+        <v>1079.56</v>
+      </c>
+      <c r="E288">
+        <v>95</v>
+      </c>
+      <c r="F288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>203.65</v>
+      </c>
+      <c r="D289">
+        <v>203.65</v>
+      </c>
+      <c r="E289">
+        <v>96</v>
+      </c>
+      <c r="F289" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B290">
+        <v>-22</v>
+      </c>
+      <c r="C290">
+        <v>1024.93</v>
+      </c>
+      <c r="D290">
+        <v>1024.93</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B291">
+        <v>-50</v>
+      </c>
+      <c r="C291">
+        <v>825.95</v>
+      </c>
+      <c r="D291">
+        <v>825.95</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B292">
+        <v>-41</v>
+      </c>
+      <c r="C292">
+        <v>699</v>
+      </c>
+      <c r="D292">
+        <v>699</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B293">
+        <v>-25</v>
+      </c>
+      <c r="C293">
+        <v>699.09</v>
+      </c>
+      <c r="D293">
+        <v>699.09</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B294">
+        <v>-75</v>
+      </c>
+      <c r="C294">
+        <v>1135.57</v>
+      </c>
+      <c r="D294">
+        <v>1135.57</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B295">
+        <v>-15</v>
+      </c>
+      <c r="C295">
+        <v>961.15</v>
+      </c>
+      <c r="D295">
+        <v>961.15</v>
+      </c>
+      <c r="E295">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B296">
+        <v>15</v>
+      </c>
+      <c r="C296">
+        <v>342.53</v>
+      </c>
+      <c r="D296">
+        <v>342.53</v>
+      </c>
+      <c r="E296">
+        <v>7</v>
+      </c>
+      <c r="F296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297">
+        <v>217.58</v>
+      </c>
+      <c r="D297">
+        <v>217.58</v>
+      </c>
+      <c r="E297">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B298">
+        <v>42</v>
+      </c>
+      <c r="C298">
+        <v>347.21</v>
+      </c>
+      <c r="D298">
+        <v>347.21</v>
+      </c>
+      <c r="E298">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B299">
+        <v>108</v>
+      </c>
+      <c r="C299">
+        <v>-1855.87</v>
+      </c>
+      <c r="D299">
+        <v>-1855.87</v>
+      </c>
+      <c r="E299">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B300">
+        <v>199</v>
+      </c>
+      <c r="C300">
+        <v>54.57</v>
+      </c>
+      <c r="D300">
+        <v>54.57</v>
+      </c>
+      <c r="E300">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B301">
+        <v>153</v>
+      </c>
+      <c r="C301">
+        <v>-3345.76</v>
+      </c>
+      <c r="D301">
+        <v>-3345.76</v>
+      </c>
+      <c r="E301">
+        <v>12</v>
+      </c>
+      <c r="F301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B302">
+        <v>111</v>
+      </c>
+      <c r="C302">
+        <v>-395.06</v>
+      </c>
+      <c r="D302">
+        <v>-395.06</v>
+      </c>
+      <c r="E302">
+        <v>13</v>
+      </c>
+      <c r="F302" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B303">
+        <v>110</v>
+      </c>
+      <c r="C303">
+        <v>24.73</v>
+      </c>
+      <c r="D303">
+        <v>24.73</v>
+      </c>
+      <c r="E303">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B304">
+        <v>127</v>
+      </c>
+      <c r="C304">
+        <v>22.57</v>
+      </c>
+      <c r="D304">
+        <v>22.57</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B305">
+        <v>98</v>
+      </c>
+      <c r="C305">
+        <v>8.84</v>
+      </c>
+      <c r="D305">
+        <v>8.84</v>
+      </c>
+      <c r="E305">
+        <v>16</v>
+      </c>
+      <c r="F305" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B306">
+        <v>9</v>
+      </c>
+      <c r="C306">
+        <v>1.05</v>
+      </c>
+      <c r="D306">
+        <v>1.05</v>
+      </c>
+      <c r="E306">
+        <v>17</v>
+      </c>
+      <c r="F306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B307">
+        <v>49</v>
+      </c>
+      <c r="C307">
+        <v>-873.49</v>
+      </c>
+      <c r="D307">
+        <v>-873.49</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B308">
+        <v>111</v>
+      </c>
+      <c r="C308">
+        <v>-1276.54</v>
+      </c>
+      <c r="D308">
+        <v>-1276.54</v>
+      </c>
+      <c r="E308">
+        <v>19</v>
+      </c>
+      <c r="F308" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B309">
+        <v>33</v>
+      </c>
+      <c r="C309">
+        <v>16.85</v>
+      </c>
+      <c r="D309">
+        <v>16.85</v>
+      </c>
+      <c r="E309">
+        <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B310">
+        <v>-34</v>
+      </c>
+      <c r="C310">
+        <v>915.9299999999999</v>
+      </c>
+      <c r="D310">
+        <v>915.9299999999999</v>
+      </c>
+      <c r="E310">
+        <v>21</v>
+      </c>
+      <c r="F310" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B311">
+        <v>-25</v>
+      </c>
+      <c r="C311">
+        <v>773</v>
+      </c>
+      <c r="D311">
+        <v>773</v>
+      </c>
+      <c r="E311">
+        <v>22</v>
+      </c>
+      <c r="F311" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B312">
+        <v>-2</v>
+      </c>
+      <c r="C312">
+        <v>699</v>
+      </c>
+      <c r="D312">
+        <v>699</v>
+      </c>
+      <c r="E312">
+        <v>23</v>
+      </c>
+      <c r="F312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B313">
+        <v>-19</v>
+      </c>
+      <c r="C313">
+        <v>699.71</v>
+      </c>
+      <c r="D313">
+        <v>699.71</v>
+      </c>
+      <c r="E313">
+        <v>24</v>
+      </c>
+      <c r="F313" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B314">
+        <v>-53</v>
+      </c>
+      <c r="C314">
+        <v>998.52</v>
+      </c>
+      <c r="D314">
+        <v>998.52</v>
+      </c>
+      <c r="E314">
+        <v>25</v>
+      </c>
+      <c r="F314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B315">
+        <v>-68</v>
+      </c>
+      <c r="C315">
+        <v>1001.81</v>
+      </c>
+      <c r="D315">
+        <v>1001.81</v>
+      </c>
+      <c r="E315">
+        <v>26</v>
+      </c>
+      <c r="F315" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B316">
+        <v>-11</v>
+      </c>
+      <c r="C316">
+        <v>1050</v>
+      </c>
+      <c r="D316">
+        <v>1050</v>
+      </c>
+      <c r="E316">
+        <v>27</v>
+      </c>
+      <c r="F316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B317">
+        <v>14</v>
+      </c>
+      <c r="C317">
+        <v>115.34</v>
+      </c>
+      <c r="D317">
+        <v>115.34</v>
+      </c>
+      <c r="E317">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B318">
+        <v>-40</v>
+      </c>
+      <c r="C318">
+        <v>997</v>
+      </c>
+      <c r="D318">
+        <v>997</v>
+      </c>
+      <c r="E318">
+        <v>29</v>
+      </c>
+      <c r="F318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B319">
+        <v>-56</v>
+      </c>
+      <c r="C319">
+        <v>943.78</v>
+      </c>
+      <c r="D319">
+        <v>943.78</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B320">
+        <v>11</v>
+      </c>
+      <c r="C320">
+        <v>272.43</v>
+      </c>
+      <c r="D320">
+        <v>272.43</v>
+      </c>
+      <c r="E320">
+        <v>31</v>
+      </c>
+      <c r="F320" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B321">
+        <v>25</v>
+      </c>
+      <c r="C321">
+        <v>-2814.74</v>
+      </c>
+      <c r="D321">
+        <v>-2814.74</v>
+      </c>
+      <c r="E321">
+        <v>32</v>
+      </c>
+      <c r="F321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B322">
+        <v>20</v>
+      </c>
+      <c r="C322">
+        <v>-1144.08</v>
+      </c>
+      <c r="D322">
+        <v>-1144.08</v>
+      </c>
+      <c r="E322">
+        <v>33</v>
+      </c>
+      <c r="F322" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B323">
+        <v>36</v>
+      </c>
+      <c r="C323">
+        <v>-558.0599999999999</v>
+      </c>
+      <c r="D323">
+        <v>-558.0599999999999</v>
+      </c>
+      <c r="E323">
+        <v>34</v>
+      </c>
+      <c r="F323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B324">
+        <v>21</v>
+      </c>
+      <c r="C324">
+        <v>109.21</v>
+      </c>
+      <c r="D324">
+        <v>109.21</v>
+      </c>
+      <c r="E324">
+        <v>35</v>
+      </c>
+      <c r="F324" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B325">
+        <v>65</v>
+      </c>
+      <c r="C325">
+        <v>-3631.93</v>
+      </c>
+      <c r="D325">
+        <v>-3631.93</v>
+      </c>
+      <c r="E325">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B326">
+        <v>112</v>
+      </c>
+      <c r="C326">
+        <v>-1169.59</v>
+      </c>
+      <c r="D326">
+        <v>-1169.59</v>
+      </c>
+      <c r="E326">
+        <v>37</v>
+      </c>
+      <c r="F326" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B327">
+        <v>130</v>
+      </c>
+      <c r="C327">
+        <v>-424.28</v>
+      </c>
+      <c r="D327">
+        <v>-424.28</v>
+      </c>
+      <c r="E327">
+        <v>38</v>
+      </c>
+      <c r="F327" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B328">
+        <v>83</v>
+      </c>
+      <c r="C328">
+        <v>-3268.46</v>
+      </c>
+      <c r="D328">
+        <v>-3268.46</v>
+      </c>
+      <c r="E328">
+        <v>39</v>
+      </c>
+      <c r="F328" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B329">
+        <v>71</v>
+      </c>
+      <c r="C329">
+        <v>-5389.61</v>
+      </c>
+      <c r="D329">
+        <v>-5389.61</v>
+      </c>
+      <c r="E329">
+        <v>40</v>
+      </c>
+      <c r="F329" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B330">
+        <v>76</v>
+      </c>
+      <c r="C330">
+        <v>-733.62</v>
+      </c>
+      <c r="D330">
+        <v>-733.62</v>
+      </c>
+      <c r="E330">
+        <v>41</v>
+      </c>
+      <c r="F330" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B331">
+        <v>93</v>
+      </c>
+      <c r="C331">
+        <v>-813.89</v>
+      </c>
+      <c r="D331">
+        <v>-813.89</v>
+      </c>
+      <c r="E331">
+        <v>42</v>
+      </c>
+      <c r="F331" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B332">
+        <v>36</v>
+      </c>
+      <c r="C332">
+        <v>-99.61</v>
+      </c>
+      <c r="D332">
+        <v>-99.61</v>
+      </c>
+      <c r="E332">
+        <v>43</v>
+      </c>
+      <c r="F332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B333">
+        <v>32</v>
+      </c>
+      <c r="C333">
+        <v>4.74</v>
+      </c>
+      <c r="D333">
+        <v>4.74</v>
+      </c>
+      <c r="E333">
+        <v>44</v>
+      </c>
+      <c r="F333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B334">
+        <v>74</v>
+      </c>
+      <c r="C334">
+        <v>-642.38</v>
+      </c>
+      <c r="D334">
+        <v>-642.38</v>
+      </c>
+      <c r="E334">
+        <v>45</v>
+      </c>
+      <c r="F334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>46</v>
+      </c>
+      <c r="F335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2">
+        <v>45828.47916666666</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>47</v>
+      </c>
+      <c r="F336" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>45828.48958333334</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>48</v>
+      </c>
+      <c r="F337" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2">
+        <v>45828.5</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>49</v>
+      </c>
+      <c r="F338" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>45828.51041666666</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>50</v>
+      </c>
+      <c r="F339" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>45828.52083333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>51</v>
+      </c>
+      <c r="F340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>45828.53125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>52</v>
+      </c>
+      <c r="F341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2">
+        <v>45828.54166666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>53</v>
+      </c>
+      <c r="F342" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>45828.55208333334</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>45828.5625</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>55</v>
+      </c>
+      <c r="F344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>45828.57291666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>56</v>
+      </c>
+      <c r="F345" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>45828.58333333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>57</v>
+      </c>
+      <c r="F346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2">
+        <v>45828.59375</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>58</v>
+      </c>
+      <c r="F347" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2">
+        <v>45828.60416666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>59</v>
+      </c>
+      <c r="F348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>45828.61458333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>60</v>
+      </c>
+      <c r="F349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2">
+        <v>45828.625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>61</v>
+      </c>
+      <c r="F350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>45828.63541666666</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>62</v>
+      </c>
+      <c r="F351" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>45828.64583333334</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>45828.65625</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>64</v>
+      </c>
+      <c r="F353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2">
+        <v>45828.66666666666</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>65</v>
+      </c>
+      <c r="F354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>45828.67708333334</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>66</v>
+      </c>
+      <c r="F355" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2">
+        <v>45828.6875</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>67</v>
+      </c>
+      <c r="F356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>45828.69791666666</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>68</v>
+      </c>
+      <c r="F357" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>45828.70833333334</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>69</v>
+      </c>
+      <c r="F358" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2">
+        <v>45828.71875</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>70</v>
+      </c>
+      <c r="F359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2">
+        <v>45828.72916666666</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>71</v>
+      </c>
+      <c r="F360" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>45828.73958333334</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>72</v>
+      </c>
+      <c r="F361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2">
+        <v>45828.75</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>73</v>
+      </c>
+      <c r="F362" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>45828.76041666666</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>74</v>
+      </c>
+      <c r="F363" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>45828.77083333334</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>75</v>
+      </c>
+      <c r="F364" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2">
+        <v>45828.78125</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>76</v>
+      </c>
+      <c r="F365" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>45828.79166666666</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>77</v>
+      </c>
+      <c r="F366" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="2">
+        <v>45828.80208333334</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>78</v>
+      </c>
+      <c r="F367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2">
+        <v>45828.8125</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>79</v>
+      </c>
+      <c r="F368" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="2">
+        <v>45828.82291666666</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>80</v>
+      </c>
+      <c r="F369" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2">
+        <v>45828.83333333334</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>81</v>
+      </c>
+      <c r="F370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2">
+        <v>45828.84375</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>82</v>
+      </c>
+      <c r="F371" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2">
+        <v>45828.85416666666</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>83</v>
+      </c>
+      <c r="F372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>45828.86458333334</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2">
+        <v>45828.875</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>85</v>
+      </c>
+      <c r="F374" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="2">
+        <v>45828.88541666666</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>86</v>
+      </c>
+      <c r="F375" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="2">
+        <v>45828.89583333334</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>87</v>
+      </c>
+      <c r="F376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="2">
+        <v>45828.90625</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>88</v>
+      </c>
+      <c r="F377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2">
+        <v>45828.91666666666</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>89</v>
+      </c>
+      <c r="F378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2">
+        <v>45828.92708333334</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>90</v>
+      </c>
+      <c r="F379" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="2">
+        <v>45828.9375</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>91</v>
+      </c>
+      <c r="F380" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2">
+        <v>45828.94791666666</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>92</v>
+      </c>
+      <c r="F381" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2">
+        <v>45828.95833333334</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>93</v>
+      </c>
+      <c r="F382" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2">
+        <v>45828.96875</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>94</v>
+      </c>
+      <c r="F383" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2">
+        <v>45828.97916666666</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>95</v>
+      </c>
+      <c r="F384" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2">
+        <v>45828.98958333334</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>96</v>
+      </c>
+      <c r="F385" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>20.08.202593</t>
-  </si>
-  <si>
-    <t>20.08.202594</t>
-  </si>
-  <si>
-    <t>20.08.202595</t>
-  </si>
-  <si>
-    <t>20.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
-  </si>
-  <si>
-    <t>21.08.202537</t>
-  </si>
-  <si>
-    <t>21.08.202538</t>
-  </si>
-  <si>
-    <t>21.08.202539</t>
-  </si>
-  <si>
-    <t>21.08.202540</t>
-  </si>
-  <si>
-    <t>21.08.202541</t>
-  </si>
-  <si>
-    <t>21.08.202542</t>
-  </si>
-  <si>
-    <t>21.08.202543</t>
-  </si>
-  <si>
-    <t>21.08.202544</t>
-  </si>
-  <si>
-    <t>21.08.202545</t>
-  </si>
-  <si>
-    <t>21.08.202546</t>
-  </si>
-  <si>
-    <t>21.08.202547</t>
-  </si>
-  <si>
-    <t>21.08.202548</t>
-  </si>
-  <si>
-    <t>21.08.202549</t>
-  </si>
-  <si>
-    <t>21.08.202550</t>
-  </si>
-  <si>
-    <t>21.08.202551</t>
-  </si>
-  <si>
-    <t>21.08.202552</t>
-  </si>
-  <si>
-    <t>21.08.202553</t>
-  </si>
-  <si>
-    <t>21.08.202554</t>
-  </si>
-  <si>
-    <t>21.08.202555</t>
-  </si>
-  <si>
-    <t>21.08.202556</t>
-  </si>
-  <si>
-    <t>21.08.202557</t>
-  </si>
-  <si>
-    <t>21.08.202558</t>
-  </si>
-  <si>
-    <t>21.08.202559</t>
-  </si>
-  <si>
-    <t>21.08.202560</t>
-  </si>
-  <si>
-    <t>21.08.202561</t>
-  </si>
-  <si>
-    <t>21.08.202562</t>
-  </si>
-  <si>
-    <t>21.08.202563</t>
-  </si>
-  <si>
-    <t>21.08.202564</t>
-  </si>
-  <si>
-    <t>21.08.202565</t>
-  </si>
-  <si>
-    <t>21.08.202566</t>
-  </si>
-  <si>
-    <t>21.08.202567</t>
-  </si>
-  <si>
-    <t>21.08.202568</t>
-  </si>
-  <si>
-    <t>21.08.202569</t>
-  </si>
-  <si>
-    <t>21.08.202570</t>
-  </si>
-  <si>
-    <t>21.08.202571</t>
-  </si>
-  <si>
-    <t>21.08.202572</t>
-  </si>
-  <si>
-    <t>21.08.202573</t>
-  </si>
-  <si>
-    <t>21.08.202574</t>
-  </si>
-  <si>
-    <t>21.08.202575</t>
-  </si>
-  <si>
-    <t>21.08.202576</t>
-  </si>
-  <si>
-    <t>21.08.202577</t>
-  </si>
-  <si>
-    <t>21.08.202578</t>
-  </si>
-  <si>
-    <t>21.08.202579</t>
-  </si>
-  <si>
-    <t>21.08.202580</t>
-  </si>
-  <si>
-    <t>21.08.202581</t>
-  </si>
-  <si>
-    <t>21.08.202582</t>
-  </si>
-  <si>
-    <t>21.08.202583</t>
-  </si>
-  <si>
-    <t>21.08.202584</t>
-  </si>
-  <si>
-    <t>21.08.202585</t>
-  </si>
-  <si>
-    <t>21.08.202586</t>
-  </si>
-  <si>
-    <t>21.08.202587</t>
-  </si>
-  <si>
-    <t>21.08.202588</t>
-  </si>
-  <si>
-    <t>21.08.202589</t>
-  </si>
-  <si>
-    <t>21.08.202590</t>
-  </si>
-  <si>
-    <t>21.08.202591</t>
-  </si>
-  <si>
-    <t>21.08.202592</t>
-  </si>
-  <si>
-    <t>21.08.202593</t>
-  </si>
-  <si>
-    <t>21.08.202594</t>
-  </si>
-  <si>
-    <t>21.08.202595</t>
-  </si>
-  <si>
-    <t>21.08.202596</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>17.09.202593</t>
+  </si>
+  <si>
+    <t>17.09.202594</t>
+  </si>
+  <si>
+    <t>17.09.202595</t>
+  </si>
+  <si>
+    <t>17.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>-477.06</v>
+        <v>298.74</v>
       </c>
       <c r="D6">
-        <v>-477.06</v>
+        <v>298.74</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>318.82</v>
+        <v>269.87</v>
       </c>
       <c r="D7">
-        <v>318.82</v>
+        <v>269.87</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>-133.52</v>
+        <v>180.96</v>
       </c>
       <c r="D8">
-        <v>-133.52</v>
+        <v>180.96</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>-3061.17</v>
+        <v>165.27</v>
       </c>
       <c r="D9">
-        <v>-3061.17</v>
+        <v>165.27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>-212.92</v>
+        <v>226.91</v>
       </c>
       <c r="D10">
-        <v>-212.92</v>
+        <v>226.91</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>-3</v>
       </c>
       <c r="C11">
-        <v>4.34</v>
+        <v>684</v>
       </c>
       <c r="D11">
-        <v>4.34</v>
+        <v>684</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>-25</v>
       </c>
       <c r="C12">
-        <v>1.85</v>
+        <v>650</v>
       </c>
       <c r="D12">
-        <v>1.85</v>
+        <v>650</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>-16</v>
       </c>
       <c r="C13">
-        <v>1.23</v>
+        <v>700.01</v>
       </c>
       <c r="D13">
-        <v>1.23</v>
+        <v>700.01</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>-12</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>649</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>649</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>-4</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>649</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>649</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>617</v>
       </c>
       <c r="D16">
-        <v>0.4</v>
+        <v>617</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>-2</v>
+        <v>-56</v>
       </c>
       <c r="C17">
-        <v>696.8</v>
+        <v>668.72</v>
       </c>
       <c r="D17">
-        <v>696.8</v>
+        <v>668.72</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>-16</v>
       </c>
       <c r="C18">
-        <v>0.4</v>
+        <v>616</v>
       </c>
       <c r="D18">
-        <v>0.4</v>
+        <v>616</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>-34</v>
       </c>
       <c r="C19">
-        <v>699.5599999999999</v>
+        <v>616</v>
       </c>
       <c r="D19">
-        <v>699.5599999999999</v>
+        <v>616</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>-23</v>
       </c>
       <c r="C20">
-        <v>420</v>
+        <v>586</v>
       </c>
       <c r="D20">
-        <v>420</v>
+        <v>586</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="C21">
-        <v>420</v>
+        <v>638</v>
       </c>
       <c r="D21">
-        <v>420</v>
+        <v>638</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>420</v>
+        <v>309.09</v>
       </c>
       <c r="D22">
-        <v>420</v>
+        <v>309.09</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>-21</v>
       </c>
       <c r="C23">
-        <v>420</v>
+        <v>723.95</v>
       </c>
       <c r="D23">
-        <v>420</v>
+        <v>723.95</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>-30</v>
       </c>
       <c r="C24">
-        <v>420</v>
+        <v>880.05</v>
       </c>
       <c r="D24">
-        <v>420</v>
+        <v>880.05</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>-54</v>
       </c>
       <c r="C25">
-        <v>420</v>
+        <v>1742.33</v>
       </c>
       <c r="D25">
-        <v>420</v>
+        <v>1742.33</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>-33</v>
       </c>
       <c r="C26">
-        <v>380.92</v>
+        <v>964.4400000000001</v>
       </c>
       <c r="D26">
-        <v>380.92</v>
+        <v>964.4400000000001</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>-75</v>
       </c>
       <c r="C27">
-        <v>322.41</v>
+        <v>3585.17</v>
       </c>
       <c r="D27">
-        <v>322.41</v>
+        <v>3585.17</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>-95</v>
       </c>
       <c r="C28">
-        <v>277.45</v>
+        <v>2572.88</v>
       </c>
       <c r="D28">
-        <v>277.45</v>
+        <v>2572.88</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>-114</v>
       </c>
       <c r="C29">
-        <v>294.22</v>
+        <v>1045.45</v>
       </c>
       <c r="D29">
-        <v>294.22</v>
+        <v>1045.45</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>36</v>
+        <v>-136</v>
       </c>
       <c r="C30">
-        <v>235.8</v>
+        <v>2148.78</v>
       </c>
       <c r="D30">
-        <v>235.8</v>
+        <v>2148.78</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>52</v>
+        <v>-191</v>
       </c>
       <c r="C31">
-        <v>214.31</v>
+        <v>4182.61</v>
       </c>
       <c r="D31">
-        <v>214.31</v>
+        <v>4182.61</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>-207</v>
       </c>
       <c r="C32">
-        <v>228.43</v>
+        <v>2708.09</v>
       </c>
       <c r="D32">
-        <v>228.43</v>
+        <v>2708.09</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>-150</v>
       </c>
       <c r="C33">
-        <v>-1161.94</v>
+        <v>1084.55</v>
       </c>
       <c r="D33">
-        <v>-1161.94</v>
+        <v>1084.55</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>-78</v>
       </c>
       <c r="C34">
-        <v>238.45</v>
+        <v>1277.97</v>
       </c>
       <c r="D34">
-        <v>238.45</v>
+        <v>1277.97</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>-120</v>
       </c>
       <c r="C35">
-        <v>420</v>
+        <v>1826.25</v>
       </c>
       <c r="D35">
-        <v>420</v>
+        <v>1826.25</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>-98</v>
       </c>
       <c r="C36">
-        <v>420</v>
+        <v>1009.74</v>
       </c>
       <c r="D36">
-        <v>420</v>
+        <v>1009.74</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>-64</v>
       </c>
       <c r="C37">
-        <v>300.14</v>
+        <v>1005.66</v>
       </c>
       <c r="D37">
-        <v>300.14</v>
+        <v>1005.66</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
-        <v>49</v>
+        <v>-14</v>
       </c>
       <c r="C38">
-        <v>193.32</v>
+        <v>924.41</v>
       </c>
       <c r="D38">
-        <v>193.32</v>
+        <v>924.41</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>45</v>
+        <v>-30</v>
       </c>
       <c r="C39">
-        <v>20.92</v>
+        <v>924.41</v>
       </c>
       <c r="D39">
-        <v>20.92</v>
+        <v>924.41</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>-88.8</v>
+        <v>-1710.72</v>
       </c>
       <c r="D40">
-        <v>-88.8</v>
+        <v>-1710.72</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>-2845.18</v>
+        <v>-4173.22</v>
       </c>
       <c r="D41">
-        <v>-2845.18</v>
+        <v>-4173.22</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C42">
-        <v>-837.77</v>
+        <v>-1372.54</v>
       </c>
       <c r="D42">
-        <v>-837.77</v>
+        <v>-1372.54</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>-3661.4</v>
+        <v>-2909.04</v>
       </c>
       <c r="D43">
-        <v>-3661.4</v>
+        <v>-2909.04</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>-219.69</v>
+        <v>-4136.06</v>
       </c>
       <c r="D44">
-        <v>-219.69</v>
+        <v>-4136.06</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>8.93</v>
+        <v>-2565.27</v>
       </c>
       <c r="D45">
-        <v>8.93</v>
+        <v>-2565.27</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>55</v>
+        <v>-37</v>
       </c>
       <c r="C46">
-        <v>-134.22</v>
+        <v>550</v>
       </c>
       <c r="D46">
-        <v>-134.22</v>
+        <v>550</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="C47">
-        <v>0.28</v>
+        <v>550</v>
       </c>
       <c r="D47">
-        <v>0.28</v>
+        <v>550</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>550</v>
+        <v>32.57</v>
       </c>
       <c r="D48">
-        <v>550</v>
+        <v>32.57</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>-33</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>542.53</v>
+        <v>-4059.91</v>
       </c>
       <c r="D49">
-        <v>542.53</v>
+        <v>-4059.91</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>-67</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>628.4299999999999</v>
+        <v>-3689.21</v>
       </c>
       <c r="D50">
-        <v>628.4299999999999</v>
+        <v>-3689.21</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>-57</v>
+        <v>158</v>
       </c>
       <c r="C51">
-        <v>544.53</v>
+        <v>-1967.11</v>
       </c>
       <c r="D51">
-        <v>544.53</v>
+        <v>-1967.11</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>-9</v>
+        <v>95</v>
       </c>
       <c r="C52">
-        <v>549.88</v>
+        <v>-161.86</v>
       </c>
       <c r="D52">
-        <v>549.88</v>
+        <v>-161.86</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>190.67</v>
+        <v>-112.29</v>
       </c>
       <c r="D53">
-        <v>190.67</v>
+        <v>-112.29</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C54">
-        <v>190.48</v>
+        <v>-161.27</v>
       </c>
       <c r="D54">
-        <v>190.48</v>
+        <v>-161.27</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C55">
-        <v>-371.68</v>
+        <v>-161.27</v>
       </c>
       <c r="D55">
-        <v>-371.68</v>
+        <v>-161.27</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="C56">
-        <v>-4829.81</v>
+        <v>-94.75</v>
       </c>
       <c r="D56">
-        <v>-4829.81</v>
+        <v>-94.75</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="C57">
-        <v>-3552.78</v>
+        <v>-1807.07</v>
       </c>
       <c r="D57">
-        <v>-3552.78</v>
+        <v>-1807.07</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C58">
-        <v>-3870.77</v>
+        <v>-2079.03</v>
       </c>
       <c r="D58">
-        <v>-3870.77</v>
+        <v>-2079.03</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C59">
-        <v>-4896.95</v>
+        <v>-42.24</v>
       </c>
       <c r="D59">
-        <v>-4896.95</v>
+        <v>-42.24</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>-3110.53</v>
+        <v>-90.28</v>
       </c>
       <c r="D60">
-        <v>-3110.53</v>
+        <v>-90.28</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>628.79</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="D61">
-        <v>628.79</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C62">
-        <v>-4041.71</v>
+        <v>-3345.27</v>
       </c>
       <c r="D62">
-        <v>-4041.71</v>
+        <v>-3345.27</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C63">
-        <v>190.69</v>
+        <v>22.24</v>
       </c>
       <c r="D63">
-        <v>190.69</v>
+        <v>22.24</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>190.16</v>
+        <v>0.6</v>
       </c>
       <c r="D64">
-        <v>190.16</v>
+        <v>0.6</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>190.31</v>
+        <v>0.1</v>
       </c>
       <c r="D65">
-        <v>190.31</v>
+        <v>0.1</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C66">
-        <v>49.28</v>
+        <v>190.55</v>
       </c>
       <c r="D66">
-        <v>49.28</v>
+        <v>190.55</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C67">
-        <v>110.99</v>
+        <v>196.35</v>
       </c>
       <c r="D67">
-        <v>110.99</v>
+        <v>196.35</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C68">
-        <v>-71.83</v>
+        <v>262.66</v>
       </c>
       <c r="D68">
-        <v>-71.83</v>
+        <v>262.66</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C69">
-        <v>201.8</v>
+        <v>390</v>
       </c>
       <c r="D69">
-        <v>201.8</v>
+        <v>390</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C70">
-        <v>-1266.83</v>
+        <v>-2325.17</v>
       </c>
       <c r="D70">
-        <v>-1266.83</v>
+        <v>-2325.17</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>91</v>
+        <v>-8</v>
       </c>
       <c r="C71">
-        <v>-241.64</v>
+        <v>475</v>
       </c>
       <c r="D71">
-        <v>-241.64</v>
+        <v>475</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C72">
-        <v>-207.2</v>
+        <v>390</v>
       </c>
       <c r="D72">
-        <v>-207.2</v>
+        <v>390</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C73">
-        <v>292.3</v>
+        <v>363.99</v>
       </c>
       <c r="D73">
-        <v>292.3</v>
+        <v>363.99</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>277.11</v>
+        <v>-2031.93</v>
       </c>
       <c r="D74">
-        <v>277.11</v>
+        <v>-2031.93</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C75">
-        <v>306.47</v>
+        <v>-35.82</v>
       </c>
       <c r="D75">
-        <v>306.47</v>
+        <v>-35.82</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C76">
-        <v>362.61</v>
+        <v>390</v>
       </c>
       <c r="D76">
-        <v>362.61</v>
+        <v>390</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>389.31</v>
+        <v>691.02</v>
       </c>
       <c r="D77">
-        <v>389.31</v>
+        <v>691.02</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="C78">
-        <v>722.66</v>
+        <v>926.04</v>
       </c>
       <c r="D78">
-        <v>722.66</v>
+        <v>926.04</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>-8</v>
+        <v>-66</v>
       </c>
       <c r="C79">
-        <v>514.64</v>
+        <v>1874.57</v>
       </c>
       <c r="D79">
-        <v>514.64</v>
+        <v>1874.57</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>12</v>
+        <v>-63</v>
       </c>
       <c r="C80">
-        <v>390</v>
+        <v>1720.17</v>
       </c>
       <c r="D80">
-        <v>390</v>
+        <v>1720.17</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>45</v>
+        <v>-87</v>
       </c>
       <c r="C81">
-        <v>373.58</v>
+        <v>1780.98</v>
       </c>
       <c r="D81">
-        <v>373.58</v>
+        <v>1780.98</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>-153</v>
       </c>
       <c r="C82">
-        <v>378.19</v>
+        <v>5571.22</v>
       </c>
       <c r="D82">
-        <v>378.19</v>
+        <v>5571.22</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>35</v>
+        <v>-101</v>
       </c>
       <c r="C83">
-        <v>251.75</v>
+        <v>1225.39</v>
       </c>
       <c r="D83">
-        <v>251.75</v>
+        <v>1225.39</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
-        <v>56</v>
+        <v>-18</v>
       </c>
       <c r="C84">
-        <v>-30.16</v>
+        <v>1258.53</v>
       </c>
       <c r="D84">
-        <v>-30.16</v>
+        <v>1258.53</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>-1873.62</v>
+        <v>-473.94</v>
       </c>
       <c r="D85">
-        <v>-1873.62</v>
+        <v>-473.94</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C86">
-        <v>322.41</v>
+        <v>111.34</v>
       </c>
       <c r="D86">
-        <v>322.41</v>
+        <v>111.34</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C87">
-        <v>-249.66</v>
+        <v>239.4</v>
       </c>
       <c r="D87">
-        <v>-249.66</v>
+        <v>239.4</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C88">
-        <v>-1534.67</v>
+        <v>-36.65</v>
       </c>
       <c r="D88">
-        <v>-1534.67</v>
+        <v>-36.65</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C89">
-        <v>-4223.95</v>
+        <v>-3156.42</v>
       </c>
       <c r="D89">
-        <v>-4223.95</v>
+        <v>-3156.42</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C90">
-        <v>-1333.02</v>
+        <v>-679.1900000000001</v>
       </c>
       <c r="D90">
-        <v>-1333.02</v>
+        <v>-679.1900000000001</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C91">
-        <v>266.26</v>
+        <v>200.31</v>
       </c>
       <c r="D91">
-        <v>266.26</v>
+        <v>200.31</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C92">
-        <v>245.89</v>
+        <v>203.74</v>
       </c>
       <c r="D92">
-        <v>245.89</v>
+        <v>203.74</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93">
-        <v>214.49</v>
+        <v>145.93</v>
       </c>
       <c r="D93">
-        <v>214.49</v>
+        <v>145.93</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>-29</v>
       </c>
       <c r="C94">
-        <v>230.49</v>
+        <v>549</v>
       </c>
       <c r="D94">
-        <v>230.49</v>
+        <v>549</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="C95">
-        <v>235.39</v>
+        <v>549</v>
       </c>
       <c r="D95">
-        <v>235.39</v>
+        <v>549</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C96">
-        <v>207.34</v>
+        <v>-375.62</v>
       </c>
       <c r="D96">
-        <v>207.34</v>
+        <v>-375.62</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C97">
-        <v>215.42</v>
+        <v>-1774.2</v>
       </c>
       <c r="D97">
-        <v>215.42</v>
+        <v>-1774.2</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B98">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="C98">
-        <v>613</v>
+        <v>157.03</v>
       </c>
       <c r="D98">
-        <v>613</v>
+        <v>157.03</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B99">
-        <v>-39</v>
+        <v>45</v>
       </c>
       <c r="C99">
-        <v>613.49</v>
+        <v>111.64</v>
       </c>
       <c r="D99">
-        <v>613.49</v>
+        <v>111.64</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B100">
-        <v>-27</v>
+        <v>47</v>
       </c>
       <c r="C100">
-        <v>650.04</v>
+        <v>15.09</v>
       </c>
       <c r="D100">
-        <v>650.04</v>
+        <v>15.09</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B101">
-        <v>-14</v>
+        <v>55</v>
       </c>
       <c r="C101">
-        <v>569</v>
+        <v>-425.17</v>
       </c>
       <c r="D101">
-        <v>569</v>
+        <v>-425.17</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C102">
-        <v>388.57</v>
+        <v>-60.44</v>
       </c>
       <c r="D102">
-        <v>388.57</v>
+        <v>-60.44</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B103">
-        <v>-20</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>693.73</v>
+        <v>-33.88</v>
       </c>
       <c r="D103">
-        <v>693.73</v>
+        <v>-33.88</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B104">
-        <v>-25</v>
+        <v>46</v>
       </c>
       <c r="C104">
-        <v>646.9</v>
+        <v>-554.4</v>
       </c>
       <c r="D104">
-        <v>646.9</v>
+        <v>-554.4</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B105">
-        <v>-35</v>
+        <v>43</v>
       </c>
       <c r="C105">
-        <v>683.1799999999999</v>
+        <v>-308.42</v>
       </c>
       <c r="D105">
-        <v>683.1799999999999</v>
+        <v>-308.42</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B106">
-        <v>-12</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>689.0599999999999</v>
+        <v>-229.35</v>
       </c>
       <c r="D106">
-        <v>689.0599999999999</v>
+        <v>-229.35</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B107">
-        <v>-28</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>699.28</v>
+        <v>-31.42</v>
       </c>
       <c r="D107">
-        <v>699.28</v>
+        <v>-31.42</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B108">
-        <v>-42</v>
+        <v>7</v>
       </c>
       <c r="C108">
-        <v>699.37</v>
+        <v>132.14</v>
       </c>
       <c r="D108">
-        <v>699.37</v>
+        <v>132.14</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B109">
-        <v>-45</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>700</v>
+        <v>20.27</v>
       </c>
       <c r="D109">
-        <v>700</v>
+        <v>20.27</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B110">
-        <v>-44</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>697.74</v>
+        <v>-3.67</v>
       </c>
       <c r="D110">
-        <v>697.74</v>
+        <v>-3.67</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B111">
-        <v>-43</v>
+        <v>33</v>
       </c>
       <c r="C111">
-        <v>927.59</v>
+        <v>-14.96</v>
       </c>
       <c r="D111">
-        <v>927.59</v>
+        <v>-14.96</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B112">
-        <v>-49</v>
+        <v>-5</v>
       </c>
       <c r="C112">
-        <v>4526.91</v>
+        <v>208.73</v>
       </c>
       <c r="D112">
-        <v>4526.91</v>
+        <v>208.73</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B113">
-        <v>-35</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>2726.02</v>
+        <v>105.39</v>
       </c>
       <c r="D113">
-        <v>2726.02</v>
+        <v>105.39</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B114">
-        <v>-3</v>
+        <v>28</v>
       </c>
       <c r="C114">
-        <v>694.58</v>
+        <v>149.67</v>
       </c>
       <c r="D114">
-        <v>694.58</v>
+        <v>149.67</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C115">
-        <v>390</v>
+        <v>192.44</v>
       </c>
       <c r="D115">
-        <v>390</v>
+        <v>192.44</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B116">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>357.89</v>
+        <v>364.7</v>
       </c>
       <c r="D116">
-        <v>357.89</v>
+        <v>364.7</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>390</v>
+        <v>265.05</v>
       </c>
       <c r="D117">
-        <v>390</v>
+        <v>265.05</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B118">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C118">
-        <v>292.71</v>
+        <v>-13.43</v>
       </c>
       <c r="D118">
-        <v>292.71</v>
+        <v>-13.43</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C119">
-        <v>289.03</v>
+        <v>123.56</v>
       </c>
       <c r="D119">
-        <v>289.03</v>
+        <v>123.56</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>390</v>
+        <v>166.67</v>
       </c>
       <c r="D120">
-        <v>390</v>
+        <v>166.67</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B121">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>677.8200000000001</v>
+        <v>200.98</v>
       </c>
       <c r="D121">
-        <v>677.8200000000001</v>
+        <v>200.98</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B122">
-        <v>-26</v>
+        <v>26</v>
       </c>
       <c r="C122">
-        <v>853.8099999999999</v>
+        <v>-1676.86</v>
       </c>
       <c r="D122">
-        <v>853.8099999999999</v>
+        <v>-1676.86</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B123">
-        <v>-17</v>
+        <v>-9</v>
       </c>
       <c r="C123">
-        <v>692.12</v>
+        <v>784.22</v>
       </c>
       <c r="D123">
-        <v>692.12</v>
+        <v>784.22</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B124">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>643.9</v>
+        <v>319.62</v>
       </c>
       <c r="D124">
-        <v>643.9</v>
+        <v>319.62</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B125">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="C125">
-        <v>644.3099999999999</v>
+        <v>739.78</v>
       </c>
       <c r="D125">
-        <v>644.3099999999999</v>
+        <v>739.78</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B126">
-        <v>-6</v>
+        <v>-21</v>
       </c>
       <c r="C126">
-        <v>645.9299999999999</v>
+        <v>801.27</v>
       </c>
       <c r="D126">
-        <v>645.9299999999999</v>
+        <v>801.27</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B127">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="C127">
-        <v>640.35</v>
+        <v>195.44</v>
       </c>
       <c r="D127">
-        <v>640.35</v>
+        <v>195.44</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B128">
-        <v>-22</v>
+        <v>67</v>
       </c>
       <c r="C128">
-        <v>645.74</v>
+        <v>-2056.81</v>
       </c>
       <c r="D128">
-        <v>645.74</v>
+        <v>-2056.81</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B129">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C129">
-        <v>247.98</v>
+        <v>-5999.48</v>
       </c>
       <c r="D129">
-        <v>247.98</v>
+        <v>-5999.48</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>265.37</v>
+        <v>-2347.04</v>
       </c>
       <c r="D130">
-        <v>265.37</v>
+        <v>-2347.04</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B131">
-        <v>-31</v>
+        <v>63</v>
       </c>
       <c r="C131">
-        <v>769.1</v>
+        <v>-3170.71</v>
       </c>
       <c r="D131">
-        <v>769.1</v>
+        <v>-3170.71</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B132">
-        <v>-36</v>
+        <v>109</v>
       </c>
       <c r="C132">
-        <v>682.59</v>
+        <v>-6842.96</v>
       </c>
       <c r="D132">
-        <v>682.59</v>
+        <v>-6842.96</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B133">
-        <v>-2</v>
+        <v>140</v>
       </c>
       <c r="C133">
-        <v>644.33</v>
+        <v>-6988.34</v>
       </c>
       <c r="D133">
-        <v>644.33</v>
+        <v>-6988.34</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B134">
-        <v>-71</v>
+        <v>83</v>
       </c>
       <c r="C134">
-        <v>727.37</v>
+        <v>-1764.51</v>
       </c>
       <c r="D134">
-        <v>727.37</v>
+        <v>-1764.51</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B135">
-        <v>-83</v>
+        <v>85</v>
       </c>
       <c r="C135">
-        <v>724.17</v>
+        <v>-228.77</v>
       </c>
       <c r="D135">
-        <v>724.17</v>
+        <v>-228.77</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B136">
-        <v>-85</v>
+        <v>57</v>
       </c>
       <c r="C136">
-        <v>690.37</v>
+        <v>-470.12</v>
       </c>
       <c r="D136">
-        <v>690.37</v>
+        <v>-470.12</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>-1193.13</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-1193.13</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>-151.41</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>-151.41</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,294 +34,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>17.09.202593</t>
-  </si>
-  <si>
-    <t>17.09.202594</t>
-  </si>
-  <si>
-    <t>17.09.202595</t>
-  </si>
-  <si>
-    <t>17.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -608,6 +320,294 @@
   </si>
   <si>
     <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
+  </si>
+  <si>
+    <t>19.09.202537</t>
+  </si>
+  <si>
+    <t>19.09.202538</t>
+  </si>
+  <si>
+    <t>19.09.202539</t>
+  </si>
+  <si>
+    <t>19.09.202540</t>
+  </si>
+  <si>
+    <t>19.09.202541</t>
+  </si>
+  <si>
+    <t>19.09.202542</t>
+  </si>
+  <si>
+    <t>19.09.202543</t>
+  </si>
+  <si>
+    <t>19.09.202544</t>
+  </si>
+  <si>
+    <t>19.09.202545</t>
+  </si>
+  <si>
+    <t>19.09.202546</t>
+  </si>
+  <si>
+    <t>19.09.202547</t>
+  </si>
+  <si>
+    <t>19.09.202548</t>
+  </si>
+  <si>
+    <t>19.09.202549</t>
+  </si>
+  <si>
+    <t>19.09.202550</t>
+  </si>
+  <si>
+    <t>19.09.202551</t>
+  </si>
+  <si>
+    <t>19.09.202552</t>
+  </si>
+  <si>
+    <t>19.09.202553</t>
+  </si>
+  <si>
+    <t>19.09.202554</t>
+  </si>
+  <si>
+    <t>19.09.202555</t>
+  </si>
+  <si>
+    <t>19.09.202556</t>
+  </si>
+  <si>
+    <t>19.09.202557</t>
+  </si>
+  <si>
+    <t>19.09.202558</t>
+  </si>
+  <si>
+    <t>19.09.202559</t>
+  </si>
+  <si>
+    <t>19.09.202560</t>
+  </si>
+  <si>
+    <t>19.09.202561</t>
+  </si>
+  <si>
+    <t>19.09.202562</t>
+  </si>
+  <si>
+    <t>19.09.202563</t>
+  </si>
+  <si>
+    <t>19.09.202564</t>
+  </si>
+  <si>
+    <t>19.09.202565</t>
+  </si>
+  <si>
+    <t>19.09.202566</t>
+  </si>
+  <si>
+    <t>19.09.202567</t>
+  </si>
+  <si>
+    <t>19.09.202568</t>
+  </si>
+  <si>
+    <t>19.09.202569</t>
+  </si>
+  <si>
+    <t>19.09.202570</t>
+  </si>
+  <si>
+    <t>19.09.202571</t>
+  </si>
+  <si>
+    <t>19.09.202572</t>
+  </si>
+  <si>
+    <t>19.09.202573</t>
+  </si>
+  <si>
+    <t>19.09.202574</t>
+  </si>
+  <si>
+    <t>19.09.202575</t>
+  </si>
+  <si>
+    <t>19.09.202576</t>
+  </si>
+  <si>
+    <t>19.09.202577</t>
+  </si>
+  <si>
+    <t>19.09.202578</t>
+  </si>
+  <si>
+    <t>19.09.202579</t>
+  </si>
+  <si>
+    <t>19.09.202580</t>
+  </si>
+  <si>
+    <t>19.09.202581</t>
+  </si>
+  <si>
+    <t>19.09.202582</t>
+  </si>
+  <si>
+    <t>19.09.202583</t>
+  </si>
+  <si>
+    <t>19.09.202584</t>
+  </si>
+  <si>
+    <t>19.09.202585</t>
+  </si>
+  <si>
+    <t>19.09.202586</t>
+  </si>
+  <si>
+    <t>19.09.202587</t>
+  </si>
+  <si>
+    <t>19.09.202588</t>
+  </si>
+  <si>
+    <t>19.09.202589</t>
+  </si>
+  <si>
+    <t>19.09.202590</t>
+  </si>
+  <si>
+    <t>19.09.202591</t>
+  </si>
+  <si>
+    <t>19.09.202592</t>
+  </si>
+  <si>
+    <t>19.09.202593</t>
+  </si>
+  <si>
+    <t>19.09.202594</t>
+  </si>
+  <si>
+    <t>19.09.202595</t>
+  </si>
+  <si>
+    <t>19.09.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>298.74</v>
+        <v>-60.44</v>
       </c>
       <c r="D6">
-        <v>298.74</v>
+        <v>-60.44</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>269.87</v>
+        <v>-33.88</v>
       </c>
       <c r="D7">
-        <v>269.87</v>
+        <v>-33.88</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>180.96</v>
+        <v>-554.4</v>
       </c>
       <c r="D8">
-        <v>180.96</v>
+        <v>-554.4</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>165.27</v>
+        <v>-308.42</v>
       </c>
       <c r="D9">
-        <v>165.27</v>
+        <v>-308.42</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>226.91</v>
+        <v>-229.35</v>
       </c>
       <c r="D10">
-        <v>226.91</v>
+        <v>-229.35</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>684</v>
+        <v>-31.42</v>
       </c>
       <c r="D11">
-        <v>684</v>
+        <v>-31.42</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>-25</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>650</v>
+        <v>132.14</v>
       </c>
       <c r="D12">
-        <v>650</v>
+        <v>132.14</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>700.01</v>
+        <v>20.27</v>
       </c>
       <c r="D13">
-        <v>700.01</v>
+        <v>20.27</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>649</v>
+        <v>-3.67</v>
       </c>
       <c r="D14">
-        <v>649</v>
+        <v>-3.67</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>649</v>
+        <v>-14.96</v>
       </c>
       <c r="D15">
-        <v>649</v>
+        <v>-14.96</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="C16">
-        <v>617</v>
+        <v>208.73</v>
       </c>
       <c r="D16">
-        <v>617</v>
+        <v>208.73</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>-56</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>668.72</v>
+        <v>105.39</v>
       </c>
       <c r="D17">
-        <v>668.72</v>
+        <v>105.39</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>-16</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>616</v>
+        <v>149.67</v>
       </c>
       <c r="D18">
-        <v>616</v>
+        <v>149.67</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>-34</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>616</v>
+        <v>192.44</v>
       </c>
       <c r="D19">
-        <v>616</v>
+        <v>192.44</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>586</v>
+        <v>364.7</v>
       </c>
       <c r="D20">
-        <v>586</v>
+        <v>364.7</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>-11</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>638</v>
+        <v>265.05</v>
       </c>
       <c r="D21">
-        <v>638</v>
+        <v>265.05</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>309.09</v>
+        <v>-13.43</v>
       </c>
       <c r="D22">
-        <v>309.09</v>
+        <v>-13.43</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>-21</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>723.95</v>
+        <v>123.56</v>
       </c>
       <c r="D23">
-        <v>723.95</v>
+        <v>123.56</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>880.05</v>
+        <v>166.67</v>
       </c>
       <c r="D24">
-        <v>880.05</v>
+        <v>166.67</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>-54</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>1742.33</v>
+        <v>200.98</v>
       </c>
       <c r="D25">
-        <v>1742.33</v>
+        <v>200.98</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>-33</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>964.4400000000001</v>
+        <v>-1676.86</v>
       </c>
       <c r="D26">
-        <v>964.4400000000001</v>
+        <v>-1676.86</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>-75</v>
+        <v>-9</v>
       </c>
       <c r="C27">
-        <v>3585.17</v>
+        <v>784.22</v>
       </c>
       <c r="D27">
-        <v>3585.17</v>
+        <v>784.22</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>-95</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2572.88</v>
+        <v>319.62</v>
       </c>
       <c r="D28">
-        <v>2572.88</v>
+        <v>319.62</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>-114</v>
+        <v>-3</v>
       </c>
       <c r="C29">
-        <v>1045.45</v>
+        <v>739.78</v>
       </c>
       <c r="D29">
-        <v>1045.45</v>
+        <v>739.78</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>-136</v>
+        <v>-21</v>
       </c>
       <c r="C30">
-        <v>2148.78</v>
+        <v>801.27</v>
       </c>
       <c r="D30">
-        <v>2148.78</v>
+        <v>801.27</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>-191</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>4182.61</v>
+        <v>195.44</v>
       </c>
       <c r="D31">
-        <v>4182.61</v>
+        <v>195.44</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>-207</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>2708.09</v>
+        <v>-2056.81</v>
       </c>
       <c r="D32">
-        <v>2708.09</v>
+        <v>-2056.81</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>-150</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>1084.55</v>
+        <v>-5999.48</v>
       </c>
       <c r="D33">
-        <v>1084.55</v>
+        <v>-5999.48</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>-78</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>1277.97</v>
+        <v>-2347.04</v>
       </c>
       <c r="D34">
-        <v>1277.97</v>
+        <v>-2347.04</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>-120</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>1826.25</v>
+        <v>-3170.71</v>
       </c>
       <c r="D35">
-        <v>1826.25</v>
+        <v>-3170.71</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>-98</v>
+        <v>109</v>
       </c>
       <c r="C36">
-        <v>1009.74</v>
+        <v>-6842.96</v>
       </c>
       <c r="D36">
-        <v>1009.74</v>
+        <v>-6842.96</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>-64</v>
+        <v>140</v>
       </c>
       <c r="C37">
-        <v>1005.66</v>
+        <v>-6988.34</v>
       </c>
       <c r="D37">
-        <v>1005.66</v>
+        <v>-6988.34</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
-        <v>-14</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>924.41</v>
+        <v>-1764.51</v>
       </c>
       <c r="D38">
-        <v>924.41</v>
+        <v>-1764.51</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>-30</v>
+        <v>85</v>
       </c>
       <c r="C39">
-        <v>924.41</v>
+        <v>-228.77</v>
       </c>
       <c r="D39">
-        <v>924.41</v>
+        <v>-228.77</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>-1710.72</v>
+        <v>-470.12</v>
       </c>
       <c r="D40">
-        <v>-1710.72</v>
+        <v>-470.12</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41">
-        <v>-4173.22</v>
+        <v>-1193.13</v>
       </c>
       <c r="D41">
-        <v>-4173.22</v>
+        <v>-1193.13</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>-1372.54</v>
+        <v>-151.41</v>
       </c>
       <c r="D42">
-        <v>-1372.54</v>
+        <v>-151.41</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>-2909.04</v>
+        <v>-99.58</v>
       </c>
       <c r="D43">
-        <v>-2909.04</v>
+        <v>-99.58</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C44">
-        <v>-4136.06</v>
+        <v>-6.81</v>
       </c>
       <c r="D44">
-        <v>-4136.06</v>
+        <v>-6.81</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C45">
-        <v>-2565.27</v>
+        <v>-3555.25</v>
       </c>
       <c r="D45">
-        <v>-2565.27</v>
+        <v>-3555.25</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>-37</v>
+        <v>79</v>
       </c>
       <c r="C46">
-        <v>550</v>
+        <v>-2418.22</v>
       </c>
       <c r="D46">
-        <v>550</v>
+        <v>-2418.22</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>-5</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>550</v>
+        <v>-87.31</v>
       </c>
       <c r="D47">
-        <v>550</v>
+        <v>-87.31</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="C48">
-        <v>32.57</v>
+        <v>450.03</v>
       </c>
       <c r="D48">
-        <v>32.57</v>
+        <v>450.03</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>-13</v>
       </c>
       <c r="C49">
-        <v>-4059.91</v>
+        <v>450.03</v>
       </c>
       <c r="D49">
-        <v>-4059.91</v>
+        <v>450.03</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>-3689.21</v>
+        <v>43.95</v>
       </c>
       <c r="D50">
-        <v>-3689.21</v>
+        <v>43.95</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>-1967.11</v>
+        <v>-270.3</v>
       </c>
       <c r="D51">
-        <v>-1967.11</v>
+        <v>-270.3</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>-161.86</v>
+        <v>-790.0599999999999</v>
       </c>
       <c r="D52">
-        <v>-161.86</v>
+        <v>-790.0599999999999</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>102</v>
+        <v>-13</v>
       </c>
       <c r="C53">
-        <v>-112.29</v>
+        <v>450.01</v>
       </c>
       <c r="D53">
-        <v>-112.29</v>
+        <v>450.01</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C54">
-        <v>-161.27</v>
+        <v>-133.02</v>
       </c>
       <c r="D54">
-        <v>-161.27</v>
+        <v>-133.02</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>-161.27</v>
+        <v>19.86</v>
       </c>
       <c r="D55">
-        <v>-161.27</v>
+        <v>19.86</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>-94.75</v>
+        <v>-144.54</v>
       </c>
       <c r="D56">
-        <v>-94.75</v>
+        <v>-144.54</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C57">
-        <v>-1807.07</v>
+        <v>-3036.04</v>
       </c>
       <c r="D57">
-        <v>-1807.07</v>
+        <v>-3036.04</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C58">
-        <v>-2079.03</v>
+        <v>-6983.7</v>
       </c>
       <c r="D58">
-        <v>-2079.03</v>
+        <v>-6983.7</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C59">
-        <v>-42.24</v>
+        <v>-3027.57</v>
       </c>
       <c r="D59">
-        <v>-42.24</v>
+        <v>-3027.57</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C60">
-        <v>-90.28</v>
+        <v>-91.78</v>
       </c>
       <c r="D60">
-        <v>-90.28</v>
+        <v>-91.78</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C61">
-        <v>-98.40000000000001</v>
+        <v>-3477.89</v>
       </c>
       <c r="D61">
-        <v>-98.40000000000001</v>
+        <v>-3477.89</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C62">
-        <v>-3345.27</v>
+        <v>-6547.24</v>
       </c>
       <c r="D62">
-        <v>-3345.27</v>
+        <v>-6547.24</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C63">
-        <v>22.24</v>
+        <v>-4100.2</v>
       </c>
       <c r="D63">
-        <v>22.24</v>
+        <v>-4100.2</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C64">
-        <v>0.6</v>
+        <v>-6792.87</v>
       </c>
       <c r="D64">
-        <v>0.6</v>
+        <v>-6792.87</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>-3162.98</v>
       </c>
       <c r="D65">
-        <v>0.1</v>
+        <v>-3162.98</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C66">
-        <v>190.55</v>
+        <v>-6819.03</v>
       </c>
       <c r="D66">
-        <v>190.55</v>
+        <v>-6819.03</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C67">
-        <v>196.35</v>
+        <v>-6169.58</v>
       </c>
       <c r="D67">
-        <v>196.35</v>
+        <v>-6169.58</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68">
-        <v>262.66</v>
+        <v>-583.47</v>
       </c>
       <c r="D68">
-        <v>262.66</v>
+        <v>-583.47</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>41</v>
+        <v>-3</v>
       </c>
       <c r="C69">
-        <v>390</v>
+        <v>473.11</v>
       </c>
       <c r="D69">
-        <v>390</v>
+        <v>473.11</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C70">
-        <v>-2325.17</v>
+        <v>236.4</v>
       </c>
       <c r="D70">
-        <v>-2325.17</v>
+        <v>236.4</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>-8</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="D71">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>390</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C73">
-        <v>363.99</v>
+        <v>400</v>
       </c>
       <c r="D73">
-        <v>363.99</v>
+        <v>400</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C74">
-        <v>-2031.93</v>
+        <v>-2111.16</v>
       </c>
       <c r="D74">
-        <v>-2031.93</v>
+        <v>-2111.16</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>-35.82</v>
+        <v>390</v>
       </c>
       <c r="D75">
-        <v>-35.82</v>
+        <v>390</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C76">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D76">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>691.02</v>
+        <v>390</v>
       </c>
       <c r="D77">
-        <v>691.02</v>
+        <v>390</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>-40</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <v>926.04</v>
+        <v>251.84</v>
       </c>
       <c r="D78">
-        <v>926.04</v>
+        <v>251.84</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>-66</v>
+        <v>76</v>
       </c>
       <c r="C79">
-        <v>1874.57</v>
+        <v>371.77</v>
       </c>
       <c r="D79">
-        <v>1874.57</v>
+        <v>371.77</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>-63</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>1720.17</v>
+        <v>390</v>
       </c>
       <c r="D80">
-        <v>1720.17</v>
+        <v>390</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>-87</v>
+        <v>94</v>
       </c>
       <c r="C81">
-        <v>1780.98</v>
+        <v>219.08</v>
       </c>
       <c r="D81">
-        <v>1780.98</v>
+        <v>219.08</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>-153</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>5571.22</v>
+        <v>-19.29</v>
       </c>
       <c r="D82">
-        <v>5571.22</v>
+        <v>-19.29</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>-101</v>
+        <v>73</v>
       </c>
       <c r="C83">
-        <v>1225.39</v>
+        <v>-260.38</v>
       </c>
       <c r="D83">
-        <v>1225.39</v>
+        <v>-260.38</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
-        <v>-18</v>
+        <v>60</v>
       </c>
       <c r="C84">
-        <v>1258.53</v>
+        <v>-501.28</v>
       </c>
       <c r="D84">
-        <v>1258.53</v>
+        <v>-501.28</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C85">
-        <v>-473.94</v>
+        <v>-585.87</v>
       </c>
       <c r="D85">
-        <v>-473.94</v>
+        <v>-585.87</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>111.34</v>
+        <v>111.91</v>
       </c>
       <c r="D86">
-        <v>111.34</v>
+        <v>111.91</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C87">
-        <v>239.4</v>
+        <v>247.55</v>
       </c>
       <c r="D87">
-        <v>239.4</v>
+        <v>247.55</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C88">
-        <v>-36.65</v>
+        <v>139.3</v>
       </c>
       <c r="D88">
-        <v>-36.65</v>
+        <v>139.3</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>-3156.42</v>
+        <v>-2763.22</v>
       </c>
       <c r="D89">
-        <v>-3156.42</v>
+        <v>-2763.22</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C90">
-        <v>-679.1900000000001</v>
+        <v>-937.38</v>
       </c>
       <c r="D90">
-        <v>-679.1900000000001</v>
+        <v>-937.38</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C91">
-        <v>200.31</v>
+        <v>-72.56999999999999</v>
       </c>
       <c r="D91">
-        <v>200.31</v>
+        <v>-72.56999999999999</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C92">
-        <v>203.74</v>
+        <v>-66.31999999999999</v>
       </c>
       <c r="D92">
-        <v>203.74</v>
+        <v>-66.31999999999999</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C93">
-        <v>145.93</v>
+        <v>184.72</v>
       </c>
       <c r="D93">
-        <v>145.93</v>
+        <v>184.72</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>-29</v>
+        <v>33</v>
       </c>
       <c r="C94">
-        <v>549</v>
+        <v>116.65</v>
       </c>
       <c r="D94">
-        <v>549</v>
+        <v>116.65</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>-16</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>549</v>
+        <v>190</v>
       </c>
       <c r="D95">
-        <v>549</v>
+        <v>190</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B96">
         <v>20</v>
       </c>
       <c r="C96">
-        <v>-375.62</v>
+        <v>178.73</v>
       </c>
       <c r="D96">
-        <v>-375.62</v>
+        <v>178.73</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B97">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>-1774.2</v>
+        <v>7.07</v>
       </c>
       <c r="D97">
-        <v>-1774.2</v>
+        <v>7.07</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B98">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C98">
-        <v>157.03</v>
+        <v>-159.52</v>
       </c>
       <c r="D98">
-        <v>157.03</v>
+        <v>-159.52</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B99">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C99">
-        <v>111.64</v>
+        <v>15.79</v>
       </c>
       <c r="D99">
-        <v>111.64</v>
+        <v>15.79</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B100">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>15.09</v>
+        <v>-369.55</v>
       </c>
       <c r="D100">
-        <v>15.09</v>
+        <v>-369.55</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B101">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101">
-        <v>-425.17</v>
+        <v>-841.92</v>
       </c>
       <c r="D101">
-        <v>-425.17</v>
+        <v>-841.92</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B102">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>-60.44</v>
+        <v>-185.39</v>
       </c>
       <c r="D102">
-        <v>-60.44</v>
+        <v>-185.39</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B103">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C103">
-        <v>-33.88</v>
+        <v>-260.94</v>
       </c>
       <c r="D103">
-        <v>-33.88</v>
+        <v>-260.94</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B104">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C104">
-        <v>-554.4</v>
+        <v>-1302.29</v>
       </c>
       <c r="D104">
-        <v>-554.4</v>
+        <v>-1302.29</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B105">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C105">
-        <v>-308.42</v>
+        <v>-4694.98</v>
       </c>
       <c r="D105">
-        <v>-308.42</v>
+        <v>-4694.98</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B106">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C106">
-        <v>-229.35</v>
+        <v>-2128.08</v>
       </c>
       <c r="D106">
-        <v>-229.35</v>
+        <v>-2128.08</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C107">
-        <v>-31.42</v>
+        <v>-483.51</v>
       </c>
       <c r="D107">
-        <v>-31.42</v>
+        <v>-483.51</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C108">
-        <v>132.14</v>
+        <v>-337.34</v>
       </c>
       <c r="D108">
-        <v>132.14</v>
+        <v>-337.34</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C109">
-        <v>20.27</v>
+        <v>-332.69</v>
       </c>
       <c r="D109">
-        <v>20.27</v>
+        <v>-332.69</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C110">
-        <v>-3.67</v>
+        <v>-429.83</v>
       </c>
       <c r="D110">
-        <v>-3.67</v>
+        <v>-429.83</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B111">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>-14.96</v>
+        <v>185.66</v>
       </c>
       <c r="D111">
-        <v>-14.96</v>
+        <v>185.66</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B112">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="C112">
-        <v>208.73</v>
+        <v>132.18</v>
       </c>
       <c r="D112">
-        <v>208.73</v>
+        <v>132.18</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>105.39</v>
+        <v>143.73</v>
       </c>
       <c r="D113">
-        <v>105.39</v>
+        <v>143.73</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B114">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C114">
-        <v>149.67</v>
+        <v>-309.92</v>
       </c>
       <c r="D114">
-        <v>149.67</v>
+        <v>-309.92</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C115">
-        <v>192.44</v>
+        <v>-13.97</v>
       </c>
       <c r="D115">
-        <v>192.44</v>
+        <v>-13.97</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C116">
-        <v>364.7</v>
+        <v>-149.43</v>
       </c>
       <c r="D116">
-        <v>364.7</v>
+        <v>-149.43</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C117">
-        <v>265.05</v>
+        <v>24.66</v>
       </c>
       <c r="D117">
-        <v>265.05</v>
+        <v>24.66</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B118">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C118">
-        <v>-13.43</v>
+        <v>-2907.94</v>
       </c>
       <c r="D118">
-        <v>-13.43</v>
+        <v>-2907.94</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B119">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C119">
-        <v>123.56</v>
+        <v>-201.99</v>
       </c>
       <c r="D119">
-        <v>123.56</v>
+        <v>-201.99</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C120">
-        <v>166.67</v>
+        <v>194.11</v>
       </c>
       <c r="D120">
-        <v>166.67</v>
+        <v>194.11</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C121">
-        <v>200.98</v>
+        <v>-199</v>
       </c>
       <c r="D121">
-        <v>200.98</v>
+        <v>-199</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C122">
-        <v>-1676.86</v>
+        <v>202.38</v>
       </c>
       <c r="D122">
-        <v>-1676.86</v>
+        <v>202.38</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B123">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="C123">
-        <v>784.22</v>
+        <v>232.88</v>
       </c>
       <c r="D123">
-        <v>784.22</v>
+        <v>232.88</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C124">
-        <v>319.62</v>
+        <v>358.78</v>
       </c>
       <c r="D124">
-        <v>319.62</v>
+        <v>358.78</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B125">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>739.78</v>
+        <v>389.09</v>
       </c>
       <c r="D125">
-        <v>739.78</v>
+        <v>389.09</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B126">
-        <v>-21</v>
+        <v>-44</v>
       </c>
       <c r="C126">
-        <v>801.27</v>
+        <v>1080.2</v>
       </c>
       <c r="D126">
-        <v>801.27</v>
+        <v>1080.2</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B127">
-        <v>38</v>
+        <v>-60</v>
       </c>
       <c r="C127">
-        <v>195.44</v>
+        <v>811.9</v>
       </c>
       <c r="D127">
-        <v>195.44</v>
+        <v>811.9</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B128">
-        <v>67</v>
+        <v>-59</v>
       </c>
       <c r="C128">
-        <v>-2056.81</v>
+        <v>980.5599999999999</v>
       </c>
       <c r="D128">
-        <v>-2056.81</v>
+        <v>980.5599999999999</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B129">
-        <v>93</v>
+        <v>-40</v>
       </c>
       <c r="C129">
-        <v>-5999.48</v>
+        <v>799.97</v>
       </c>
       <c r="D129">
-        <v>-5999.48</v>
+        <v>799.97</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>-101</v>
       </c>
       <c r="C130">
-        <v>-2347.04</v>
+        <v>6163.32</v>
       </c>
       <c r="D130">
-        <v>-2347.04</v>
+        <v>6163.32</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B131">
-        <v>63</v>
+        <v>-133</v>
       </c>
       <c r="C131">
-        <v>-3170.71</v>
+        <v>3133.2</v>
       </c>
       <c r="D131">
-        <v>-3170.71</v>
+        <v>3133.2</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B132">
-        <v>109</v>
+        <v>-142</v>
       </c>
       <c r="C132">
-        <v>-6842.96</v>
+        <v>3279.61</v>
       </c>
       <c r="D132">
-        <v>-6842.96</v>
+        <v>3279.61</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B133">
-        <v>140</v>
+        <v>-63</v>
       </c>
       <c r="C133">
-        <v>-6988.34</v>
+        <v>791.6799999999999</v>
       </c>
       <c r="D133">
-        <v>-6988.34</v>
+        <v>791.6799999999999</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B134">
-        <v>83</v>
+        <v>-97</v>
       </c>
       <c r="C134">
-        <v>-1764.51</v>
+        <v>5678.21</v>
       </c>
       <c r="D134">
-        <v>-1764.51</v>
+        <v>5678.21</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B135">
-        <v>85</v>
+        <v>-41</v>
       </c>
       <c r="C135">
-        <v>-228.77</v>
+        <v>995.49</v>
       </c>
       <c r="D135">
-        <v>-228.77</v>
+        <v>995.49</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B136">
-        <v>57</v>
+        <v>-8</v>
       </c>
       <c r="C136">
-        <v>-470.12</v>
+        <v>628</v>
       </c>
       <c r="D136">
-        <v>-470.12</v>
+        <v>628</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3697,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B137">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-1193.13</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>-1193.13</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +3717,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>-151.41</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>-151.41</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
-  </si>
-  <si>
-    <t>19.09.202537</t>
-  </si>
-  <si>
-    <t>19.09.202538</t>
-  </si>
-  <si>
-    <t>19.09.202539</t>
-  </si>
-  <si>
-    <t>19.09.202540</t>
-  </si>
-  <si>
-    <t>19.09.202541</t>
-  </si>
-  <si>
-    <t>19.09.202542</t>
-  </si>
-  <si>
-    <t>19.09.202543</t>
-  </si>
-  <si>
-    <t>19.09.202544</t>
-  </si>
-  <si>
-    <t>19.09.202545</t>
-  </si>
-  <si>
-    <t>19.09.202546</t>
-  </si>
-  <si>
-    <t>19.09.202547</t>
-  </si>
-  <si>
-    <t>19.09.202548</t>
-  </si>
-  <si>
-    <t>19.09.202549</t>
-  </si>
-  <si>
-    <t>19.09.202550</t>
-  </si>
-  <si>
-    <t>19.09.202551</t>
-  </si>
-  <si>
-    <t>19.09.202552</t>
-  </si>
-  <si>
-    <t>19.09.202553</t>
-  </si>
-  <si>
-    <t>19.09.202554</t>
-  </si>
-  <si>
-    <t>19.09.202555</t>
-  </si>
-  <si>
-    <t>19.09.202556</t>
-  </si>
-  <si>
-    <t>19.09.202557</t>
-  </si>
-  <si>
-    <t>19.09.202558</t>
-  </si>
-  <si>
-    <t>19.09.202559</t>
-  </si>
-  <si>
-    <t>19.09.202560</t>
-  </si>
-  <si>
-    <t>19.09.202561</t>
-  </si>
-  <si>
-    <t>19.09.202562</t>
-  </si>
-  <si>
-    <t>19.09.202563</t>
-  </si>
-  <si>
-    <t>19.09.202564</t>
-  </si>
-  <si>
-    <t>19.09.202565</t>
-  </si>
-  <si>
-    <t>19.09.202566</t>
-  </si>
-  <si>
-    <t>19.09.202567</t>
-  </si>
-  <si>
-    <t>19.09.202568</t>
-  </si>
-  <si>
-    <t>19.09.202569</t>
-  </si>
-  <si>
-    <t>19.09.202570</t>
-  </si>
-  <si>
-    <t>19.09.202571</t>
-  </si>
-  <si>
-    <t>19.09.202572</t>
-  </si>
-  <si>
-    <t>19.09.202573</t>
-  </si>
-  <si>
-    <t>19.09.202574</t>
-  </si>
-  <si>
-    <t>19.09.202575</t>
-  </si>
-  <si>
-    <t>19.09.202576</t>
-  </si>
-  <si>
-    <t>19.09.202577</t>
-  </si>
-  <si>
-    <t>19.09.202578</t>
-  </si>
-  <si>
-    <t>19.09.202579</t>
-  </si>
-  <si>
-    <t>19.09.202580</t>
-  </si>
-  <si>
-    <t>19.09.202581</t>
-  </si>
-  <si>
-    <t>19.09.202582</t>
-  </si>
-  <si>
-    <t>19.09.202583</t>
-  </si>
-  <si>
-    <t>19.09.202584</t>
-  </si>
-  <si>
-    <t>19.09.202585</t>
-  </si>
-  <si>
-    <t>19.09.202586</t>
-  </si>
-  <si>
-    <t>19.09.202587</t>
-  </si>
-  <si>
-    <t>19.09.202588</t>
-  </si>
-  <si>
-    <t>19.09.202589</t>
-  </si>
-  <si>
-    <t>19.09.202590</t>
-  </si>
-  <si>
-    <t>19.09.202591</t>
-  </si>
-  <si>
-    <t>19.09.202592</t>
-  </si>
-  <si>
-    <t>19.09.202593</t>
-  </si>
-  <si>
-    <t>19.09.202594</t>
-  </si>
-  <si>
-    <t>19.09.202595</t>
-  </si>
-  <si>
-    <t>19.09.202596</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>22.09.202593</t>
+  </si>
+  <si>
+    <t>22.09.202594</t>
+  </si>
+  <si>
+    <t>22.09.202595</t>
+  </si>
+  <si>
+    <t>22.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.202525</t>
+  </si>
+  <si>
+    <t>23.09.202526</t>
+  </si>
+  <si>
+    <t>23.09.202527</t>
+  </si>
+  <si>
+    <t>23.09.202528</t>
+  </si>
+  <si>
+    <t>23.09.202529</t>
+  </si>
+  <si>
+    <t>23.09.202530</t>
+  </si>
+  <si>
+    <t>23.09.202531</t>
+  </si>
+  <si>
+    <t>23.09.202532</t>
+  </si>
+  <si>
+    <t>23.09.202533</t>
+  </si>
+  <si>
+    <t>23.09.202534</t>
+  </si>
+  <si>
+    <t>23.09.202535</t>
+  </si>
+  <si>
+    <t>23.09.202536</t>
+  </si>
+  <si>
+    <t>23.09.202537</t>
+  </si>
+  <si>
+    <t>23.09.202538</t>
+  </si>
+  <si>
+    <t>23.09.202539</t>
+  </si>
+  <si>
+    <t>23.09.202540</t>
+  </si>
+  <si>
+    <t>23.09.202541</t>
+  </si>
+  <si>
+    <t>23.09.202542</t>
+  </si>
+  <si>
+    <t>23.09.202543</t>
+  </si>
+  <si>
+    <t>23.09.202544</t>
+  </si>
+  <si>
+    <t>23.09.202545</t>
+  </si>
+  <si>
+    <t>23.09.202546</t>
+  </si>
+  <si>
+    <t>23.09.202547</t>
+  </si>
+  <si>
+    <t>23.09.202548</t>
+  </si>
+  <si>
+    <t>23.09.202549</t>
+  </si>
+  <si>
+    <t>23.09.202550</t>
+  </si>
+  <si>
+    <t>23.09.202551</t>
+  </si>
+  <si>
+    <t>23.09.202552</t>
+  </si>
+  <si>
+    <t>23.09.202553</t>
+  </si>
+  <si>
+    <t>23.09.202554</t>
+  </si>
+  <si>
+    <t>23.09.202555</t>
+  </si>
+  <si>
+    <t>23.09.202556</t>
+  </si>
+  <si>
+    <t>23.09.202557</t>
+  </si>
+  <si>
+    <t>23.09.202558</t>
+  </si>
+  <si>
+    <t>23.09.202559</t>
+  </si>
+  <si>
+    <t>23.09.202560</t>
+  </si>
+  <si>
+    <t>23.09.202561</t>
+  </si>
+  <si>
+    <t>23.09.202562</t>
+  </si>
+  <si>
+    <t>23.09.202563</t>
+  </si>
+  <si>
+    <t>23.09.202564</t>
+  </si>
+  <si>
+    <t>23.09.202565</t>
+  </si>
+  <si>
+    <t>23.09.202566</t>
+  </si>
+  <si>
+    <t>23.09.202567</t>
+  </si>
+  <si>
+    <t>23.09.202568</t>
+  </si>
+  <si>
+    <t>23.09.202569</t>
+  </si>
+  <si>
+    <t>23.09.202570</t>
+  </si>
+  <si>
+    <t>23.09.202571</t>
+  </si>
+  <si>
+    <t>23.09.202572</t>
+  </si>
+  <si>
+    <t>23.09.202573</t>
+  </si>
+  <si>
+    <t>23.09.202574</t>
+  </si>
+  <si>
+    <t>23.09.202575</t>
+  </si>
+  <si>
+    <t>23.09.202576</t>
+  </si>
+  <si>
+    <t>23.09.202577</t>
+  </si>
+  <si>
+    <t>23.09.202578</t>
+  </si>
+  <si>
+    <t>23.09.202579</t>
+  </si>
+  <si>
+    <t>23.09.202580</t>
+  </si>
+  <si>
+    <t>23.09.202581</t>
+  </si>
+  <si>
+    <t>23.09.202582</t>
+  </si>
+  <si>
+    <t>23.09.202583</t>
+  </si>
+  <si>
+    <t>23.09.202584</t>
+  </si>
+  <si>
+    <t>23.09.202585</t>
+  </si>
+  <si>
+    <t>23.09.202586</t>
+  </si>
+  <si>
+    <t>23.09.202587</t>
+  </si>
+  <si>
+    <t>23.09.202588</t>
+  </si>
+  <si>
+    <t>23.09.202589</t>
+  </si>
+  <si>
+    <t>23.09.202590</t>
+  </si>
+  <si>
+    <t>23.09.202591</t>
+  </si>
+  <si>
+    <t>23.09.202592</t>
+  </si>
+  <si>
+    <t>23.09.202593</t>
+  </si>
+  <si>
+    <t>23.09.202594</t>
+  </si>
+  <si>
+    <t>23.09.202595</t>
+  </si>
+  <si>
+    <t>23.09.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>-60.44</v>
+        <v>126.51</v>
       </c>
       <c r="D6">
-        <v>-60.44</v>
+        <v>126.51</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>-33.88</v>
+        <v>119.86</v>
       </c>
       <c r="D7">
-        <v>-33.88</v>
+        <v>119.86</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>-554.4</v>
+        <v>203.03</v>
       </c>
       <c r="D8">
-        <v>-554.4</v>
+        <v>203.03</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>-308.42</v>
+        <v>165.13</v>
       </c>
       <c r="D9">
-        <v>-308.42</v>
+        <v>165.13</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>-229.35</v>
+        <v>206.43</v>
       </c>
       <c r="D10">
-        <v>-229.35</v>
+        <v>206.43</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>-31.42</v>
+        <v>-20.37</v>
       </c>
       <c r="D11">
-        <v>-31.42</v>
+        <v>-20.37</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>132.14</v>
+        <v>175.49</v>
       </c>
       <c r="D12">
-        <v>132.14</v>
+        <v>175.49</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>20.27</v>
+        <v>189.68</v>
       </c>
       <c r="D13">
-        <v>20.27</v>
+        <v>189.68</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>-3.67</v>
+        <v>170.22</v>
       </c>
       <c r="D14">
-        <v>-3.67</v>
+        <v>170.22</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>-14.96</v>
+        <v>115.7</v>
       </c>
       <c r="D15">
-        <v>-14.96</v>
+        <v>115.7</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="C16">
-        <v>208.73</v>
+        <v>474.07</v>
       </c>
       <c r="D16">
-        <v>208.73</v>
+        <v>474.07</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="C17">
-        <v>105.39</v>
+        <v>542.4</v>
       </c>
       <c r="D17">
-        <v>105.39</v>
+        <v>542.4</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>149.67</v>
+        <v>199.01</v>
       </c>
       <c r="D18">
-        <v>149.67</v>
+        <v>199.01</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>192.44</v>
+        <v>-18.48</v>
       </c>
       <c r="D19">
-        <v>192.44</v>
+        <v>-18.48</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="C20">
-        <v>364.7</v>
+        <v>474.25</v>
       </c>
       <c r="D20">
-        <v>364.7</v>
+        <v>474.25</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="C21">
-        <v>265.05</v>
+        <v>653.8</v>
       </c>
       <c r="D21">
-        <v>265.05</v>
+        <v>653.8</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>-14</v>
       </c>
       <c r="C22">
-        <v>-13.43</v>
+        <v>570.87</v>
       </c>
       <c r="D22">
-        <v>-13.43</v>
+        <v>570.87</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>-12</v>
       </c>
       <c r="C23">
-        <v>123.56</v>
+        <v>462.5</v>
       </c>
       <c r="D23">
-        <v>123.56</v>
+        <v>462.5</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-57</v>
       </c>
       <c r="C24">
-        <v>166.67</v>
+        <v>4854.27</v>
       </c>
       <c r="D24">
-        <v>166.67</v>
+        <v>4854.27</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>-131</v>
       </c>
       <c r="C25">
-        <v>200.98</v>
+        <v>2385.61</v>
       </c>
       <c r="D25">
-        <v>200.98</v>
+        <v>2385.61</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>-77</v>
       </c>
       <c r="C26">
-        <v>-1676.86</v>
+        <v>1003.68</v>
       </c>
       <c r="D26">
-        <v>-1676.86</v>
+        <v>1003.68</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>-9</v>
+        <v>-46</v>
       </c>
       <c r="C27">
-        <v>784.22</v>
+        <v>994.98</v>
       </c>
       <c r="D27">
-        <v>784.22</v>
+        <v>994.98</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>-51</v>
       </c>
       <c r="C28">
-        <v>319.62</v>
+        <v>1027.26</v>
       </c>
       <c r="D28">
-        <v>319.62</v>
+        <v>1027.26</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>-3</v>
+        <v>-54</v>
       </c>
       <c r="C29">
-        <v>739.78</v>
+        <v>1013.65</v>
       </c>
       <c r="D29">
-        <v>739.78</v>
+        <v>1013.65</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>-21</v>
+        <v>-38</v>
       </c>
       <c r="C30">
-        <v>801.27</v>
+        <v>1083.88</v>
       </c>
       <c r="D30">
-        <v>801.27</v>
+        <v>1083.88</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>38</v>
+        <v>-18</v>
       </c>
       <c r="C31">
-        <v>195.44</v>
+        <v>1086.11</v>
       </c>
       <c r="D31">
-        <v>195.44</v>
+        <v>1086.11</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>-2056.81</v>
+        <v>194.76</v>
       </c>
       <c r="D32">
-        <v>-2056.81</v>
+        <v>194.76</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>-5999.48</v>
+        <v>120.92</v>
       </c>
       <c r="D33">
-        <v>-5999.48</v>
+        <v>120.92</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>-65</v>
       </c>
       <c r="C34">
-        <v>-2347.04</v>
+        <v>1299</v>
       </c>
       <c r="D34">
-        <v>-2347.04</v>
+        <v>1299</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>63</v>
+        <v>-14</v>
       </c>
       <c r="C35">
-        <v>-3170.71</v>
+        <v>548.86</v>
       </c>
       <c r="D35">
-        <v>-3170.71</v>
+        <v>548.86</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>-6842.96</v>
+        <v>-314.54</v>
       </c>
       <c r="D36">
-        <v>-6842.96</v>
+        <v>-314.54</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>-6988.34</v>
+        <v>-3188.45</v>
       </c>
       <c r="D37">
-        <v>-6988.34</v>
+        <v>-3188.45</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>-1764.51</v>
+        <v>-1170.17</v>
       </c>
       <c r="D38">
-        <v>-1764.51</v>
+        <v>-1170.17</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>-228.77</v>
+        <v>275.14</v>
       </c>
       <c r="D39">
-        <v>-228.77</v>
+        <v>275.14</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>-470.12</v>
+        <v>-103.51</v>
       </c>
       <c r="D40">
-        <v>-470.12</v>
+        <v>-103.51</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>56</v>
+        <v>-6</v>
       </c>
       <c r="C41">
-        <v>-1193.13</v>
+        <v>548.78</v>
       </c>
       <c r="D41">
-        <v>-1193.13</v>
+        <v>548.78</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>-151.41</v>
+        <v>87.48</v>
       </c>
       <c r="D42">
-        <v>-151.41</v>
+        <v>87.48</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>-99.58</v>
+        <v>204.47</v>
       </c>
       <c r="D43">
-        <v>-99.58</v>
+        <v>204.47</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>-6.81</v>
+        <v>54.21</v>
       </c>
       <c r="D44">
-        <v>-6.81</v>
+        <v>54.21</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>-3555.25</v>
+        <v>-972.71</v>
       </c>
       <c r="D45">
-        <v>-3555.25</v>
+        <v>-972.71</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C46">
-        <v>-2418.22</v>
+        <v>-614.87</v>
       </c>
       <c r="D46">
-        <v>-2418.22</v>
+        <v>-614.87</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>-87.31</v>
+        <v>102.63</v>
       </c>
       <c r="D47">
-        <v>-87.31</v>
+        <v>102.63</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>450.03</v>
+        <v>-11.58</v>
       </c>
       <c r="D48">
-        <v>450.03</v>
+        <v>-11.58</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>450.03</v>
+        <v>125.54</v>
       </c>
       <c r="D49">
-        <v>450.03</v>
+        <v>125.54</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C50">
-        <v>43.95</v>
+        <v>21.18</v>
       </c>
       <c r="D50">
-        <v>43.95</v>
+        <v>21.18</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>-270.3</v>
+        <v>-32.38</v>
       </c>
       <c r="D51">
-        <v>-270.3</v>
+        <v>-32.38</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>-790.0599999999999</v>
+        <v>61.49</v>
       </c>
       <c r="D52">
-        <v>-790.0599999999999</v>
+        <v>61.49</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>-13</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>450.01</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="D53">
-        <v>450.01</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C54">
-        <v>-133.02</v>
+        <v>-955.78</v>
       </c>
       <c r="D54">
-        <v>-133.02</v>
+        <v>-955.78</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <v>19.86</v>
+        <v>-219.58</v>
       </c>
       <c r="D55">
-        <v>19.86</v>
+        <v>-219.58</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C56">
-        <v>-144.54</v>
+        <v>209.63</v>
       </c>
       <c r="D56">
-        <v>-144.54</v>
+        <v>209.63</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C57">
-        <v>-3036.04</v>
+        <v>110.56</v>
       </c>
       <c r="D57">
-        <v>-3036.04</v>
+        <v>110.56</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>91</v>
+        <v>-11</v>
       </c>
       <c r="C58">
-        <v>-6983.7</v>
+        <v>473.19</v>
       </c>
       <c r="D58">
-        <v>-6983.7</v>
+        <v>473.19</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>-3027.57</v>
+        <v>219.61</v>
       </c>
       <c r="D59">
-        <v>-3027.57</v>
+        <v>219.61</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C60">
-        <v>-91.78</v>
+        <v>51.78</v>
       </c>
       <c r="D60">
-        <v>-91.78</v>
+        <v>51.78</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>-3477.89</v>
+        <v>347.4</v>
       </c>
       <c r="D61">
-        <v>-3477.89</v>
+        <v>347.4</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>-6547.24</v>
+        <v>-378.2</v>
       </c>
       <c r="D62">
-        <v>-6547.24</v>
+        <v>-378.2</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C63">
-        <v>-4100.2</v>
+        <v>119.74</v>
       </c>
       <c r="D63">
-        <v>-4100.2</v>
+        <v>119.74</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>120</v>
+        <v>-4</v>
       </c>
       <c r="C64">
-        <v>-6792.87</v>
+        <v>470.69</v>
       </c>
       <c r="D64">
-        <v>-6792.87</v>
+        <v>470.69</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>30</v>
+        <v>-22</v>
       </c>
       <c r="C65">
-        <v>-3162.98</v>
+        <v>735.4</v>
       </c>
       <c r="D65">
-        <v>-3162.98</v>
+        <v>735.4</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C66">
-        <v>-6819.03</v>
+        <v>-695.37</v>
       </c>
       <c r="D66">
-        <v>-6819.03</v>
+        <v>-695.37</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>-6169.58</v>
+        <v>-200.31</v>
       </c>
       <c r="D67">
-        <v>-6169.58</v>
+        <v>-200.31</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>45</v>
+        <v>-21</v>
       </c>
       <c r="C68">
-        <v>-583.47</v>
+        <v>685.47</v>
       </c>
       <c r="D68">
-        <v>-583.47</v>
+        <v>685.47</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>-3</v>
+        <v>-40</v>
       </c>
       <c r="C69">
-        <v>473.11</v>
+        <v>6062.95</v>
       </c>
       <c r="D69">
-        <v>473.11</v>
+        <v>6062.95</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C70">
-        <v>236.4</v>
+        <v>-232.42</v>
       </c>
       <c r="D70">
-        <v>236.4</v>
+        <v>-232.42</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>390</v>
+        <v>202.08</v>
       </c>
       <c r="D71">
-        <v>390</v>
+        <v>202.08</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>-12</v>
       </c>
       <c r="C72">
-        <v>390</v>
+        <v>1951.96</v>
       </c>
       <c r="D72">
-        <v>390</v>
+        <v>1951.96</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>19</v>
+        <v>-48</v>
       </c>
       <c r="C73">
-        <v>400</v>
+        <v>7000.06</v>
       </c>
       <c r="D73">
-        <v>400</v>
+        <v>7000.06</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>89</v>
+        <v>-21</v>
       </c>
       <c r="C74">
-        <v>-2111.16</v>
+        <v>1264.69</v>
       </c>
       <c r="D74">
-        <v>-2111.16</v>
+        <v>1264.69</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>-45</v>
       </c>
       <c r="C75">
-        <v>390</v>
+        <v>1129.18</v>
       </c>
       <c r="D75">
-        <v>390</v>
+        <v>1129.18</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>-57</v>
       </c>
       <c r="C76">
-        <v>400</v>
+        <v>1541.79</v>
       </c>
       <c r="D76">
-        <v>400</v>
+        <v>1541.79</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>25</v>
+        <v>-77</v>
       </c>
       <c r="C77">
-        <v>390</v>
+        <v>2227.08</v>
       </c>
       <c r="D77">
-        <v>390</v>
+        <v>2227.08</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>48</v>
+        <v>-13</v>
       </c>
       <c r="C78">
-        <v>251.84</v>
+        <v>1595.88</v>
       </c>
       <c r="D78">
-        <v>251.84</v>
+        <v>1595.88</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>76</v>
+        <v>-4</v>
       </c>
       <c r="C79">
-        <v>371.77</v>
+        <v>798.92</v>
       </c>
       <c r="D79">
-        <v>371.77</v>
+        <v>798.92</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D80">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>94</v>
+        <v>-1</v>
       </c>
       <c r="C81">
-        <v>219.08</v>
+        <v>724.26</v>
       </c>
       <c r="D81">
-        <v>219.08</v>
+        <v>724.26</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>72</v>
+        <v>-7</v>
       </c>
       <c r="C82">
-        <v>-19.29</v>
+        <v>799.65</v>
       </c>
       <c r="D82">
-        <v>-19.29</v>
+        <v>799.65</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>-260.38</v>
+        <v>374.98</v>
       </c>
       <c r="D83">
-        <v>-260.38</v>
+        <v>374.98</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C84">
-        <v>-501.28</v>
+        <v>293.46</v>
       </c>
       <c r="D84">
-        <v>-501.28</v>
+        <v>293.46</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C85">
-        <v>-585.87</v>
+        <v>332.4</v>
       </c>
       <c r="D85">
-        <v>-585.87</v>
+        <v>332.4</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>111.91</v>
+        <v>376.75</v>
       </c>
       <c r="D86">
-        <v>111.91</v>
+        <v>376.75</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>247.55</v>
+        <v>346.89</v>
       </c>
       <c r="D87">
-        <v>247.55</v>
+        <v>346.89</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C88">
-        <v>139.3</v>
+        <v>237.64</v>
       </c>
       <c r="D88">
-        <v>139.3</v>
+        <v>237.64</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C89">
-        <v>-2763.22</v>
+        <v>140.16</v>
       </c>
       <c r="D89">
-        <v>-2763.22</v>
+        <v>140.16</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C90">
-        <v>-937.38</v>
+        <v>325.83</v>
       </c>
       <c r="D90">
-        <v>-937.38</v>
+        <v>325.83</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C91">
-        <v>-72.56999999999999</v>
+        <v>390</v>
       </c>
       <c r="D91">
-        <v>-72.56999999999999</v>
+        <v>390</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C92">
-        <v>-66.31999999999999</v>
+        <v>261.43</v>
       </c>
       <c r="D92">
-        <v>-66.31999999999999</v>
+        <v>261.43</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C93">
-        <v>184.72</v>
+        <v>23.02</v>
       </c>
       <c r="D93">
-        <v>184.72</v>
+        <v>23.02</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>116.65</v>
+        <v>98.08</v>
       </c>
       <c r="D94">
-        <v>116.65</v>
+        <v>98.08</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>190</v>
+        <v>309.99</v>
       </c>
       <c r="D95">
-        <v>190</v>
+        <v>309.99</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B96">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>178.73</v>
+        <v>312.88</v>
       </c>
       <c r="D96">
-        <v>178.73</v>
+        <v>312.88</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B97">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>7.07</v>
+        <v>302.6</v>
       </c>
       <c r="D97">
-        <v>7.07</v>
+        <v>302.6</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B98">
-        <v>95</v>
+        <v>-20</v>
       </c>
       <c r="C98">
-        <v>-159.52</v>
+        <v>793.83</v>
       </c>
       <c r="D98">
-        <v>-159.52</v>
+        <v>793.83</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B99">
-        <v>59</v>
+        <v>-56</v>
       </c>
       <c r="C99">
-        <v>15.79</v>
+        <v>657.12</v>
       </c>
       <c r="D99">
-        <v>15.79</v>
+        <v>657.12</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B100">
-        <v>40</v>
+        <v>-58</v>
       </c>
       <c r="C100">
-        <v>-369.55</v>
+        <v>646</v>
       </c>
       <c r="D100">
-        <v>-369.55</v>
+        <v>646</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B101">
-        <v>54</v>
+        <v>-46</v>
       </c>
       <c r="C101">
-        <v>-841.92</v>
+        <v>646</v>
       </c>
       <c r="D101">
-        <v>-841.92</v>
+        <v>646</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B102">
-        <v>92</v>
+        <v>-9</v>
       </c>
       <c r="C102">
-        <v>-185.39</v>
+        <v>200.09</v>
       </c>
       <c r="D102">
-        <v>-185.39</v>
+        <v>200.09</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>-27</v>
       </c>
       <c r="C103">
-        <v>-260.94</v>
+        <v>646</v>
       </c>
       <c r="D103">
-        <v>-260.94</v>
+        <v>646</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B104">
-        <v>57</v>
+        <v>-29</v>
       </c>
       <c r="C104">
-        <v>-1302.29</v>
+        <v>617.66</v>
       </c>
       <c r="D104">
-        <v>-1302.29</v>
+        <v>617.66</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B105">
-        <v>61</v>
+        <v>-17</v>
       </c>
       <c r="C105">
-        <v>-4694.98</v>
+        <v>637.28</v>
       </c>
       <c r="D105">
-        <v>-4694.98</v>
+        <v>637.28</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B106">
-        <v>64</v>
+        <v>-3</v>
       </c>
       <c r="C106">
-        <v>-2128.08</v>
+        <v>203.78</v>
       </c>
       <c r="D106">
-        <v>-2128.08</v>
+        <v>203.78</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B107">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>-483.51</v>
+        <v>190.43</v>
       </c>
       <c r="D107">
-        <v>-483.51</v>
+        <v>190.43</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B108">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>-337.34</v>
+        <v>196.71</v>
       </c>
       <c r="D108">
-        <v>-337.34</v>
+        <v>196.71</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B109">
-        <v>36</v>
+        <v>-6</v>
       </c>
       <c r="C109">
-        <v>-332.69</v>
+        <v>582</v>
       </c>
       <c r="D109">
-        <v>-332.69</v>
+        <v>582</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B110">
-        <v>37</v>
+        <v>-11</v>
       </c>
       <c r="C110">
-        <v>-429.83</v>
+        <v>622.25</v>
       </c>
       <c r="D110">
-        <v>-429.83</v>
+        <v>622.25</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>-32</v>
       </c>
       <c r="C111">
-        <v>185.66</v>
+        <v>646.45</v>
       </c>
       <c r="D111">
-        <v>185.66</v>
+        <v>646.45</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B112">
-        <v>13</v>
+        <v>-75</v>
       </c>
       <c r="C112">
-        <v>132.18</v>
+        <v>591.1900000000001</v>
       </c>
       <c r="D112">
-        <v>132.18</v>
+        <v>591.1900000000001</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>-25</v>
       </c>
       <c r="C113">
-        <v>143.73</v>
+        <v>582</v>
       </c>
       <c r="D113">
-        <v>143.73</v>
+        <v>582</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B114">
-        <v>34</v>
+        <v>-13</v>
       </c>
       <c r="C114">
-        <v>-309.92</v>
+        <v>602.71</v>
       </c>
       <c r="D114">
-        <v>-309.92</v>
+        <v>602.71</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B115">
-        <v>19</v>
+        <v>-8</v>
       </c>
       <c r="C115">
-        <v>-13.97</v>
+        <v>582</v>
       </c>
       <c r="D115">
-        <v>-13.97</v>
+        <v>582</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B116">
-        <v>40</v>
+        <v>-39</v>
       </c>
       <c r="C116">
-        <v>-149.43</v>
+        <v>661.6900000000001</v>
       </c>
       <c r="D116">
-        <v>-149.43</v>
+        <v>661.6900000000001</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B117">
-        <v>36</v>
+        <v>-24</v>
       </c>
       <c r="C117">
-        <v>24.66</v>
+        <v>797.21</v>
       </c>
       <c r="D117">
-        <v>24.66</v>
+        <v>797.21</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B118">
-        <v>60</v>
+        <v>-7</v>
       </c>
       <c r="C118">
-        <v>-2907.94</v>
+        <v>794.4299999999999</v>
       </c>
       <c r="D118">
-        <v>-2907.94</v>
+        <v>794.4299999999999</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B119">
-        <v>30</v>
+        <v>-16</v>
       </c>
       <c r="C119">
-        <v>-201.99</v>
+        <v>799.9</v>
       </c>
       <c r="D119">
-        <v>-201.99</v>
+        <v>799.9</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B120">
-        <v>37</v>
+        <v>-26</v>
       </c>
       <c r="C120">
-        <v>194.11</v>
+        <v>799.67</v>
       </c>
       <c r="D120">
-        <v>194.11</v>
+        <v>799.67</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B121">
-        <v>24</v>
+        <v>-34</v>
       </c>
       <c r="C121">
-        <v>-199</v>
+        <v>2952.29</v>
       </c>
       <c r="D121">
-        <v>-199</v>
+        <v>2952.29</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>202.38</v>
+        <v>216.63</v>
       </c>
       <c r="D122">
-        <v>202.38</v>
+        <v>216.63</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>-34</v>
       </c>
       <c r="C123">
-        <v>232.88</v>
+        <v>969.14</v>
       </c>
       <c r="D123">
-        <v>232.88</v>
+        <v>969.14</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B124">
-        <v>32</v>
+        <v>-22</v>
       </c>
       <c r="C124">
-        <v>358.78</v>
+        <v>1030.34</v>
       </c>
       <c r="D124">
-        <v>358.78</v>
+        <v>1030.34</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3457,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>389.09</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>389.09</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B126">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>1080.2</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>1080.2</v>
+        <v>0</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B127">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>811.9</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>811.9</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3517,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B128">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>980.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>980.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3537,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B129">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>799.97</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>799.97</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3557,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B130">
-        <v>-101</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>6163.32</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>6163.32</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B131">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>3133.2</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>3133.2</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B132">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>3279.61</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>3279.61</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B133">
-        <v>-63</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>791.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>791.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B134">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>5678.21</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>5678.21</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B135">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>995.49</v>
+        <v>0</v>
       </c>
       <c r="D135">
-        <v>995.49</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B136">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>22.09.202593</t>
-  </si>
-  <si>
-    <t>22.09.202594</t>
-  </si>
-  <si>
-    <t>22.09.202595</t>
-  </si>
-  <si>
-    <t>22.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.202525</t>
-  </si>
-  <si>
-    <t>23.09.202526</t>
-  </si>
-  <si>
-    <t>23.09.202527</t>
-  </si>
-  <si>
-    <t>23.09.202528</t>
-  </si>
-  <si>
-    <t>23.09.202529</t>
-  </si>
-  <si>
-    <t>23.09.202530</t>
-  </si>
-  <si>
-    <t>23.09.202531</t>
-  </si>
-  <si>
-    <t>23.09.202532</t>
-  </si>
-  <si>
-    <t>23.09.202533</t>
-  </si>
-  <si>
-    <t>23.09.202534</t>
-  </si>
-  <si>
-    <t>23.09.202535</t>
-  </si>
-  <si>
-    <t>23.09.202536</t>
-  </si>
-  <si>
-    <t>23.09.202537</t>
-  </si>
-  <si>
-    <t>23.09.202538</t>
-  </si>
-  <si>
-    <t>23.09.202539</t>
-  </si>
-  <si>
-    <t>23.09.202540</t>
-  </si>
-  <si>
-    <t>23.09.202541</t>
-  </si>
-  <si>
-    <t>23.09.202542</t>
-  </si>
-  <si>
-    <t>23.09.202543</t>
-  </si>
-  <si>
-    <t>23.09.202544</t>
-  </si>
-  <si>
-    <t>23.09.202545</t>
-  </si>
-  <si>
-    <t>23.09.202546</t>
-  </si>
-  <si>
-    <t>23.09.202547</t>
-  </si>
-  <si>
-    <t>23.09.202548</t>
-  </si>
-  <si>
-    <t>23.09.202549</t>
-  </si>
-  <si>
-    <t>23.09.202550</t>
-  </si>
-  <si>
-    <t>23.09.202551</t>
-  </si>
-  <si>
-    <t>23.09.202552</t>
-  </si>
-  <si>
-    <t>23.09.202553</t>
-  </si>
-  <si>
-    <t>23.09.202554</t>
-  </si>
-  <si>
-    <t>23.09.202555</t>
-  </si>
-  <si>
-    <t>23.09.202556</t>
-  </si>
-  <si>
-    <t>23.09.202557</t>
-  </si>
-  <si>
-    <t>23.09.202558</t>
-  </si>
-  <si>
-    <t>23.09.202559</t>
-  </si>
-  <si>
-    <t>23.09.202560</t>
-  </si>
-  <si>
-    <t>23.09.202561</t>
-  </si>
-  <si>
-    <t>23.09.202562</t>
-  </si>
-  <si>
-    <t>23.09.202563</t>
-  </si>
-  <si>
-    <t>23.09.202564</t>
-  </si>
-  <si>
-    <t>23.09.202565</t>
-  </si>
-  <si>
-    <t>23.09.202566</t>
-  </si>
-  <si>
-    <t>23.09.202567</t>
-  </si>
-  <si>
-    <t>23.09.202568</t>
-  </si>
-  <si>
-    <t>23.09.202569</t>
-  </si>
-  <si>
-    <t>23.09.202570</t>
-  </si>
-  <si>
-    <t>23.09.202571</t>
-  </si>
-  <si>
-    <t>23.09.202572</t>
-  </si>
-  <si>
-    <t>23.09.202573</t>
-  </si>
-  <si>
-    <t>23.09.202574</t>
-  </si>
-  <si>
-    <t>23.09.202575</t>
-  </si>
-  <si>
-    <t>23.09.202576</t>
-  </si>
-  <si>
-    <t>23.09.202577</t>
-  </si>
-  <si>
-    <t>23.09.202578</t>
-  </si>
-  <si>
-    <t>23.09.202579</t>
-  </si>
-  <si>
-    <t>23.09.202580</t>
-  </si>
-  <si>
-    <t>23.09.202581</t>
-  </si>
-  <si>
-    <t>23.09.202582</t>
-  </si>
-  <si>
-    <t>23.09.202583</t>
-  </si>
-  <si>
-    <t>23.09.202584</t>
-  </si>
-  <si>
-    <t>23.09.202585</t>
-  </si>
-  <si>
-    <t>23.09.202586</t>
-  </si>
-  <si>
-    <t>23.09.202587</t>
-  </si>
-  <si>
-    <t>23.09.202588</t>
-  </si>
-  <si>
-    <t>23.09.202589</t>
-  </si>
-  <si>
-    <t>23.09.202590</t>
-  </si>
-  <si>
-    <t>23.09.202591</t>
-  </si>
-  <si>
-    <t>23.09.202592</t>
-  </si>
-  <si>
-    <t>23.09.202593</t>
-  </si>
-  <si>
-    <t>23.09.202594</t>
-  </si>
-  <si>
-    <t>23.09.202595</t>
-  </si>
-  <si>
-    <t>23.09.202596</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>01.10.202593</t>
+  </si>
+  <si>
+    <t>01.10.202594</t>
+  </si>
+  <si>
+    <t>01.10.202595</t>
+  </si>
+  <si>
+    <t>01.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
+  </si>
+  <si>
+    <t>02.10.202537</t>
+  </si>
+  <si>
+    <t>02.10.202538</t>
+  </si>
+  <si>
+    <t>02.10.202539</t>
+  </si>
+  <si>
+    <t>02.10.202540</t>
+  </si>
+  <si>
+    <t>02.10.202541</t>
+  </si>
+  <si>
+    <t>02.10.202542</t>
+  </si>
+  <si>
+    <t>02.10.202543</t>
+  </si>
+  <si>
+    <t>02.10.202544</t>
+  </si>
+  <si>
+    <t>02.10.202545</t>
+  </si>
+  <si>
+    <t>02.10.202546</t>
+  </si>
+  <si>
+    <t>02.10.202547</t>
+  </si>
+  <si>
+    <t>02.10.202548</t>
+  </si>
+  <si>
+    <t>02.10.202549</t>
+  </si>
+  <si>
+    <t>02.10.202550</t>
+  </si>
+  <si>
+    <t>02.10.202551</t>
+  </si>
+  <si>
+    <t>02.10.202552</t>
+  </si>
+  <si>
+    <t>02.10.202553</t>
+  </si>
+  <si>
+    <t>02.10.202554</t>
+  </si>
+  <si>
+    <t>02.10.202555</t>
+  </si>
+  <si>
+    <t>02.10.202556</t>
+  </si>
+  <si>
+    <t>02.10.202557</t>
+  </si>
+  <si>
+    <t>02.10.202558</t>
+  </si>
+  <si>
+    <t>02.10.202559</t>
+  </si>
+  <si>
+    <t>02.10.202560</t>
+  </si>
+  <si>
+    <t>02.10.202561</t>
+  </si>
+  <si>
+    <t>02.10.202562</t>
+  </si>
+  <si>
+    <t>02.10.202563</t>
+  </si>
+  <si>
+    <t>02.10.202564</t>
+  </si>
+  <si>
+    <t>02.10.202565</t>
+  </si>
+  <si>
+    <t>02.10.202566</t>
+  </si>
+  <si>
+    <t>02.10.202567</t>
+  </si>
+  <si>
+    <t>02.10.202568</t>
+  </si>
+  <si>
+    <t>02.10.202569</t>
+  </si>
+  <si>
+    <t>02.10.202570</t>
+  </si>
+  <si>
+    <t>02.10.202571</t>
+  </si>
+  <si>
+    <t>02.10.202572</t>
+  </si>
+  <si>
+    <t>02.10.202573</t>
+  </si>
+  <si>
+    <t>02.10.202574</t>
+  </si>
+  <si>
+    <t>02.10.202575</t>
+  </si>
+  <si>
+    <t>02.10.202576</t>
+  </si>
+  <si>
+    <t>02.10.202577</t>
+  </si>
+  <si>
+    <t>02.10.202578</t>
+  </si>
+  <si>
+    <t>02.10.202579</t>
+  </si>
+  <si>
+    <t>02.10.202580</t>
+  </si>
+  <si>
+    <t>02.10.202581</t>
+  </si>
+  <si>
+    <t>02.10.202582</t>
+  </si>
+  <si>
+    <t>02.10.202583</t>
+  </si>
+  <si>
+    <t>02.10.202584</t>
+  </si>
+  <si>
+    <t>02.10.202585</t>
+  </si>
+  <si>
+    <t>02.10.202586</t>
+  </si>
+  <si>
+    <t>02.10.202587</t>
+  </si>
+  <si>
+    <t>02.10.202588</t>
+  </si>
+  <si>
+    <t>02.10.202589</t>
+  </si>
+  <si>
+    <t>02.10.202590</t>
+  </si>
+  <si>
+    <t>02.10.202591</t>
+  </si>
+  <si>
+    <t>02.10.202592</t>
+  </si>
+  <si>
+    <t>02.10.202593</t>
+  </si>
+  <si>
+    <t>02.10.202594</t>
+  </si>
+  <si>
+    <t>02.10.202595</t>
+  </si>
+  <si>
+    <t>02.10.202596</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>126.51</v>
+        <v>327.23</v>
       </c>
       <c r="D6">
-        <v>126.51</v>
+        <v>327.23</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>119.86</v>
+        <v>319.49</v>
       </c>
       <c r="D7">
-        <v>119.86</v>
+        <v>319.49</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>203.03</v>
+        <v>311.01</v>
       </c>
       <c r="D8">
-        <v>203.03</v>
+        <v>311.01</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>165.13</v>
+        <v>234.63</v>
       </c>
       <c r="D9">
-        <v>165.13</v>
+        <v>234.63</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>206.43</v>
+        <v>199.87</v>
       </c>
       <c r="D10">
-        <v>206.43</v>
+        <v>199.87</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>-20.37</v>
+        <v>223.69</v>
       </c>
       <c r="D11">
-        <v>-20.37</v>
+        <v>223.69</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>175.49</v>
+        <v>168.05</v>
       </c>
       <c r="D12">
-        <v>175.49</v>
+        <v>168.05</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>189.68</v>
+        <v>198.86</v>
       </c>
       <c r="D13">
-        <v>189.68</v>
+        <v>198.86</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <v>170.22</v>
+        <v>219.13</v>
       </c>
       <c r="D14">
-        <v>170.22</v>
+        <v>219.13</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>115.7</v>
+        <v>194.95</v>
       </c>
       <c r="D15">
-        <v>115.7</v>
+        <v>194.95</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>-13</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>474.07</v>
+        <v>218.27</v>
       </c>
       <c r="D16">
-        <v>474.07</v>
+        <v>218.27</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>-4</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>542.4</v>
+        <v>256.14</v>
       </c>
       <c r="D17">
-        <v>542.4</v>
+        <v>256.14</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>-8</v>
       </c>
       <c r="C18">
-        <v>199.01</v>
+        <v>724.24</v>
       </c>
       <c r="D18">
-        <v>199.01</v>
+        <v>724.24</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>-8</v>
       </c>
       <c r="C19">
-        <v>-18.48</v>
+        <v>586.4</v>
       </c>
       <c r="D19">
-        <v>-18.48</v>
+        <v>586.4</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="C20">
-        <v>474.25</v>
+        <v>780.8099999999999</v>
       </c>
       <c r="D20">
-        <v>474.25</v>
+        <v>780.8099999999999</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>653.8</v>
+        <v>309.1</v>
       </c>
       <c r="D21">
-        <v>653.8</v>
+        <v>309.1</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>-14</v>
+        <v>55</v>
       </c>
       <c r="C22">
-        <v>570.87</v>
+        <v>362.37</v>
       </c>
       <c r="D22">
-        <v>570.87</v>
+        <v>362.37</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>-12</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>462.5</v>
+        <v>184.17</v>
       </c>
       <c r="D23">
-        <v>462.5</v>
+        <v>184.17</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>-57</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>4854.27</v>
+        <v>267.93</v>
       </c>
       <c r="D24">
-        <v>4854.27</v>
+        <v>267.93</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>-131</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>2385.61</v>
+        <v>243.91</v>
       </c>
       <c r="D25">
-        <v>2385.61</v>
+        <v>243.91</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>-77</v>
+        <v>41</v>
       </c>
       <c r="C26">
-        <v>1003.68</v>
+        <v>326.53</v>
       </c>
       <c r="D26">
-        <v>1003.68</v>
+        <v>326.53</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>-46</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>994.98</v>
+        <v>317.06</v>
       </c>
       <c r="D27">
-        <v>994.98</v>
+        <v>317.06</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>-51</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>1027.26</v>
+        <v>329.16</v>
       </c>
       <c r="D28">
-        <v>1027.26</v>
+        <v>329.16</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>-54</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>1013.65</v>
+        <v>335.19</v>
       </c>
       <c r="D29">
-        <v>1013.65</v>
+        <v>335.19</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>-38</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>1083.88</v>
+        <v>347.31</v>
       </c>
       <c r="D30">
-        <v>1083.88</v>
+        <v>347.31</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>-18</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>1086.11</v>
+        <v>329.88</v>
       </c>
       <c r="D31">
-        <v>1086.11</v>
+        <v>329.88</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>194.76</v>
+        <v>316.82</v>
       </c>
       <c r="D32">
-        <v>194.76</v>
+        <v>316.82</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>120.92</v>
+        <v>315.83</v>
       </c>
       <c r="D33">
-        <v>120.92</v>
+        <v>315.83</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>-65</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>1299</v>
+        <v>316.19</v>
       </c>
       <c r="D34">
-        <v>1299</v>
+        <v>316.19</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>-14</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>548.86</v>
+        <v>331.98</v>
       </c>
       <c r="D35">
-        <v>548.86</v>
+        <v>331.98</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>-314.54</v>
+        <v>295.07</v>
       </c>
       <c r="D36">
-        <v>-314.54</v>
+        <v>295.07</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>-3188.45</v>
+        <v>284.63</v>
       </c>
       <c r="D37">
-        <v>-3188.45</v>
+        <v>284.63</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-1170.17</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-1170.17</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>275.14</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>275.14</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-103.51</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-103.51</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>548.78</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>548.78</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>87.48</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>87.48</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>204.47</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>204.47</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>54.21</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>54.21</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>-972.71</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-972.71</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-614.87</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-614.87</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>102.63</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>102.63</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-11.58</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-11.58</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>125.54</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>125.54</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>21.18</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>21.18</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>-32.38</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-32.38</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>61.49</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>61.49</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>94.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>94.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>-955.78</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-955.78</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>-219.58</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-219.58</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>209.63</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>209.63</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>110.56</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>110.56</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>473.19</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>473.19</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>219.61</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>219.61</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>51.78</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>51.78</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>347.4</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>347.4</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-378.2</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-378.2</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>119.74</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>119.74</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>470.69</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>470.69</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>735.4</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>735.4</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>-695.37</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-695.37</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>-200.31</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-200.31</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>685.47</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>685.47</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>6062.95</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>6062.95</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>-232.42</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-232.42</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>202.08</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>202.08</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>1951.96</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>1951.96</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>7000.06</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>7000.06</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>1264.69</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>1264.69</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>1129.18</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>1129.18</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>1541.79</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1541.79</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>2227.08</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>2227.08</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>1595.88</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>1595.88</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2537,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>798.92</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>798.92</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,16 +2557,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>724.26</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>724.26</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>799.65</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>799.65</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2617,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>374.98</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>374.98</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2637,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>293.46</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>293.46</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>332.4</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>332.4</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2677,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>376.75</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>376.75</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2697,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>346.89</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>346.89</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +2717,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>237.64</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>237.64</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +2737,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>140.16</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>140.16</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>325.83</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>325.83</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +2777,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,16 +2797,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>261.43</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>261.43</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>23.02</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>23.02</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +2837,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>98.08</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>98.08</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +2857,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>309.99</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>309.99</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B96">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>312.88</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>312.88</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>302.6</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>302.6</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B98">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>793.83</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>793.83</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B99">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>657.12</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>657.12</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +2957,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B100">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +2977,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B101">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +2997,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B102">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>200.09</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>200.09</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3017,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B103">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3037,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B104">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>617.66</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>617.66</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3057,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B105">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>637.28</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>637.28</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3077,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B106">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>203.78</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>203.78</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>190.43</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>190.43</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>196.71</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>196.71</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>11</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B109">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>12</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B110">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>622.25</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>622.25</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>13</v>
@@ -3177,16 +3177,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B111">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>646.45</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>646.45</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3197,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B112">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>591.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>591.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3217,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B113">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3237,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B114">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>602.71</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>602.71</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B115">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,16 +3277,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B116">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>661.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>661.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>19</v>
@@ -3297,16 +3297,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B117">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>797.21</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>797.21</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3317,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B118">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>794.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>794.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3337,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B119">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>799.9</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>799.9</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3357,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B120">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>799.67</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>799.67</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3377,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B121">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>2952.29</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>2952.29</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>216.63</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>216.63</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B123">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>969.14</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>969.14</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3437,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B124">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1030.34</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1030.34</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B193">
         <v>0</v>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,580 +34,868 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>01.10.202593</t>
-  </si>
-  <si>
-    <t>01.10.202594</t>
-  </si>
-  <si>
-    <t>01.10.202595</t>
-  </si>
-  <si>
-    <t>01.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
-  </si>
-  <si>
-    <t>02.10.202537</t>
-  </si>
-  <si>
-    <t>02.10.202538</t>
-  </si>
-  <si>
-    <t>02.10.202539</t>
-  </si>
-  <si>
-    <t>02.10.202540</t>
-  </si>
-  <si>
-    <t>02.10.202541</t>
-  </si>
-  <si>
-    <t>02.10.202542</t>
-  </si>
-  <si>
-    <t>02.10.202543</t>
-  </si>
-  <si>
-    <t>02.10.202544</t>
-  </si>
-  <si>
-    <t>02.10.202545</t>
-  </si>
-  <si>
-    <t>02.10.202546</t>
-  </si>
-  <si>
-    <t>02.10.202547</t>
-  </si>
-  <si>
-    <t>02.10.202548</t>
-  </si>
-  <si>
-    <t>02.10.202549</t>
-  </si>
-  <si>
-    <t>02.10.202550</t>
-  </si>
-  <si>
-    <t>02.10.202551</t>
-  </si>
-  <si>
-    <t>02.10.202552</t>
-  </si>
-  <si>
-    <t>02.10.202553</t>
-  </si>
-  <si>
-    <t>02.10.202554</t>
-  </si>
-  <si>
-    <t>02.10.202555</t>
-  </si>
-  <si>
-    <t>02.10.202556</t>
-  </si>
-  <si>
-    <t>02.10.202557</t>
-  </si>
-  <si>
-    <t>02.10.202558</t>
-  </si>
-  <si>
-    <t>02.10.202559</t>
-  </si>
-  <si>
-    <t>02.10.202560</t>
-  </si>
-  <si>
-    <t>02.10.202561</t>
-  </si>
-  <si>
-    <t>02.10.202562</t>
-  </si>
-  <si>
-    <t>02.10.202563</t>
-  </si>
-  <si>
-    <t>02.10.202564</t>
-  </si>
-  <si>
-    <t>02.10.202565</t>
-  </si>
-  <si>
-    <t>02.10.202566</t>
-  </si>
-  <si>
-    <t>02.10.202567</t>
-  </si>
-  <si>
-    <t>02.10.202568</t>
-  </si>
-  <si>
-    <t>02.10.202569</t>
-  </si>
-  <si>
-    <t>02.10.202570</t>
-  </si>
-  <si>
-    <t>02.10.202571</t>
-  </si>
-  <si>
-    <t>02.10.202572</t>
-  </si>
-  <si>
-    <t>02.10.202573</t>
-  </si>
-  <si>
-    <t>02.10.202574</t>
-  </si>
-  <si>
-    <t>02.10.202575</t>
-  </si>
-  <si>
-    <t>02.10.202576</t>
-  </si>
-  <si>
-    <t>02.10.202577</t>
-  </si>
-  <si>
-    <t>02.10.202578</t>
-  </si>
-  <si>
-    <t>02.10.202579</t>
-  </si>
-  <si>
-    <t>02.10.202580</t>
-  </si>
-  <si>
-    <t>02.10.202581</t>
-  </si>
-  <si>
-    <t>02.10.202582</t>
-  </si>
-  <si>
-    <t>02.10.202583</t>
-  </si>
-  <si>
-    <t>02.10.202584</t>
-  </si>
-  <si>
-    <t>02.10.202585</t>
-  </si>
-  <si>
-    <t>02.10.202586</t>
-  </si>
-  <si>
-    <t>02.10.202587</t>
-  </si>
-  <si>
-    <t>02.10.202588</t>
-  </si>
-  <si>
-    <t>02.10.202589</t>
-  </si>
-  <si>
-    <t>02.10.202590</t>
-  </si>
-  <si>
-    <t>02.10.202591</t>
-  </si>
-  <si>
-    <t>02.10.202592</t>
-  </si>
-  <si>
-    <t>02.10.202593</t>
-  </si>
-  <si>
-    <t>02.10.202594</t>
-  </si>
-  <si>
-    <t>02.10.202595</t>
-  </si>
-  <si>
-    <t>02.10.202596</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>14.10.202593</t>
+  </si>
+  <si>
+    <t>14.10.202594</t>
+  </si>
+  <si>
+    <t>14.10.202595</t>
+  </si>
+  <si>
+    <t>14.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
+  </si>
+  <si>
+    <t>16.10.202539</t>
+  </si>
+  <si>
+    <t>16.10.202540</t>
+  </si>
+  <si>
+    <t>16.10.202541</t>
+  </si>
+  <si>
+    <t>16.10.202542</t>
+  </si>
+  <si>
+    <t>16.10.202543</t>
+  </si>
+  <si>
+    <t>16.10.202544</t>
+  </si>
+  <si>
+    <t>16.10.202545</t>
+  </si>
+  <si>
+    <t>16.10.202546</t>
+  </si>
+  <si>
+    <t>16.10.202547</t>
+  </si>
+  <si>
+    <t>16.10.202548</t>
+  </si>
+  <si>
+    <t>16.10.202549</t>
+  </si>
+  <si>
+    <t>16.10.202550</t>
+  </si>
+  <si>
+    <t>16.10.202551</t>
+  </si>
+  <si>
+    <t>16.10.202552</t>
+  </si>
+  <si>
+    <t>16.10.202553</t>
+  </si>
+  <si>
+    <t>16.10.202554</t>
+  </si>
+  <si>
+    <t>16.10.202555</t>
+  </si>
+  <si>
+    <t>16.10.202556</t>
+  </si>
+  <si>
+    <t>16.10.202557</t>
+  </si>
+  <si>
+    <t>16.10.202558</t>
+  </si>
+  <si>
+    <t>16.10.202559</t>
+  </si>
+  <si>
+    <t>16.10.202560</t>
+  </si>
+  <si>
+    <t>16.10.202561</t>
+  </si>
+  <si>
+    <t>16.10.202562</t>
+  </si>
+  <si>
+    <t>16.10.202563</t>
+  </si>
+  <si>
+    <t>16.10.202564</t>
+  </si>
+  <si>
+    <t>16.10.202565</t>
+  </si>
+  <si>
+    <t>16.10.202566</t>
+  </si>
+  <si>
+    <t>16.10.202567</t>
+  </si>
+  <si>
+    <t>16.10.202568</t>
+  </si>
+  <si>
+    <t>16.10.202569</t>
+  </si>
+  <si>
+    <t>16.10.202570</t>
+  </si>
+  <si>
+    <t>16.10.202571</t>
+  </si>
+  <si>
+    <t>16.10.202572</t>
+  </si>
+  <si>
+    <t>16.10.202573</t>
+  </si>
+  <si>
+    <t>16.10.202574</t>
+  </si>
+  <si>
+    <t>16.10.202575</t>
+  </si>
+  <si>
+    <t>16.10.202576</t>
+  </si>
+  <si>
+    <t>16.10.202577</t>
+  </si>
+  <si>
+    <t>16.10.202578</t>
+  </si>
+  <si>
+    <t>16.10.202579</t>
+  </si>
+  <si>
+    <t>16.10.202580</t>
+  </si>
+  <si>
+    <t>16.10.202581</t>
+  </si>
+  <si>
+    <t>16.10.202582</t>
+  </si>
+  <si>
+    <t>16.10.202583</t>
+  </si>
+  <si>
+    <t>16.10.202584</t>
+  </si>
+  <si>
+    <t>16.10.202585</t>
+  </si>
+  <si>
+    <t>16.10.202586</t>
+  </si>
+  <si>
+    <t>16.10.202587</t>
+  </si>
+  <si>
+    <t>16.10.202588</t>
+  </si>
+  <si>
+    <t>16.10.202589</t>
+  </si>
+  <si>
+    <t>16.10.202590</t>
+  </si>
+  <si>
+    <t>16.10.202591</t>
+  </si>
+  <si>
+    <t>16.10.202592</t>
+  </si>
+  <si>
+    <t>16.10.202593</t>
+  </si>
+  <si>
+    <t>16.10.202594</t>
+  </si>
+  <si>
+    <t>16.10.202595</t>
+  </si>
+  <si>
+    <t>16.10.202596</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1285,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1017,7 +1305,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1037,7 +1325,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1057,7 +1345,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1077,16 +1365,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>-6.57</v>
       </c>
       <c r="C6">
-        <v>327.23</v>
+        <v>799.66</v>
       </c>
       <c r="D6">
-        <v>327.23</v>
+        <v>799.66</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1385,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>-14.2</v>
       </c>
       <c r="C7">
-        <v>319.49</v>
+        <v>798.4</v>
       </c>
       <c r="D7">
-        <v>319.49</v>
+        <v>798.4</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1405,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>-9.57</v>
       </c>
       <c r="C8">
-        <v>311.01</v>
+        <v>795.4299999999999</v>
       </c>
       <c r="D8">
-        <v>311.01</v>
+        <v>795.4299999999999</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1425,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>7.34</v>
       </c>
       <c r="C9">
-        <v>234.63</v>
+        <v>400</v>
       </c>
       <c r="D9">
-        <v>234.63</v>
+        <v>400</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1445,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>-3.29</v>
       </c>
       <c r="C10">
-        <v>199.87</v>
+        <v>759</v>
       </c>
       <c r="D10">
-        <v>199.87</v>
+        <v>759</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1465,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
-        <v>37</v>
+        <v>29.67</v>
       </c>
       <c r="C11">
-        <v>223.69</v>
+        <v>396.52</v>
       </c>
       <c r="D11">
-        <v>223.69</v>
+        <v>396.52</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1485,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>7.06</v>
       </c>
       <c r="C12">
-        <v>168.05</v>
+        <v>400</v>
       </c>
       <c r="D12">
-        <v>168.05</v>
+        <v>400</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1505,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>-13.12</v>
       </c>
       <c r="C13">
-        <v>198.86</v>
+        <v>721</v>
       </c>
       <c r="D13">
-        <v>198.86</v>
+        <v>721</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1525,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>1.71</v>
       </c>
       <c r="C14">
-        <v>219.13</v>
+        <v>400</v>
       </c>
       <c r="D14">
-        <v>219.13</v>
+        <v>400</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1545,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>31.86</v>
       </c>
       <c r="C15">
-        <v>194.95</v>
+        <v>369.08</v>
       </c>
       <c r="D15">
-        <v>194.95</v>
+        <v>369.08</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1565,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>26.41</v>
       </c>
       <c r="C16">
-        <v>218.27</v>
+        <v>400</v>
       </c>
       <c r="D16">
-        <v>218.27</v>
+        <v>400</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1585,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>30.89</v>
       </c>
       <c r="C17">
-        <v>256.14</v>
+        <v>386.11</v>
       </c>
       <c r="D17">
-        <v>256.14</v>
+        <v>386.11</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1605,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>-8</v>
+        <v>22.34</v>
       </c>
       <c r="C18">
-        <v>724.24</v>
+        <v>269.08</v>
       </c>
       <c r="D18">
-        <v>724.24</v>
+        <v>269.08</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1625,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>-8</v>
+        <v>5.8</v>
       </c>
       <c r="C19">
-        <v>586.4</v>
+        <v>278.78</v>
       </c>
       <c r="D19">
-        <v>586.4</v>
+        <v>278.78</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1645,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>-8</v>
+        <v>8.81</v>
       </c>
       <c r="C20">
-        <v>780.8099999999999</v>
+        <v>292.37</v>
       </c>
       <c r="D20">
-        <v>780.8099999999999</v>
+        <v>292.37</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1665,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>20.24</v>
       </c>
       <c r="C21">
-        <v>309.1</v>
+        <v>195.64</v>
       </c>
       <c r="D21">
-        <v>309.1</v>
+        <v>195.64</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1685,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>56.05</v>
       </c>
       <c r="C22">
-        <v>362.37</v>
+        <v>211.27</v>
       </c>
       <c r="D22">
-        <v>362.37</v>
+        <v>211.27</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1705,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>72</v>
+        <v>19.68</v>
       </c>
       <c r="C23">
-        <v>184.17</v>
+        <v>326.67</v>
       </c>
       <c r="D23">
-        <v>184.17</v>
+        <v>326.67</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1725,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>39</v>
+        <v>5.92</v>
       </c>
       <c r="C24">
-        <v>267.93</v>
+        <v>317.93</v>
       </c>
       <c r="D24">
-        <v>267.93</v>
+        <v>317.93</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1745,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>-41.74</v>
       </c>
       <c r="C25">
-        <v>243.91</v>
+        <v>961.15</v>
       </c>
       <c r="D25">
-        <v>243.91</v>
+        <v>961.15</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1765,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>41</v>
+        <v>-18.03</v>
       </c>
       <c r="C26">
-        <v>326.53</v>
+        <v>1149.86</v>
       </c>
       <c r="D26">
-        <v>326.53</v>
+        <v>1149.86</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1785,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>-45.79</v>
       </c>
       <c r="C27">
-        <v>317.06</v>
+        <v>1474.75</v>
       </c>
       <c r="D27">
-        <v>317.06</v>
+        <v>1474.75</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1805,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>-46.74</v>
       </c>
       <c r="C28">
-        <v>329.16</v>
+        <v>1567.06</v>
       </c>
       <c r="D28">
-        <v>329.16</v>
+        <v>1567.06</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1825,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>-75.68000000000001</v>
       </c>
       <c r="C29">
-        <v>335.19</v>
+        <v>1726.75</v>
       </c>
       <c r="D29">
-        <v>335.19</v>
+        <v>1726.75</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1845,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>-24.92</v>
       </c>
       <c r="C30">
-        <v>347.31</v>
+        <v>1910.07</v>
       </c>
       <c r="D30">
-        <v>347.31</v>
+        <v>1910.07</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1865,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>-7.63</v>
       </c>
       <c r="C31">
-        <v>329.88</v>
+        <v>1950.18</v>
       </c>
       <c r="D31">
-        <v>329.88</v>
+        <v>1950.18</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1885,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>7.75</v>
       </c>
       <c r="C32">
-        <v>316.82</v>
+        <v>400</v>
       </c>
       <c r="D32">
-        <v>316.82</v>
+        <v>400</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1905,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>38.7</v>
       </c>
       <c r="C33">
-        <v>315.83</v>
+        <v>334.81</v>
       </c>
       <c r="D33">
-        <v>315.83</v>
+        <v>334.81</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1925,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>316.19</v>
+        <v>399.61</v>
       </c>
       <c r="D34">
-        <v>316.19</v>
+        <v>399.61</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1945,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>42</v>
+        <v>20.67</v>
       </c>
       <c r="C35">
-        <v>331.98</v>
+        <v>318.23</v>
       </c>
       <c r="D35">
-        <v>331.98</v>
+        <v>318.23</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1965,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>61.1</v>
       </c>
       <c r="C36">
-        <v>295.07</v>
+        <v>324.93</v>
       </c>
       <c r="D36">
-        <v>295.07</v>
+        <v>324.93</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1985,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>57.09</v>
       </c>
       <c r="C37">
-        <v>284.63</v>
+        <v>96.47</v>
       </c>
       <c r="D37">
-        <v>284.63</v>
+        <v>96.47</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +2005,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>23.66</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>247.48</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>247.48</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +2025,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>25.13</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>308.37</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>308.37</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +2045,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>37.65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>230.69</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>230.69</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +2065,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>30.57</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>153.06</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>153.06</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +2085,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>34.57</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +2105,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>49.62</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-423.18</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-423.18</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +2125,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-676.48</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-676.48</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +2145,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>67.61</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-3634.37</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>-3634.37</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +2165,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>82.31</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-4782.25</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-4782.25</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +2185,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>94.47</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>-1529.57</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-1529.57</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +2205,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>140.09</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-501.56</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-501.56</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +2225,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>101.31</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-509.87</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-509.87</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +2245,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>144.26</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-386.36</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>-386.36</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,10 +2265,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>80.47</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1997,16 +2285,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>55.07</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2305,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>58.55</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>8.66</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2325,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>54.72</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>19.94</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>19.94</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2345,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>33.32</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2365,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>-5.52</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>525.65</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>525.65</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2385,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-35.12</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>482.04</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>482.04</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2405,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>25.56</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>25.56</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2425,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-2.826</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>506.525</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>506.525</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2445,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>49.859</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-3.464</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-3.464</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2465,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>47.593</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>210.095</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>210.095</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2485,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>80.148</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-398.825</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-398.825</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2505,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>97.455</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-166.916</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-166.916</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2525,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>104.071</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-1889.866</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-1889.866</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2545,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>98.76900000000001</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>344.36</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>344.36</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2565,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>91.506</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>313.887</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>313.887</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2585,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>87.746</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>349.857</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>349.857</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2605,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>53.892</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>352.989</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>352.989</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2625,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1.338</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>382.133</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>382.133</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2645,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>8.743</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>644.726</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>644.726</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2665,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>27.88</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2685,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>12.774</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2705,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>3.391</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>825.41</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>825.41</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2725,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>47.761</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>410.551</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>410.551</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2745,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>61.519</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>405.594</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>405.594</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2765,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>23.83</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>417.857</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>417.857</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2785,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>39.186</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>408.003</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>408.003</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2805,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>41.94</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>411.782</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>411.782</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -2537,16 +2825,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>12.789</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -2557,10 +2845,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>14.855</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2577,16 +2865,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>40.626</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>331.474</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>331.474</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -2597,16 +2885,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>35.242</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>345.455</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>345.455</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -2617,16 +2905,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19.853</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>328.61</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>328.61</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -2637,16 +2925,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>27.095</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>340.123</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>340.123</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -2657,16 +2945,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>14.135</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>361.356</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>361.356</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -2677,16 +2965,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>-0.174</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>786.447</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>786.447</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -2697,16 +2985,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-15.206</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>746.8339999999999</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>746.8339999999999</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -2717,16 +3005,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-13.68</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1400.478</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1400.478</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -2737,16 +3025,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>353.966</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>353.966</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -2757,16 +3045,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-6.712</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>799.886</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>799.886</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -2777,16 +3065,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>31.428</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -2797,10 +3085,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>3.003</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2817,16 +3105,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>21.201</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>325.591</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>325.591</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -2837,16 +3125,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>10.095</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>329.061</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>329.061</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -2857,16 +3145,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>43.335</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>300.341</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>300.341</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -2877,16 +3165,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>56.468</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>309.907</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>309.907</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -2897,16 +3185,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>35.091</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>324.915</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>324.915</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -2917,16 +3205,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>55.251</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>307.268</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>307.268</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2937,16 +3225,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>45.613</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>381.257</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>381.257</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -2957,16 +3245,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>55.654</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>403.014</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>403.014</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2977,16 +3265,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>75.898</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>359.157</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>359.157</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -2997,16 +3285,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>49.04</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3017,16 +3305,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>35.73</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>403.071</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>403.071</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3037,16 +3325,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>12.96</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>390.959</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>390.959</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3057,16 +3345,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>43.466</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>303.761</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>303.761</v>
       </c>
       <c r="E105">
         <v>8</v>
@@ -3077,16 +3365,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>55.891</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>371.252</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>371.252</v>
       </c>
       <c r="E106">
         <v>9</v>
@@ -3097,16 +3385,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>42.088</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -3117,10 +3405,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>74.59399999999999</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3137,10 +3425,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>61.376</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3157,10 +3445,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>46.822</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3177,16 +3465,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>22.144</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>323.962</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>323.962</v>
       </c>
       <c r="E111">
         <v>14</v>
@@ -3197,16 +3485,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1.595</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>336.17</v>
       </c>
       <c r="E112">
         <v>15</v>
@@ -3217,16 +3505,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>-2.669</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>724.167</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>724.167</v>
       </c>
       <c r="E113">
         <v>16</v>
@@ -3237,16 +3525,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-1.084</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E114">
         <v>17</v>
@@ -3257,16 +3545,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E115">
         <v>18</v>
@@ -3277,10 +3565,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>3.978</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3297,16 +3585,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>-18.665</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>761.901</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>761.901</v>
       </c>
       <c r="E117">
         <v>20</v>
@@ -3317,16 +3605,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>-1.302</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>790.3869999999999</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>790.3869999999999</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -3337,16 +3625,16 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-36.574</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>782.835</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>782.835</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -3357,16 +3645,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-45.02</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>974.373</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>974.373</v>
       </c>
       <c r="E120">
         <v>23</v>
@@ -3377,16 +3665,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>-39.896</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1008.878</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1008.878</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -3397,16 +3685,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>-18.62</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1579.196</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1579.196</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3417,16 +3705,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>-57.263</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1513.27</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1513.27</v>
       </c>
       <c r="E123">
         <v>26</v>
@@ -3437,16 +3725,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>-55.64</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1372.108</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1372.108</v>
       </c>
       <c r="E124">
         <v>27</v>
@@ -3457,16 +3745,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-76.861</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1352.234</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1352.234</v>
       </c>
       <c r="E125">
         <v>28</v>
@@ -3477,16 +3765,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-44.499</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1979.338</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1979.338</v>
       </c>
       <c r="E126">
         <v>29</v>
@@ -3497,16 +3785,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>-61.873</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2103.379</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>2103.379</v>
       </c>
       <c r="E127">
         <v>30</v>
@@ -3517,16 +3805,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-68.883</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>2097.142</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2097.142</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -3537,16 +3825,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-57.162</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1932.325</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1932.325</v>
       </c>
       <c r="E129">
         <v>32</v>
@@ -3557,16 +3845,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>-70.277</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1767.954</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1767.954</v>
       </c>
       <c r="E130">
         <v>33</v>
@@ -3577,16 +3865,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-37.537</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1757.156</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1757.156</v>
       </c>
       <c r="E131">
         <v>34</v>
@@ -3597,16 +3885,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-21.519</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1839.55</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1839.55</v>
       </c>
       <c r="E132">
         <v>35</v>
@@ -3617,16 +3905,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-30.054</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1682.778</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1682.778</v>
       </c>
       <c r="E133">
         <v>36</v>
@@ -3637,16 +3925,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>-26.184</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1325.915</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1325.915</v>
       </c>
       <c r="E134">
         <v>37</v>
@@ -3657,16 +3945,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>-26.278</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1335.298</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1335.298</v>
       </c>
       <c r="E135">
         <v>38</v>
@@ -3677,16 +3965,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>-15.599</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>978.502</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>978.502</v>
       </c>
       <c r="E136">
         <v>39</v>
@@ -3697,16 +3985,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>5.369</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>327.368</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>327.368</v>
       </c>
       <c r="E137">
         <v>40</v>
@@ -3717,16 +4005,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="2">
-        <v>45932.41666666666</v>
+        <v>45945.41666666666</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>17.135</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>342.685</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>342.685</v>
       </c>
       <c r="E138">
         <v>41</v>
@@ -3737,16 +4025,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="2">
-        <v>45932.42708333334</v>
+        <v>45945.42708333334</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>14.115</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="E139">
         <v>42</v>
@@ -3757,16 +4045,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2">
-        <v>45932.4375</v>
+        <v>45945.4375</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>23.885</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>279.609</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>279.609</v>
       </c>
       <c r="E140">
         <v>43</v>
@@ -3777,16 +4065,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="2">
-        <v>45932.44791666666</v>
+        <v>45945.44791666666</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>44.641</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>10.268</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>10.268</v>
       </c>
       <c r="E141">
         <v>44</v>
@@ -3797,16 +4085,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2">
-        <v>45932.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>40.522</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>296.412</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>296.412</v>
       </c>
       <c r="E142">
         <v>45</v>
@@ -3817,16 +4105,16 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="2">
-        <v>45932.46875</v>
+        <v>45945.46875</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>44.186</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>322.003</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>322.003</v>
       </c>
       <c r="E143">
         <v>46</v>
@@ -3837,16 +4125,16 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2">
-        <v>45932.47916666666</v>
+        <v>45945.47916666666</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>34.911</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>264.658</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>264.658</v>
       </c>
       <c r="E144">
         <v>47</v>
@@ -3857,16 +4145,16 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="2">
-        <v>45932.48958333334</v>
+        <v>45945.48958333334</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>44.699</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>186.225</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>186.225</v>
       </c>
       <c r="E145">
         <v>48</v>
@@ -3877,16 +4165,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2">
-        <v>45932.5</v>
+        <v>45945.5</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>44.839</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>136.671</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>136.671</v>
       </c>
       <c r="E146">
         <v>49</v>
@@ -3897,16 +4185,16 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="2">
-        <v>45932.51041666666</v>
+        <v>45945.51041666666</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>2.069</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>346.71</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>346.71</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -3917,16 +4205,16 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2">
-        <v>45932.52083333334</v>
+        <v>45945.52083333334</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>10.448</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>205.092</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>205.092</v>
       </c>
       <c r="E148">
         <v>51</v>
@@ -3937,16 +4225,16 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="2">
-        <v>45932.53125</v>
+        <v>45945.53125</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>-6.575</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>244.425</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>244.425</v>
       </c>
       <c r="E149">
         <v>52</v>
@@ -3957,16 +4245,16 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="2">
-        <v>45932.54166666666</v>
+        <v>45945.54166666666</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1.137</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>394.136</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>394.136</v>
       </c>
       <c r="E150">
         <v>53</v>
@@ -3977,16 +4265,16 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="2">
-        <v>45932.55208333334</v>
+        <v>45945.55208333334</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-6.391</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="E151">
         <v>54</v>
@@ -3997,10 +4285,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="2">
-        <v>45932.5625</v>
+        <v>45945.5625</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>-24.415</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4017,16 +4305,16 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2">
-        <v>45932.57291666666</v>
+        <v>45945.57291666666</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>-12.496</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1869.706</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>1869.706</v>
       </c>
       <c r="E153">
         <v>56</v>
@@ -4037,16 +4325,16 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="2">
-        <v>45932.58333333334</v>
+        <v>45945.58333333334</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>0.609</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="E154">
         <v>57</v>
@@ -4057,16 +4345,16 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2">
-        <v>45932.59375</v>
+        <v>45945.59375</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>-2.597</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>720.651</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>720.651</v>
       </c>
       <c r="E155">
         <v>58</v>
@@ -4077,16 +4365,16 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="2">
-        <v>45932.60416666666</v>
+        <v>45945.60416666666</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>-13.118</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>874.184</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>874.184</v>
       </c>
       <c r="E156">
         <v>59</v>
@@ -4097,16 +4385,16 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2">
-        <v>45932.61458333334</v>
+        <v>45945.61458333334</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>7.404</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="E157">
         <v>60</v>
@@ -4117,10 +4405,10 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="2">
-        <v>45932.625</v>
+        <v>45945.625</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>30.88</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4137,10 +4425,10 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="2">
-        <v>45932.63541666666</v>
+        <v>45945.63541666666</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>19.886</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4157,10 +4445,10 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="2">
-        <v>45932.64583333334</v>
+        <v>45945.64583333334</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>51.744</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4177,16 +4465,16 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2">
-        <v>45932.65625</v>
+        <v>45945.65625</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>-8.324</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>580.3579999999999</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>580.3579999999999</v>
       </c>
       <c r="E161">
         <v>64</v>
@@ -4197,16 +4485,16 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2">
-        <v>45932.66666666666</v>
+        <v>45945.66666666666</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>-0.772</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>592.8049999999999</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>592.8049999999999</v>
       </c>
       <c r="E162">
         <v>65</v>
@@ -4217,16 +4505,16 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2">
-        <v>45932.67708333334</v>
+        <v>45945.67708333334</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>-16.896</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1203.941</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>1203.941</v>
       </c>
       <c r="E163">
         <v>66</v>
@@ -4237,16 +4525,16 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2">
-        <v>45932.6875</v>
+        <v>45945.6875</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>-36.141</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>2907.172</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>2907.172</v>
       </c>
       <c r="E164">
         <v>67</v>
@@ -4257,16 +4545,16 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2">
-        <v>45932.69791666666</v>
+        <v>45945.69791666666</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>-48.807</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>4120.957</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>4120.957</v>
       </c>
       <c r="E165">
         <v>68</v>
@@ -4277,16 +4565,16 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2">
-        <v>45932.70833333334</v>
+        <v>45945.70833333334</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>-43.514</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1427.152</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1427.152</v>
       </c>
       <c r="E166">
         <v>69</v>
@@ -4297,16 +4585,16 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2">
-        <v>45932.71875</v>
+        <v>45945.71875</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>-46.958</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1692.314</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1692.314</v>
       </c>
       <c r="E167">
         <v>70</v>
@@ -4317,16 +4605,16 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2">
-        <v>45932.72916666666</v>
+        <v>45945.72916666666</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>-56.236</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1616.79</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1616.79</v>
       </c>
       <c r="E168">
         <v>71</v>
@@ -4337,16 +4625,16 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2">
-        <v>45932.73958333334</v>
+        <v>45945.73958333334</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>3.672</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="E169">
         <v>72</v>
@@ -4357,16 +4645,16 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2">
-        <v>45932.75</v>
+        <v>45945.75</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>-23.031</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>2208.356</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>2208.356</v>
       </c>
       <c r="E170">
         <v>73</v>
@@ -4377,16 +4665,16 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2">
-        <v>45932.76041666666</v>
+        <v>45945.76041666666</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>-1.409</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>2209.332</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>2209.332</v>
       </c>
       <c r="E171">
         <v>74</v>
@@ -4397,16 +4685,16 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2">
-        <v>45932.77083333334</v>
+        <v>45945.77083333334</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>2.429</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>400.708</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>400.708</v>
       </c>
       <c r="E172">
         <v>75</v>
@@ -4417,16 +4705,16 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2">
-        <v>45932.78125</v>
+        <v>45945.78125</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-14.954</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>2202.834</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>2202.834</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -4437,16 +4725,16 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2">
-        <v>45932.79166666666</v>
+        <v>45945.79166666666</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>-22.524</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>5218.154</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>5218.154</v>
       </c>
       <c r="E174">
         <v>77</v>
@@ -4457,16 +4745,16 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2">
-        <v>45932.80208333334</v>
+        <v>45945.80208333334</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>-6.91</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>4802.568</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>4802.568</v>
       </c>
       <c r="E175">
         <v>78</v>
@@ -4477,16 +4765,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2">
-        <v>45932.8125</v>
+        <v>45945.8125</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>-6.279</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>2389.911</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>2389.911</v>
       </c>
       <c r="E176">
         <v>79</v>
@@ -4497,16 +4785,16 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2">
-        <v>45932.82291666666</v>
+        <v>45945.82291666666</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>-1.978</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>2028.646</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>2028.646</v>
       </c>
       <c r="E177">
         <v>80</v>
@@ -4517,16 +4805,16 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2">
-        <v>45932.83333333334</v>
+        <v>45945.83333333334</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>5.243</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1846.551</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1846.551</v>
       </c>
       <c r="E178">
         <v>81</v>
@@ -4537,16 +4825,16 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2">
-        <v>45932.84375</v>
+        <v>45945.84375</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1846.672</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1846.672</v>
       </c>
       <c r="E179">
         <v>82</v>
@@ -4557,16 +4845,16 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2">
-        <v>45932.85416666666</v>
+        <v>45945.85416666666</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1798.189</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1798.189</v>
       </c>
       <c r="E180">
         <v>83</v>
@@ -4577,16 +4865,16 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2">
-        <v>45932.86458333334</v>
+        <v>45945.86458333334</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>37.894</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>337.745</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>337.745</v>
       </c>
       <c r="E181">
         <v>84</v>
@@ -4597,16 +4885,16 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2">
-        <v>45932.875</v>
+        <v>45945.875</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>12.197</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>328.71</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>328.71</v>
       </c>
       <c r="E182">
         <v>85</v>
@@ -4617,16 +4905,16 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2">
-        <v>45932.88541666666</v>
+        <v>45945.88541666666</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>14.021</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>343.488</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>343.488</v>
       </c>
       <c r="E183">
         <v>86</v>
@@ -4637,16 +4925,16 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2">
-        <v>45932.89583333334</v>
+        <v>45945.89583333334</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>354.349</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>354.349</v>
       </c>
       <c r="E184">
         <v>87</v>
@@ -4657,16 +4945,16 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2">
-        <v>45932.90625</v>
+        <v>45945.90625</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>43.042</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>326.095</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>326.095</v>
       </c>
       <c r="E185">
         <v>88</v>
@@ -4677,16 +4965,16 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2">
-        <v>45932.91666666666</v>
+        <v>45945.91666666666</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>66.107</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>337.261</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>337.261</v>
       </c>
       <c r="E186">
         <v>89</v>
@@ -4697,16 +4985,16 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2">
-        <v>45932.92708333334</v>
+        <v>45945.92708333334</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>65.202</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>362.134</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>362.134</v>
       </c>
       <c r="E187">
         <v>90</v>
@@ -4717,16 +5005,16 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2">
-        <v>45932.9375</v>
+        <v>45945.9375</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>28.888</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="E188">
         <v>91</v>
@@ -4737,16 +5025,16 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2">
-        <v>45932.94791666666</v>
+        <v>45945.94791666666</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>17.803</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>379.17</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>379.17</v>
       </c>
       <c r="E189">
         <v>92</v>
@@ -4757,16 +5045,16 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2">
-        <v>45932.95833333334</v>
+        <v>45945.95833333334</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-3.071</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>801.838</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>801.838</v>
       </c>
       <c r="E190">
         <v>93</v>
@@ -4777,16 +5065,16 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2">
-        <v>45932.96875</v>
+        <v>45945.96875</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>-23.128</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>790.212</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>790.212</v>
       </c>
       <c r="E191">
         <v>94</v>
@@ -4797,16 +5085,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2">
-        <v>45932.97916666666</v>
+        <v>45945.97916666666</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>-23.863</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>953.442</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>953.442</v>
       </c>
       <c r="E192">
         <v>95</v>
@@ -4817,22 +5105,1942 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2">
-        <v>45932.98958333334</v>
+        <v>45945.98958333334</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>-21.273</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>846.1420000000001</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>846.1420000000001</v>
       </c>
       <c r="E193">
         <v>96</v>
       </c>
       <c r="F193" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B194">
+        <v>-54.642</v>
+      </c>
+      <c r="C194">
+        <v>837.687</v>
+      </c>
+      <c r="D194">
+        <v>837.687</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>-36.103</v>
+      </c>
+      <c r="C195">
+        <v>835.2910000000001</v>
+      </c>
+      <c r="D195">
+        <v>835.2910000000001</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>-69.652</v>
+      </c>
+      <c r="C196">
+        <v>930.603</v>
+      </c>
+      <c r="D196">
+        <v>930.603</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B197">
+        <v>-52.454</v>
+      </c>
+      <c r="C197">
+        <v>741.808</v>
+      </c>
+      <c r="D197">
+        <v>741.808</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>-71.41</v>
+      </c>
+      <c r="C198">
+        <v>783.843</v>
+      </c>
+      <c r="D198">
+        <v>783.843</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>-37.912</v>
+      </c>
+      <c r="C199">
+        <v>650</v>
+      </c>
+      <c r="D199">
+        <v>650</v>
+      </c>
+      <c r="E199">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B200">
+        <v>-31.626</v>
+      </c>
+      <c r="C200">
+        <v>769.986</v>
+      </c>
+      <c r="D200">
+        <v>769.986</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>-21.568</v>
+      </c>
+      <c r="C201">
+        <v>799.687</v>
+      </c>
+      <c r="D201">
+        <v>799.687</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>-7.681</v>
+      </c>
+      <c r="C202">
+        <v>799.659</v>
+      </c>
+      <c r="D202">
+        <v>799.659</v>
+      </c>
+      <c r="E202">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B203">
+        <v>-18.237</v>
+      </c>
+      <c r="C203">
+        <v>799.635</v>
+      </c>
+      <c r="D203">
+        <v>799.635</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>-30.995</v>
+      </c>
+      <c r="C204">
+        <v>851.611</v>
+      </c>
+      <c r="D204">
+        <v>851.611</v>
+      </c>
+      <c r="E204">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>-42.659</v>
+      </c>
+      <c r="C205">
+        <v>926.845</v>
+      </c>
+      <c r="D205">
+        <v>926.845</v>
+      </c>
+      <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B206">
+        <v>-23.299</v>
+      </c>
+      <c r="C206">
+        <v>839.269</v>
+      </c>
+      <c r="D206">
+        <v>839.269</v>
+      </c>
+      <c r="E206">
+        <v>13</v>
+      </c>
+      <c r="F206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>-45.213</v>
+      </c>
+      <c r="C207">
+        <v>883.723</v>
+      </c>
+      <c r="D207">
+        <v>883.723</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>-36.504</v>
+      </c>
+      <c r="C208">
+        <v>748.158</v>
+      </c>
+      <c r="D208">
+        <v>748.158</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+      <c r="F208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B209">
+        <v>-51.312</v>
+      </c>
+      <c r="C209">
+        <v>770.9640000000001</v>
+      </c>
+      <c r="D209">
+        <v>770.9640000000001</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>-19.317</v>
+      </c>
+      <c r="C210">
+        <v>801.178</v>
+      </c>
+      <c r="D210">
+        <v>801.178</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+      <c r="F210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>-46.81</v>
+      </c>
+      <c r="C211">
+        <v>789.033</v>
+      </c>
+      <c r="D211">
+        <v>789.033</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B212">
+        <v>-42.277</v>
+      </c>
+      <c r="C212">
+        <v>884.158</v>
+      </c>
+      <c r="D212">
+        <v>884.158</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>-49.014</v>
+      </c>
+      <c r="C213">
+        <v>918.712</v>
+      </c>
+      <c r="D213">
+        <v>918.712</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>4.6</v>
+      </c>
+      <c r="C214">
+        <v>256.471</v>
+      </c>
+      <c r="D214">
+        <v>256.471</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B215">
+        <v>-20.331</v>
+      </c>
+      <c r="C215">
+        <v>818.574</v>
+      </c>
+      <c r="D215">
+        <v>818.574</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>-30.795</v>
+      </c>
+      <c r="C216">
+        <v>2171.938</v>
+      </c>
+      <c r="D216">
+        <v>2171.938</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+      <c r="F216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>-64.145</v>
+      </c>
+      <c r="C217">
+        <v>1029.1</v>
+      </c>
+      <c r="D217">
+        <v>1029.1</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+      <c r="F217" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B218">
+        <v>-41.893</v>
+      </c>
+      <c r="C218">
+        <v>1216.615</v>
+      </c>
+      <c r="D218">
+        <v>1216.615</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>-61.986</v>
+      </c>
+      <c r="C219">
+        <v>1323.736</v>
+      </c>
+      <c r="D219">
+        <v>1323.736</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+      <c r="F219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>-95.255</v>
+      </c>
+      <c r="C220">
+        <v>2028.002</v>
+      </c>
+      <c r="D220">
+        <v>2028.002</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B221">
+        <v>-88.94199999999999</v>
+      </c>
+      <c r="C221">
+        <v>1679.116</v>
+      </c>
+      <c r="D221">
+        <v>1679.116</v>
+      </c>
+      <c r="E221">
+        <v>28</v>
+      </c>
+      <c r="F221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>-126.084</v>
+      </c>
+      <c r="C222">
+        <v>3311.005</v>
+      </c>
+      <c r="D222">
+        <v>3311.005</v>
+      </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>-111.424</v>
+      </c>
+      <c r="C223">
+        <v>2040.102</v>
+      </c>
+      <c r="D223">
+        <v>2040.102</v>
+      </c>
+      <c r="E223">
+        <v>30</v>
+      </c>
+      <c r="F223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B224">
+        <v>-128.747</v>
+      </c>
+      <c r="C224">
+        <v>1911.929</v>
+      </c>
+      <c r="D224">
+        <v>1911.929</v>
+      </c>
+      <c r="E224">
+        <v>31</v>
+      </c>
+      <c r="F224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>-98.09699999999999</v>
+      </c>
+      <c r="C225">
+        <v>1864.505</v>
+      </c>
+      <c r="D225">
+        <v>1864.505</v>
+      </c>
+      <c r="E225">
+        <v>32</v>
+      </c>
+      <c r="F225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>-162.511</v>
+      </c>
+      <c r="C226">
+        <v>1259.566</v>
+      </c>
+      <c r="D226">
+        <v>1259.566</v>
+      </c>
+      <c r="E226">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B227">
+        <v>-111.448</v>
+      </c>
+      <c r="C227">
+        <v>1228.472</v>
+      </c>
+      <c r="D227">
+        <v>1228.472</v>
+      </c>
+      <c r="E227">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>-98.196</v>
+      </c>
+      <c r="C228">
+        <v>1217.602</v>
+      </c>
+      <c r="D228">
+        <v>1217.602</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>-87.623</v>
+      </c>
+      <c r="C229">
+        <v>1214.21</v>
+      </c>
+      <c r="D229">
+        <v>1214.21</v>
+      </c>
+      <c r="E229">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B230">
+        <v>-155.315</v>
+      </c>
+      <c r="C230">
+        <v>2235.08</v>
+      </c>
+      <c r="D230">
+        <v>2235.08</v>
+      </c>
+      <c r="E230">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>-158.539</v>
+      </c>
+      <c r="C231">
+        <v>4332.307</v>
+      </c>
+      <c r="D231">
+        <v>4332.307</v>
+      </c>
+      <c r="E231">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>-121.01</v>
+      </c>
+      <c r="C232">
+        <v>6923.58</v>
+      </c>
+      <c r="D232">
+        <v>6923.58</v>
+      </c>
+      <c r="E232">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B233">
+        <v>-124.215</v>
+      </c>
+      <c r="C233">
+        <v>1471.722</v>
+      </c>
+      <c r="D233">
+        <v>1471.722</v>
+      </c>
+      <c r="E233">
+        <v>40</v>
+      </c>
+      <c r="F233" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>-171.919</v>
+      </c>
+      <c r="C234">
+        <v>931.715</v>
+      </c>
+      <c r="D234">
+        <v>931.715</v>
+      </c>
+      <c r="E234">
+        <v>41</v>
+      </c>
+      <c r="F234" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>-144.218</v>
+      </c>
+      <c r="C235">
+        <v>933.321</v>
+      </c>
+      <c r="D235">
+        <v>933.321</v>
+      </c>
+      <c r="E235">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>45946.4375</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>43</v>
+      </c>
+      <c r="F236" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>45946.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>45946.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>45</v>
+      </c>
+      <c r="F238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>45946.46875</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>46</v>
+      </c>
+      <c r="F239" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>45946.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>47</v>
+      </c>
+      <c r="F240" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>45946.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>45946.5</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>49</v>
+      </c>
+      <c r="F242" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>45946.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>45946.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>51</v>
+      </c>
+      <c r="F244" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>45946.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>52</v>
+      </c>
+      <c r="F245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>45946.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>53</v>
+      </c>
+      <c r="F246" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>45946.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>54</v>
+      </c>
+      <c r="F247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>45946.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>55</v>
+      </c>
+      <c r="F248" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>45946.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>56</v>
+      </c>
+      <c r="F249" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>45946.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>45946.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>58</v>
+      </c>
+      <c r="F251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>45946.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>59</v>
+      </c>
+      <c r="F252" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>45946.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>60</v>
+      </c>
+      <c r="F253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>45946.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>45946.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>62</v>
+      </c>
+      <c r="F255" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>45946.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>63</v>
+      </c>
+      <c r="F256" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>45946.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>64</v>
+      </c>
+      <c r="F257" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>45946.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>65</v>
+      </c>
+      <c r="F258" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>45946.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>66</v>
+      </c>
+      <c r="F259" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>45946.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>67</v>
+      </c>
+      <c r="F260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>45946.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>68</v>
+      </c>
+      <c r="F261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>45946.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>69</v>
+      </c>
+      <c r="F262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>45946.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>45946.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>45946.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>72</v>
+      </c>
+      <c r="F265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>45946.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>73</v>
+      </c>
+      <c r="F266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>45946.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>74</v>
+      </c>
+      <c r="F267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>45946.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>75</v>
+      </c>
+      <c r="F268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>45946.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>76</v>
+      </c>
+      <c r="F269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>45946.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>77</v>
+      </c>
+      <c r="F270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>45946.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>78</v>
+      </c>
+      <c r="F271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>45946.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>79</v>
+      </c>
+      <c r="F272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>45946.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>45946.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>81</v>
+      </c>
+      <c r="F274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>45946.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>82</v>
+      </c>
+      <c r="F275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>45946.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>83</v>
+      </c>
+      <c r="F276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>45946.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>84</v>
+      </c>
+      <c r="F277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>45946.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>45946.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>45946.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>87</v>
+      </c>
+      <c r="F280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>45946.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>88</v>
+      </c>
+      <c r="F281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>45946.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>89</v>
+      </c>
+      <c r="F282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>45946.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>90</v>
+      </c>
+      <c r="F283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>45946.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>91</v>
+      </c>
+      <c r="F284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>45946.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>92</v>
+      </c>
+      <c r="F285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>45946.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>93</v>
+      </c>
+      <c r="F286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>45946.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>94</v>
+      </c>
+      <c r="F287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>45946.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>95</v>
+      </c>
+      <c r="F288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>45946.98958333334</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>96</v>
+      </c>
+      <c r="F289" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/Imbalance_Historical.xlsx
+++ b/data_fetching/Entsoe/Imbalance_Historical.xlsx
@@ -34,580 +34,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>23.10.202593</t>
-  </si>
-  <si>
-    <t>23.10.202594</t>
-  </si>
-  <si>
-    <t>23.10.202595</t>
-  </si>
-  <si>
-    <t>23.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
-  </si>
-  <si>
-    <t>24.10.202528</t>
-  </si>
-  <si>
-    <t>24.10.202529</t>
-  </si>
-  <si>
-    <t>24.10.202530</t>
-  </si>
-  <si>
-    <t>24.10.202531</t>
-  </si>
-  <si>
-    <t>24.10.202532</t>
-  </si>
-  <si>
-    <t>24.10.202533</t>
-  </si>
-  <si>
-    <t>24.10.202534</t>
-  </si>
-  <si>
-    <t>24.10.202535</t>
-  </si>
-  <si>
-    <t>24.10.202536</t>
-  </si>
-  <si>
-    <t>24.10.202537</t>
-  </si>
-  <si>
-    <t>24.10.202538</t>
-  </si>
-  <si>
-    <t>24.10.202539</t>
-  </si>
-  <si>
-    <t>24.10.202540</t>
-  </si>
-  <si>
-    <t>24.10.202541</t>
-  </si>
-  <si>
-    <t>24.10.202542</t>
-  </si>
-  <si>
-    <t>24.10.202543</t>
-  </si>
-  <si>
-    <t>24.10.202544</t>
-  </si>
-  <si>
-    <t>24.10.202545</t>
-  </si>
-  <si>
-    <t>24.10.202546</t>
-  </si>
-  <si>
-    <t>24.10.202547</t>
-  </si>
-  <si>
-    <t>24.10.202548</t>
-  </si>
-  <si>
-    <t>24.10.202549</t>
-  </si>
-  <si>
-    <t>24.10.202550</t>
-  </si>
-  <si>
-    <t>24.10.202551</t>
-  </si>
-  <si>
-    <t>24.10.202552</t>
-  </si>
-  <si>
-    <t>24.10.202553</t>
-  </si>
-  <si>
-    <t>24.10.202554</t>
-  </si>
-  <si>
-    <t>24.10.202555</t>
-  </si>
-  <si>
-    <t>24.10.202556</t>
-  </si>
-  <si>
-    <t>24.10.202557</t>
-  </si>
-  <si>
-    <t>24.10.202558</t>
-  </si>
-  <si>
-    <t>24.10.202559</t>
-  </si>
-  <si>
-    <t>24.10.202560</t>
-  </si>
-  <si>
-    <t>24.10.202561</t>
-  </si>
-  <si>
-    <t>24.10.202562</t>
-  </si>
-  <si>
-    <t>24.10.202563</t>
-  </si>
-  <si>
-    <t>24.10.202564</t>
-  </si>
-  <si>
-    <t>24.10.202565</t>
-  </si>
-  <si>
-    <t>24.10.202566</t>
-  </si>
-  <si>
-    <t>24.10.202567</t>
-  </si>
-  <si>
-    <t>24.10.202568</t>
-  </si>
-  <si>
-    <t>24.10.202569</t>
-  </si>
-  <si>
-    <t>24.10.202570</t>
-  </si>
-  <si>
-    <t>24.10.202571</t>
-  </si>
-  <si>
-    <t>24.10.202572</t>
-  </si>
-  <si>
-    <t>24.10.202573</t>
-  </si>
-  <si>
-    <t>24.10.202574</t>
-  </si>
-  <si>
-    <t>24.10.202575</t>
-  </si>
-  <si>
-    <t>24.10.202576</t>
-  </si>
-  <si>
-    <t>24.10.202577</t>
-  </si>
-  <si>
-    <t>24.10.202578</t>
-  </si>
-  <si>
-    <t>24.10.202579</t>
-  </si>
-  <si>
-    <t>24.10.202580</t>
-  </si>
-  <si>
-    <t>24.10.202581</t>
-  </si>
-  <si>
-    <t>24.10.202582</t>
-  </si>
-  <si>
-    <t>24.10.202583</t>
-  </si>
-  <si>
-    <t>24.10.202584</t>
-  </si>
-  <si>
-    <t>24.10.202585</t>
-  </si>
-  <si>
-    <t>24.10.202586</t>
-  </si>
-  <si>
-    <t>24.10.202587</t>
-  </si>
-  <si>
-    <t>24.10.202588</t>
-  </si>
-  <si>
-    <t>24.10.202589</t>
-  </si>
-  <si>
-    <t>24.10.202590</t>
-  </si>
-  <si>
-    <t>24.10.202591</t>
-  </si>
-  <si>
-    <t>24.10.202592</t>
-  </si>
-  <si>
-    <t>24.10.202593</t>
-  </si>
-  <si>
-    <t>24.10.202594</t>
-  </si>
-  <si>
-    <t>24.10.202595</t>
-  </si>
-  <si>
-    <t>24.10.202596</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
   </si>
 </sst>
 </file>
@@ -997,16 +997,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>28.449</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-31.137</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-31.137</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>21.973</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>221.529</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>221.529</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1037,16 +1037,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.684</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>258.265</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>258.265</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-28.395</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1077,16 +1077,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>-26.696</v>
+        <v>9.097</v>
       </c>
       <c r="C6">
-        <v>1377.672</v>
+        <v>226.675</v>
       </c>
       <c r="D6">
-        <v>1377.672</v>
+        <v>226.675</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>-1.34</v>
+        <v>-55.765</v>
       </c>
       <c r="C7">
-        <v>795.409</v>
+        <v>642</v>
       </c>
       <c r="D7">
-        <v>795.409</v>
+        <v>642</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1117,16 +1117,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>-19.753</v>
+        <v>-91.464</v>
       </c>
       <c r="C8">
-        <v>858.6660000000001</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>858.6660000000001</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>-9.026</v>
+        <v>-155.566</v>
       </c>
       <c r="C9">
-        <v>796.915</v>
+        <v>760.784</v>
       </c>
       <c r="D9">
-        <v>796.915</v>
+        <v>760.784</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>12.653</v>
+        <v>-129.762</v>
       </c>
       <c r="C10">
-        <v>339.237</v>
+        <v>6734.53</v>
       </c>
       <c r="D10">
-        <v>339.237</v>
+        <v>6734.53</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1177,16 +1177,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>-20.178</v>
+        <v>-125.949</v>
       </c>
       <c r="C11">
-        <v>795.02</v>
+        <v>4272.744</v>
       </c>
       <c r="D11">
-        <v>795.02</v>
+        <v>4272.744</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>-28.39</v>
+        <v>-102.913</v>
       </c>
       <c r="C12">
-        <v>883.475</v>
+        <v>1293.656</v>
       </c>
       <c r="D12">
-        <v>883.475</v>
+        <v>1293.656</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1217,16 +1217,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>-19.154</v>
+        <v>-117.49</v>
       </c>
       <c r="C13">
-        <v>798.035</v>
+        <v>4055.849</v>
       </c>
       <c r="D13">
-        <v>798.035</v>
+        <v>4055.849</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>-20.586</v>
+        <v>-110.752</v>
       </c>
       <c r="C14">
-        <v>809.567</v>
+        <v>4638.24</v>
       </c>
       <c r="D14">
-        <v>809.567</v>
+        <v>4638.24</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>-38.231</v>
+        <v>-114.071</v>
       </c>
       <c r="C15">
-        <v>834.001</v>
+        <v>3964.308</v>
       </c>
       <c r="D15">
-        <v>834.001</v>
+        <v>3964.308</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>-60.779</v>
+        <v>-180.459</v>
       </c>
       <c r="C16">
-        <v>1875.36</v>
+        <v>5270.444</v>
       </c>
       <c r="D16">
-        <v>1875.36</v>
+        <v>5270.444</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>-53.286</v>
+        <v>-141.69</v>
       </c>
       <c r="C17">
-        <v>4317.264</v>
+        <v>3516.776</v>
       </c>
       <c r="D17">
-        <v>4317.264</v>
+        <v>3516.776</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>-76.578</v>
+        <v>-82.492</v>
       </c>
       <c r="C18">
-        <v>1381.47</v>
+        <v>920.627</v>
       </c>
       <c r="D18">
-        <v>1381.47</v>
+        <v>920.627</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>-84.752</v>
+        <v>-69.371</v>
       </c>
       <c r="C19">
-        <v>802.811</v>
+        <v>927.173</v>
       </c>
       <c r="D19">
-        <v>802.811</v>
+        <v>927.173</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>-70.411</v>
+        <v>-95.497</v>
       </c>
       <c r="C20">
-        <v>913.826</v>
+        <v>925.65</v>
       </c>
       <c r="D20">
-        <v>913.826</v>
+        <v>925.65</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>-39.539</v>
+        <v>-52.698</v>
       </c>
       <c r="C21">
-        <v>915.355</v>
+        <v>929.21</v>
       </c>
       <c r="D21">
-        <v>915.355</v>
+        <v>929.21</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
-        <v>-12.76</v>
+        <v>-0.983</v>
       </c>
       <c r="C22">
-        <v>1054.01</v>
+        <v>982.39</v>
       </c>
       <c r="D22">
-        <v>1054.01</v>
+        <v>982.39</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>-34.285</v>
+        <v>-5.054</v>
       </c>
       <c r="C23">
-        <v>5545.343</v>
+        <v>981.39</v>
       </c>
       <c r="D23">
-        <v>5545.343</v>
+        <v>981.39</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>-36.773</v>
+        <v>-20.946</v>
       </c>
       <c r="C24">
-        <v>5210.969</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>5210.969</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>-73.55200000000001</v>
+        <v>-27.431</v>
       </c>
       <c r="C25">
-        <v>3532.228</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3532.228</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1477,16 +1477,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>-55.188</v>
+        <v>48.075</v>
       </c>
       <c r="C26">
-        <v>2616.082</v>
+        <v>335.592</v>
       </c>
       <c r="D26">
-        <v>2616.082</v>
+        <v>335.592</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>-92.952</v>
+        <v>29.108</v>
       </c>
       <c r="C27">
-        <v>3714.815</v>
+        <v>401</v>
       </c>
       <c r="D27">
-        <v>3714.815</v>
+        <v>401</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>-91.703</v>
+        <v>-21.257</v>
       </c>
       <c r="C28">
-        <v>1833.422</v>
+        <v>1354.096</v>
       </c>
       <c r="D28">
-        <v>1833.422</v>
+        <v>1354.096</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>-94.214</v>
+        <v>-19.227</v>
       </c>
       <c r="C29">
-        <v>1328.71</v>
+        <v>928.022</v>
       </c>
       <c r="D29">
-        <v>1328.71</v>
+        <v>928.022</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1557,16 +1557,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>-88.768</v>
+        <v>4.828</v>
       </c>
       <c r="C30">
-        <v>1184.568</v>
+        <v>798.915</v>
       </c>
       <c r="D30">
-        <v>1184.568</v>
+        <v>798.915</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>-95.66200000000001</v>
+        <v>13.987</v>
       </c>
       <c r="C31">
-        <v>1188.601</v>
+        <v>400.286</v>
       </c>
       <c r="D31">
-        <v>1188.601</v>
+        <v>400.286</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>-79.56999999999999</v>
+        <v>29.408</v>
       </c>
       <c r="C32">
-        <v>1176.213</v>
+        <v>358.005</v>
       </c>
       <c r="D32">
-        <v>1176.213</v>
+        <v>358.005</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>-42.833</v>
+        <v>33.819</v>
       </c>
       <c r="C33">
-        <v>1188.212</v>
+        <v>322.573</v>
       </c>
       <c r="D33">
-        <v>1188.212</v>
+        <v>322.573</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>-118.386</v>
+        <v>56.366</v>
       </c>
       <c r="C34">
-        <v>1786.072</v>
+        <v>323.237</v>
       </c>
       <c r="D34">
-        <v>1786.072</v>
+        <v>323.237</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>-129.639</v>
+        <v>48.583</v>
       </c>
       <c r="C35">
-        <v>2717.793</v>
+        <v>319.033</v>
       </c>
       <c r="D35">
-        <v>2717.793</v>
+        <v>319.033</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>-133.613</v>
+        <v>24.034</v>
       </c>
       <c r="C36">
-        <v>1734.57</v>
+        <v>292.348</v>
       </c>
       <c r="D36">
-        <v>1734.57</v>
+        <v>292.348</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>-137.523</v>
+        <v>15.338</v>
       </c>
       <c r="C37">
-        <v>1569.409</v>
+        <v>257.58</v>
       </c>
       <c r="D37">
-        <v>1569.409</v>
+        <v>257.58</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>-217.96</v>
+        <v>-12.387</v>
       </c>
       <c r="C38">
-        <v>3888.358</v>
+        <v>823.558</v>
       </c>
       <c r="D38">
-        <v>3888.358</v>
+        <v>823.558</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>-133.347</v>
+        <v>-20.973</v>
       </c>
       <c r="C39">
-        <v>1132.135</v>
+        <v>792.0599999999999</v>
       </c>
       <c r="D39">
-        <v>1132.135</v>
+        <v>792.0599999999999</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1757,16 +1757,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>-86.783</v>
+        <v>14.044</v>
       </c>
       <c r="C40">
-        <v>1076.636</v>
+        <v>361.647</v>
       </c>
       <c r="D40">
-        <v>1076.636</v>
+        <v>361.647</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>-112.573</v>
+        <v>5.344</v>
       </c>
       <c r="C41">
-        <v>1173.591</v>
+        <v>400.929</v>
       </c>
       <c r="D41">
-        <v>1173.591</v>
+        <v>400.929</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1797,16 +1797,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>-135.285</v>
+        <v>18.223</v>
       </c>
       <c r="C42">
-        <v>984.699</v>
+        <v>817.0359999999999</v>
       </c>
       <c r="D42">
-        <v>984.699</v>
+        <v>817.0359999999999</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>-152.008</v>
+        <v>25.544</v>
       </c>
       <c r="C43">
-        <v>925.556</v>
+        <v>401</v>
       </c>
       <c r="D43">
-        <v>925.556</v>
+        <v>401</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1837,16 +1837,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>-115.394</v>
+        <v>-1.144</v>
       </c>
       <c r="C44">
-        <v>930.025</v>
+        <v>676.494</v>
       </c>
       <c r="D44">
-        <v>930.025</v>
+        <v>676.494</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>-104.842</v>
+        <v>19.31</v>
       </c>
       <c r="C45">
-        <v>1002.606</v>
+        <v>400.712</v>
       </c>
       <c r="D45">
-        <v>1002.606</v>
+        <v>400.712</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>-70.837</v>
+        <v>1.518</v>
       </c>
       <c r="C46">
-        <v>856.369</v>
+        <v>1433.559</v>
       </c>
       <c r="D46">
-        <v>856.369</v>
+        <v>1433.559</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>-48.077</v>
+        <v>-30.25</v>
       </c>
       <c r="C47">
-        <v>856.52</v>
+        <v>1383.726</v>
       </c>
       <c r="D47">
-        <v>856.52</v>
+        <v>1383.726</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>-53.319</v>
+        <v>-12.488</v>
       </c>
       <c r="C48">
-        <v>929.119</v>
+        <v>2185.573</v>
       </c>
       <c r="D48">
-        <v>929.119</v>
+        <v>2185.573</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>-37.149</v>
+        <v>-9.367000000000001</v>
       </c>
       <c r="C49">
-        <v>1164.314</v>
+        <v>1934.932</v>
       </c>
       <c r="D49">
-        <v>1164.314</v>
+        <v>1934.932</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -1957,16 +1957,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>45.288</v>
+        <v>-21.328</v>
       </c>
       <c r="C50">
-        <v>349.53</v>
+        <v>2835.524</v>
       </c>
       <c r="D50">
-        <v>349.53</v>
+        <v>2835.524</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>30.104</v>
+        <v>-39.432</v>
       </c>
       <c r="C51">
-        <v>245.741</v>
+        <v>1310.771</v>
       </c>
       <c r="D51">
-        <v>245.741</v>
+        <v>1310.771</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>30.07</v>
+        <v>-38.843</v>
       </c>
       <c r="C52">
-        <v>110.233</v>
+        <v>2204.686</v>
       </c>
       <c r="D52">
-        <v>110.233</v>
+        <v>2204.686</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>36.636</v>
+        <v>-72.288</v>
       </c>
       <c r="C53">
-        <v>-120.695</v>
+        <v>900.944</v>
       </c>
       <c r="D53">
-        <v>-120.695</v>
+        <v>900.944</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>65.46599999999999</v>
+        <v>17.955</v>
       </c>
       <c r="C54">
-        <v>-4.527</v>
+        <v>385.79</v>
       </c>
       <c r="D54">
-        <v>-4.527</v>
+        <v>385.79</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
-        <v>105.958</v>
+        <v>21.028</v>
       </c>
       <c r="C55">
-        <v>7.07</v>
+        <v>401</v>
       </c>
       <c r="D55">
-        <v>7.07</v>
+        <v>401</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
-        <v>97.105</v>
+        <v>7.379</v>
       </c>
       <c r="C56">
-        <v>22.381</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>22.381</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2097,16 +2097,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
-        <v>72.729</v>
+        <v>-1.32</v>
       </c>
       <c r="C57">
-        <v>52.113</v>
+        <v>931.155</v>
       </c>
       <c r="D57">
-        <v>52.113</v>
+        <v>931.155</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>20.331</v>
+        <v>64.60299999999999</v>
       </c>
       <c r="C58">
-        <v>27.331</v>
+        <v>359.13</v>
       </c>
       <c r="D58">
-        <v>27.331</v>
+        <v>359.13</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>6.191</v>
+        <v>47.882</v>
       </c>
       <c r="C59">
-        <v>0.2</v>
+        <v>401</v>
       </c>
       <c r="D59">
-        <v>0.2</v>
+        <v>401</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>21.379</v>
+        <v>25.299</v>
       </c>
       <c r="C60">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -2177,16 +2177,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>13.806</v>
+        <v>-7.402</v>
       </c>
       <c r="C61">
-        <v>289.458</v>
+        <v>1034.133</v>
       </c>
       <c r="D61">
-        <v>289.458</v>
+        <v>1034.133</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>10.559</v>
+        <v>3.619</v>
       </c>
       <c r="C62">
-        <v>321.205</v>
+        <v>401</v>
       </c>
       <c r="D62">
-        <v>321.205</v>
+        <v>401</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -2217,16 +2217,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>-13.626</v>
+        <v>31.041</v>
       </c>
       <c r="C63">
-        <v>777.193</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>777.193</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>-4.384</v>
+        <v>-15.345</v>
       </c>
       <c r="C64">
-        <v>796.049</v>
+        <v>1511.974</v>
       </c>
       <c r="D64">
-        <v>796.049</v>
+        <v>1511.974</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>-10.59</v>
+        <v>-36.592</v>
       </c>
       <c r="C65">
-        <v>795.168</v>
+        <v>1518.874</v>
       </c>
       <c r="D65">
-        <v>795.168</v>
+        <v>1518.874</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -2277,16 +2277,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>57.948</v>
+        <v>-15.248</v>
       </c>
       <c r="C66">
-        <v>362.609</v>
+        <v>1714.806</v>
       </c>
       <c r="D66">
-        <v>362.609</v>
+        <v>1714.806</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -2297,16 +2297,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>-9.550000000000001</v>
+        <v>-58.802</v>
       </c>
       <c r="C67">
-        <v>1022.627</v>
+        <v>2667.998</v>
       </c>
       <c r="D67">
-        <v>1022.627</v>
+        <v>2667.998</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -2317,16 +2317,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>-11.394</v>
+        <v>-55.472</v>
       </c>
       <c r="C68">
-        <v>1023.725</v>
+        <v>3948.375</v>
       </c>
       <c r="D68">
-        <v>1023.725</v>
+        <v>3948.375</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>-19.697</v>
+        <v>-44.039</v>
       </c>
       <c r="C69">
-        <v>1138.132</v>
+        <v>1971.144</v>
       </c>
       <c r="D69">
-        <v>1138.132</v>
+        <v>1971.144</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -2357,16 +2357,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>-21.701</v>
+        <v>-53.004</v>
       </c>
       <c r="C70">
-        <v>1094.31</v>
+        <v>2094.239</v>
       </c>
       <c r="D70">
-        <v>1094.31</v>
+        <v>2094.239</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>-1.381</v>
+        <v>-47.819</v>
       </c>
       <c r="C71">
-        <v>1094.262</v>
+        <v>2263.043</v>
       </c>
       <c r="D71">
-        <v>1094.262</v>
+        <v>2263.043</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -2397,16 +2397,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>20.787</v>
+        <v>-28.692</v>
       </c>
       <c r="C72">
-        <v>389.146</v>
+        <v>2146.153</v>
       </c>
       <c r="D72">
-        <v>389.146</v>
+        <v>2146.153</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>37.094</v>
+        <v>13.042</v>
       </c>
       <c r="C73">
-        <v>342.667</v>
+        <v>306.58</v>
       </c>
       <c r="D73">
-        <v>342.667</v>
+        <v>306.58</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>16.667</v>
+        <v>86.913</v>
       </c>
       <c r="C74">
-        <v>834.098</v>
+        <v>296.568</v>
       </c>
       <c r="D74">
-        <v>834.098</v>
+        <v>296.568</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>28.406</v>
+        <v>94.54900000000001</v>
       </c>
       <c r="C75">
-        <v>390</v>
+        <v>360.8</v>
       </c>
       <c r="D75">
-        <v>390</v>
+        <v>360.8</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>15.589</v>
+        <v>89.38800000000001</v>
       </c>
       <c r="C76">
-        <v>370.75</v>
+        <v>341.586</v>
       </c>
       <c r="D76">
-        <v>370.75</v>
+        <v>341.586</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>24.771</v>
+        <v>74.53100000000001</v>
       </c>
       <c r="C77">
-        <v>318.51</v>
+        <v>311.335</v>
       </c>
       <c r="D77">
-        <v>318.51</v>
+        <v>311.335</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A7